--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.391584</v>
+        <v>0.594542</v>
       </c>
       <c r="C2" t="n">
-        <v>0.392598</v>
+        <v>0.839118</v>
       </c>
       <c r="D2" t="n">
-        <v>0.382304</v>
+        <v>0.89174</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.380884</v>
+        <v>0.583859</v>
       </c>
       <c r="C3" t="n">
-        <v>0.385025</v>
+        <v>0.821565</v>
       </c>
       <c r="D3" t="n">
-        <v>0.37496</v>
+        <v>0.873478</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.373494</v>
+        <v>0.575288</v>
       </c>
       <c r="C4" t="n">
-        <v>0.378247</v>
+        <v>0.806396</v>
       </c>
       <c r="D4" t="n">
-        <v>0.369567</v>
+        <v>0.857315</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.36751</v>
+        <v>0.5681389999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.372957</v>
+        <v>0.792517</v>
       </c>
       <c r="D5" t="n">
-        <v>0.364991</v>
+        <v>0.842482</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.361405</v>
+        <v>0.5616100000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.368941</v>
+        <v>0.778883</v>
       </c>
       <c r="D6" t="n">
-        <v>0.36173</v>
+        <v>0.828321</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.356886</v>
+        <v>0.557284</v>
       </c>
       <c r="C7" t="n">
-        <v>0.365007</v>
+        <v>0.768081</v>
       </c>
       <c r="D7" t="n">
-        <v>0.359544</v>
+        <v>0.817179</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.353743</v>
+        <v>0.554525</v>
       </c>
       <c r="C8" t="n">
-        <v>0.363047</v>
+        <v>0.758757</v>
       </c>
       <c r="D8" t="n">
-        <v>0.359659</v>
+        <v>0.809347</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.352371</v>
+        <v>0.554427</v>
       </c>
       <c r="C9" t="n">
-        <v>0.363004</v>
+        <v>0.752271</v>
       </c>
       <c r="D9" t="n">
-        <v>0.470035</v>
+        <v>1.07956</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.465872</v>
+        <v>0.700224</v>
       </c>
       <c r="C10" t="n">
-        <v>0.484264</v>
+        <v>0.991478</v>
       </c>
       <c r="D10" t="n">
-        <v>0.464697</v>
+        <v>1.05833</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.455071</v>
+        <v>0.684573</v>
       </c>
       <c r="C11" t="n">
-        <v>0.472942</v>
+        <v>0.967449</v>
       </c>
       <c r="D11" t="n">
-        <v>0.453685</v>
+        <v>1.03136</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.444348</v>
+        <v>0.669506</v>
       </c>
       <c r="C12" t="n">
-        <v>0.462494</v>
+        <v>0.944444</v>
       </c>
       <c r="D12" t="n">
-        <v>0.44359</v>
+        <v>1.00606</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.434172</v>
+        <v>0.655148</v>
       </c>
       <c r="C13" t="n">
-        <v>0.451761</v>
+        <v>0.92228</v>
       </c>
       <c r="D13" t="n">
-        <v>0.433379</v>
+        <v>0.981752</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.424406</v>
+        <v>0.641863</v>
       </c>
       <c r="C14" t="n">
-        <v>0.441275</v>
+        <v>0.901796</v>
       </c>
       <c r="D14" t="n">
-        <v>0.424468</v>
+        <v>0.9592309999999999</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.415113</v>
+        <v>0.6297469999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.431945</v>
+        <v>0.882228</v>
       </c>
       <c r="D15" t="n">
-        <v>0.415627</v>
+        <v>0.937548</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.406507</v>
+        <v>0.618358</v>
       </c>
       <c r="C16" t="n">
-        <v>0.42273</v>
+        <v>0.86354</v>
       </c>
       <c r="D16" t="n">
-        <v>0.407305</v>
+        <v>0.917355</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.398157</v>
+        <v>0.607611</v>
       </c>
       <c r="C17" t="n">
-        <v>0.414327</v>
+        <v>0.846129</v>
       </c>
       <c r="D17" t="n">
-        <v>0.40006</v>
+        <v>0.8982599999999999</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.390758</v>
+        <v>0.597688</v>
       </c>
       <c r="C18" t="n">
-        <v>0.407209</v>
+        <v>0.829975</v>
       </c>
       <c r="D18" t="n">
-        <v>0.393364</v>
+        <v>0.880432</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.383939</v>
+        <v>0.588907</v>
       </c>
       <c r="C19" t="n">
-        <v>0.400002</v>
+        <v>0.814916</v>
       </c>
       <c r="D19" t="n">
-        <v>0.387477</v>
+        <v>0.864596</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.377612</v>
+        <v>0.582136</v>
       </c>
       <c r="C20" t="n">
-        <v>0.393607</v>
+        <v>0.800686</v>
       </c>
       <c r="D20" t="n">
-        <v>0.382041</v>
+        <v>0.849373</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.371795</v>
+        <v>0.577375</v>
       </c>
       <c r="C21" t="n">
-        <v>0.388843</v>
+        <v>0.788331</v>
       </c>
       <c r="D21" t="n">
-        <v>0.378651</v>
+        <v>0.836629</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.368034</v>
+        <v>0.574458</v>
       </c>
       <c r="C22" t="n">
-        <v>0.385187</v>
+        <v>0.77779</v>
       </c>
       <c r="D22" t="n">
-        <v>0.377098</v>
+        <v>0.827026</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.366301</v>
+        <v>0.573736</v>
       </c>
       <c r="C23" t="n">
-        <v>0.383502</v>
+        <v>0.769688</v>
       </c>
       <c r="D23" t="n">
-        <v>0.49331</v>
+        <v>1.10595</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.481522</v>
+        <v>0.702911</v>
       </c>
       <c r="C24" t="n">
-        <v>0.457058</v>
+        <v>0.990292</v>
       </c>
       <c r="D24" t="n">
-        <v>0.441165</v>
+        <v>1.0777</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.470822</v>
+        <v>0.688739</v>
       </c>
       <c r="C25" t="n">
-        <v>0.447286</v>
+        <v>0.966985</v>
       </c>
       <c r="D25" t="n">
-        <v>0.432006</v>
+        <v>1.05041</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.459991</v>
+        <v>0.673304</v>
       </c>
       <c r="C26" t="n">
-        <v>0.439512</v>
+        <v>0.944583</v>
       </c>
       <c r="D26" t="n">
-        <v>0.42332</v>
+        <v>1.02462</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.449527</v>
+        <v>0.65954</v>
       </c>
       <c r="C27" t="n">
-        <v>0.42957</v>
+        <v>0.923099</v>
       </c>
       <c r="D27" t="n">
-        <v>0.414512</v>
+        <v>0.999823</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.439763</v>
+        <v>0.6466769999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.425094</v>
+        <v>0.903255</v>
       </c>
       <c r="D28" t="n">
-        <v>0.410826</v>
+        <v>0.976591</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.430594</v>
+        <v>0.634323</v>
       </c>
       <c r="C29" t="n">
-        <v>0.414161</v>
+        <v>0.883404</v>
       </c>
       <c r="D29" t="n">
-        <v>0.40113</v>
+        <v>0.954349</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.421722</v>
+        <v>0.622781</v>
       </c>
       <c r="C30" t="n">
-        <v>0.406206</v>
+        <v>0.865255</v>
       </c>
       <c r="D30" t="n">
-        <v>0.393354</v>
+        <v>0.93355</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.413184</v>
+        <v>0.612302</v>
       </c>
       <c r="C31" t="n">
-        <v>0.398999</v>
+        <v>0.848153</v>
       </c>
       <c r="D31" t="n">
-        <v>0.386791</v>
+        <v>0.913712</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.405348</v>
+        <v>0.602173</v>
       </c>
       <c r="C32" t="n">
-        <v>0.392091</v>
+        <v>0.831914</v>
       </c>
       <c r="D32" t="n">
-        <v>0.381038</v>
+        <v>0.895587</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.398155</v>
+        <v>0.593772</v>
       </c>
       <c r="C33" t="n">
-        <v>0.386303</v>
+        <v>0.81703</v>
       </c>
       <c r="D33" t="n">
-        <v>0.376766</v>
+        <v>0.879163</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.391437</v>
+        <v>0.5866479999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.381424</v>
+        <v>0.803274</v>
       </c>
       <c r="D34" t="n">
-        <v>0.372336</v>
+        <v>0.863825</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.386062</v>
+        <v>0.580758</v>
       </c>
       <c r="C35" t="n">
-        <v>0.377301</v>
+        <v>0.791119</v>
       </c>
       <c r="D35" t="n">
-        <v>0.370007</v>
+        <v>0.850776</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.381749</v>
+        <v>0.577328</v>
       </c>
       <c r="C36" t="n">
-        <v>0.37429</v>
+        <v>0.78</v>
       </c>
       <c r="D36" t="n">
-        <v>0.368037</v>
+        <v>0.839778</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.379384</v>
+        <v>0.576255</v>
       </c>
       <c r="C37" t="n">
-        <v>0.373889</v>
+        <v>0.772244</v>
       </c>
       <c r="D37" t="n">
-        <v>0.510406</v>
+        <v>1.12654</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.495975</v>
+        <v>0.733357</v>
       </c>
       <c r="C38" t="n">
-        <v>0.468403</v>
+        <v>1.02101</v>
       </c>
       <c r="D38" t="n">
-        <v>0.452655</v>
+        <v>1.09853</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.485743</v>
+        <v>0.718831</v>
       </c>
       <c r="C39" t="n">
-        <v>0.459946</v>
+        <v>0.998244</v>
       </c>
       <c r="D39" t="n">
-        <v>0.446162</v>
+        <v>1.07079</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.474807</v>
+        <v>0.703548</v>
       </c>
       <c r="C40" t="n">
-        <v>0.451753</v>
+        <v>0.974701</v>
       </c>
       <c r="D40" t="n">
-        <v>0.437234</v>
+        <v>1.04445</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.464423</v>
+        <v>0.689069</v>
       </c>
       <c r="C41" t="n">
-        <v>0.442707</v>
+        <v>0.952644</v>
       </c>
       <c r="D41" t="n">
-        <v>0.428499</v>
+        <v>1.01932</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.454792</v>
+        <v>0.674844</v>
       </c>
       <c r="C42" t="n">
-        <v>0.435445</v>
+        <v>0.9312510000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.422189</v>
+        <v>0.995549</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.445498</v>
+        <v>0.661799</v>
       </c>
       <c r="C43" t="n">
-        <v>0.430492</v>
+        <v>0.911177</v>
       </c>
       <c r="D43" t="n">
-        <v>0.414512</v>
+        <v>0.972538</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.436824</v>
+        <v>0.650061</v>
       </c>
       <c r="C44" t="n">
-        <v>0.424482</v>
+        <v>0.89239</v>
       </c>
       <c r="D44" t="n">
-        <v>0.409446</v>
+        <v>0.951319</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.428911</v>
+        <v>0.638855</v>
       </c>
       <c r="C45" t="n">
-        <v>0.413516</v>
+        <v>0.874588</v>
       </c>
       <c r="D45" t="n">
-        <v>0.401932</v>
+        <v>0.9314210000000001</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.420916</v>
+        <v>0.628399</v>
       </c>
       <c r="C46" t="n">
-        <v>0.408942</v>
+        <v>0.857208</v>
       </c>
       <c r="D46" t="n">
-        <v>0.397683</v>
+        <v>0.912791</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.413745</v>
+        <v>0.619287</v>
       </c>
       <c r="C47" t="n">
-        <v>0.402495</v>
+        <v>0.841836</v>
       </c>
       <c r="D47" t="n">
-        <v>0.392483</v>
+        <v>0.895666</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.407462</v>
+        <v>0.610891</v>
       </c>
       <c r="C48" t="n">
-        <v>0.397736</v>
+        <v>0.827975</v>
       </c>
       <c r="D48" t="n">
-        <v>0.388755</v>
+        <v>0.879556</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.40136</v>
+        <v>0.604759</v>
       </c>
       <c r="C49" t="n">
-        <v>0.393153</v>
+        <v>0.813904</v>
       </c>
       <c r="D49" t="n">
-        <v>0.38465</v>
+        <v>0.865758</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.397384</v>
+        <v>0.599518</v>
       </c>
       <c r="C50" t="n">
-        <v>0.392329</v>
+        <v>0.802914</v>
       </c>
       <c r="D50" t="n">
-        <v>0.384633</v>
+        <v>0.854369</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.394353</v>
+        <v>0.59767</v>
       </c>
       <c r="C51" t="n">
-        <v>0.389711</v>
+        <v>0.793871</v>
       </c>
       <c r="D51" t="n">
-        <v>0.52954</v>
+        <v>1.14741</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.363686</v>
+        <v>0.597719</v>
       </c>
       <c r="C52" t="n">
-        <v>0.390934</v>
+        <v>0.787107</v>
       </c>
       <c r="D52" t="n">
-        <v>0.518898</v>
+        <v>1.11917</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5022759999999999</v>
+        <v>0.7458399999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.480223</v>
+        <v>1.02138</v>
       </c>
       <c r="D53" t="n">
-        <v>0.462446</v>
+        <v>1.09139</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.491913</v>
+        <v>0.730026</v>
       </c>
       <c r="C54" t="n">
-        <v>0.471254</v>
+        <v>0.998557</v>
       </c>
       <c r="D54" t="n">
-        <v>0.455742</v>
+        <v>1.06559</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.482372</v>
+        <v>0.715597</v>
       </c>
       <c r="C55" t="n">
-        <v>0.463343</v>
+        <v>0.976868</v>
       </c>
       <c r="D55" t="n">
-        <v>0.447953</v>
+        <v>1.04065</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.472698</v>
+        <v>0.701338</v>
       </c>
       <c r="C56" t="n">
-        <v>0.45651</v>
+        <v>0.954892</v>
       </c>
       <c r="D56" t="n">
-        <v>0.442007</v>
+        <v>1.01666</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.463186</v>
+        <v>0.688296</v>
       </c>
       <c r="C57" t="n">
-        <v>0.449876</v>
+        <v>0.935736</v>
       </c>
       <c r="D57" t="n">
-        <v>0.434427</v>
+        <v>0.994258</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.454691</v>
+        <v>0.675617</v>
       </c>
       <c r="C58" t="n">
-        <v>0.440751</v>
+        <v>0.916094</v>
       </c>
       <c r="D58" t="n">
-        <v>0.429166</v>
+        <v>0.972434</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.446754</v>
+        <v>0.664748</v>
       </c>
       <c r="C59" t="n">
-        <v>0.434324</v>
+        <v>0.898917</v>
       </c>
       <c r="D59" t="n">
-        <v>0.423946</v>
+        <v>0.952739</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.439317</v>
+        <v>0.654138</v>
       </c>
       <c r="C60" t="n">
-        <v>0.429297</v>
+        <v>0.880883</v>
       </c>
       <c r="D60" t="n">
-        <v>0.418172</v>
+        <v>0.93381</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.432718</v>
+        <v>0.6447310000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>0.422821</v>
+        <v>0.864764</v>
       </c>
       <c r="D61" t="n">
-        <v>0.413356</v>
+        <v>0.916191</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.426837</v>
+        <v>0.636677</v>
       </c>
       <c r="C62" t="n">
-        <v>0.420312</v>
+        <v>0.850847</v>
       </c>
       <c r="D62" t="n">
-        <v>0.409785</v>
+        <v>0.900134</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.421811</v>
+        <v>0.630414</v>
       </c>
       <c r="C63" t="n">
-        <v>0.416166</v>
+        <v>0.83625</v>
       </c>
       <c r="D63" t="n">
-        <v>0.407083</v>
+        <v>0.885645</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.416367</v>
+        <v>0.624559</v>
       </c>
       <c r="C64" t="n">
-        <v>0.412605</v>
+        <v>0.824504</v>
       </c>
       <c r="D64" t="n">
-        <v>0.405923</v>
+        <v>0.874149</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.412286</v>
+        <v>0.621483</v>
       </c>
       <c r="C65" t="n">
-        <v>0.413235</v>
+        <v>0.815088</v>
       </c>
       <c r="D65" t="n">
-        <v>0.405723</v>
+        <v>0.864524</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.411761</v>
+        <v>0.621357</v>
       </c>
       <c r="C66" t="n">
-        <v>0.413192</v>
+        <v>0.807449</v>
       </c>
       <c r="D66" t="n">
-        <v>0.539694</v>
+        <v>1.14372</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.52512</v>
+        <v>0.769124</v>
       </c>
       <c r="C67" t="n">
-        <v>0.503533</v>
+        <v>1.05143</v>
       </c>
       <c r="D67" t="n">
-        <v>0.486152</v>
+        <v>1.11586</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.514447</v>
+        <v>0.753462</v>
       </c>
       <c r="C68" t="n">
-        <v>0.495362</v>
+        <v>1.028</v>
       </c>
       <c r="D68" t="n">
-        <v>0.478635</v>
+        <v>1.09031</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.505053</v>
+        <v>0.73877</v>
       </c>
       <c r="C69" t="n">
-        <v>0.487117</v>
+        <v>1.00653</v>
       </c>
       <c r="D69" t="n">
-        <v>0.470918</v>
+        <v>1.06513</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.494925</v>
+        <v>0.725703</v>
       </c>
       <c r="C70" t="n">
-        <v>0.480655</v>
+        <v>0.9836780000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.463964</v>
+        <v>1.04175</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.485998</v>
+        <v>0.713091</v>
       </c>
       <c r="C71" t="n">
-        <v>0.470808</v>
+        <v>0.964786</v>
       </c>
       <c r="D71" t="n">
-        <v>0.457862</v>
+        <v>1.01918</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.477213</v>
+        <v>0.701562</v>
       </c>
       <c r="C72" t="n">
-        <v>0.464727</v>
+        <v>0.945454</v>
       </c>
       <c r="D72" t="n">
-        <v>0.450704</v>
+        <v>0.998503</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.468042</v>
+        <v>0.6900810000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>0.457898</v>
+        <v>0.927214</v>
       </c>
       <c r="D73" t="n">
-        <v>0.445806</v>
+        <v>0.977752</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.460486</v>
+        <v>0.680331</v>
       </c>
       <c r="C74" t="n">
-        <v>0.451151</v>
+        <v>0.908264</v>
       </c>
       <c r="D74" t="n">
-        <v>0.440065</v>
+        <v>0.959874</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.453493</v>
+        <v>0.669582</v>
       </c>
       <c r="C75" t="n">
-        <v>0.44658</v>
+        <v>0.892946</v>
       </c>
       <c r="D75" t="n">
-        <v>0.435634</v>
+        <v>0.941641</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.44746</v>
+        <v>0.661727</v>
       </c>
       <c r="C76" t="n">
-        <v>0.443213</v>
+        <v>0.881215</v>
       </c>
       <c r="D76" t="n">
-        <v>0.431772</v>
+        <v>0.927254</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.441656</v>
+        <v>0.653199</v>
       </c>
       <c r="C77" t="n">
-        <v>0.437782</v>
+        <v>0.865603</v>
       </c>
       <c r="D77" t="n">
-        <v>0.427857</v>
+        <v>0.910879</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.437389</v>
+        <v>0.648728</v>
       </c>
       <c r="C78" t="n">
-        <v>0.434564</v>
+        <v>0.852905</v>
       </c>
       <c r="D78" t="n">
-        <v>0.42662</v>
+        <v>0.898871</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.433723</v>
+        <v>0.645779</v>
       </c>
       <c r="C79" t="n">
-        <v>0.433215</v>
+        <v>0.843732</v>
       </c>
       <c r="D79" t="n">
-        <v>0.428247</v>
+        <v>0.890352</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.432534</v>
+        <v>0.6448199999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>0.435696</v>
+        <v>0.836982</v>
       </c>
       <c r="D80" t="n">
-        <v>0.580037</v>
+        <v>1.1899</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.567105</v>
+        <v>0.81643</v>
       </c>
       <c r="C81" t="n">
-        <v>0.536287</v>
+        <v>1.09689</v>
       </c>
       <c r="D81" t="n">
-        <v>0.5172909999999999</v>
+        <v>1.16406</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.559455</v>
+        <v>0.80821</v>
       </c>
       <c r="C82" t="n">
-        <v>0.525465</v>
+        <v>1.07627</v>
       </c>
       <c r="D82" t="n">
-        <v>0.506219</v>
+        <v>1.13936</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.551023</v>
+        <v>0.795861</v>
       </c>
       <c r="C83" t="n">
-        <v>0.518648</v>
+        <v>1.05413</v>
       </c>
       <c r="D83" t="n">
-        <v>0.498405</v>
+        <v>1.11303</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5449889999999999</v>
+        <v>0.785242</v>
       </c>
       <c r="C84" t="n">
-        <v>0.509864</v>
+        <v>1.03614</v>
       </c>
       <c r="D84" t="n">
-        <v>0.489837</v>
+        <v>1.08954</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.540566</v>
+        <v>0.774874</v>
       </c>
       <c r="C85" t="n">
-        <v>0.505553</v>
+        <v>1.01386</v>
       </c>
       <c r="D85" t="n">
-        <v>0.483979</v>
+        <v>1.06874</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.532727</v>
+        <v>0.763749</v>
       </c>
       <c r="C86" t="n">
-        <v>0.499929</v>
+        <v>0.998674</v>
       </c>
       <c r="D86" t="n">
-        <v>0.481888</v>
+        <v>1.04715</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.524343</v>
+        <v>0.754979</v>
       </c>
       <c r="C87" t="n">
-        <v>0.492632</v>
+        <v>0.980854</v>
       </c>
       <c r="D87" t="n">
-        <v>0.475653</v>
+        <v>1.02662</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.516408</v>
+        <v>0.73933</v>
       </c>
       <c r="C88" t="n">
-        <v>0.487953</v>
+        <v>0.959889</v>
       </c>
       <c r="D88" t="n">
-        <v>0.471947</v>
+        <v>1.00214</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.507687</v>
+        <v>0.728768</v>
       </c>
       <c r="C89" t="n">
-        <v>0.478116</v>
+        <v>0.940231</v>
       </c>
       <c r="D89" t="n">
-        <v>0.4637</v>
+        <v>0.986384</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.499752</v>
+        <v>0.719407</v>
       </c>
       <c r="C90" t="n">
-        <v>0.47391</v>
+        <v>0.928405</v>
       </c>
       <c r="D90" t="n">
-        <v>0.458671</v>
+        <v>0.9668060000000001</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.493917</v>
+        <v>0.710789</v>
       </c>
       <c r="C91" t="n">
-        <v>0.468147</v>
+        <v>0.909744</v>
       </c>
       <c r="D91" t="n">
-        <v>0.455293</v>
+        <v>0.9517330000000001</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.486511</v>
+        <v>0.703937</v>
       </c>
       <c r="C92" t="n">
-        <v>0.464162</v>
+        <v>0.89779</v>
       </c>
       <c r="D92" t="n">
-        <v>0.453317</v>
+        <v>0.942569</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.482733</v>
+        <v>0.699861</v>
       </c>
       <c r="C93" t="n">
-        <v>0.461648</v>
+        <v>0.891443</v>
       </c>
       <c r="D93" t="n">
-        <v>0.452949</v>
+        <v>0.930359</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.479703</v>
+        <v>0.696743</v>
       </c>
       <c r="C94" t="n">
-        <v>0.462172</v>
+        <v>0.883416</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6260250000000001</v>
+        <v>1.25358</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.621727</v>
+        <v>0.881269</v>
       </c>
       <c r="C95" t="n">
-        <v>0.584808</v>
+        <v>1.15274</v>
       </c>
       <c r="D95" t="n">
-        <v>0.585106</v>
+        <v>1.2477</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.632328</v>
+        <v>0.8921519999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>0.599768</v>
+        <v>1.15765</v>
       </c>
       <c r="D96" t="n">
-        <v>0.588488</v>
+        <v>1.23558</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.636729</v>
+        <v>0.8946809999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>0.597939</v>
+        <v>1.15355</v>
       </c>
       <c r="D97" t="n">
-        <v>0.585901</v>
+        <v>1.21958</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.636612</v>
+        <v>0.891462</v>
       </c>
       <c r="C98" t="n">
-        <v>0.598979</v>
+        <v>1.14333</v>
       </c>
       <c r="D98" t="n">
-        <v>0.583189</v>
+        <v>1.19896</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.633644</v>
+        <v>0.886081</v>
       </c>
       <c r="C99" t="n">
-        <v>0.599606</v>
+        <v>1.12785</v>
       </c>
       <c r="D99" t="n">
-        <v>0.581291</v>
+        <v>1.17651</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.631182</v>
+        <v>0.881313</v>
       </c>
       <c r="C100" t="n">
-        <v>0.597797</v>
+        <v>1.11092</v>
       </c>
       <c r="D100" t="n">
-        <v>0.578844</v>
+        <v>1.16626</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.627408</v>
+        <v>0.872852</v>
       </c>
       <c r="C101" t="n">
-        <v>0.593979</v>
+        <v>1.10583</v>
       </c>
       <c r="D101" t="n">
-        <v>0.575095</v>
+        <v>1.14849</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.622934</v>
+        <v>0.864982</v>
       </c>
       <c r="C102" t="n">
-        <v>0.577273</v>
+        <v>1.09517</v>
       </c>
       <c r="D102" t="n">
-        <v>0.552843</v>
+        <v>1.13251</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.619038</v>
+        <v>0.857583</v>
       </c>
       <c r="C103" t="n">
-        <v>0.58828</v>
+        <v>1.08013</v>
       </c>
       <c r="D103" t="n">
-        <v>0.565185</v>
+        <v>1.11229</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.616439</v>
+        <v>0.849792</v>
       </c>
       <c r="C104" t="n">
-        <v>0.58916</v>
+        <v>1.0709</v>
       </c>
       <c r="D104" t="n">
-        <v>0.568348</v>
+        <v>1.08973</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.613038</v>
+        <v>0.843992</v>
       </c>
       <c r="C105" t="n">
-        <v>0.587967</v>
+        <v>1.05553</v>
       </c>
       <c r="D105" t="n">
-        <v>0.562822</v>
+        <v>1.08923</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.606702</v>
+        <v>0.838805</v>
       </c>
       <c r="C106" t="n">
-        <v>0.583545</v>
+        <v>1.04699</v>
       </c>
       <c r="D106" t="n">
-        <v>0.560603</v>
+        <v>1.07992</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.603352</v>
+        <v>0.836822</v>
       </c>
       <c r="C107" t="n">
-        <v>0.564918</v>
+        <v>1.0433</v>
       </c>
       <c r="D107" t="n">
-        <v>0.53972</v>
+        <v>1.06534</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.600754</v>
+        <v>0.835871</v>
       </c>
       <c r="C108" t="n">
-        <v>0.562802</v>
+        <v>1.03659</v>
       </c>
       <c r="D108" t="n">
-        <v>0.731297</v>
+        <v>1.36584</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.564624</v>
+        <v>0.836067</v>
       </c>
       <c r="C109" t="n">
-        <v>0.586929</v>
+        <v>1.01949</v>
       </c>
       <c r="D109" t="n">
-        <v>0.744142</v>
+        <v>1.40303</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.725454</v>
+        <v>1.03735</v>
       </c>
       <c r="C110" t="n">
-        <v>0.741946</v>
+        <v>1.32312</v>
       </c>
       <c r="D110" t="n">
-        <v>0.73527</v>
+        <v>1.39839</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.733679</v>
+        <v>1.04525</v>
       </c>
       <c r="C111" t="n">
-        <v>0.749599</v>
+        <v>1.33587</v>
       </c>
       <c r="D111" t="n">
-        <v>0.758636</v>
+        <v>1.40251</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.73794</v>
+        <v>1.04942</v>
       </c>
       <c r="C112" t="n">
-        <v>0.754528</v>
+        <v>1.33291</v>
       </c>
       <c r="D112" t="n">
-        <v>0.762229</v>
+        <v>1.39656</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.743696</v>
+        <v>1.05065</v>
       </c>
       <c r="C113" t="n">
-        <v>0.758121</v>
+        <v>1.31157</v>
       </c>
       <c r="D113" t="n">
-        <v>0.7605229999999999</v>
+        <v>1.38296</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.754708</v>
+        <v>1.05818</v>
       </c>
       <c r="C114" t="n">
-        <v>0.766547</v>
+        <v>1.32593</v>
       </c>
       <c r="D114" t="n">
-        <v>0.757421</v>
+        <v>1.3786</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.760181</v>
+        <v>1.06332</v>
       </c>
       <c r="C115" t="n">
-        <v>0.767501</v>
+        <v>1.32757</v>
       </c>
       <c r="D115" t="n">
-        <v>0.775214</v>
+        <v>1.37239</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.763304</v>
+        <v>1.06765</v>
       </c>
       <c r="C116" t="n">
-        <v>0.776329</v>
+        <v>1.33276</v>
       </c>
       <c r="D116" t="n">
-        <v>0.777048</v>
+        <v>1.38106</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.772293</v>
+        <v>1.0728</v>
       </c>
       <c r="C117" t="n">
-        <v>0.77734</v>
+        <v>1.34781</v>
       </c>
       <c r="D117" t="n">
-        <v>0.76245</v>
+        <v>1.38512</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.777937</v>
+        <v>1.08352</v>
       </c>
       <c r="C118" t="n">
-        <v>0.7863329999999999</v>
+        <v>1.35346</v>
       </c>
       <c r="D118" t="n">
-        <v>0.785131</v>
+        <v>1.37142</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.7768659999999999</v>
+        <v>1.08572</v>
       </c>
       <c r="C119" t="n">
-        <v>0.792143</v>
+        <v>1.33884</v>
       </c>
       <c r="D119" t="n">
-        <v>0.788871</v>
+        <v>1.38311</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.780211</v>
+        <v>1.08834</v>
       </c>
       <c r="C120" t="n">
-        <v>0.787191</v>
+        <v>1.33934</v>
       </c>
       <c r="D120" t="n">
-        <v>0.792669</v>
+        <v>1.37191</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.786552</v>
+        <v>1.09587</v>
       </c>
       <c r="C121" t="n">
-        <v>0.805071</v>
+        <v>1.35301</v>
       </c>
       <c r="D121" t="n">
-        <v>0.797892</v>
+        <v>1.35979</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.792141</v>
+        <v>1.10043</v>
       </c>
       <c r="C122" t="n">
-        <v>0.810284</v>
+        <v>1.34992</v>
       </c>
       <c r="D122" t="n">
-        <v>0.802336</v>
+        <v>1.35921</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.799252</v>
+        <v>1.10954</v>
       </c>
       <c r="C123" t="n">
-        <v>0.8131660000000001</v>
+        <v>1.35989</v>
       </c>
       <c r="D123" t="n">
-        <v>0.9560689999999999</v>
+        <v>1.71281</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.962443</v>
+        <v>1.30134</v>
       </c>
       <c r="C124" t="n">
-        <v>0.971047</v>
+        <v>1.64845</v>
       </c>
       <c r="D124" t="n">
-        <v>0.961714</v>
+        <v>1.72479</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.975092</v>
+        <v>1.30899</v>
       </c>
       <c r="C125" t="n">
-        <v>0.979122</v>
+        <v>1.65734</v>
       </c>
       <c r="D125" t="n">
-        <v>0.95573</v>
+        <v>1.7205</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.984259</v>
+        <v>1.3158</v>
       </c>
       <c r="C126" t="n">
-        <v>0.9947279999999999</v>
+        <v>1.67195</v>
       </c>
       <c r="D126" t="n">
-        <v>0.966557</v>
+        <v>1.73355</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.993085</v>
+        <v>1.32474</v>
       </c>
       <c r="C127" t="n">
-        <v>1.00017</v>
+        <v>1.68072</v>
       </c>
       <c r="D127" t="n">
-        <v>0.975206</v>
+        <v>1.74302</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.9999130000000001</v>
+        <v>1.33223</v>
       </c>
       <c r="C128" t="n">
-        <v>1.01174</v>
+        <v>1.69716</v>
       </c>
       <c r="D128" t="n">
-        <v>0.999387</v>
+        <v>1.74087</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.00772</v>
+        <v>1.33802</v>
       </c>
       <c r="C129" t="n">
-        <v>1.01574</v>
+        <v>1.69923</v>
       </c>
       <c r="D129" t="n">
-        <v>1.01014</v>
+        <v>1.7479</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.01596</v>
+        <v>1.34582</v>
       </c>
       <c r="C130" t="n">
-        <v>1.02268</v>
+        <v>1.70562</v>
       </c>
       <c r="D130" t="n">
-        <v>1.01907</v>
+        <v>1.75871</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.0203</v>
+        <v>1.35122</v>
       </c>
       <c r="C131" t="n">
-        <v>1.0383</v>
+        <v>1.72113</v>
       </c>
       <c r="D131" t="n">
-        <v>1.01786</v>
+        <v>1.7515</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.0275</v>
+        <v>1.35776</v>
       </c>
       <c r="C132" t="n">
-        <v>1.04566</v>
+        <v>1.73057</v>
       </c>
       <c r="D132" t="n">
-        <v>1.03362</v>
+        <v>1.76491</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.03372</v>
+        <v>1.36238</v>
       </c>
       <c r="C133" t="n">
-        <v>1.05396</v>
+        <v>1.72929</v>
       </c>
       <c r="D133" t="n">
-        <v>1.04029</v>
+        <v>1.77137</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.04223</v>
+        <v>1.36894</v>
       </c>
       <c r="C134" t="n">
-        <v>1.06238</v>
+        <v>1.7486</v>
       </c>
       <c r="D134" t="n">
-        <v>1.04162</v>
+        <v>1.7718</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.04696</v>
+        <v>1.37686</v>
       </c>
       <c r="C135" t="n">
-        <v>1.06864</v>
+        <v>1.74863</v>
       </c>
       <c r="D135" t="n">
-        <v>1.05511</v>
+        <v>1.77672</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.05794</v>
+        <v>1.38599</v>
       </c>
       <c r="C136" t="n">
-        <v>1.08425</v>
+        <v>1.76461</v>
       </c>
       <c r="D136" t="n">
-        <v>1.04966</v>
+        <v>1.7827</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.05878</v>
+        <v>1.3961</v>
       </c>
       <c r="C137" t="n">
-        <v>1.09007</v>
+        <v>1.77197</v>
       </c>
       <c r="D137" t="n">
-        <v>1.20919</v>
+        <v>2.12724</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.22119</v>
+        <v>1.5937</v>
       </c>
       <c r="C138" t="n">
-        <v>1.24407</v>
+        <v>2.06301</v>
       </c>
       <c r="D138" t="n">
-        <v>1.22687</v>
+        <v>2.1343</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.22613</v>
+        <v>1.59685</v>
       </c>
       <c r="C139" t="n">
-        <v>1.25142</v>
+        <v>2.07759</v>
       </c>
       <c r="D139" t="n">
-        <v>1.23735</v>
+        <v>2.1404</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.23216</v>
+        <v>1.59875</v>
       </c>
       <c r="C140" t="n">
-        <v>1.26255</v>
+        <v>2.09365</v>
       </c>
       <c r="D140" t="n">
-        <v>1.24906</v>
+        <v>2.15827</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.23947</v>
+        <v>1.60146</v>
       </c>
       <c r="C141" t="n">
-        <v>1.27007</v>
+        <v>2.10518</v>
       </c>
       <c r="D141" t="n">
-        <v>1.25754</v>
+        <v>2.1641</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.25029</v>
+        <v>1.60421</v>
       </c>
       <c r="C142" t="n">
-        <v>1.27627</v>
+        <v>2.11806</v>
       </c>
       <c r="D142" t="n">
-        <v>1.26309</v>
+        <v>2.17594</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.26091</v>
+        <v>1.60616</v>
       </c>
       <c r="C143" t="n">
-        <v>1.28698</v>
+        <v>2.13</v>
       </c>
       <c r="D143" t="n">
-        <v>1.27478</v>
+        <v>2.17869</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.594542</v>
+        <v>0.593985</v>
       </c>
       <c r="C2" t="n">
-        <v>0.839118</v>
+        <v>0.836654</v>
       </c>
       <c r="D2" t="n">
-        <v>0.89174</v>
+        <v>0.89083</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.583859</v>
+        <v>0.583196</v>
       </c>
       <c r="C3" t="n">
-        <v>0.821565</v>
+        <v>0.819207</v>
       </c>
       <c r="D3" t="n">
-        <v>0.873478</v>
+        <v>0.872339</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.575288</v>
+        <v>0.574225</v>
       </c>
       <c r="C4" t="n">
-        <v>0.806396</v>
+        <v>0.804291</v>
       </c>
       <c r="D4" t="n">
-        <v>0.857315</v>
+        <v>0.856483</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5681389999999999</v>
+        <v>0.567169</v>
       </c>
       <c r="C5" t="n">
-        <v>0.792517</v>
+        <v>0.790404</v>
       </c>
       <c r="D5" t="n">
-        <v>0.842482</v>
+        <v>0.841378</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5616100000000001</v>
+        <v>0.56091</v>
       </c>
       <c r="C6" t="n">
-        <v>0.778883</v>
+        <v>0.777406</v>
       </c>
       <c r="D6" t="n">
-        <v>0.828321</v>
+        <v>0.827533</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.557284</v>
+        <v>0.556225</v>
       </c>
       <c r="C7" t="n">
-        <v>0.768081</v>
+        <v>0.7664339999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.817179</v>
+        <v>0.81635</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.554525</v>
+        <v>0.553706</v>
       </c>
       <c r="C8" t="n">
-        <v>0.758757</v>
+        <v>0.757287</v>
       </c>
       <c r="D8" t="n">
-        <v>0.809347</v>
+        <v>0.808146</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.554427</v>
+        <v>0.553741</v>
       </c>
       <c r="C9" t="n">
-        <v>0.752271</v>
+        <v>0.751337</v>
       </c>
       <c r="D9" t="n">
-        <v>1.07956</v>
+        <v>1.07899</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.700224</v>
+        <v>0.698713</v>
       </c>
       <c r="C10" t="n">
-        <v>0.991478</v>
+        <v>0.987511</v>
       </c>
       <c r="D10" t="n">
-        <v>1.05833</v>
+        <v>1.05729</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.684573</v>
+        <v>0.683039</v>
       </c>
       <c r="C11" t="n">
-        <v>0.967449</v>
+        <v>0.963441</v>
       </c>
       <c r="D11" t="n">
-        <v>1.03136</v>
+        <v>1.03062</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.669506</v>
+        <v>0.668081</v>
       </c>
       <c r="C12" t="n">
-        <v>0.944444</v>
+        <v>0.940948</v>
       </c>
       <c r="D12" t="n">
-        <v>1.00606</v>
+        <v>1.00569</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.655148</v>
+        <v>0.6536960000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.92228</v>
+        <v>0.91901</v>
       </c>
       <c r="D13" t="n">
-        <v>0.981752</v>
+        <v>0.980757</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.641863</v>
+        <v>0.640439</v>
       </c>
       <c r="C14" t="n">
-        <v>0.901796</v>
+        <v>0.8991479999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9592309999999999</v>
+        <v>0.957951</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6297469999999999</v>
+        <v>0.628413</v>
       </c>
       <c r="C15" t="n">
-        <v>0.882228</v>
+        <v>0.879556</v>
       </c>
       <c r="D15" t="n">
-        <v>0.937548</v>
+        <v>0.936048</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.618358</v>
+        <v>0.616639</v>
       </c>
       <c r="C16" t="n">
-        <v>0.86354</v>
+        <v>0.8615080000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>0.917355</v>
+        <v>0.91615</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.607611</v>
+        <v>0.606359</v>
       </c>
       <c r="C17" t="n">
-        <v>0.846129</v>
+        <v>0.844452</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8982599999999999</v>
+        <v>0.89706</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.597688</v>
+        <v>0.596403</v>
       </c>
       <c r="C18" t="n">
-        <v>0.829975</v>
+        <v>0.828216</v>
       </c>
       <c r="D18" t="n">
-        <v>0.880432</v>
+        <v>0.879358</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.588907</v>
+        <v>0.588053</v>
       </c>
       <c r="C19" t="n">
-        <v>0.814916</v>
+        <v>0.81349</v>
       </c>
       <c r="D19" t="n">
-        <v>0.864596</v>
+        <v>0.863524</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.582136</v>
+        <v>0.581084</v>
       </c>
       <c r="C20" t="n">
-        <v>0.800686</v>
+        <v>0.7992010000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.849373</v>
+        <v>0.848162</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.577375</v>
+        <v>0.576527</v>
       </c>
       <c r="C21" t="n">
-        <v>0.788331</v>
+        <v>0.78704</v>
       </c>
       <c r="D21" t="n">
-        <v>0.836629</v>
+        <v>0.8355050000000001</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.574458</v>
+        <v>0.573291</v>
       </c>
       <c r="C22" t="n">
-        <v>0.77779</v>
+        <v>0.776551</v>
       </c>
       <c r="D22" t="n">
-        <v>0.827026</v>
+        <v>0.82602</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.573736</v>
+        <v>0.572946</v>
       </c>
       <c r="C23" t="n">
-        <v>0.769688</v>
+        <v>0.768823</v>
       </c>
       <c r="D23" t="n">
-        <v>1.10595</v>
+        <v>1.10599</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.702911</v>
+        <v>0.702483</v>
       </c>
       <c r="C24" t="n">
-        <v>0.990292</v>
+        <v>0.988661</v>
       </c>
       <c r="D24" t="n">
-        <v>1.0777</v>
+        <v>1.07797</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.688739</v>
+        <v>0.68754</v>
       </c>
       <c r="C25" t="n">
-        <v>0.966985</v>
+        <v>0.965544</v>
       </c>
       <c r="D25" t="n">
-        <v>1.05041</v>
+        <v>1.05036</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.673304</v>
+        <v>0.6730159999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.944583</v>
+        <v>0.942897</v>
       </c>
       <c r="D26" t="n">
-        <v>1.02462</v>
+        <v>1.02454</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.65954</v>
+        <v>0.659213</v>
       </c>
       <c r="C27" t="n">
-        <v>0.923099</v>
+        <v>0.922037</v>
       </c>
       <c r="D27" t="n">
-        <v>0.999823</v>
+        <v>0.999281</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6466769999999999</v>
+        <v>0.645983</v>
       </c>
       <c r="C28" t="n">
-        <v>0.903255</v>
+        <v>0.901603</v>
       </c>
       <c r="D28" t="n">
-        <v>0.976591</v>
+        <v>0.975948</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.634323</v>
+        <v>0.633621</v>
       </c>
       <c r="C29" t="n">
-        <v>0.883404</v>
+        <v>0.882536</v>
       </c>
       <c r="D29" t="n">
-        <v>0.954349</v>
+        <v>0.953543</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.622781</v>
+        <v>0.622244</v>
       </c>
       <c r="C30" t="n">
-        <v>0.865255</v>
+        <v>0.864185</v>
       </c>
       <c r="D30" t="n">
-        <v>0.93355</v>
+        <v>0.932522</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.612302</v>
+        <v>0.6115159999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.848153</v>
+        <v>0.847093</v>
       </c>
       <c r="D31" t="n">
-        <v>0.913712</v>
+        <v>0.913023</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.602173</v>
+        <v>0.6019409999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.831914</v>
+        <v>0.8309530000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.895587</v>
+        <v>0.894719</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.593772</v>
+        <v>0.593839</v>
       </c>
       <c r="C33" t="n">
-        <v>0.81703</v>
+        <v>0.816237</v>
       </c>
       <c r="D33" t="n">
-        <v>0.879163</v>
+        <v>0.87798</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5866479999999999</v>
+        <v>0.585957</v>
       </c>
       <c r="C34" t="n">
-        <v>0.803274</v>
+        <v>0.802386</v>
       </c>
       <c r="D34" t="n">
-        <v>0.863825</v>
+        <v>0.8628209999999999</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.580758</v>
+        <v>0.580307</v>
       </c>
       <c r="C35" t="n">
-        <v>0.791119</v>
+        <v>0.790022</v>
       </c>
       <c r="D35" t="n">
-        <v>0.850776</v>
+        <v>0.849667</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.577328</v>
+        <v>0.576857</v>
       </c>
       <c r="C36" t="n">
-        <v>0.78</v>
+        <v>0.779621</v>
       </c>
       <c r="D36" t="n">
-        <v>0.839778</v>
+        <v>0.839427</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.576255</v>
+        <v>0.575558</v>
       </c>
       <c r="C37" t="n">
-        <v>0.772244</v>
+        <v>0.77175</v>
       </c>
       <c r="D37" t="n">
-        <v>1.12654</v>
+        <v>1.12657</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.733357</v>
+        <v>0.732962</v>
       </c>
       <c r="C38" t="n">
-        <v>1.02101</v>
+        <v>1.01972</v>
       </c>
       <c r="D38" t="n">
-        <v>1.09853</v>
+        <v>1.09829</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.718831</v>
+        <v>0.71832</v>
       </c>
       <c r="C39" t="n">
-        <v>0.998244</v>
+        <v>0.996823</v>
       </c>
       <c r="D39" t="n">
-        <v>1.07079</v>
+        <v>1.07078</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.703548</v>
+        <v>0.702869</v>
       </c>
       <c r="C40" t="n">
-        <v>0.974701</v>
+        <v>0.973701</v>
       </c>
       <c r="D40" t="n">
-        <v>1.04445</v>
+        <v>1.0443</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.689069</v>
+        <v>0.6882470000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.952644</v>
+        <v>0.951566</v>
       </c>
       <c r="D41" t="n">
-        <v>1.01932</v>
+        <v>1.01906</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.674844</v>
+        <v>0.6745640000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9312510000000001</v>
+        <v>0.930538</v>
       </c>
       <c r="D42" t="n">
-        <v>0.995549</v>
+        <v>0.995765</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.661799</v>
+        <v>0.661565</v>
       </c>
       <c r="C43" t="n">
-        <v>0.911177</v>
+        <v>0.910643</v>
       </c>
       <c r="D43" t="n">
-        <v>0.972538</v>
+        <v>0.97311</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.650061</v>
+        <v>0.649945</v>
       </c>
       <c r="C44" t="n">
-        <v>0.89239</v>
+        <v>0.891629</v>
       </c>
       <c r="D44" t="n">
-        <v>0.951319</v>
+        <v>0.9518529999999999</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.638855</v>
+        <v>0.638513</v>
       </c>
       <c r="C45" t="n">
-        <v>0.874588</v>
+        <v>0.873983</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9314210000000001</v>
+        <v>0.9313</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.628399</v>
+        <v>0.628588</v>
       </c>
       <c r="C46" t="n">
-        <v>0.857208</v>
+        <v>0.85688</v>
       </c>
       <c r="D46" t="n">
-        <v>0.912791</v>
+        <v>0.912615</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.619287</v>
+        <v>0.619239</v>
       </c>
       <c r="C47" t="n">
-        <v>0.841836</v>
+        <v>0.84146</v>
       </c>
       <c r="D47" t="n">
-        <v>0.895666</v>
+        <v>0.895381</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.610891</v>
+        <v>0.611115</v>
       </c>
       <c r="C48" t="n">
-        <v>0.827975</v>
+        <v>0.827828</v>
       </c>
       <c r="D48" t="n">
-        <v>0.879556</v>
+        <v>0.87965</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.604759</v>
+        <v>0.6044389999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.813904</v>
+        <v>0.81381</v>
       </c>
       <c r="D49" t="n">
-        <v>0.865758</v>
+        <v>0.865669</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.599518</v>
+        <v>0.599501</v>
       </c>
       <c r="C50" t="n">
-        <v>0.802914</v>
+        <v>0.802944</v>
       </c>
       <c r="D50" t="n">
-        <v>0.854369</v>
+        <v>0.854497</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.59767</v>
+        <v>0.597211</v>
       </c>
       <c r="C51" t="n">
-        <v>0.793871</v>
+        <v>0.793676</v>
       </c>
       <c r="D51" t="n">
-        <v>1.14741</v>
+        <v>1.14851</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.597719</v>
+        <v>0.597877</v>
       </c>
       <c r="C52" t="n">
-        <v>0.787107</v>
+        <v>0.787525</v>
       </c>
       <c r="D52" t="n">
-        <v>1.11917</v>
+        <v>1.11995</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.7458399999999999</v>
+        <v>0.745754</v>
       </c>
       <c r="C53" t="n">
-        <v>1.02138</v>
+        <v>1.022</v>
       </c>
       <c r="D53" t="n">
-        <v>1.09139</v>
+        <v>1.09237</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.730026</v>
+        <v>0.730533</v>
       </c>
       <c r="C54" t="n">
-        <v>0.998557</v>
+        <v>0.997854</v>
       </c>
       <c r="D54" t="n">
-        <v>1.06559</v>
+        <v>1.06612</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.715597</v>
+        <v>0.715681</v>
       </c>
       <c r="C55" t="n">
-        <v>0.976868</v>
+        <v>0.97697</v>
       </c>
       <c r="D55" t="n">
-        <v>1.04065</v>
+        <v>1.04093</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.701338</v>
+        <v>0.702079</v>
       </c>
       <c r="C56" t="n">
-        <v>0.954892</v>
+        <v>0.9549840000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>1.01666</v>
+        <v>1.01716</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.688296</v>
+        <v>0.688828</v>
       </c>
       <c r="C57" t="n">
-        <v>0.935736</v>
+        <v>0.935082</v>
       </c>
       <c r="D57" t="n">
-        <v>0.994258</v>
+        <v>0.995494</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.675617</v>
+        <v>0.676832</v>
       </c>
       <c r="C58" t="n">
-        <v>0.916094</v>
+        <v>0.9158269999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>0.972434</v>
+        <v>0.973895</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.664748</v>
+        <v>0.665498</v>
       </c>
       <c r="C59" t="n">
-        <v>0.898917</v>
+        <v>0.8979549999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.952739</v>
+        <v>0.954132</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.654138</v>
+        <v>0.655033</v>
       </c>
       <c r="C60" t="n">
-        <v>0.880883</v>
+        <v>0.8814689999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.93381</v>
+        <v>0.935245</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.6447310000000001</v>
+        <v>0.645775</v>
       </c>
       <c r="C61" t="n">
-        <v>0.864764</v>
+        <v>0.8657820000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.916191</v>
+        <v>0.917751</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.636677</v>
+        <v>0.637521</v>
       </c>
       <c r="C62" t="n">
-        <v>0.850847</v>
+        <v>0.851428</v>
       </c>
       <c r="D62" t="n">
-        <v>0.900134</v>
+        <v>0.902303</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.630414</v>
+        <v>0.6311330000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.83625</v>
+        <v>0.838519</v>
       </c>
       <c r="D63" t="n">
-        <v>0.885645</v>
+        <v>0.888418</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.624559</v>
+        <v>0.626409</v>
       </c>
       <c r="C64" t="n">
-        <v>0.824504</v>
+        <v>0.827234</v>
       </c>
       <c r="D64" t="n">
-        <v>0.874149</v>
+        <v>0.876247</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.621483</v>
+        <v>0.623288</v>
       </c>
       <c r="C65" t="n">
-        <v>0.815088</v>
+        <v>0.81831</v>
       </c>
       <c r="D65" t="n">
-        <v>0.864524</v>
+        <v>0.8673959999999999</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.621357</v>
+        <v>0.622873</v>
       </c>
       <c r="C66" t="n">
-        <v>0.807449</v>
+        <v>0.810007</v>
       </c>
       <c r="D66" t="n">
-        <v>1.14372</v>
+        <v>1.14665</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.769124</v>
+        <v>0.772483</v>
       </c>
       <c r="C67" t="n">
-        <v>1.05143</v>
+        <v>1.05286</v>
       </c>
       <c r="D67" t="n">
-        <v>1.11586</v>
+        <v>1.11987</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.753462</v>
+        <v>0.7569630000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>1.028</v>
+        <v>1.0301</v>
       </c>
       <c r="D68" t="n">
-        <v>1.09031</v>
+        <v>1.09333</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.73877</v>
+        <v>0.742297</v>
       </c>
       <c r="C69" t="n">
-        <v>1.00653</v>
+        <v>1.00709</v>
       </c>
       <c r="D69" t="n">
-        <v>1.06513</v>
+        <v>1.06824</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.725703</v>
+        <v>0.72824</v>
       </c>
       <c r="C70" t="n">
-        <v>0.9836780000000001</v>
+        <v>0.985667</v>
       </c>
       <c r="D70" t="n">
-        <v>1.04175</v>
+        <v>1.04438</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.713091</v>
+        <v>0.715332</v>
       </c>
       <c r="C71" t="n">
-        <v>0.964786</v>
+        <v>0.965427</v>
       </c>
       <c r="D71" t="n">
-        <v>1.01918</v>
+        <v>1.02174</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.701562</v>
+        <v>0.703071</v>
       </c>
       <c r="C72" t="n">
-        <v>0.945454</v>
+        <v>0.947036</v>
       </c>
       <c r="D72" t="n">
-        <v>0.998503</v>
+        <v>1.00059</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.6900810000000001</v>
+        <v>0.69107</v>
       </c>
       <c r="C73" t="n">
-        <v>0.927214</v>
+        <v>0.928253</v>
       </c>
       <c r="D73" t="n">
-        <v>0.977752</v>
+        <v>0.980138</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.680331</v>
+        <v>0.680353</v>
       </c>
       <c r="C74" t="n">
-        <v>0.908264</v>
+        <v>0.910826</v>
       </c>
       <c r="D74" t="n">
-        <v>0.959874</v>
+        <v>0.961303</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.669582</v>
+        <v>0.670917</v>
       </c>
       <c r="C75" t="n">
-        <v>0.892946</v>
+        <v>0.895683</v>
       </c>
       <c r="D75" t="n">
-        <v>0.941641</v>
+        <v>0.9437720000000001</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.661727</v>
+        <v>0.66248</v>
       </c>
       <c r="C76" t="n">
-        <v>0.881215</v>
+        <v>0.880171</v>
       </c>
       <c r="D76" t="n">
-        <v>0.927254</v>
+        <v>0.927972</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.653199</v>
+        <v>0.655976</v>
       </c>
       <c r="C77" t="n">
-        <v>0.865603</v>
+        <v>0.867385</v>
       </c>
       <c r="D77" t="n">
-        <v>0.910879</v>
+        <v>0.913685</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.648728</v>
+        <v>0.650954</v>
       </c>
       <c r="C78" t="n">
-        <v>0.852905</v>
+        <v>0.855529</v>
       </c>
       <c r="D78" t="n">
-        <v>0.898871</v>
+        <v>0.901527</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.645779</v>
+        <v>0.648277</v>
       </c>
       <c r="C79" t="n">
-        <v>0.843732</v>
+        <v>0.841438</v>
       </c>
       <c r="D79" t="n">
-        <v>0.890352</v>
+        <v>0.891402</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.6448199999999999</v>
+        <v>0.64774</v>
       </c>
       <c r="C80" t="n">
-        <v>0.836982</v>
+        <v>0.832387</v>
       </c>
       <c r="D80" t="n">
-        <v>1.1899</v>
+        <v>1.18569</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.81643</v>
+        <v>0.813049</v>
       </c>
       <c r="C81" t="n">
-        <v>1.09689</v>
+        <v>1.0916</v>
       </c>
       <c r="D81" t="n">
-        <v>1.16406</v>
+        <v>1.15903</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.80821</v>
+        <v>0.799874</v>
       </c>
       <c r="C82" t="n">
-        <v>1.07627</v>
+        <v>1.07061</v>
       </c>
       <c r="D82" t="n">
-        <v>1.13936</v>
+        <v>1.13286</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.795861</v>
+        <v>0.786091</v>
       </c>
       <c r="C83" t="n">
-        <v>1.05413</v>
+        <v>1.04707</v>
       </c>
       <c r="D83" t="n">
-        <v>1.11303</v>
+        <v>1.10978</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.785242</v>
+        <v>0.77323</v>
       </c>
       <c r="C84" t="n">
-        <v>1.03614</v>
+        <v>1.02872</v>
       </c>
       <c r="D84" t="n">
-        <v>1.08954</v>
+        <v>1.08447</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.774874</v>
+        <v>0.762154</v>
       </c>
       <c r="C85" t="n">
-        <v>1.01386</v>
+        <v>1.00675</v>
       </c>
       <c r="D85" t="n">
-        <v>1.06874</v>
+        <v>1.06176</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.763749</v>
+        <v>0.750466</v>
       </c>
       <c r="C86" t="n">
-        <v>0.998674</v>
+        <v>0.988487</v>
       </c>
       <c r="D86" t="n">
-        <v>1.04715</v>
+        <v>1.03797</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.754979</v>
+        <v>0.735474</v>
       </c>
       <c r="C87" t="n">
-        <v>0.980854</v>
+        <v>0.969869</v>
       </c>
       <c r="D87" t="n">
-        <v>1.02662</v>
+        <v>1.02004</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.73933</v>
+        <v>0.72573</v>
       </c>
       <c r="C88" t="n">
-        <v>0.959889</v>
+        <v>0.952531</v>
       </c>
       <c r="D88" t="n">
-        <v>1.00214</v>
+        <v>0.998247</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.728768</v>
+        <v>0.715926</v>
       </c>
       <c r="C89" t="n">
-        <v>0.940231</v>
+        <v>0.936734</v>
       </c>
       <c r="D89" t="n">
-        <v>0.986384</v>
+        <v>0.980123</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.719407</v>
+        <v>0.705549</v>
       </c>
       <c r="C90" t="n">
-        <v>0.928405</v>
+        <v>0.915668</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9668060000000001</v>
+        <v>0.963989</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.710789</v>
+        <v>0.697391</v>
       </c>
       <c r="C91" t="n">
-        <v>0.909744</v>
+        <v>0.902112</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9517330000000001</v>
+        <v>0.947995</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.703937</v>
+        <v>0.690076</v>
       </c>
       <c r="C92" t="n">
-        <v>0.89779</v>
+        <v>0.89319</v>
       </c>
       <c r="D92" t="n">
-        <v>0.942569</v>
+        <v>0.935364</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.699861</v>
+        <v>0.686069</v>
       </c>
       <c r="C93" t="n">
-        <v>0.891443</v>
+        <v>0.883315</v>
       </c>
       <c r="D93" t="n">
-        <v>0.930359</v>
+        <v>0.923023</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.696743</v>
+        <v>0.6859150000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>0.883416</v>
+        <v>0.87476</v>
       </c>
       <c r="D94" t="n">
-        <v>1.25358</v>
+        <v>1.24034</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.881269</v>
+        <v>0.871688</v>
       </c>
       <c r="C95" t="n">
-        <v>1.15274</v>
+        <v>1.14478</v>
       </c>
       <c r="D95" t="n">
-        <v>1.2477</v>
+        <v>1.23392</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.8921519999999999</v>
+        <v>0.881613</v>
       </c>
       <c r="C96" t="n">
-        <v>1.15765</v>
+        <v>1.14088</v>
       </c>
       <c r="D96" t="n">
-        <v>1.23558</v>
+        <v>1.22887</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.8946809999999999</v>
+        <v>0.881987</v>
       </c>
       <c r="C97" t="n">
-        <v>1.15355</v>
+        <v>1.13706</v>
       </c>
       <c r="D97" t="n">
-        <v>1.21958</v>
+        <v>1.20447</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.891462</v>
+        <v>0.8782</v>
       </c>
       <c r="C98" t="n">
-        <v>1.14333</v>
+        <v>1.12706</v>
       </c>
       <c r="D98" t="n">
-        <v>1.19896</v>
+        <v>1.18787</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.886081</v>
+        <v>0.871623</v>
       </c>
       <c r="C99" t="n">
-        <v>1.12785</v>
+        <v>1.11704</v>
       </c>
       <c r="D99" t="n">
-        <v>1.17651</v>
+        <v>1.17455</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.881313</v>
+        <v>0.866618</v>
       </c>
       <c r="C100" t="n">
-        <v>1.11092</v>
+        <v>1.10048</v>
       </c>
       <c r="D100" t="n">
-        <v>1.16626</v>
+        <v>1.14265</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.872852</v>
+        <v>0.859491</v>
       </c>
       <c r="C101" t="n">
-        <v>1.10583</v>
+        <v>1.07865</v>
       </c>
       <c r="D101" t="n">
-        <v>1.14849</v>
+        <v>1.14363</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.864982</v>
+        <v>0.853217</v>
       </c>
       <c r="C102" t="n">
-        <v>1.09517</v>
+        <v>1.08001</v>
       </c>
       <c r="D102" t="n">
-        <v>1.13251</v>
+        <v>1.13008</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.857583</v>
+        <v>0.846863</v>
       </c>
       <c r="C103" t="n">
-        <v>1.08013</v>
+        <v>1.06621</v>
       </c>
       <c r="D103" t="n">
-        <v>1.11229</v>
+        <v>1.09017</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.849792</v>
+        <v>0.838273</v>
       </c>
       <c r="C104" t="n">
-        <v>1.0709</v>
+        <v>1.06055</v>
       </c>
       <c r="D104" t="n">
-        <v>1.08973</v>
+        <v>1.07504</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.843992</v>
+        <v>0.832377</v>
       </c>
       <c r="C105" t="n">
-        <v>1.05553</v>
+        <v>1.03075</v>
       </c>
       <c r="D105" t="n">
-        <v>1.08923</v>
+        <v>1.06045</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.838805</v>
+        <v>0.82681</v>
       </c>
       <c r="C106" t="n">
-        <v>1.04699</v>
+        <v>1.02012</v>
       </c>
       <c r="D106" t="n">
-        <v>1.07992</v>
+        <v>1.06083</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.836822</v>
+        <v>0.824339</v>
       </c>
       <c r="C107" t="n">
-        <v>1.0433</v>
+        <v>1.01012</v>
       </c>
       <c r="D107" t="n">
-        <v>1.06534</v>
+        <v>1.02895</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.835871</v>
+        <v>0.820947</v>
       </c>
       <c r="C108" t="n">
-        <v>1.03659</v>
+        <v>1.0257</v>
       </c>
       <c r="D108" t="n">
-        <v>1.36584</v>
+        <v>1.38301</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.836067</v>
+        <v>0.824249</v>
       </c>
       <c r="C109" t="n">
-        <v>1.01949</v>
+        <v>1.02432</v>
       </c>
       <c r="D109" t="n">
-        <v>1.40303</v>
+        <v>1.39407</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.03735</v>
+        <v>1.0098</v>
       </c>
       <c r="C110" t="n">
-        <v>1.32312</v>
+        <v>1.29895</v>
       </c>
       <c r="D110" t="n">
-        <v>1.39839</v>
+        <v>1.38252</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.04525</v>
+        <v>1.01712</v>
       </c>
       <c r="C111" t="n">
-        <v>1.33587</v>
+        <v>1.3063</v>
       </c>
       <c r="D111" t="n">
-        <v>1.40251</v>
+        <v>1.38188</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.04942</v>
+        <v>1.02225</v>
       </c>
       <c r="C112" t="n">
-        <v>1.33291</v>
+        <v>1.30187</v>
       </c>
       <c r="D112" t="n">
-        <v>1.39656</v>
+        <v>1.36232</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.05065</v>
+        <v>1.02905</v>
       </c>
       <c r="C113" t="n">
-        <v>1.31157</v>
+        <v>1.29978</v>
       </c>
       <c r="D113" t="n">
-        <v>1.38296</v>
+        <v>1.36347</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.05818</v>
+        <v>1.03278</v>
       </c>
       <c r="C114" t="n">
-        <v>1.32593</v>
+        <v>1.3099</v>
       </c>
       <c r="D114" t="n">
-        <v>1.3786</v>
+        <v>1.37121</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.06332</v>
+        <v>1.04107</v>
       </c>
       <c r="C115" t="n">
-        <v>1.32757</v>
+        <v>1.31223</v>
       </c>
       <c r="D115" t="n">
-        <v>1.37239</v>
+        <v>1.37102</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.06765</v>
+        <v>1.04137</v>
       </c>
       <c r="C116" t="n">
-        <v>1.33276</v>
+        <v>1.29843</v>
       </c>
       <c r="D116" t="n">
-        <v>1.38106</v>
+        <v>1.34779</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.0728</v>
+        <v>1.04574</v>
       </c>
       <c r="C117" t="n">
-        <v>1.34781</v>
+        <v>1.30956</v>
       </c>
       <c r="D117" t="n">
-        <v>1.38512</v>
+        <v>1.34556</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.08352</v>
+        <v>1.04955</v>
       </c>
       <c r="C118" t="n">
-        <v>1.35346</v>
+        <v>1.29888</v>
       </c>
       <c r="D118" t="n">
-        <v>1.37142</v>
+        <v>1.33731</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.08572</v>
+        <v>1.05321</v>
       </c>
       <c r="C119" t="n">
-        <v>1.33884</v>
+        <v>1.30637</v>
       </c>
       <c r="D119" t="n">
-        <v>1.38311</v>
+        <v>1.3528</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.08834</v>
+        <v>1.05705</v>
       </c>
       <c r="C120" t="n">
-        <v>1.33934</v>
+        <v>1.31176</v>
       </c>
       <c r="D120" t="n">
-        <v>1.37191</v>
+        <v>1.34394</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.09587</v>
+        <v>1.06257</v>
       </c>
       <c r="C121" t="n">
-        <v>1.35301</v>
+        <v>1.31047</v>
       </c>
       <c r="D121" t="n">
-        <v>1.35979</v>
+        <v>1.33905</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.10043</v>
+        <v>1.0661</v>
       </c>
       <c r="C122" t="n">
-        <v>1.34992</v>
+        <v>1.29863</v>
       </c>
       <c r="D122" t="n">
-        <v>1.35921</v>
+        <v>1.34361</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.10954</v>
+        <v>1.07436</v>
       </c>
       <c r="C123" t="n">
-        <v>1.35989</v>
+        <v>1.32221</v>
       </c>
       <c r="D123" t="n">
-        <v>1.71281</v>
+        <v>1.67774</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.30134</v>
+        <v>1.26261</v>
       </c>
       <c r="C124" t="n">
-        <v>1.64845</v>
+        <v>1.61187</v>
       </c>
       <c r="D124" t="n">
-        <v>1.72479</v>
+        <v>1.68829</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.30899</v>
+        <v>1.26769</v>
       </c>
       <c r="C125" t="n">
-        <v>1.65734</v>
+        <v>1.60645</v>
       </c>
       <c r="D125" t="n">
-        <v>1.7205</v>
+        <v>1.68719</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.3158</v>
+        <v>1.27269</v>
       </c>
       <c r="C126" t="n">
-        <v>1.67195</v>
+        <v>1.61489</v>
       </c>
       <c r="D126" t="n">
-        <v>1.73355</v>
+        <v>1.69449</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.32474</v>
+        <v>1.27922</v>
       </c>
       <c r="C127" t="n">
-        <v>1.68072</v>
+        <v>1.6216</v>
       </c>
       <c r="D127" t="n">
-        <v>1.74302</v>
+        <v>1.68588</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.33223</v>
+        <v>1.28159</v>
       </c>
       <c r="C128" t="n">
-        <v>1.69716</v>
+        <v>1.64011</v>
       </c>
       <c r="D128" t="n">
-        <v>1.74087</v>
+        <v>1.70363</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.33802</v>
+        <v>1.28684</v>
       </c>
       <c r="C129" t="n">
-        <v>1.69923</v>
+        <v>1.63487</v>
       </c>
       <c r="D129" t="n">
-        <v>1.7479</v>
+        <v>1.6948</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.34582</v>
+        <v>1.29089</v>
       </c>
       <c r="C130" t="n">
-        <v>1.70562</v>
+        <v>1.64309</v>
       </c>
       <c r="D130" t="n">
-        <v>1.75871</v>
+        <v>1.69524</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.35122</v>
+        <v>1.29865</v>
       </c>
       <c r="C131" t="n">
-        <v>1.72113</v>
+        <v>1.6522</v>
       </c>
       <c r="D131" t="n">
-        <v>1.7515</v>
+        <v>1.71187</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.35776</v>
+        <v>1.30118</v>
       </c>
       <c r="C132" t="n">
-        <v>1.73057</v>
+        <v>1.66154</v>
       </c>
       <c r="D132" t="n">
-        <v>1.76491</v>
+        <v>1.71073</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.36238</v>
+        <v>1.30769</v>
       </c>
       <c r="C133" t="n">
-        <v>1.72929</v>
+        <v>1.66533</v>
       </c>
       <c r="D133" t="n">
-        <v>1.77137</v>
+        <v>1.71528</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.36894</v>
+        <v>1.31234</v>
       </c>
       <c r="C134" t="n">
-        <v>1.7486</v>
+        <v>1.66913</v>
       </c>
       <c r="D134" t="n">
-        <v>1.7718</v>
+        <v>1.71281</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.37686</v>
+        <v>1.31637</v>
       </c>
       <c r="C135" t="n">
-        <v>1.74863</v>
+        <v>1.67713</v>
       </c>
       <c r="D135" t="n">
-        <v>1.77672</v>
+        <v>1.72799</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.38599</v>
+        <v>1.3247</v>
       </c>
       <c r="C136" t="n">
-        <v>1.76461</v>
+        <v>1.68716</v>
       </c>
       <c r="D136" t="n">
-        <v>1.7827</v>
+        <v>1.72452</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.3961</v>
+        <v>1.33524</v>
       </c>
       <c r="C137" t="n">
-        <v>1.77197</v>
+        <v>1.70506</v>
       </c>
       <c r="D137" t="n">
-        <v>2.12724</v>
+        <v>2.06425</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.5937</v>
+        <v>1.52615</v>
       </c>
       <c r="C138" t="n">
-        <v>2.06301</v>
+        <v>1.98114</v>
       </c>
       <c r="D138" t="n">
-        <v>2.1343</v>
+        <v>2.06236</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.59685</v>
+        <v>1.52629</v>
       </c>
       <c r="C139" t="n">
-        <v>2.07759</v>
+        <v>1.99476</v>
       </c>
       <c r="D139" t="n">
-        <v>2.1404</v>
+        <v>2.07478</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.59875</v>
+        <v>1.52775</v>
       </c>
       <c r="C140" t="n">
-        <v>2.09365</v>
+        <v>2.01055</v>
       </c>
       <c r="D140" t="n">
-        <v>2.15827</v>
+        <v>2.08153</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.60146</v>
+        <v>1.52953</v>
       </c>
       <c r="C141" t="n">
-        <v>2.10518</v>
+        <v>2.01617</v>
       </c>
       <c r="D141" t="n">
-        <v>2.1641</v>
+        <v>2.08477</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.60421</v>
+        <v>1.53048</v>
       </c>
       <c r="C142" t="n">
-        <v>2.11806</v>
+        <v>2.0284</v>
       </c>
       <c r="D142" t="n">
-        <v>2.17594</v>
+        <v>2.0951</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.60616</v>
+        <v>1.53173</v>
       </c>
       <c r="C143" t="n">
-        <v>2.13</v>
+        <v>2.03231</v>
       </c>
       <c r="D143" t="n">
-        <v>2.17869</v>
+        <v>2.09518</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.593985</v>
+        <v>0.593675</v>
       </c>
       <c r="C2" t="n">
-        <v>0.836654</v>
+        <v>0.83621</v>
       </c>
       <c r="D2" t="n">
-        <v>0.89083</v>
+        <v>0.891508</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.583196</v>
+        <v>0.583431</v>
       </c>
       <c r="C3" t="n">
-        <v>0.819207</v>
+        <v>0.819414</v>
       </c>
       <c r="D3" t="n">
-        <v>0.872339</v>
+        <v>0.872601</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.574225</v>
+        <v>0.57492</v>
       </c>
       <c r="C4" t="n">
-        <v>0.804291</v>
+        <v>0.80441</v>
       </c>
       <c r="D4" t="n">
-        <v>0.856483</v>
+        <v>0.856479</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.567169</v>
+        <v>0.567379</v>
       </c>
       <c r="C5" t="n">
-        <v>0.790404</v>
+        <v>0.790874</v>
       </c>
       <c r="D5" t="n">
-        <v>0.841378</v>
+        <v>0.8416670000000001</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.56091</v>
+        <v>0.561466</v>
       </c>
       <c r="C6" t="n">
-        <v>0.777406</v>
+        <v>0.777668</v>
       </c>
       <c r="D6" t="n">
-        <v>0.827533</v>
+        <v>0.827565</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.556225</v>
+        <v>0.556762</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7664339999999999</v>
+        <v>0.7665999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.81635</v>
+        <v>0.816254</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.553706</v>
+        <v>0.554214</v>
       </c>
       <c r="C8" t="n">
-        <v>0.757287</v>
+        <v>0.757437</v>
       </c>
       <c r="D8" t="n">
-        <v>0.808146</v>
+        <v>0.808093</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.553741</v>
+        <v>0.554412</v>
       </c>
       <c r="C9" t="n">
-        <v>0.751337</v>
+        <v>0.7515500000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>1.07899</v>
+        <v>1.07949</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.698713</v>
+        <v>0.69978</v>
       </c>
       <c r="C10" t="n">
-        <v>0.987511</v>
+        <v>0.988067</v>
       </c>
       <c r="D10" t="n">
-        <v>1.05729</v>
+        <v>1.05841</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.683039</v>
+        <v>0.684016</v>
       </c>
       <c r="C11" t="n">
-        <v>0.963441</v>
+        <v>0.964302</v>
       </c>
       <c r="D11" t="n">
-        <v>1.03062</v>
+        <v>1.03138</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.668081</v>
+        <v>0.669019</v>
       </c>
       <c r="C12" t="n">
-        <v>0.940948</v>
+        <v>0.94186</v>
       </c>
       <c r="D12" t="n">
-        <v>1.00569</v>
+        <v>1.00627</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6536960000000001</v>
+        <v>0.654329</v>
       </c>
       <c r="C13" t="n">
-        <v>0.91901</v>
+        <v>0.9200199999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.980757</v>
+        <v>0.981773</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.640439</v>
+        <v>0.641444</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8991479999999999</v>
+        <v>0.899563</v>
       </c>
       <c r="D14" t="n">
-        <v>0.957951</v>
+        <v>0.958715</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.628413</v>
+        <v>0.6292180000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.879556</v>
+        <v>0.8803879999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.936048</v>
+        <v>0.937102</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.616639</v>
+        <v>0.61766</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8615080000000001</v>
+        <v>0.861771</v>
       </c>
       <c r="D16" t="n">
-        <v>0.91615</v>
+        <v>0.916781</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.606359</v>
+        <v>0.606797</v>
       </c>
       <c r="C17" t="n">
-        <v>0.844452</v>
+        <v>0.84465</v>
       </c>
       <c r="D17" t="n">
-        <v>0.89706</v>
+        <v>0.897787</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.596403</v>
+        <v>0.596644</v>
       </c>
       <c r="C18" t="n">
-        <v>0.828216</v>
+        <v>0.828477</v>
       </c>
       <c r="D18" t="n">
-        <v>0.879358</v>
+        <v>0.879935</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.588053</v>
+        <v>0.587909</v>
       </c>
       <c r="C19" t="n">
-        <v>0.81349</v>
+        <v>0.814044</v>
       </c>
       <c r="D19" t="n">
-        <v>0.863524</v>
+        <v>0.86414</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.581084</v>
+        <v>0.581063</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7992010000000001</v>
+        <v>0.799876</v>
       </c>
       <c r="D20" t="n">
-        <v>0.848162</v>
+        <v>0.848797</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.576527</v>
+        <v>0.576528</v>
       </c>
       <c r="C21" t="n">
-        <v>0.78704</v>
+        <v>0.787424</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8355050000000001</v>
+        <v>0.836235</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.573291</v>
+        <v>0.573315</v>
       </c>
       <c r="C22" t="n">
-        <v>0.776551</v>
+        <v>0.777108</v>
       </c>
       <c r="D22" t="n">
-        <v>0.82602</v>
+        <v>0.826298</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.572946</v>
+        <v>0.572626</v>
       </c>
       <c r="C23" t="n">
-        <v>0.768823</v>
+        <v>0.768977</v>
       </c>
       <c r="D23" t="n">
-        <v>1.10599</v>
+        <v>1.10686</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.702483</v>
+        <v>0.701965</v>
       </c>
       <c r="C24" t="n">
-        <v>0.988661</v>
+        <v>0.98874</v>
       </c>
       <c r="D24" t="n">
-        <v>1.07797</v>
+        <v>1.07865</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.68754</v>
+        <v>0.687144</v>
       </c>
       <c r="C25" t="n">
-        <v>0.965544</v>
+        <v>0.965011</v>
       </c>
       <c r="D25" t="n">
-        <v>1.05036</v>
+        <v>1.05105</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6730159999999999</v>
+        <v>0.672126</v>
       </c>
       <c r="C26" t="n">
-        <v>0.942897</v>
+        <v>0.943267</v>
       </c>
       <c r="D26" t="n">
-        <v>1.02454</v>
+        <v>1.02483</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.659213</v>
+        <v>0.658222</v>
       </c>
       <c r="C27" t="n">
-        <v>0.922037</v>
+        <v>0.921645</v>
       </c>
       <c r="D27" t="n">
-        <v>0.999281</v>
+        <v>1.00007</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.645983</v>
+        <v>0.645406</v>
       </c>
       <c r="C28" t="n">
-        <v>0.901603</v>
+        <v>0.901569</v>
       </c>
       <c r="D28" t="n">
-        <v>0.975948</v>
+        <v>0.976626</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.633621</v>
+        <v>0.632598</v>
       </c>
       <c r="C29" t="n">
-        <v>0.882536</v>
+        <v>0.882054</v>
       </c>
       <c r="D29" t="n">
-        <v>0.953543</v>
+        <v>0.954186</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.622244</v>
+        <v>0.621235</v>
       </c>
       <c r="C30" t="n">
-        <v>0.864185</v>
+        <v>0.864013</v>
       </c>
       <c r="D30" t="n">
-        <v>0.932522</v>
+        <v>0.933156</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6115159999999999</v>
+        <v>0.610389</v>
       </c>
       <c r="C31" t="n">
-        <v>0.847093</v>
+        <v>0.846705</v>
       </c>
       <c r="D31" t="n">
-        <v>0.913023</v>
+        <v>0.913424</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6019409999999999</v>
+        <v>0.600838</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8309530000000001</v>
+        <v>0.830726</v>
       </c>
       <c r="D32" t="n">
-        <v>0.894719</v>
+        <v>0.895297</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.593839</v>
+        <v>0.592317</v>
       </c>
       <c r="C33" t="n">
-        <v>0.816237</v>
+        <v>0.81569</v>
       </c>
       <c r="D33" t="n">
-        <v>0.87798</v>
+        <v>0.878355</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.585957</v>
+        <v>0.5854549999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.802386</v>
+        <v>0.802333</v>
       </c>
       <c r="D34" t="n">
-        <v>0.8628209999999999</v>
+        <v>0.863637</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.580307</v>
+        <v>0.579584</v>
       </c>
       <c r="C35" t="n">
-        <v>0.790022</v>
+        <v>0.7902979999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>0.849667</v>
+        <v>0.850316</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.576857</v>
+        <v>0.57619</v>
       </c>
       <c r="C36" t="n">
-        <v>0.779621</v>
+        <v>0.779882</v>
       </c>
       <c r="D36" t="n">
-        <v>0.839427</v>
+        <v>0.839732</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.575558</v>
+        <v>0.574634</v>
       </c>
       <c r="C37" t="n">
-        <v>0.77175</v>
+        <v>0.771742</v>
       </c>
       <c r="D37" t="n">
-        <v>1.12657</v>
+        <v>1.12714</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.732962</v>
+        <v>0.7330989999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>1.01972</v>
+        <v>1.01983</v>
       </c>
       <c r="D38" t="n">
-        <v>1.09829</v>
+        <v>1.09835</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.71832</v>
+        <v>0.718287</v>
       </c>
       <c r="C39" t="n">
-        <v>0.996823</v>
+        <v>0.996945</v>
       </c>
       <c r="D39" t="n">
-        <v>1.07078</v>
+        <v>1.07062</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.702869</v>
+        <v>0.702744</v>
       </c>
       <c r="C40" t="n">
-        <v>0.973701</v>
+        <v>0.973234</v>
       </c>
       <c r="D40" t="n">
-        <v>1.0443</v>
+        <v>1.04348</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6882470000000001</v>
+        <v>0.688288</v>
       </c>
       <c r="C41" t="n">
-        <v>0.951566</v>
+        <v>0.950585</v>
       </c>
       <c r="D41" t="n">
-        <v>1.01906</v>
+        <v>1.01841</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6745640000000001</v>
+        <v>0.674839</v>
       </c>
       <c r="C42" t="n">
-        <v>0.930538</v>
+        <v>0.929961</v>
       </c>
       <c r="D42" t="n">
-        <v>0.995765</v>
+        <v>0.994731</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.661565</v>
+        <v>0.662008</v>
       </c>
       <c r="C43" t="n">
-        <v>0.910643</v>
+        <v>0.909989</v>
       </c>
       <c r="D43" t="n">
-        <v>0.97311</v>
+        <v>0.97253</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.649945</v>
+        <v>0.650042</v>
       </c>
       <c r="C44" t="n">
-        <v>0.891629</v>
+        <v>0.891452</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9518529999999999</v>
+        <v>0.950854</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.638513</v>
+        <v>0.638005</v>
       </c>
       <c r="C45" t="n">
-        <v>0.873983</v>
+        <v>0.8736660000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9313</v>
+        <v>0.931333</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.628588</v>
+        <v>0.6281870000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>0.85688</v>
+        <v>0.857399</v>
       </c>
       <c r="D46" t="n">
-        <v>0.912615</v>
+        <v>0.912924</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.619239</v>
+        <v>0.618239</v>
       </c>
       <c r="C47" t="n">
-        <v>0.84146</v>
+        <v>0.840902</v>
       </c>
       <c r="D47" t="n">
-        <v>0.895381</v>
+        <v>0.8951440000000001</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.611115</v>
+        <v>0.611092</v>
       </c>
       <c r="C48" t="n">
-        <v>0.827828</v>
+        <v>0.8270729999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.87965</v>
+        <v>0.879588</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.6044389999999999</v>
+        <v>0.601973</v>
       </c>
       <c r="C49" t="n">
-        <v>0.81381</v>
+        <v>0.812577</v>
       </c>
       <c r="D49" t="n">
-        <v>0.865669</v>
+        <v>0.866181</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.599501</v>
+        <v>0.59989</v>
       </c>
       <c r="C50" t="n">
-        <v>0.802944</v>
+        <v>0.8017339999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.854497</v>
+        <v>0.854036</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.597211</v>
+        <v>0.596598</v>
       </c>
       <c r="C51" t="n">
-        <v>0.793676</v>
+        <v>0.794251</v>
       </c>
       <c r="D51" t="n">
-        <v>1.14851</v>
+        <v>1.14943</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.597877</v>
+        <v>0.597835</v>
       </c>
       <c r="C52" t="n">
-        <v>0.787525</v>
+        <v>0.787551</v>
       </c>
       <c r="D52" t="n">
-        <v>1.11995</v>
+        <v>1.12039</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.745754</v>
+        <v>0.744953</v>
       </c>
       <c r="C53" t="n">
-        <v>1.022</v>
+        <v>1.02177</v>
       </c>
       <c r="D53" t="n">
-        <v>1.09237</v>
+        <v>1.09215</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.730533</v>
+        <v>0.7292459999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.997854</v>
+        <v>0.998058</v>
       </c>
       <c r="D54" t="n">
-        <v>1.06612</v>
+        <v>1.066</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.715681</v>
+        <v>0.714691</v>
       </c>
       <c r="C55" t="n">
-        <v>0.97697</v>
+        <v>0.975247</v>
       </c>
       <c r="D55" t="n">
-        <v>1.04093</v>
+        <v>1.04167</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.702079</v>
+        <v>0.702104</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9549840000000001</v>
+        <v>0.953085</v>
       </c>
       <c r="D56" t="n">
-        <v>1.01716</v>
+        <v>1.01772</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.688828</v>
+        <v>0.686356</v>
       </c>
       <c r="C57" t="n">
-        <v>0.935082</v>
+        <v>0.9329539999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.995494</v>
+        <v>0.993716</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.676832</v>
+        <v>0.675274</v>
       </c>
       <c r="C58" t="n">
-        <v>0.9158269999999999</v>
+        <v>0.915112</v>
       </c>
       <c r="D58" t="n">
-        <v>0.973895</v>
+        <v>0.974104</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.665498</v>
+        <v>0.666042</v>
       </c>
       <c r="C59" t="n">
-        <v>0.8979549999999999</v>
+        <v>0.898388</v>
       </c>
       <c r="D59" t="n">
-        <v>0.954132</v>
+        <v>0.9527409999999999</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.655033</v>
+        <v>0.655016</v>
       </c>
       <c r="C60" t="n">
-        <v>0.8814689999999999</v>
+        <v>0.881803</v>
       </c>
       <c r="D60" t="n">
-        <v>0.935245</v>
+        <v>0.935847</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.645775</v>
+        <v>0.646082</v>
       </c>
       <c r="C61" t="n">
-        <v>0.8657820000000001</v>
+        <v>0.867004</v>
       </c>
       <c r="D61" t="n">
-        <v>0.917751</v>
+        <v>0.9182709999999999</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.637521</v>
+        <v>0.638849</v>
       </c>
       <c r="C62" t="n">
-        <v>0.851428</v>
+        <v>0.850168</v>
       </c>
       <c r="D62" t="n">
-        <v>0.902303</v>
+        <v>0.902049</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6311330000000001</v>
+        <v>0.631426</v>
       </c>
       <c r="C63" t="n">
-        <v>0.838519</v>
+        <v>0.837778</v>
       </c>
       <c r="D63" t="n">
-        <v>0.888418</v>
+        <v>0.887181</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.626409</v>
+        <v>0.62624</v>
       </c>
       <c r="C64" t="n">
-        <v>0.827234</v>
+        <v>0.825709</v>
       </c>
       <c r="D64" t="n">
-        <v>0.876247</v>
+        <v>0.87595</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.623288</v>
+        <v>0.623424</v>
       </c>
       <c r="C65" t="n">
-        <v>0.81831</v>
+        <v>0.81653</v>
       </c>
       <c r="D65" t="n">
-        <v>0.8673959999999999</v>
+        <v>0.865887</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.622873</v>
+        <v>0.620819</v>
       </c>
       <c r="C66" t="n">
-        <v>0.810007</v>
+        <v>0.8065560000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>1.14665</v>
+        <v>1.14406</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.772483</v>
+        <v>0.7695070000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>1.05286</v>
+        <v>1.04861</v>
       </c>
       <c r="D67" t="n">
-        <v>1.11987</v>
+        <v>1.11657</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.7569630000000001</v>
+        <v>0.7540210000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>1.0301</v>
+        <v>1.0274</v>
       </c>
       <c r="D68" t="n">
-        <v>1.09333</v>
+        <v>1.09017</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.742297</v>
+        <v>0.739469</v>
       </c>
       <c r="C69" t="n">
-        <v>1.00709</v>
+        <v>1.00371</v>
       </c>
       <c r="D69" t="n">
-        <v>1.06824</v>
+        <v>1.06524</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.72824</v>
+        <v>0.725265</v>
       </c>
       <c r="C70" t="n">
-        <v>0.985667</v>
+        <v>0.982003</v>
       </c>
       <c r="D70" t="n">
-        <v>1.04438</v>
+        <v>1.0402</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.715332</v>
+        <v>0.711476</v>
       </c>
       <c r="C71" t="n">
-        <v>0.965427</v>
+        <v>0.961637</v>
       </c>
       <c r="D71" t="n">
-        <v>1.02174</v>
+        <v>1.01833</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.703071</v>
+        <v>0.699008</v>
       </c>
       <c r="C72" t="n">
-        <v>0.947036</v>
+        <v>0.942828</v>
       </c>
       <c r="D72" t="n">
-        <v>1.00059</v>
+        <v>0.997441</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.69107</v>
+        <v>0.68787</v>
       </c>
       <c r="C73" t="n">
-        <v>0.928253</v>
+        <v>0.925308</v>
       </c>
       <c r="D73" t="n">
-        <v>0.980138</v>
+        <v>0.977216</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.680353</v>
+        <v>0.679136</v>
       </c>
       <c r="C74" t="n">
-        <v>0.910826</v>
+        <v>0.90852</v>
       </c>
       <c r="D74" t="n">
-        <v>0.961303</v>
+        <v>0.960465</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.670917</v>
+        <v>0.6701859999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>0.895683</v>
+        <v>0.894079</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9437720000000001</v>
+        <v>0.942882</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.66248</v>
+        <v>0.660764</v>
       </c>
       <c r="C76" t="n">
-        <v>0.880171</v>
+        <v>0.879949</v>
       </c>
       <c r="D76" t="n">
-        <v>0.927972</v>
+        <v>0.926825</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.655976</v>
+        <v>0.654264</v>
       </c>
       <c r="C77" t="n">
-        <v>0.867385</v>
+        <v>0.862616</v>
       </c>
       <c r="D77" t="n">
-        <v>0.913685</v>
+        <v>0.911272</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.650954</v>
+        <v>0.647516</v>
       </c>
       <c r="C78" t="n">
-        <v>0.855529</v>
+        <v>0.851925</v>
       </c>
       <c r="D78" t="n">
-        <v>0.901527</v>
+        <v>0.897824</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.648277</v>
+        <v>0.643967</v>
       </c>
       <c r="C79" t="n">
-        <v>0.841438</v>
+        <v>0.839411</v>
       </c>
       <c r="D79" t="n">
-        <v>0.891402</v>
+        <v>0.888418</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.64774</v>
+        <v>0.643557</v>
       </c>
       <c r="C80" t="n">
-        <v>0.832387</v>
+        <v>0.832963</v>
       </c>
       <c r="D80" t="n">
-        <v>1.18569</v>
+        <v>1.18722</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.813049</v>
+        <v>0.815797</v>
       </c>
       <c r="C81" t="n">
-        <v>1.0916</v>
+        <v>1.09438</v>
       </c>
       <c r="D81" t="n">
-        <v>1.15903</v>
+        <v>1.16259</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.799874</v>
+        <v>0.805781</v>
       </c>
       <c r="C82" t="n">
-        <v>1.07061</v>
+        <v>1.07349</v>
       </c>
       <c r="D82" t="n">
-        <v>1.13286</v>
+        <v>1.13649</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.786091</v>
+        <v>0.793505</v>
       </c>
       <c r="C83" t="n">
-        <v>1.04707</v>
+        <v>1.05427</v>
       </c>
       <c r="D83" t="n">
-        <v>1.10978</v>
+        <v>1.11324</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.77323</v>
+        <v>0.781962</v>
       </c>
       <c r="C84" t="n">
-        <v>1.02872</v>
+        <v>1.03407</v>
       </c>
       <c r="D84" t="n">
-        <v>1.08447</v>
+        <v>1.09019</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.762154</v>
+        <v>0.7721749999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>1.00675</v>
+        <v>1.01524</v>
       </c>
       <c r="D85" t="n">
-        <v>1.06176</v>
+        <v>1.06943</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.750466</v>
+        <v>0.760421</v>
       </c>
       <c r="C86" t="n">
-        <v>0.988487</v>
+        <v>0.996244</v>
       </c>
       <c r="D86" t="n">
-        <v>1.03797</v>
+        <v>1.04628</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.735474</v>
+        <v>0.743891</v>
       </c>
       <c r="C87" t="n">
-        <v>0.969869</v>
+        <v>0.971814</v>
       </c>
       <c r="D87" t="n">
-        <v>1.02004</v>
+        <v>1.02088</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.72573</v>
+        <v>0.730304</v>
       </c>
       <c r="C88" t="n">
-        <v>0.952531</v>
+        <v>0.954138</v>
       </c>
       <c r="D88" t="n">
-        <v>0.998247</v>
+        <v>1.00463</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.715926</v>
+        <v>0.724847</v>
       </c>
       <c r="C89" t="n">
-        <v>0.936734</v>
+        <v>0.939063</v>
       </c>
       <c r="D89" t="n">
-        <v>0.980123</v>
+        <v>0.987001</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.705549</v>
+        <v>0.714986</v>
       </c>
       <c r="C90" t="n">
-        <v>0.915668</v>
+        <v>0.927657</v>
       </c>
       <c r="D90" t="n">
-        <v>0.963989</v>
+        <v>0.96789</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.697391</v>
+        <v>0.709615</v>
       </c>
       <c r="C91" t="n">
-        <v>0.902112</v>
+        <v>0.915127</v>
       </c>
       <c r="D91" t="n">
-        <v>0.947995</v>
+        <v>0.953645</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.690076</v>
+        <v>0.702858</v>
       </c>
       <c r="C92" t="n">
-        <v>0.89319</v>
+        <v>0.901733</v>
       </c>
       <c r="D92" t="n">
-        <v>0.935364</v>
+        <v>0.941658</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.686069</v>
+        <v>0.6971580000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>0.883315</v>
+        <v>0.8901520000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>0.923023</v>
+        <v>0.930215</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.6859150000000001</v>
+        <v>0.694994</v>
       </c>
       <c r="C94" t="n">
-        <v>0.87476</v>
+        <v>0.881285</v>
       </c>
       <c r="D94" t="n">
-        <v>1.24034</v>
+        <v>1.24855</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.871688</v>
+        <v>0.877798</v>
       </c>
       <c r="C95" t="n">
-        <v>1.14478</v>
+        <v>1.14839</v>
       </c>
       <c r="D95" t="n">
-        <v>1.23392</v>
+        <v>1.24051</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.881613</v>
+        <v>0.886875</v>
       </c>
       <c r="C96" t="n">
-        <v>1.14088</v>
+        <v>1.14928</v>
       </c>
       <c r="D96" t="n">
-        <v>1.22887</v>
+        <v>1.22494</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.881987</v>
+        <v>0.882682</v>
       </c>
       <c r="C97" t="n">
-        <v>1.13706</v>
+        <v>1.14481</v>
       </c>
       <c r="D97" t="n">
-        <v>1.20447</v>
+        <v>1.21702</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.8782</v>
+        <v>0.883479</v>
       </c>
       <c r="C98" t="n">
-        <v>1.12706</v>
+        <v>1.12821</v>
       </c>
       <c r="D98" t="n">
-        <v>1.18787</v>
+        <v>1.1914</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.871623</v>
+        <v>0.874963</v>
       </c>
       <c r="C99" t="n">
         <v>1.11704</v>
       </c>
       <c r="D99" t="n">
-        <v>1.17455</v>
+        <v>1.18267</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.866618</v>
+        <v>0.869517</v>
       </c>
       <c r="C100" t="n">
-        <v>1.10048</v>
+        <v>1.10127</v>
       </c>
       <c r="D100" t="n">
-        <v>1.14265</v>
+        <v>1.1588</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.859491</v>
+        <v>0.860575</v>
       </c>
       <c r="C101" t="n">
-        <v>1.07865</v>
+        <v>1.09619</v>
       </c>
       <c r="D101" t="n">
-        <v>1.14363</v>
+        <v>1.14039</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.853217</v>
+        <v>0.8509989999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>1.08001</v>
+        <v>1.08226</v>
       </c>
       <c r="D102" t="n">
-        <v>1.13008</v>
+        <v>1.11916</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.846863</v>
+        <v>0.844901</v>
       </c>
       <c r="C103" t="n">
-        <v>1.06621</v>
+        <v>1.06438</v>
       </c>
       <c r="D103" t="n">
-        <v>1.09017</v>
+        <v>1.10482</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.838273</v>
+        <v>0.838131</v>
       </c>
       <c r="C104" t="n">
-        <v>1.06055</v>
+        <v>1.0583</v>
       </c>
       <c r="D104" t="n">
-        <v>1.07504</v>
+        <v>1.09557</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.832377</v>
+        <v>0.830687</v>
       </c>
       <c r="C105" t="n">
-        <v>1.03075</v>
+        <v>1.03451</v>
       </c>
       <c r="D105" t="n">
-        <v>1.06045</v>
+        <v>1.08075</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.82681</v>
+        <v>0.827711</v>
       </c>
       <c r="C106" t="n">
-        <v>1.02012</v>
+        <v>1.0376</v>
       </c>
       <c r="D106" t="n">
-        <v>1.06083</v>
+        <v>1.06477</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.824339</v>
+        <v>0.823816</v>
       </c>
       <c r="C107" t="n">
-        <v>1.01012</v>
+        <v>1.01385</v>
       </c>
       <c r="D107" t="n">
-        <v>1.02895</v>
+        <v>1.0329</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.820947</v>
+        <v>0.821731</v>
       </c>
       <c r="C108" t="n">
-        <v>1.0257</v>
+        <v>0.9966120000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>1.38301</v>
+        <v>1.35298</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.824249</v>
+        <v>0.822816</v>
       </c>
       <c r="C109" t="n">
-        <v>1.02432</v>
+        <v>1.01525</v>
       </c>
       <c r="D109" t="n">
-        <v>1.39407</v>
+        <v>1.3934</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.0098</v>
+        <v>1.01596</v>
       </c>
       <c r="C110" t="n">
-        <v>1.29895</v>
+        <v>1.30839</v>
       </c>
       <c r="D110" t="n">
-        <v>1.38252</v>
+        <v>1.38784</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.01712</v>
+        <v>1.02202</v>
       </c>
       <c r="C111" t="n">
-        <v>1.3063</v>
+        <v>1.30381</v>
       </c>
       <c r="D111" t="n">
-        <v>1.38188</v>
+        <v>1.37764</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.02225</v>
+        <v>1.0253</v>
       </c>
       <c r="C112" t="n">
-        <v>1.30187</v>
+        <v>1.30753</v>
       </c>
       <c r="D112" t="n">
-        <v>1.36232</v>
+        <v>1.38086</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.02905</v>
+        <v>1.03095</v>
       </c>
       <c r="C113" t="n">
-        <v>1.29978</v>
+        <v>1.31037</v>
       </c>
       <c r="D113" t="n">
-        <v>1.36347</v>
+        <v>1.37879</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.03278</v>
+        <v>1.03384</v>
       </c>
       <c r="C114" t="n">
-        <v>1.3099</v>
+        <v>1.30815</v>
       </c>
       <c r="D114" t="n">
-        <v>1.37121</v>
+        <v>1.37261</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.04107</v>
+        <v>1.0392</v>
       </c>
       <c r="C115" t="n">
-        <v>1.31223</v>
+        <v>1.30078</v>
       </c>
       <c r="D115" t="n">
-        <v>1.37102</v>
+        <v>1.35168</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.04137</v>
+        <v>1.04428</v>
       </c>
       <c r="C116" t="n">
-        <v>1.29843</v>
+        <v>1.31267</v>
       </c>
       <c r="D116" t="n">
-        <v>1.34779</v>
+        <v>1.36797</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.04574</v>
+        <v>1.04639</v>
       </c>
       <c r="C117" t="n">
-        <v>1.30956</v>
+        <v>1.31581</v>
       </c>
       <c r="D117" t="n">
-        <v>1.34556</v>
+        <v>1.36258</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.04955</v>
+        <v>1.04981</v>
       </c>
       <c r="C118" t="n">
-        <v>1.29888</v>
+        <v>1.30695</v>
       </c>
       <c r="D118" t="n">
-        <v>1.33731</v>
+        <v>1.34697</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.05321</v>
+        <v>1.05242</v>
       </c>
       <c r="C119" t="n">
-        <v>1.30637</v>
+        <v>1.31265</v>
       </c>
       <c r="D119" t="n">
-        <v>1.3528</v>
+        <v>1.34877</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.05705</v>
+        <v>1.05774</v>
       </c>
       <c r="C120" t="n">
-        <v>1.31176</v>
+        <v>1.3038</v>
       </c>
       <c r="D120" t="n">
-        <v>1.34394</v>
+        <v>1.34747</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.06257</v>
+        <v>1.06248</v>
       </c>
       <c r="C121" t="n">
-        <v>1.31047</v>
+        <v>1.30549</v>
       </c>
       <c r="D121" t="n">
-        <v>1.33905</v>
+        <v>1.33406</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.0661</v>
+        <v>1.06818</v>
       </c>
       <c r="C122" t="n">
-        <v>1.29863</v>
+        <v>1.30638</v>
       </c>
       <c r="D122" t="n">
-        <v>1.34361</v>
+        <v>1.335</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.07436</v>
+        <v>1.07513</v>
       </c>
       <c r="C123" t="n">
-        <v>1.32221</v>
+        <v>1.32726</v>
       </c>
       <c r="D123" t="n">
-        <v>1.67774</v>
+        <v>1.6757</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.26261</v>
+        <v>1.26363</v>
       </c>
       <c r="C124" t="n">
-        <v>1.61187</v>
+        <v>1.61651</v>
       </c>
       <c r="D124" t="n">
-        <v>1.68829</v>
+        <v>1.68995</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.26769</v>
+        <v>1.27003</v>
       </c>
       <c r="C125" t="n">
-        <v>1.60645</v>
+        <v>1.61603</v>
       </c>
       <c r="D125" t="n">
-        <v>1.68719</v>
+        <v>1.6918</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.27269</v>
+        <v>1.27414</v>
       </c>
       <c r="C126" t="n">
-        <v>1.61489</v>
+        <v>1.61582</v>
       </c>
       <c r="D126" t="n">
-        <v>1.69449</v>
+        <v>1.68766</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.27922</v>
+        <v>1.27942</v>
       </c>
       <c r="C127" t="n">
-        <v>1.6216</v>
+        <v>1.63237</v>
       </c>
       <c r="D127" t="n">
-        <v>1.68588</v>
+        <v>1.69023</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.28159</v>
+        <v>1.28446</v>
       </c>
       <c r="C128" t="n">
-        <v>1.64011</v>
+        <v>1.63306</v>
       </c>
       <c r="D128" t="n">
-        <v>1.70363</v>
+        <v>1.69507</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.28684</v>
+        <v>1.28882</v>
       </c>
       <c r="C129" t="n">
-        <v>1.63487</v>
+        <v>1.64108</v>
       </c>
       <c r="D129" t="n">
-        <v>1.6948</v>
+        <v>1.70891</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.29089</v>
+        <v>1.29311</v>
       </c>
       <c r="C130" t="n">
-        <v>1.64309</v>
+        <v>1.64508</v>
       </c>
       <c r="D130" t="n">
-        <v>1.69524</v>
+        <v>1.69856</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.29865</v>
+        <v>1.29789</v>
       </c>
       <c r="C131" t="n">
-        <v>1.6522</v>
+        <v>1.65141</v>
       </c>
       <c r="D131" t="n">
-        <v>1.71187</v>
+        <v>1.70697</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.30118</v>
+        <v>1.30271</v>
       </c>
       <c r="C132" t="n">
-        <v>1.66154</v>
+        <v>1.65936</v>
       </c>
       <c r="D132" t="n">
-        <v>1.71073</v>
+        <v>1.71199</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.30769</v>
+        <v>1.30642</v>
       </c>
       <c r="C133" t="n">
-        <v>1.66533</v>
+        <v>1.66386</v>
       </c>
       <c r="D133" t="n">
-        <v>1.71528</v>
+        <v>1.70828</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.31234</v>
+        <v>1.31267</v>
       </c>
       <c r="C134" t="n">
-        <v>1.66913</v>
+        <v>1.67648</v>
       </c>
       <c r="D134" t="n">
-        <v>1.71281</v>
+        <v>1.70031</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.31637</v>
+        <v>1.31754</v>
       </c>
       <c r="C135" t="n">
-        <v>1.67713</v>
+        <v>1.67739</v>
       </c>
       <c r="D135" t="n">
-        <v>1.72799</v>
+        <v>1.71463</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.3247</v>
+        <v>1.32433</v>
       </c>
       <c r="C136" t="n">
-        <v>1.68716</v>
+        <v>1.69411</v>
       </c>
       <c r="D136" t="n">
-        <v>1.72452</v>
+        <v>1.7225</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.33524</v>
+        <v>1.3337</v>
       </c>
       <c r="C137" t="n">
-        <v>1.70506</v>
+        <v>1.69877</v>
       </c>
       <c r="D137" t="n">
-        <v>2.06425</v>
+        <v>2.06019</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.52615</v>
+        <v>1.52859</v>
       </c>
       <c r="C138" t="n">
-        <v>1.98114</v>
+        <v>1.99155</v>
       </c>
       <c r="D138" t="n">
-        <v>2.06236</v>
+        <v>2.07334</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.52629</v>
+        <v>1.52918</v>
       </c>
       <c r="C139" t="n">
-        <v>1.99476</v>
+        <v>2.00116</v>
       </c>
       <c r="D139" t="n">
-        <v>2.07478</v>
+        <v>2.07578</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.52775</v>
+        <v>1.53234</v>
       </c>
       <c r="C140" t="n">
-        <v>2.01055</v>
+        <v>2.0073</v>
       </c>
       <c r="D140" t="n">
-        <v>2.08153</v>
+        <v>2.08558</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.52953</v>
+        <v>1.53089</v>
       </c>
       <c r="C141" t="n">
-        <v>2.01617</v>
+        <v>2.0204</v>
       </c>
       <c r="D141" t="n">
-        <v>2.08477</v>
+        <v>2.08681</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.53048</v>
+        <v>1.53174</v>
       </c>
       <c r="C142" t="n">
-        <v>2.0284</v>
+        <v>2.02787</v>
       </c>
       <c r="D142" t="n">
-        <v>2.0951</v>
+        <v>2.09235</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.53173</v>
+        <v>1.53255</v>
       </c>
       <c r="C143" t="n">
-        <v>2.03231</v>
+        <v>2.03702</v>
       </c>
       <c r="D143" t="n">
-        <v>2.09518</v>
+        <v>2.09983</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.593675</v>
+        <v>0.59239</v>
       </c>
       <c r="C2" t="n">
-        <v>0.83621</v>
+        <v>0.835954</v>
       </c>
       <c r="D2" t="n">
-        <v>0.891508</v>
+        <v>0.89157</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.583431</v>
+        <v>0.582548</v>
       </c>
       <c r="C3" t="n">
-        <v>0.819414</v>
+        <v>0.819528</v>
       </c>
       <c r="D3" t="n">
-        <v>0.872601</v>
+        <v>0.872565</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.57492</v>
+        <v>0.573987</v>
       </c>
       <c r="C4" t="n">
-        <v>0.80441</v>
+        <v>0.8044480000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.856479</v>
+        <v>0.856389</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.567379</v>
+        <v>0.56684</v>
       </c>
       <c r="C5" t="n">
-        <v>0.790874</v>
+        <v>0.790662</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8416670000000001</v>
+        <v>0.841434</v>
       </c>
     </row>
     <row r="6">
@@ -3304,10 +3304,10 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.561466</v>
+        <v>0.560842</v>
       </c>
       <c r="C6" t="n">
-        <v>0.777668</v>
+        <v>0.777679</v>
       </c>
       <c r="D6" t="n">
         <v>0.827565</v>
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.556762</v>
+        <v>0.55598</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7665999999999999</v>
+        <v>0.7665110000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.816254</v>
+        <v>0.816225</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.554214</v>
+        <v>0.553299</v>
       </c>
       <c r="C8" t="n">
-        <v>0.757437</v>
+        <v>0.757543</v>
       </c>
       <c r="D8" t="n">
-        <v>0.808093</v>
+        <v>0.80808</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.554412</v>
+        <v>0.553723</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7515500000000001</v>
+        <v>0.751336</v>
       </c>
       <c r="D9" t="n">
-        <v>1.07949</v>
+        <v>1.07964</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.69978</v>
+        <v>0.6991000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.988067</v>
+        <v>0.987903</v>
       </c>
       <c r="D10" t="n">
-        <v>1.05841</v>
+        <v>1.05808</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.684016</v>
+        <v>0.683152</v>
       </c>
       <c r="C11" t="n">
-        <v>0.964302</v>
+        <v>0.96377</v>
       </c>
       <c r="D11" t="n">
-        <v>1.03138</v>
+        <v>1.03092</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.669019</v>
+        <v>0.668439</v>
       </c>
       <c r="C12" t="n">
-        <v>0.94186</v>
+        <v>0.941785</v>
       </c>
       <c r="D12" t="n">
-        <v>1.00627</v>
+        <v>1.00597</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.654329</v>
+        <v>0.654018</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9200199999999999</v>
+        <v>0.919589</v>
       </c>
       <c r="D13" t="n">
-        <v>0.981773</v>
+        <v>0.9815</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.641444</v>
+        <v>0.641151</v>
       </c>
       <c r="C14" t="n">
-        <v>0.899563</v>
+        <v>0.899191</v>
       </c>
       <c r="D14" t="n">
-        <v>0.958715</v>
+        <v>0.958202</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6292180000000001</v>
+        <v>0.6289090000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8803879999999999</v>
+        <v>0.88032</v>
       </c>
       <c r="D15" t="n">
-        <v>0.937102</v>
+        <v>0.936798</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.61766</v>
+        <v>0.617259</v>
       </c>
       <c r="C16" t="n">
-        <v>0.861771</v>
+        <v>0.861876</v>
       </c>
       <c r="D16" t="n">
-        <v>0.916781</v>
+        <v>0.916686</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.606797</v>
+        <v>0.60648</v>
       </c>
       <c r="C17" t="n">
-        <v>0.84465</v>
+        <v>0.844568</v>
       </c>
       <c r="D17" t="n">
-        <v>0.897787</v>
+        <v>0.897319</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.596644</v>
+        <v>0.596734</v>
       </c>
       <c r="C18" t="n">
-        <v>0.828477</v>
+        <v>0.828135</v>
       </c>
       <c r="D18" t="n">
-        <v>0.879935</v>
+        <v>0.8796850000000001</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.587909</v>
+        <v>0.588085</v>
       </c>
       <c r="C19" t="n">
-        <v>0.814044</v>
+        <v>0.813514</v>
       </c>
       <c r="D19" t="n">
-        <v>0.86414</v>
+        <v>0.863748</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.581063</v>
+        <v>0.5814550000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.799876</v>
+        <v>0.799435</v>
       </c>
       <c r="D20" t="n">
-        <v>0.848797</v>
+        <v>0.8484969999999999</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.576528</v>
+        <v>0.5768450000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.787424</v>
+        <v>0.787296</v>
       </c>
       <c r="D21" t="n">
-        <v>0.836235</v>
+        <v>0.835724</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.573315</v>
+        <v>0.573681</v>
       </c>
       <c r="C22" t="n">
-        <v>0.777108</v>
+        <v>0.776784</v>
       </c>
       <c r="D22" t="n">
-        <v>0.826298</v>
+        <v>0.8263819999999999</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.572626</v>
+        <v>0.57318</v>
       </c>
       <c r="C23" t="n">
-        <v>0.768977</v>
+        <v>0.768871</v>
       </c>
       <c r="D23" t="n">
-        <v>1.10686</v>
+        <v>1.10673</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.701965</v>
+        <v>0.702555</v>
       </c>
       <c r="C24" t="n">
-        <v>0.98874</v>
+        <v>0.988544</v>
       </c>
       <c r="D24" t="n">
-        <v>1.07865</v>
+        <v>1.07847</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.687144</v>
+        <v>0.687674</v>
       </c>
       <c r="C25" t="n">
-        <v>0.965011</v>
+        <v>0.965152</v>
       </c>
       <c r="D25" t="n">
-        <v>1.05105</v>
+        <v>1.05101</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.672126</v>
+        <v>0.673133</v>
       </c>
       <c r="C26" t="n">
-        <v>0.943267</v>
+        <v>0.942949</v>
       </c>
       <c r="D26" t="n">
-        <v>1.02483</v>
+        <v>1.02505</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.658222</v>
+        <v>0.658903</v>
       </c>
       <c r="C27" t="n">
-        <v>0.921645</v>
+        <v>0.921635</v>
       </c>
       <c r="D27" t="n">
-        <v>1.00007</v>
+        <v>0.999875</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.645406</v>
+        <v>0.646209</v>
       </c>
       <c r="C28" t="n">
-        <v>0.901569</v>
+        <v>0.9015609999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>0.976626</v>
+        <v>0.976367</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.632598</v>
+        <v>0.633634</v>
       </c>
       <c r="C29" t="n">
-        <v>0.882054</v>
+        <v>0.88222</v>
       </c>
       <c r="D29" t="n">
-        <v>0.954186</v>
+        <v>0.954328</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.621235</v>
+        <v>0.622367</v>
       </c>
       <c r="C30" t="n">
-        <v>0.864013</v>
+        <v>0.864159</v>
       </c>
       <c r="D30" t="n">
-        <v>0.933156</v>
+        <v>0.9333399999999999</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.610389</v>
+        <v>0.6118749999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.846705</v>
+        <v>0.846989</v>
       </c>
       <c r="D31" t="n">
-        <v>0.913424</v>
+        <v>0.913345</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.600838</v>
+        <v>0.602165</v>
       </c>
       <c r="C32" t="n">
-        <v>0.830726</v>
+        <v>0.830962</v>
       </c>
       <c r="D32" t="n">
-        <v>0.895297</v>
+        <v>0.895029</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.592317</v>
+        <v>0.593547</v>
       </c>
       <c r="C33" t="n">
-        <v>0.81569</v>
+        <v>0.816124</v>
       </c>
       <c r="D33" t="n">
-        <v>0.878355</v>
+        <v>0.878671</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5854549999999999</v>
+        <v>0.586253</v>
       </c>
       <c r="C34" t="n">
-        <v>0.802333</v>
+        <v>0.802518</v>
       </c>
       <c r="D34" t="n">
-        <v>0.863637</v>
+        <v>0.8632300000000001</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.579584</v>
+        <v>0.580757</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7902979999999999</v>
+        <v>0.790412</v>
       </c>
       <c r="D35" t="n">
-        <v>0.850316</v>
+        <v>0.850104</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.57619</v>
+        <v>0.577252</v>
       </c>
       <c r="C36" t="n">
-        <v>0.779882</v>
+        <v>0.779484</v>
       </c>
       <c r="D36" t="n">
-        <v>0.839732</v>
+        <v>0.839531</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.574634</v>
+        <v>0.575779</v>
       </c>
       <c r="C37" t="n">
-        <v>0.771742</v>
+        <v>0.771523</v>
       </c>
       <c r="D37" t="n">
-        <v>1.12714</v>
+        <v>1.12744</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7330989999999999</v>
+        <v>0.733445</v>
       </c>
       <c r="C38" t="n">
-        <v>1.01983</v>
+        <v>1.01986</v>
       </c>
       <c r="D38" t="n">
-        <v>1.09835</v>
+        <v>1.09857</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.718287</v>
+        <v>0.719163</v>
       </c>
       <c r="C39" t="n">
-        <v>0.996945</v>
+        <v>0.99773</v>
       </c>
       <c r="D39" t="n">
-        <v>1.07062</v>
+        <v>1.07252</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.702744</v>
+        <v>0.704126</v>
       </c>
       <c r="C40" t="n">
-        <v>0.973234</v>
+        <v>0.9747400000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>1.04348</v>
+        <v>1.04635</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.688288</v>
+        <v>0.689536</v>
       </c>
       <c r="C41" t="n">
-        <v>0.950585</v>
+        <v>0.952905</v>
       </c>
       <c r="D41" t="n">
-        <v>1.01841</v>
+        <v>1.0208</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.674839</v>
+        <v>0.675798</v>
       </c>
       <c r="C42" t="n">
-        <v>0.929961</v>
+        <v>0.931565</v>
       </c>
       <c r="D42" t="n">
-        <v>0.994731</v>
+        <v>0.997286</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.662008</v>
+        <v>0.663145</v>
       </c>
       <c r="C43" t="n">
-        <v>0.909989</v>
+        <v>0.9115220000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.97253</v>
+        <v>0.974869</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.650042</v>
+        <v>0.650595</v>
       </c>
       <c r="C44" t="n">
-        <v>0.891452</v>
+        <v>0.892028</v>
       </c>
       <c r="D44" t="n">
-        <v>0.950854</v>
+        <v>0.953469</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.638005</v>
+        <v>0.639699</v>
       </c>
       <c r="C45" t="n">
-        <v>0.8736660000000001</v>
+        <v>0.875553</v>
       </c>
       <c r="D45" t="n">
-        <v>0.931333</v>
+        <v>0.9328</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6281870000000001</v>
+        <v>0.629257</v>
       </c>
       <c r="C46" t="n">
-        <v>0.857399</v>
+        <v>0.859008</v>
       </c>
       <c r="D46" t="n">
-        <v>0.912924</v>
+        <v>0.914443</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.618239</v>
+        <v>0.619547</v>
       </c>
       <c r="C47" t="n">
-        <v>0.840902</v>
+        <v>0.843299</v>
       </c>
       <c r="D47" t="n">
-        <v>0.8951440000000001</v>
+        <v>0.90465</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.611092</v>
+        <v>0.616378</v>
       </c>
       <c r="C48" t="n">
-        <v>0.8270729999999999</v>
+        <v>0.82736</v>
       </c>
       <c r="D48" t="n">
-        <v>0.879588</v>
+        <v>0.881193</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.601973</v>
+        <v>0.605888</v>
       </c>
       <c r="C49" t="n">
-        <v>0.812577</v>
+        <v>0.814577</v>
       </c>
       <c r="D49" t="n">
-        <v>0.866181</v>
+        <v>0.867581</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.59989</v>
+        <v>0.600586</v>
       </c>
       <c r="C50" t="n">
-        <v>0.8017339999999999</v>
+        <v>0.803079</v>
       </c>
       <c r="D50" t="n">
-        <v>0.854036</v>
+        <v>0.85684</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.596598</v>
+        <v>0.599146</v>
       </c>
       <c r="C51" t="n">
-        <v>0.794251</v>
+        <v>0.794639</v>
       </c>
       <c r="D51" t="n">
-        <v>1.14943</v>
+        <v>1.15058</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.597835</v>
+        <v>0.598586</v>
       </c>
       <c r="C52" t="n">
-        <v>0.787551</v>
+        <v>0.7874640000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>1.12039</v>
+        <v>1.12079</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.744953</v>
+        <v>0.746218</v>
       </c>
       <c r="C53" t="n">
-        <v>1.02177</v>
+        <v>1.02344</v>
       </c>
       <c r="D53" t="n">
-        <v>1.09215</v>
+        <v>1.09493</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.7292459999999999</v>
+        <v>0.732047</v>
       </c>
       <c r="C54" t="n">
-        <v>0.998058</v>
+        <v>1.00023</v>
       </c>
       <c r="D54" t="n">
-        <v>1.066</v>
+        <v>1.06741</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.714691</v>
+        <v>0.716106</v>
       </c>
       <c r="C55" t="n">
-        <v>0.975247</v>
+        <v>0.97687</v>
       </c>
       <c r="D55" t="n">
-        <v>1.04167</v>
+        <v>1.04223</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.702104</v>
+        <v>0.702615</v>
       </c>
       <c r="C56" t="n">
-        <v>0.953085</v>
+        <v>0.955929</v>
       </c>
       <c r="D56" t="n">
-        <v>1.01772</v>
+        <v>1.0188</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.686356</v>
+        <v>0.689692</v>
       </c>
       <c r="C57" t="n">
-        <v>0.9329539999999999</v>
+        <v>0.93591</v>
       </c>
       <c r="D57" t="n">
-        <v>0.993716</v>
+        <v>0.996599</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.675274</v>
+        <v>0.67792</v>
       </c>
       <c r="C58" t="n">
-        <v>0.915112</v>
+        <v>0.918556</v>
       </c>
       <c r="D58" t="n">
-        <v>0.974104</v>
+        <v>0.975074</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.666042</v>
+        <v>0.666367</v>
       </c>
       <c r="C59" t="n">
-        <v>0.898388</v>
+        <v>0.899247</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9527409999999999</v>
+        <v>0.954712</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.655016</v>
+        <v>0.656223</v>
       </c>
       <c r="C60" t="n">
-        <v>0.881803</v>
+        <v>0.88292</v>
       </c>
       <c r="D60" t="n">
-        <v>0.935847</v>
+        <v>0.935259</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.646082</v>
+        <v>0.64569</v>
       </c>
       <c r="C61" t="n">
-        <v>0.867004</v>
+        <v>0.867702</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9182709999999999</v>
+        <v>0.918726</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.638849</v>
+        <v>0.637428</v>
       </c>
       <c r="C62" t="n">
-        <v>0.850168</v>
+        <v>0.851193</v>
       </c>
       <c r="D62" t="n">
-        <v>0.902049</v>
+        <v>0.901448</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.631426</v>
+        <v>0.630819</v>
       </c>
       <c r="C63" t="n">
-        <v>0.837778</v>
+        <v>0.838755</v>
       </c>
       <c r="D63" t="n">
-        <v>0.887181</v>
+        <v>0.886868</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.62624</v>
+        <v>0.626393</v>
       </c>
       <c r="C64" t="n">
-        <v>0.825709</v>
+        <v>0.825359</v>
       </c>
       <c r="D64" t="n">
-        <v>0.87595</v>
+        <v>0.875262</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.623424</v>
+        <v>0.622644</v>
       </c>
       <c r="C65" t="n">
-        <v>0.81653</v>
+        <v>0.818062</v>
       </c>
       <c r="D65" t="n">
-        <v>0.865887</v>
+        <v>0.8666160000000001</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.620819</v>
+        <v>0.623604</v>
       </c>
       <c r="C66" t="n">
-        <v>0.8065560000000001</v>
+        <v>0.810465</v>
       </c>
       <c r="D66" t="n">
-        <v>1.14406</v>
+        <v>1.14853</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.7695070000000001</v>
+        <v>0.773929</v>
       </c>
       <c r="C67" t="n">
-        <v>1.04861</v>
+        <v>1.05566</v>
       </c>
       <c r="D67" t="n">
-        <v>1.11657</v>
+        <v>1.12083</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.7540210000000001</v>
+        <v>0.7578</v>
       </c>
       <c r="C68" t="n">
-        <v>1.0274</v>
+        <v>1.03133</v>
       </c>
       <c r="D68" t="n">
-        <v>1.09017</v>
+        <v>1.09504</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.739469</v>
+        <v>0.743415</v>
       </c>
       <c r="C69" t="n">
-        <v>1.00371</v>
+        <v>1.00861</v>
       </c>
       <c r="D69" t="n">
-        <v>1.06524</v>
+        <v>1.07611</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.725265</v>
+        <v>0.735999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.982003</v>
+        <v>0.9865930000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>1.0402</v>
+        <v>1.04528</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.711476</v>
+        <v>0.716239</v>
       </c>
       <c r="C71" t="n">
-        <v>0.961637</v>
+        <v>0.966269</v>
       </c>
       <c r="D71" t="n">
-        <v>1.01833</v>
+        <v>1.02342</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.699008</v>
+        <v>0.704896</v>
       </c>
       <c r="C72" t="n">
-        <v>0.942828</v>
+        <v>0.949254</v>
       </c>
       <c r="D72" t="n">
-        <v>0.997441</v>
+        <v>0.999572</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.68787</v>
+        <v>0.692284</v>
       </c>
       <c r="C73" t="n">
-        <v>0.925308</v>
+        <v>0.927961</v>
       </c>
       <c r="D73" t="n">
-        <v>0.977216</v>
+        <v>0.981815</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.679136</v>
+        <v>0.681694</v>
       </c>
       <c r="C74" t="n">
-        <v>0.90852</v>
+        <v>0.913391</v>
       </c>
       <c r="D74" t="n">
-        <v>0.960465</v>
+        <v>0.961655</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.6701859999999999</v>
+        <v>0.671849</v>
       </c>
       <c r="C75" t="n">
-        <v>0.894079</v>
+        <v>0.892546</v>
       </c>
       <c r="D75" t="n">
-        <v>0.942882</v>
+        <v>0.943827</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.660764</v>
+        <v>0.6632749999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.879949</v>
+        <v>0.881883</v>
       </c>
       <c r="D76" t="n">
-        <v>0.926825</v>
+        <v>0.927898</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.654264</v>
+        <v>0.657003</v>
       </c>
       <c r="C77" t="n">
-        <v>0.862616</v>
+        <v>0.867482</v>
       </c>
       <c r="D77" t="n">
-        <v>0.911272</v>
+        <v>0.9123250000000001</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.647516</v>
+        <v>0.649949</v>
       </c>
       <c r="C78" t="n">
-        <v>0.851925</v>
+        <v>0.85381</v>
       </c>
       <c r="D78" t="n">
-        <v>0.897824</v>
+        <v>0.901054</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.643967</v>
+        <v>0.649002</v>
       </c>
       <c r="C79" t="n">
-        <v>0.839411</v>
+        <v>0.844677</v>
       </c>
       <c r="D79" t="n">
-        <v>0.888418</v>
+        <v>0.891489</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.643557</v>
+        <v>0.64912</v>
       </c>
       <c r="C80" t="n">
-        <v>0.832963</v>
+        <v>0.836664</v>
       </c>
       <c r="D80" t="n">
-        <v>1.18722</v>
+        <v>1.19209</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.815797</v>
+        <v>0.8186870000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>1.09438</v>
+        <v>1.09715</v>
       </c>
       <c r="D81" t="n">
-        <v>1.16259</v>
+        <v>1.16636</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.805781</v>
+        <v>0.80772</v>
       </c>
       <c r="C82" t="n">
-        <v>1.07349</v>
+        <v>1.07767</v>
       </c>
       <c r="D82" t="n">
-        <v>1.13649</v>
+        <v>1.14207</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.793505</v>
+        <v>0.79532</v>
       </c>
       <c r="C83" t="n">
-        <v>1.05427</v>
+        <v>1.05602</v>
       </c>
       <c r="D83" t="n">
-        <v>1.11324</v>
+        <v>1.11557</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.781962</v>
+        <v>0.782492</v>
       </c>
       <c r="C84" t="n">
-        <v>1.03407</v>
+        <v>1.0317</v>
       </c>
       <c r="D84" t="n">
-        <v>1.09019</v>
+        <v>1.09081</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.7721749999999999</v>
+        <v>0.77063</v>
       </c>
       <c r="C85" t="n">
-        <v>1.01524</v>
+        <v>1.01492</v>
       </c>
       <c r="D85" t="n">
-        <v>1.06943</v>
+        <v>1.06765</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.760421</v>
+        <v>0.758922</v>
       </c>
       <c r="C86" t="n">
-        <v>0.996244</v>
+        <v>0.994868</v>
       </c>
       <c r="D86" t="n">
-        <v>1.04628</v>
+        <v>1.04389</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.743891</v>
+        <v>0.746359</v>
       </c>
       <c r="C87" t="n">
-        <v>0.971814</v>
+        <v>0.973936</v>
       </c>
       <c r="D87" t="n">
-        <v>1.02088</v>
+        <v>1.02476</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.730304</v>
+        <v>0.734798</v>
       </c>
       <c r="C88" t="n">
-        <v>0.954138</v>
+        <v>0.959774</v>
       </c>
       <c r="D88" t="n">
-        <v>1.00463</v>
+        <v>1.00341</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.724847</v>
+        <v>0.723201</v>
       </c>
       <c r="C89" t="n">
-        <v>0.939063</v>
+        <v>0.9418840000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>0.987001</v>
+        <v>0.986055</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.714986</v>
+        <v>0.713774</v>
       </c>
       <c r="C90" t="n">
-        <v>0.927657</v>
+        <v>0.9266720000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>0.96789</v>
+        <v>0.969056</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.709615</v>
+        <v>0.705616</v>
       </c>
       <c r="C91" t="n">
-        <v>0.915127</v>
+        <v>0.9113</v>
       </c>
       <c r="D91" t="n">
-        <v>0.953645</v>
+        <v>0.949821</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.702858</v>
+        <v>0.699107</v>
       </c>
       <c r="C92" t="n">
-        <v>0.901733</v>
+        <v>0.899846</v>
       </c>
       <c r="D92" t="n">
-        <v>0.941658</v>
+        <v>0.941507</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.6971580000000001</v>
+        <v>0.694123</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8901520000000001</v>
+        <v>0.888709</v>
       </c>
       <c r="D93" t="n">
-        <v>0.930215</v>
+        <v>0.929755</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.694994</v>
+        <v>0.691791</v>
       </c>
       <c r="C94" t="n">
-        <v>0.881285</v>
+        <v>0.87871</v>
       </c>
       <c r="D94" t="n">
-        <v>1.24855</v>
+        <v>1.25047</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.877798</v>
+        <v>0.879107</v>
       </c>
       <c r="C95" t="n">
-        <v>1.14839</v>
+        <v>1.15058</v>
       </c>
       <c r="D95" t="n">
-        <v>1.24051</v>
+        <v>1.2444</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.886875</v>
+        <v>0.889421</v>
       </c>
       <c r="C96" t="n">
-        <v>1.14928</v>
+        <v>1.14958</v>
       </c>
       <c r="D96" t="n">
-        <v>1.22494</v>
+        <v>1.23099</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.882682</v>
+        <v>0.888694</v>
       </c>
       <c r="C97" t="n">
-        <v>1.14481</v>
+        <v>1.14071</v>
       </c>
       <c r="D97" t="n">
-        <v>1.21702</v>
+        <v>1.20677</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.883479</v>
+        <v>0.883039</v>
       </c>
       <c r="C98" t="n">
-        <v>1.12821</v>
+        <v>1.13973</v>
       </c>
       <c r="D98" t="n">
-        <v>1.1914</v>
+        <v>1.19104</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.874963</v>
+        <v>0.881226</v>
       </c>
       <c r="C99" t="n">
-        <v>1.11704</v>
+        <v>1.11777</v>
       </c>
       <c r="D99" t="n">
-        <v>1.18267</v>
+        <v>1.17749</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.869517</v>
+        <v>0.873004</v>
       </c>
       <c r="C100" t="n">
-        <v>1.10127</v>
+        <v>1.10514</v>
       </c>
       <c r="D100" t="n">
-        <v>1.1588</v>
+        <v>1.15579</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.860575</v>
+        <v>0.863152</v>
       </c>
       <c r="C101" t="n">
-        <v>1.09619</v>
+        <v>1.08903</v>
       </c>
       <c r="D101" t="n">
-        <v>1.14039</v>
+        <v>1.14434</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.8509989999999999</v>
+        <v>0.856598</v>
       </c>
       <c r="C102" t="n">
-        <v>1.08226</v>
+        <v>1.08644</v>
       </c>
       <c r="D102" t="n">
-        <v>1.11916</v>
+        <v>1.12676</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.844901</v>
+        <v>0.847608</v>
       </c>
       <c r="C103" t="n">
-        <v>1.06438</v>
+        <v>1.06045</v>
       </c>
       <c r="D103" t="n">
-        <v>1.10482</v>
+        <v>1.09192</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.838131</v>
+        <v>0.838364</v>
       </c>
       <c r="C104" t="n">
-        <v>1.0583</v>
+        <v>1.05367</v>
       </c>
       <c r="D104" t="n">
-        <v>1.09557</v>
+        <v>1.09229</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.830687</v>
+        <v>0.83355</v>
       </c>
       <c r="C105" t="n">
-        <v>1.03451</v>
+        <v>1.04876</v>
       </c>
       <c r="D105" t="n">
-        <v>1.08075</v>
+        <v>1.08093</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.827711</v>
+        <v>0.828661</v>
       </c>
       <c r="C106" t="n">
-        <v>1.0376</v>
+        <v>1.01754</v>
       </c>
       <c r="D106" t="n">
-        <v>1.06477</v>
+        <v>1.05719</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.823816</v>
+        <v>0.825681</v>
       </c>
       <c r="C107" t="n">
-        <v>1.01385</v>
+        <v>1.0263</v>
       </c>
       <c r="D107" t="n">
-        <v>1.0329</v>
+        <v>1.05858</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.821731</v>
+        <v>0.825726</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9966120000000001</v>
+        <v>1.02193</v>
       </c>
       <c r="D108" t="n">
-        <v>1.35298</v>
+        <v>1.38497</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.822816</v>
+        <v>0.826251</v>
       </c>
       <c r="C109" t="n">
-        <v>1.01525</v>
+        <v>1.01933</v>
       </c>
       <c r="D109" t="n">
-        <v>1.3934</v>
+        <v>1.39716</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.01596</v>
+        <v>1.01831</v>
       </c>
       <c r="C110" t="n">
-        <v>1.30839</v>
+        <v>1.30848</v>
       </c>
       <c r="D110" t="n">
-        <v>1.38784</v>
+        <v>1.3913</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.02202</v>
+        <v>1.02628</v>
       </c>
       <c r="C111" t="n">
-        <v>1.30381</v>
+        <v>1.31391</v>
       </c>
       <c r="D111" t="n">
-        <v>1.37764</v>
+        <v>1.38771</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.0253</v>
+        <v>1.03028</v>
       </c>
       <c r="C112" t="n">
-        <v>1.30753</v>
+        <v>1.30838</v>
       </c>
       <c r="D112" t="n">
-        <v>1.38086</v>
+        <v>1.38288</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.03095</v>
+        <v>1.03232</v>
       </c>
       <c r="C113" t="n">
-        <v>1.31037</v>
+        <v>1.31542</v>
       </c>
       <c r="D113" t="n">
-        <v>1.37879</v>
+        <v>1.36662</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.03384</v>
+        <v>1.04245</v>
       </c>
       <c r="C114" t="n">
-        <v>1.30815</v>
+        <v>1.3113</v>
       </c>
       <c r="D114" t="n">
-        <v>1.37261</v>
+        <v>1.37438</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.0392</v>
+        <v>1.04395</v>
       </c>
       <c r="C115" t="n">
-        <v>1.30078</v>
+        <v>1.29989</v>
       </c>
       <c r="D115" t="n">
-        <v>1.35168</v>
+        <v>1.37658</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.04428</v>
+        <v>1.04683</v>
       </c>
       <c r="C116" t="n">
-        <v>1.31267</v>
+        <v>1.31575</v>
       </c>
       <c r="D116" t="n">
-        <v>1.36797</v>
+        <v>1.35998</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.04639</v>
+        <v>1.05538</v>
       </c>
       <c r="C117" t="n">
-        <v>1.31581</v>
+        <v>1.31253</v>
       </c>
       <c r="D117" t="n">
-        <v>1.36258</v>
+        <v>1.3554</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.04981</v>
+        <v>1.05343</v>
       </c>
       <c r="C118" t="n">
-        <v>1.30695</v>
+        <v>1.32389</v>
       </c>
       <c r="D118" t="n">
-        <v>1.34697</v>
+        <v>1.3594</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.05242</v>
+        <v>1.05911</v>
       </c>
       <c r="C119" t="n">
-        <v>1.31265</v>
+        <v>1.3224</v>
       </c>
       <c r="D119" t="n">
-        <v>1.34877</v>
+        <v>1.36742</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.05774</v>
+        <v>1.06304</v>
       </c>
       <c r="C120" t="n">
-        <v>1.3038</v>
+        <v>1.32342</v>
       </c>
       <c r="D120" t="n">
-        <v>1.34747</v>
+        <v>1.35855</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.06248</v>
+        <v>1.06668</v>
       </c>
       <c r="C121" t="n">
-        <v>1.30549</v>
+        <v>1.32237</v>
       </c>
       <c r="D121" t="n">
-        <v>1.33406</v>
+        <v>1.34838</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.06818</v>
+        <v>1.07418</v>
       </c>
       <c r="C122" t="n">
-        <v>1.30638</v>
+        <v>1.33325</v>
       </c>
       <c r="D122" t="n">
-        <v>1.335</v>
+        <v>1.35512</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.07513</v>
+        <v>1.08403</v>
       </c>
       <c r="C123" t="n">
-        <v>1.32726</v>
+        <v>1.32466</v>
       </c>
       <c r="D123" t="n">
-        <v>1.6757</v>
+        <v>1.69794</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.26363</v>
+        <v>1.26762</v>
       </c>
       <c r="C124" t="n">
-        <v>1.61651</v>
+        <v>1.61453</v>
       </c>
       <c r="D124" t="n">
-        <v>1.68995</v>
+        <v>1.69188</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.27003</v>
+        <v>1.277</v>
       </c>
       <c r="C125" t="n">
-        <v>1.61603</v>
+        <v>1.63103</v>
       </c>
       <c r="D125" t="n">
-        <v>1.6918</v>
+        <v>1.70226</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.27414</v>
+        <v>1.27724</v>
       </c>
       <c r="C126" t="n">
-        <v>1.61582</v>
+        <v>1.62689</v>
       </c>
       <c r="D126" t="n">
-        <v>1.68766</v>
+        <v>1.70099</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.27942</v>
+        <v>1.28731</v>
       </c>
       <c r="C127" t="n">
-        <v>1.63237</v>
+        <v>1.64409</v>
       </c>
       <c r="D127" t="n">
-        <v>1.69023</v>
+        <v>1.69741</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.28446</v>
+        <v>1.29227</v>
       </c>
       <c r="C128" t="n">
-        <v>1.63306</v>
+        <v>1.64676</v>
       </c>
       <c r="D128" t="n">
-        <v>1.69507</v>
+        <v>1.7024</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.28882</v>
+        <v>1.29584</v>
       </c>
       <c r="C129" t="n">
-        <v>1.64108</v>
+        <v>1.6496</v>
       </c>
       <c r="D129" t="n">
-        <v>1.70891</v>
+        <v>1.71893</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.29311</v>
+        <v>1.30406</v>
       </c>
       <c r="C130" t="n">
-        <v>1.64508</v>
+        <v>1.66368</v>
       </c>
       <c r="D130" t="n">
-        <v>1.69856</v>
+        <v>1.70987</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.29789</v>
+        <v>1.30611</v>
       </c>
       <c r="C131" t="n">
-        <v>1.65141</v>
+        <v>1.66927</v>
       </c>
       <c r="D131" t="n">
-        <v>1.70697</v>
+        <v>1.71566</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.30271</v>
+        <v>1.31101</v>
       </c>
       <c r="C132" t="n">
-        <v>1.65936</v>
+        <v>1.6696</v>
       </c>
       <c r="D132" t="n">
-        <v>1.71199</v>
+        <v>1.72018</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.30642</v>
+        <v>1.31776</v>
       </c>
       <c r="C133" t="n">
-        <v>1.66386</v>
+        <v>1.67542</v>
       </c>
       <c r="D133" t="n">
-        <v>1.70828</v>
+        <v>1.72356</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.31267</v>
+        <v>1.32673</v>
       </c>
       <c r="C134" t="n">
-        <v>1.67648</v>
+        <v>1.68385</v>
       </c>
       <c r="D134" t="n">
-        <v>1.70031</v>
+        <v>1.7234</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.31754</v>
+        <v>1.32855</v>
       </c>
       <c r="C135" t="n">
-        <v>1.67739</v>
+        <v>1.69687</v>
       </c>
       <c r="D135" t="n">
-        <v>1.71463</v>
+        <v>1.72481</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.32433</v>
+        <v>1.33637</v>
       </c>
       <c r="C136" t="n">
-        <v>1.69411</v>
+        <v>1.69755</v>
       </c>
       <c r="D136" t="n">
-        <v>1.7225</v>
+        <v>1.73263</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.3337</v>
+        <v>1.34684</v>
       </c>
       <c r="C137" t="n">
-        <v>1.69877</v>
+        <v>1.70654</v>
       </c>
       <c r="D137" t="n">
-        <v>2.06019</v>
+        <v>2.06747</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.52859</v>
+        <v>1.5372</v>
       </c>
       <c r="C138" t="n">
-        <v>1.99155</v>
+        <v>2.00242</v>
       </c>
       <c r="D138" t="n">
-        <v>2.07334</v>
+        <v>2.08447</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.52918</v>
+        <v>1.53681</v>
       </c>
       <c r="C139" t="n">
-        <v>2.00116</v>
+        <v>2.00811</v>
       </c>
       <c r="D139" t="n">
-        <v>2.07578</v>
+        <v>2.08758</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.53234</v>
+        <v>1.53853</v>
       </c>
       <c r="C140" t="n">
-        <v>2.0073</v>
+        <v>2.0218</v>
       </c>
       <c r="D140" t="n">
-        <v>2.08558</v>
+        <v>2.09419</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.53089</v>
+        <v>1.54032</v>
       </c>
       <c r="C141" t="n">
-        <v>2.0204</v>
+        <v>2.0345</v>
       </c>
       <c r="D141" t="n">
-        <v>2.08681</v>
+        <v>2.10376</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.53174</v>
+        <v>1.543</v>
       </c>
       <c r="C142" t="n">
-        <v>2.02787</v>
+        <v>2.02519</v>
       </c>
       <c r="D142" t="n">
-        <v>2.09235</v>
+        <v>2.08927</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.53255</v>
+        <v>1.52584</v>
       </c>
       <c r="C143" t="n">
-        <v>2.03702</v>
+        <v>2.03503</v>
       </c>
       <c r="D143" t="n">
-        <v>2.09983</v>
+        <v>2.10438</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.59239</v>
+        <v>0.593163</v>
       </c>
       <c r="C2" t="n">
-        <v>0.835954</v>
+        <v>0.835851</v>
       </c>
       <c r="D2" t="n">
-        <v>0.89157</v>
+        <v>0.891243</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.582548</v>
+        <v>0.582439</v>
       </c>
       <c r="C3" t="n">
-        <v>0.819528</v>
+        <v>0.819762</v>
       </c>
       <c r="D3" t="n">
-        <v>0.872565</v>
+        <v>0.872881</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.573987</v>
+        <v>0.574739</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8044480000000001</v>
+        <v>0.8047840000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.856389</v>
+        <v>0.856592</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.56684</v>
+        <v>0.56734</v>
       </c>
       <c r="C5" t="n">
-        <v>0.790662</v>
+        <v>0.790948</v>
       </c>
       <c r="D5" t="n">
-        <v>0.841434</v>
+        <v>0.841885</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.560842</v>
+        <v>0.561036</v>
       </c>
       <c r="C6" t="n">
-        <v>0.777679</v>
+        <v>0.777653</v>
       </c>
       <c r="D6" t="n">
-        <v>0.827565</v>
+        <v>0.827521</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.55598</v>
+        <v>0.556107</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7665110000000001</v>
+        <v>0.76666</v>
       </c>
       <c r="D7" t="n">
-        <v>0.816225</v>
+        <v>0.816466</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.553299</v>
+        <v>0.553693</v>
       </c>
       <c r="C8" t="n">
-        <v>0.757543</v>
+        <v>0.757821</v>
       </c>
       <c r="D8" t="n">
-        <v>0.80808</v>
+        <v>0.8084440000000001</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.553723</v>
+        <v>0.553852</v>
       </c>
       <c r="C9" t="n">
-        <v>0.751336</v>
+        <v>0.7514110000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>1.07964</v>
+        <v>1.07943</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6991000000000001</v>
+        <v>0.700062</v>
       </c>
       <c r="C10" t="n">
-        <v>0.987903</v>
+        <v>0.988327</v>
       </c>
       <c r="D10" t="n">
-        <v>1.05808</v>
+        <v>1.05783</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.683152</v>
+        <v>0.684593</v>
       </c>
       <c r="C11" t="n">
-        <v>0.96377</v>
+        <v>0.964381</v>
       </c>
       <c r="D11" t="n">
-        <v>1.03092</v>
+        <v>1.03126</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.668439</v>
+        <v>0.669891</v>
       </c>
       <c r="C12" t="n">
-        <v>0.941785</v>
+        <v>0.942017</v>
       </c>
       <c r="D12" t="n">
-        <v>1.00597</v>
+        <v>1.00634</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.654018</v>
+        <v>0.655465</v>
       </c>
       <c r="C13" t="n">
-        <v>0.919589</v>
+        <v>0.9200430000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9815</v>
+        <v>0.981556</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.641151</v>
+        <v>0.642195</v>
       </c>
       <c r="C14" t="n">
-        <v>0.899191</v>
+        <v>0.899428</v>
       </c>
       <c r="D14" t="n">
-        <v>0.958202</v>
+        <v>0.9586249999999999</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6289090000000001</v>
+        <v>0.6301909999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.88032</v>
+        <v>0.8801099999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.936798</v>
+        <v>0.936758</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.617259</v>
+        <v>0.618375</v>
       </c>
       <c r="C16" t="n">
-        <v>0.861876</v>
+        <v>0.861935</v>
       </c>
       <c r="D16" t="n">
-        <v>0.916686</v>
+        <v>0.916654</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.60648</v>
+        <v>0.6077129999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.844568</v>
+        <v>0.84441</v>
       </c>
       <c r="D17" t="n">
-        <v>0.897319</v>
+        <v>0.897446</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.596734</v>
+        <v>0.597936</v>
       </c>
       <c r="C18" t="n">
-        <v>0.828135</v>
+        <v>0.828479</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8796850000000001</v>
+        <v>0.879738</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.588085</v>
+        <v>0.589106</v>
       </c>
       <c r="C19" t="n">
-        <v>0.813514</v>
+        <v>0.813943</v>
       </c>
       <c r="D19" t="n">
-        <v>0.863748</v>
+        <v>0.863842</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5814550000000001</v>
+        <v>0.582328</v>
       </c>
       <c r="C20" t="n">
-        <v>0.799435</v>
+        <v>0.799666</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8484969999999999</v>
+        <v>0.848652</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5768450000000001</v>
+        <v>0.577886</v>
       </c>
       <c r="C21" t="n">
-        <v>0.787296</v>
+        <v>0.7876300000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.835724</v>
+        <v>0.836035</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.573681</v>
+        <v>0.5747679999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.776784</v>
+        <v>0.777174</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8263819999999999</v>
+        <v>0.826519</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.57318</v>
+        <v>0.574397</v>
       </c>
       <c r="C23" t="n">
-        <v>0.768871</v>
+        <v>0.7691480000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>1.10673</v>
+        <v>1.10629</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.702555</v>
+        <v>0.703779</v>
       </c>
       <c r="C24" t="n">
-        <v>0.988544</v>
+        <v>0.9890139999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>1.07847</v>
+        <v>1.07839</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.687674</v>
+        <v>0.688318</v>
       </c>
       <c r="C25" t="n">
-        <v>0.965152</v>
+        <v>0.9649489999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>1.05101</v>
+        <v>1.05072</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.673133</v>
+        <v>0.673669</v>
       </c>
       <c r="C26" t="n">
-        <v>0.942949</v>
+        <v>0.943127</v>
       </c>
       <c r="D26" t="n">
-        <v>1.02505</v>
+        <v>1.02468</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.658903</v>
+        <v>0.660013</v>
       </c>
       <c r="C27" t="n">
-        <v>0.921635</v>
+        <v>0.921415</v>
       </c>
       <c r="D27" t="n">
-        <v>0.999875</v>
+        <v>0.999542</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.646209</v>
+        <v>0.647033</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9015609999999999</v>
+        <v>0.901813</v>
       </c>
       <c r="D28" t="n">
-        <v>0.976367</v>
+        <v>0.976517</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.633634</v>
+        <v>0.634926</v>
       </c>
       <c r="C29" t="n">
-        <v>0.88222</v>
+        <v>0.8824689999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>0.954328</v>
+        <v>0.954159</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.622367</v>
+        <v>0.6236429999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.864159</v>
+        <v>0.86428</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9333399999999999</v>
+        <v>0.933225</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6118749999999999</v>
+        <v>0.612841</v>
       </c>
       <c r="C31" t="n">
-        <v>0.846989</v>
+        <v>0.847067</v>
       </c>
       <c r="D31" t="n">
-        <v>0.913345</v>
+        <v>0.91333</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.602165</v>
+        <v>0.603212</v>
       </c>
       <c r="C32" t="n">
-        <v>0.830962</v>
+        <v>0.831297</v>
       </c>
       <c r="D32" t="n">
-        <v>0.895029</v>
+        <v>0.895353</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.593547</v>
+        <v>0.594473</v>
       </c>
       <c r="C33" t="n">
-        <v>0.816124</v>
+        <v>0.8165210000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>0.878671</v>
+        <v>0.878454</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.586253</v>
+        <v>0.5878100000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.802518</v>
+        <v>0.802723</v>
       </c>
       <c r="D34" t="n">
-        <v>0.8632300000000001</v>
+        <v>0.863599</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.580757</v>
+        <v>0.5815399999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.790412</v>
+        <v>0.79056</v>
       </c>
       <c r="D35" t="n">
-        <v>0.850104</v>
+        <v>0.850254</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.577252</v>
+        <v>0.5790419999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.779484</v>
+        <v>0.779363</v>
       </c>
       <c r="D36" t="n">
-        <v>0.839531</v>
+        <v>0.839827</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.575779</v>
+        <v>0.577397</v>
       </c>
       <c r="C37" t="n">
-        <v>0.771523</v>
+        <v>0.771404</v>
       </c>
       <c r="D37" t="n">
-        <v>1.12744</v>
+        <v>1.12692</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.733445</v>
+        <v>0.733507</v>
       </c>
       <c r="C38" t="n">
-        <v>1.01986</v>
+        <v>1.01991</v>
       </c>
       <c r="D38" t="n">
-        <v>1.09857</v>
+        <v>1.09827</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.719163</v>
+        <v>0.7187</v>
       </c>
       <c r="C39" t="n">
-        <v>0.99773</v>
+        <v>0.996803</v>
       </c>
       <c r="D39" t="n">
-        <v>1.07252</v>
+        <v>1.07065</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.704126</v>
+        <v>0.703691</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9747400000000001</v>
+        <v>0.973344</v>
       </c>
       <c r="D40" t="n">
-        <v>1.04635</v>
+        <v>1.04421</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.689536</v>
+        <v>0.6887259999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.952905</v>
+        <v>0.95162</v>
       </c>
       <c r="D41" t="n">
-        <v>1.0208</v>
+        <v>1.01902</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.675798</v>
+        <v>0.675212</v>
       </c>
       <c r="C42" t="n">
-        <v>0.931565</v>
+        <v>0.930792</v>
       </c>
       <c r="D42" t="n">
-        <v>0.997286</v>
+        <v>0.995777</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.663145</v>
+        <v>0.662368</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9115220000000001</v>
+        <v>0.910822</v>
       </c>
       <c r="D43" t="n">
-        <v>0.974869</v>
+        <v>0.9730490000000001</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.650595</v>
+        <v>0.65057</v>
       </c>
       <c r="C44" t="n">
-        <v>0.892028</v>
+        <v>0.891696</v>
       </c>
       <c r="D44" t="n">
-        <v>0.953469</v>
+        <v>0.9516</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.639699</v>
+        <v>0.638413</v>
       </c>
       <c r="C45" t="n">
-        <v>0.875553</v>
+        <v>0.87352</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9328</v>
+        <v>0.931501</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.629257</v>
+        <v>0.628545</v>
       </c>
       <c r="C46" t="n">
-        <v>0.859008</v>
+        <v>0.857796</v>
       </c>
       <c r="D46" t="n">
-        <v>0.914443</v>
+        <v>0.912865</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.619547</v>
+        <v>0.619533</v>
       </c>
       <c r="C47" t="n">
-        <v>0.843299</v>
+        <v>0.841714</v>
       </c>
       <c r="D47" t="n">
-        <v>0.90465</v>
+        <v>0.895747</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.616378</v>
+        <v>0.611611</v>
       </c>
       <c r="C48" t="n">
-        <v>0.82736</v>
+        <v>0.827948</v>
       </c>
       <c r="D48" t="n">
-        <v>0.881193</v>
+        <v>0.880197</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.605888</v>
+        <v>0.605925</v>
       </c>
       <c r="C49" t="n">
-        <v>0.814577</v>
+        <v>0.815876</v>
       </c>
       <c r="D49" t="n">
-        <v>0.867581</v>
+        <v>0.866278</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.600586</v>
+        <v>0.600696</v>
       </c>
       <c r="C50" t="n">
-        <v>0.803079</v>
+        <v>0.802477</v>
       </c>
       <c r="D50" t="n">
-        <v>0.85684</v>
+        <v>0.854828</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.599146</v>
+        <v>0.597845</v>
       </c>
       <c r="C51" t="n">
-        <v>0.794639</v>
+        <v>0.792764</v>
       </c>
       <c r="D51" t="n">
-        <v>1.15058</v>
+        <v>1.14962</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.598586</v>
+        <v>0.598711</v>
       </c>
       <c r="C52" t="n">
-        <v>0.7874640000000001</v>
+        <v>0.786433</v>
       </c>
       <c r="D52" t="n">
-        <v>1.12079</v>
+        <v>1.12111</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.746218</v>
+        <v>0.746726</v>
       </c>
       <c r="C53" t="n">
-        <v>1.02344</v>
+        <v>1.02194</v>
       </c>
       <c r="D53" t="n">
-        <v>1.09493</v>
+        <v>1.09341</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.732047</v>
+        <v>0.730846</v>
       </c>
       <c r="C54" t="n">
-        <v>1.00023</v>
+        <v>0.999515</v>
       </c>
       <c r="D54" t="n">
-        <v>1.06741</v>
+        <v>1.0662</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.716106</v>
+        <v>0.716502</v>
       </c>
       <c r="C55" t="n">
-        <v>0.97687</v>
+        <v>0.976318</v>
       </c>
       <c r="D55" t="n">
-        <v>1.04223</v>
+        <v>1.04174</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.702615</v>
+        <v>0.703454</v>
       </c>
       <c r="C56" t="n">
-        <v>0.955929</v>
+        <v>0.954725</v>
       </c>
       <c r="D56" t="n">
-        <v>1.0188</v>
+        <v>1.01757</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.689692</v>
+        <v>0.6893629999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>0.93591</v>
+        <v>0.935371</v>
       </c>
       <c r="D57" t="n">
-        <v>0.996599</v>
+        <v>0.995775</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.67792</v>
+        <v>0.67778</v>
       </c>
       <c r="C58" t="n">
-        <v>0.918556</v>
+        <v>0.916505</v>
       </c>
       <c r="D58" t="n">
-        <v>0.975074</v>
+        <v>0.974379</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.666367</v>
+        <v>0.666532</v>
       </c>
       <c r="C59" t="n">
-        <v>0.899247</v>
+        <v>0.899257</v>
       </c>
       <c r="D59" t="n">
-        <v>0.954712</v>
+        <v>0.954615</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.656223</v>
+        <v>0.656267</v>
       </c>
       <c r="C60" t="n">
-        <v>0.88292</v>
+        <v>0.882219</v>
       </c>
       <c r="D60" t="n">
-        <v>0.935259</v>
+        <v>0.935624</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.64569</v>
+        <v>0.646057</v>
       </c>
       <c r="C61" t="n">
-        <v>0.867702</v>
+        <v>0.866964</v>
       </c>
       <c r="D61" t="n">
-        <v>0.918726</v>
+        <v>0.918206</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.637428</v>
+        <v>0.638709</v>
       </c>
       <c r="C62" t="n">
-        <v>0.851193</v>
+        <v>0.852164</v>
       </c>
       <c r="D62" t="n">
-        <v>0.901448</v>
+        <v>0.902573</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.630819</v>
+        <v>0.630932</v>
       </c>
       <c r="C63" t="n">
-        <v>0.838755</v>
+        <v>0.839157</v>
       </c>
       <c r="D63" t="n">
-        <v>0.886868</v>
+        <v>0.88832</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.626393</v>
+        <v>0.626881</v>
       </c>
       <c r="C64" t="n">
-        <v>0.825359</v>
+        <v>0.826583</v>
       </c>
       <c r="D64" t="n">
-        <v>0.875262</v>
+        <v>0.8760250000000001</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.622644</v>
+        <v>0.6237510000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>0.818062</v>
+        <v>0.8171119999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>0.8666160000000001</v>
+        <v>0.867159</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.623604</v>
+        <v>0.623772</v>
       </c>
       <c r="C66" t="n">
-        <v>0.810465</v>
+        <v>0.809912</v>
       </c>
       <c r="D66" t="n">
-        <v>1.14853</v>
+        <v>1.14828</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.773929</v>
+        <v>0.7727889999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>1.05566</v>
+        <v>1.05369</v>
       </c>
       <c r="D67" t="n">
-        <v>1.12083</v>
+        <v>1.11994</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.7578</v>
+        <v>0.757892</v>
       </c>
       <c r="C68" t="n">
-        <v>1.03133</v>
+        <v>1.03026</v>
       </c>
       <c r="D68" t="n">
-        <v>1.09504</v>
+        <v>1.0931</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.743415</v>
+        <v>0.74346</v>
       </c>
       <c r="C69" t="n">
-        <v>1.00861</v>
+        <v>1.00713</v>
       </c>
       <c r="D69" t="n">
-        <v>1.07611</v>
+        <v>1.06862</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.735999</v>
+        <v>0.729724</v>
       </c>
       <c r="C70" t="n">
-        <v>0.9865930000000001</v>
+        <v>0.986822</v>
       </c>
       <c r="D70" t="n">
-        <v>1.04528</v>
+        <v>1.04499</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.716239</v>
+        <v>0.716657</v>
       </c>
       <c r="C71" t="n">
-        <v>0.966269</v>
+        <v>0.965786</v>
       </c>
       <c r="D71" t="n">
-        <v>1.02342</v>
+        <v>1.02216</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.704896</v>
+        <v>0.704124</v>
       </c>
       <c r="C72" t="n">
-        <v>0.949254</v>
+        <v>0.946722</v>
       </c>
       <c r="D72" t="n">
-        <v>0.999572</v>
+        <v>1.00112</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.692284</v>
+        <v>0.692319</v>
       </c>
       <c r="C73" t="n">
-        <v>0.927961</v>
+        <v>0.928053</v>
       </c>
       <c r="D73" t="n">
-        <v>0.981815</v>
+        <v>0.9806510000000001</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.681694</v>
+        <v>0.682713</v>
       </c>
       <c r="C74" t="n">
-        <v>0.913391</v>
+        <v>0.912444</v>
       </c>
       <c r="D74" t="n">
-        <v>0.961655</v>
+        <v>0.96222</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.671849</v>
+        <v>0.672655</v>
       </c>
       <c r="C75" t="n">
-        <v>0.892546</v>
+        <v>0.896868</v>
       </c>
       <c r="D75" t="n">
-        <v>0.943827</v>
+        <v>0.944733</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.6632749999999999</v>
+        <v>0.664909</v>
       </c>
       <c r="C76" t="n">
-        <v>0.881883</v>
+        <v>0.882126</v>
       </c>
       <c r="D76" t="n">
-        <v>0.927898</v>
+        <v>0.929002</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.657003</v>
+        <v>0.657376</v>
       </c>
       <c r="C77" t="n">
-        <v>0.867482</v>
+        <v>0.868058</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9123250000000001</v>
+        <v>0.9141049999999999</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.649949</v>
+        <v>0.652602</v>
       </c>
       <c r="C78" t="n">
-        <v>0.85381</v>
+        <v>0.8568789999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>0.901054</v>
+        <v>0.901751</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.649002</v>
+        <v>0.649492</v>
       </c>
       <c r="C79" t="n">
-        <v>0.844677</v>
+        <v>0.845593</v>
       </c>
       <c r="D79" t="n">
-        <v>0.891489</v>
+        <v>0.891808</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.64912</v>
+        <v>0.649025</v>
       </c>
       <c r="C80" t="n">
-        <v>0.836664</v>
+        <v>0.838274</v>
       </c>
       <c r="D80" t="n">
-        <v>1.19209</v>
+        <v>1.19133</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.8186870000000001</v>
+        <v>0.819919</v>
       </c>
       <c r="C81" t="n">
-        <v>1.09715</v>
+        <v>1.09759</v>
       </c>
       <c r="D81" t="n">
-        <v>1.16636</v>
+        <v>1.16411</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.80772</v>
+        <v>0.806519</v>
       </c>
       <c r="C82" t="n">
-        <v>1.07767</v>
+        <v>1.07335</v>
       </c>
       <c r="D82" t="n">
-        <v>1.14207</v>
+        <v>1.13716</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.79532</v>
+        <v>0.794426</v>
       </c>
       <c r="C83" t="n">
-        <v>1.05602</v>
+        <v>1.0534</v>
       </c>
       <c r="D83" t="n">
-        <v>1.11557</v>
+        <v>1.11338</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.782492</v>
+        <v>0.783985</v>
       </c>
       <c r="C84" t="n">
-        <v>1.0317</v>
+        <v>1.03529</v>
       </c>
       <c r="D84" t="n">
-        <v>1.09081</v>
+        <v>1.09185</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.77063</v>
+        <v>0.7745840000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>1.01492</v>
+        <v>1.01846</v>
       </c>
       <c r="D85" t="n">
-        <v>1.06765</v>
+        <v>1.0706</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.758922</v>
+        <v>0.762508</v>
       </c>
       <c r="C86" t="n">
-        <v>0.994868</v>
+        <v>0.99804</v>
       </c>
       <c r="D86" t="n">
-        <v>1.04389</v>
+        <v>1.04765</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.746359</v>
+        <v>0.749737</v>
       </c>
       <c r="C87" t="n">
-        <v>0.973936</v>
+        <v>0.9783809999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>1.02476</v>
+        <v>1.02588</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.734798</v>
+        <v>0.7378400000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>0.959774</v>
+        <v>0.959636</v>
       </c>
       <c r="D88" t="n">
-        <v>1.00341</v>
+        <v>1.00553</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.723201</v>
+        <v>0.725931</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9418840000000001</v>
+        <v>0.944291</v>
       </c>
       <c r="D89" t="n">
-        <v>0.986055</v>
+        <v>0.986073</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.713774</v>
+        <v>0.717607</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9266720000000001</v>
+        <v>0.924774</v>
       </c>
       <c r="D90" t="n">
-        <v>0.969056</v>
+        <v>0.970889</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.705616</v>
+        <v>0.708012</v>
       </c>
       <c r="C91" t="n">
-        <v>0.9113</v>
+        <v>0.914261</v>
       </c>
       <c r="D91" t="n">
-        <v>0.949821</v>
+        <v>0.955534</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.699107</v>
+        <v>0.70098</v>
       </c>
       <c r="C92" t="n">
-        <v>0.899846</v>
+        <v>0.898923</v>
       </c>
       <c r="D92" t="n">
-        <v>0.941507</v>
+        <v>0.939285</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.694123</v>
+        <v>0.695543</v>
       </c>
       <c r="C93" t="n">
-        <v>0.888709</v>
+        <v>0.888954</v>
       </c>
       <c r="D93" t="n">
-        <v>0.929755</v>
+        <v>0.930966</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.691791</v>
+        <v>0.693097</v>
       </c>
       <c r="C94" t="n">
-        <v>0.87871</v>
+        <v>0.874545</v>
       </c>
       <c r="D94" t="n">
-        <v>1.25047</v>
+        <v>1.25121</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.879107</v>
+        <v>0.8780480000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>1.15058</v>
+        <v>1.14999</v>
       </c>
       <c r="D95" t="n">
-        <v>1.2444</v>
+        <v>1.24242</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.889421</v>
+        <v>0.886493</v>
       </c>
       <c r="C96" t="n">
-        <v>1.14958</v>
+        <v>1.14953</v>
       </c>
       <c r="D96" t="n">
-        <v>1.23099</v>
+        <v>1.23245</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.888694</v>
+        <v>0.886169</v>
       </c>
       <c r="C97" t="n">
-        <v>1.14071</v>
+        <v>1.146</v>
       </c>
       <c r="D97" t="n">
-        <v>1.20677</v>
+        <v>1.21604</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.883039</v>
+        <v>0.88219</v>
       </c>
       <c r="C98" t="n">
-        <v>1.13973</v>
+        <v>1.1354</v>
       </c>
       <c r="D98" t="n">
-        <v>1.19104</v>
+        <v>1.1999</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.881226</v>
+        <v>0.877598</v>
       </c>
       <c r="C99" t="n">
-        <v>1.11777</v>
+        <v>1.11796</v>
       </c>
       <c r="D99" t="n">
-        <v>1.17749</v>
+        <v>1.18263</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.873004</v>
+        <v>0.870417</v>
       </c>
       <c r="C100" t="n">
-        <v>1.10514</v>
+        <v>1.09685</v>
       </c>
       <c r="D100" t="n">
-        <v>1.15579</v>
+        <v>1.15728</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.863152</v>
+        <v>0.861766</v>
       </c>
       <c r="C101" t="n">
-        <v>1.08903</v>
+        <v>1.09767</v>
       </c>
       <c r="D101" t="n">
-        <v>1.14434</v>
+        <v>1.14193</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.856598</v>
+        <v>0.8542729999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>1.08644</v>
+        <v>1.07876</v>
       </c>
       <c r="D102" t="n">
-        <v>1.12676</v>
+        <v>1.12984</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.847608</v>
+        <v>0.845711</v>
       </c>
       <c r="C103" t="n">
-        <v>1.06045</v>
+        <v>1.07166</v>
       </c>
       <c r="D103" t="n">
-        <v>1.09192</v>
+        <v>1.11172</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.838364</v>
+        <v>0.838734</v>
       </c>
       <c r="C104" t="n">
-        <v>1.05367</v>
+        <v>1.04703</v>
       </c>
       <c r="D104" t="n">
-        <v>1.09229</v>
+        <v>1.09675</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.83355</v>
+        <v>0.831765</v>
       </c>
       <c r="C105" t="n">
-        <v>1.04876</v>
+        <v>1.03554</v>
       </c>
       <c r="D105" t="n">
-        <v>1.08093</v>
+        <v>1.07251</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.828661</v>
+        <v>0.827001</v>
       </c>
       <c r="C106" t="n">
-        <v>1.01754</v>
+        <v>1.03925</v>
       </c>
       <c r="D106" t="n">
-        <v>1.05719</v>
+        <v>1.05442</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.825681</v>
+        <v>0.824397</v>
       </c>
       <c r="C107" t="n">
-        <v>1.0263</v>
+        <v>1.01314</v>
       </c>
       <c r="D107" t="n">
-        <v>1.05858</v>
+        <v>1.06244</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.825726</v>
+        <v>0.819854</v>
       </c>
       <c r="C108" t="n">
-        <v>1.02193</v>
+        <v>1.01974</v>
       </c>
       <c r="D108" t="n">
-        <v>1.38497</v>
+        <v>1.38026</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.826251</v>
+        <v>0.820883</v>
       </c>
       <c r="C109" t="n">
-        <v>1.01933</v>
+        <v>1.01609</v>
       </c>
       <c r="D109" t="n">
-        <v>1.39716</v>
+        <v>1.38171</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.01831</v>
+        <v>1.01468</v>
       </c>
       <c r="C110" t="n">
-        <v>1.30848</v>
+        <v>1.28388</v>
       </c>
       <c r="D110" t="n">
-        <v>1.3913</v>
+        <v>1.38917</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.02628</v>
+        <v>1.02021</v>
       </c>
       <c r="C111" t="n">
-        <v>1.31391</v>
+        <v>1.31008</v>
       </c>
       <c r="D111" t="n">
-        <v>1.38771</v>
+        <v>1.38458</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.03028</v>
+        <v>1.02357</v>
       </c>
       <c r="C112" t="n">
-        <v>1.30838</v>
+        <v>1.30184</v>
       </c>
       <c r="D112" t="n">
-        <v>1.38288</v>
+        <v>1.36214</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.03232</v>
+        <v>1.03119</v>
       </c>
       <c r="C113" t="n">
-        <v>1.31542</v>
+        <v>1.31218</v>
       </c>
       <c r="D113" t="n">
-        <v>1.36662</v>
+        <v>1.3664</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.04245</v>
+        <v>1.03482</v>
       </c>
       <c r="C114" t="n">
-        <v>1.3113</v>
+        <v>1.30573</v>
       </c>
       <c r="D114" t="n">
-        <v>1.37438</v>
+        <v>1.35759</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.04395</v>
+        <v>1.03848</v>
       </c>
       <c r="C115" t="n">
-        <v>1.29989</v>
+        <v>1.3139</v>
       </c>
       <c r="D115" t="n">
-        <v>1.37658</v>
+        <v>1.35735</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.04683</v>
+        <v>1.04321</v>
       </c>
       <c r="C116" t="n">
-        <v>1.31575</v>
+        <v>1.29537</v>
       </c>
       <c r="D116" t="n">
-        <v>1.35998</v>
+        <v>1.35679</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.05538</v>
+        <v>1.04676</v>
       </c>
       <c r="C117" t="n">
-        <v>1.31253</v>
+        <v>1.30218</v>
       </c>
       <c r="D117" t="n">
-        <v>1.3554</v>
+        <v>1.34513</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.05343</v>
+        <v>1.04962</v>
       </c>
       <c r="C118" t="n">
-        <v>1.32389</v>
+        <v>1.30834</v>
       </c>
       <c r="D118" t="n">
-        <v>1.3594</v>
+        <v>1.35434</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.05911</v>
+        <v>1.05405</v>
       </c>
       <c r="C119" t="n">
-        <v>1.3224</v>
+        <v>1.30103</v>
       </c>
       <c r="D119" t="n">
-        <v>1.36742</v>
+        <v>1.33939</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.06304</v>
+        <v>1.05791</v>
       </c>
       <c r="C120" t="n">
-        <v>1.32342</v>
+        <v>1.30606</v>
       </c>
       <c r="D120" t="n">
-        <v>1.35855</v>
+        <v>1.33799</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.06668</v>
+        <v>1.06181</v>
       </c>
       <c r="C121" t="n">
-        <v>1.32237</v>
+        <v>1.31694</v>
       </c>
       <c r="D121" t="n">
-        <v>1.34838</v>
+        <v>1.34897</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.07418</v>
+        <v>1.06935</v>
       </c>
       <c r="C122" t="n">
-        <v>1.33325</v>
+        <v>1.30972</v>
       </c>
       <c r="D122" t="n">
-        <v>1.35512</v>
+        <v>1.34217</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.08403</v>
+        <v>1.07507</v>
       </c>
       <c r="C123" t="n">
-        <v>1.32466</v>
+        <v>1.31438</v>
       </c>
       <c r="D123" t="n">
-        <v>1.69794</v>
+        <v>1.67424</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.26762</v>
+        <v>1.26382</v>
       </c>
       <c r="C124" t="n">
-        <v>1.61453</v>
+        <v>1.61705</v>
       </c>
       <c r="D124" t="n">
-        <v>1.69188</v>
+        <v>1.69281</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.277</v>
+        <v>1.27008</v>
       </c>
       <c r="C125" t="n">
-        <v>1.63103</v>
+        <v>1.62304</v>
       </c>
       <c r="D125" t="n">
-        <v>1.70226</v>
+        <v>1.6943</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.27724</v>
+        <v>1.27473</v>
       </c>
       <c r="C126" t="n">
-        <v>1.62689</v>
+        <v>1.62516</v>
       </c>
       <c r="D126" t="n">
-        <v>1.70099</v>
+        <v>1.68938</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.28731</v>
+        <v>1.27904</v>
       </c>
       <c r="C127" t="n">
-        <v>1.64409</v>
+        <v>1.63468</v>
       </c>
       <c r="D127" t="n">
-        <v>1.69741</v>
+        <v>1.69727</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.29227</v>
+        <v>1.28425</v>
       </c>
       <c r="C128" t="n">
-        <v>1.64676</v>
+        <v>1.64082</v>
       </c>
       <c r="D128" t="n">
-        <v>1.7024</v>
+        <v>1.69585</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.29584</v>
+        <v>1.28828</v>
       </c>
       <c r="C129" t="n">
-        <v>1.6496</v>
+        <v>1.6438</v>
       </c>
       <c r="D129" t="n">
-        <v>1.71893</v>
+        <v>1.70019</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.30406</v>
+        <v>1.29189</v>
       </c>
       <c r="C130" t="n">
-        <v>1.66368</v>
+        <v>1.65735</v>
       </c>
       <c r="D130" t="n">
-        <v>1.70987</v>
+        <v>1.70058</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.30611</v>
+        <v>1.29529</v>
       </c>
       <c r="C131" t="n">
-        <v>1.66927</v>
+        <v>1.65704</v>
       </c>
       <c r="D131" t="n">
-        <v>1.71566</v>
+        <v>1.70318</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.31101</v>
+        <v>1.30305</v>
       </c>
       <c r="C132" t="n">
-        <v>1.6696</v>
+        <v>1.65902</v>
       </c>
       <c r="D132" t="n">
-        <v>1.72018</v>
+        <v>1.71141</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.31776</v>
+        <v>1.30592</v>
       </c>
       <c r="C133" t="n">
-        <v>1.67542</v>
+        <v>1.66479</v>
       </c>
       <c r="D133" t="n">
-        <v>1.72356</v>
+        <v>1.71857</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.32673</v>
+        <v>1.31099</v>
       </c>
       <c r="C134" t="n">
-        <v>1.68385</v>
+        <v>1.67859</v>
       </c>
       <c r="D134" t="n">
-        <v>1.7234</v>
+        <v>1.71707</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.32855</v>
+        <v>1.31653</v>
       </c>
       <c r="C135" t="n">
-        <v>1.69687</v>
+        <v>1.68719</v>
       </c>
       <c r="D135" t="n">
-        <v>1.72481</v>
+        <v>1.71578</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.33637</v>
+        <v>1.32359</v>
       </c>
       <c r="C136" t="n">
-        <v>1.69755</v>
+        <v>1.69465</v>
       </c>
       <c r="D136" t="n">
-        <v>1.73263</v>
+        <v>1.72393</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.34684</v>
+        <v>1.33329</v>
       </c>
       <c r="C137" t="n">
-        <v>1.70654</v>
+        <v>1.70125</v>
       </c>
       <c r="D137" t="n">
-        <v>2.06747</v>
+        <v>2.06508</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.5372</v>
+        <v>1.52627</v>
       </c>
       <c r="C138" t="n">
-        <v>2.00242</v>
+        <v>1.98921</v>
       </c>
       <c r="D138" t="n">
-        <v>2.08447</v>
+        <v>2.07042</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.53681</v>
+        <v>1.52589</v>
       </c>
       <c r="C139" t="n">
-        <v>2.00811</v>
+        <v>1.99831</v>
       </c>
       <c r="D139" t="n">
-        <v>2.08758</v>
+        <v>2.07662</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.53853</v>
+        <v>1.5264</v>
       </c>
       <c r="C140" t="n">
-        <v>2.0218</v>
+        <v>2.00903</v>
       </c>
       <c r="D140" t="n">
-        <v>2.09419</v>
+        <v>2.08072</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.54032</v>
+        <v>1.52849</v>
       </c>
       <c r="C141" t="n">
-        <v>2.0345</v>
+        <v>2.02269</v>
       </c>
       <c r="D141" t="n">
-        <v>2.10376</v>
+        <v>2.08968</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.543</v>
+        <v>1.52887</v>
       </c>
       <c r="C142" t="n">
-        <v>2.02519</v>
+        <v>2.02953</v>
       </c>
       <c r="D142" t="n">
-        <v>2.08927</v>
+        <v>2.09548</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.52584</v>
+        <v>1.53041</v>
       </c>
       <c r="C143" t="n">
-        <v>2.03503</v>
+        <v>2.03701</v>
       </c>
       <c r="D143" t="n">
-        <v>2.10438</v>
+        <v>2.10185</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.593163</v>
+        <v>0.59483</v>
       </c>
       <c r="C2" t="n">
-        <v>0.835851</v>
+        <v>0.836914</v>
       </c>
       <c r="D2" t="n">
-        <v>0.891243</v>
+        <v>0.891719</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.582439</v>
+        <v>0.585143</v>
       </c>
       <c r="C3" t="n">
-        <v>0.819762</v>
+        <v>0.820222</v>
       </c>
       <c r="D3" t="n">
-        <v>0.872881</v>
+        <v>0.8733070000000001</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.574739</v>
+        <v>0.576254</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8047840000000001</v>
+        <v>0.805538</v>
       </c>
       <c r="D4" t="n">
-        <v>0.856592</v>
+        <v>0.856945</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.56734</v>
+        <v>0.568586</v>
       </c>
       <c r="C5" t="n">
-        <v>0.790948</v>
+        <v>0.791788</v>
       </c>
       <c r="D5" t="n">
-        <v>0.841885</v>
+        <v>0.842168</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.561036</v>
+        <v>0.562466</v>
       </c>
       <c r="C6" t="n">
-        <v>0.777653</v>
+        <v>0.778301</v>
       </c>
       <c r="D6" t="n">
-        <v>0.827521</v>
+        <v>0.82812</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.556107</v>
+        <v>0.557492</v>
       </c>
       <c r="C7" t="n">
-        <v>0.76666</v>
+        <v>0.767225</v>
       </c>
       <c r="D7" t="n">
-        <v>0.816466</v>
+        <v>0.816931</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.553693</v>
+        <v>0.55483</v>
       </c>
       <c r="C8" t="n">
-        <v>0.757821</v>
+        <v>0.758109</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8084440000000001</v>
+        <v>0.808543</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.553852</v>
+        <v>0.5550040000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7514110000000001</v>
+        <v>0.752113</v>
       </c>
       <c r="D9" t="n">
-        <v>1.07943</v>
+        <v>1.07995</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.700062</v>
+        <v>0.701582</v>
       </c>
       <c r="C10" t="n">
-        <v>0.988327</v>
+        <v>0.988966</v>
       </c>
       <c r="D10" t="n">
-        <v>1.05783</v>
+        <v>1.05839</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.684593</v>
+        <v>0.685353</v>
       </c>
       <c r="C11" t="n">
-        <v>0.964381</v>
+        <v>0.965194</v>
       </c>
       <c r="D11" t="n">
-        <v>1.03126</v>
+        <v>1.03144</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.669891</v>
+        <v>0.670287</v>
       </c>
       <c r="C12" t="n">
-        <v>0.942017</v>
+        <v>0.942701</v>
       </c>
       <c r="D12" t="n">
-        <v>1.00634</v>
+        <v>1.00653</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.655465</v>
+        <v>0.6554450000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9200430000000001</v>
+        <v>0.920668</v>
       </c>
       <c r="D13" t="n">
-        <v>0.981556</v>
+        <v>0.981914</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.642195</v>
+        <v>0.642678</v>
       </c>
       <c r="C14" t="n">
-        <v>0.899428</v>
+        <v>0.900528</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9586249999999999</v>
+        <v>0.959232</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6301909999999999</v>
+        <v>0.630313</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8801099999999999</v>
+        <v>0.881126</v>
       </c>
       <c r="D15" t="n">
-        <v>0.936758</v>
+        <v>0.937904</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.618375</v>
+        <v>0.618912</v>
       </c>
       <c r="C16" t="n">
-        <v>0.861935</v>
+        <v>0.862555</v>
       </c>
       <c r="D16" t="n">
-        <v>0.916654</v>
+        <v>0.917168</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6077129999999999</v>
+        <v>0.607873</v>
       </c>
       <c r="C17" t="n">
-        <v>0.84441</v>
+        <v>0.845434</v>
       </c>
       <c r="D17" t="n">
-        <v>0.897446</v>
+        <v>0.897882</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.597936</v>
+        <v>0.597853</v>
       </c>
       <c r="C18" t="n">
-        <v>0.828479</v>
+        <v>0.828965</v>
       </c>
       <c r="D18" t="n">
-        <v>0.879738</v>
+        <v>0.880209</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.589106</v>
+        <v>0.589197</v>
       </c>
       <c r="C19" t="n">
-        <v>0.813943</v>
+        <v>0.8144709999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>0.863842</v>
+        <v>0.864507</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.582328</v>
+        <v>0.582158</v>
       </c>
       <c r="C20" t="n">
-        <v>0.799666</v>
+        <v>0.80016</v>
       </c>
       <c r="D20" t="n">
-        <v>0.848652</v>
+        <v>0.848931</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.577886</v>
+        <v>0.577335</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7876300000000001</v>
+        <v>0.787722</v>
       </c>
       <c r="D21" t="n">
-        <v>0.836035</v>
+        <v>0.835923</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5747679999999999</v>
+        <v>0.57414</v>
       </c>
       <c r="C22" t="n">
-        <v>0.777174</v>
+        <v>0.777374</v>
       </c>
       <c r="D22" t="n">
-        <v>0.826519</v>
+        <v>0.826449</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.574397</v>
+        <v>0.573332</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7691480000000001</v>
+        <v>0.7693489999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>1.10629</v>
+        <v>1.10681</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.703779</v>
+        <v>0.703025</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9890139999999999</v>
+        <v>0.988834</v>
       </c>
       <c r="D24" t="n">
-        <v>1.07839</v>
+        <v>1.07867</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.688318</v>
+        <v>0.688123</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9649489999999999</v>
+        <v>0.965463</v>
       </c>
       <c r="D25" t="n">
-        <v>1.05072</v>
+        <v>1.0512</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.673669</v>
+        <v>0.673041</v>
       </c>
       <c r="C26" t="n">
-        <v>0.943127</v>
+        <v>0.943209</v>
       </c>
       <c r="D26" t="n">
-        <v>1.02468</v>
+        <v>1.02524</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.660013</v>
+        <v>0.658938</v>
       </c>
       <c r="C27" t="n">
-        <v>0.921415</v>
+        <v>0.921752</v>
       </c>
       <c r="D27" t="n">
-        <v>0.999542</v>
+        <v>1.00024</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.647033</v>
+        <v>0.645794</v>
       </c>
       <c r="C28" t="n">
-        <v>0.901813</v>
+        <v>0.901771</v>
       </c>
       <c r="D28" t="n">
-        <v>0.976517</v>
+        <v>0.976631</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.634926</v>
+        <v>0.633566</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8824689999999999</v>
+        <v>0.88226</v>
       </c>
       <c r="D29" t="n">
-        <v>0.954159</v>
+        <v>0.954048</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6236429999999999</v>
+        <v>0.6219710000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>0.86428</v>
+        <v>0.8640949999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.933225</v>
+        <v>0.933458</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.612841</v>
+        <v>0.611484</v>
       </c>
       <c r="C31" t="n">
-        <v>0.847067</v>
+        <v>0.846852</v>
       </c>
       <c r="D31" t="n">
-        <v>0.91333</v>
+        <v>0.913316</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.603212</v>
+        <v>0.602146</v>
       </c>
       <c r="C32" t="n">
-        <v>0.831297</v>
+        <v>0.831006</v>
       </c>
       <c r="D32" t="n">
-        <v>0.895353</v>
+        <v>0.895495</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.594473</v>
+        <v>0.592601</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8165210000000001</v>
+        <v>0.816375</v>
       </c>
       <c r="D33" t="n">
-        <v>0.878454</v>
+        <v>0.878681</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5878100000000001</v>
+        <v>0.585597</v>
       </c>
       <c r="C34" t="n">
-        <v>0.802723</v>
+        <v>0.802661</v>
       </c>
       <c r="D34" t="n">
-        <v>0.863599</v>
+        <v>0.863446</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5815399999999999</v>
+        <v>0.582502</v>
       </c>
       <c r="C35" t="n">
-        <v>0.79056</v>
+        <v>0.790384</v>
       </c>
       <c r="D35" t="n">
-        <v>0.850254</v>
+        <v>0.85061</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5790419999999999</v>
+        <v>0.576344</v>
       </c>
       <c r="C36" t="n">
-        <v>0.779363</v>
+        <v>0.779365</v>
       </c>
       <c r="D36" t="n">
-        <v>0.839827</v>
+        <v>0.839633</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.577397</v>
+        <v>0.574855</v>
       </c>
       <c r="C37" t="n">
-        <v>0.771404</v>
+        <v>0.771103</v>
       </c>
       <c r="D37" t="n">
-        <v>1.12692</v>
+        <v>1.12757</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.733507</v>
+        <v>0.7347089999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>1.01991</v>
+        <v>1.02106</v>
       </c>
       <c r="D38" t="n">
-        <v>1.09827</v>
+        <v>1.09911</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7187</v>
+        <v>0.719729</v>
       </c>
       <c r="C39" t="n">
-        <v>0.996803</v>
+        <v>0.997422</v>
       </c>
       <c r="D39" t="n">
-        <v>1.07065</v>
+        <v>1.07118</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.703691</v>
+        <v>0.704487</v>
       </c>
       <c r="C40" t="n">
-        <v>0.973344</v>
+        <v>0.974243</v>
       </c>
       <c r="D40" t="n">
-        <v>1.04421</v>
+        <v>1.04424</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6887259999999999</v>
+        <v>0.689862</v>
       </c>
       <c r="C41" t="n">
-        <v>0.95162</v>
+        <v>0.952294</v>
       </c>
       <c r="D41" t="n">
-        <v>1.01902</v>
+        <v>1.01975</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.675212</v>
+        <v>0.675751</v>
       </c>
       <c r="C42" t="n">
-        <v>0.930792</v>
+        <v>0.930735</v>
       </c>
       <c r="D42" t="n">
-        <v>0.995777</v>
+        <v>0.995448</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.662368</v>
+        <v>0.662994</v>
       </c>
       <c r="C43" t="n">
-        <v>0.910822</v>
+        <v>0.9108270000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9730490000000001</v>
+        <v>0.97324</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.65057</v>
+        <v>0.650575</v>
       </c>
       <c r="C44" t="n">
-        <v>0.891696</v>
+        <v>0.891915</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9516</v>
+        <v>0.952593</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.638413</v>
+        <v>0.639594</v>
       </c>
       <c r="C45" t="n">
-        <v>0.87352</v>
+        <v>0.87387</v>
       </c>
       <c r="D45" t="n">
-        <v>0.931501</v>
+        <v>0.932287</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.628545</v>
+        <v>0.629892</v>
       </c>
       <c r="C46" t="n">
-        <v>0.857796</v>
+        <v>0.857146</v>
       </c>
       <c r="D46" t="n">
-        <v>0.912865</v>
+        <v>0.913513</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.619533</v>
+        <v>0.620318</v>
       </c>
       <c r="C47" t="n">
-        <v>0.841714</v>
+        <v>0.841663</v>
       </c>
       <c r="D47" t="n">
-        <v>0.895747</v>
+        <v>0.895726</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.611611</v>
+        <v>0.612241</v>
       </c>
       <c r="C48" t="n">
-        <v>0.827948</v>
+        <v>0.82667</v>
       </c>
       <c r="D48" t="n">
-        <v>0.880197</v>
+        <v>0.880433</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.605925</v>
+        <v>0.604444</v>
       </c>
       <c r="C49" t="n">
-        <v>0.815876</v>
+        <v>0.814887</v>
       </c>
       <c r="D49" t="n">
-        <v>0.866278</v>
+        <v>0.865917</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.600696</v>
+        <v>0.600678</v>
       </c>
       <c r="C50" t="n">
-        <v>0.802477</v>
+        <v>0.803718</v>
       </c>
       <c r="D50" t="n">
-        <v>0.854828</v>
+        <v>0.854223</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.597845</v>
+        <v>0.597291</v>
       </c>
       <c r="C51" t="n">
-        <v>0.792764</v>
+        <v>0.793106</v>
       </c>
       <c r="D51" t="n">
-        <v>1.14962</v>
+        <v>1.15076</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.598711</v>
+        <v>0.598643</v>
       </c>
       <c r="C52" t="n">
-        <v>0.786433</v>
+        <v>0.787609</v>
       </c>
       <c r="D52" t="n">
-        <v>1.12111</v>
+        <v>1.123</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.746726</v>
+        <v>0.74709</v>
       </c>
       <c r="C53" t="n">
-        <v>1.02194</v>
+        <v>1.02174</v>
       </c>
       <c r="D53" t="n">
-        <v>1.09341</v>
+        <v>1.09398</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.730846</v>
+        <v>0.731419</v>
       </c>
       <c r="C54" t="n">
-        <v>0.999515</v>
+        <v>0.998851</v>
       </c>
       <c r="D54" t="n">
-        <v>1.0662</v>
+        <v>1.06744</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.716502</v>
+        <v>0.716</v>
       </c>
       <c r="C55" t="n">
-        <v>0.976318</v>
+        <v>0.976633</v>
       </c>
       <c r="D55" t="n">
-        <v>1.04174</v>
+        <v>1.04303</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.703454</v>
+        <v>0.70242</v>
       </c>
       <c r="C56" t="n">
-        <v>0.954725</v>
+        <v>0.955767</v>
       </c>
       <c r="D56" t="n">
-        <v>1.01757</v>
+        <v>1.01941</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.6893629999999999</v>
+        <v>0.690651</v>
       </c>
       <c r="C57" t="n">
-        <v>0.935371</v>
+        <v>0.9363899999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.995775</v>
+        <v>0.995534</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.67778</v>
+        <v>0.676822</v>
       </c>
       <c r="C58" t="n">
-        <v>0.916505</v>
+        <v>0.915957</v>
       </c>
       <c r="D58" t="n">
-        <v>0.974379</v>
+        <v>0.974437</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.666532</v>
+        <v>0.665513</v>
       </c>
       <c r="C59" t="n">
-        <v>0.899257</v>
+        <v>0.899526</v>
       </c>
       <c r="D59" t="n">
-        <v>0.954615</v>
+        <v>0.9546480000000001</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.656267</v>
+        <v>0.655998</v>
       </c>
       <c r="C60" t="n">
-        <v>0.882219</v>
+        <v>0.8821</v>
       </c>
       <c r="D60" t="n">
-        <v>0.935624</v>
+        <v>0.935642</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.646057</v>
+        <v>0.645862</v>
       </c>
       <c r="C61" t="n">
-        <v>0.866964</v>
+        <v>0.865729</v>
       </c>
       <c r="D61" t="n">
-        <v>0.918206</v>
+        <v>0.9189079999999999</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.638709</v>
+        <v>0.637287</v>
       </c>
       <c r="C62" t="n">
-        <v>0.852164</v>
+        <v>0.850697</v>
       </c>
       <c r="D62" t="n">
-        <v>0.902573</v>
+        <v>0.902878</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.630932</v>
+        <v>0.630722</v>
       </c>
       <c r="C63" t="n">
-        <v>0.839157</v>
+        <v>0.839058</v>
       </c>
       <c r="D63" t="n">
-        <v>0.88832</v>
+        <v>0.887914</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.626881</v>
+        <v>0.625336</v>
       </c>
       <c r="C64" t="n">
-        <v>0.826583</v>
+        <v>0.826662</v>
       </c>
       <c r="D64" t="n">
-        <v>0.8760250000000001</v>
+        <v>0.873714</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.6237510000000001</v>
+        <v>0.6237</v>
       </c>
       <c r="C65" t="n">
-        <v>0.8171119999999999</v>
+        <v>0.817233</v>
       </c>
       <c r="D65" t="n">
-        <v>0.867159</v>
+        <v>0.868012</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.623772</v>
+        <v>0.622287</v>
       </c>
       <c r="C66" t="n">
-        <v>0.809912</v>
+        <v>0.808018</v>
       </c>
       <c r="D66" t="n">
-        <v>1.14828</v>
+        <v>1.14598</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.7727889999999999</v>
+        <v>0.771797</v>
       </c>
       <c r="C67" t="n">
-        <v>1.05369</v>
+        <v>1.05298</v>
       </c>
       <c r="D67" t="n">
-        <v>1.11994</v>
+        <v>1.12103</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.757892</v>
+        <v>0.756911</v>
       </c>
       <c r="C68" t="n">
-        <v>1.03026</v>
+        <v>1.03037</v>
       </c>
       <c r="D68" t="n">
-        <v>1.0931</v>
+        <v>1.09435</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.74346</v>
+        <v>0.7431680000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>1.00713</v>
+        <v>1.006</v>
       </c>
       <c r="D69" t="n">
-        <v>1.06862</v>
+        <v>1.06727</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.729724</v>
+        <v>0.727355</v>
       </c>
       <c r="C70" t="n">
-        <v>0.986822</v>
+        <v>0.986452</v>
       </c>
       <c r="D70" t="n">
-        <v>1.04499</v>
+        <v>1.04503</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.716657</v>
+        <v>0.714476</v>
       </c>
       <c r="C71" t="n">
-        <v>0.965786</v>
+        <v>0.963799</v>
       </c>
       <c r="D71" t="n">
-        <v>1.02216</v>
+        <v>1.02393</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.704124</v>
+        <v>0.701749</v>
       </c>
       <c r="C72" t="n">
-        <v>0.946722</v>
+        <v>0.946381</v>
       </c>
       <c r="D72" t="n">
-        <v>1.00112</v>
+        <v>1.00042</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.692319</v>
+        <v>0.692746</v>
       </c>
       <c r="C73" t="n">
-        <v>0.928053</v>
+        <v>0.928799</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9806510000000001</v>
+        <v>0.980878</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.682713</v>
+        <v>0.681055</v>
       </c>
       <c r="C74" t="n">
-        <v>0.912444</v>
+        <v>0.911597</v>
       </c>
       <c r="D74" t="n">
-        <v>0.96222</v>
+        <v>0.961952</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.672655</v>
+        <v>0.673027</v>
       </c>
       <c r="C75" t="n">
-        <v>0.896868</v>
+        <v>0.896863</v>
       </c>
       <c r="D75" t="n">
-        <v>0.944733</v>
+        <v>0.944984</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.664909</v>
+        <v>0.664357</v>
       </c>
       <c r="C76" t="n">
-        <v>0.882126</v>
+        <v>0.878116</v>
       </c>
       <c r="D76" t="n">
-        <v>0.929002</v>
+        <v>0.925751</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.657376</v>
+        <v>0.655263</v>
       </c>
       <c r="C77" t="n">
-        <v>0.868058</v>
+        <v>0.864025</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9141049999999999</v>
+        <v>0.911832</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.652602</v>
+        <v>0.648712</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8568789999999999</v>
+        <v>0.853764</v>
       </c>
       <c r="D78" t="n">
-        <v>0.901751</v>
+        <v>0.899435</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.649492</v>
+        <v>0.6461750000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>0.845593</v>
+        <v>0.8425049999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>0.891808</v>
+        <v>0.890472</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.649025</v>
+        <v>0.646181</v>
       </c>
       <c r="C80" t="n">
-        <v>0.838274</v>
+        <v>0.835328</v>
       </c>
       <c r="D80" t="n">
-        <v>1.19133</v>
+        <v>1.194</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.819919</v>
+        <v>0.820009</v>
       </c>
       <c r="C81" t="n">
-        <v>1.09759</v>
+        <v>1.09918</v>
       </c>
       <c r="D81" t="n">
-        <v>1.16411</v>
+        <v>1.1669</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.806519</v>
+        <v>0.809118</v>
       </c>
       <c r="C82" t="n">
-        <v>1.07335</v>
+        <v>1.07706</v>
       </c>
       <c r="D82" t="n">
-        <v>1.13716</v>
+        <v>1.13914</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.794426</v>
+        <v>0.797115</v>
       </c>
       <c r="C83" t="n">
-        <v>1.0534</v>
+        <v>1.05627</v>
       </c>
       <c r="D83" t="n">
-        <v>1.11338</v>
+        <v>1.11454</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.783985</v>
+        <v>0.7855259999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>1.03529</v>
+        <v>1.03561</v>
       </c>
       <c r="D84" t="n">
-        <v>1.09185</v>
+        <v>1.08912</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.7745840000000001</v>
+        <v>0.767644</v>
       </c>
       <c r="C85" t="n">
-        <v>1.01846</v>
+        <v>1.0141</v>
       </c>
       <c r="D85" t="n">
-        <v>1.0706</v>
+        <v>1.06479</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.762508</v>
+        <v>0.759084</v>
       </c>
       <c r="C86" t="n">
-        <v>0.99804</v>
+        <v>0.994608</v>
       </c>
       <c r="D86" t="n">
-        <v>1.04765</v>
+        <v>1.04556</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.749737</v>
+        <v>0.74608</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9783809999999999</v>
+        <v>0.9756320000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>1.02588</v>
+        <v>1.02411</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.7378400000000001</v>
+        <v>0.734824</v>
       </c>
       <c r="C88" t="n">
-        <v>0.959636</v>
+        <v>0.958707</v>
       </c>
       <c r="D88" t="n">
-        <v>1.00553</v>
+        <v>1.00379</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.725931</v>
+        <v>0.7245549999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>0.944291</v>
+        <v>0.94136</v>
       </c>
       <c r="D89" t="n">
-        <v>0.986073</v>
+        <v>0.986691</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.717607</v>
+        <v>0.715022</v>
       </c>
       <c r="C90" t="n">
-        <v>0.924774</v>
+        <v>0.927225</v>
       </c>
       <c r="D90" t="n">
-        <v>0.970889</v>
+        <v>0.969664</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.708012</v>
+        <v>0.708036</v>
       </c>
       <c r="C91" t="n">
-        <v>0.914261</v>
+        <v>0.91384</v>
       </c>
       <c r="D91" t="n">
-        <v>0.955534</v>
+        <v>0.955305</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.70098</v>
+        <v>0.700361</v>
       </c>
       <c r="C92" t="n">
-        <v>0.898923</v>
+        <v>0.899745</v>
       </c>
       <c r="D92" t="n">
-        <v>0.939285</v>
+        <v>0.940789</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.695543</v>
+        <v>0.695626</v>
       </c>
       <c r="C93" t="n">
-        <v>0.888954</v>
+        <v>0.887074</v>
       </c>
       <c r="D93" t="n">
-        <v>0.930966</v>
+        <v>0.928599</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.693097</v>
+        <v>0.692452</v>
       </c>
       <c r="C94" t="n">
-        <v>0.874545</v>
+        <v>0.877919</v>
       </c>
       <c r="D94" t="n">
-        <v>1.25121</v>
+        <v>1.24786</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.8780480000000001</v>
+        <v>0.875589</v>
       </c>
       <c r="C95" t="n">
-        <v>1.14999</v>
+        <v>1.149</v>
       </c>
       <c r="D95" t="n">
-        <v>1.24242</v>
+        <v>1.24514</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.886493</v>
+        <v>0.885379</v>
       </c>
       <c r="C96" t="n">
-        <v>1.14953</v>
+        <v>1.15263</v>
       </c>
       <c r="D96" t="n">
-        <v>1.23245</v>
+        <v>1.2269</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.886169</v>
+        <v>0.882512</v>
       </c>
       <c r="C97" t="n">
-        <v>1.146</v>
+        <v>1.14626</v>
       </c>
       <c r="D97" t="n">
-        <v>1.21604</v>
+        <v>1.2115</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.88219</v>
+        <v>0.881733</v>
       </c>
       <c r="C98" t="n">
-        <v>1.1354</v>
+        <v>1.13164</v>
       </c>
       <c r="D98" t="n">
-        <v>1.1999</v>
+        <v>1.19735</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.877598</v>
+        <v>0.876835</v>
       </c>
       <c r="C99" t="n">
-        <v>1.11796</v>
+        <v>1.12479</v>
       </c>
       <c r="D99" t="n">
-        <v>1.18263</v>
+        <v>1.17752</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.870417</v>
+        <v>0.868922</v>
       </c>
       <c r="C100" t="n">
-        <v>1.09685</v>
+        <v>1.10387</v>
       </c>
       <c r="D100" t="n">
-        <v>1.15728</v>
+        <v>1.14734</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.861766</v>
+        <v>0.863225</v>
       </c>
       <c r="C101" t="n">
-        <v>1.09767</v>
+        <v>1.08539</v>
       </c>
       <c r="D101" t="n">
-        <v>1.14193</v>
+        <v>1.14709</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.8542729999999999</v>
+        <v>0.851917</v>
       </c>
       <c r="C102" t="n">
-        <v>1.07876</v>
+        <v>1.08065</v>
       </c>
       <c r="D102" t="n">
-        <v>1.12984</v>
+        <v>1.12323</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.845711</v>
+        <v>0.844059</v>
       </c>
       <c r="C103" t="n">
-        <v>1.07166</v>
+        <v>1.05512</v>
       </c>
       <c r="D103" t="n">
-        <v>1.11172</v>
+        <v>1.10947</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.838734</v>
+        <v>0.837239</v>
       </c>
       <c r="C104" t="n">
-        <v>1.04703</v>
+        <v>1.0552</v>
       </c>
       <c r="D104" t="n">
-        <v>1.09675</v>
+        <v>1.09742</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.831765</v>
+        <v>0.830341</v>
       </c>
       <c r="C105" t="n">
-        <v>1.03554</v>
+        <v>1.04878</v>
       </c>
       <c r="D105" t="n">
-        <v>1.07251</v>
+        <v>1.08296</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.827001</v>
+        <v>0.825418</v>
       </c>
       <c r="C106" t="n">
-        <v>1.03925</v>
+        <v>1.03949</v>
       </c>
       <c r="D106" t="n">
-        <v>1.05442</v>
+        <v>1.07208</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.824397</v>
+        <v>0.821256</v>
       </c>
       <c r="C107" t="n">
-        <v>1.01314</v>
+        <v>1.0061</v>
       </c>
       <c r="D107" t="n">
-        <v>1.06244</v>
+        <v>1.05768</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.819854</v>
+        <v>0.819179</v>
       </c>
       <c r="C108" t="n">
-        <v>1.01974</v>
+        <v>1.02256</v>
       </c>
       <c r="D108" t="n">
-        <v>1.38026</v>
+        <v>1.38672</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.820883</v>
+        <v>0.825824</v>
       </c>
       <c r="C109" t="n">
-        <v>1.01609</v>
+        <v>1.02004</v>
       </c>
       <c r="D109" t="n">
-        <v>1.38171</v>
+        <v>1.39091</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.01468</v>
+        <v>1.01583</v>
       </c>
       <c r="C110" t="n">
-        <v>1.28388</v>
+        <v>1.30884</v>
       </c>
       <c r="D110" t="n">
-        <v>1.38917</v>
+        <v>1.39404</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.02021</v>
+        <v>1.02568</v>
       </c>
       <c r="C111" t="n">
-        <v>1.31008</v>
+        <v>1.3132</v>
       </c>
       <c r="D111" t="n">
-        <v>1.38458</v>
+        <v>1.38843</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.02357</v>
+        <v>1.02875</v>
       </c>
       <c r="C112" t="n">
-        <v>1.30184</v>
+        <v>1.29209</v>
       </c>
       <c r="D112" t="n">
-        <v>1.36214</v>
+        <v>1.37232</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.03119</v>
+        <v>1.03266</v>
       </c>
       <c r="C113" t="n">
-        <v>1.31218</v>
+        <v>1.31204</v>
       </c>
       <c r="D113" t="n">
-        <v>1.3664</v>
+        <v>1.38064</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.03482</v>
+        <v>1.03756</v>
       </c>
       <c r="C114" t="n">
-        <v>1.30573</v>
+        <v>1.30809</v>
       </c>
       <c r="D114" t="n">
-        <v>1.35759</v>
+        <v>1.36157</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.03848</v>
+        <v>1.03919</v>
       </c>
       <c r="C115" t="n">
-        <v>1.3139</v>
+        <v>1.29661</v>
       </c>
       <c r="D115" t="n">
-        <v>1.35735</v>
+        <v>1.35892</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.04321</v>
+        <v>1.04255</v>
       </c>
       <c r="C116" t="n">
-        <v>1.29537</v>
+        <v>1.31021</v>
       </c>
       <c r="D116" t="n">
-        <v>1.35679</v>
+        <v>1.36409</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.04676</v>
+        <v>1.04789</v>
       </c>
       <c r="C117" t="n">
-        <v>1.30218</v>
+        <v>1.31444</v>
       </c>
       <c r="D117" t="n">
-        <v>1.34513</v>
+        <v>1.36208</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.04962</v>
+        <v>1.05063</v>
       </c>
       <c r="C118" t="n">
-        <v>1.30834</v>
+        <v>1.31121</v>
       </c>
       <c r="D118" t="n">
-        <v>1.35434</v>
+        <v>1.36234</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.05405</v>
+        <v>1.0565</v>
       </c>
       <c r="C119" t="n">
-        <v>1.30103</v>
+        <v>1.31631</v>
       </c>
       <c r="D119" t="n">
-        <v>1.33939</v>
+        <v>1.36156</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.05791</v>
+        <v>1.05817</v>
       </c>
       <c r="C120" t="n">
-        <v>1.30606</v>
+        <v>1.31586</v>
       </c>
       <c r="D120" t="n">
-        <v>1.33799</v>
+        <v>1.35696</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.06181</v>
+        <v>1.063</v>
       </c>
       <c r="C121" t="n">
-        <v>1.31694</v>
+        <v>1.31798</v>
       </c>
       <c r="D121" t="n">
-        <v>1.34897</v>
+        <v>1.35197</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.06935</v>
+        <v>1.06836</v>
       </c>
       <c r="C122" t="n">
-        <v>1.30972</v>
+        <v>1.31414</v>
       </c>
       <c r="D122" t="n">
-        <v>1.34217</v>
+        <v>1.33845</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.07507</v>
+        <v>1.07607</v>
       </c>
       <c r="C123" t="n">
-        <v>1.31438</v>
+        <v>1.31472</v>
       </c>
       <c r="D123" t="n">
-        <v>1.67424</v>
+        <v>1.67924</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.26382</v>
+        <v>1.26376</v>
       </c>
       <c r="C124" t="n">
-        <v>1.61705</v>
+        <v>1.60031</v>
       </c>
       <c r="D124" t="n">
-        <v>1.69281</v>
+        <v>1.67528</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.27008</v>
+        <v>1.26988</v>
       </c>
       <c r="C125" t="n">
-        <v>1.62304</v>
+        <v>1.61484</v>
       </c>
       <c r="D125" t="n">
-        <v>1.6943</v>
+        <v>1.6892</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.27473</v>
+        <v>1.27382</v>
       </c>
       <c r="C126" t="n">
-        <v>1.62516</v>
+        <v>1.63089</v>
       </c>
       <c r="D126" t="n">
-        <v>1.68938</v>
+        <v>1.69179</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.27904</v>
+        <v>1.28138</v>
       </c>
       <c r="C127" t="n">
-        <v>1.63468</v>
+        <v>1.62905</v>
       </c>
       <c r="D127" t="n">
-        <v>1.69727</v>
+        <v>1.69128</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.28425</v>
+        <v>1.28432</v>
       </c>
       <c r="C128" t="n">
-        <v>1.64082</v>
+        <v>1.63729</v>
       </c>
       <c r="D128" t="n">
-        <v>1.69585</v>
+        <v>1.70088</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.28828</v>
+        <v>1.2889</v>
       </c>
       <c r="C129" t="n">
-        <v>1.6438</v>
+        <v>1.64013</v>
       </c>
       <c r="D129" t="n">
-        <v>1.70019</v>
+        <v>1.69599</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.29189</v>
+        <v>1.29261</v>
       </c>
       <c r="C130" t="n">
-        <v>1.65735</v>
+        <v>1.64902</v>
       </c>
       <c r="D130" t="n">
-        <v>1.70058</v>
+        <v>1.69917</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.29529</v>
+        <v>1.29649</v>
       </c>
       <c r="C131" t="n">
-        <v>1.65704</v>
+        <v>1.65249</v>
       </c>
       <c r="D131" t="n">
-        <v>1.70318</v>
+        <v>1.71155</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.30305</v>
+        <v>1.30161</v>
       </c>
       <c r="C132" t="n">
-        <v>1.65902</v>
+        <v>1.65838</v>
       </c>
       <c r="D132" t="n">
-        <v>1.71141</v>
+        <v>1.70299</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.30592</v>
+        <v>1.30751</v>
       </c>
       <c r="C133" t="n">
-        <v>1.66479</v>
+        <v>1.67203</v>
       </c>
       <c r="D133" t="n">
-        <v>1.71857</v>
+        <v>1.7079</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.31099</v>
+        <v>1.31257</v>
       </c>
       <c r="C134" t="n">
-        <v>1.67859</v>
+        <v>1.67262</v>
       </c>
       <c r="D134" t="n">
-        <v>1.71707</v>
+        <v>1.72322</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.31653</v>
+        <v>1.3183</v>
       </c>
       <c r="C135" t="n">
-        <v>1.68719</v>
+        <v>1.68451</v>
       </c>
       <c r="D135" t="n">
-        <v>1.71578</v>
+        <v>1.72193</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.32359</v>
+        <v>1.32483</v>
       </c>
       <c r="C136" t="n">
-        <v>1.69465</v>
+        <v>1.68795</v>
       </c>
       <c r="D136" t="n">
-        <v>1.72393</v>
+        <v>1.72321</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.33329</v>
+        <v>1.33509</v>
       </c>
       <c r="C137" t="n">
-        <v>1.70125</v>
+        <v>1.70305</v>
       </c>
       <c r="D137" t="n">
-        <v>2.06508</v>
+        <v>2.06905</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.52627</v>
+        <v>1.52713</v>
       </c>
       <c r="C138" t="n">
-        <v>1.98921</v>
+        <v>1.99037</v>
       </c>
       <c r="D138" t="n">
-        <v>2.07042</v>
+        <v>2.07028</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.52589</v>
+        <v>1.52708</v>
       </c>
       <c r="C139" t="n">
-        <v>1.99831</v>
+        <v>2.00409</v>
       </c>
       <c r="D139" t="n">
-        <v>2.07662</v>
+        <v>2.0839</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.5264</v>
+        <v>1.52756</v>
       </c>
       <c r="C140" t="n">
-        <v>2.00903</v>
+        <v>2.01156</v>
       </c>
       <c r="D140" t="n">
-        <v>2.08072</v>
+        <v>2.08073</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.52849</v>
+        <v>1.52901</v>
       </c>
       <c r="C141" t="n">
-        <v>2.02269</v>
+        <v>2.02078</v>
       </c>
       <c r="D141" t="n">
-        <v>2.08968</v>
+        <v>2.0895</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.52887</v>
+        <v>1.53064</v>
       </c>
       <c r="C142" t="n">
-        <v>2.02953</v>
+        <v>2.03102</v>
       </c>
       <c r="D142" t="n">
-        <v>2.09548</v>
+        <v>2.10045</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.53041</v>
+        <v>1.53104</v>
       </c>
       <c r="C143" t="n">
-        <v>2.03701</v>
+        <v>2.03877</v>
       </c>
       <c r="D143" t="n">
-        <v>2.10185</v>
+        <v>2.10445</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.59483</v>
+        <v>0.573283</v>
       </c>
       <c r="C2" t="n">
-        <v>0.836914</v>
+        <v>0.821618</v>
       </c>
       <c r="D2" t="n">
-        <v>0.891719</v>
+        <v>0.876189</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.585143</v>
+        <v>0.563822</v>
       </c>
       <c r="C3" t="n">
-        <v>0.820222</v>
+        <v>0.80558</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8733070000000001</v>
+        <v>0.858348</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.576254</v>
+        <v>0.5565369999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.805538</v>
+        <v>0.791385</v>
       </c>
       <c r="D4" t="n">
-        <v>0.856945</v>
+        <v>0.842745</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.568586</v>
+        <v>0.549729</v>
       </c>
       <c r="C5" t="n">
-        <v>0.791788</v>
+        <v>0.777958</v>
       </c>
       <c r="D5" t="n">
-        <v>0.842168</v>
+        <v>0.828489</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.562466</v>
+        <v>0.544004</v>
       </c>
       <c r="C6" t="n">
-        <v>0.778301</v>
+        <v>0.765437</v>
       </c>
       <c r="D6" t="n">
-        <v>0.82812</v>
+        <v>0.815121</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.557492</v>
+        <v>0.540689</v>
       </c>
       <c r="C7" t="n">
-        <v>0.767225</v>
+        <v>0.75492</v>
       </c>
       <c r="D7" t="n">
-        <v>0.816931</v>
+        <v>0.804534</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.55483</v>
+        <v>0.539727</v>
       </c>
       <c r="C8" t="n">
-        <v>0.758109</v>
+        <v>0.7465309999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.808543</v>
+        <v>0.79656</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5550040000000001</v>
+        <v>0.54149</v>
       </c>
       <c r="C9" t="n">
-        <v>0.752113</v>
+        <v>0.740877</v>
       </c>
       <c r="D9" t="n">
-        <v>1.07995</v>
+        <v>1.0445</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.701582</v>
+        <v>0.656296</v>
       </c>
       <c r="C10" t="n">
-        <v>0.988966</v>
+        <v>0.948457</v>
       </c>
       <c r="D10" t="n">
-        <v>1.05839</v>
+        <v>1.01822</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.685353</v>
+        <v>0.642865</v>
       </c>
       <c r="C11" t="n">
-        <v>0.965194</v>
+        <v>0.92613</v>
       </c>
       <c r="D11" t="n">
-        <v>1.03144</v>
+        <v>0.99318</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.670287</v>
+        <v>0.629576</v>
       </c>
       <c r="C12" t="n">
-        <v>0.942701</v>
+        <v>0.905459</v>
       </c>
       <c r="D12" t="n">
-        <v>1.00653</v>
+        <v>0.969843</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6554450000000001</v>
+        <v>0.61742</v>
       </c>
       <c r="C13" t="n">
-        <v>0.920668</v>
+        <v>0.885107</v>
       </c>
       <c r="D13" t="n">
-        <v>0.981914</v>
+        <v>0.94709</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.642678</v>
+        <v>0.606139</v>
       </c>
       <c r="C14" t="n">
-        <v>0.900528</v>
+        <v>0.866159</v>
       </c>
       <c r="D14" t="n">
-        <v>0.959232</v>
+        <v>0.926078</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.630313</v>
+        <v>0.595588</v>
       </c>
       <c r="C15" t="n">
-        <v>0.881126</v>
+        <v>0.848438</v>
       </c>
       <c r="D15" t="n">
-        <v>0.937904</v>
+        <v>0.906148</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.618912</v>
+        <v>0.585744</v>
       </c>
       <c r="C16" t="n">
-        <v>0.862555</v>
+        <v>0.8314319999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.917168</v>
+        <v>0.8872679999999999</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.607873</v>
+        <v>0.576775</v>
       </c>
       <c r="C17" t="n">
-        <v>0.845434</v>
+        <v>0.815443</v>
       </c>
       <c r="D17" t="n">
-        <v>0.897882</v>
+        <v>0.869462</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.597853</v>
+        <v>0.5685789999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>0.828965</v>
+        <v>0.800682</v>
       </c>
       <c r="D18" t="n">
-        <v>0.880209</v>
+        <v>0.852781</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.589197</v>
+        <v>0.561671</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8144709999999999</v>
+        <v>0.787168</v>
       </c>
       <c r="D19" t="n">
-        <v>0.864507</v>
+        <v>0.838134</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.582158</v>
+        <v>0.555924</v>
       </c>
       <c r="C20" t="n">
-        <v>0.80016</v>
+        <v>0.774156</v>
       </c>
       <c r="D20" t="n">
-        <v>0.848931</v>
+        <v>0.824029</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.577335</v>
+        <v>0.551775</v>
       </c>
       <c r="C21" t="n">
-        <v>0.787722</v>
+        <v>0.763145</v>
       </c>
       <c r="D21" t="n">
-        <v>0.835923</v>
+        <v>0.812345</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.57414</v>
+        <v>0.550031</v>
       </c>
       <c r="C22" t="n">
-        <v>0.777374</v>
+        <v>0.753919</v>
       </c>
       <c r="D22" t="n">
-        <v>0.826449</v>
+        <v>0.803236</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.573332</v>
+        <v>0.550517</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7693489999999999</v>
+        <v>0.747124</v>
       </c>
       <c r="D23" t="n">
-        <v>1.10681</v>
+        <v>1.10356</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.703025</v>
+        <v>0.703089</v>
       </c>
       <c r="C24" t="n">
-        <v>0.988834</v>
+        <v>0.9888940000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>1.07867</v>
+        <v>1.07553</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.688123</v>
+        <v>0.68926</v>
       </c>
       <c r="C25" t="n">
-        <v>0.965463</v>
+        <v>0.9657520000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>1.0512</v>
+        <v>1.04802</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.673041</v>
+        <v>0.673418</v>
       </c>
       <c r="C26" t="n">
-        <v>0.943209</v>
+        <v>0.94345</v>
       </c>
       <c r="D26" t="n">
-        <v>1.02524</v>
+        <v>1.02221</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.658938</v>
+        <v>0.66034</v>
       </c>
       <c r="C27" t="n">
-        <v>0.921752</v>
+        <v>0.921507</v>
       </c>
       <c r="D27" t="n">
-        <v>1.00024</v>
+        <v>0.997515</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.645794</v>
+        <v>0.647793</v>
       </c>
       <c r="C28" t="n">
-        <v>0.901771</v>
+        <v>0.901401</v>
       </c>
       <c r="D28" t="n">
-        <v>0.976631</v>
+        <v>0.97431</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.633566</v>
+        <v>0.634629</v>
       </c>
       <c r="C29" t="n">
-        <v>0.88226</v>
+        <v>0.882072</v>
       </c>
       <c r="D29" t="n">
-        <v>0.954048</v>
+        <v>0.95184</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6219710000000001</v>
+        <v>0.622624</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8640949999999999</v>
+        <v>0.863908</v>
       </c>
       <c r="D30" t="n">
-        <v>0.933458</v>
+        <v>0.930934</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.611484</v>
+        <v>0.611581</v>
       </c>
       <c r="C31" t="n">
-        <v>0.846852</v>
+        <v>0.846508</v>
       </c>
       <c r="D31" t="n">
-        <v>0.913316</v>
+        <v>0.911413</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.602146</v>
+        <v>0.6033770000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>0.831006</v>
+        <v>0.830518</v>
       </c>
       <c r="D32" t="n">
-        <v>0.895495</v>
+        <v>0.8933410000000001</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.592601</v>
+        <v>0.594175</v>
       </c>
       <c r="C33" t="n">
-        <v>0.816375</v>
+        <v>0.815869</v>
       </c>
       <c r="D33" t="n">
-        <v>0.878681</v>
+        <v>0.876643</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.585597</v>
+        <v>0.587091</v>
       </c>
       <c r="C34" t="n">
-        <v>0.802661</v>
+        <v>0.802195</v>
       </c>
       <c r="D34" t="n">
-        <v>0.863446</v>
+        <v>0.861273</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.582502</v>
+        <v>0.580117</v>
       </c>
       <c r="C35" t="n">
-        <v>0.790384</v>
+        <v>0.789825</v>
       </c>
       <c r="D35" t="n">
-        <v>0.85061</v>
+        <v>0.847961</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.576344</v>
+        <v>0.576623</v>
       </c>
       <c r="C36" t="n">
-        <v>0.779365</v>
+        <v>0.778954</v>
       </c>
       <c r="D36" t="n">
-        <v>0.839633</v>
+        <v>0.83697</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.574855</v>
+        <v>0.575655</v>
       </c>
       <c r="C37" t="n">
-        <v>0.771103</v>
+        <v>0.771441</v>
       </c>
       <c r="D37" t="n">
-        <v>1.12757</v>
+        <v>1.12431</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7347089999999999</v>
+        <v>0.73416</v>
       </c>
       <c r="C38" t="n">
-        <v>1.02106</v>
+        <v>1.01977</v>
       </c>
       <c r="D38" t="n">
-        <v>1.09911</v>
+        <v>1.09558</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.719729</v>
+        <v>0.719065</v>
       </c>
       <c r="C39" t="n">
-        <v>0.997422</v>
+        <v>0.996414</v>
       </c>
       <c r="D39" t="n">
-        <v>1.07118</v>
+        <v>1.06859</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.704487</v>
+        <v>0.704251</v>
       </c>
       <c r="C40" t="n">
-        <v>0.974243</v>
+        <v>0.973121</v>
       </c>
       <c r="D40" t="n">
-        <v>1.04424</v>
+        <v>1.04182</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.689862</v>
+        <v>0.689331</v>
       </c>
       <c r="C41" t="n">
-        <v>0.952294</v>
+        <v>0.951301</v>
       </c>
       <c r="D41" t="n">
-        <v>1.01975</v>
+        <v>1.01706</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.675751</v>
+        <v>0.675212</v>
       </c>
       <c r="C42" t="n">
-        <v>0.930735</v>
+        <v>0.93069</v>
       </c>
       <c r="D42" t="n">
-        <v>0.995448</v>
+        <v>0.993406</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.662994</v>
+        <v>0.662261</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9108270000000001</v>
+        <v>0.910015</v>
       </c>
       <c r="D43" t="n">
-        <v>0.97324</v>
+        <v>0.970874</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.650575</v>
+        <v>0.650248</v>
       </c>
       <c r="C44" t="n">
-        <v>0.891915</v>
+        <v>0.890834</v>
       </c>
       <c r="D44" t="n">
-        <v>0.952593</v>
+        <v>0.950369</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.639594</v>
+        <v>0.63909</v>
       </c>
       <c r="C45" t="n">
-        <v>0.87387</v>
+        <v>0.874764</v>
       </c>
       <c r="D45" t="n">
-        <v>0.932287</v>
+        <v>0.929823</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.629892</v>
+        <v>0.627578</v>
       </c>
       <c r="C46" t="n">
-        <v>0.857146</v>
+        <v>0.856626</v>
       </c>
       <c r="D46" t="n">
-        <v>0.913513</v>
+        <v>0.911457</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.620318</v>
+        <v>0.619327</v>
       </c>
       <c r="C47" t="n">
-        <v>0.841663</v>
+        <v>0.841866</v>
       </c>
       <c r="D47" t="n">
-        <v>0.895726</v>
+        <v>0.894688</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.612241</v>
+        <v>0.6093</v>
       </c>
       <c r="C48" t="n">
-        <v>0.82667</v>
+        <v>0.827241</v>
       </c>
       <c r="D48" t="n">
-        <v>0.880433</v>
+        <v>0.879663</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.604444</v>
+        <v>0.604677</v>
       </c>
       <c r="C49" t="n">
-        <v>0.814887</v>
+        <v>0.813948</v>
       </c>
       <c r="D49" t="n">
-        <v>0.865917</v>
+        <v>0.864621</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.600678</v>
+        <v>0.600974</v>
       </c>
       <c r="C50" t="n">
-        <v>0.803718</v>
+        <v>0.802337</v>
       </c>
       <c r="D50" t="n">
-        <v>0.854223</v>
+        <v>0.853873</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.597291</v>
+        <v>0.598507</v>
       </c>
       <c r="C51" t="n">
-        <v>0.793106</v>
+        <v>0.792323</v>
       </c>
       <c r="D51" t="n">
-        <v>1.15076</v>
+        <v>1.14768</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.598643</v>
+        <v>0.598335</v>
       </c>
       <c r="C52" t="n">
-        <v>0.787609</v>
+        <v>0.786283</v>
       </c>
       <c r="D52" t="n">
-        <v>1.123</v>
+        <v>1.11935</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.74709</v>
+        <v>0.747319</v>
       </c>
       <c r="C53" t="n">
-        <v>1.02174</v>
+        <v>1.02119</v>
       </c>
       <c r="D53" t="n">
-        <v>1.09398</v>
+        <v>1.09143</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.731419</v>
+        <v>0.73172</v>
       </c>
       <c r="C54" t="n">
-        <v>0.998851</v>
+        <v>0.998408</v>
       </c>
       <c r="D54" t="n">
-        <v>1.06744</v>
+        <v>1.06535</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.716</v>
+        <v>0.717203</v>
       </c>
       <c r="C55" t="n">
-        <v>0.976633</v>
+        <v>0.9753309999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>1.04303</v>
+        <v>1.04044</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.70242</v>
+        <v>0.702653</v>
       </c>
       <c r="C56" t="n">
-        <v>0.955767</v>
+        <v>0.954947</v>
       </c>
       <c r="D56" t="n">
-        <v>1.01941</v>
+        <v>1.01723</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.690651</v>
+        <v>0.6907180000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>0.9363899999999999</v>
+        <v>0.935119</v>
       </c>
       <c r="D57" t="n">
-        <v>0.995534</v>
+        <v>0.99482</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.676822</v>
+        <v>0.678222</v>
       </c>
       <c r="C58" t="n">
-        <v>0.915957</v>
+        <v>0.91671</v>
       </c>
       <c r="D58" t="n">
-        <v>0.974437</v>
+        <v>0.973737</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.665513</v>
+        <v>0.666316</v>
       </c>
       <c r="C59" t="n">
-        <v>0.899526</v>
+        <v>0.898163</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9546480000000001</v>
+        <v>0.953359</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.655998</v>
+        <v>0.654569</v>
       </c>
       <c r="C60" t="n">
-        <v>0.8821</v>
+        <v>0.881727</v>
       </c>
       <c r="D60" t="n">
-        <v>0.935642</v>
+        <v>0.934621</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.645862</v>
+        <v>0.645425</v>
       </c>
       <c r="C61" t="n">
-        <v>0.865729</v>
+        <v>0.8654539999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9189079999999999</v>
+        <v>0.916281</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.637287</v>
+        <v>0.638857</v>
       </c>
       <c r="C62" t="n">
-        <v>0.850697</v>
+        <v>0.8514080000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.902878</v>
+        <v>0.900932</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.630722</v>
+        <v>0.630005</v>
       </c>
       <c r="C63" t="n">
-        <v>0.839058</v>
+        <v>0.837141</v>
       </c>
       <c r="D63" t="n">
-        <v>0.887914</v>
+        <v>0.886862</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.625336</v>
+        <v>0.624661</v>
       </c>
       <c r="C64" t="n">
-        <v>0.826662</v>
+        <v>0.826024</v>
       </c>
       <c r="D64" t="n">
-        <v>0.873714</v>
+        <v>0.873593</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.6237</v>
+        <v>0.622539</v>
       </c>
       <c r="C65" t="n">
-        <v>0.817233</v>
+        <v>0.817152</v>
       </c>
       <c r="D65" t="n">
-        <v>0.868012</v>
+        <v>0.865441</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.622287</v>
+        <v>0.622824</v>
       </c>
       <c r="C66" t="n">
-        <v>0.808018</v>
+        <v>0.808877</v>
       </c>
       <c r="D66" t="n">
-        <v>1.14598</v>
+        <v>1.14512</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.771797</v>
+        <v>0.773988</v>
       </c>
       <c r="C67" t="n">
-        <v>1.05298</v>
+        <v>1.05432</v>
       </c>
       <c r="D67" t="n">
-        <v>1.12103</v>
+        <v>1.11796</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.756911</v>
+        <v>0.7584340000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>1.03037</v>
+        <v>1.02948</v>
       </c>
       <c r="D68" t="n">
-        <v>1.09435</v>
+        <v>1.09059</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.7431680000000001</v>
+        <v>0.742719</v>
       </c>
       <c r="C69" t="n">
-        <v>1.006</v>
+        <v>1.00742</v>
       </c>
       <c r="D69" t="n">
-        <v>1.06727</v>
+        <v>1.0673</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.727355</v>
+        <v>0.730353</v>
       </c>
       <c r="C70" t="n">
-        <v>0.986452</v>
+        <v>0.986837</v>
       </c>
       <c r="D70" t="n">
-        <v>1.04503</v>
+        <v>1.04304</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.714476</v>
+        <v>0.714655</v>
       </c>
       <c r="C71" t="n">
-        <v>0.963799</v>
+        <v>0.96417</v>
       </c>
       <c r="D71" t="n">
-        <v>1.02393</v>
+        <v>1.01903</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.701749</v>
+        <v>0.702386</v>
       </c>
       <c r="C72" t="n">
-        <v>0.946381</v>
+        <v>0.947237</v>
       </c>
       <c r="D72" t="n">
-        <v>1.00042</v>
+        <v>0.99995</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.692746</v>
+        <v>0.691748</v>
       </c>
       <c r="C73" t="n">
-        <v>0.928799</v>
+        <v>0.928042</v>
       </c>
       <c r="D73" t="n">
-        <v>0.980878</v>
+        <v>0.979836</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.681055</v>
+        <v>0.681617</v>
       </c>
       <c r="C74" t="n">
-        <v>0.911597</v>
+        <v>0.910739</v>
       </c>
       <c r="D74" t="n">
-        <v>0.961952</v>
+        <v>0.958995</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.673027</v>
+        <v>0.671131</v>
       </c>
       <c r="C75" t="n">
-        <v>0.896863</v>
+        <v>0.893321</v>
       </c>
       <c r="D75" t="n">
-        <v>0.944984</v>
+        <v>0.94186</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.664357</v>
+        <v>0.663201</v>
       </c>
       <c r="C76" t="n">
-        <v>0.878116</v>
+        <v>0.878982</v>
       </c>
       <c r="D76" t="n">
-        <v>0.925751</v>
+        <v>0.925547</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.655263</v>
+        <v>0.6563059999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>0.864025</v>
+        <v>0.8663</v>
       </c>
       <c r="D77" t="n">
-        <v>0.911832</v>
+        <v>0.91085</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.648712</v>
+        <v>0.651015</v>
       </c>
       <c r="C78" t="n">
-        <v>0.853764</v>
+        <v>0.8529</v>
       </c>
       <c r="D78" t="n">
-        <v>0.899435</v>
+        <v>0.898412</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6461750000000001</v>
+        <v>0.6477889999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>0.8425049999999999</v>
+        <v>0.842951</v>
       </c>
       <c r="D79" t="n">
-        <v>0.890472</v>
+        <v>0.888524</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.646181</v>
+        <v>0.647074</v>
       </c>
       <c r="C80" t="n">
-        <v>0.835328</v>
+        <v>0.835437</v>
       </c>
       <c r="D80" t="n">
-        <v>1.194</v>
+        <v>1.19523</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.820009</v>
+        <v>0.8240150000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>1.09918</v>
+        <v>1.10075</v>
       </c>
       <c r="D81" t="n">
-        <v>1.1669</v>
+        <v>1.16832</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.809118</v>
+        <v>0.814237</v>
       </c>
       <c r="C82" t="n">
-        <v>1.07706</v>
+        <v>1.08022</v>
       </c>
       <c r="D82" t="n">
-        <v>1.13914</v>
+        <v>1.14283</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.797115</v>
+        <v>0.802405</v>
       </c>
       <c r="C83" t="n">
-        <v>1.05627</v>
+        <v>1.05852</v>
       </c>
       <c r="D83" t="n">
-        <v>1.11454</v>
+        <v>1.11727</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.7855259999999999</v>
+        <v>0.790721</v>
       </c>
       <c r="C84" t="n">
-        <v>1.03561</v>
+        <v>1.03832</v>
       </c>
       <c r="D84" t="n">
-        <v>1.08912</v>
+        <v>1.0932</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.767644</v>
+        <v>0.777747</v>
       </c>
       <c r="C85" t="n">
-        <v>1.0141</v>
+        <v>1.01834</v>
       </c>
       <c r="D85" t="n">
-        <v>1.06479</v>
+        <v>1.06968</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.759084</v>
+        <v>0.766861</v>
       </c>
       <c r="C86" t="n">
-        <v>0.994608</v>
+        <v>1.00085</v>
       </c>
       <c r="D86" t="n">
-        <v>1.04556</v>
+        <v>1.04845</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.74608</v>
+        <v>0.754186</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9756320000000001</v>
+        <v>0.9822340000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>1.02411</v>
+        <v>1.02778</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.734824</v>
+        <v>0.741917</v>
       </c>
       <c r="C88" t="n">
-        <v>0.958707</v>
+        <v>0.963219</v>
       </c>
       <c r="D88" t="n">
-        <v>1.00379</v>
+        <v>1.00715</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.7245549999999999</v>
+        <v>0.73102</v>
       </c>
       <c r="C89" t="n">
-        <v>0.94136</v>
+        <v>0.9460150000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>0.986691</v>
+        <v>0.989015</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.715022</v>
+        <v>0.721519</v>
       </c>
       <c r="C90" t="n">
-        <v>0.927225</v>
+        <v>0.929944</v>
       </c>
       <c r="D90" t="n">
-        <v>0.969664</v>
+        <v>0.9722420000000001</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.708036</v>
+        <v>0.714293</v>
       </c>
       <c r="C91" t="n">
-        <v>0.91384</v>
+        <v>0.918382</v>
       </c>
       <c r="D91" t="n">
-        <v>0.955305</v>
+        <v>0.957649</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.700361</v>
+        <v>0.70772</v>
       </c>
       <c r="C92" t="n">
-        <v>0.899745</v>
+        <v>0.905228</v>
       </c>
       <c r="D92" t="n">
-        <v>0.940789</v>
+        <v>0.943008</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.695626</v>
+        <v>0.701114</v>
       </c>
       <c r="C93" t="n">
-        <v>0.887074</v>
+        <v>0.893258</v>
       </c>
       <c r="D93" t="n">
-        <v>0.928599</v>
+        <v>0.931796</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.692452</v>
+        <v>0.698056</v>
       </c>
       <c r="C94" t="n">
-        <v>0.877919</v>
+        <v>0.8832719999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>1.24786</v>
+        <v>1.25167</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.875589</v>
+        <v>0.878893</v>
       </c>
       <c r="C95" t="n">
-        <v>1.149</v>
+        <v>1.15267</v>
       </c>
       <c r="D95" t="n">
-        <v>1.24514</v>
+        <v>1.24542</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.885379</v>
+        <v>0.888162</v>
       </c>
       <c r="C96" t="n">
-        <v>1.15263</v>
+        <v>1.15689</v>
       </c>
       <c r="D96" t="n">
-        <v>1.2269</v>
+        <v>1.23259</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.882512</v>
+        <v>0.887991</v>
       </c>
       <c r="C97" t="n">
-        <v>1.14626</v>
+        <v>1.15021</v>
       </c>
       <c r="D97" t="n">
-        <v>1.2115</v>
+        <v>1.21636</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.881733</v>
+        <v>0.884432</v>
       </c>
       <c r="C98" t="n">
-        <v>1.13164</v>
+        <v>1.13907</v>
       </c>
       <c r="D98" t="n">
-        <v>1.19735</v>
+        <v>1.19884</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.876835</v>
+        <v>0.877839</v>
       </c>
       <c r="C99" t="n">
-        <v>1.12479</v>
+        <v>1.1253</v>
       </c>
       <c r="D99" t="n">
-        <v>1.17752</v>
+        <v>1.17848</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.868922</v>
+        <v>0.870995</v>
       </c>
       <c r="C100" t="n">
-        <v>1.10387</v>
+        <v>1.11377</v>
       </c>
       <c r="D100" t="n">
-        <v>1.14734</v>
+        <v>1.16217</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.863225</v>
+        <v>0.86364</v>
       </c>
       <c r="C101" t="n">
-        <v>1.08539</v>
+        <v>1.09967</v>
       </c>
       <c r="D101" t="n">
-        <v>1.14709</v>
+        <v>1.14332</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.851917</v>
+        <v>0.854935</v>
       </c>
       <c r="C102" t="n">
-        <v>1.08065</v>
+        <v>1.08733</v>
       </c>
       <c r="D102" t="n">
-        <v>1.12323</v>
+        <v>1.12747</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.844059</v>
+        <v>0.848278</v>
       </c>
       <c r="C103" t="n">
-        <v>1.05512</v>
+        <v>1.07447</v>
       </c>
       <c r="D103" t="n">
-        <v>1.10947</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.837239</v>
+        <v>0.841271</v>
       </c>
       <c r="C104" t="n">
-        <v>1.0552</v>
+        <v>1.06357</v>
       </c>
       <c r="D104" t="n">
-        <v>1.09742</v>
+        <v>1.09424</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.830341</v>
+        <v>0.832139</v>
       </c>
       <c r="C105" t="n">
-        <v>1.04878</v>
+        <v>1.05211</v>
       </c>
       <c r="D105" t="n">
-        <v>1.08296</v>
+        <v>1.08085</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.825418</v>
+        <v>0.828813</v>
       </c>
       <c r="C106" t="n">
-        <v>1.03949</v>
+        <v>1.04241</v>
       </c>
       <c r="D106" t="n">
-        <v>1.07208</v>
+        <v>1.06976</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.821256</v>
+        <v>0.825973</v>
       </c>
       <c r="C107" t="n">
-        <v>1.0061</v>
+        <v>1.03325</v>
       </c>
       <c r="D107" t="n">
-        <v>1.05768</v>
+        <v>1.05964</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.819179</v>
+        <v>0.82435</v>
       </c>
       <c r="C108" t="n">
-        <v>1.02256</v>
+        <v>1.02631</v>
       </c>
       <c r="D108" t="n">
-        <v>1.38672</v>
+        <v>1.38406</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.825824</v>
+        <v>0.824773</v>
       </c>
       <c r="C109" t="n">
-        <v>1.02004</v>
+        <v>1.02361</v>
       </c>
       <c r="D109" t="n">
-        <v>1.39091</v>
+        <v>1.39224</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.01583</v>
+        <v>1.0188</v>
       </c>
       <c r="C110" t="n">
-        <v>1.30884</v>
+        <v>1.31169</v>
       </c>
       <c r="D110" t="n">
-        <v>1.39404</v>
+        <v>1.38701</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.02568</v>
+        <v>1.02521</v>
       </c>
       <c r="C111" t="n">
-        <v>1.3132</v>
+        <v>1.31517</v>
       </c>
       <c r="D111" t="n">
-        <v>1.38843</v>
+        <v>1.38398</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.02875</v>
+        <v>1.02984</v>
       </c>
       <c r="C112" t="n">
-        <v>1.29209</v>
+        <v>1.31521</v>
       </c>
       <c r="D112" t="n">
-        <v>1.37232</v>
+        <v>1.37735</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.03266</v>
+        <v>1.03149</v>
       </c>
       <c r="C113" t="n">
-        <v>1.31204</v>
+        <v>1.31608</v>
       </c>
       <c r="D113" t="n">
-        <v>1.38064</v>
+        <v>1.37445</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.03756</v>
+        <v>1.03577</v>
       </c>
       <c r="C114" t="n">
-        <v>1.30809</v>
+        <v>1.3161</v>
       </c>
       <c r="D114" t="n">
-        <v>1.36157</v>
+        <v>1.3688</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.03919</v>
+        <v>1.04137</v>
       </c>
       <c r="C115" t="n">
-        <v>1.29661</v>
+        <v>1.31731</v>
       </c>
       <c r="D115" t="n">
-        <v>1.35892</v>
+        <v>1.36567</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.04255</v>
+        <v>1.04431</v>
       </c>
       <c r="C116" t="n">
-        <v>1.31021</v>
+        <v>1.31672</v>
       </c>
       <c r="D116" t="n">
-        <v>1.36409</v>
+        <v>1.36124</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.04789</v>
+        <v>1.04723</v>
       </c>
       <c r="C117" t="n">
-        <v>1.31444</v>
+        <v>1.31723</v>
       </c>
       <c r="D117" t="n">
-        <v>1.36208</v>
+        <v>1.3578</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.05063</v>
+        <v>1.05161</v>
       </c>
       <c r="C118" t="n">
-        <v>1.31121</v>
+        <v>1.3175</v>
       </c>
       <c r="D118" t="n">
-        <v>1.36234</v>
+        <v>1.35613</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.0565</v>
+        <v>1.05488</v>
       </c>
       <c r="C119" t="n">
-        <v>1.31631</v>
+        <v>1.32016</v>
       </c>
       <c r="D119" t="n">
-        <v>1.36156</v>
+        <v>1.35075</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.05817</v>
+        <v>1.05805</v>
       </c>
       <c r="C120" t="n">
-        <v>1.31586</v>
+        <v>1.32092</v>
       </c>
       <c r="D120" t="n">
-        <v>1.35696</v>
+        <v>1.34754</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.063</v>
+        <v>1.06228</v>
       </c>
       <c r="C121" t="n">
-        <v>1.31798</v>
+        <v>1.32267</v>
       </c>
       <c r="D121" t="n">
-        <v>1.35197</v>
+        <v>1.34558</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.06836</v>
+        <v>1.06757</v>
       </c>
       <c r="C122" t="n">
-        <v>1.31414</v>
+        <v>1.32546</v>
       </c>
       <c r="D122" t="n">
-        <v>1.33845</v>
+        <v>1.34412</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.07607</v>
+        <v>1.07453</v>
       </c>
       <c r="C123" t="n">
-        <v>1.31472</v>
+        <v>1.32976</v>
       </c>
       <c r="D123" t="n">
-        <v>1.67924</v>
+        <v>1.68311</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.26376</v>
+        <v>1.26432</v>
       </c>
       <c r="C124" t="n">
-        <v>1.60031</v>
+        <v>1.61863</v>
       </c>
       <c r="D124" t="n">
-        <v>1.67528</v>
+        <v>1.68496</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.26988</v>
+        <v>1.26816</v>
       </c>
       <c r="C125" t="n">
-        <v>1.61484</v>
+        <v>1.62591</v>
       </c>
       <c r="D125" t="n">
-        <v>1.6892</v>
+        <v>1.68837</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.27382</v>
+        <v>1.27317</v>
       </c>
       <c r="C126" t="n">
-        <v>1.63089</v>
+        <v>1.632</v>
       </c>
       <c r="D126" t="n">
-        <v>1.69179</v>
+        <v>1.69051</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.28138</v>
+        <v>1.2768</v>
       </c>
       <c r="C127" t="n">
-        <v>1.62905</v>
+        <v>1.63805</v>
       </c>
       <c r="D127" t="n">
-        <v>1.69128</v>
+        <v>1.69403</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.28432</v>
+        <v>1.2816</v>
       </c>
       <c r="C128" t="n">
-        <v>1.63729</v>
+        <v>1.64515</v>
       </c>
       <c r="D128" t="n">
-        <v>1.70088</v>
+        <v>1.69603</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.2889</v>
+        <v>1.28585</v>
       </c>
       <c r="C129" t="n">
-        <v>1.64013</v>
+        <v>1.65116</v>
       </c>
       <c r="D129" t="n">
-        <v>1.69599</v>
+        <v>1.69807</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.29261</v>
+        <v>1.28952</v>
       </c>
       <c r="C130" t="n">
-        <v>1.64902</v>
+        <v>1.65618</v>
       </c>
       <c r="D130" t="n">
-        <v>1.69917</v>
+        <v>1.7004</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.29649</v>
+        <v>1.29336</v>
       </c>
       <c r="C131" t="n">
-        <v>1.65249</v>
+        <v>1.66251</v>
       </c>
       <c r="D131" t="n">
-        <v>1.71155</v>
+        <v>1.70284</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.30161</v>
+        <v>1.29798</v>
       </c>
       <c r="C132" t="n">
-        <v>1.65838</v>
+        <v>1.66737</v>
       </c>
       <c r="D132" t="n">
-        <v>1.70299</v>
+        <v>1.70497</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.30751</v>
+        <v>1.30093</v>
       </c>
       <c r="C133" t="n">
-        <v>1.67203</v>
+        <v>1.67345</v>
       </c>
       <c r="D133" t="n">
-        <v>1.7079</v>
+        <v>1.70636</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.31257</v>
+        <v>1.30639</v>
       </c>
       <c r="C134" t="n">
-        <v>1.67262</v>
+        <v>1.67951</v>
       </c>
       <c r="D134" t="n">
-        <v>1.72322</v>
+        <v>1.70972</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.3183</v>
+        <v>1.31324</v>
       </c>
       <c r="C135" t="n">
-        <v>1.68451</v>
+        <v>1.68656</v>
       </c>
       <c r="D135" t="n">
-        <v>1.72193</v>
+        <v>1.7134</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.32483</v>
+        <v>1.31905</v>
       </c>
       <c r="C136" t="n">
-        <v>1.68795</v>
+        <v>1.69327</v>
       </c>
       <c r="D136" t="n">
-        <v>1.72321</v>
+        <v>1.71795</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.33509</v>
+        <v>1.33001</v>
       </c>
       <c r="C137" t="n">
-        <v>1.70305</v>
+        <v>1.70362</v>
       </c>
       <c r="D137" t="n">
-        <v>2.06905</v>
+        <v>2.05666</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.52713</v>
+        <v>1.52063</v>
       </c>
       <c r="C138" t="n">
-        <v>1.99037</v>
+        <v>1.99602</v>
       </c>
       <c r="D138" t="n">
-        <v>2.07028</v>
+        <v>2.06324</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.52708</v>
+        <v>1.52557</v>
       </c>
       <c r="C139" t="n">
-        <v>2.00409</v>
+        <v>2.00444</v>
       </c>
       <c r="D139" t="n">
-        <v>2.0839</v>
+        <v>2.06865</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.52756</v>
+        <v>1.52258</v>
       </c>
       <c r="C140" t="n">
-        <v>2.01156</v>
+        <v>2.01387</v>
       </c>
       <c r="D140" t="n">
-        <v>2.08073</v>
+        <v>2.07611</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.52901</v>
+        <v>1.52388</v>
       </c>
       <c r="C141" t="n">
-        <v>2.02078</v>
+        <v>2.02339</v>
       </c>
       <c r="D141" t="n">
-        <v>2.0895</v>
+        <v>2.08207</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.53064</v>
+        <v>1.52382</v>
       </c>
       <c r="C142" t="n">
-        <v>2.03102</v>
+        <v>2.03249</v>
       </c>
       <c r="D142" t="n">
-        <v>2.10045</v>
+        <v>2.08624</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.53104</v>
+        <v>1.52626</v>
       </c>
       <c r="C143" t="n">
-        <v>2.03877</v>
+        <v>2.04113</v>
       </c>
       <c r="D143" t="n">
-        <v>2.10445</v>
+        <v>2.09308</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.573283</v>
+        <v>0.573456</v>
       </c>
       <c r="C2" t="n">
-        <v>0.821618</v>
+        <v>0.830383</v>
       </c>
       <c r="D2" t="n">
-        <v>0.876189</v>
+        <v>0.874057</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.563822</v>
+        <v>0.563817</v>
       </c>
       <c r="C3" t="n">
-        <v>0.80558</v>
+        <v>0.8136679999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.858348</v>
+        <v>0.856513</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5565369999999999</v>
+        <v>0.557161</v>
       </c>
       <c r="C4" t="n">
-        <v>0.791385</v>
+        <v>0.799828</v>
       </c>
       <c r="D4" t="n">
-        <v>0.842745</v>
+        <v>0.840942</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.549729</v>
+        <v>0.550071</v>
       </c>
       <c r="C5" t="n">
-        <v>0.777958</v>
+        <v>0.786344</v>
       </c>
       <c r="D5" t="n">
-        <v>0.828489</v>
+        <v>0.826627</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.544004</v>
+        <v>0.544411</v>
       </c>
       <c r="C6" t="n">
-        <v>0.765437</v>
+        <v>0.773474</v>
       </c>
       <c r="D6" t="n">
-        <v>0.815121</v>
+        <v>0.812793</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.540689</v>
+        <v>0.540578</v>
       </c>
       <c r="C7" t="n">
-        <v>0.75492</v>
+        <v>0.76257</v>
       </c>
       <c r="D7" t="n">
-        <v>0.804534</v>
+        <v>0.802325</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.539727</v>
+        <v>0.539844</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7465309999999999</v>
+        <v>0.754723</v>
       </c>
       <c r="D8" t="n">
-        <v>0.79656</v>
+        <v>0.794198</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.54149</v>
+        <v>0.541671</v>
       </c>
       <c r="C9" t="n">
-        <v>0.740877</v>
+        <v>0.749731</v>
       </c>
       <c r="D9" t="n">
-        <v>1.0445</v>
+        <v>1.04105</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.656296</v>
+        <v>0.656739</v>
       </c>
       <c r="C10" t="n">
-        <v>0.948457</v>
+        <v>0.95786</v>
       </c>
       <c r="D10" t="n">
-        <v>1.01822</v>
+        <v>1.01484</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.642865</v>
+        <v>0.642833</v>
       </c>
       <c r="C11" t="n">
-        <v>0.92613</v>
+        <v>0.935017</v>
       </c>
       <c r="D11" t="n">
-        <v>0.99318</v>
+        <v>0.990112</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.629576</v>
+        <v>0.630139</v>
       </c>
       <c r="C12" t="n">
-        <v>0.905459</v>
+        <v>0.914164</v>
       </c>
       <c r="D12" t="n">
-        <v>0.969843</v>
+        <v>0.966612</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.61742</v>
+        <v>0.617463</v>
       </c>
       <c r="C13" t="n">
-        <v>0.885107</v>
+        <v>0.893589</v>
       </c>
       <c r="D13" t="n">
-        <v>0.94709</v>
+        <v>0.944253</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.606139</v>
+        <v>0.606203</v>
       </c>
       <c r="C14" t="n">
-        <v>0.866159</v>
+        <v>0.874792</v>
       </c>
       <c r="D14" t="n">
-        <v>0.926078</v>
+        <v>0.9232089999999999</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.595588</v>
+        <v>0.595518</v>
       </c>
       <c r="C15" t="n">
-        <v>0.848438</v>
+        <v>0.856864</v>
       </c>
       <c r="D15" t="n">
-        <v>0.906148</v>
+        <v>0.903237</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.585744</v>
+        <v>0.585665</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8314319999999999</v>
+        <v>0.839743</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8872679999999999</v>
+        <v>0.884472</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.576775</v>
+        <v>0.576659</v>
       </c>
       <c r="C17" t="n">
-        <v>0.815443</v>
+        <v>0.8237679999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>0.869462</v>
+        <v>0.867106</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5685789999999999</v>
+        <v>0.568466</v>
       </c>
       <c r="C18" t="n">
-        <v>0.800682</v>
+        <v>0.808733</v>
       </c>
       <c r="D18" t="n">
-        <v>0.852781</v>
+        <v>0.850532</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.561671</v>
+        <v>0.561559</v>
       </c>
       <c r="C19" t="n">
-        <v>0.787168</v>
+        <v>0.795235</v>
       </c>
       <c r="D19" t="n">
-        <v>0.838134</v>
+        <v>0.835781</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.555924</v>
+        <v>0.555874</v>
       </c>
       <c r="C20" t="n">
-        <v>0.774156</v>
+        <v>0.782409</v>
       </c>
       <c r="D20" t="n">
-        <v>0.824029</v>
+        <v>0.821568</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.551775</v>
+        <v>0.551877</v>
       </c>
       <c r="C21" t="n">
-        <v>0.763145</v>
+        <v>0.771172</v>
       </c>
       <c r="D21" t="n">
-        <v>0.812345</v>
+        <v>0.809836</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.550031</v>
+        <v>0.550307</v>
       </c>
       <c r="C22" t="n">
-        <v>0.753919</v>
+        <v>0.762002</v>
       </c>
       <c r="D22" t="n">
-        <v>0.803236</v>
+        <v>0.80085</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.550517</v>
+        <v>0.550681</v>
       </c>
       <c r="C23" t="n">
-        <v>0.747124</v>
+        <v>0.75527</v>
       </c>
       <c r="D23" t="n">
-        <v>1.10356</v>
+        <v>1.10003</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.703089</v>
+        <v>0.70477</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9888940000000001</v>
+        <v>0.996827</v>
       </c>
       <c r="D24" t="n">
-        <v>1.07553</v>
+        <v>1.0719</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.68926</v>
+        <v>0.689766</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9657520000000001</v>
+        <v>0.973407</v>
       </c>
       <c r="D25" t="n">
-        <v>1.04802</v>
+        <v>1.04484</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.673418</v>
+        <v>0.675002</v>
       </c>
       <c r="C26" t="n">
-        <v>0.94345</v>
+        <v>0.950611</v>
       </c>
       <c r="D26" t="n">
-        <v>1.02221</v>
+        <v>1.01894</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.66034</v>
+        <v>0.66096</v>
       </c>
       <c r="C27" t="n">
-        <v>0.921507</v>
+        <v>0.929439</v>
       </c>
       <c r="D27" t="n">
-        <v>0.997515</v>
+        <v>0.994505</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.647793</v>
+        <v>0.6480050000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>0.901401</v>
+        <v>0.909093</v>
       </c>
       <c r="D28" t="n">
-        <v>0.97431</v>
+        <v>0.971312</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.634629</v>
+        <v>0.635358</v>
       </c>
       <c r="C29" t="n">
-        <v>0.882072</v>
+        <v>0.889638</v>
       </c>
       <c r="D29" t="n">
-        <v>0.95184</v>
+        <v>0.949332</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.622624</v>
+        <v>0.6236930000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>0.863908</v>
+        <v>0.871165</v>
       </c>
       <c r="D30" t="n">
-        <v>0.930934</v>
+        <v>0.928369</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.611581</v>
+        <v>0.612995</v>
       </c>
       <c r="C31" t="n">
-        <v>0.846508</v>
+        <v>0.853672</v>
       </c>
       <c r="D31" t="n">
-        <v>0.911413</v>
+        <v>0.908737</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6033770000000001</v>
+        <v>0.603592</v>
       </c>
       <c r="C32" t="n">
-        <v>0.830518</v>
+        <v>0.837139</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8933410000000001</v>
+        <v>0.890452</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.594175</v>
+        <v>0.595095</v>
       </c>
       <c r="C33" t="n">
-        <v>0.815869</v>
+        <v>0.82261</v>
       </c>
       <c r="D33" t="n">
-        <v>0.876643</v>
+        <v>0.873892</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.587091</v>
+        <v>0.587497</v>
       </c>
       <c r="C34" t="n">
-        <v>0.802195</v>
+        <v>0.8090889999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.861273</v>
+        <v>0.858822</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.580117</v>
+        <v>0.581641</v>
       </c>
       <c r="C35" t="n">
-        <v>0.789825</v>
+        <v>0.79665</v>
       </c>
       <c r="D35" t="n">
-        <v>0.847961</v>
+        <v>0.845547</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.576623</v>
+        <v>0.578063</v>
       </c>
       <c r="C36" t="n">
-        <v>0.778954</v>
+        <v>0.785729</v>
       </c>
       <c r="D36" t="n">
-        <v>0.83697</v>
+        <v>0.834727</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.575655</v>
+        <v>0.57653</v>
       </c>
       <c r="C37" t="n">
-        <v>0.771441</v>
+        <v>0.778243</v>
       </c>
       <c r="D37" t="n">
-        <v>1.12431</v>
+        <v>1.12069</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.73416</v>
+        <v>0.734232</v>
       </c>
       <c r="C38" t="n">
-        <v>1.01977</v>
+        <v>1.02687</v>
       </c>
       <c r="D38" t="n">
-        <v>1.09558</v>
+        <v>1.09208</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.719065</v>
+        <v>0.71936</v>
       </c>
       <c r="C39" t="n">
-        <v>0.996414</v>
+        <v>1.00369</v>
       </c>
       <c r="D39" t="n">
-        <v>1.06859</v>
+        <v>1.06522</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.704251</v>
+        <v>0.70403</v>
       </c>
       <c r="C40" t="n">
-        <v>0.973121</v>
+        <v>0.98034</v>
       </c>
       <c r="D40" t="n">
-        <v>1.04182</v>
+        <v>1.03894</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.689331</v>
+        <v>0.689205</v>
       </c>
       <c r="C41" t="n">
-        <v>0.951301</v>
+        <v>0.958157</v>
       </c>
       <c r="D41" t="n">
-        <v>1.01706</v>
+        <v>1.0134</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.675212</v>
+        <v>0.675067</v>
       </c>
       <c r="C42" t="n">
-        <v>0.93069</v>
+        <v>0.9368840000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.993406</v>
+        <v>0.990349</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.662261</v>
+        <v>0.662324</v>
       </c>
       <c r="C43" t="n">
-        <v>0.910015</v>
+        <v>0.916489</v>
       </c>
       <c r="D43" t="n">
-        <v>0.970874</v>
+        <v>0.967832</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.650248</v>
+        <v>0.650006</v>
       </c>
       <c r="C44" t="n">
-        <v>0.890834</v>
+        <v>0.897833</v>
       </c>
       <c r="D44" t="n">
-        <v>0.950369</v>
+        <v>0.946469</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.63909</v>
+        <v>0.637993</v>
       </c>
       <c r="C45" t="n">
-        <v>0.874764</v>
+        <v>0.879329</v>
       </c>
       <c r="D45" t="n">
-        <v>0.929823</v>
+        <v>0.926403</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.627578</v>
+        <v>0.628231</v>
       </c>
       <c r="C46" t="n">
-        <v>0.856626</v>
+        <v>0.862177</v>
       </c>
       <c r="D46" t="n">
-        <v>0.911457</v>
+        <v>0.907961</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.619327</v>
+        <v>0.619001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.841866</v>
+        <v>0.84644</v>
       </c>
       <c r="D47" t="n">
-        <v>0.894688</v>
+        <v>0.89055</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6093</v>
+        <v>0.610616</v>
       </c>
       <c r="C48" t="n">
-        <v>0.827241</v>
+        <v>0.832854</v>
       </c>
       <c r="D48" t="n">
-        <v>0.879663</v>
+        <v>0.874844</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.604677</v>
+        <v>0.60408</v>
       </c>
       <c r="C49" t="n">
-        <v>0.813948</v>
+        <v>0.8190539999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.864621</v>
+        <v>0.8612919999999999</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.600974</v>
+        <v>0.599985</v>
       </c>
       <c r="C50" t="n">
-        <v>0.802337</v>
+        <v>0.808539</v>
       </c>
       <c r="D50" t="n">
-        <v>0.853873</v>
+        <v>0.849321</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.598507</v>
+        <v>0.59763</v>
       </c>
       <c r="C51" t="n">
-        <v>0.792323</v>
+        <v>0.7987</v>
       </c>
       <c r="D51" t="n">
-        <v>1.14768</v>
+        <v>1.14262</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.598335</v>
+        <v>0.597583</v>
       </c>
       <c r="C52" t="n">
-        <v>0.786283</v>
+        <v>0.791782</v>
       </c>
       <c r="D52" t="n">
-        <v>1.11935</v>
+        <v>1.114</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.747319</v>
+        <v>0.746864</v>
       </c>
       <c r="C53" t="n">
-        <v>1.02119</v>
+        <v>1.0268</v>
       </c>
       <c r="D53" t="n">
-        <v>1.09143</v>
+        <v>1.08655</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.73172</v>
+        <v>0.731337</v>
       </c>
       <c r="C54" t="n">
-        <v>0.998408</v>
+        <v>1.00365</v>
       </c>
       <c r="D54" t="n">
-        <v>1.06535</v>
+        <v>1.06038</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.717203</v>
+        <v>0.716649</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9753309999999999</v>
+        <v>0.981482</v>
       </c>
       <c r="D55" t="n">
-        <v>1.04044</v>
+        <v>1.03527</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.702653</v>
+        <v>0.703218</v>
       </c>
       <c r="C56" t="n">
-        <v>0.954947</v>
+        <v>0.959892</v>
       </c>
       <c r="D56" t="n">
-        <v>1.01723</v>
+        <v>1.01262</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.6907180000000001</v>
+        <v>0.690273</v>
       </c>
       <c r="C57" t="n">
-        <v>0.935119</v>
+        <v>0.940106</v>
       </c>
       <c r="D57" t="n">
-        <v>0.99482</v>
+        <v>0.989713</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.678222</v>
+        <v>0.677829</v>
       </c>
       <c r="C58" t="n">
-        <v>0.91671</v>
+        <v>0.920498</v>
       </c>
       <c r="D58" t="n">
-        <v>0.973737</v>
+        <v>0.969378</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.666316</v>
+        <v>0.666743</v>
       </c>
       <c r="C59" t="n">
-        <v>0.898163</v>
+        <v>0.902555</v>
       </c>
       <c r="D59" t="n">
-        <v>0.953359</v>
+        <v>0.949462</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.654569</v>
+        <v>0.656589</v>
       </c>
       <c r="C60" t="n">
-        <v>0.881727</v>
+        <v>0.886059</v>
       </c>
       <c r="D60" t="n">
-        <v>0.934621</v>
+        <v>0.929597</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.645425</v>
+        <v>0.647943</v>
       </c>
       <c r="C61" t="n">
-        <v>0.8654539999999999</v>
+        <v>0.87037</v>
       </c>
       <c r="D61" t="n">
-        <v>0.916281</v>
+        <v>0.913863</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.638857</v>
+        <v>0.639548</v>
       </c>
       <c r="C62" t="n">
-        <v>0.8514080000000001</v>
+        <v>0.854916</v>
       </c>
       <c r="D62" t="n">
-        <v>0.900932</v>
+        <v>0.897265</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.630005</v>
+        <v>0.632011</v>
       </c>
       <c r="C63" t="n">
-        <v>0.837141</v>
+        <v>0.842042</v>
       </c>
       <c r="D63" t="n">
-        <v>0.886862</v>
+        <v>0.883791</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.624661</v>
+        <v>0.625082</v>
       </c>
       <c r="C64" t="n">
-        <v>0.826024</v>
+        <v>0.830828</v>
       </c>
       <c r="D64" t="n">
-        <v>0.873593</v>
+        <v>0.870896</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.622539</v>
+        <v>0.624076</v>
       </c>
       <c r="C65" t="n">
-        <v>0.817152</v>
+        <v>0.820674</v>
       </c>
       <c r="D65" t="n">
-        <v>0.865441</v>
+        <v>0.861744</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.622824</v>
+        <v>0.62222</v>
       </c>
       <c r="C66" t="n">
-        <v>0.808877</v>
+        <v>0.813374</v>
       </c>
       <c r="D66" t="n">
-        <v>1.14512</v>
+        <v>1.14168</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.773988</v>
+        <v>0.774402</v>
       </c>
       <c r="C67" t="n">
-        <v>1.05432</v>
+        <v>1.05915</v>
       </c>
       <c r="D67" t="n">
-        <v>1.11796</v>
+        <v>1.11381</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.7584340000000001</v>
+        <v>0.758611</v>
       </c>
       <c r="C68" t="n">
-        <v>1.02948</v>
+        <v>1.03634</v>
       </c>
       <c r="D68" t="n">
-        <v>1.09059</v>
+        <v>1.08813</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.742719</v>
+        <v>0.743631</v>
       </c>
       <c r="C69" t="n">
-        <v>1.00742</v>
+        <v>1.01333</v>
       </c>
       <c r="D69" t="n">
-        <v>1.0673</v>
+        <v>1.06369</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.730353</v>
+        <v>0.7304079999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.986837</v>
+        <v>0.991394</v>
       </c>
       <c r="D70" t="n">
-        <v>1.04304</v>
+        <v>1.03931</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.714655</v>
+        <v>0.7173</v>
       </c>
       <c r="C71" t="n">
-        <v>0.96417</v>
+        <v>0.970756</v>
       </c>
       <c r="D71" t="n">
-        <v>1.01903</v>
+        <v>1.0177</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.702386</v>
+        <v>0.705609</v>
       </c>
       <c r="C72" t="n">
-        <v>0.947237</v>
+        <v>0.952309</v>
       </c>
       <c r="D72" t="n">
-        <v>0.99995</v>
+        <v>0.9963109999999999</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.691748</v>
+        <v>0.694713</v>
       </c>
       <c r="C73" t="n">
-        <v>0.928042</v>
+        <v>0.933636</v>
       </c>
       <c r="D73" t="n">
-        <v>0.979836</v>
+        <v>0.976526</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.681617</v>
+        <v>0.684629</v>
       </c>
       <c r="C74" t="n">
-        <v>0.910739</v>
+        <v>0.917376</v>
       </c>
       <c r="D74" t="n">
-        <v>0.958995</v>
+        <v>0.9578719999999999</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.671131</v>
+        <v>0.673584</v>
       </c>
       <c r="C75" t="n">
-        <v>0.893321</v>
+        <v>0.900796</v>
       </c>
       <c r="D75" t="n">
-        <v>0.94186</v>
+        <v>0.939765</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.663201</v>
+        <v>0.6653559999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.878982</v>
+        <v>0.885818</v>
       </c>
       <c r="D76" t="n">
-        <v>0.925547</v>
+        <v>0.924106</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6563059999999999</v>
+        <v>0.658274</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8663</v>
+        <v>0.870668</v>
       </c>
       <c r="D77" t="n">
-        <v>0.91085</v>
+        <v>0.909471</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.651015</v>
+        <v>0.652881</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8529</v>
+        <v>0.859078</v>
       </c>
       <c r="D78" t="n">
-        <v>0.898412</v>
+        <v>0.896111</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6477889999999999</v>
+        <v>0.649345</v>
       </c>
       <c r="C79" t="n">
-        <v>0.842951</v>
+        <v>0.849081</v>
       </c>
       <c r="D79" t="n">
-        <v>0.888524</v>
+        <v>0.886725</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.647074</v>
+        <v>0.648597</v>
       </c>
       <c r="C80" t="n">
-        <v>0.835437</v>
+        <v>0.84172</v>
       </c>
       <c r="D80" t="n">
-        <v>1.19523</v>
+        <v>1.19386</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.8240150000000001</v>
+        <v>0.829547</v>
       </c>
       <c r="C81" t="n">
-        <v>1.10075</v>
+        <v>1.10893</v>
       </c>
       <c r="D81" t="n">
-        <v>1.16832</v>
+        <v>1.1666</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.814237</v>
+        <v>0.818703</v>
       </c>
       <c r="C82" t="n">
-        <v>1.08022</v>
+        <v>1.08664</v>
       </c>
       <c r="D82" t="n">
-        <v>1.14283</v>
+        <v>1.14068</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.802405</v>
+        <v>0.806175</v>
       </c>
       <c r="C83" t="n">
-        <v>1.05852</v>
+        <v>1.06505</v>
       </c>
       <c r="D83" t="n">
-        <v>1.11727</v>
+        <v>1.11511</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.790721</v>
+        <v>0.793817</v>
       </c>
       <c r="C84" t="n">
-        <v>1.03832</v>
+        <v>1.04396</v>
       </c>
       <c r="D84" t="n">
-        <v>1.0932</v>
+        <v>1.09181</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.777747</v>
+        <v>0.781299</v>
       </c>
       <c r="C85" t="n">
-        <v>1.01834</v>
+        <v>1.02456</v>
       </c>
       <c r="D85" t="n">
-        <v>1.06968</v>
+        <v>1.0681</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.766861</v>
+        <v>0.769307</v>
       </c>
       <c r="C86" t="n">
-        <v>1.00085</v>
+        <v>1.00511</v>
       </c>
       <c r="D86" t="n">
-        <v>1.04845</v>
+        <v>1.04614</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.754186</v>
+        <v>0.7570789999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9822340000000001</v>
+        <v>0.986086</v>
       </c>
       <c r="D87" t="n">
-        <v>1.02778</v>
+        <v>1.02528</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.741917</v>
+        <v>0.745873</v>
       </c>
       <c r="C88" t="n">
-        <v>0.963219</v>
+        <v>0.9691109999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>1.00715</v>
+        <v>1.0054</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.73102</v>
+        <v>0.733937</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9460150000000001</v>
+        <v>0.950921</v>
       </c>
       <c r="D89" t="n">
-        <v>0.989015</v>
+        <v>0.986867</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.721519</v>
+        <v>0.723934</v>
       </c>
       <c r="C90" t="n">
-        <v>0.929944</v>
+        <v>0.935178</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9722420000000001</v>
+        <v>0.969131</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.714293</v>
+        <v>0.714466</v>
       </c>
       <c r="C91" t="n">
-        <v>0.918382</v>
+        <v>0.919103</v>
       </c>
       <c r="D91" t="n">
-        <v>0.957649</v>
+        <v>0.953501</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.70772</v>
+        <v>0.707268</v>
       </c>
       <c r="C92" t="n">
-        <v>0.905228</v>
+        <v>0.907265</v>
       </c>
       <c r="D92" t="n">
-        <v>0.943008</v>
+        <v>0.938795</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.701114</v>
+        <v>0.701751</v>
       </c>
       <c r="C93" t="n">
-        <v>0.893258</v>
+        <v>0.894823</v>
       </c>
       <c r="D93" t="n">
-        <v>0.931796</v>
+        <v>0.928578</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.698056</v>
+        <v>0.698041</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8832719999999999</v>
+        <v>0.885884</v>
       </c>
       <c r="D94" t="n">
-        <v>1.25167</v>
+        <v>1.25053</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.878893</v>
+        <v>0.88202</v>
       </c>
       <c r="C95" t="n">
-        <v>1.15267</v>
+        <v>1.15794</v>
       </c>
       <c r="D95" t="n">
-        <v>1.24542</v>
+        <v>1.24367</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.888162</v>
+        <v>0.890171</v>
       </c>
       <c r="C96" t="n">
-        <v>1.15689</v>
+        <v>1.16178</v>
       </c>
       <c r="D96" t="n">
-        <v>1.23259</v>
+        <v>1.23064</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.887991</v>
+        <v>0.89054</v>
       </c>
       <c r="C97" t="n">
-        <v>1.15021</v>
+        <v>1.1565</v>
       </c>
       <c r="D97" t="n">
-        <v>1.21636</v>
+        <v>1.21413</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.884432</v>
+        <v>0.88681</v>
       </c>
       <c r="C98" t="n">
-        <v>1.13907</v>
+        <v>1.14574</v>
       </c>
       <c r="D98" t="n">
-        <v>1.19884</v>
+        <v>1.19667</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.877839</v>
+        <v>0.880307</v>
       </c>
       <c r="C99" t="n">
-        <v>1.1253</v>
+        <v>1.13307</v>
       </c>
       <c r="D99" t="n">
-        <v>1.17848</v>
+        <v>1.17921</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.870995</v>
+        <v>0.873667</v>
       </c>
       <c r="C100" t="n">
-        <v>1.11377</v>
+        <v>1.12076</v>
       </c>
       <c r="D100" t="n">
-        <v>1.16217</v>
+        <v>1.16083</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.86364</v>
+        <v>0.8657</v>
       </c>
       <c r="C101" t="n">
-        <v>1.09967</v>
+        <v>1.10715</v>
       </c>
       <c r="D101" t="n">
-        <v>1.14332</v>
+        <v>1.14295</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.854935</v>
+        <v>0.857845</v>
       </c>
       <c r="C102" t="n">
-        <v>1.08733</v>
+        <v>1.09429</v>
       </c>
       <c r="D102" t="n">
-        <v>1.12747</v>
+        <v>1.12599</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.848278</v>
+        <v>0.850105</v>
       </c>
       <c r="C103" t="n">
-        <v>1.07447</v>
+        <v>1.08127</v>
       </c>
       <c r="D103" t="n">
-        <v>1.11</v>
+        <v>1.11046</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.841271</v>
+        <v>0.842612</v>
       </c>
       <c r="C104" t="n">
-        <v>1.06357</v>
+        <v>1.06916</v>
       </c>
       <c r="D104" t="n">
-        <v>1.09424</v>
+        <v>1.09452</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.832139</v>
+        <v>0.836853</v>
       </c>
       <c r="C105" t="n">
-        <v>1.05211</v>
+        <v>1.05894</v>
       </c>
       <c r="D105" t="n">
-        <v>1.08085</v>
+        <v>1.08174</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.828813</v>
+        <v>0.832139</v>
       </c>
       <c r="C106" t="n">
-        <v>1.04241</v>
+        <v>1.04941</v>
       </c>
       <c r="D106" t="n">
-        <v>1.06976</v>
+        <v>1.06995</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.825973</v>
+        <v>0.828083</v>
       </c>
       <c r="C107" t="n">
-        <v>1.03325</v>
+        <v>1.04115</v>
       </c>
       <c r="D107" t="n">
-        <v>1.05964</v>
+        <v>1.05879</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.82435</v>
+        <v>0.825499</v>
       </c>
       <c r="C108" t="n">
-        <v>1.02631</v>
+        <v>1.03333</v>
       </c>
       <c r="D108" t="n">
-        <v>1.38406</v>
+        <v>1.38054</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.824773</v>
+        <v>0.825322</v>
       </c>
       <c r="C109" t="n">
-        <v>1.02361</v>
+        <v>1.02837</v>
       </c>
       <c r="D109" t="n">
-        <v>1.39224</v>
+        <v>1.38886</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.0188</v>
+        <v>1.01769</v>
       </c>
       <c r="C110" t="n">
-        <v>1.31169</v>
+        <v>1.31804</v>
       </c>
       <c r="D110" t="n">
-        <v>1.38701</v>
+        <v>1.38362</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.02521</v>
+        <v>1.02348</v>
       </c>
       <c r="C111" t="n">
-        <v>1.31517</v>
+        <v>1.31865</v>
       </c>
       <c r="D111" t="n">
-        <v>1.38398</v>
+        <v>1.38096</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.02984</v>
+        <v>1.0286</v>
       </c>
       <c r="C112" t="n">
-        <v>1.31521</v>
+        <v>1.32177</v>
       </c>
       <c r="D112" t="n">
-        <v>1.37735</v>
+        <v>1.37501</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.03149</v>
+        <v>1.03138</v>
       </c>
       <c r="C113" t="n">
-        <v>1.31608</v>
+        <v>1.31902</v>
       </c>
       <c r="D113" t="n">
-        <v>1.37445</v>
+        <v>1.36943</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.03577</v>
+        <v>1.0363</v>
       </c>
       <c r="C114" t="n">
-        <v>1.3161</v>
+        <v>1.32042</v>
       </c>
       <c r="D114" t="n">
-        <v>1.3688</v>
+        <v>1.36513</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.04137</v>
+        <v>1.04</v>
       </c>
       <c r="C115" t="n">
-        <v>1.31731</v>
+        <v>1.32126</v>
       </c>
       <c r="D115" t="n">
-        <v>1.36567</v>
+        <v>1.3618</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.04431</v>
+        <v>1.04168</v>
       </c>
       <c r="C116" t="n">
-        <v>1.31672</v>
+        <v>1.32178</v>
       </c>
       <c r="D116" t="n">
-        <v>1.36124</v>
+        <v>1.35872</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.04723</v>
+        <v>1.04702</v>
       </c>
       <c r="C117" t="n">
-        <v>1.31723</v>
+        <v>1.32214</v>
       </c>
       <c r="D117" t="n">
-        <v>1.3578</v>
+        <v>1.35384</v>
       </c>
     </row>
     <row r="118">
@@ -4875,10 +4875,10 @@
         <v>1.05161</v>
       </c>
       <c r="C118" t="n">
-        <v>1.3175</v>
+        <v>1.324</v>
       </c>
       <c r="D118" t="n">
-        <v>1.35613</v>
+        <v>1.34829</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.05488</v>
+        <v>1.0533</v>
       </c>
       <c r="C119" t="n">
-        <v>1.32016</v>
+        <v>1.32468</v>
       </c>
       <c r="D119" t="n">
-        <v>1.35075</v>
+        <v>1.34529</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.05805</v>
+        <v>1.05678</v>
       </c>
       <c r="C120" t="n">
-        <v>1.32092</v>
+        <v>1.32507</v>
       </c>
       <c r="D120" t="n">
-        <v>1.34754</v>
+        <v>1.34391</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.06228</v>
+        <v>1.06125</v>
       </c>
       <c r="C121" t="n">
-        <v>1.32267</v>
+        <v>1.32643</v>
       </c>
       <c r="D121" t="n">
-        <v>1.34558</v>
+        <v>1.34075</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.06757</v>
+        <v>1.06646</v>
       </c>
       <c r="C122" t="n">
-        <v>1.32546</v>
+        <v>1.32924</v>
       </c>
       <c r="D122" t="n">
-        <v>1.34412</v>
+        <v>1.33958</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.07453</v>
+        <v>1.0737</v>
       </c>
       <c r="C123" t="n">
-        <v>1.32976</v>
+        <v>1.33167</v>
       </c>
       <c r="D123" t="n">
-        <v>1.68311</v>
+        <v>1.6754</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.26432</v>
+        <v>1.26184</v>
       </c>
       <c r="C124" t="n">
-        <v>1.61863</v>
+        <v>1.6233</v>
       </c>
       <c r="D124" t="n">
-        <v>1.68496</v>
+        <v>1.67842</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.26816</v>
+        <v>1.26631</v>
       </c>
       <c r="C125" t="n">
-        <v>1.62591</v>
+        <v>1.63089</v>
       </c>
       <c r="D125" t="n">
-        <v>1.68837</v>
+        <v>1.68199</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.27317</v>
+        <v>1.27093</v>
       </c>
       <c r="C126" t="n">
-        <v>1.632</v>
+        <v>1.63676</v>
       </c>
       <c r="D126" t="n">
-        <v>1.69051</v>
+        <v>1.68587</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.2768</v>
+        <v>1.27574</v>
       </c>
       <c r="C127" t="n">
-        <v>1.63805</v>
+        <v>1.64243</v>
       </c>
       <c r="D127" t="n">
-        <v>1.69403</v>
+        <v>1.688</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.2816</v>
+        <v>1.28051</v>
       </c>
       <c r="C128" t="n">
-        <v>1.64515</v>
+        <v>1.64937</v>
       </c>
       <c r="D128" t="n">
-        <v>1.69603</v>
+        <v>1.68855</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.28585</v>
+        <v>1.28311</v>
       </c>
       <c r="C129" t="n">
-        <v>1.65116</v>
+        <v>1.65297</v>
       </c>
       <c r="D129" t="n">
-        <v>1.69807</v>
+        <v>1.6904</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.28952</v>
+        <v>1.28678</v>
       </c>
       <c r="C130" t="n">
-        <v>1.65618</v>
+        <v>1.65881</v>
       </c>
       <c r="D130" t="n">
-        <v>1.7004</v>
+        <v>1.69216</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.29336</v>
+        <v>1.29076</v>
       </c>
       <c r="C131" t="n">
-        <v>1.66251</v>
+        <v>1.66317</v>
       </c>
       <c r="D131" t="n">
-        <v>1.70284</v>
+        <v>1.69384</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.29798</v>
+        <v>1.29507</v>
       </c>
       <c r="C132" t="n">
-        <v>1.66737</v>
+        <v>1.66881</v>
       </c>
       <c r="D132" t="n">
-        <v>1.70497</v>
+        <v>1.69722</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.30093</v>
+        <v>1.29907</v>
       </c>
       <c r="C133" t="n">
-        <v>1.67345</v>
+        <v>1.67498</v>
       </c>
       <c r="D133" t="n">
-        <v>1.70636</v>
+        <v>1.69811</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.30639</v>
+        <v>1.30319</v>
       </c>
       <c r="C134" t="n">
-        <v>1.67951</v>
+        <v>1.68155</v>
       </c>
       <c r="D134" t="n">
-        <v>1.70972</v>
+        <v>1.70114</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.31324</v>
+        <v>1.30894</v>
       </c>
       <c r="C135" t="n">
-        <v>1.68656</v>
+        <v>1.68686</v>
       </c>
       <c r="D135" t="n">
-        <v>1.7134</v>
+        <v>1.70475</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.31905</v>
+        <v>1.31522</v>
       </c>
       <c r="C136" t="n">
-        <v>1.69327</v>
+        <v>1.69517</v>
       </c>
       <c r="D136" t="n">
-        <v>1.71795</v>
+        <v>1.71105</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.33001</v>
+        <v>1.3256</v>
       </c>
       <c r="C137" t="n">
-        <v>1.70362</v>
+        <v>1.70499</v>
       </c>
       <c r="D137" t="n">
-        <v>2.05666</v>
+        <v>2.04439</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.52063</v>
+        <v>1.51473</v>
       </c>
       <c r="C138" t="n">
-        <v>1.99602</v>
+        <v>1.99519</v>
       </c>
       <c r="D138" t="n">
-        <v>2.06324</v>
+        <v>2.05063</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.52557</v>
+        <v>1.51367</v>
       </c>
       <c r="C139" t="n">
-        <v>2.00444</v>
+        <v>2.00348</v>
       </c>
       <c r="D139" t="n">
-        <v>2.06865</v>
+        <v>2.05672</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.52258</v>
+        <v>1.51524</v>
       </c>
       <c r="C140" t="n">
-        <v>2.01387</v>
+        <v>2.01182</v>
       </c>
       <c r="D140" t="n">
-        <v>2.07611</v>
+        <v>2.06067</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.52388</v>
+        <v>1.51628</v>
       </c>
       <c r="C141" t="n">
-        <v>2.02339</v>
+        <v>2.02116</v>
       </c>
       <c r="D141" t="n">
-        <v>2.08207</v>
+        <v>2.06783</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.52382</v>
+        <v>1.516</v>
       </c>
       <c r="C142" t="n">
-        <v>2.03249</v>
+        <v>2.03005</v>
       </c>
       <c r="D142" t="n">
-        <v>2.08624</v>
+        <v>2.07515</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.52626</v>
+        <v>1.51682</v>
       </c>
       <c r="C143" t="n">
-        <v>2.04113</v>
+        <v>2.03661</v>
       </c>
       <c r="D143" t="n">
-        <v>2.09308</v>
+        <v>2.07676</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.573456</v>
+        <v>0.570844</v>
       </c>
       <c r="C2" t="n">
-        <v>0.830383</v>
+        <v>0.823173</v>
       </c>
       <c r="D2" t="n">
-        <v>0.874057</v>
+        <v>0.8766659999999999</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.563817</v>
+        <v>0.561836</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8136679999999999</v>
+        <v>0.807108</v>
       </c>
       <c r="D3" t="n">
-        <v>0.856513</v>
+        <v>0.859076</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.557161</v>
+        <v>0.55576</v>
       </c>
       <c r="C4" t="n">
-        <v>0.799828</v>
+        <v>0.793494</v>
       </c>
       <c r="D4" t="n">
-        <v>0.840942</v>
+        <v>0.843442</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.550071</v>
+        <v>0.548987</v>
       </c>
       <c r="C5" t="n">
-        <v>0.786344</v>
+        <v>0.780573</v>
       </c>
       <c r="D5" t="n">
-        <v>0.826627</v>
+        <v>0.8292580000000001</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.544411</v>
+        <v>0.543502</v>
       </c>
       <c r="C6" t="n">
-        <v>0.773474</v>
+        <v>0.768088</v>
       </c>
       <c r="D6" t="n">
-        <v>0.812793</v>
+        <v>0.815849</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.540578</v>
+        <v>0.539621</v>
       </c>
       <c r="C7" t="n">
-        <v>0.76257</v>
+        <v>0.75789</v>
       </c>
       <c r="D7" t="n">
-        <v>0.802325</v>
+        <v>0.805225</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.539844</v>
+        <v>0.5375259999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.754723</v>
+        <v>0.749543</v>
       </c>
       <c r="D8" t="n">
-        <v>0.794198</v>
+        <v>0.7971240000000001</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.541671</v>
+        <v>0.540866</v>
       </c>
       <c r="C9" t="n">
-        <v>0.749731</v>
+        <v>0.74429</v>
       </c>
       <c r="D9" t="n">
-        <v>1.04105</v>
+        <v>1.04468</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.656739</v>
+        <v>0.654075</v>
       </c>
       <c r="C10" t="n">
-        <v>0.95786</v>
+        <v>0.947478</v>
       </c>
       <c r="D10" t="n">
-        <v>1.01484</v>
+        <v>1.01851</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.642833</v>
+        <v>0.640143</v>
       </c>
       <c r="C11" t="n">
-        <v>0.935017</v>
+        <v>0.9252939999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.990112</v>
+        <v>0.993497</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.630139</v>
+        <v>0.627699</v>
       </c>
       <c r="C12" t="n">
-        <v>0.914164</v>
+        <v>0.904969</v>
       </c>
       <c r="D12" t="n">
-        <v>0.966612</v>
+        <v>0.970117</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.617463</v>
+        <v>0.615332</v>
       </c>
       <c r="C13" t="n">
-        <v>0.893589</v>
+        <v>0.884956</v>
       </c>
       <c r="D13" t="n">
-        <v>0.944253</v>
+        <v>0.947392</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.606203</v>
+        <v>0.6042</v>
       </c>
       <c r="C14" t="n">
-        <v>0.874792</v>
+        <v>0.866251</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9232089999999999</v>
+        <v>0.926361</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.595518</v>
+        <v>0.5935859999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.856864</v>
+        <v>0.8487980000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.903237</v>
+        <v>0.906341</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.585665</v>
+        <v>0.5837290000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.839743</v>
+        <v>0.832033</v>
       </c>
       <c r="D16" t="n">
-        <v>0.884472</v>
+        <v>0.887644</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.576659</v>
+        <v>0.574756</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8237679999999999</v>
+        <v>0.816289</v>
       </c>
       <c r="D17" t="n">
-        <v>0.867106</v>
+        <v>0.869768</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.568466</v>
+        <v>0.566479</v>
       </c>
       <c r="C18" t="n">
-        <v>0.808733</v>
+        <v>0.801603</v>
       </c>
       <c r="D18" t="n">
-        <v>0.850532</v>
+        <v>0.853342</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.561559</v>
+        <v>0.559649</v>
       </c>
       <c r="C19" t="n">
-        <v>0.795235</v>
+        <v>0.788559</v>
       </c>
       <c r="D19" t="n">
-        <v>0.835781</v>
+        <v>0.838763</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.555874</v>
+        <v>0.554078</v>
       </c>
       <c r="C20" t="n">
-        <v>0.782409</v>
+        <v>0.775797</v>
       </c>
       <c r="D20" t="n">
-        <v>0.821568</v>
+        <v>0.824372</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.551877</v>
+        <v>0.549933</v>
       </c>
       <c r="C21" t="n">
-        <v>0.771172</v>
+        <v>0.76501</v>
       </c>
       <c r="D21" t="n">
-        <v>0.809836</v>
+        <v>0.812927</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.550307</v>
+        <v>0.5480699999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.762002</v>
+        <v>0.755969</v>
       </c>
       <c r="D22" t="n">
-        <v>0.80085</v>
+        <v>0.803853</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.550681</v>
+        <v>0.548129</v>
       </c>
       <c r="C23" t="n">
-        <v>0.75527</v>
+        <v>0.749456</v>
       </c>
       <c r="D23" t="n">
-        <v>1.10003</v>
+        <v>1.10428</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.70477</v>
+        <v>0.701296</v>
       </c>
       <c r="C24" t="n">
-        <v>0.996827</v>
+        <v>0.986411</v>
       </c>
       <c r="D24" t="n">
-        <v>1.0719</v>
+        <v>1.07593</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.689766</v>
+        <v>0.68549</v>
       </c>
       <c r="C25" t="n">
-        <v>0.973407</v>
+        <v>0.963212</v>
       </c>
       <c r="D25" t="n">
-        <v>1.04484</v>
+        <v>1.04858</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.675002</v>
+        <v>0.67132</v>
       </c>
       <c r="C26" t="n">
-        <v>0.950611</v>
+        <v>0.940963</v>
       </c>
       <c r="D26" t="n">
-        <v>1.01894</v>
+        <v>1.0226</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.66096</v>
+        <v>0.657207</v>
       </c>
       <c r="C27" t="n">
-        <v>0.929439</v>
+        <v>0.919799</v>
       </c>
       <c r="D27" t="n">
-        <v>0.994505</v>
+        <v>0.997744</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6480050000000001</v>
+        <v>0.644136</v>
       </c>
       <c r="C28" t="n">
-        <v>0.909093</v>
+        <v>0.899981</v>
       </c>
       <c r="D28" t="n">
-        <v>0.971312</v>
+        <v>0.974774</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.635358</v>
+        <v>0.63236</v>
       </c>
       <c r="C29" t="n">
-        <v>0.889638</v>
+        <v>0.8812489999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>0.949332</v>
+        <v>0.95231</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6236930000000001</v>
+        <v>0.621248</v>
       </c>
       <c r="C30" t="n">
-        <v>0.871165</v>
+        <v>0.862881</v>
       </c>
       <c r="D30" t="n">
-        <v>0.928369</v>
+        <v>0.931414</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.612995</v>
+        <v>0.611311</v>
       </c>
       <c r="C31" t="n">
-        <v>0.853672</v>
+        <v>0.846119</v>
       </c>
       <c r="D31" t="n">
-        <v>0.908737</v>
+        <v>0.911647</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.603592</v>
+        <v>0.5998830000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>0.837139</v>
+        <v>0.829881</v>
       </c>
       <c r="D32" t="n">
-        <v>0.890452</v>
+        <v>0.893358</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.595095</v>
+        <v>0.591722</v>
       </c>
       <c r="C33" t="n">
-        <v>0.82261</v>
+        <v>0.815149</v>
       </c>
       <c r="D33" t="n">
-        <v>0.873892</v>
+        <v>0.876808</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.587497</v>
+        <v>0.584045</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8090889999999999</v>
+        <v>0.802068</v>
       </c>
       <c r="D34" t="n">
-        <v>0.858822</v>
+        <v>0.86151</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.581641</v>
+        <v>0.578287</v>
       </c>
       <c r="C35" t="n">
-        <v>0.79665</v>
+        <v>0.790087</v>
       </c>
       <c r="D35" t="n">
-        <v>0.845547</v>
+        <v>0.848226</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.578063</v>
+        <v>0.574442</v>
       </c>
       <c r="C36" t="n">
-        <v>0.785729</v>
+        <v>0.779703</v>
       </c>
       <c r="D36" t="n">
-        <v>0.834727</v>
+        <v>0.836893</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.57653</v>
+        <v>0.573888</v>
       </c>
       <c r="C37" t="n">
-        <v>0.778243</v>
+        <v>0.772194</v>
       </c>
       <c r="D37" t="n">
-        <v>1.12069</v>
+        <v>1.12407</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.734232</v>
+        <v>0.731518</v>
       </c>
       <c r="C38" t="n">
-        <v>1.02687</v>
+        <v>1.01577</v>
       </c>
       <c r="D38" t="n">
-        <v>1.09208</v>
+        <v>1.09586</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.71936</v>
+        <v>0.716717</v>
       </c>
       <c r="C39" t="n">
-        <v>1.00369</v>
+        <v>0.993133</v>
       </c>
       <c r="D39" t="n">
-        <v>1.06522</v>
+        <v>1.06758</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.70403</v>
+        <v>0.701337</v>
       </c>
       <c r="C40" t="n">
-        <v>0.98034</v>
+        <v>0.969763</v>
       </c>
       <c r="D40" t="n">
-        <v>1.03894</v>
+        <v>1.04158</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.689205</v>
+        <v>0.686545</v>
       </c>
       <c r="C41" t="n">
-        <v>0.958157</v>
+        <v>0.947792</v>
       </c>
       <c r="D41" t="n">
-        <v>1.0134</v>
+        <v>1.01619</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.675067</v>
+        <v>0.673038</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9368840000000001</v>
+        <v>0.927138</v>
       </c>
       <c r="D42" t="n">
-        <v>0.990349</v>
+        <v>0.9931720000000001</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.662324</v>
+        <v>0.660247</v>
       </c>
       <c r="C43" t="n">
-        <v>0.916489</v>
+        <v>0.907064</v>
       </c>
       <c r="D43" t="n">
-        <v>0.967832</v>
+        <v>0.9704469999999999</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.650006</v>
+        <v>0.647871</v>
       </c>
       <c r="C44" t="n">
-        <v>0.897833</v>
+        <v>0.888518</v>
       </c>
       <c r="D44" t="n">
-        <v>0.946469</v>
+        <v>0.94925</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.637993</v>
+        <v>0.636888</v>
       </c>
       <c r="C45" t="n">
-        <v>0.879329</v>
+        <v>0.870733</v>
       </c>
       <c r="D45" t="n">
-        <v>0.926403</v>
+        <v>0.928701</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.628231</v>
+        <v>0.626545</v>
       </c>
       <c r="C46" t="n">
-        <v>0.862177</v>
+        <v>0.85533</v>
       </c>
       <c r="D46" t="n">
-        <v>0.907961</v>
+        <v>0.910403</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.619001</v>
+        <v>0.6171</v>
       </c>
       <c r="C47" t="n">
-        <v>0.84644</v>
+        <v>0.839758</v>
       </c>
       <c r="D47" t="n">
-        <v>0.89055</v>
+        <v>0.893476</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.610616</v>
+        <v>0.609202</v>
       </c>
       <c r="C48" t="n">
-        <v>0.832854</v>
+        <v>0.824999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.874844</v>
+        <v>0.877723</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.60408</v>
+        <v>0.602485</v>
       </c>
       <c r="C49" t="n">
-        <v>0.8190539999999999</v>
+        <v>0.812645</v>
       </c>
       <c r="D49" t="n">
-        <v>0.8612919999999999</v>
+        <v>0.862652</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.599985</v>
+        <v>0.597953</v>
       </c>
       <c r="C50" t="n">
-        <v>0.808539</v>
+        <v>0.801604</v>
       </c>
       <c r="D50" t="n">
-        <v>0.849321</v>
+        <v>0.85123</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.59763</v>
+        <v>0.595655</v>
       </c>
       <c r="C51" t="n">
-        <v>0.7987</v>
+        <v>0.79277</v>
       </c>
       <c r="D51" t="n">
-        <v>1.14262</v>
+        <v>1.14556</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.597583</v>
+        <v>0.594342</v>
       </c>
       <c r="C52" t="n">
-        <v>0.791782</v>
+        <v>0.785703</v>
       </c>
       <c r="D52" t="n">
-        <v>1.114</v>
+        <v>1.11748</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.746864</v>
+        <v>0.744915</v>
       </c>
       <c r="C53" t="n">
-        <v>1.0268</v>
+        <v>1.01623</v>
       </c>
       <c r="D53" t="n">
-        <v>1.08655</v>
+        <v>1.08858</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.731337</v>
+        <v>0.7295700000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>1.00365</v>
+        <v>0.993499</v>
       </c>
       <c r="D54" t="n">
-        <v>1.06038</v>
+        <v>1.06258</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.716649</v>
+        <v>0.714097</v>
       </c>
       <c r="C55" t="n">
-        <v>0.981482</v>
+        <v>0.970754</v>
       </c>
       <c r="D55" t="n">
-        <v>1.03527</v>
+        <v>1.03799</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.703218</v>
+        <v>0.698781</v>
       </c>
       <c r="C56" t="n">
-        <v>0.959892</v>
+        <v>0.950597</v>
       </c>
       <c r="D56" t="n">
-        <v>1.01262</v>
+        <v>1.01517</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.690273</v>
+        <v>0.688199</v>
       </c>
       <c r="C57" t="n">
-        <v>0.940106</v>
+        <v>0.93061</v>
       </c>
       <c r="D57" t="n">
-        <v>0.989713</v>
+        <v>0.992524</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.677829</v>
+        <v>0.676111</v>
       </c>
       <c r="C58" t="n">
-        <v>0.920498</v>
+        <v>0.91252</v>
       </c>
       <c r="D58" t="n">
-        <v>0.969378</v>
+        <v>0.9716399999999999</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.666743</v>
+        <v>0.664909</v>
       </c>
       <c r="C59" t="n">
-        <v>0.902555</v>
+        <v>0.893622</v>
       </c>
       <c r="D59" t="n">
-        <v>0.949462</v>
+        <v>0.950825</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.656589</v>
+        <v>0.653901</v>
       </c>
       <c r="C60" t="n">
-        <v>0.886059</v>
+        <v>0.878335</v>
       </c>
       <c r="D60" t="n">
-        <v>0.929597</v>
+        <v>0.933041</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.647943</v>
+        <v>0.643999</v>
       </c>
       <c r="C61" t="n">
-        <v>0.87037</v>
+        <v>0.863422</v>
       </c>
       <c r="D61" t="n">
-        <v>0.913863</v>
+        <v>0.915166</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.639548</v>
+        <v>0.636934</v>
       </c>
       <c r="C62" t="n">
-        <v>0.854916</v>
+        <v>0.847177</v>
       </c>
       <c r="D62" t="n">
-        <v>0.897265</v>
+        <v>0.899017</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.632011</v>
+        <v>0.630486</v>
       </c>
       <c r="C63" t="n">
-        <v>0.842042</v>
+        <v>0.83478</v>
       </c>
       <c r="D63" t="n">
-        <v>0.883791</v>
+        <v>0.884514</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.625082</v>
+        <v>0.6251910000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.830828</v>
+        <v>0.823516</v>
       </c>
       <c r="D64" t="n">
-        <v>0.870896</v>
+        <v>0.8727200000000001</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.624076</v>
+        <v>0.621945</v>
       </c>
       <c r="C65" t="n">
-        <v>0.820674</v>
+        <v>0.81379</v>
       </c>
       <c r="D65" t="n">
-        <v>0.861744</v>
+        <v>0.863441</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.62222</v>
+        <v>0.621156</v>
       </c>
       <c r="C66" t="n">
-        <v>0.813374</v>
+        <v>0.807989</v>
       </c>
       <c r="D66" t="n">
-        <v>1.14168</v>
+        <v>1.14409</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.774402</v>
+        <v>0.770639</v>
       </c>
       <c r="C67" t="n">
-        <v>1.05915</v>
+        <v>1.04571</v>
       </c>
       <c r="D67" t="n">
-        <v>1.11381</v>
+        <v>1.1151</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.758611</v>
+        <v>0.757135</v>
       </c>
       <c r="C68" t="n">
-        <v>1.03634</v>
+        <v>1.02388</v>
       </c>
       <c r="D68" t="n">
-        <v>1.08813</v>
+        <v>1.08869</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.743631</v>
+        <v>0.741585</v>
       </c>
       <c r="C69" t="n">
-        <v>1.01333</v>
+        <v>1.00268</v>
       </c>
       <c r="D69" t="n">
-        <v>1.06369</v>
+        <v>1.06462</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.7304079999999999</v>
+        <v>0.727338</v>
       </c>
       <c r="C70" t="n">
-        <v>0.991394</v>
+        <v>0.979548</v>
       </c>
       <c r="D70" t="n">
-        <v>1.03931</v>
+        <v>1.0401</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7173</v>
+        <v>0.714237</v>
       </c>
       <c r="C71" t="n">
-        <v>0.970756</v>
+        <v>0.961952</v>
       </c>
       <c r="D71" t="n">
-        <v>1.0177</v>
+        <v>1.01858</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.705609</v>
+        <v>0.7029609999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>0.952309</v>
+        <v>0.942423</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9963109999999999</v>
+        <v>0.997412</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.694713</v>
+        <v>0.691508</v>
       </c>
       <c r="C73" t="n">
-        <v>0.933636</v>
+        <v>0.925647</v>
       </c>
       <c r="D73" t="n">
-        <v>0.976526</v>
+        <v>0.978091</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.684629</v>
+        <v>0.681492</v>
       </c>
       <c r="C74" t="n">
-        <v>0.917376</v>
+        <v>0.909509</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9578719999999999</v>
+        <v>0.9592079999999999</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.673584</v>
+        <v>0.672529</v>
       </c>
       <c r="C75" t="n">
-        <v>0.900796</v>
+        <v>0.891976</v>
       </c>
       <c r="D75" t="n">
-        <v>0.939765</v>
+        <v>0.942466</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.6653559999999999</v>
+        <v>0.662417</v>
       </c>
       <c r="C76" t="n">
-        <v>0.885818</v>
+        <v>0.876653</v>
       </c>
       <c r="D76" t="n">
-        <v>0.924106</v>
+        <v>0.924352</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.658274</v>
+        <v>0.655527</v>
       </c>
       <c r="C77" t="n">
-        <v>0.870668</v>
+        <v>0.863104</v>
       </c>
       <c r="D77" t="n">
-        <v>0.909471</v>
+        <v>0.909509</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.652881</v>
+        <v>0.649991</v>
       </c>
       <c r="C78" t="n">
-        <v>0.859078</v>
+        <v>0.852317</v>
       </c>
       <c r="D78" t="n">
-        <v>0.896111</v>
+        <v>0.897014</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.649345</v>
+        <v>0.647158</v>
       </c>
       <c r="C79" t="n">
-        <v>0.849081</v>
+        <v>0.84243</v>
       </c>
       <c r="D79" t="n">
-        <v>0.886725</v>
+        <v>0.887715</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.648597</v>
+        <v>0.645473</v>
       </c>
       <c r="C80" t="n">
-        <v>0.84172</v>
+        <v>0.834992</v>
       </c>
       <c r="D80" t="n">
-        <v>1.19386</v>
+        <v>1.19022</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.829547</v>
+        <v>0.819659</v>
       </c>
       <c r="C81" t="n">
-        <v>1.10893</v>
+        <v>1.09238</v>
       </c>
       <c r="D81" t="n">
-        <v>1.1666</v>
+        <v>1.16378</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.818703</v>
+        <v>0.809617</v>
       </c>
       <c r="C82" t="n">
-        <v>1.08664</v>
+        <v>1.0729</v>
       </c>
       <c r="D82" t="n">
-        <v>1.14068</v>
+        <v>1.1388</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.806175</v>
+        <v>0.7989309999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>1.06505</v>
+        <v>1.05182</v>
       </c>
       <c r="D83" t="n">
-        <v>1.11511</v>
+        <v>1.11432</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.793817</v>
+        <v>0.788458</v>
       </c>
       <c r="C84" t="n">
-        <v>1.04396</v>
+        <v>1.03253</v>
       </c>
       <c r="D84" t="n">
-        <v>1.09181</v>
+        <v>1.09032</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.781299</v>
+        <v>0.774925</v>
       </c>
       <c r="C85" t="n">
-        <v>1.02456</v>
+        <v>1.01242</v>
       </c>
       <c r="D85" t="n">
-        <v>1.0681</v>
+        <v>1.06696</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.769307</v>
+        <v>0.763314</v>
       </c>
       <c r="C86" t="n">
-        <v>1.00511</v>
+        <v>0.992538</v>
       </c>
       <c r="D86" t="n">
-        <v>1.04614</v>
+        <v>1.04564</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.7570789999999999</v>
+        <v>0.752171</v>
       </c>
       <c r="C87" t="n">
-        <v>0.986086</v>
+        <v>0.975749</v>
       </c>
       <c r="D87" t="n">
-        <v>1.02528</v>
+        <v>1.02481</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.745873</v>
+        <v>0.739866</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9691109999999999</v>
+        <v>0.957694</v>
       </c>
       <c r="D88" t="n">
-        <v>1.0054</v>
+        <v>1.00517</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.733937</v>
+        <v>0.730646</v>
       </c>
       <c r="C89" t="n">
-        <v>0.950921</v>
+        <v>0.9411119999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>0.986867</v>
+        <v>0.986301</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.723934</v>
+        <v>0.720112</v>
       </c>
       <c r="C90" t="n">
-        <v>0.935178</v>
+        <v>0.92575</v>
       </c>
       <c r="D90" t="n">
-        <v>0.969131</v>
+        <v>0.969364</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.714466</v>
+        <v>0.710848</v>
       </c>
       <c r="C91" t="n">
-        <v>0.919103</v>
+        <v>0.911454</v>
       </c>
       <c r="D91" t="n">
-        <v>0.953501</v>
+        <v>0.952431</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.707268</v>
+        <v>0.703726</v>
       </c>
       <c r="C92" t="n">
-        <v>0.907265</v>
+        <v>0.898912</v>
       </c>
       <c r="D92" t="n">
-        <v>0.938795</v>
+        <v>0.939129</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.701751</v>
+        <v>0.698415</v>
       </c>
       <c r="C93" t="n">
-        <v>0.894823</v>
+        <v>0.888091</v>
       </c>
       <c r="D93" t="n">
-        <v>0.928578</v>
+        <v>0.928947</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.698041</v>
+        <v>0.695507</v>
       </c>
       <c r="C94" t="n">
-        <v>0.885884</v>
+        <v>0.879367</v>
       </c>
       <c r="D94" t="n">
-        <v>1.25053</v>
+        <v>1.24885</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.88202</v>
+        <v>0.878099</v>
       </c>
       <c r="C95" t="n">
-        <v>1.15794</v>
+        <v>1.14404</v>
       </c>
       <c r="D95" t="n">
-        <v>1.24367</v>
+        <v>1.24215</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.890171</v>
+        <v>0.885867</v>
       </c>
       <c r="C96" t="n">
-        <v>1.16178</v>
+        <v>1.14765</v>
       </c>
       <c r="D96" t="n">
-        <v>1.23064</v>
+        <v>1.22884</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.89054</v>
+        <v>0.8861289999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>1.1565</v>
+        <v>1.14227</v>
       </c>
       <c r="D97" t="n">
-        <v>1.21413</v>
+        <v>1.21239</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.88681</v>
+        <v>0.882418</v>
       </c>
       <c r="C98" t="n">
-        <v>1.14574</v>
+        <v>1.13114</v>
       </c>
       <c r="D98" t="n">
-        <v>1.19667</v>
+        <v>1.19511</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.880307</v>
+        <v>0.877619</v>
       </c>
       <c r="C99" t="n">
-        <v>1.13307</v>
+        <v>1.12048</v>
       </c>
       <c r="D99" t="n">
-        <v>1.17921</v>
+        <v>1.17695</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.873667</v>
+        <v>0.870706</v>
       </c>
       <c r="C100" t="n">
-        <v>1.12076</v>
+        <v>1.1082</v>
       </c>
       <c r="D100" t="n">
-        <v>1.16083</v>
+        <v>1.15975</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.8657</v>
+        <v>0.861706</v>
       </c>
       <c r="C101" t="n">
-        <v>1.10715</v>
+        <v>1.0941</v>
       </c>
       <c r="D101" t="n">
-        <v>1.14295</v>
+        <v>1.14027</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.857845</v>
+        <v>0.853224</v>
       </c>
       <c r="C102" t="n">
-        <v>1.09429</v>
+        <v>1.08009</v>
       </c>
       <c r="D102" t="n">
-        <v>1.12599</v>
+        <v>1.12134</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.850105</v>
+        <v>0.84489</v>
       </c>
       <c r="C103" t="n">
-        <v>1.08127</v>
+        <v>1.06857</v>
       </c>
       <c r="D103" t="n">
-        <v>1.11046</v>
+        <v>1.10562</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.842612</v>
+        <v>0.837581</v>
       </c>
       <c r="C104" t="n">
-        <v>1.06916</v>
+        <v>1.05664</v>
       </c>
       <c r="D104" t="n">
-        <v>1.09452</v>
+        <v>1.08891</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.836853</v>
+        <v>0.831884</v>
       </c>
       <c r="C105" t="n">
-        <v>1.05894</v>
+        <v>1.04584</v>
       </c>
       <c r="D105" t="n">
-        <v>1.08174</v>
+        <v>1.07793</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.832139</v>
+        <v>0.8267640000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>1.04941</v>
+        <v>1.0392</v>
       </c>
       <c r="D106" t="n">
-        <v>1.06995</v>
+        <v>1.06676</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.828083</v>
+        <v>0.824417</v>
       </c>
       <c r="C107" t="n">
-        <v>1.04115</v>
+        <v>1.03061</v>
       </c>
       <c r="D107" t="n">
-        <v>1.05879</v>
+        <v>1.05658</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.825499</v>
+        <v>0.822335</v>
       </c>
       <c r="C108" t="n">
-        <v>1.03333</v>
+        <v>1.02419</v>
       </c>
       <c r="D108" t="n">
-        <v>1.38054</v>
+        <v>1.37779</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.825322</v>
+        <v>0.821342</v>
       </c>
       <c r="C109" t="n">
-        <v>1.02837</v>
+        <v>1.01933</v>
       </c>
       <c r="D109" t="n">
-        <v>1.38886</v>
+        <v>1.3865</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.01769</v>
+        <v>1.01416</v>
       </c>
       <c r="C110" t="n">
-        <v>1.31804</v>
+        <v>1.30496</v>
       </c>
       <c r="D110" t="n">
-        <v>1.38362</v>
+        <v>1.38318</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.02348</v>
+        <v>1.02103</v>
       </c>
       <c r="C111" t="n">
-        <v>1.31865</v>
+        <v>1.3083</v>
       </c>
       <c r="D111" t="n">
-        <v>1.38096</v>
+        <v>1.37912</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.0286</v>
+        <v>1.02861</v>
       </c>
       <c r="C112" t="n">
-        <v>1.32177</v>
+        <v>1.30921</v>
       </c>
       <c r="D112" t="n">
-        <v>1.37501</v>
+        <v>1.37417</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.03138</v>
+        <v>1.03019</v>
       </c>
       <c r="C113" t="n">
-        <v>1.31902</v>
+        <v>1.31073</v>
       </c>
       <c r="D113" t="n">
-        <v>1.36943</v>
+        <v>1.36977</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.0363</v>
+        <v>1.03256</v>
       </c>
       <c r="C114" t="n">
-        <v>1.32042</v>
+        <v>1.31075</v>
       </c>
       <c r="D114" t="n">
-        <v>1.36513</v>
+        <v>1.36593</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.04</v>
+        <v>1.03723</v>
       </c>
       <c r="C115" t="n">
-        <v>1.32126</v>
+        <v>1.31183</v>
       </c>
       <c r="D115" t="n">
-        <v>1.3618</v>
+        <v>1.35967</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.04168</v>
+        <v>1.04091</v>
       </c>
       <c r="C116" t="n">
-        <v>1.32178</v>
+        <v>1.31196</v>
       </c>
       <c r="D116" t="n">
-        <v>1.35872</v>
+        <v>1.35782</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.04702</v>
+        <v>1.04486</v>
       </c>
       <c r="C117" t="n">
-        <v>1.32214</v>
+        <v>1.31385</v>
       </c>
       <c r="D117" t="n">
-        <v>1.35384</v>
+        <v>1.35346</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.05161</v>
+        <v>1.04747</v>
       </c>
       <c r="C118" t="n">
-        <v>1.324</v>
+        <v>1.31359</v>
       </c>
       <c r="D118" t="n">
-        <v>1.34829</v>
+        <v>1.34933</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.0533</v>
+        <v>1.05202</v>
       </c>
       <c r="C119" t="n">
-        <v>1.32468</v>
+        <v>1.31502</v>
       </c>
       <c r="D119" t="n">
-        <v>1.34529</v>
+        <v>1.34526</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.05678</v>
+        <v>1.05507</v>
       </c>
       <c r="C120" t="n">
-        <v>1.32507</v>
+        <v>1.31617</v>
       </c>
       <c r="D120" t="n">
-        <v>1.34391</v>
+        <v>1.34345</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.06125</v>
+        <v>1.05986</v>
       </c>
       <c r="C121" t="n">
-        <v>1.32643</v>
+        <v>1.31756</v>
       </c>
       <c r="D121" t="n">
-        <v>1.34075</v>
+        <v>1.33961</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.06646</v>
+        <v>1.06377</v>
       </c>
       <c r="C122" t="n">
-        <v>1.32924</v>
+        <v>1.32119</v>
       </c>
       <c r="D122" t="n">
-        <v>1.33958</v>
+        <v>1.33961</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.0737</v>
+        <v>1.07045</v>
       </c>
       <c r="C123" t="n">
-        <v>1.33167</v>
+        <v>1.32503</v>
       </c>
       <c r="D123" t="n">
-        <v>1.6754</v>
+        <v>1.6762</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.26184</v>
+        <v>1.25904</v>
       </c>
       <c r="C124" t="n">
-        <v>1.6233</v>
+        <v>1.60975</v>
       </c>
       <c r="D124" t="n">
-        <v>1.67842</v>
+        <v>1.67927</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.26631</v>
+        <v>1.26286</v>
       </c>
       <c r="C125" t="n">
-        <v>1.63089</v>
+        <v>1.61709</v>
       </c>
       <c r="D125" t="n">
-        <v>1.68199</v>
+        <v>1.68138</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.27093</v>
+        <v>1.26903</v>
       </c>
       <c r="C126" t="n">
-        <v>1.63676</v>
+        <v>1.62396</v>
       </c>
       <c r="D126" t="n">
-        <v>1.68587</v>
+        <v>1.68259</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.27574</v>
+        <v>1.27328</v>
       </c>
       <c r="C127" t="n">
-        <v>1.64243</v>
+        <v>1.6311</v>
       </c>
       <c r="D127" t="n">
-        <v>1.688</v>
+        <v>1.68741</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.28051</v>
+        <v>1.27615</v>
       </c>
       <c r="C128" t="n">
-        <v>1.64937</v>
+        <v>1.63661</v>
       </c>
       <c r="D128" t="n">
-        <v>1.68855</v>
+        <v>1.68693</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.28311</v>
+        <v>1.27932</v>
       </c>
       <c r="C129" t="n">
-        <v>1.65297</v>
+        <v>1.64169</v>
       </c>
       <c r="D129" t="n">
-        <v>1.6904</v>
+        <v>1.68891</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.28678</v>
+        <v>1.28468</v>
       </c>
       <c r="C130" t="n">
-        <v>1.65881</v>
+        <v>1.64765</v>
       </c>
       <c r="D130" t="n">
-        <v>1.69216</v>
+        <v>1.69042</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.29076</v>
+        <v>1.28742</v>
       </c>
       <c r="C131" t="n">
-        <v>1.66317</v>
+        <v>1.65275</v>
       </c>
       <c r="D131" t="n">
-        <v>1.69384</v>
+        <v>1.69316</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.29507</v>
+        <v>1.29129</v>
       </c>
       <c r="C132" t="n">
-        <v>1.66881</v>
+        <v>1.65895</v>
       </c>
       <c r="D132" t="n">
-        <v>1.69722</v>
+        <v>1.69483</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.29907</v>
+        <v>1.29692</v>
       </c>
       <c r="C133" t="n">
-        <v>1.67498</v>
+        <v>1.66445</v>
       </c>
       <c r="D133" t="n">
-        <v>1.69811</v>
+        <v>1.69644</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.30319</v>
+        <v>1.30061</v>
       </c>
       <c r="C134" t="n">
-        <v>1.68155</v>
+        <v>1.67257</v>
       </c>
       <c r="D134" t="n">
-        <v>1.70114</v>
+        <v>1.70151</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.30894</v>
+        <v>1.30863</v>
       </c>
       <c r="C135" t="n">
-        <v>1.68686</v>
+        <v>1.67793</v>
       </c>
       <c r="D135" t="n">
-        <v>1.70475</v>
+        <v>1.70389</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.31522</v>
+        <v>1.31687</v>
       </c>
       <c r="C136" t="n">
-        <v>1.69517</v>
+        <v>1.68564</v>
       </c>
       <c r="D136" t="n">
-        <v>1.71105</v>
+        <v>1.70913</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.3256</v>
+        <v>1.32645</v>
       </c>
       <c r="C137" t="n">
-        <v>1.70499</v>
+        <v>1.69702</v>
       </c>
       <c r="D137" t="n">
-        <v>2.04439</v>
+        <v>2.04445</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.51473</v>
+        <v>1.51463</v>
       </c>
       <c r="C138" t="n">
-        <v>1.99519</v>
+        <v>1.98255</v>
       </c>
       <c r="D138" t="n">
-        <v>2.05063</v>
+        <v>2.05093</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.51367</v>
+        <v>1.51435</v>
       </c>
       <c r="C139" t="n">
-        <v>2.00348</v>
+        <v>1.99163</v>
       </c>
       <c r="D139" t="n">
-        <v>2.05672</v>
+        <v>2.05785</v>
       </c>
     </row>
     <row r="140">
@@ -5183,10 +5183,10 @@
         <v>1.51524</v>
       </c>
       <c r="C140" t="n">
-        <v>2.01182</v>
+        <v>2.00174</v>
       </c>
       <c r="D140" t="n">
-        <v>2.06067</v>
+        <v>2.06323</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.51628</v>
+        <v>1.51588</v>
       </c>
       <c r="C141" t="n">
-        <v>2.02116</v>
+        <v>2.01236</v>
       </c>
       <c r="D141" t="n">
-        <v>2.06783</v>
+        <v>2.06679</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.516</v>
+        <v>1.51898</v>
       </c>
       <c r="C142" t="n">
-        <v>2.03005</v>
+        <v>2.01941</v>
       </c>
       <c r="D142" t="n">
-        <v>2.07515</v>
+        <v>2.07281</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.51682</v>
+        <v>1.51752</v>
       </c>
       <c r="C143" t="n">
-        <v>2.03661</v>
+        <v>2.0296</v>
       </c>
       <c r="D143" t="n">
-        <v>2.07676</v>
+        <v>2.07844</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.570844</v>
+        <v>0.574018</v>
       </c>
       <c r="C2" t="n">
-        <v>0.823173</v>
+        <v>0.822679</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8766659999999999</v>
+        <v>0.874369</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.561836</v>
+        <v>0.564308</v>
       </c>
       <c r="C3" t="n">
-        <v>0.807108</v>
+        <v>0.806813</v>
       </c>
       <c r="D3" t="n">
-        <v>0.859076</v>
+        <v>0.856365</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.55576</v>
+        <v>0.557225</v>
       </c>
       <c r="C4" t="n">
-        <v>0.793494</v>
+        <v>0.792649</v>
       </c>
       <c r="D4" t="n">
-        <v>0.843442</v>
+        <v>0.840604</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.548987</v>
+        <v>0.550544</v>
       </c>
       <c r="C5" t="n">
-        <v>0.780573</v>
+        <v>0.77973</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8292580000000001</v>
+        <v>0.826359</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.543502</v>
+        <v>0.544575</v>
       </c>
       <c r="C6" t="n">
-        <v>0.768088</v>
+        <v>0.767547</v>
       </c>
       <c r="D6" t="n">
-        <v>0.815849</v>
+        <v>0.813123</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.539621</v>
+        <v>0.54128</v>
       </c>
       <c r="C7" t="n">
-        <v>0.75789</v>
+        <v>0.7574650000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.805225</v>
+        <v>0.802651</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5375259999999999</v>
+        <v>0.540335</v>
       </c>
       <c r="C8" t="n">
-        <v>0.749543</v>
+        <v>0.749325</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7971240000000001</v>
+        <v>0.794088</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.540866</v>
+        <v>0.542112</v>
       </c>
       <c r="C9" t="n">
-        <v>0.74429</v>
+        <v>0.7443689999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>1.04468</v>
+        <v>1.04087</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.654075</v>
+        <v>0.656129</v>
       </c>
       <c r="C10" t="n">
-        <v>0.947478</v>
+        <v>0.946982</v>
       </c>
       <c r="D10" t="n">
-        <v>1.01851</v>
+        <v>1.01453</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.640143</v>
+        <v>0.642891</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9252939999999999</v>
+        <v>0.925188</v>
       </c>
       <c r="D11" t="n">
-        <v>0.993497</v>
+        <v>0.9897550000000001</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.627699</v>
+        <v>0.630192</v>
       </c>
       <c r="C12" t="n">
-        <v>0.904969</v>
+        <v>0.904898</v>
       </c>
       <c r="D12" t="n">
-        <v>0.970117</v>
+        <v>0.966649</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.615332</v>
+        <v>0.617402</v>
       </c>
       <c r="C13" t="n">
-        <v>0.884956</v>
+        <v>0.884749</v>
       </c>
       <c r="D13" t="n">
-        <v>0.947392</v>
+        <v>0.9439070000000001</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6042</v>
+        <v>0.606254</v>
       </c>
       <c r="C14" t="n">
-        <v>0.866251</v>
+        <v>0.865909</v>
       </c>
       <c r="D14" t="n">
-        <v>0.926361</v>
+        <v>0.9230429999999999</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5935859999999999</v>
+        <v>0.595382</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8487980000000001</v>
+        <v>0.848319</v>
       </c>
       <c r="D15" t="n">
-        <v>0.906341</v>
+        <v>0.903015</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5837290000000001</v>
+        <v>0.585657</v>
       </c>
       <c r="C16" t="n">
-        <v>0.832033</v>
+        <v>0.831851</v>
       </c>
       <c r="D16" t="n">
-        <v>0.887644</v>
+        <v>0.884259</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.574756</v>
+        <v>0.576578</v>
       </c>
       <c r="C17" t="n">
-        <v>0.816289</v>
+        <v>0.8160849999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>0.869768</v>
+        <v>0.866564</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.566479</v>
+        <v>0.568447</v>
       </c>
       <c r="C18" t="n">
-        <v>0.801603</v>
+        <v>0.801474</v>
       </c>
       <c r="D18" t="n">
-        <v>0.853342</v>
+        <v>0.850176</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.559649</v>
+        <v>0.5614170000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>0.788559</v>
+        <v>0.78845</v>
       </c>
       <c r="D19" t="n">
-        <v>0.838763</v>
+        <v>0.835491</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.554078</v>
+        <v>0.555692</v>
       </c>
       <c r="C20" t="n">
-        <v>0.775797</v>
+        <v>0.775763</v>
       </c>
       <c r="D20" t="n">
-        <v>0.824372</v>
+        <v>0.821326</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.549933</v>
+        <v>0.5517919999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.76501</v>
+        <v>0.76502</v>
       </c>
       <c r="D21" t="n">
-        <v>0.812927</v>
+        <v>0.809557</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5480699999999999</v>
+        <v>0.550122</v>
       </c>
       <c r="C22" t="n">
-        <v>0.755969</v>
+        <v>0.756121</v>
       </c>
       <c r="D22" t="n">
-        <v>0.803853</v>
+        <v>0.8006799999999999</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.548129</v>
+        <v>0.5506490000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>0.749456</v>
+        <v>0.749436</v>
       </c>
       <c r="D23" t="n">
-        <v>1.10428</v>
+        <v>1.09969</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.701296</v>
+        <v>0.704873</v>
       </c>
       <c r="C24" t="n">
-        <v>0.986411</v>
+        <v>0.986424</v>
       </c>
       <c r="D24" t="n">
-        <v>1.07593</v>
+        <v>1.0717</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.68549</v>
+        <v>0.689545</v>
       </c>
       <c r="C25" t="n">
-        <v>0.963212</v>
+        <v>0.963043</v>
       </c>
       <c r="D25" t="n">
-        <v>1.04858</v>
+        <v>1.04452</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.67132</v>
+        <v>0.675117</v>
       </c>
       <c r="C26" t="n">
-        <v>0.940963</v>
+        <v>0.941225</v>
       </c>
       <c r="D26" t="n">
-        <v>1.0226</v>
+        <v>1.01866</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.657207</v>
+        <v>0.661065</v>
       </c>
       <c r="C27" t="n">
-        <v>0.919799</v>
+        <v>0.919906</v>
       </c>
       <c r="D27" t="n">
-        <v>0.997744</v>
+        <v>0.994234</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.644136</v>
+        <v>0.647995</v>
       </c>
       <c r="C28" t="n">
-        <v>0.899981</v>
+        <v>0.900046</v>
       </c>
       <c r="D28" t="n">
-        <v>0.974774</v>
+        <v>0.970961</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.63236</v>
+        <v>0.635372</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8812489999999999</v>
+        <v>0.881114</v>
       </c>
       <c r="D29" t="n">
-        <v>0.95231</v>
+        <v>0.948866</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.621248</v>
+        <v>0.623879</v>
       </c>
       <c r="C30" t="n">
-        <v>0.862881</v>
+        <v>0.862948</v>
       </c>
       <c r="D30" t="n">
-        <v>0.931414</v>
+        <v>0.928103</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.611311</v>
+        <v>0.613189</v>
       </c>
       <c r="C31" t="n">
-        <v>0.846119</v>
+        <v>0.846243</v>
       </c>
       <c r="D31" t="n">
-        <v>0.911647</v>
+        <v>0.908572</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5998830000000001</v>
+        <v>0.6035</v>
       </c>
       <c r="C32" t="n">
-        <v>0.829881</v>
+        <v>0.830178</v>
       </c>
       <c r="D32" t="n">
-        <v>0.893358</v>
+        <v>0.890342</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.591722</v>
+        <v>0.595061</v>
       </c>
       <c r="C33" t="n">
-        <v>0.815149</v>
+        <v>0.815662</v>
       </c>
       <c r="D33" t="n">
-        <v>0.876808</v>
+        <v>0.873688</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.584045</v>
+        <v>0.587237</v>
       </c>
       <c r="C34" t="n">
-        <v>0.802068</v>
+        <v>0.802677</v>
       </c>
       <c r="D34" t="n">
-        <v>0.86151</v>
+        <v>0.8584889999999999</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.578287</v>
+        <v>0.581458</v>
       </c>
       <c r="C35" t="n">
-        <v>0.790087</v>
+        <v>0.790279</v>
       </c>
       <c r="D35" t="n">
-        <v>0.848226</v>
+        <v>0.8451689999999999</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.574442</v>
+        <v>0.578012</v>
       </c>
       <c r="C36" t="n">
-        <v>0.779703</v>
+        <v>0.780152</v>
       </c>
       <c r="D36" t="n">
-        <v>0.836893</v>
+        <v>0.83434</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.573888</v>
+        <v>0.576633</v>
       </c>
       <c r="C37" t="n">
-        <v>0.772194</v>
+        <v>0.772711</v>
       </c>
       <c r="D37" t="n">
-        <v>1.12407</v>
+        <v>1.12039</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.731518</v>
+        <v>0.734384</v>
       </c>
       <c r="C38" t="n">
-        <v>1.01577</v>
+        <v>1.01649</v>
       </c>
       <c r="D38" t="n">
-        <v>1.09586</v>
+        <v>1.09209</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.716717</v>
+        <v>0.71991</v>
       </c>
       <c r="C39" t="n">
-        <v>0.993133</v>
+        <v>0.99373</v>
       </c>
       <c r="D39" t="n">
-        <v>1.06758</v>
+        <v>1.06496</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.701337</v>
+        <v>0.704201</v>
       </c>
       <c r="C40" t="n">
-        <v>0.969763</v>
+        <v>0.970871</v>
       </c>
       <c r="D40" t="n">
-        <v>1.04158</v>
+        <v>1.0386</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.686545</v>
+        <v>0.689258</v>
       </c>
       <c r="C41" t="n">
-        <v>0.947792</v>
+        <v>0.948381</v>
       </c>
       <c r="D41" t="n">
-        <v>1.01619</v>
+        <v>1.01389</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.673038</v>
+        <v>0.675183</v>
       </c>
       <c r="C42" t="n">
-        <v>0.927138</v>
+        <v>0.927987</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9931720000000001</v>
+        <v>0.990264</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.660247</v>
+        <v>0.6622710000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>0.907064</v>
+        <v>0.908446</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9704469999999999</v>
+        <v>0.967569</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.647871</v>
+        <v>0.652332</v>
       </c>
       <c r="C44" t="n">
-        <v>0.888518</v>
+        <v>0.8887890000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.94925</v>
+        <v>0.9466020000000001</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.636888</v>
+        <v>0.63954</v>
       </c>
       <c r="C45" t="n">
-        <v>0.870733</v>
+        <v>0.872622</v>
       </c>
       <c r="D45" t="n">
-        <v>0.928701</v>
+        <v>0.9266259999999999</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.626545</v>
+        <v>0.6282140000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>0.85533</v>
+        <v>0.855497</v>
       </c>
       <c r="D46" t="n">
-        <v>0.910403</v>
+        <v>0.907931</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6171</v>
+        <v>0.618888</v>
       </c>
       <c r="C47" t="n">
-        <v>0.839758</v>
+        <v>0.838708</v>
       </c>
       <c r="D47" t="n">
-        <v>0.893476</v>
+        <v>0.8907389999999999</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.609202</v>
+        <v>0.6110100000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.824999</v>
+        <v>0.825402</v>
       </c>
       <c r="D48" t="n">
-        <v>0.877723</v>
+        <v>0.874611</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.602485</v>
+        <v>0.60486</v>
       </c>
       <c r="C49" t="n">
-        <v>0.812645</v>
+        <v>0.812875</v>
       </c>
       <c r="D49" t="n">
-        <v>0.862652</v>
+        <v>0.861182</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.597953</v>
+        <v>0.599958</v>
       </c>
       <c r="C50" t="n">
-        <v>0.801604</v>
+        <v>0.802543</v>
       </c>
       <c r="D50" t="n">
-        <v>0.85123</v>
+        <v>0.8495509999999999</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.595655</v>
+        <v>0.597567</v>
       </c>
       <c r="C51" t="n">
-        <v>0.79277</v>
+        <v>0.792389</v>
       </c>
       <c r="D51" t="n">
-        <v>1.14556</v>
+        <v>1.14282</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.594342</v>
+        <v>0.597927</v>
       </c>
       <c r="C52" t="n">
-        <v>0.785703</v>
+        <v>0.787304</v>
       </c>
       <c r="D52" t="n">
-        <v>1.11748</v>
+        <v>1.11426</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.744915</v>
+        <v>0.747344</v>
       </c>
       <c r="C53" t="n">
-        <v>1.01623</v>
+        <v>1.01674</v>
       </c>
       <c r="D53" t="n">
-        <v>1.08858</v>
+        <v>1.08617</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.7295700000000001</v>
+        <v>0.731096</v>
       </c>
       <c r="C54" t="n">
-        <v>0.993499</v>
+        <v>0.993805</v>
       </c>
       <c r="D54" t="n">
-        <v>1.06258</v>
+        <v>1.06058</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.714097</v>
+        <v>0.716606</v>
       </c>
       <c r="C55" t="n">
-        <v>0.970754</v>
+        <v>0.971753</v>
       </c>
       <c r="D55" t="n">
-        <v>1.03799</v>
+        <v>1.03604</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.698781</v>
+        <v>0.703203</v>
       </c>
       <c r="C56" t="n">
-        <v>0.950597</v>
+        <v>0.949371</v>
       </c>
       <c r="D56" t="n">
-        <v>1.01517</v>
+        <v>1.01087</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.688199</v>
+        <v>0.689339</v>
       </c>
       <c r="C57" t="n">
-        <v>0.93061</v>
+        <v>0.930481</v>
       </c>
       <c r="D57" t="n">
-        <v>0.992524</v>
+        <v>0.989226</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.676111</v>
+        <v>0.677395</v>
       </c>
       <c r="C58" t="n">
-        <v>0.91252</v>
+        <v>0.910406</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9716399999999999</v>
+        <v>0.967062</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.664909</v>
+        <v>0.664905</v>
       </c>
       <c r="C59" t="n">
-        <v>0.893622</v>
+        <v>0.892797</v>
       </c>
       <c r="D59" t="n">
-        <v>0.950825</v>
+        <v>0.947031</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.653901</v>
+        <v>0.656183</v>
       </c>
       <c r="C60" t="n">
-        <v>0.878335</v>
+        <v>0.878038</v>
       </c>
       <c r="D60" t="n">
-        <v>0.933041</v>
+        <v>0.930677</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.643999</v>
+        <v>0.646025</v>
       </c>
       <c r="C61" t="n">
-        <v>0.863422</v>
+        <v>0.862697</v>
       </c>
       <c r="D61" t="n">
-        <v>0.915166</v>
+        <v>0.913534</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.636934</v>
+        <v>0.638587</v>
       </c>
       <c r="C62" t="n">
-        <v>0.847177</v>
+        <v>0.849629</v>
       </c>
       <c r="D62" t="n">
-        <v>0.899017</v>
+        <v>0.897526</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.630486</v>
+        <v>0.630759</v>
       </c>
       <c r="C63" t="n">
-        <v>0.83478</v>
+        <v>0.835242</v>
       </c>
       <c r="D63" t="n">
-        <v>0.884514</v>
+        <v>0.880086</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6251910000000001</v>
+        <v>0.627449</v>
       </c>
       <c r="C64" t="n">
-        <v>0.823516</v>
+        <v>0.823624</v>
       </c>
       <c r="D64" t="n">
-        <v>0.8727200000000001</v>
+        <v>0.870656</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.621945</v>
+        <v>0.623158</v>
       </c>
       <c r="C65" t="n">
-        <v>0.81379</v>
+        <v>0.814812</v>
       </c>
       <c r="D65" t="n">
-        <v>0.863441</v>
+        <v>0.86189</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.621156</v>
+        <v>0.624024</v>
       </c>
       <c r="C66" t="n">
-        <v>0.807989</v>
+        <v>0.808047</v>
       </c>
       <c r="D66" t="n">
-        <v>1.14409</v>
+        <v>1.14131</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.770639</v>
+        <v>0.773138</v>
       </c>
       <c r="C67" t="n">
-        <v>1.04571</v>
+        <v>1.04807</v>
       </c>
       <c r="D67" t="n">
-        <v>1.1151</v>
+        <v>1.11392</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.757135</v>
+        <v>0.7576310000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>1.02388</v>
+        <v>1.02426</v>
       </c>
       <c r="D68" t="n">
-        <v>1.08869</v>
+        <v>1.08779</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.741585</v>
+        <v>0.743666</v>
       </c>
       <c r="C69" t="n">
-        <v>1.00268</v>
+        <v>1.00369</v>
       </c>
       <c r="D69" t="n">
-        <v>1.06462</v>
+        <v>1.06254</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.727338</v>
+        <v>0.728996</v>
       </c>
       <c r="C70" t="n">
-        <v>0.979548</v>
+        <v>0.980456</v>
       </c>
       <c r="D70" t="n">
-        <v>1.0401</v>
+        <v>1.03929</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.714237</v>
+        <v>0.715714</v>
       </c>
       <c r="C71" t="n">
-        <v>0.961952</v>
+        <v>0.960512</v>
       </c>
       <c r="D71" t="n">
-        <v>1.01858</v>
+        <v>1.01738</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.7029609999999999</v>
+        <v>0.704027</v>
       </c>
       <c r="C72" t="n">
-        <v>0.942423</v>
+        <v>0.94193</v>
       </c>
       <c r="D72" t="n">
-        <v>0.997412</v>
+        <v>0.995864</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.691508</v>
+        <v>0.6921890000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>0.925647</v>
+        <v>0.923861</v>
       </c>
       <c r="D73" t="n">
-        <v>0.978091</v>
+        <v>0.975364</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.681492</v>
+        <v>0.681611</v>
       </c>
       <c r="C74" t="n">
-        <v>0.909509</v>
+        <v>0.907625</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9592079999999999</v>
+        <v>0.957014</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.672529</v>
+        <v>0.6710120000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>0.891976</v>
+        <v>0.891406</v>
       </c>
       <c r="D75" t="n">
-        <v>0.942466</v>
+        <v>0.939429</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.662417</v>
+        <v>0.663104</v>
       </c>
       <c r="C76" t="n">
-        <v>0.876653</v>
+        <v>0.875714</v>
       </c>
       <c r="D76" t="n">
-        <v>0.924352</v>
+        <v>0.92253</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.655527</v>
+        <v>0.657485</v>
       </c>
       <c r="C77" t="n">
-        <v>0.863104</v>
+        <v>0.864847</v>
       </c>
       <c r="D77" t="n">
-        <v>0.909509</v>
+        <v>0.908412</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.649991</v>
+        <v>0.651908</v>
       </c>
       <c r="C78" t="n">
-        <v>0.852317</v>
+        <v>0.852657</v>
       </c>
       <c r="D78" t="n">
-        <v>0.897014</v>
+        <v>0.89596</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.647158</v>
+        <v>0.648181</v>
       </c>
       <c r="C79" t="n">
-        <v>0.84243</v>
+        <v>0.84158</v>
       </c>
       <c r="D79" t="n">
-        <v>0.887715</v>
+        <v>0.886417</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.645473</v>
+        <v>0.6473719999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>0.834992</v>
+        <v>0.835229</v>
       </c>
       <c r="D80" t="n">
-        <v>1.19022</v>
+        <v>1.18782</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.819659</v>
+        <v>0.823257</v>
       </c>
       <c r="C81" t="n">
-        <v>1.09238</v>
+        <v>1.09157</v>
       </c>
       <c r="D81" t="n">
-        <v>1.16378</v>
+        <v>1.16037</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.809617</v>
+        <v>0.811976</v>
       </c>
       <c r="C82" t="n">
-        <v>1.0729</v>
+        <v>1.07078</v>
       </c>
       <c r="D82" t="n">
-        <v>1.1388</v>
+        <v>1.13491</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.7989309999999999</v>
+        <v>0.800481</v>
       </c>
       <c r="C83" t="n">
-        <v>1.05182</v>
+        <v>1.04978</v>
       </c>
       <c r="D83" t="n">
-        <v>1.11432</v>
+        <v>1.11083</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.788458</v>
+        <v>0.789702</v>
       </c>
       <c r="C84" t="n">
-        <v>1.03253</v>
+        <v>1.03209</v>
       </c>
       <c r="D84" t="n">
-        <v>1.09032</v>
+        <v>1.0891</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.774925</v>
+        <v>0.7766459999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>1.01242</v>
+        <v>1.01282</v>
       </c>
       <c r="D85" t="n">
-        <v>1.06696</v>
+        <v>1.06674</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.763314</v>
+        <v>0.7655149999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>0.992538</v>
+        <v>0.993831</v>
       </c>
       <c r="D86" t="n">
-        <v>1.04564</v>
+        <v>1.04458</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.752171</v>
+        <v>0.753148</v>
       </c>
       <c r="C87" t="n">
-        <v>0.975749</v>
+        <v>0.974927</v>
       </c>
       <c r="D87" t="n">
-        <v>1.02481</v>
+        <v>1.02367</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.739866</v>
+        <v>0.74205</v>
       </c>
       <c r="C88" t="n">
-        <v>0.957694</v>
+        <v>0.957504</v>
       </c>
       <c r="D88" t="n">
-        <v>1.00517</v>
+        <v>1.00239</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.730646</v>
+        <v>0.730589</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9411119999999999</v>
+        <v>0.941267</v>
       </c>
       <c r="D89" t="n">
-        <v>0.986301</v>
+        <v>0.98492</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.720112</v>
+        <v>0.721314</v>
       </c>
       <c r="C90" t="n">
-        <v>0.92575</v>
+        <v>0.92514</v>
       </c>
       <c r="D90" t="n">
-        <v>0.969364</v>
+        <v>0.9669140000000001</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.710848</v>
+        <v>0.711516</v>
       </c>
       <c r="C91" t="n">
-        <v>0.911454</v>
+        <v>0.910559</v>
       </c>
       <c r="D91" t="n">
-        <v>0.952431</v>
+        <v>0.950647</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.703726</v>
+        <v>0.703186</v>
       </c>
       <c r="C92" t="n">
-        <v>0.898912</v>
+        <v>0.896906</v>
       </c>
       <c r="D92" t="n">
-        <v>0.939129</v>
+        <v>0.936793</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.698415</v>
+        <v>0.698395</v>
       </c>
       <c r="C93" t="n">
-        <v>0.888091</v>
+        <v>0.887224</v>
       </c>
       <c r="D93" t="n">
-        <v>0.928947</v>
+        <v>0.926581</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.695507</v>
+        <v>0.69574</v>
       </c>
       <c r="C94" t="n">
-        <v>0.879367</v>
+        <v>0.878904</v>
       </c>
       <c r="D94" t="n">
-        <v>1.24885</v>
+        <v>1.24776</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.878099</v>
+        <v>0.878373</v>
       </c>
       <c r="C95" t="n">
-        <v>1.14404</v>
+        <v>1.14396</v>
       </c>
       <c r="D95" t="n">
-        <v>1.24215</v>
+        <v>1.23974</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.885867</v>
+        <v>0.886001</v>
       </c>
       <c r="C96" t="n">
-        <v>1.14765</v>
+        <v>1.14722</v>
       </c>
       <c r="D96" t="n">
-        <v>1.22884</v>
+        <v>1.22626</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.8861289999999999</v>
+        <v>0.886146</v>
       </c>
       <c r="C97" t="n">
-        <v>1.14227</v>
+        <v>1.14107</v>
       </c>
       <c r="D97" t="n">
-        <v>1.21239</v>
+        <v>1.20949</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.882418</v>
+        <v>0.882789</v>
       </c>
       <c r="C98" t="n">
-        <v>1.13114</v>
+        <v>1.13184</v>
       </c>
       <c r="D98" t="n">
-        <v>1.19511</v>
+        <v>1.1917</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.877619</v>
+        <v>0.8765230000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>1.12048</v>
+        <v>1.11905</v>
       </c>
       <c r="D99" t="n">
-        <v>1.17695</v>
+        <v>1.17378</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.870706</v>
+        <v>0.869041</v>
       </c>
       <c r="C100" t="n">
-        <v>1.1082</v>
+        <v>1.10639</v>
       </c>
       <c r="D100" t="n">
-        <v>1.15975</v>
+        <v>1.15558</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.861706</v>
+        <v>0.861433</v>
       </c>
       <c r="C101" t="n">
-        <v>1.0941</v>
+        <v>1.09302</v>
       </c>
       <c r="D101" t="n">
-        <v>1.14027</v>
+        <v>1.13833</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.853224</v>
+        <v>0.853338</v>
       </c>
       <c r="C102" t="n">
-        <v>1.08009</v>
+        <v>1.08076</v>
       </c>
       <c r="D102" t="n">
-        <v>1.12134</v>
+        <v>1.12188</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.84489</v>
+        <v>0.845866</v>
       </c>
       <c r="C103" t="n">
-        <v>1.06857</v>
+        <v>1.06946</v>
       </c>
       <c r="D103" t="n">
-        <v>1.10562</v>
+        <v>1.1056</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.837581</v>
+        <v>0.839031</v>
       </c>
       <c r="C104" t="n">
-        <v>1.05664</v>
+        <v>1.05797</v>
       </c>
       <c r="D104" t="n">
-        <v>1.08891</v>
+        <v>1.09041</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.831884</v>
+        <v>0.832222</v>
       </c>
       <c r="C105" t="n">
-        <v>1.04584</v>
+        <v>1.04602</v>
       </c>
       <c r="D105" t="n">
-        <v>1.07793</v>
+        <v>1.07603</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.8267640000000001</v>
+        <v>0.8270189999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>1.0392</v>
+        <v>1.03629</v>
       </c>
       <c r="D106" t="n">
-        <v>1.06676</v>
+        <v>1.06247</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.824417</v>
+        <v>0.82237</v>
       </c>
       <c r="C107" t="n">
-        <v>1.03061</v>
+        <v>1.02796</v>
       </c>
       <c r="D107" t="n">
-        <v>1.05658</v>
+        <v>1.05324</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.822335</v>
+        <v>0.8206560000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>1.02419</v>
+        <v>1.02106</v>
       </c>
       <c r="D108" t="n">
-        <v>1.37779</v>
+        <v>1.37643</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.821342</v>
+        <v>0.822443</v>
       </c>
       <c r="C109" t="n">
-        <v>1.01933</v>
+        <v>1.01842</v>
       </c>
       <c r="D109" t="n">
-        <v>1.3865</v>
+        <v>1.38447</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.01416</v>
+        <v>1.01586</v>
       </c>
       <c r="C110" t="n">
-        <v>1.30496</v>
+        <v>1.30385</v>
       </c>
       <c r="D110" t="n">
-        <v>1.38318</v>
+        <v>1.38077</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.02103</v>
+        <v>1.02222</v>
       </c>
       <c r="C111" t="n">
-        <v>1.3083</v>
+        <v>1.30731</v>
       </c>
       <c r="D111" t="n">
-        <v>1.37912</v>
+        <v>1.37702</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.02861</v>
+        <v>1.02666</v>
       </c>
       <c r="C112" t="n">
-        <v>1.30921</v>
+        <v>1.3087</v>
       </c>
       <c r="D112" t="n">
-        <v>1.37417</v>
+        <v>1.37433</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.03019</v>
+        <v>1.03232</v>
       </c>
       <c r="C113" t="n">
-        <v>1.31073</v>
+        <v>1.30864</v>
       </c>
       <c r="D113" t="n">
-        <v>1.36977</v>
+        <v>1.3675</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.03256</v>
+        <v>1.03651</v>
       </c>
       <c r="C114" t="n">
-        <v>1.31075</v>
+        <v>1.3088</v>
       </c>
       <c r="D114" t="n">
-        <v>1.36593</v>
+        <v>1.36279</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.03723</v>
+        <v>1.03831</v>
       </c>
       <c r="C115" t="n">
-        <v>1.31183</v>
+        <v>1.31217</v>
       </c>
       <c r="D115" t="n">
-        <v>1.35967</v>
+        <v>1.35955</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.04091</v>
+        <v>1.04378</v>
       </c>
       <c r="C116" t="n">
-        <v>1.31196</v>
+        <v>1.31267</v>
       </c>
       <c r="D116" t="n">
-        <v>1.35782</v>
+        <v>1.35713</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.04486</v>
+        <v>1.04549</v>
       </c>
       <c r="C117" t="n">
-        <v>1.31385</v>
+        <v>1.31357</v>
       </c>
       <c r="D117" t="n">
-        <v>1.35346</v>
+        <v>1.35232</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.04747</v>
+        <v>1.04845</v>
       </c>
       <c r="C118" t="n">
-        <v>1.31359</v>
+        <v>1.31349</v>
       </c>
       <c r="D118" t="n">
-        <v>1.34933</v>
+        <v>1.34811</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.05202</v>
+        <v>1.05216</v>
       </c>
       <c r="C119" t="n">
-        <v>1.31502</v>
+        <v>1.31545</v>
       </c>
       <c r="D119" t="n">
-        <v>1.34526</v>
+        <v>1.345</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.05507</v>
+        <v>1.05773</v>
       </c>
       <c r="C120" t="n">
-        <v>1.31617</v>
+        <v>1.31782</v>
       </c>
       <c r="D120" t="n">
-        <v>1.34345</v>
+        <v>1.34251</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.05986</v>
+        <v>1.06042</v>
       </c>
       <c r="C121" t="n">
-        <v>1.31756</v>
+        <v>1.32064</v>
       </c>
       <c r="D121" t="n">
-        <v>1.33961</v>
+        <v>1.34032</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.06377</v>
+        <v>1.06536</v>
       </c>
       <c r="C122" t="n">
-        <v>1.32119</v>
+        <v>1.32278</v>
       </c>
       <c r="D122" t="n">
-        <v>1.33961</v>
+        <v>1.33907</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.07045</v>
+        <v>1.07231</v>
       </c>
       <c r="C123" t="n">
-        <v>1.32503</v>
+        <v>1.32591</v>
       </c>
       <c r="D123" t="n">
-        <v>1.6762</v>
+        <v>1.67732</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.25904</v>
+        <v>1.26297</v>
       </c>
       <c r="C124" t="n">
-        <v>1.60975</v>
+        <v>1.6114</v>
       </c>
       <c r="D124" t="n">
-        <v>1.67927</v>
+        <v>1.67955</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.26286</v>
+        <v>1.2666</v>
       </c>
       <c r="C125" t="n">
-        <v>1.61709</v>
+        <v>1.61897</v>
       </c>
       <c r="D125" t="n">
-        <v>1.68138</v>
+        <v>1.68165</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.26903</v>
+        <v>1.27201</v>
       </c>
       <c r="C126" t="n">
-        <v>1.62396</v>
+        <v>1.6272</v>
       </c>
       <c r="D126" t="n">
-        <v>1.68259</v>
+        <v>1.68523</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.27328</v>
+        <v>1.27502</v>
       </c>
       <c r="C127" t="n">
-        <v>1.6311</v>
+        <v>1.63117</v>
       </c>
       <c r="D127" t="n">
-        <v>1.68741</v>
+        <v>1.687</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.27615</v>
+        <v>1.28066</v>
       </c>
       <c r="C128" t="n">
-        <v>1.63661</v>
+        <v>1.63876</v>
       </c>
       <c r="D128" t="n">
-        <v>1.68693</v>
+        <v>1.6894</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.27932</v>
+        <v>1.28436</v>
       </c>
       <c r="C129" t="n">
-        <v>1.64169</v>
+        <v>1.64528</v>
       </c>
       <c r="D129" t="n">
-        <v>1.68891</v>
+        <v>1.69139</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.28468</v>
+        <v>1.28709</v>
       </c>
       <c r="C130" t="n">
-        <v>1.64765</v>
+        <v>1.65075</v>
       </c>
       <c r="D130" t="n">
-        <v>1.69042</v>
+        <v>1.69215</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.28742</v>
+        <v>1.29091</v>
       </c>
       <c r="C131" t="n">
-        <v>1.65275</v>
+        <v>1.65676</v>
       </c>
       <c r="D131" t="n">
-        <v>1.69316</v>
+        <v>1.69665</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.29129</v>
+        <v>1.29562</v>
       </c>
       <c r="C132" t="n">
-        <v>1.65895</v>
+        <v>1.66179</v>
       </c>
       <c r="D132" t="n">
-        <v>1.69483</v>
+        <v>1.69758</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.29692</v>
+        <v>1.3008</v>
       </c>
       <c r="C133" t="n">
-        <v>1.66445</v>
+        <v>1.66917</v>
       </c>
       <c r="D133" t="n">
-        <v>1.69644</v>
+        <v>1.70137</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.30061</v>
+        <v>1.30455</v>
       </c>
       <c r="C134" t="n">
-        <v>1.67257</v>
+        <v>1.67553</v>
       </c>
       <c r="D134" t="n">
-        <v>1.70151</v>
+        <v>1.70353</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.30863</v>
+        <v>1.31023</v>
       </c>
       <c r="C135" t="n">
-        <v>1.67793</v>
+        <v>1.68348</v>
       </c>
       <c r="D135" t="n">
-        <v>1.70389</v>
+        <v>1.7066</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.31687</v>
+        <v>1.31745</v>
       </c>
       <c r="C136" t="n">
-        <v>1.68564</v>
+        <v>1.6911</v>
       </c>
       <c r="D136" t="n">
-        <v>1.70913</v>
+        <v>1.71165</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.32645</v>
+        <v>1.32833</v>
       </c>
       <c r="C137" t="n">
-        <v>1.69702</v>
+        <v>1.70097</v>
       </c>
       <c r="D137" t="n">
-        <v>2.04445</v>
+        <v>2.04655</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.51463</v>
+        <v>1.5172</v>
       </c>
       <c r="C138" t="n">
-        <v>1.98255</v>
+        <v>1.98434</v>
       </c>
       <c r="D138" t="n">
-        <v>2.05093</v>
+        <v>2.05214</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.51435</v>
+        <v>1.51671</v>
       </c>
       <c r="C139" t="n">
-        <v>1.99163</v>
+        <v>1.99567</v>
       </c>
       <c r="D139" t="n">
-        <v>2.05785</v>
+        <v>2.05946</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.51524</v>
+        <v>1.51834</v>
       </c>
       <c r="C140" t="n">
-        <v>2.00174</v>
+        <v>2.00581</v>
       </c>
       <c r="D140" t="n">
-        <v>2.06323</v>
+        <v>2.06635</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.51588</v>
+        <v>1.5193</v>
       </c>
       <c r="C141" t="n">
-        <v>2.01236</v>
+        <v>2.01578</v>
       </c>
       <c r="D141" t="n">
-        <v>2.06679</v>
+        <v>2.07283</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.51898</v>
+        <v>1.51955</v>
       </c>
       <c r="C142" t="n">
-        <v>2.01941</v>
+        <v>2.02491</v>
       </c>
       <c r="D142" t="n">
-        <v>2.07281</v>
+        <v>2.07524</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.51752</v>
+        <v>1.5229</v>
       </c>
       <c r="C143" t="n">
-        <v>2.0296</v>
+        <v>2.03272</v>
       </c>
       <c r="D143" t="n">
-        <v>2.07844</v>
+        <v>2.08206</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.574018</v>
+        <v>0.5751270000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.822679</v>
+        <v>0.824923</v>
       </c>
       <c r="D2" t="n">
-        <v>0.874369</v>
+        <v>0.874705</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.564308</v>
+        <v>0.565484</v>
       </c>
       <c r="C3" t="n">
-        <v>0.806813</v>
+        <v>0.808922</v>
       </c>
       <c r="D3" t="n">
-        <v>0.856365</v>
+        <v>0.857024</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.557225</v>
+        <v>0.558337</v>
       </c>
       <c r="C4" t="n">
-        <v>0.792649</v>
+        <v>0.7948769999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.840604</v>
+        <v>0.841236</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.550544</v>
+        <v>0.551617</v>
       </c>
       <c r="C5" t="n">
-        <v>0.77973</v>
+        <v>0.781778</v>
       </c>
       <c r="D5" t="n">
-        <v>0.826359</v>
+        <v>0.826912</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.544575</v>
+        <v>0.546132</v>
       </c>
       <c r="C6" t="n">
-        <v>0.767547</v>
+        <v>0.769661</v>
       </c>
       <c r="D6" t="n">
-        <v>0.813123</v>
+        <v>0.813768</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.54128</v>
+        <v>0.542683</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7574650000000001</v>
+        <v>0.759086</v>
       </c>
       <c r="D7" t="n">
-        <v>0.802651</v>
+        <v>0.802782</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.540335</v>
+        <v>0.541529</v>
       </c>
       <c r="C8" t="n">
-        <v>0.749325</v>
+        <v>0.751238</v>
       </c>
       <c r="D8" t="n">
-        <v>0.794088</v>
+        <v>0.794884</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.542112</v>
+        <v>0.544409</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7443689999999999</v>
+        <v>0.746287</v>
       </c>
       <c r="D9" t="n">
-        <v>1.04087</v>
+        <v>1.04201</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.656129</v>
+        <v>0.6583560000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.946982</v>
+        <v>0.950291</v>
       </c>
       <c r="D10" t="n">
-        <v>1.01453</v>
+        <v>1.01612</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.642891</v>
+        <v>0.6446229999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.925188</v>
+        <v>0.928447</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9897550000000001</v>
+        <v>0.991042</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.630192</v>
+        <v>0.631715</v>
       </c>
       <c r="C12" t="n">
-        <v>0.904898</v>
+        <v>0.907704</v>
       </c>
       <c r="D12" t="n">
-        <v>0.966649</v>
+        <v>0.967898</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.617402</v>
+        <v>0.619096</v>
       </c>
       <c r="C13" t="n">
-        <v>0.884749</v>
+        <v>0.887582</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9439070000000001</v>
+        <v>0.945221</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.606254</v>
+        <v>0.607694</v>
       </c>
       <c r="C14" t="n">
-        <v>0.865909</v>
+        <v>0.868887</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9230429999999999</v>
+        <v>0.9240930000000001</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.595382</v>
+        <v>0.597063</v>
       </c>
       <c r="C15" t="n">
-        <v>0.848319</v>
+        <v>0.850929</v>
       </c>
       <c r="D15" t="n">
-        <v>0.903015</v>
+        <v>0.903864</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.585657</v>
+        <v>0.587348</v>
       </c>
       <c r="C16" t="n">
-        <v>0.831851</v>
+        <v>0.834359</v>
       </c>
       <c r="D16" t="n">
-        <v>0.884259</v>
+        <v>0.885178</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.576578</v>
+        <v>0.578079</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8160849999999999</v>
+        <v>0.818603</v>
       </c>
       <c r="D17" t="n">
-        <v>0.866564</v>
+        <v>0.867406</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.568447</v>
+        <v>0.5701000000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>0.801474</v>
+        <v>0.803751</v>
       </c>
       <c r="D18" t="n">
-        <v>0.850176</v>
+        <v>0.850803</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5614170000000001</v>
+        <v>0.563137</v>
       </c>
       <c r="C19" t="n">
-        <v>0.78845</v>
+        <v>0.790504</v>
       </c>
       <c r="D19" t="n">
-        <v>0.835491</v>
+        <v>0.8359839999999999</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.555692</v>
+        <v>0.557694</v>
       </c>
       <c r="C20" t="n">
-        <v>0.775763</v>
+        <v>0.777953</v>
       </c>
       <c r="D20" t="n">
-        <v>0.821326</v>
+        <v>0.821879</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5517919999999999</v>
+        <v>0.553859</v>
       </c>
       <c r="C21" t="n">
-        <v>0.76502</v>
+        <v>0.767302</v>
       </c>
       <c r="D21" t="n">
-        <v>0.809557</v>
+        <v>0.810128</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.550122</v>
+        <v>0.552222</v>
       </c>
       <c r="C22" t="n">
-        <v>0.756121</v>
+        <v>0.758064</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8006799999999999</v>
+        <v>0.8012</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5506490000000001</v>
+        <v>0.5530929999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.749436</v>
+        <v>0.751784</v>
       </c>
       <c r="D23" t="n">
-        <v>1.09969</v>
+        <v>1.10105</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.704873</v>
+        <v>0.706786</v>
       </c>
       <c r="C24" t="n">
-        <v>0.986424</v>
+        <v>0.989175</v>
       </c>
       <c r="D24" t="n">
-        <v>1.0717</v>
+        <v>1.07296</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.689545</v>
+        <v>0.691682</v>
       </c>
       <c r="C25" t="n">
-        <v>0.963043</v>
+        <v>0.965853</v>
       </c>
       <c r="D25" t="n">
-        <v>1.04452</v>
+        <v>1.04561</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.675117</v>
+        <v>0.676738</v>
       </c>
       <c r="C26" t="n">
-        <v>0.941225</v>
+        <v>0.943868</v>
       </c>
       <c r="D26" t="n">
-        <v>1.01866</v>
+        <v>1.01973</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.661065</v>
+        <v>0.6629</v>
       </c>
       <c r="C27" t="n">
-        <v>0.919906</v>
+        <v>0.922586</v>
       </c>
       <c r="D27" t="n">
-        <v>0.994234</v>
+        <v>0.994927</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.647995</v>
+        <v>0.649845</v>
       </c>
       <c r="C28" t="n">
-        <v>0.900046</v>
+        <v>0.902579</v>
       </c>
       <c r="D28" t="n">
-        <v>0.970961</v>
+        <v>0.971807</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.635372</v>
+        <v>0.63749</v>
       </c>
       <c r="C29" t="n">
-        <v>0.881114</v>
+        <v>0.883078</v>
       </c>
       <c r="D29" t="n">
-        <v>0.948866</v>
+        <v>0.949636</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.623879</v>
+        <v>0.6256890000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>0.862948</v>
+        <v>0.865267</v>
       </c>
       <c r="D30" t="n">
-        <v>0.928103</v>
+        <v>0.928932</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.613189</v>
+        <v>0.6150139999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.846243</v>
+        <v>0.84801</v>
       </c>
       <c r="D31" t="n">
-        <v>0.908572</v>
+        <v>0.909031</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6035</v>
+        <v>0.605641</v>
       </c>
       <c r="C32" t="n">
-        <v>0.830178</v>
+        <v>0.832243</v>
       </c>
       <c r="D32" t="n">
-        <v>0.890342</v>
+        <v>0.891028</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.595061</v>
+        <v>0.597039</v>
       </c>
       <c r="C33" t="n">
-        <v>0.815662</v>
+        <v>0.817551</v>
       </c>
       <c r="D33" t="n">
-        <v>0.873688</v>
+        <v>0.874013</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.587237</v>
+        <v>0.589161</v>
       </c>
       <c r="C34" t="n">
-        <v>0.802677</v>
+        <v>0.804025</v>
       </c>
       <c r="D34" t="n">
-        <v>0.8584889999999999</v>
+        <v>0.85895</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.581458</v>
+        <v>0.5835090000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.790279</v>
+        <v>0.792282</v>
       </c>
       <c r="D35" t="n">
-        <v>0.8451689999999999</v>
+        <v>0.845637</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.578012</v>
+        <v>0.579759</v>
       </c>
       <c r="C36" t="n">
-        <v>0.780152</v>
+        <v>0.781636</v>
       </c>
       <c r="D36" t="n">
-        <v>0.83434</v>
+        <v>0.834693</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.576633</v>
+        <v>0.5785</v>
       </c>
       <c r="C37" t="n">
-        <v>0.772711</v>
+        <v>0.774049</v>
       </c>
       <c r="D37" t="n">
-        <v>1.12039</v>
+        <v>1.12101</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.734384</v>
+        <v>0.735769</v>
       </c>
       <c r="C38" t="n">
-        <v>1.01649</v>
+        <v>1.01876</v>
       </c>
       <c r="D38" t="n">
-        <v>1.09209</v>
+        <v>1.09271</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.71991</v>
+        <v>0.7214390000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>0.99373</v>
+        <v>0.996128</v>
       </c>
       <c r="D39" t="n">
-        <v>1.06496</v>
+        <v>1.06531</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.704201</v>
+        <v>0.706365</v>
       </c>
       <c r="C40" t="n">
-        <v>0.970871</v>
+        <v>0.972971</v>
       </c>
       <c r="D40" t="n">
-        <v>1.0386</v>
+        <v>1.03922</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.689258</v>
+        <v>0.691064</v>
       </c>
       <c r="C41" t="n">
-        <v>0.948381</v>
+        <v>0.950781</v>
       </c>
       <c r="D41" t="n">
-        <v>1.01389</v>
+        <v>1.01464</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.675183</v>
+        <v>0.677169</v>
       </c>
       <c r="C42" t="n">
-        <v>0.927987</v>
+        <v>0.930245</v>
       </c>
       <c r="D42" t="n">
-        <v>0.990264</v>
+        <v>0.990612</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6622710000000001</v>
+        <v>0.664331</v>
       </c>
       <c r="C43" t="n">
-        <v>0.908446</v>
+        <v>0.910056</v>
       </c>
       <c r="D43" t="n">
-        <v>0.967569</v>
+        <v>0.968294</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.652332</v>
+        <v>0.652426</v>
       </c>
       <c r="C44" t="n">
-        <v>0.8887890000000001</v>
+        <v>0.89168</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9466020000000001</v>
+        <v>0.947163</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.63954</v>
+        <v>0.640733</v>
       </c>
       <c r="C45" t="n">
-        <v>0.872622</v>
+        <v>0.8742760000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9266259999999999</v>
+        <v>0.927281</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6282140000000001</v>
+        <v>0.630291</v>
       </c>
       <c r="C46" t="n">
-        <v>0.855497</v>
+        <v>0.857268</v>
       </c>
       <c r="D46" t="n">
-        <v>0.907931</v>
+        <v>0.9086920000000001</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.618888</v>
+        <v>0.620904</v>
       </c>
       <c r="C47" t="n">
-        <v>0.838708</v>
+        <v>0.842626</v>
       </c>
       <c r="D47" t="n">
-        <v>0.8907389999999999</v>
+        <v>0.891074</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6110100000000001</v>
+        <v>0.612318</v>
       </c>
       <c r="C48" t="n">
-        <v>0.825402</v>
+        <v>0.827325</v>
       </c>
       <c r="D48" t="n">
-        <v>0.874611</v>
+        <v>0.875928</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.60486</v>
+        <v>0.606559</v>
       </c>
       <c r="C49" t="n">
-        <v>0.812875</v>
+        <v>0.814398</v>
       </c>
       <c r="D49" t="n">
-        <v>0.861182</v>
+        <v>0.86154</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.599958</v>
+        <v>0.602233</v>
       </c>
       <c r="C50" t="n">
-        <v>0.802543</v>
+        <v>0.803572</v>
       </c>
       <c r="D50" t="n">
-        <v>0.8495509999999999</v>
+        <v>0.8500760000000001</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.597567</v>
+        <v>0.599707</v>
       </c>
       <c r="C51" t="n">
-        <v>0.792389</v>
+        <v>0.795543</v>
       </c>
       <c r="D51" t="n">
-        <v>1.14282</v>
+        <v>1.14278</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.597927</v>
+        <v>0.60017</v>
       </c>
       <c r="C52" t="n">
-        <v>0.787304</v>
+        <v>0.787883</v>
       </c>
       <c r="D52" t="n">
-        <v>1.11426</v>
+        <v>1.11474</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.747344</v>
+        <v>0.74879</v>
       </c>
       <c r="C53" t="n">
-        <v>1.01674</v>
+        <v>1.01871</v>
       </c>
       <c r="D53" t="n">
-        <v>1.08617</v>
+        <v>1.08724</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.731096</v>
+        <v>0.73345</v>
       </c>
       <c r="C54" t="n">
-        <v>0.993805</v>
+        <v>0.995943</v>
       </c>
       <c r="D54" t="n">
-        <v>1.06058</v>
+        <v>1.06129</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.716606</v>
+        <v>0.719058</v>
       </c>
       <c r="C55" t="n">
-        <v>0.971753</v>
+        <v>0.97399</v>
       </c>
       <c r="D55" t="n">
-        <v>1.03604</v>
+        <v>1.03662</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.703203</v>
+        <v>0.704989</v>
       </c>
       <c r="C56" t="n">
-        <v>0.949371</v>
+        <v>0.953904</v>
       </c>
       <c r="D56" t="n">
-        <v>1.01087</v>
+        <v>1.01337</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.689339</v>
+        <v>0.692353</v>
       </c>
       <c r="C57" t="n">
-        <v>0.930481</v>
+        <v>0.933343</v>
       </c>
       <c r="D57" t="n">
-        <v>0.989226</v>
+        <v>0.991252</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.677395</v>
+        <v>0.679666</v>
       </c>
       <c r="C58" t="n">
-        <v>0.910406</v>
+        <v>0.9154600000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>0.967062</v>
+        <v>0.969955</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.664905</v>
+        <v>0.668468</v>
       </c>
       <c r="C59" t="n">
-        <v>0.892797</v>
+        <v>0.897749</v>
       </c>
       <c r="D59" t="n">
-        <v>0.947031</v>
+        <v>0.949011</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.656183</v>
+        <v>0.657182</v>
       </c>
       <c r="C60" t="n">
-        <v>0.878038</v>
+        <v>0.880887</v>
       </c>
       <c r="D60" t="n">
-        <v>0.930677</v>
+        <v>0.931165</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.646025</v>
+        <v>0.648328</v>
       </c>
       <c r="C61" t="n">
-        <v>0.862697</v>
+        <v>0.86511</v>
       </c>
       <c r="D61" t="n">
-        <v>0.913534</v>
+        <v>0.913687</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.638587</v>
+        <v>0.640109</v>
       </c>
       <c r="C62" t="n">
-        <v>0.849629</v>
+        <v>0.851257</v>
       </c>
       <c r="D62" t="n">
-        <v>0.897526</v>
+        <v>0.898015</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.630759</v>
+        <v>0.633371</v>
       </c>
       <c r="C63" t="n">
-        <v>0.835242</v>
+        <v>0.8381960000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.880086</v>
+        <v>0.8836349999999999</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.627449</v>
+        <v>0.627792</v>
       </c>
       <c r="C64" t="n">
-        <v>0.823624</v>
+        <v>0.826467</v>
       </c>
       <c r="D64" t="n">
-        <v>0.870656</v>
+        <v>0.871163</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.623158</v>
+        <v>0.62554</v>
       </c>
       <c r="C65" t="n">
-        <v>0.814812</v>
+        <v>0.816899</v>
       </c>
       <c r="D65" t="n">
-        <v>0.86189</v>
+        <v>0.862344</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.624024</v>
+        <v>0.625073</v>
       </c>
       <c r="C66" t="n">
-        <v>0.808047</v>
+        <v>0.8100039999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>1.14131</v>
+        <v>1.14201</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.773138</v>
+        <v>0.775182</v>
       </c>
       <c r="C67" t="n">
-        <v>1.04807</v>
+        <v>1.05181</v>
       </c>
       <c r="D67" t="n">
-        <v>1.11392</v>
+        <v>1.11448</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.7576310000000001</v>
+        <v>0.759084</v>
       </c>
       <c r="C68" t="n">
-        <v>1.02426</v>
+        <v>1.0257</v>
       </c>
       <c r="D68" t="n">
-        <v>1.08779</v>
+        <v>1.0867</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.743666</v>
+        <v>0.743924</v>
       </c>
       <c r="C69" t="n">
-        <v>1.00369</v>
+        <v>1.00415</v>
       </c>
       <c r="D69" t="n">
-        <v>1.06254</v>
+        <v>1.06129</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.728996</v>
+        <v>0.730169</v>
       </c>
       <c r="C70" t="n">
-        <v>0.980456</v>
+        <v>0.983595</v>
       </c>
       <c r="D70" t="n">
-        <v>1.03929</v>
+        <v>1.03884</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.715714</v>
+        <v>0.718656</v>
       </c>
       <c r="C71" t="n">
-        <v>0.960512</v>
+        <v>0.965224</v>
       </c>
       <c r="D71" t="n">
-        <v>1.01738</v>
+        <v>1.01753</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.704027</v>
+        <v>0.707466</v>
       </c>
       <c r="C72" t="n">
-        <v>0.94193</v>
+        <v>0.945632</v>
       </c>
       <c r="D72" t="n">
-        <v>0.995864</v>
+        <v>0.9971139999999999</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.6921890000000001</v>
+        <v>0.695712</v>
       </c>
       <c r="C73" t="n">
-        <v>0.923861</v>
+        <v>0.928289</v>
       </c>
       <c r="D73" t="n">
-        <v>0.975364</v>
+        <v>0.977129</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.681611</v>
+        <v>0.6846</v>
       </c>
       <c r="C74" t="n">
-        <v>0.907625</v>
+        <v>0.911833</v>
       </c>
       <c r="D74" t="n">
-        <v>0.957014</v>
+        <v>0.958353</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.6710120000000001</v>
+        <v>0.674698</v>
       </c>
       <c r="C75" t="n">
-        <v>0.891406</v>
+        <v>0.896712</v>
       </c>
       <c r="D75" t="n">
-        <v>0.939429</v>
+        <v>0.940891</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.663104</v>
+        <v>0.667315</v>
       </c>
       <c r="C76" t="n">
-        <v>0.875714</v>
+        <v>0.880726</v>
       </c>
       <c r="D76" t="n">
-        <v>0.92253</v>
+        <v>0.92482</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.657485</v>
+        <v>0.659538</v>
       </c>
       <c r="C77" t="n">
-        <v>0.864847</v>
+        <v>0.86764</v>
       </c>
       <c r="D77" t="n">
-        <v>0.908412</v>
+        <v>0.909678</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.651908</v>
+        <v>0.653149</v>
       </c>
       <c r="C78" t="n">
-        <v>0.852657</v>
+        <v>0.853519</v>
       </c>
       <c r="D78" t="n">
-        <v>0.89596</v>
+        <v>0.895875</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.648181</v>
+        <v>0.6494760000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>0.84158</v>
+        <v>0.841998</v>
       </c>
       <c r="D79" t="n">
-        <v>0.886417</v>
+        <v>0.884594</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.6473719999999999</v>
+        <v>0.648046</v>
       </c>
       <c r="C80" t="n">
-        <v>0.835229</v>
+        <v>0.837388</v>
       </c>
       <c r="D80" t="n">
-        <v>1.18782</v>
+        <v>1.18732</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.823257</v>
+        <v>0.823709</v>
       </c>
       <c r="C81" t="n">
-        <v>1.09157</v>
+        <v>1.0933</v>
       </c>
       <c r="D81" t="n">
-        <v>1.16037</v>
+        <v>1.16137</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.811976</v>
+        <v>0.813809</v>
       </c>
       <c r="C82" t="n">
-        <v>1.07078</v>
+        <v>1.07349</v>
       </c>
       <c r="D82" t="n">
-        <v>1.13491</v>
+        <v>1.13622</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.800481</v>
+        <v>0.801964</v>
       </c>
       <c r="C83" t="n">
-        <v>1.04978</v>
+        <v>1.05307</v>
       </c>
       <c r="D83" t="n">
-        <v>1.11083</v>
+        <v>1.11101</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.789702</v>
+        <v>0.789533</v>
       </c>
       <c r="C84" t="n">
-        <v>1.03209</v>
+        <v>1.03281</v>
       </c>
       <c r="D84" t="n">
-        <v>1.0891</v>
+        <v>1.08786</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.7766459999999999</v>
+        <v>0.77628</v>
       </c>
       <c r="C85" t="n">
-        <v>1.01282</v>
+        <v>1.01259</v>
       </c>
       <c r="D85" t="n">
-        <v>1.06674</v>
+        <v>1.0642</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.7655149999999999</v>
+        <v>0.764216</v>
       </c>
       <c r="C86" t="n">
-        <v>0.993831</v>
+        <v>0.9932569999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>1.04458</v>
+        <v>1.04243</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.753148</v>
+        <v>0.752156</v>
       </c>
       <c r="C87" t="n">
-        <v>0.974927</v>
+        <v>0.9755819999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>1.02367</v>
+        <v>1.02434</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.74205</v>
+        <v>0.743412</v>
       </c>
       <c r="C88" t="n">
-        <v>0.957504</v>
+        <v>0.960387</v>
       </c>
       <c r="D88" t="n">
-        <v>1.00239</v>
+        <v>1.00532</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.730589</v>
+        <v>0.732757</v>
       </c>
       <c r="C89" t="n">
-        <v>0.941267</v>
+        <v>0.943985</v>
       </c>
       <c r="D89" t="n">
-        <v>0.98492</v>
+        <v>0.985812</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.721314</v>
+        <v>0.721089</v>
       </c>
       <c r="C90" t="n">
-        <v>0.92514</v>
+        <v>0.927575</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9669140000000001</v>
+        <v>0.967761</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.711516</v>
+        <v>0.712224</v>
       </c>
       <c r="C91" t="n">
-        <v>0.910559</v>
+        <v>0.912729</v>
       </c>
       <c r="D91" t="n">
-        <v>0.950647</v>
+        <v>0.950757</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.703186</v>
+        <v>0.703908</v>
       </c>
       <c r="C92" t="n">
-        <v>0.896906</v>
+        <v>0.898799</v>
       </c>
       <c r="D92" t="n">
-        <v>0.936793</v>
+        <v>0.936519</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.698395</v>
+        <v>0.698482</v>
       </c>
       <c r="C93" t="n">
-        <v>0.887224</v>
+        <v>0.8880130000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>0.926581</v>
+        <v>0.925742</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.69574</v>
+        <v>0.696141</v>
       </c>
       <c r="C94" t="n">
-        <v>0.878904</v>
+        <v>0.879659</v>
       </c>
       <c r="D94" t="n">
-        <v>1.24776</v>
+        <v>1.24643</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.878373</v>
+        <v>0.878799</v>
       </c>
       <c r="C95" t="n">
-        <v>1.14396</v>
+        <v>1.14668</v>
       </c>
       <c r="D95" t="n">
-        <v>1.23974</v>
+        <v>1.23761</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.886001</v>
+        <v>0.886951</v>
       </c>
       <c r="C96" t="n">
-        <v>1.14722</v>
+        <v>1.15059</v>
       </c>
       <c r="D96" t="n">
-        <v>1.22626</v>
+        <v>1.22549</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.886146</v>
+        <v>0.888274</v>
       </c>
       <c r="C97" t="n">
-        <v>1.14107</v>
+        <v>1.14514</v>
       </c>
       <c r="D97" t="n">
-        <v>1.20949</v>
+        <v>1.21115</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.882789</v>
+        <v>0.884794</v>
       </c>
       <c r="C98" t="n">
-        <v>1.13184</v>
+        <v>1.13492</v>
       </c>
       <c r="D98" t="n">
-        <v>1.1917</v>
+        <v>1.19456</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.8765230000000001</v>
+        <v>0.877943</v>
       </c>
       <c r="C99" t="n">
-        <v>1.11905</v>
+        <v>1.12235</v>
       </c>
       <c r="D99" t="n">
-        <v>1.17378</v>
+        <v>1.17633</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.869041</v>
+        <v>0.870553</v>
       </c>
       <c r="C100" t="n">
-        <v>1.10639</v>
+        <v>1.11038</v>
       </c>
       <c r="D100" t="n">
-        <v>1.15558</v>
+        <v>1.15719</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.861433</v>
+        <v>0.86333</v>
       </c>
       <c r="C101" t="n">
-        <v>1.09302</v>
+        <v>1.09713</v>
       </c>
       <c r="D101" t="n">
-        <v>1.13833</v>
+        <v>1.13932</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.853338</v>
+        <v>0.855531</v>
       </c>
       <c r="C102" t="n">
-        <v>1.08076</v>
+        <v>1.0846</v>
       </c>
       <c r="D102" t="n">
-        <v>1.12188</v>
+        <v>1.12318</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.845866</v>
+        <v>0.847639</v>
       </c>
       <c r="C103" t="n">
-        <v>1.06946</v>
+        <v>1.07148</v>
       </c>
       <c r="D103" t="n">
-        <v>1.1056</v>
+        <v>1.10551</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.839031</v>
+        <v>0.841766</v>
       </c>
       <c r="C104" t="n">
-        <v>1.05797</v>
+        <v>1.06226</v>
       </c>
       <c r="D104" t="n">
-        <v>1.09041</v>
+        <v>1.09159</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.832222</v>
+        <v>0.834025</v>
       </c>
       <c r="C105" t="n">
-        <v>1.04602</v>
+        <v>1.04992</v>
       </c>
       <c r="D105" t="n">
-        <v>1.07603</v>
+        <v>1.07797</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.8270189999999999</v>
+        <v>0.829035</v>
       </c>
       <c r="C106" t="n">
-        <v>1.03629</v>
+        <v>1.04024</v>
       </c>
       <c r="D106" t="n">
-        <v>1.06247</v>
+        <v>1.06591</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.82237</v>
+        <v>0.825566</v>
       </c>
       <c r="C107" t="n">
-        <v>1.02796</v>
+        <v>1.03219</v>
       </c>
       <c r="D107" t="n">
-        <v>1.05324</v>
+        <v>1.05446</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.8206560000000001</v>
+        <v>0.822213</v>
       </c>
       <c r="C108" t="n">
-        <v>1.02106</v>
+        <v>1.0265</v>
       </c>
       <c r="D108" t="n">
-        <v>1.37643</v>
+        <v>1.37634</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.822443</v>
+        <v>0.821576</v>
       </c>
       <c r="C109" t="n">
-        <v>1.01842</v>
+        <v>1.02108</v>
       </c>
       <c r="D109" t="n">
-        <v>1.38447</v>
+        <v>1.38452</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.01586</v>
+        <v>1.01612</v>
       </c>
       <c r="C110" t="n">
-        <v>1.30385</v>
+        <v>1.30688</v>
       </c>
       <c r="D110" t="n">
-        <v>1.38077</v>
+        <v>1.38097</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.02222</v>
+        <v>1.02199</v>
       </c>
       <c r="C111" t="n">
-        <v>1.30731</v>
+        <v>1.30927</v>
       </c>
       <c r="D111" t="n">
-        <v>1.37702</v>
+        <v>1.37584</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.02666</v>
+        <v>1.02771</v>
       </c>
       <c r="C112" t="n">
-        <v>1.3087</v>
+        <v>1.31076</v>
       </c>
       <c r="D112" t="n">
-        <v>1.37433</v>
+        <v>1.37379</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.03232</v>
+        <v>1.03171</v>
       </c>
       <c r="C113" t="n">
-        <v>1.30864</v>
+        <v>1.31234</v>
       </c>
       <c r="D113" t="n">
-        <v>1.3675</v>
+        <v>1.36917</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.03651</v>
+        <v>1.03569</v>
       </c>
       <c r="C114" t="n">
-        <v>1.3088</v>
+        <v>1.31237</v>
       </c>
       <c r="D114" t="n">
-        <v>1.36279</v>
+        <v>1.3642</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.03831</v>
+        <v>1.03958</v>
       </c>
       <c r="C115" t="n">
-        <v>1.31217</v>
+        <v>1.31322</v>
       </c>
       <c r="D115" t="n">
-        <v>1.35955</v>
+        <v>1.3608</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.04378</v>
+        <v>1.04297</v>
       </c>
       <c r="C116" t="n">
-        <v>1.31267</v>
+        <v>1.31414</v>
       </c>
       <c r="D116" t="n">
-        <v>1.35713</v>
+        <v>1.35542</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.04549</v>
+        <v>1.04517</v>
       </c>
       <c r="C117" t="n">
-        <v>1.31357</v>
+        <v>1.31546</v>
       </c>
       <c r="D117" t="n">
-        <v>1.35232</v>
+        <v>1.35117</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.04845</v>
+        <v>1.04966</v>
       </c>
       <c r="C118" t="n">
-        <v>1.31349</v>
+        <v>1.3164</v>
       </c>
       <c r="D118" t="n">
-        <v>1.34811</v>
+        <v>1.34825</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.05216</v>
+        <v>1.05376</v>
       </c>
       <c r="C119" t="n">
-        <v>1.31545</v>
+        <v>1.31737</v>
       </c>
       <c r="D119" t="n">
-        <v>1.345</v>
+        <v>1.344</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.05773</v>
+        <v>1.05656</v>
       </c>
       <c r="C120" t="n">
-        <v>1.31782</v>
+        <v>1.31784</v>
       </c>
       <c r="D120" t="n">
-        <v>1.34251</v>
+        <v>1.34138</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.06042</v>
+        <v>1.05976</v>
       </c>
       <c r="C121" t="n">
-        <v>1.32064</v>
+        <v>1.31959</v>
       </c>
       <c r="D121" t="n">
-        <v>1.34032</v>
+        <v>1.33854</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.06536</v>
+        <v>1.06545</v>
       </c>
       <c r="C122" t="n">
-        <v>1.32278</v>
+        <v>1.32195</v>
       </c>
       <c r="D122" t="n">
-        <v>1.33907</v>
+        <v>1.33715</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.07231</v>
+        <v>1.07228</v>
       </c>
       <c r="C123" t="n">
-        <v>1.32591</v>
+        <v>1.32719</v>
       </c>
       <c r="D123" t="n">
-        <v>1.67732</v>
+        <v>1.6759</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.26297</v>
+        <v>1.26066</v>
       </c>
       <c r="C124" t="n">
-        <v>1.6114</v>
+        <v>1.61286</v>
       </c>
       <c r="D124" t="n">
-        <v>1.67955</v>
+        <v>1.67776</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.2666</v>
+        <v>1.26432</v>
       </c>
       <c r="C125" t="n">
-        <v>1.61897</v>
+        <v>1.61794</v>
       </c>
       <c r="D125" t="n">
-        <v>1.68165</v>
+        <v>1.6791</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.27201</v>
+        <v>1.26914</v>
       </c>
       <c r="C126" t="n">
-        <v>1.6272</v>
+        <v>1.62377</v>
       </c>
       <c r="D126" t="n">
-        <v>1.68523</v>
+        <v>1.67971</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.27502</v>
+        <v>1.27192</v>
       </c>
       <c r="C127" t="n">
-        <v>1.63117</v>
+        <v>1.6311</v>
       </c>
       <c r="D127" t="n">
-        <v>1.687</v>
+        <v>1.68356</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.28066</v>
+        <v>1.27645</v>
       </c>
       <c r="C128" t="n">
-        <v>1.63876</v>
+        <v>1.63619</v>
       </c>
       <c r="D128" t="n">
-        <v>1.6894</v>
+        <v>1.68285</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.28436</v>
+        <v>1.28113</v>
       </c>
       <c r="C129" t="n">
-        <v>1.64528</v>
+        <v>1.64215</v>
       </c>
       <c r="D129" t="n">
-        <v>1.69139</v>
+        <v>1.68552</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.28709</v>
+        <v>1.28261</v>
       </c>
       <c r="C130" t="n">
-        <v>1.65075</v>
+        <v>1.64805</v>
       </c>
       <c r="D130" t="n">
-        <v>1.69215</v>
+        <v>1.68727</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.29091</v>
+        <v>1.28697</v>
       </c>
       <c r="C131" t="n">
-        <v>1.65676</v>
+        <v>1.65193</v>
       </c>
       <c r="D131" t="n">
-        <v>1.69665</v>
+        <v>1.68954</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.29562</v>
+        <v>1.29094</v>
       </c>
       <c r="C132" t="n">
-        <v>1.66179</v>
+        <v>1.65858</v>
       </c>
       <c r="D132" t="n">
-        <v>1.69758</v>
+        <v>1.69125</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.3008</v>
+        <v>1.29442</v>
       </c>
       <c r="C133" t="n">
-        <v>1.66917</v>
+        <v>1.66339</v>
       </c>
       <c r="D133" t="n">
-        <v>1.70137</v>
+        <v>1.69136</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.30455</v>
+        <v>1.30609</v>
       </c>
       <c r="C134" t="n">
-        <v>1.67553</v>
+        <v>1.66891</v>
       </c>
       <c r="D134" t="n">
-        <v>1.70353</v>
+        <v>1.69481</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.31023</v>
+        <v>1.30558</v>
       </c>
       <c r="C135" t="n">
-        <v>1.68348</v>
+        <v>1.67573</v>
       </c>
       <c r="D135" t="n">
-        <v>1.7066</v>
+        <v>1.69842</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.31745</v>
+        <v>1.31374</v>
       </c>
       <c r="C136" t="n">
-        <v>1.6911</v>
+        <v>1.6838</v>
       </c>
       <c r="D136" t="n">
-        <v>1.71165</v>
+        <v>1.71154</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.32833</v>
+        <v>1.32443</v>
       </c>
       <c r="C137" t="n">
-        <v>1.70097</v>
+        <v>1.69411</v>
       </c>
       <c r="D137" t="n">
-        <v>2.04655</v>
+        <v>2.046</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.5172</v>
+        <v>1.51321</v>
       </c>
       <c r="C138" t="n">
-        <v>1.98434</v>
+        <v>1.9799</v>
       </c>
       <c r="D138" t="n">
-        <v>2.05214</v>
+        <v>2.04543</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.51671</v>
+        <v>1.51539</v>
       </c>
       <c r="C139" t="n">
-        <v>1.99567</v>
+        <v>1.98986</v>
       </c>
       <c r="D139" t="n">
-        <v>2.05946</v>
+        <v>2.05237</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.51834</v>
+        <v>1.51231</v>
       </c>
       <c r="C140" t="n">
-        <v>2.00581</v>
+        <v>1.99759</v>
       </c>
       <c r="D140" t="n">
-        <v>2.06635</v>
+        <v>2.057</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.5193</v>
+        <v>1.5157</v>
       </c>
       <c r="C141" t="n">
-        <v>2.01578</v>
+        <v>2.00789</v>
       </c>
       <c r="D141" t="n">
-        <v>2.07283</v>
+        <v>2.06273</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.51955</v>
+        <v>1.51592</v>
       </c>
       <c r="C142" t="n">
-        <v>2.02491</v>
+        <v>2.0149</v>
       </c>
       <c r="D142" t="n">
-        <v>2.07524</v>
+        <v>2.06917</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.5229</v>
+        <v>1.51608</v>
       </c>
       <c r="C143" t="n">
-        <v>2.03272</v>
+        <v>2.02275</v>
       </c>
       <c r="D143" t="n">
-        <v>2.08206</v>
+        <v>2.07168</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5751270000000001</v>
+        <v>0.480315</v>
       </c>
       <c r="C2" t="n">
-        <v>0.824923</v>
+        <v>0.738209</v>
       </c>
       <c r="D2" t="n">
-        <v>0.874705</v>
+        <v>0.793778</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.565484</v>
+        <v>0.470259</v>
       </c>
       <c r="C3" t="n">
-        <v>0.808922</v>
+        <v>0.724117</v>
       </c>
       <c r="D3" t="n">
-        <v>0.857024</v>
+        <v>0.777578</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.558337</v>
+        <v>0.463103</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7948769999999999</v>
+        <v>0.7108449999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.841236</v>
+        <v>0.762273</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.551617</v>
+        <v>0.456929</v>
       </c>
       <c r="C5" t="n">
-        <v>0.781778</v>
+        <v>0.698244</v>
       </c>
       <c r="D5" t="n">
-        <v>0.826912</v>
+        <v>0.748463</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.546132</v>
+        <v>0.452055</v>
       </c>
       <c r="C6" t="n">
-        <v>0.769661</v>
+        <v>0.6862549999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.813768</v>
+        <v>0.735451</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.542683</v>
+        <v>0.447765</v>
       </c>
       <c r="C7" t="n">
-        <v>0.759086</v>
+        <v>0.676412</v>
       </c>
       <c r="D7" t="n">
-        <v>0.802782</v>
+        <v>0.7239910000000001</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.541529</v>
+        <v>0.446801</v>
       </c>
       <c r="C8" t="n">
-        <v>0.751238</v>
+        <v>0.668521</v>
       </c>
       <c r="D8" t="n">
-        <v>0.794884</v>
+        <v>0.715348</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.544409</v>
+        <v>0.450165</v>
       </c>
       <c r="C9" t="n">
-        <v>0.746287</v>
+        <v>0.662776</v>
       </c>
       <c r="D9" t="n">
-        <v>1.04201</v>
+        <v>0.964039</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6583560000000001</v>
+        <v>0.564393</v>
       </c>
       <c r="C10" t="n">
-        <v>0.950291</v>
+        <v>0.865537</v>
       </c>
       <c r="D10" t="n">
-        <v>1.01612</v>
+        <v>0.938449</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6446229999999999</v>
+        <v>0.550654</v>
       </c>
       <c r="C11" t="n">
-        <v>0.928447</v>
+        <v>0.844147</v>
       </c>
       <c r="D11" t="n">
-        <v>0.991042</v>
+        <v>0.914025</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.631715</v>
+        <v>0.538225</v>
       </c>
       <c r="C12" t="n">
-        <v>0.907704</v>
+        <v>0.824211</v>
       </c>
       <c r="D12" t="n">
-        <v>0.967898</v>
+        <v>0.890852</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.619096</v>
+        <v>0.525969</v>
       </c>
       <c r="C13" t="n">
-        <v>0.887582</v>
+        <v>0.804848</v>
       </c>
       <c r="D13" t="n">
-        <v>0.945221</v>
+        <v>0.868942</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.607694</v>
+        <v>0.514794</v>
       </c>
       <c r="C14" t="n">
-        <v>0.868887</v>
+        <v>0.786724</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9240930000000001</v>
+        <v>0.84727</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.597063</v>
+        <v>0.504355</v>
       </c>
       <c r="C15" t="n">
-        <v>0.850929</v>
+        <v>0.769604</v>
       </c>
       <c r="D15" t="n">
-        <v>0.903864</v>
+        <v>0.827566</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.587348</v>
+        <v>0.494309</v>
       </c>
       <c r="C16" t="n">
-        <v>0.834359</v>
+        <v>0.753262</v>
       </c>
       <c r="D16" t="n">
-        <v>0.885178</v>
+        <v>0.808707</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.578079</v>
+        <v>0.485189</v>
       </c>
       <c r="C17" t="n">
-        <v>0.818603</v>
+        <v>0.737702</v>
       </c>
       <c r="D17" t="n">
-        <v>0.867406</v>
+        <v>0.7908809999999999</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5701000000000001</v>
+        <v>0.476965</v>
       </c>
       <c r="C18" t="n">
-        <v>0.803751</v>
+        <v>0.723274</v>
       </c>
       <c r="D18" t="n">
-        <v>0.850803</v>
+        <v>0.774915</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.563137</v>
+        <v>0.469997</v>
       </c>
       <c r="C19" t="n">
-        <v>0.790504</v>
+        <v>0.710144</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8359839999999999</v>
+        <v>0.759414</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.557694</v>
+        <v>0.464292</v>
       </c>
       <c r="C20" t="n">
-        <v>0.777953</v>
+        <v>0.69745</v>
       </c>
       <c r="D20" t="n">
-        <v>0.821879</v>
+        <v>0.74615</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.553859</v>
+        <v>0.460097</v>
       </c>
       <c r="C21" t="n">
-        <v>0.767302</v>
+        <v>0.686242</v>
       </c>
       <c r="D21" t="n">
-        <v>0.810128</v>
+        <v>0.7338789999999999</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.552222</v>
+        <v>0.457917</v>
       </c>
       <c r="C22" t="n">
-        <v>0.758064</v>
+        <v>0.677324</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8012</v>
+        <v>0.725064</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5530929999999999</v>
+        <v>0.458061</v>
       </c>
       <c r="C23" t="n">
-        <v>0.751784</v>
+        <v>0.670126</v>
       </c>
       <c r="D23" t="n">
-        <v>1.10105</v>
+        <v>1.02456</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.706786</v>
+        <v>0.607129</v>
       </c>
       <c r="C24" t="n">
-        <v>0.989175</v>
+        <v>0.905535</v>
       </c>
       <c r="D24" t="n">
-        <v>1.07296</v>
+        <v>0.99698</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.691682</v>
+        <v>0.592394</v>
       </c>
       <c r="C25" t="n">
-        <v>0.965853</v>
+        <v>0.882973</v>
       </c>
       <c r="D25" t="n">
-        <v>1.04561</v>
+        <v>0.969766</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.676738</v>
+        <v>0.578295</v>
       </c>
       <c r="C26" t="n">
-        <v>0.943868</v>
+        <v>0.861341</v>
       </c>
       <c r="D26" t="n">
-        <v>1.01973</v>
+        <v>0.944066</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6629</v>
+        <v>0.564829</v>
       </c>
       <c r="C27" t="n">
-        <v>0.922586</v>
+        <v>0.840632</v>
       </c>
       <c r="D27" t="n">
-        <v>0.994927</v>
+        <v>0.919452</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.649845</v>
+        <v>0.552051</v>
       </c>
       <c r="C28" t="n">
-        <v>0.902579</v>
+        <v>0.820906</v>
       </c>
       <c r="D28" t="n">
-        <v>0.971807</v>
+        <v>0.896679</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.63749</v>
+        <v>0.539793</v>
       </c>
       <c r="C29" t="n">
-        <v>0.883078</v>
+        <v>0.8019500000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.949636</v>
+        <v>0.87461</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6256890000000001</v>
+        <v>0.528466</v>
       </c>
       <c r="C30" t="n">
-        <v>0.865267</v>
+        <v>0.784341</v>
       </c>
       <c r="D30" t="n">
-        <v>0.928932</v>
+        <v>0.8540410000000001</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6150139999999999</v>
+        <v>0.518201</v>
       </c>
       <c r="C31" t="n">
-        <v>0.84801</v>
+        <v>0.767741</v>
       </c>
       <c r="D31" t="n">
-        <v>0.909031</v>
+        <v>0.834342</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.605641</v>
+        <v>0.508889</v>
       </c>
       <c r="C32" t="n">
-        <v>0.832243</v>
+        <v>0.751976</v>
       </c>
       <c r="D32" t="n">
-        <v>0.891028</v>
+        <v>0.816347</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.597039</v>
+        <v>0.50091</v>
       </c>
       <c r="C33" t="n">
-        <v>0.817551</v>
+        <v>0.737635</v>
       </c>
       <c r="D33" t="n">
-        <v>0.874013</v>
+        <v>0.799637</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.589161</v>
+        <v>0.493763</v>
       </c>
       <c r="C34" t="n">
-        <v>0.804025</v>
+        <v>0.724251</v>
       </c>
       <c r="D34" t="n">
-        <v>0.85895</v>
+        <v>0.784625</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5835090000000001</v>
+        <v>0.487978</v>
       </c>
       <c r="C35" t="n">
-        <v>0.792282</v>
+        <v>0.712033</v>
       </c>
       <c r="D35" t="n">
-        <v>0.845637</v>
+        <v>0.7712909999999999</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.579759</v>
+        <v>0.484138</v>
       </c>
       <c r="C36" t="n">
-        <v>0.781636</v>
+        <v>0.701451</v>
       </c>
       <c r="D36" t="n">
-        <v>0.834693</v>
+        <v>0.7608</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5785</v>
+        <v>0.482681</v>
       </c>
       <c r="C37" t="n">
-        <v>0.774049</v>
+        <v>0.693732</v>
       </c>
       <c r="D37" t="n">
-        <v>1.12101</v>
+        <v>1.04763</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.735769</v>
+        <v>0.641229</v>
       </c>
       <c r="C38" t="n">
-        <v>1.01876</v>
+        <v>0.9373089999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>1.09271</v>
+        <v>1.01922</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7214390000000001</v>
+        <v>0.626353</v>
       </c>
       <c r="C39" t="n">
-        <v>0.996128</v>
+        <v>0.914578</v>
       </c>
       <c r="D39" t="n">
-        <v>1.06531</v>
+        <v>0.9920099999999999</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.706365</v>
+        <v>0.611147</v>
       </c>
       <c r="C40" t="n">
-        <v>0.972971</v>
+        <v>0.891775</v>
       </c>
       <c r="D40" t="n">
-        <v>1.03922</v>
+        <v>0.96613</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.691064</v>
+        <v>0.596713</v>
       </c>
       <c r="C41" t="n">
-        <v>0.950781</v>
+        <v>0.87038</v>
       </c>
       <c r="D41" t="n">
-        <v>1.01464</v>
+        <v>0.941427</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.677169</v>
+        <v>0.582902</v>
       </c>
       <c r="C42" t="n">
-        <v>0.930245</v>
+        <v>0.849684</v>
       </c>
       <c r="D42" t="n">
-        <v>0.990612</v>
+        <v>0.917984</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.664331</v>
+        <v>0.570095</v>
       </c>
       <c r="C43" t="n">
-        <v>0.910056</v>
+        <v>0.830514</v>
       </c>
       <c r="D43" t="n">
-        <v>0.968294</v>
+        <v>0.895506</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.652426</v>
+        <v>0.5579</v>
       </c>
       <c r="C44" t="n">
-        <v>0.89168</v>
+        <v>0.811937</v>
       </c>
       <c r="D44" t="n">
-        <v>0.947163</v>
+        <v>0.874488</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.640733</v>
+        <v>0.54675</v>
       </c>
       <c r="C45" t="n">
-        <v>0.8742760000000001</v>
+        <v>0.794148</v>
       </c>
       <c r="D45" t="n">
-        <v>0.927281</v>
+        <v>0.854869</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.630291</v>
+        <v>0.537079</v>
       </c>
       <c r="C46" t="n">
-        <v>0.857268</v>
+        <v>0.777618</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9086920000000001</v>
+        <v>0.836022</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.620904</v>
+        <v>0.528285</v>
       </c>
       <c r="C47" t="n">
-        <v>0.842626</v>
+        <v>0.762496</v>
       </c>
       <c r="D47" t="n">
-        <v>0.891074</v>
+        <v>0.8188839999999999</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.612318</v>
+        <v>0.519787</v>
       </c>
       <c r="C48" t="n">
-        <v>0.827325</v>
+        <v>0.749073</v>
       </c>
       <c r="D48" t="n">
-        <v>0.875928</v>
+        <v>0.803045</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.606559</v>
+        <v>0.513811</v>
       </c>
       <c r="C49" t="n">
-        <v>0.814398</v>
+        <v>0.735823</v>
       </c>
       <c r="D49" t="n">
-        <v>0.86154</v>
+        <v>0.789601</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.602233</v>
+        <v>0.509344</v>
       </c>
       <c r="C50" t="n">
-        <v>0.803572</v>
+        <v>0.724934</v>
       </c>
       <c r="D50" t="n">
-        <v>0.8500760000000001</v>
+        <v>0.777695</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.599707</v>
+        <v>0.507246</v>
       </c>
       <c r="C51" t="n">
-        <v>0.795543</v>
+        <v>0.716131</v>
       </c>
       <c r="D51" t="n">
-        <v>1.14278</v>
+        <v>1.07143</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.60017</v>
+        <v>0.5074149999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>0.787883</v>
+        <v>0.709279</v>
       </c>
       <c r="D52" t="n">
-        <v>1.11474</v>
+        <v>1.0428</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.74879</v>
+        <v>0.656235</v>
       </c>
       <c r="C53" t="n">
-        <v>1.01871</v>
+        <v>0.938432</v>
       </c>
       <c r="D53" t="n">
-        <v>1.08724</v>
+        <v>1.0157</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.73345</v>
+        <v>0.640383</v>
       </c>
       <c r="C54" t="n">
-        <v>0.995943</v>
+        <v>0.916227</v>
       </c>
       <c r="D54" t="n">
-        <v>1.06129</v>
+        <v>0.9898</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.719058</v>
+        <v>0.6261139999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>0.97399</v>
+        <v>0.895766</v>
       </c>
       <c r="D55" t="n">
-        <v>1.03662</v>
+        <v>0.9650069999999999</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.704989</v>
+        <v>0.612307</v>
       </c>
       <c r="C56" t="n">
-        <v>0.953904</v>
+        <v>0.874903</v>
       </c>
       <c r="D56" t="n">
-        <v>1.01337</v>
+        <v>0.941931</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.692353</v>
+        <v>0.5991649999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>0.933343</v>
+        <v>0.854473</v>
       </c>
       <c r="D57" t="n">
-        <v>0.991252</v>
+        <v>0.919513</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.679666</v>
+        <v>0.588046</v>
       </c>
       <c r="C58" t="n">
-        <v>0.9154600000000001</v>
+        <v>0.8368679999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>0.969955</v>
+        <v>0.898603</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.668468</v>
+        <v>0.575936</v>
       </c>
       <c r="C59" t="n">
-        <v>0.897749</v>
+        <v>0.818652</v>
       </c>
       <c r="D59" t="n">
-        <v>0.949011</v>
+        <v>0.878254</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.657182</v>
+        <v>0.5654169999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.880887</v>
+        <v>0.802146</v>
       </c>
       <c r="D60" t="n">
-        <v>0.931165</v>
+        <v>0.859778</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.648328</v>
+        <v>0.556702</v>
       </c>
       <c r="C61" t="n">
-        <v>0.86511</v>
+        <v>0.787187</v>
       </c>
       <c r="D61" t="n">
-        <v>0.913687</v>
+        <v>0.842511</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.640109</v>
+        <v>0.548448</v>
       </c>
       <c r="C62" t="n">
-        <v>0.851257</v>
+        <v>0.773248</v>
       </c>
       <c r="D62" t="n">
-        <v>0.898015</v>
+        <v>0.82664</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.633371</v>
+        <v>0.541504</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8381960000000001</v>
+        <v>0.760166</v>
       </c>
       <c r="D63" t="n">
-        <v>0.8836349999999999</v>
+        <v>0.812478</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.627792</v>
+        <v>0.536366</v>
       </c>
       <c r="C64" t="n">
-        <v>0.826467</v>
+        <v>0.749416</v>
       </c>
       <c r="D64" t="n">
-        <v>0.871163</v>
+        <v>0.800994</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.62554</v>
+        <v>0.532866</v>
       </c>
       <c r="C65" t="n">
-        <v>0.816899</v>
+        <v>0.739476</v>
       </c>
       <c r="D65" t="n">
-        <v>0.862344</v>
+        <v>0.790974</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.625073</v>
+        <v>0.532627</v>
       </c>
       <c r="C66" t="n">
-        <v>0.8100039999999999</v>
+        <v>0.733008</v>
       </c>
       <c r="D66" t="n">
-        <v>1.14201</v>
+        <v>1.07157</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.775182</v>
+        <v>0.68205</v>
       </c>
       <c r="C67" t="n">
-        <v>1.05181</v>
+        <v>0.971774</v>
       </c>
       <c r="D67" t="n">
-        <v>1.11448</v>
+        <v>1.04343</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.759084</v>
+        <v>0.665381</v>
       </c>
       <c r="C68" t="n">
-        <v>1.0257</v>
+        <v>0.947744</v>
       </c>
       <c r="D68" t="n">
-        <v>1.0867</v>
+        <v>1.01792</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.743924</v>
+        <v>0.6508699999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>1.00415</v>
+        <v>0.926362</v>
       </c>
       <c r="D69" t="n">
-        <v>1.06129</v>
+        <v>0.99113</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.730169</v>
+        <v>0.636995</v>
       </c>
       <c r="C70" t="n">
-        <v>0.983595</v>
+        <v>0.905516</v>
       </c>
       <c r="D70" t="n">
-        <v>1.03884</v>
+        <v>0.9694120000000001</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.718656</v>
+        <v>0.623736</v>
       </c>
       <c r="C71" t="n">
-        <v>0.965224</v>
+        <v>0.886634</v>
       </c>
       <c r="D71" t="n">
-        <v>1.01753</v>
+        <v>0.946539</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.707466</v>
+        <v>0.611484</v>
       </c>
       <c r="C72" t="n">
-        <v>0.945632</v>
+        <v>0.866895</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9971139999999999</v>
+        <v>0.925823</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.695712</v>
+        <v>0.601366</v>
       </c>
       <c r="C73" t="n">
-        <v>0.928289</v>
+        <v>0.846818</v>
       </c>
       <c r="D73" t="n">
-        <v>0.977129</v>
+        <v>0.903475</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.6846</v>
+        <v>0.589784</v>
       </c>
       <c r="C74" t="n">
-        <v>0.911833</v>
+        <v>0.831165</v>
       </c>
       <c r="D74" t="n">
-        <v>0.958353</v>
+        <v>0.88522</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.674698</v>
+        <v>0.580259</v>
       </c>
       <c r="C75" t="n">
-        <v>0.896712</v>
+        <v>0.814164</v>
       </c>
       <c r="D75" t="n">
-        <v>0.940891</v>
+        <v>0.866885</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.667315</v>
+        <v>0.571889</v>
       </c>
       <c r="C76" t="n">
-        <v>0.880726</v>
+        <v>0.800345</v>
       </c>
       <c r="D76" t="n">
-        <v>0.92482</v>
+        <v>0.851004</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.659538</v>
+        <v>0.564673</v>
       </c>
       <c r="C77" t="n">
-        <v>0.86764</v>
+        <v>0.7876609999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.909678</v>
+        <v>0.836376</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.653149</v>
+        <v>0.5595869999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.853519</v>
+        <v>0.776963</v>
       </c>
       <c r="D78" t="n">
-        <v>0.895875</v>
+        <v>0.825125</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6494760000000001</v>
+        <v>0.555813</v>
       </c>
       <c r="C79" t="n">
-        <v>0.841998</v>
+        <v>0.76651</v>
       </c>
       <c r="D79" t="n">
-        <v>0.884594</v>
+        <v>0.815667</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.648046</v>
+        <v>0.555213</v>
       </c>
       <c r="C80" t="n">
-        <v>0.837388</v>
+        <v>0.758829</v>
       </c>
       <c r="D80" t="n">
-        <v>1.18732</v>
+        <v>1.11831</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.823709</v>
+        <v>0.730775</v>
       </c>
       <c r="C81" t="n">
-        <v>1.0933</v>
+        <v>1.01752</v>
       </c>
       <c r="D81" t="n">
-        <v>1.16137</v>
+        <v>1.09033</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.813809</v>
+        <v>0.718938</v>
       </c>
       <c r="C82" t="n">
-        <v>1.07349</v>
+        <v>0.995874</v>
       </c>
       <c r="D82" t="n">
-        <v>1.13622</v>
+        <v>1.06478</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.801964</v>
+        <v>0.70675</v>
       </c>
       <c r="C83" t="n">
-        <v>1.05307</v>
+        <v>0.974608</v>
       </c>
       <c r="D83" t="n">
-        <v>1.11101</v>
+        <v>1.03936</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.789533</v>
+        <v>0.694649</v>
       </c>
       <c r="C84" t="n">
-        <v>1.03281</v>
+        <v>0.953091</v>
       </c>
       <c r="D84" t="n">
-        <v>1.08786</v>
+        <v>1.01488</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.77628</v>
+        <v>0.682664</v>
       </c>
       <c r="C85" t="n">
-        <v>1.01259</v>
+        <v>0.9333360000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>1.0642</v>
+        <v>0.991516</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.764216</v>
+        <v>0.670157</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9932569999999999</v>
+        <v>0.912934</v>
       </c>
       <c r="D86" t="n">
-        <v>1.04243</v>
+        <v>0.969265</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.752156</v>
+        <v>0.658149</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9755819999999999</v>
+        <v>0.895423</v>
       </c>
       <c r="D87" t="n">
-        <v>1.02434</v>
+        <v>0.948223</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.743412</v>
+        <v>0.647105</v>
       </c>
       <c r="C88" t="n">
-        <v>0.960387</v>
+        <v>0.877467</v>
       </c>
       <c r="D88" t="n">
-        <v>1.00532</v>
+        <v>0.928112</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.732757</v>
+        <v>0.636288</v>
       </c>
       <c r="C89" t="n">
-        <v>0.943985</v>
+        <v>0.86092</v>
       </c>
       <c r="D89" t="n">
-        <v>0.985812</v>
+        <v>0.9097769999999999</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.721089</v>
+        <v>0.626681</v>
       </c>
       <c r="C90" t="n">
-        <v>0.927575</v>
+        <v>0.845825</v>
       </c>
       <c r="D90" t="n">
-        <v>0.967761</v>
+        <v>0.892667</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.712224</v>
+        <v>0.61899</v>
       </c>
       <c r="C91" t="n">
-        <v>0.912729</v>
+        <v>0.8323120000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>0.950757</v>
+        <v>0.876943</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.703908</v>
+        <v>0.6109560000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>0.898799</v>
+        <v>0.818092</v>
       </c>
       <c r="D92" t="n">
-        <v>0.936519</v>
+        <v>0.862318</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.698482</v>
+        <v>0.605698</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8880130000000001</v>
+        <v>0.807801</v>
       </c>
       <c r="D93" t="n">
-        <v>0.925742</v>
+        <v>0.8521</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.696141</v>
+        <v>0.603948</v>
       </c>
       <c r="C94" t="n">
-        <v>0.879659</v>
+        <v>0.799116</v>
       </c>
       <c r="D94" t="n">
-        <v>1.24643</v>
+        <v>1.17166</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.878799</v>
+        <v>0.786313</v>
       </c>
       <c r="C95" t="n">
-        <v>1.14668</v>
+        <v>1.06411</v>
       </c>
       <c r="D95" t="n">
-        <v>1.23761</v>
+        <v>1.16057</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.886951</v>
+        <v>0.788057</v>
       </c>
       <c r="C96" t="n">
-        <v>1.15059</v>
+        <v>1.06204</v>
       </c>
       <c r="D96" t="n">
-        <v>1.22549</v>
+        <v>1.14363</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.888274</v>
+        <v>0.782783</v>
       </c>
       <c r="C97" t="n">
-        <v>1.14514</v>
+        <v>1.05232</v>
       </c>
       <c r="D97" t="n">
-        <v>1.21115</v>
+        <v>1.12529</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.884794</v>
+        <v>0.775021</v>
       </c>
       <c r="C98" t="n">
-        <v>1.13492</v>
+        <v>1.04006</v>
       </c>
       <c r="D98" t="n">
-        <v>1.19456</v>
+        <v>1.10598</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.877943</v>
+        <v>0.767518</v>
       </c>
       <c r="C99" t="n">
-        <v>1.12235</v>
+        <v>1.02607</v>
       </c>
       <c r="D99" t="n">
-        <v>1.17633</v>
+        <v>1.0868</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.870553</v>
+        <v>0.758248</v>
       </c>
       <c r="C100" t="n">
-        <v>1.11038</v>
+        <v>1.01065</v>
       </c>
       <c r="D100" t="n">
-        <v>1.15719</v>
+        <v>1.06575</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.86333</v>
+        <v>0.7490790000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>1.09713</v>
+        <v>0.996097</v>
       </c>
       <c r="D101" t="n">
-        <v>1.13932</v>
+        <v>1.04611</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.855531</v>
+        <v>0.74031</v>
       </c>
       <c r="C102" t="n">
-        <v>1.0846</v>
+        <v>0.981425</v>
       </c>
       <c r="D102" t="n">
-        <v>1.12318</v>
+        <v>1.02785</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.847639</v>
+        <v>0.731772</v>
       </c>
       <c r="C103" t="n">
-        <v>1.07148</v>
+        <v>0.96832</v>
       </c>
       <c r="D103" t="n">
-        <v>1.10551</v>
+        <v>1.0112</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.841766</v>
+        <v>0.723869</v>
       </c>
       <c r="C104" t="n">
-        <v>1.06226</v>
+        <v>0.95453</v>
       </c>
       <c r="D104" t="n">
-        <v>1.09159</v>
+        <v>0.993294</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.834025</v>
+        <v>0.716882</v>
       </c>
       <c r="C105" t="n">
-        <v>1.04992</v>
+        <v>0.942304</v>
       </c>
       <c r="D105" t="n">
-        <v>1.07797</v>
+        <v>0.978536</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.829035</v>
+        <v>0.711244</v>
       </c>
       <c r="C106" t="n">
-        <v>1.04024</v>
+        <v>0.931691</v>
       </c>
       <c r="D106" t="n">
-        <v>1.06591</v>
+        <v>0.965078</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.825566</v>
+        <v>0.706853</v>
       </c>
       <c r="C107" t="n">
-        <v>1.03219</v>
+        <v>0.922198</v>
       </c>
       <c r="D107" t="n">
-        <v>1.05446</v>
+        <v>0.954274</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.822213</v>
+        <v>0.705713</v>
       </c>
       <c r="C108" t="n">
-        <v>1.0265</v>
+        <v>0.9133790000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>1.37634</v>
+        <v>1.27475</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.821576</v>
+        <v>0.7072850000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>1.02108</v>
+        <v>0.908412</v>
       </c>
       <c r="D109" t="n">
-        <v>1.38452</v>
+        <v>1.27506</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.01612</v>
+        <v>0.894546</v>
       </c>
       <c r="C110" t="n">
-        <v>1.30688</v>
+        <v>1.18276</v>
       </c>
       <c r="D110" t="n">
-        <v>1.38097</v>
+        <v>1.26649</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.02199</v>
+        <v>0.891481</v>
       </c>
       <c r="C111" t="n">
-        <v>1.30927</v>
+        <v>1.18131</v>
       </c>
       <c r="D111" t="n">
-        <v>1.37584</v>
+        <v>1.25742</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.02771</v>
+        <v>0.887448</v>
       </c>
       <c r="C112" t="n">
-        <v>1.31076</v>
+        <v>1.17818</v>
       </c>
       <c r="D112" t="n">
-        <v>1.37379</v>
+        <v>1.25138</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.03171</v>
+        <v>0.882833</v>
       </c>
       <c r="C113" t="n">
-        <v>1.31234</v>
+        <v>1.17394</v>
       </c>
       <c r="D113" t="n">
-        <v>1.36917</v>
+        <v>1.24101</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.03569</v>
+        <v>0.879364</v>
       </c>
       <c r="C114" t="n">
-        <v>1.31237</v>
+        <v>1.17067</v>
       </c>
       <c r="D114" t="n">
-        <v>1.3642</v>
+        <v>1.23334</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.03958</v>
+        <v>0.8753649999999999</v>
       </c>
       <c r="C115" t="n">
-        <v>1.31322</v>
+        <v>1.16767</v>
       </c>
       <c r="D115" t="n">
-        <v>1.3608</v>
+        <v>1.22687</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.04297</v>
+        <v>0.872831</v>
       </c>
       <c r="C116" t="n">
-        <v>1.31414</v>
+        <v>1.16283</v>
       </c>
       <c r="D116" t="n">
-        <v>1.35542</v>
+        <v>1.21746</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.04517</v>
+        <v>0.869041</v>
       </c>
       <c r="C117" t="n">
-        <v>1.31546</v>
+        <v>1.16063</v>
       </c>
       <c r="D117" t="n">
-        <v>1.35117</v>
+        <v>1.2103</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.04966</v>
+        <v>0.867313</v>
       </c>
       <c r="C118" t="n">
-        <v>1.3164</v>
+        <v>1.15753</v>
       </c>
       <c r="D118" t="n">
-        <v>1.34825</v>
+        <v>1.20484</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.05376</v>
+        <v>0.865802</v>
       </c>
       <c r="C119" t="n">
-        <v>1.31737</v>
+        <v>1.15554</v>
       </c>
       <c r="D119" t="n">
-        <v>1.344</v>
+        <v>1.19862</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.05656</v>
+        <v>0.865639</v>
       </c>
       <c r="C120" t="n">
-        <v>1.31784</v>
+        <v>1.15368</v>
       </c>
       <c r="D120" t="n">
-        <v>1.34138</v>
+        <v>1.19287</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.05976</v>
+        <v>0.865771</v>
       </c>
       <c r="C121" t="n">
-        <v>1.31959</v>
+        <v>1.15154</v>
       </c>
       <c r="D121" t="n">
-        <v>1.33854</v>
+        <v>1.18758</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.06545</v>
+        <v>0.866737</v>
       </c>
       <c r="C122" t="n">
-        <v>1.32195</v>
+        <v>1.15005</v>
       </c>
       <c r="D122" t="n">
-        <v>1.33715</v>
+        <v>1.18458</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.07228</v>
+        <v>0.869927</v>
       </c>
       <c r="C123" t="n">
-        <v>1.32719</v>
+        <v>1.14932</v>
       </c>
       <c r="D123" t="n">
-        <v>1.6759</v>
+        <v>1.50782</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.26066</v>
+        <v>1.0588</v>
       </c>
       <c r="C124" t="n">
-        <v>1.61286</v>
+        <v>1.4238</v>
       </c>
       <c r="D124" t="n">
-        <v>1.67776</v>
+        <v>1.50086</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.26432</v>
+        <v>1.05976</v>
       </c>
       <c r="C125" t="n">
-        <v>1.61794</v>
+        <v>1.41905</v>
       </c>
       <c r="D125" t="n">
-        <v>1.6791</v>
+        <v>1.49377</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.26914</v>
+        <v>1.05934</v>
       </c>
       <c r="C126" t="n">
-        <v>1.62377</v>
+        <v>1.41725</v>
       </c>
       <c r="D126" t="n">
-        <v>1.67971</v>
+        <v>1.48731</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.27192</v>
+        <v>1.05954</v>
       </c>
       <c r="C127" t="n">
-        <v>1.6311</v>
+        <v>1.41486</v>
       </c>
       <c r="D127" t="n">
-        <v>1.68356</v>
+        <v>1.48471</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.27645</v>
+        <v>1.05975</v>
       </c>
       <c r="C128" t="n">
-        <v>1.63619</v>
+        <v>1.41504</v>
       </c>
       <c r="D128" t="n">
-        <v>1.68285</v>
+        <v>1.47512</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.28113</v>
+        <v>1.06076</v>
       </c>
       <c r="C129" t="n">
-        <v>1.64215</v>
+        <v>1.41091</v>
       </c>
       <c r="D129" t="n">
-        <v>1.68552</v>
+        <v>1.47167</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.28261</v>
+        <v>1.06132</v>
       </c>
       <c r="C130" t="n">
-        <v>1.64805</v>
+        <v>1.41177</v>
       </c>
       <c r="D130" t="n">
-        <v>1.68727</v>
+        <v>1.46688</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.28697</v>
+        <v>1.06252</v>
       </c>
       <c r="C131" t="n">
-        <v>1.65193</v>
+        <v>1.41205</v>
       </c>
       <c r="D131" t="n">
-        <v>1.68954</v>
+        <v>1.46001</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.29094</v>
+        <v>1.06432</v>
       </c>
       <c r="C132" t="n">
-        <v>1.65858</v>
+        <v>1.41138</v>
       </c>
       <c r="D132" t="n">
-        <v>1.69125</v>
+        <v>1.46298</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.29442</v>
+        <v>1.06675</v>
       </c>
       <c r="C133" t="n">
-        <v>1.66339</v>
+        <v>1.41376</v>
       </c>
       <c r="D133" t="n">
-        <v>1.69136</v>
+        <v>1.4603</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.30609</v>
+        <v>1.06936</v>
       </c>
       <c r="C134" t="n">
-        <v>1.66891</v>
+        <v>1.4125</v>
       </c>
       <c r="D134" t="n">
-        <v>1.69481</v>
+        <v>1.45087</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.30558</v>
+        <v>1.07236</v>
       </c>
       <c r="C135" t="n">
-        <v>1.67573</v>
+        <v>1.41061</v>
       </c>
       <c r="D135" t="n">
-        <v>1.69842</v>
+        <v>1.45216</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.31374</v>
+        <v>1.07722</v>
       </c>
       <c r="C136" t="n">
-        <v>1.6838</v>
+        <v>1.41682</v>
       </c>
       <c r="D136" t="n">
-        <v>1.71154</v>
+        <v>1.44862</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.32443</v>
+        <v>1.08326</v>
       </c>
       <c r="C137" t="n">
-        <v>1.69411</v>
+        <v>1.41947</v>
       </c>
       <c r="D137" t="n">
-        <v>2.046</v>
+        <v>1.77134</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.51321</v>
+        <v>1.2721</v>
       </c>
       <c r="C138" t="n">
-        <v>1.9799</v>
+        <v>1.68858</v>
       </c>
       <c r="D138" t="n">
-        <v>2.04543</v>
+        <v>1.76459</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.51539</v>
+        <v>1.27532</v>
       </c>
       <c r="C139" t="n">
-        <v>1.98986</v>
+        <v>1.68354</v>
       </c>
       <c r="D139" t="n">
-        <v>2.05237</v>
+        <v>1.75458</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.51231</v>
+        <v>1.27752</v>
       </c>
       <c r="C140" t="n">
-        <v>1.99759</v>
+        <v>1.67485</v>
       </c>
       <c r="D140" t="n">
-        <v>2.057</v>
+        <v>1.7472</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.5157</v>
+        <v>1.28067</v>
       </c>
       <c r="C141" t="n">
-        <v>2.00789</v>
+        <v>1.67025</v>
       </c>
       <c r="D141" t="n">
-        <v>2.06273</v>
+        <v>1.73262</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.51592</v>
+        <v>1.28378</v>
       </c>
       <c r="C142" t="n">
-        <v>2.0149</v>
+        <v>1.66334</v>
       </c>
       <c r="D142" t="n">
-        <v>2.06917</v>
+        <v>1.72337</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.51608</v>
+        <v>1.28698</v>
       </c>
       <c r="C143" t="n">
-        <v>2.02275</v>
+        <v>1.66132</v>
       </c>
       <c r="D143" t="n">
-        <v>2.07168</v>
+        <v>1.7164</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.480315</v>
+        <v>0.480129</v>
       </c>
       <c r="C2" t="n">
-        <v>0.738209</v>
+        <v>0.746066</v>
       </c>
       <c r="D2" t="n">
-        <v>0.793778</v>
+        <v>0.792246</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.470259</v>
+        <v>0.470044</v>
       </c>
       <c r="C3" t="n">
-        <v>0.724117</v>
+        <v>0.730239</v>
       </c>
       <c r="D3" t="n">
-        <v>0.777578</v>
+        <v>0.7746189999999999</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.463103</v>
+        <v>0.462532</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7108449999999999</v>
+        <v>0.716276</v>
       </c>
       <c r="D4" t="n">
-        <v>0.762273</v>
+        <v>0.75925</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.456929</v>
+        <v>0.455775</v>
       </c>
       <c r="C5" t="n">
-        <v>0.698244</v>
+        <v>0.7054049999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.748463</v>
+        <v>0.746875</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.452055</v>
+        <v>0.450954</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6862549999999999</v>
+        <v>0.693126</v>
       </c>
       <c r="D6" t="n">
-        <v>0.735451</v>
+        <v>0.733741</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.447765</v>
+        <v>0.447107</v>
       </c>
       <c r="C7" t="n">
-        <v>0.676412</v>
+        <v>0.683063</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7239910000000001</v>
+        <v>0.722696</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.446801</v>
+        <v>0.446019</v>
       </c>
       <c r="C8" t="n">
-        <v>0.668521</v>
+        <v>0.674938</v>
       </c>
       <c r="D8" t="n">
-        <v>0.715348</v>
+        <v>0.714272</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.450165</v>
+        <v>0.449188</v>
       </c>
       <c r="C9" t="n">
-        <v>0.662776</v>
+        <v>0.668996</v>
       </c>
       <c r="D9" t="n">
-        <v>0.964039</v>
+        <v>0.962274</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.564393</v>
+        <v>0.564266</v>
       </c>
       <c r="C10" t="n">
-        <v>0.865537</v>
+        <v>0.877231</v>
       </c>
       <c r="D10" t="n">
-        <v>0.938449</v>
+        <v>0.936427</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.550654</v>
+        <v>0.550582</v>
       </c>
       <c r="C11" t="n">
-        <v>0.844147</v>
+        <v>0.854999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.914025</v>
+        <v>0.911727</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.538225</v>
+        <v>0.537945</v>
       </c>
       <c r="C12" t="n">
-        <v>0.824211</v>
+        <v>0.8348</v>
       </c>
       <c r="D12" t="n">
-        <v>0.890852</v>
+        <v>0.888463</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.525969</v>
+        <v>0.525618</v>
       </c>
       <c r="C13" t="n">
-        <v>0.804848</v>
+        <v>0.814446</v>
       </c>
       <c r="D13" t="n">
-        <v>0.868942</v>
+        <v>0.866434</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.514794</v>
+        <v>0.514587</v>
       </c>
       <c r="C14" t="n">
-        <v>0.786724</v>
+        <v>0.795607</v>
       </c>
       <c r="D14" t="n">
-        <v>0.84727</v>
+        <v>0.845831</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.504355</v>
+        <v>0.50373</v>
       </c>
       <c r="C15" t="n">
-        <v>0.769604</v>
+        <v>0.778456</v>
       </c>
       <c r="D15" t="n">
-        <v>0.827566</v>
+        <v>0.826121</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.494309</v>
+        <v>0.493884</v>
       </c>
       <c r="C16" t="n">
-        <v>0.753262</v>
+        <v>0.761408</v>
       </c>
       <c r="D16" t="n">
-        <v>0.808707</v>
+        <v>0.807404</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.485189</v>
+        <v>0.484786</v>
       </c>
       <c r="C17" t="n">
-        <v>0.737702</v>
+        <v>0.745237</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7908809999999999</v>
+        <v>0.7886</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.476965</v>
+        <v>0.476968</v>
       </c>
       <c r="C18" t="n">
-        <v>0.723274</v>
+        <v>0.729147</v>
       </c>
       <c r="D18" t="n">
-        <v>0.774915</v>
+        <v>0.773253</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.469997</v>
+        <v>0.469316</v>
       </c>
       <c r="C19" t="n">
-        <v>0.710144</v>
+        <v>0.717445</v>
       </c>
       <c r="D19" t="n">
-        <v>0.759414</v>
+        <v>0.758208</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.464292</v>
+        <v>0.463703</v>
       </c>
       <c r="C20" t="n">
-        <v>0.69745</v>
+        <v>0.704238</v>
       </c>
       <c r="D20" t="n">
-        <v>0.74615</v>
+        <v>0.74441</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.460097</v>
+        <v>0.459364</v>
       </c>
       <c r="C21" t="n">
-        <v>0.686242</v>
+        <v>0.692961</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7338789999999999</v>
+        <v>0.732576</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.457917</v>
+        <v>0.457062</v>
       </c>
       <c r="C22" t="n">
-        <v>0.677324</v>
+        <v>0.683655</v>
       </c>
       <c r="D22" t="n">
-        <v>0.725064</v>
+        <v>0.723587</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.458061</v>
+        <v>0.457276</v>
       </c>
       <c r="C23" t="n">
-        <v>0.670126</v>
+        <v>0.676632</v>
       </c>
       <c r="D23" t="n">
-        <v>1.02456</v>
+        <v>1.02259</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.607129</v>
+        <v>0.607139</v>
       </c>
       <c r="C24" t="n">
-        <v>0.905535</v>
+        <v>0.917737</v>
       </c>
       <c r="D24" t="n">
-        <v>0.99698</v>
+        <v>0.994772</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.592394</v>
+        <v>0.592001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.882973</v>
+        <v>0.894474</v>
       </c>
       <c r="D25" t="n">
-        <v>0.969766</v>
+        <v>0.967959</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.578295</v>
+        <v>0.57761</v>
       </c>
       <c r="C26" t="n">
-        <v>0.861341</v>
+        <v>0.872266</v>
       </c>
       <c r="D26" t="n">
-        <v>0.944066</v>
+        <v>0.942356</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.564829</v>
+        <v>0.564044</v>
       </c>
       <c r="C27" t="n">
-        <v>0.840632</v>
+        <v>0.8509139999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>0.919452</v>
+        <v>0.918028</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.552051</v>
+        <v>0.551654</v>
       </c>
       <c r="C28" t="n">
-        <v>0.820906</v>
+        <v>0.830871</v>
       </c>
       <c r="D28" t="n">
-        <v>0.896679</v>
+        <v>0.894954</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.539793</v>
+        <v>0.5393869999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8019500000000001</v>
+        <v>0.8115560000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.87461</v>
+        <v>0.873235</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.528466</v>
+        <v>0.5280629999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.784341</v>
+        <v>0.793382</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8540410000000001</v>
+        <v>0.8525</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.518201</v>
+        <v>0.517836</v>
       </c>
       <c r="C31" t="n">
-        <v>0.767741</v>
+        <v>0.776196</v>
       </c>
       <c r="D31" t="n">
-        <v>0.834342</v>
+        <v>0.83292</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.508889</v>
+        <v>0.508695</v>
       </c>
       <c r="C32" t="n">
-        <v>0.751976</v>
+        <v>0.7605690000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.816347</v>
+        <v>0.814875</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.50091</v>
+        <v>0.5008010000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.737635</v>
+        <v>0.745259</v>
       </c>
       <c r="D33" t="n">
-        <v>0.799637</v>
+        <v>0.798198</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.493763</v>
+        <v>0.493318</v>
       </c>
       <c r="C34" t="n">
-        <v>0.724251</v>
+        <v>0.731559</v>
       </c>
       <c r="D34" t="n">
-        <v>0.784625</v>
+        <v>0.7832480000000001</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.487978</v>
+        <v>0.48755</v>
       </c>
       <c r="C35" t="n">
-        <v>0.712033</v>
+        <v>0.719113</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7712909999999999</v>
+        <v>0.7698199999999999</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.484138</v>
+        <v>0.48333</v>
       </c>
       <c r="C36" t="n">
-        <v>0.701451</v>
+        <v>0.708383</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7608</v>
+        <v>0.75931</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.482681</v>
+        <v>0.48196</v>
       </c>
       <c r="C37" t="n">
-        <v>0.693732</v>
+        <v>0.700621</v>
       </c>
       <c r="D37" t="n">
-        <v>1.04763</v>
+        <v>1.04512</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.641229</v>
+        <v>0.640236</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9373089999999999</v>
+        <v>0.949643</v>
       </c>
       <c r="D38" t="n">
-        <v>1.01922</v>
+        <v>1.01731</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.626353</v>
+        <v>0.625306</v>
       </c>
       <c r="C39" t="n">
-        <v>0.914578</v>
+        <v>0.926295</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9920099999999999</v>
+        <v>0.989993</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.611147</v>
+        <v>0.610057</v>
       </c>
       <c r="C40" t="n">
-        <v>0.891775</v>
+        <v>0.903394</v>
       </c>
       <c r="D40" t="n">
-        <v>0.96613</v>
+        <v>0.964269</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.596713</v>
+        <v>0.595846</v>
       </c>
       <c r="C41" t="n">
-        <v>0.87038</v>
+        <v>0.881136</v>
       </c>
       <c r="D41" t="n">
-        <v>0.941427</v>
+        <v>0.939488</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.582902</v>
+        <v>0.581686</v>
       </c>
       <c r="C42" t="n">
-        <v>0.849684</v>
+        <v>0.860091</v>
       </c>
       <c r="D42" t="n">
-        <v>0.917984</v>
+        <v>0.9163249999999999</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.570095</v>
+        <v>0.568817</v>
       </c>
       <c r="C43" t="n">
-        <v>0.830514</v>
+        <v>0.8398600000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.895506</v>
+        <v>0.8939319999999999</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5579</v>
+        <v>0.556725</v>
       </c>
       <c r="C44" t="n">
-        <v>0.811937</v>
+        <v>0.820747</v>
       </c>
       <c r="D44" t="n">
-        <v>0.874488</v>
+        <v>0.872792</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.54675</v>
+        <v>0.5456260000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>0.794148</v>
+        <v>0.803319</v>
       </c>
       <c r="D45" t="n">
-        <v>0.854869</v>
+        <v>0.8531300000000001</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.537079</v>
+        <v>0.535727</v>
       </c>
       <c r="C46" t="n">
-        <v>0.777618</v>
+        <v>0.787091</v>
       </c>
       <c r="D46" t="n">
-        <v>0.836022</v>
+        <v>0.834358</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.528285</v>
+        <v>0.52627</v>
       </c>
       <c r="C47" t="n">
-        <v>0.762496</v>
+        <v>0.77044</v>
       </c>
       <c r="D47" t="n">
-        <v>0.8188839999999999</v>
+        <v>0.817529</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.519787</v>
+        <v>0.518992</v>
       </c>
       <c r="C48" t="n">
-        <v>0.749073</v>
+        <v>0.756397</v>
       </c>
       <c r="D48" t="n">
-        <v>0.803045</v>
+        <v>0.80125</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.513811</v>
+        <v>0.5119089999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.735823</v>
+        <v>0.743448</v>
       </c>
       <c r="D49" t="n">
-        <v>0.789601</v>
+        <v>0.787218</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.509344</v>
+        <v>0.507692</v>
       </c>
       <c r="C50" t="n">
-        <v>0.724934</v>
+        <v>0.732177</v>
       </c>
       <c r="D50" t="n">
-        <v>0.777695</v>
+        <v>0.776166</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.507246</v>
+        <v>0.505816</v>
       </c>
       <c r="C51" t="n">
-        <v>0.716131</v>
+        <v>0.72255</v>
       </c>
       <c r="D51" t="n">
-        <v>1.07143</v>
+        <v>1.06832</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5074149999999999</v>
+        <v>0.506646</v>
       </c>
       <c r="C52" t="n">
-        <v>0.709279</v>
+        <v>0.715734</v>
       </c>
       <c r="D52" t="n">
-        <v>1.0428</v>
+        <v>1.04072</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.656235</v>
+        <v>0.65489</v>
       </c>
       <c r="C53" t="n">
-        <v>0.938432</v>
+        <v>0.951142</v>
       </c>
       <c r="D53" t="n">
-        <v>1.0157</v>
+        <v>1.01351</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.640383</v>
+        <v>0.639456</v>
       </c>
       <c r="C54" t="n">
-        <v>0.916227</v>
+        <v>0.928401</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9898</v>
+        <v>0.987418</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.6261139999999999</v>
+        <v>0.625099</v>
       </c>
       <c r="C55" t="n">
-        <v>0.895766</v>
+        <v>0.905704</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9650069999999999</v>
+        <v>0.962938</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.612307</v>
+        <v>0.611349</v>
       </c>
       <c r="C56" t="n">
-        <v>0.874903</v>
+        <v>0.884692</v>
       </c>
       <c r="D56" t="n">
-        <v>0.941931</v>
+        <v>0.939742</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5991649999999999</v>
+        <v>0.59833</v>
       </c>
       <c r="C57" t="n">
-        <v>0.854473</v>
+        <v>0.864309</v>
       </c>
       <c r="D57" t="n">
-        <v>0.919513</v>
+        <v>0.917571</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.588046</v>
+        <v>0.586225</v>
       </c>
       <c r="C58" t="n">
-        <v>0.8368679999999999</v>
+        <v>0.846429</v>
       </c>
       <c r="D58" t="n">
-        <v>0.898603</v>
+        <v>0.896226</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.575936</v>
+        <v>0.574971</v>
       </c>
       <c r="C59" t="n">
-        <v>0.818652</v>
+        <v>0.827616</v>
       </c>
       <c r="D59" t="n">
-        <v>0.878254</v>
+        <v>0.876664</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5654169999999999</v>
+        <v>0.56481</v>
       </c>
       <c r="C60" t="n">
-        <v>0.802146</v>
+        <v>0.811406</v>
       </c>
       <c r="D60" t="n">
-        <v>0.859778</v>
+        <v>0.858756</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.556702</v>
+        <v>0.555769</v>
       </c>
       <c r="C61" t="n">
-        <v>0.787187</v>
+        <v>0.795251</v>
       </c>
       <c r="D61" t="n">
-        <v>0.842511</v>
+        <v>0.8411920000000001</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.548448</v>
+        <v>0.547385</v>
       </c>
       <c r="C62" t="n">
-        <v>0.773248</v>
+        <v>0.78105</v>
       </c>
       <c r="D62" t="n">
-        <v>0.82664</v>
+        <v>0.825264</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.541504</v>
+        <v>0.540431</v>
       </c>
       <c r="C63" t="n">
-        <v>0.760166</v>
+        <v>0.7670090000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.812478</v>
+        <v>0.808498</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.536366</v>
+        <v>0.532587</v>
       </c>
       <c r="C64" t="n">
-        <v>0.749416</v>
+        <v>0.753151</v>
       </c>
       <c r="D64" t="n">
-        <v>0.800994</v>
+        <v>0.79867</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.532866</v>
+        <v>0.532195</v>
       </c>
       <c r="C65" t="n">
-        <v>0.739476</v>
+        <v>0.745648</v>
       </c>
       <c r="D65" t="n">
-        <v>0.790974</v>
+        <v>0.789625</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.532627</v>
+        <v>0.53198</v>
       </c>
       <c r="C66" t="n">
-        <v>0.733008</v>
+        <v>0.738653</v>
       </c>
       <c r="D66" t="n">
-        <v>1.07157</v>
+        <v>1.06801</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.68205</v>
+        <v>0.680177</v>
       </c>
       <c r="C67" t="n">
-        <v>0.971774</v>
+        <v>0.984294</v>
       </c>
       <c r="D67" t="n">
-        <v>1.04343</v>
+        <v>1.04105</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.665381</v>
+        <v>0.66418</v>
       </c>
       <c r="C68" t="n">
-        <v>0.947744</v>
+        <v>0.958654</v>
       </c>
       <c r="D68" t="n">
-        <v>1.01792</v>
+        <v>1.01432</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6508699999999999</v>
+        <v>0.649438</v>
       </c>
       <c r="C69" t="n">
-        <v>0.926362</v>
+        <v>0.936572</v>
       </c>
       <c r="D69" t="n">
-        <v>0.99113</v>
+        <v>0.989627</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.636995</v>
+        <v>0.636317</v>
       </c>
       <c r="C70" t="n">
-        <v>0.905516</v>
+        <v>0.915443</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9694120000000001</v>
+        <v>0.966498</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.623736</v>
+        <v>0.625461</v>
       </c>
       <c r="C71" t="n">
-        <v>0.886634</v>
+        <v>0.895188</v>
       </c>
       <c r="D71" t="n">
-        <v>0.946539</v>
+        <v>0.944504</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.611484</v>
+        <v>0.610698</v>
       </c>
       <c r="C72" t="n">
-        <v>0.866895</v>
+        <v>0.87485</v>
       </c>
       <c r="D72" t="n">
-        <v>0.925823</v>
+        <v>0.922214</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.601366</v>
+        <v>0.600145</v>
       </c>
       <c r="C73" t="n">
-        <v>0.846818</v>
+        <v>0.857162</v>
       </c>
       <c r="D73" t="n">
-        <v>0.903475</v>
+        <v>0.9025300000000001</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.589784</v>
+        <v>0.58954</v>
       </c>
       <c r="C74" t="n">
-        <v>0.831165</v>
+        <v>0.838707</v>
       </c>
       <c r="D74" t="n">
-        <v>0.88522</v>
+        <v>0.882892</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.580259</v>
+        <v>0.580492</v>
       </c>
       <c r="C75" t="n">
-        <v>0.814164</v>
+        <v>0.823188</v>
       </c>
       <c r="D75" t="n">
-        <v>0.866885</v>
+        <v>0.864693</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.571889</v>
+        <v>0.571028</v>
       </c>
       <c r="C76" t="n">
-        <v>0.800345</v>
+        <v>0.806381</v>
       </c>
       <c r="D76" t="n">
-        <v>0.851004</v>
+        <v>0.848437</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.564673</v>
+        <v>0.56429</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7876609999999999</v>
+        <v>0.796498</v>
       </c>
       <c r="D77" t="n">
-        <v>0.836376</v>
+        <v>0.835936</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5595869999999999</v>
+        <v>0.55906</v>
       </c>
       <c r="C78" t="n">
-        <v>0.776963</v>
+        <v>0.783591</v>
       </c>
       <c r="D78" t="n">
-        <v>0.825125</v>
+        <v>0.824951</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.555813</v>
+        <v>0.55525</v>
       </c>
       <c r="C79" t="n">
-        <v>0.76651</v>
+        <v>0.771493</v>
       </c>
       <c r="D79" t="n">
-        <v>0.815667</v>
+        <v>0.811921</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.555213</v>
+        <v>0.554616</v>
       </c>
       <c r="C80" t="n">
-        <v>0.758829</v>
+        <v>0.763969</v>
       </c>
       <c r="D80" t="n">
-        <v>1.11831</v>
+        <v>1.11583</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.730775</v>
+        <v>0.730275</v>
       </c>
       <c r="C81" t="n">
-        <v>1.01752</v>
+        <v>1.02934</v>
       </c>
       <c r="D81" t="n">
-        <v>1.09033</v>
+        <v>1.08895</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.718938</v>
+        <v>0.71917</v>
       </c>
       <c r="C82" t="n">
-        <v>0.995874</v>
+        <v>1.00829</v>
       </c>
       <c r="D82" t="n">
-        <v>1.06478</v>
+        <v>1.0628</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.70675</v>
+        <v>0.707282</v>
       </c>
       <c r="C83" t="n">
-        <v>0.974608</v>
+        <v>0.9862919999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>1.03936</v>
+        <v>1.03849</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.694649</v>
+        <v>0.694636</v>
       </c>
       <c r="C84" t="n">
-        <v>0.953091</v>
+        <v>0.963773</v>
       </c>
       <c r="D84" t="n">
-        <v>1.01488</v>
+        <v>1.01359</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.682664</v>
+        <v>0.681328</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9333360000000001</v>
+        <v>0.943604</v>
       </c>
       <c r="D85" t="n">
-        <v>0.991516</v>
+        <v>0.988764</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.670157</v>
+        <v>0.668459</v>
       </c>
       <c r="C86" t="n">
-        <v>0.912934</v>
+        <v>0.92508</v>
       </c>
       <c r="D86" t="n">
-        <v>0.969265</v>
+        <v>0.968993</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.658149</v>
+        <v>0.658877</v>
       </c>
       <c r="C87" t="n">
-        <v>0.895423</v>
+        <v>0.907639</v>
       </c>
       <c r="D87" t="n">
-        <v>0.948223</v>
+        <v>0.948831</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.647105</v>
+        <v>0.647813</v>
       </c>
       <c r="C88" t="n">
-        <v>0.877467</v>
+        <v>0.8889550000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>0.928112</v>
+        <v>0.9280890000000001</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.636288</v>
+        <v>0.637066</v>
       </c>
       <c r="C89" t="n">
-        <v>0.86092</v>
+        <v>0.871825</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9097769999999999</v>
+        <v>0.909646</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.626681</v>
+        <v>0.627347</v>
       </c>
       <c r="C90" t="n">
-        <v>0.845825</v>
+        <v>0.855308</v>
       </c>
       <c r="D90" t="n">
-        <v>0.892667</v>
+        <v>0.892115</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.61899</v>
+        <v>0.618381</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8323120000000001</v>
+        <v>0.840209</v>
       </c>
       <c r="D91" t="n">
-        <v>0.876943</v>
+        <v>0.8762</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.6109560000000001</v>
+        <v>0.611115</v>
       </c>
       <c r="C92" t="n">
-        <v>0.818092</v>
+        <v>0.826549</v>
       </c>
       <c r="D92" t="n">
-        <v>0.862318</v>
+        <v>0.8619520000000001</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.605698</v>
+        <v>0.605571</v>
       </c>
       <c r="C93" t="n">
-        <v>0.807801</v>
+        <v>0.816495</v>
       </c>
       <c r="D93" t="n">
-        <v>0.8521</v>
+        <v>0.851532</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.603948</v>
+        <v>0.604531</v>
       </c>
       <c r="C94" t="n">
-        <v>0.799116</v>
+        <v>0.806599</v>
       </c>
       <c r="D94" t="n">
-        <v>1.17166</v>
+        <v>1.1688</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.786313</v>
+        <v>0.784605</v>
       </c>
       <c r="C95" t="n">
-        <v>1.06411</v>
+        <v>1.07595</v>
       </c>
       <c r="D95" t="n">
-        <v>1.16057</v>
+        <v>1.15691</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.788057</v>
+        <v>0.787177</v>
       </c>
       <c r="C96" t="n">
-        <v>1.06204</v>
+        <v>1.0725</v>
       </c>
       <c r="D96" t="n">
-        <v>1.14363</v>
+        <v>1.14112</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.782783</v>
+        <v>0.781196</v>
       </c>
       <c r="C97" t="n">
-        <v>1.05232</v>
+        <v>1.06327</v>
       </c>
       <c r="D97" t="n">
-        <v>1.12529</v>
+        <v>1.12235</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.775021</v>
+        <v>0.774101</v>
       </c>
       <c r="C98" t="n">
-        <v>1.04006</v>
+        <v>1.05009</v>
       </c>
       <c r="D98" t="n">
-        <v>1.10598</v>
+        <v>1.10273</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.767518</v>
+        <v>0.765845</v>
       </c>
       <c r="C99" t="n">
-        <v>1.02607</v>
+        <v>1.03553</v>
       </c>
       <c r="D99" t="n">
-        <v>1.0868</v>
+        <v>1.08348</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.758248</v>
+        <v>0.7570249999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>1.01065</v>
+        <v>1.02028</v>
       </c>
       <c r="D100" t="n">
-        <v>1.06575</v>
+        <v>1.06312</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.7490790000000001</v>
+        <v>0.747945</v>
       </c>
       <c r="C101" t="n">
-        <v>0.996097</v>
+        <v>1.00516</v>
       </c>
       <c r="D101" t="n">
-        <v>1.04611</v>
+        <v>1.04585</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.74031</v>
+        <v>0.739687</v>
       </c>
       <c r="C102" t="n">
-        <v>0.981425</v>
+        <v>0.990073</v>
       </c>
       <c r="D102" t="n">
-        <v>1.02785</v>
+        <v>1.02646</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.731772</v>
+        <v>0.731248</v>
       </c>
       <c r="C103" t="n">
-        <v>0.96832</v>
+        <v>0.977799</v>
       </c>
       <c r="D103" t="n">
-        <v>1.0112</v>
+        <v>1.00991</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.723869</v>
+        <v>0.72412</v>
       </c>
       <c r="C104" t="n">
-        <v>0.95453</v>
+        <v>0.963301</v>
       </c>
       <c r="D104" t="n">
-        <v>0.993294</v>
+        <v>0.993568</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.716882</v>
+        <v>0.716749</v>
       </c>
       <c r="C105" t="n">
-        <v>0.942304</v>
+        <v>0.950703</v>
       </c>
       <c r="D105" t="n">
-        <v>0.978536</v>
+        <v>0.9781</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.711244</v>
+        <v>0.711043</v>
       </c>
       <c r="C106" t="n">
-        <v>0.931691</v>
+        <v>0.938636</v>
       </c>
       <c r="D106" t="n">
-        <v>0.965078</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.706853</v>
+        <v>0.7068680000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>0.922198</v>
+        <v>0.928754</v>
       </c>
       <c r="D107" t="n">
-        <v>0.954274</v>
+        <v>0.953252</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.705713</v>
+        <v>0.705122</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9133790000000001</v>
+        <v>0.920472</v>
       </c>
       <c r="D108" t="n">
-        <v>1.27475</v>
+        <v>1.27123</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.7072850000000001</v>
+        <v>0.704251</v>
       </c>
       <c r="C109" t="n">
-        <v>0.908412</v>
+        <v>0.913463</v>
       </c>
       <c r="D109" t="n">
-        <v>1.27506</v>
+        <v>1.27118</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.894546</v>
+        <v>0.892337</v>
       </c>
       <c r="C110" t="n">
-        <v>1.18276</v>
+        <v>1.19485</v>
       </c>
       <c r="D110" t="n">
-        <v>1.26649</v>
+        <v>1.26267</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.891481</v>
+        <v>0.8907890000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>1.18131</v>
+        <v>1.19215</v>
       </c>
       <c r="D111" t="n">
-        <v>1.25742</v>
+        <v>1.25494</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.887448</v>
+        <v>0.885275</v>
       </c>
       <c r="C112" t="n">
-        <v>1.17818</v>
+        <v>1.18782</v>
       </c>
       <c r="D112" t="n">
-        <v>1.25138</v>
+        <v>1.24636</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.882833</v>
+        <v>0.881656</v>
       </c>
       <c r="C113" t="n">
-        <v>1.17394</v>
+        <v>1.18223</v>
       </c>
       <c r="D113" t="n">
-        <v>1.24101</v>
+        <v>1.23816</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.879364</v>
+        <v>0.878161</v>
       </c>
       <c r="C114" t="n">
-        <v>1.17067</v>
+        <v>1.17904</v>
       </c>
       <c r="D114" t="n">
-        <v>1.23334</v>
+        <v>1.23059</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.8753649999999999</v>
+        <v>0.874493</v>
       </c>
       <c r="C115" t="n">
-        <v>1.16767</v>
+        <v>1.17522</v>
       </c>
       <c r="D115" t="n">
-        <v>1.22687</v>
+        <v>1.22244</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.872831</v>
+        <v>0.8715270000000001</v>
       </c>
       <c r="C116" t="n">
-        <v>1.16283</v>
+        <v>1.171</v>
       </c>
       <c r="D116" t="n">
-        <v>1.21746</v>
+        <v>1.21617</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.869041</v>
+        <v>0.868285</v>
       </c>
       <c r="C117" t="n">
-        <v>1.16063</v>
+        <v>1.16807</v>
       </c>
       <c r="D117" t="n">
-        <v>1.2103</v>
+        <v>1.20865</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.867313</v>
+        <v>0.86614</v>
       </c>
       <c r="C118" t="n">
-        <v>1.15753</v>
+        <v>1.16435</v>
       </c>
       <c r="D118" t="n">
-        <v>1.20484</v>
+        <v>1.20122</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.865802</v>
+        <v>0.8648749999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>1.15554</v>
+        <v>1.16237</v>
       </c>
       <c r="D119" t="n">
-        <v>1.19862</v>
+        <v>1.19595</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.865639</v>
+        <v>0.863793</v>
       </c>
       <c r="C120" t="n">
-        <v>1.15368</v>
+        <v>1.15874</v>
       </c>
       <c r="D120" t="n">
-        <v>1.19287</v>
+        <v>1.1896</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.865771</v>
+        <v>0.864436</v>
       </c>
       <c r="C121" t="n">
-        <v>1.15154</v>
+        <v>1.15785</v>
       </c>
       <c r="D121" t="n">
-        <v>1.18758</v>
+        <v>1.1854</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.866737</v>
+        <v>0.866443</v>
       </c>
       <c r="C122" t="n">
-        <v>1.15005</v>
+        <v>1.15474</v>
       </c>
       <c r="D122" t="n">
-        <v>1.18458</v>
+        <v>1.18204</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.869927</v>
+        <v>0.870846</v>
       </c>
       <c r="C123" t="n">
-        <v>1.14932</v>
+        <v>1.15478</v>
       </c>
       <c r="D123" t="n">
-        <v>1.50782</v>
+        <v>1.50315</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.0588</v>
+        <v>1.05678</v>
       </c>
       <c r="C124" t="n">
-        <v>1.4238</v>
+        <v>1.4325</v>
       </c>
       <c r="D124" t="n">
-        <v>1.50086</v>
+        <v>1.49667</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.05976</v>
+        <v>1.05793</v>
       </c>
       <c r="C125" t="n">
-        <v>1.41905</v>
+        <v>1.42831</v>
       </c>
       <c r="D125" t="n">
-        <v>1.49377</v>
+        <v>1.4887</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.05934</v>
+        <v>1.05783</v>
       </c>
       <c r="C126" t="n">
-        <v>1.41725</v>
+        <v>1.42459</v>
       </c>
       <c r="D126" t="n">
-        <v>1.48731</v>
+        <v>1.4827</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.05954</v>
+        <v>1.05707</v>
       </c>
       <c r="C127" t="n">
-        <v>1.41486</v>
+        <v>1.42307</v>
       </c>
       <c r="D127" t="n">
-        <v>1.48471</v>
+        <v>1.47453</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.05975</v>
+        <v>1.05827</v>
       </c>
       <c r="C128" t="n">
-        <v>1.41504</v>
+        <v>1.41845</v>
       </c>
       <c r="D128" t="n">
-        <v>1.47512</v>
+        <v>1.47067</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.06076</v>
+        <v>1.05742</v>
       </c>
       <c r="C129" t="n">
-        <v>1.41091</v>
+        <v>1.41868</v>
       </c>
       <c r="D129" t="n">
-        <v>1.47167</v>
+        <v>1.46338</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.06132</v>
+        <v>1.05922</v>
       </c>
       <c r="C130" t="n">
-        <v>1.41177</v>
+        <v>1.41138</v>
       </c>
       <c r="D130" t="n">
-        <v>1.46688</v>
+        <v>1.45675</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.06252</v>
+        <v>1.05869</v>
       </c>
       <c r="C131" t="n">
-        <v>1.41205</v>
+        <v>1.41442</v>
       </c>
       <c r="D131" t="n">
-        <v>1.46001</v>
+        <v>1.45594</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.06432</v>
+        <v>1.06073</v>
       </c>
       <c r="C132" t="n">
-        <v>1.41138</v>
+        <v>1.41165</v>
       </c>
       <c r="D132" t="n">
-        <v>1.46298</v>
+        <v>1.44882</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.06675</v>
+        <v>1.06323</v>
       </c>
       <c r="C133" t="n">
-        <v>1.41376</v>
+        <v>1.40991</v>
       </c>
       <c r="D133" t="n">
-        <v>1.4603</v>
+        <v>1.44982</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.06936</v>
+        <v>1.06616</v>
       </c>
       <c r="C134" t="n">
-        <v>1.4125</v>
+        <v>1.41556</v>
       </c>
       <c r="D134" t="n">
-        <v>1.45087</v>
+        <v>1.44734</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.07236</v>
+        <v>1.06953</v>
       </c>
       <c r="C135" t="n">
-        <v>1.41061</v>
+        <v>1.41445</v>
       </c>
       <c r="D135" t="n">
-        <v>1.45216</v>
+        <v>1.4441</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.07722</v>
+        <v>1.07453</v>
       </c>
       <c r="C136" t="n">
-        <v>1.41682</v>
+        <v>1.41514</v>
       </c>
       <c r="D136" t="n">
-        <v>1.44862</v>
+        <v>1.44702</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.08326</v>
+        <v>1.07905</v>
       </c>
       <c r="C137" t="n">
-        <v>1.41947</v>
+        <v>1.41804</v>
       </c>
       <c r="D137" t="n">
-        <v>1.77134</v>
+        <v>1.76546</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.2721</v>
+        <v>1.26815</v>
       </c>
       <c r="C138" t="n">
-        <v>1.68858</v>
+        <v>1.69554</v>
       </c>
       <c r="D138" t="n">
-        <v>1.76459</v>
+        <v>1.75361</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.27532</v>
+        <v>1.27108</v>
       </c>
       <c r="C139" t="n">
-        <v>1.68354</v>
+        <v>1.6891</v>
       </c>
       <c r="D139" t="n">
-        <v>1.75458</v>
+        <v>1.75261</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.27752</v>
+        <v>1.27401</v>
       </c>
       <c r="C140" t="n">
-        <v>1.67485</v>
+        <v>1.67616</v>
       </c>
       <c r="D140" t="n">
-        <v>1.7472</v>
+        <v>1.73297</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.28067</v>
+        <v>1.2768</v>
       </c>
       <c r="C141" t="n">
-        <v>1.67025</v>
+        <v>1.67077</v>
       </c>
       <c r="D141" t="n">
-        <v>1.73262</v>
+        <v>1.72681</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.28378</v>
+        <v>1.27924</v>
       </c>
       <c r="C142" t="n">
-        <v>1.66334</v>
+        <v>1.66719</v>
       </c>
       <c r="D142" t="n">
-        <v>1.72337</v>
+        <v>1.7185</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.28698</v>
+        <v>1.282</v>
       </c>
       <c r="C143" t="n">
-        <v>1.66132</v>
+        <v>1.66457</v>
       </c>
       <c r="D143" t="n">
-        <v>1.7164</v>
+        <v>1.70995</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.480129</v>
+        <v>0.411662</v>
       </c>
       <c r="C2" t="n">
-        <v>0.746066</v>
+        <v>0.629516</v>
       </c>
       <c r="D2" t="n">
-        <v>0.792246</v>
+        <v>0.681411</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.470044</v>
+        <v>0.402309</v>
       </c>
       <c r="C3" t="n">
-        <v>0.730239</v>
+        <v>0.614475</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7746189999999999</v>
+        <v>0.664365</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.462532</v>
+        <v>0.39495</v>
       </c>
       <c r="C4" t="n">
-        <v>0.716276</v>
+        <v>0.601382</v>
       </c>
       <c r="D4" t="n">
-        <v>0.75925</v>
+        <v>0.649306</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.455775</v>
+        <v>0.387988</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7054049999999999</v>
+        <v>0.5890840000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.746875</v>
+        <v>0.635534</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.450954</v>
+        <v>0.38248</v>
       </c>
       <c r="C6" t="n">
-        <v>0.693126</v>
+        <v>0.5777910000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.733741</v>
+        <v>0.622995</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.447107</v>
+        <v>0.380322</v>
       </c>
       <c r="C7" t="n">
-        <v>0.683063</v>
+        <v>0.567868</v>
       </c>
       <c r="D7" t="n">
-        <v>0.722696</v>
+        <v>0.612195</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.446019</v>
+        <v>0.37948</v>
       </c>
       <c r="C8" t="n">
-        <v>0.674938</v>
+        <v>0.5605560000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.714272</v>
+        <v>0.60343</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.449188</v>
+        <v>0.381326</v>
       </c>
       <c r="C9" t="n">
-        <v>0.668996</v>
+        <v>0.5547339999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.962274</v>
+        <v>0.852765</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.564266</v>
+        <v>0.495775</v>
       </c>
       <c r="C10" t="n">
-        <v>0.877231</v>
+        <v>0.760859</v>
       </c>
       <c r="D10" t="n">
-        <v>0.936427</v>
+        <v>0.826923</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.550582</v>
+        <v>0.481657</v>
       </c>
       <c r="C11" t="n">
-        <v>0.854999</v>
+        <v>0.739527</v>
       </c>
       <c r="D11" t="n">
-        <v>0.911727</v>
+        <v>0.802401</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.537945</v>
+        <v>0.468222</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8348</v>
+        <v>0.718818</v>
       </c>
       <c r="D12" t="n">
-        <v>0.888463</v>
+        <v>0.779263</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.525618</v>
+        <v>0.455754</v>
       </c>
       <c r="C13" t="n">
-        <v>0.814446</v>
+        <v>0.699587</v>
       </c>
       <c r="D13" t="n">
-        <v>0.866434</v>
+        <v>0.757237</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.514587</v>
+        <v>0.443803</v>
       </c>
       <c r="C14" t="n">
-        <v>0.795607</v>
+        <v>0.681631</v>
       </c>
       <c r="D14" t="n">
-        <v>0.845831</v>
+        <v>0.736393</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.50373</v>
+        <v>0.432906</v>
       </c>
       <c r="C15" t="n">
-        <v>0.778456</v>
+        <v>0.663761</v>
       </c>
       <c r="D15" t="n">
-        <v>0.826121</v>
+        <v>0.716359</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.493884</v>
+        <v>0.422953</v>
       </c>
       <c r="C16" t="n">
-        <v>0.761408</v>
+        <v>0.6476690000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>0.807404</v>
+        <v>0.697747</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.484786</v>
+        <v>0.413424</v>
       </c>
       <c r="C17" t="n">
-        <v>0.745237</v>
+        <v>0.631793</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7886</v>
+        <v>0.680406</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.476968</v>
+        <v>0.405184</v>
       </c>
       <c r="C18" t="n">
-        <v>0.729147</v>
+        <v>0.617665</v>
       </c>
       <c r="D18" t="n">
-        <v>0.773253</v>
+        <v>0.6643559999999999</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.469316</v>
+        <v>0.397991</v>
       </c>
       <c r="C19" t="n">
-        <v>0.717445</v>
+        <v>0.6048249999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>0.758208</v>
+        <v>0.649416</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.463703</v>
+        <v>0.392248</v>
       </c>
       <c r="C20" t="n">
-        <v>0.704238</v>
+        <v>0.5924430000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.74441</v>
+        <v>0.63587</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.459364</v>
+        <v>0.388034</v>
       </c>
       <c r="C21" t="n">
-        <v>0.692961</v>
+        <v>0.581117</v>
       </c>
       <c r="D21" t="n">
-        <v>0.732576</v>
+        <v>0.624421</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.457062</v>
+        <v>0.385829</v>
       </c>
       <c r="C22" t="n">
-        <v>0.683655</v>
+        <v>0.57234</v>
       </c>
       <c r="D22" t="n">
-        <v>0.723587</v>
+        <v>0.615916</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.457276</v>
+        <v>0.385701</v>
       </c>
       <c r="C23" t="n">
-        <v>0.676632</v>
+        <v>0.565892</v>
       </c>
       <c r="D23" t="n">
-        <v>1.02259</v>
+        <v>0.916847</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.607139</v>
+        <v>0.533872</v>
       </c>
       <c r="C24" t="n">
-        <v>0.917737</v>
+        <v>0.803418</v>
       </c>
       <c r="D24" t="n">
-        <v>0.994772</v>
+        <v>0.888791</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.592001</v>
+        <v>0.519079</v>
       </c>
       <c r="C25" t="n">
-        <v>0.894474</v>
+        <v>0.780743</v>
       </c>
       <c r="D25" t="n">
-        <v>0.967959</v>
+        <v>0.8613</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.57761</v>
+        <v>0.50361</v>
       </c>
       <c r="C26" t="n">
-        <v>0.872266</v>
+        <v>0.758539</v>
       </c>
       <c r="D26" t="n">
-        <v>0.942356</v>
+        <v>0.835994</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.564044</v>
+        <v>0.490975</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8509139999999999</v>
+        <v>0.73782</v>
       </c>
       <c r="D27" t="n">
-        <v>0.918028</v>
+        <v>0.811479</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.551654</v>
+        <v>0.477021</v>
       </c>
       <c r="C28" t="n">
-        <v>0.830871</v>
+        <v>0.717714</v>
       </c>
       <c r="D28" t="n">
-        <v>0.894954</v>
+        <v>0.788229</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5393869999999999</v>
+        <v>0.465035</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8115560000000001</v>
+        <v>0.698878</v>
       </c>
       <c r="D29" t="n">
-        <v>0.873235</v>
+        <v>0.766651</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5280629999999999</v>
+        <v>0.453153</v>
       </c>
       <c r="C30" t="n">
-        <v>0.793382</v>
+        <v>0.681127</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8525</v>
+        <v>0.745678</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.517836</v>
+        <v>0.442533</v>
       </c>
       <c r="C31" t="n">
-        <v>0.776196</v>
+        <v>0.6639350000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.83292</v>
+        <v>0.725756</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.508695</v>
+        <v>0.434187</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7605690000000001</v>
+        <v>0.648275</v>
       </c>
       <c r="D32" t="n">
-        <v>0.814875</v>
+        <v>0.708117</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5008010000000001</v>
+        <v>0.425454</v>
       </c>
       <c r="C33" t="n">
-        <v>0.745259</v>
+        <v>0.633453</v>
       </c>
       <c r="D33" t="n">
-        <v>0.798198</v>
+        <v>0.69135</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.493318</v>
+        <v>0.417361</v>
       </c>
       <c r="C34" t="n">
-        <v>0.731559</v>
+        <v>0.620368</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7832480000000001</v>
+        <v>0.675998</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.48755</v>
+        <v>0.412618</v>
       </c>
       <c r="C35" t="n">
-        <v>0.719113</v>
+        <v>0.607939</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7698199999999999</v>
+        <v>0.6627729999999999</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.48333</v>
+        <v>0.408867</v>
       </c>
       <c r="C36" t="n">
-        <v>0.708383</v>
+        <v>0.597529</v>
       </c>
       <c r="D36" t="n">
-        <v>0.75931</v>
+        <v>0.65212</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.48196</v>
+        <v>0.407068</v>
       </c>
       <c r="C37" t="n">
-        <v>0.700621</v>
+        <v>0.589632</v>
       </c>
       <c r="D37" t="n">
-        <v>1.04512</v>
+        <v>0.939213</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.640236</v>
+        <v>0.566217</v>
       </c>
       <c r="C38" t="n">
-        <v>0.949643</v>
+        <v>0.834199</v>
       </c>
       <c r="D38" t="n">
-        <v>1.01731</v>
+        <v>0.910079</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.625306</v>
+        <v>0.5508999999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>0.926295</v>
+        <v>0.811754</v>
       </c>
       <c r="D39" t="n">
-        <v>0.989993</v>
+        <v>0.883199</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.610057</v>
+        <v>0.535416</v>
       </c>
       <c r="C40" t="n">
-        <v>0.903394</v>
+        <v>0.7886069999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.964269</v>
+        <v>0.85677</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.595846</v>
+        <v>0.520532</v>
       </c>
       <c r="C41" t="n">
-        <v>0.881136</v>
+        <v>0.767048</v>
       </c>
       <c r="D41" t="n">
-        <v>0.939488</v>
+        <v>0.831824</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.581686</v>
+        <v>0.50723</v>
       </c>
       <c r="C42" t="n">
-        <v>0.860091</v>
+        <v>0.745318</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9163249999999999</v>
+        <v>0.808568</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.568817</v>
+        <v>0.493877</v>
       </c>
       <c r="C43" t="n">
-        <v>0.8398600000000001</v>
+        <v>0.7262189999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8939319999999999</v>
+        <v>0.786089</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.556725</v>
+        <v>0.481864</v>
       </c>
       <c r="C44" t="n">
-        <v>0.820747</v>
+        <v>0.707927</v>
       </c>
       <c r="D44" t="n">
-        <v>0.872792</v>
+        <v>0.765144</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5456260000000001</v>
+        <v>0.470042</v>
       </c>
       <c r="C45" t="n">
-        <v>0.803319</v>
+        <v>0.690232</v>
       </c>
       <c r="D45" t="n">
-        <v>0.8531300000000001</v>
+        <v>0.745061</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.535727</v>
+        <v>0.460334</v>
       </c>
       <c r="C46" t="n">
-        <v>0.787091</v>
+        <v>0.672682</v>
       </c>
       <c r="D46" t="n">
-        <v>0.834358</v>
+        <v>0.726201</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.52627</v>
+        <v>0.451062</v>
       </c>
       <c r="C47" t="n">
-        <v>0.77044</v>
+        <v>0.657353</v>
       </c>
       <c r="D47" t="n">
-        <v>0.817529</v>
+        <v>0.709046</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.518992</v>
+        <v>0.441982</v>
       </c>
       <c r="C48" t="n">
-        <v>0.756397</v>
+        <v>0.643518</v>
       </c>
       <c r="D48" t="n">
-        <v>0.80125</v>
+        <v>0.693298</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5119089999999999</v>
+        <v>0.435509</v>
       </c>
       <c r="C49" t="n">
-        <v>0.743448</v>
+        <v>0.63071</v>
       </c>
       <c r="D49" t="n">
-        <v>0.787218</v>
+        <v>0.679184</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.507692</v>
+        <v>0.431803</v>
       </c>
       <c r="C50" t="n">
-        <v>0.732177</v>
+        <v>0.620202</v>
       </c>
       <c r="D50" t="n">
-        <v>0.776166</v>
+        <v>0.666119</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.505816</v>
+        <v>0.430031</v>
       </c>
       <c r="C51" t="n">
-        <v>0.72255</v>
+        <v>0.609459</v>
       </c>
       <c r="D51" t="n">
-        <v>1.06832</v>
+        <v>0.96157</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.506646</v>
+        <v>0.428694</v>
       </c>
       <c r="C52" t="n">
-        <v>0.715734</v>
+        <v>0.604025</v>
       </c>
       <c r="D52" t="n">
-        <v>1.04072</v>
+        <v>0.933042</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.65489</v>
+        <v>0.578201</v>
       </c>
       <c r="C53" t="n">
-        <v>0.951142</v>
+        <v>0.835647</v>
       </c>
       <c r="D53" t="n">
-        <v>1.01351</v>
+        <v>0.905484</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.639456</v>
+        <v>0.5633359999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.928401</v>
+        <v>0.810761</v>
       </c>
       <c r="D54" t="n">
-        <v>0.987418</v>
+        <v>0.879707</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.625099</v>
+        <v>0.54813</v>
       </c>
       <c r="C55" t="n">
-        <v>0.905704</v>
+        <v>0.791039</v>
       </c>
       <c r="D55" t="n">
-        <v>0.962938</v>
+        <v>0.854935</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.611349</v>
+        <v>0.534713</v>
       </c>
       <c r="C56" t="n">
-        <v>0.884692</v>
+        <v>0.770451</v>
       </c>
       <c r="D56" t="n">
-        <v>0.939742</v>
+        <v>0.832124</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.59833</v>
+        <v>0.521477</v>
       </c>
       <c r="C57" t="n">
-        <v>0.864309</v>
+        <v>0.750515</v>
       </c>
       <c r="D57" t="n">
-        <v>0.917571</v>
+        <v>0.809679</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.586225</v>
+        <v>0.509443</v>
       </c>
       <c r="C58" t="n">
-        <v>0.846429</v>
+        <v>0.732758</v>
       </c>
       <c r="D58" t="n">
-        <v>0.896226</v>
+        <v>0.789045</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.574971</v>
+        <v>0.498095</v>
       </c>
       <c r="C59" t="n">
-        <v>0.827616</v>
+        <v>0.714704</v>
       </c>
       <c r="D59" t="n">
-        <v>0.876664</v>
+        <v>0.768491</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.56481</v>
+        <v>0.487929</v>
       </c>
       <c r="C60" t="n">
-        <v>0.811406</v>
+        <v>0.697513</v>
       </c>
       <c r="D60" t="n">
-        <v>0.858756</v>
+        <v>0.750068</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.555769</v>
+        <v>0.478508</v>
       </c>
       <c r="C61" t="n">
-        <v>0.795251</v>
+        <v>0.682785</v>
       </c>
       <c r="D61" t="n">
-        <v>0.8411920000000001</v>
+        <v>0.731939</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.547385</v>
+        <v>0.469636</v>
       </c>
       <c r="C62" t="n">
-        <v>0.78105</v>
+        <v>0.668921</v>
       </c>
       <c r="D62" t="n">
-        <v>0.825264</v>
+        <v>0.716589</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.540431</v>
+        <v>0.463059</v>
       </c>
       <c r="C63" t="n">
-        <v>0.7670090000000001</v>
+        <v>0.655176</v>
       </c>
       <c r="D63" t="n">
-        <v>0.808498</v>
+        <v>0.701887</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.532587</v>
+        <v>0.458132</v>
       </c>
       <c r="C64" t="n">
-        <v>0.753151</v>
+        <v>0.644387</v>
       </c>
       <c r="D64" t="n">
-        <v>0.79867</v>
+        <v>0.690161</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.532195</v>
+        <v>0.454412</v>
       </c>
       <c r="C65" t="n">
-        <v>0.745648</v>
+        <v>0.633532</v>
       </c>
       <c r="D65" t="n">
-        <v>0.789625</v>
+        <v>0.679804</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.53198</v>
+        <v>0.45318</v>
       </c>
       <c r="C66" t="n">
-        <v>0.738653</v>
+        <v>0.62763</v>
       </c>
       <c r="D66" t="n">
-        <v>1.06801</v>
+        <v>0.962471</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.680177</v>
+        <v>0.609484</v>
       </c>
       <c r="C67" t="n">
-        <v>0.984294</v>
+        <v>0.871409</v>
       </c>
       <c r="D67" t="n">
-        <v>1.04105</v>
+        <v>0.934905</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.66418</v>
+        <v>0.593876</v>
       </c>
       <c r="C68" t="n">
-        <v>0.958654</v>
+        <v>0.847492</v>
       </c>
       <c r="D68" t="n">
-        <v>1.01432</v>
+        <v>0.908011</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.649438</v>
+        <v>0.578784</v>
       </c>
       <c r="C69" t="n">
-        <v>0.936572</v>
+        <v>0.823404</v>
       </c>
       <c r="D69" t="n">
-        <v>0.989627</v>
+        <v>0.883194</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.636317</v>
+        <v>0.565003</v>
       </c>
       <c r="C70" t="n">
-        <v>0.915443</v>
+        <v>0.804297</v>
       </c>
       <c r="D70" t="n">
-        <v>0.966498</v>
+        <v>0.859497</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.625461</v>
+        <v>0.551207</v>
       </c>
       <c r="C71" t="n">
-        <v>0.895188</v>
+        <v>0.782986</v>
       </c>
       <c r="D71" t="n">
-        <v>0.944504</v>
+        <v>0.836774</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.610698</v>
+        <v>0.538557</v>
       </c>
       <c r="C72" t="n">
-        <v>0.87485</v>
+        <v>0.76423</v>
       </c>
       <c r="D72" t="n">
-        <v>0.922214</v>
+        <v>0.815818</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.600145</v>
+        <v>0.527367</v>
       </c>
       <c r="C73" t="n">
-        <v>0.857162</v>
+        <v>0.746158</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9025300000000001</v>
+        <v>0.795842</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.58954</v>
+        <v>0.5167929999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.838707</v>
+        <v>0.728617</v>
       </c>
       <c r="D74" t="n">
-        <v>0.882892</v>
+        <v>0.776598</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.580492</v>
+        <v>0.507949</v>
       </c>
       <c r="C75" t="n">
-        <v>0.823188</v>
+        <v>0.7136670000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.864693</v>
+        <v>0.758198</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.571028</v>
+        <v>0.498179</v>
       </c>
       <c r="C76" t="n">
-        <v>0.806381</v>
+        <v>0.697976</v>
       </c>
       <c r="D76" t="n">
-        <v>0.848437</v>
+        <v>0.742719</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.56429</v>
+        <v>0.491954</v>
       </c>
       <c r="C77" t="n">
-        <v>0.796498</v>
+        <v>0.685682</v>
       </c>
       <c r="D77" t="n">
-        <v>0.835936</v>
+        <v>0.728923</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.55906</v>
+        <v>0.486801</v>
       </c>
       <c r="C78" t="n">
-        <v>0.783591</v>
+        <v>0.673973</v>
       </c>
       <c r="D78" t="n">
-        <v>0.824951</v>
+        <v>0.716591</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.55525</v>
+        <v>0.4843</v>
       </c>
       <c r="C79" t="n">
-        <v>0.771493</v>
+        <v>0.663957</v>
       </c>
       <c r="D79" t="n">
-        <v>0.811921</v>
+        <v>0.706443</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.554616</v>
+        <v>0.483991</v>
       </c>
       <c r="C80" t="n">
-        <v>0.763969</v>
+        <v>0.656354</v>
       </c>
       <c r="D80" t="n">
-        <v>1.11583</v>
+        <v>1.01233</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.730275</v>
+        <v>0.6586109999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>1.02934</v>
+        <v>0.917275</v>
       </c>
       <c r="D81" t="n">
-        <v>1.08895</v>
+        <v>0.985148</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.71917</v>
+        <v>0.646945</v>
       </c>
       <c r="C82" t="n">
-        <v>1.00829</v>
+        <v>0.895851</v>
       </c>
       <c r="D82" t="n">
-        <v>1.0628</v>
+        <v>0.959029</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.707282</v>
+        <v>0.6334689999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9862919999999999</v>
+        <v>0.874988</v>
       </c>
       <c r="D83" t="n">
-        <v>1.03849</v>
+        <v>0.932994</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.694636</v>
+        <v>0.621178</v>
       </c>
       <c r="C84" t="n">
-        <v>0.963773</v>
+        <v>0.853719</v>
       </c>
       <c r="D84" t="n">
-        <v>1.01359</v>
+        <v>0.909122</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.681328</v>
+        <v>0.609443</v>
       </c>
       <c r="C85" t="n">
-        <v>0.943604</v>
+        <v>0.834792</v>
       </c>
       <c r="D85" t="n">
-        <v>0.988764</v>
+        <v>0.88584</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.668459</v>
+        <v>0.595534</v>
       </c>
       <c r="C86" t="n">
-        <v>0.92508</v>
+        <v>0.814362</v>
       </c>
       <c r="D86" t="n">
-        <v>0.968993</v>
+        <v>0.863018</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.658877</v>
+        <v>0.583646</v>
       </c>
       <c r="C87" t="n">
-        <v>0.907639</v>
+        <v>0.795757</v>
       </c>
       <c r="D87" t="n">
-        <v>0.948831</v>
+        <v>0.842156</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.647813</v>
+        <v>0.571814</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8889550000000001</v>
+        <v>0.777934</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9280890000000001</v>
+        <v>0.821336</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.637066</v>
+        <v>0.561145</v>
       </c>
       <c r="C89" t="n">
-        <v>0.871825</v>
+        <v>0.761078</v>
       </c>
       <c r="D89" t="n">
-        <v>0.909646</v>
+        <v>0.803556</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.627347</v>
+        <v>0.551397</v>
       </c>
       <c r="C90" t="n">
-        <v>0.855308</v>
+        <v>0.745501</v>
       </c>
       <c r="D90" t="n">
-        <v>0.892115</v>
+        <v>0.785869</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.618381</v>
+        <v>0.542508</v>
       </c>
       <c r="C91" t="n">
-        <v>0.840209</v>
+        <v>0.731302</v>
       </c>
       <c r="D91" t="n">
-        <v>0.8762</v>
+        <v>0.769983</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.611115</v>
+        <v>0.535011</v>
       </c>
       <c r="C92" t="n">
-        <v>0.826549</v>
+        <v>0.717923</v>
       </c>
       <c r="D92" t="n">
-        <v>0.8619520000000001</v>
+        <v>0.755169</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.605571</v>
+        <v>0.5305299999999999</v>
       </c>
       <c r="C93" t="n">
-        <v>0.816495</v>
+        <v>0.707325</v>
       </c>
       <c r="D93" t="n">
-        <v>0.851532</v>
+        <v>0.743939</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.604531</v>
+        <v>0.528736</v>
       </c>
       <c r="C94" t="n">
-        <v>0.806599</v>
+        <v>0.698102</v>
       </c>
       <c r="D94" t="n">
-        <v>1.1688</v>
+        <v>1.06268</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.784605</v>
+        <v>0.710193</v>
       </c>
       <c r="C95" t="n">
-        <v>1.07595</v>
+        <v>0.962966</v>
       </c>
       <c r="D95" t="n">
-        <v>1.15691</v>
+        <v>1.0505</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.787177</v>
+        <v>0.709161</v>
       </c>
       <c r="C96" t="n">
-        <v>1.0725</v>
+        <v>0.961083</v>
       </c>
       <c r="D96" t="n">
-        <v>1.14112</v>
+        <v>1.03482</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.781196</v>
+        <v>0.703496</v>
       </c>
       <c r="C97" t="n">
-        <v>1.06327</v>
+        <v>0.951701</v>
       </c>
       <c r="D97" t="n">
-        <v>1.12235</v>
+        <v>1.0172</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.774101</v>
+        <v>0.696048</v>
       </c>
       <c r="C98" t="n">
-        <v>1.05009</v>
+        <v>0.941643</v>
       </c>
       <c r="D98" t="n">
-        <v>1.10273</v>
+        <v>0.998905</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.765845</v>
+        <v>0.687629</v>
       </c>
       <c r="C99" t="n">
-        <v>1.03553</v>
+        <v>0.928619</v>
       </c>
       <c r="D99" t="n">
-        <v>1.08348</v>
+        <v>0.980649</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.7570249999999999</v>
+        <v>0.678512</v>
       </c>
       <c r="C100" t="n">
-        <v>1.02028</v>
+        <v>0.914009</v>
       </c>
       <c r="D100" t="n">
-        <v>1.06312</v>
+        <v>0.961476</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.747945</v>
+        <v>0.669667</v>
       </c>
       <c r="C101" t="n">
-        <v>1.00516</v>
+        <v>0.900733</v>
       </c>
       <c r="D101" t="n">
-        <v>1.04585</v>
+        <v>0.943966</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.739687</v>
+        <v>0.660493</v>
       </c>
       <c r="C102" t="n">
-        <v>0.990073</v>
+        <v>0.887356</v>
       </c>
       <c r="D102" t="n">
-        <v>1.02646</v>
+        <v>0.926581</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.731248</v>
+        <v>0.652312</v>
       </c>
       <c r="C103" t="n">
-        <v>0.977799</v>
+        <v>0.874154</v>
       </c>
       <c r="D103" t="n">
-        <v>1.00991</v>
+        <v>0.910108</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.72412</v>
+        <v>0.644776</v>
       </c>
       <c r="C104" t="n">
-        <v>0.963301</v>
+        <v>0.862747</v>
       </c>
       <c r="D104" t="n">
-        <v>0.993568</v>
+        <v>0.894692</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.716749</v>
+        <v>0.638297</v>
       </c>
       <c r="C105" t="n">
-        <v>0.950703</v>
+        <v>0.851205</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9781</v>
+        <v>0.879096</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.711043</v>
+        <v>0.632336</v>
       </c>
       <c r="C106" t="n">
-        <v>0.938636</v>
+        <v>0.8415899999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>0.965</v>
+        <v>0.866382</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.7068680000000001</v>
+        <v>0.628646</v>
       </c>
       <c r="C107" t="n">
-        <v>0.928754</v>
+        <v>0.832309</v>
       </c>
       <c r="D107" t="n">
-        <v>0.953252</v>
+        <v>0.856349</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.705122</v>
+        <v>0.627073</v>
       </c>
       <c r="C108" t="n">
-        <v>0.920472</v>
+        <v>0.82455</v>
       </c>
       <c r="D108" t="n">
-        <v>1.27123</v>
+        <v>1.17645</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.704251</v>
+        <v>0.627203</v>
       </c>
       <c r="C109" t="n">
-        <v>0.913463</v>
+        <v>0.819601</v>
       </c>
       <c r="D109" t="n">
-        <v>1.27118</v>
+        <v>1.17312</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.892337</v>
+        <v>0.811516</v>
       </c>
       <c r="C110" t="n">
-        <v>1.19485</v>
+        <v>1.09581</v>
       </c>
       <c r="D110" t="n">
-        <v>1.26267</v>
+        <v>1.16626</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.8907890000000001</v>
+        <v>0.807017</v>
       </c>
       <c r="C111" t="n">
-        <v>1.19215</v>
+        <v>1.09419</v>
       </c>
       <c r="D111" t="n">
-        <v>1.25494</v>
+        <v>1.15787</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.885275</v>
+        <v>0.800711</v>
       </c>
       <c r="C112" t="n">
-        <v>1.18782</v>
+        <v>1.0895</v>
       </c>
       <c r="D112" t="n">
-        <v>1.24636</v>
+        <v>1.14836</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.881656</v>
+        <v>0.795624</v>
       </c>
       <c r="C113" t="n">
-        <v>1.18223</v>
+        <v>1.08609</v>
       </c>
       <c r="D113" t="n">
-        <v>1.23816</v>
+        <v>1.13837</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.878161</v>
+        <v>0.789504</v>
       </c>
       <c r="C114" t="n">
-        <v>1.17904</v>
+        <v>1.0833</v>
       </c>
       <c r="D114" t="n">
-        <v>1.23059</v>
+        <v>1.13199</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.874493</v>
+        <v>0.785027</v>
       </c>
       <c r="C115" t="n">
-        <v>1.17522</v>
+        <v>1.08017</v>
       </c>
       <c r="D115" t="n">
-        <v>1.22244</v>
+        <v>1.1242</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.8715270000000001</v>
+        <v>0.780243</v>
       </c>
       <c r="C116" t="n">
-        <v>1.171</v>
+        <v>1.07716</v>
       </c>
       <c r="D116" t="n">
-        <v>1.21617</v>
+        <v>1.11684</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.868285</v>
+        <v>0.776597</v>
       </c>
       <c r="C117" t="n">
-        <v>1.16807</v>
+        <v>1.07564</v>
       </c>
       <c r="D117" t="n">
-        <v>1.20865</v>
+        <v>1.10942</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.86614</v>
+        <v>0.772227</v>
       </c>
       <c r="C118" t="n">
-        <v>1.16435</v>
+        <v>1.072</v>
       </c>
       <c r="D118" t="n">
-        <v>1.20122</v>
+        <v>1.10195</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.8648749999999999</v>
+        <v>0.769662</v>
       </c>
       <c r="C119" t="n">
-        <v>1.16237</v>
+        <v>1.0695</v>
       </c>
       <c r="D119" t="n">
-        <v>1.19595</v>
+        <v>1.09611</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.863793</v>
+        <v>0.767151</v>
       </c>
       <c r="C120" t="n">
-        <v>1.15874</v>
+        <v>1.06727</v>
       </c>
       <c r="D120" t="n">
-        <v>1.1896</v>
+        <v>1.08932</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.864436</v>
+        <v>0.7664609999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>1.15785</v>
+        <v>1.06574</v>
       </c>
       <c r="D121" t="n">
-        <v>1.1854</v>
+        <v>1.08365</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.866443</v>
+        <v>0.76642</v>
       </c>
       <c r="C122" t="n">
-        <v>1.15474</v>
+        <v>1.06344</v>
       </c>
       <c r="D122" t="n">
-        <v>1.18204</v>
+        <v>1.07833</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.870846</v>
+        <v>0.770051</v>
       </c>
       <c r="C123" t="n">
-        <v>1.15478</v>
+        <v>1.06348</v>
       </c>
       <c r="D123" t="n">
-        <v>1.50315</v>
+        <v>1.40256</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.05678</v>
+        <v>0.9494010000000001</v>
       </c>
       <c r="C124" t="n">
-        <v>1.4325</v>
+        <v>1.33617</v>
       </c>
       <c r="D124" t="n">
-        <v>1.49667</v>
+        <v>1.3958</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.05793</v>
+        <v>0.946667</v>
       </c>
       <c r="C125" t="n">
-        <v>1.42831</v>
+        <v>1.33375</v>
       </c>
       <c r="D125" t="n">
-        <v>1.4887</v>
+        <v>1.39136</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.05783</v>
+        <v>0.943031</v>
       </c>
       <c r="C126" t="n">
-        <v>1.42459</v>
+        <v>1.33123</v>
       </c>
       <c r="D126" t="n">
-        <v>1.4827</v>
+        <v>1.38171</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.05707</v>
+        <v>0.939241</v>
       </c>
       <c r="C127" t="n">
-        <v>1.42307</v>
+        <v>1.32897</v>
       </c>
       <c r="D127" t="n">
-        <v>1.47453</v>
+        <v>1.37838</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.05827</v>
+        <v>0.936188</v>
       </c>
       <c r="C128" t="n">
-        <v>1.41845</v>
+        <v>1.32945</v>
       </c>
       <c r="D128" t="n">
-        <v>1.47067</v>
+        <v>1.37406</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.05742</v>
+        <v>0.934132</v>
       </c>
       <c r="C129" t="n">
-        <v>1.41868</v>
+        <v>1.32965</v>
       </c>
       <c r="D129" t="n">
-        <v>1.46338</v>
+        <v>1.3687</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.05922</v>
+        <v>0.931976</v>
       </c>
       <c r="C130" t="n">
-        <v>1.41138</v>
+        <v>1.32958</v>
       </c>
       <c r="D130" t="n">
-        <v>1.45675</v>
+        <v>1.36405</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.05869</v>
+        <v>0.929704</v>
       </c>
       <c r="C131" t="n">
-        <v>1.41442</v>
+        <v>1.32714</v>
       </c>
       <c r="D131" t="n">
-        <v>1.45594</v>
+        <v>1.36253</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.06073</v>
+        <v>0.928835</v>
       </c>
       <c r="C132" t="n">
-        <v>1.41165</v>
+        <v>1.32675</v>
       </c>
       <c r="D132" t="n">
-        <v>1.44882</v>
+        <v>1.35914</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.06323</v>
+        <v>0.927962</v>
       </c>
       <c r="C133" t="n">
-        <v>1.40991</v>
+        <v>1.32513</v>
       </c>
       <c r="D133" t="n">
-        <v>1.44982</v>
+        <v>1.35574</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.06616</v>
+        <v>0.928288</v>
       </c>
       <c r="C134" t="n">
-        <v>1.41556</v>
+        <v>1.32845</v>
       </c>
       <c r="D134" t="n">
-        <v>1.44734</v>
+        <v>1.35174</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.06953</v>
+        <v>0.929639</v>
       </c>
       <c r="C135" t="n">
-        <v>1.41445</v>
+        <v>1.32832</v>
       </c>
       <c r="D135" t="n">
-        <v>1.4441</v>
+        <v>1.34962</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.07453</v>
+        <v>0.932184</v>
       </c>
       <c r="C136" t="n">
-        <v>1.41514</v>
+        <v>1.33084</v>
       </c>
       <c r="D136" t="n">
-        <v>1.44702</v>
+        <v>1.3437</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.07905</v>
+        <v>0.935482</v>
       </c>
       <c r="C137" t="n">
-        <v>1.41804</v>
+        <v>1.33276</v>
       </c>
       <c r="D137" t="n">
-        <v>1.76546</v>
+        <v>1.66443</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.26815</v>
+        <v>1.11956</v>
       </c>
       <c r="C138" t="n">
-        <v>1.69554</v>
+        <v>1.60403</v>
       </c>
       <c r="D138" t="n">
-        <v>1.75361</v>
+        <v>1.65202</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.27108</v>
+        <v>1.1171</v>
       </c>
       <c r="C139" t="n">
-        <v>1.6891</v>
+        <v>1.59448</v>
       </c>
       <c r="D139" t="n">
-        <v>1.75261</v>
+        <v>1.64169</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.27401</v>
+        <v>1.11536</v>
       </c>
       <c r="C140" t="n">
-        <v>1.67616</v>
+        <v>1.58786</v>
       </c>
       <c r="D140" t="n">
-        <v>1.73297</v>
+        <v>1.63128</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.2768</v>
+        <v>1.11426</v>
       </c>
       <c r="C141" t="n">
-        <v>1.67077</v>
+        <v>1.58165</v>
       </c>
       <c r="D141" t="n">
-        <v>1.72681</v>
+        <v>1.62058</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.27924</v>
+        <v>1.11258</v>
       </c>
       <c r="C142" t="n">
-        <v>1.66719</v>
+        <v>1.57645</v>
       </c>
       <c r="D142" t="n">
-        <v>1.7185</v>
+        <v>1.61295</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.282</v>
+        <v>1.11258</v>
       </c>
       <c r="C143" t="n">
-        <v>1.66457</v>
+        <v>1.56915</v>
       </c>
       <c r="D143" t="n">
-        <v>1.70995</v>
+        <v>1.60298</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.411662</v>
+        <v>0.416527</v>
       </c>
       <c r="C2" t="n">
-        <v>0.629516</v>
+        <v>0.6793630000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.681411</v>
+        <v>0.727397</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.402309</v>
+        <v>0.407306</v>
       </c>
       <c r="C3" t="n">
-        <v>0.614475</v>
+        <v>0.659637</v>
       </c>
       <c r="D3" t="n">
-        <v>0.664365</v>
+        <v>0.708535</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.39495</v>
+        <v>0.399708</v>
       </c>
       <c r="C4" t="n">
-        <v>0.601382</v>
+        <v>0.64161</v>
       </c>
       <c r="D4" t="n">
-        <v>0.649306</v>
+        <v>0.6922739999999999</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.387988</v>
+        <v>0.393207</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5890840000000001</v>
+        <v>0.624579</v>
       </c>
       <c r="D5" t="n">
-        <v>0.635534</v>
+        <v>0.676633</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.38248</v>
+        <v>0.387603</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5777910000000001</v>
+        <v>0.609422</v>
       </c>
       <c r="D6" t="n">
-        <v>0.622995</v>
+        <v>0.662659</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.380322</v>
+        <v>0.384662</v>
       </c>
       <c r="C7" t="n">
-        <v>0.567868</v>
+        <v>0.595517</v>
       </c>
       <c r="D7" t="n">
-        <v>0.612195</v>
+        <v>0.651257</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.37948</v>
+        <v>0.383435</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5605560000000001</v>
+        <v>0.583711</v>
       </c>
       <c r="D8" t="n">
-        <v>0.60343</v>
+        <v>0.640873</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.381326</v>
+        <v>0.384749</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5547339999999999</v>
+        <v>0.573963</v>
       </c>
       <c r="D9" t="n">
-        <v>0.852765</v>
+        <v>0.997978</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.495775</v>
+        <v>0.5654130000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.760859</v>
+        <v>0.903984</v>
       </c>
       <c r="D10" t="n">
-        <v>0.826923</v>
+        <v>0.966291</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.481657</v>
+        <v>0.5485640000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.739527</v>
+        <v>0.874115</v>
       </c>
       <c r="D11" t="n">
-        <v>0.802401</v>
+        <v>0.936379</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.468222</v>
+        <v>0.532371</v>
       </c>
       <c r="C12" t="n">
-        <v>0.718818</v>
+        <v>0.845427</v>
       </c>
       <c r="D12" t="n">
-        <v>0.779263</v>
+        <v>0.908002</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.455754</v>
+        <v>0.516943</v>
       </c>
       <c r="C13" t="n">
-        <v>0.699587</v>
+        <v>0.817948</v>
       </c>
       <c r="D13" t="n">
-        <v>0.757237</v>
+        <v>0.881264</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.443803</v>
+        <v>0.50229</v>
       </c>
       <c r="C14" t="n">
-        <v>0.681631</v>
+        <v>0.791807</v>
       </c>
       <c r="D14" t="n">
-        <v>0.736393</v>
+        <v>0.855915</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.432906</v>
+        <v>0.488785</v>
       </c>
       <c r="C15" t="n">
-        <v>0.663761</v>
+        <v>0.767041</v>
       </c>
       <c r="D15" t="n">
-        <v>0.716359</v>
+        <v>0.831782</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.422953</v>
+        <v>0.476085</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6476690000000001</v>
+        <v>0.744086</v>
       </c>
       <c r="D16" t="n">
-        <v>0.697747</v>
+        <v>0.808538</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.413424</v>
+        <v>0.464109</v>
       </c>
       <c r="C17" t="n">
-        <v>0.631793</v>
+        <v>0.721872</v>
       </c>
       <c r="D17" t="n">
-        <v>0.680406</v>
+        <v>0.78678</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.405184</v>
+        <v>0.453412</v>
       </c>
       <c r="C18" t="n">
-        <v>0.617665</v>
+        <v>0.701516</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6643559999999999</v>
+        <v>0.766504</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.397991</v>
+        <v>0.443383</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6048249999999999</v>
+        <v>0.682274</v>
       </c>
       <c r="D19" t="n">
-        <v>0.649416</v>
+        <v>0.747386</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.392248</v>
+        <v>0.43536</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5924430000000001</v>
+        <v>0.664348</v>
       </c>
       <c r="D20" t="n">
-        <v>0.63587</v>
+        <v>0.730398</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.388034</v>
+        <v>0.428899</v>
       </c>
       <c r="C21" t="n">
-        <v>0.581117</v>
+        <v>0.64763</v>
       </c>
       <c r="D21" t="n">
-        <v>0.624421</v>
+        <v>0.715028</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.385829</v>
+        <v>0.425016</v>
       </c>
       <c r="C22" t="n">
-        <v>0.57234</v>
+        <v>0.633755</v>
       </c>
       <c r="D22" t="n">
-        <v>0.615916</v>
+        <v>0.703327</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.385701</v>
+        <v>0.42329</v>
       </c>
       <c r="C23" t="n">
-        <v>0.565892</v>
+        <v>0.6218129999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.916847</v>
+        <v>1.03584</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.533872</v>
+        <v>0.610798</v>
       </c>
       <c r="C24" t="n">
-        <v>0.803418</v>
+        <v>0.9622309999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.888791</v>
+        <v>1.00317</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.519079</v>
+        <v>0.592665</v>
       </c>
       <c r="C25" t="n">
-        <v>0.780743</v>
+        <v>0.930912</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8613</v>
+        <v>0.972646</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.50361</v>
+        <v>0.574862</v>
       </c>
       <c r="C26" t="n">
-        <v>0.758539</v>
+        <v>0.900011</v>
       </c>
       <c r="D26" t="n">
-        <v>0.835994</v>
+        <v>0.9431</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.490975</v>
+        <v>0.557589</v>
       </c>
       <c r="C27" t="n">
-        <v>0.73782</v>
+        <v>0.870495</v>
       </c>
       <c r="D27" t="n">
-        <v>0.811479</v>
+        <v>0.9147189999999999</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.477021</v>
+        <v>0.5412439999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.717714</v>
+        <v>0.842297</v>
       </c>
       <c r="D28" t="n">
-        <v>0.788229</v>
+        <v>0.888352</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.465035</v>
+        <v>0.526206</v>
       </c>
       <c r="C29" t="n">
-        <v>0.698878</v>
+        <v>0.816169</v>
       </c>
       <c r="D29" t="n">
-        <v>0.766651</v>
+        <v>0.8628169999999999</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.453153</v>
+        <v>0.512032</v>
       </c>
       <c r="C30" t="n">
-        <v>0.681127</v>
+        <v>0.791299</v>
       </c>
       <c r="D30" t="n">
-        <v>0.745678</v>
+        <v>0.838797</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.442533</v>
+        <v>0.498914</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6639350000000001</v>
+        <v>0.7668</v>
       </c>
       <c r="D31" t="n">
-        <v>0.725756</v>
+        <v>0.816422</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.434187</v>
+        <v>0.486502</v>
       </c>
       <c r="C32" t="n">
-        <v>0.648275</v>
+        <v>0.74456</v>
       </c>
       <c r="D32" t="n">
-        <v>0.708117</v>
+        <v>0.794768</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.425454</v>
+        <v>0.474392</v>
       </c>
       <c r="C33" t="n">
-        <v>0.633453</v>
+        <v>0.723517</v>
       </c>
       <c r="D33" t="n">
-        <v>0.69135</v>
+        <v>0.775809</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.417361</v>
+        <v>0.465094</v>
       </c>
       <c r="C34" t="n">
-        <v>0.620368</v>
+        <v>0.70412</v>
       </c>
       <c r="D34" t="n">
-        <v>0.675998</v>
+        <v>0.75761</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.412618</v>
+        <v>0.457545</v>
       </c>
       <c r="C35" t="n">
-        <v>0.607939</v>
+        <v>0.686557</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6627729999999999</v>
+        <v>0.741559</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.408867</v>
+        <v>0.451206</v>
       </c>
       <c r="C36" t="n">
-        <v>0.597529</v>
+        <v>0.670609</v>
       </c>
       <c r="D36" t="n">
-        <v>0.65212</v>
+        <v>0.7287709999999999</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.407068</v>
+        <v>0.448099</v>
       </c>
       <c r="C37" t="n">
-        <v>0.589632</v>
+        <v>0.656369</v>
       </c>
       <c r="D37" t="n">
-        <v>0.939213</v>
+        <v>1.06814</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.566217</v>
+        <v>0.642104</v>
       </c>
       <c r="C38" t="n">
-        <v>0.834199</v>
+        <v>1.00218</v>
       </c>
       <c r="D38" t="n">
-        <v>0.910079</v>
+        <v>1.03489</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5508999999999999</v>
+        <v>0.623525</v>
       </c>
       <c r="C39" t="n">
-        <v>0.811754</v>
+        <v>0.968994</v>
       </c>
       <c r="D39" t="n">
-        <v>0.883199</v>
+        <v>1.00277</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.535416</v>
+        <v>0.603985</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7886069999999999</v>
+        <v>0.937675</v>
       </c>
       <c r="D40" t="n">
-        <v>0.85677</v>
+        <v>0.972871</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.520532</v>
+        <v>0.585894</v>
       </c>
       <c r="C41" t="n">
-        <v>0.767048</v>
+        <v>0.907344</v>
       </c>
       <c r="D41" t="n">
-        <v>0.831824</v>
+        <v>0.943802</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.50723</v>
+        <v>0.56968</v>
       </c>
       <c r="C42" t="n">
-        <v>0.745318</v>
+        <v>0.878128</v>
       </c>
       <c r="D42" t="n">
-        <v>0.808568</v>
+        <v>0.916504</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.493877</v>
+        <v>0.552601</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7262189999999999</v>
+        <v>0.850635</v>
       </c>
       <c r="D43" t="n">
-        <v>0.786089</v>
+        <v>0.890522</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.481864</v>
+        <v>0.537542</v>
       </c>
       <c r="C44" t="n">
-        <v>0.707927</v>
+        <v>0.824606</v>
       </c>
       <c r="D44" t="n">
-        <v>0.765144</v>
+        <v>0.865955</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.470042</v>
+        <v>0.52391</v>
       </c>
       <c r="C45" t="n">
-        <v>0.690232</v>
+        <v>0.801225</v>
       </c>
       <c r="D45" t="n">
-        <v>0.745061</v>
+        <v>0.842664</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.460334</v>
+        <v>0.512036</v>
       </c>
       <c r="C46" t="n">
-        <v>0.672682</v>
+        <v>0.777603</v>
       </c>
       <c r="D46" t="n">
-        <v>0.726201</v>
+        <v>0.821176</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.451062</v>
+        <v>0.5001679999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>0.657353</v>
+        <v>0.755521</v>
       </c>
       <c r="D47" t="n">
-        <v>0.709046</v>
+        <v>0.800922</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.441982</v>
+        <v>0.489812</v>
       </c>
       <c r="C48" t="n">
-        <v>0.643518</v>
+        <v>0.735007</v>
       </c>
       <c r="D48" t="n">
-        <v>0.693298</v>
+        <v>0.781844</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.435509</v>
+        <v>0.481608</v>
       </c>
       <c r="C49" t="n">
-        <v>0.63071</v>
+        <v>0.7155319999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.679184</v>
+        <v>0.7652139999999999</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.431803</v>
+        <v>0.475125</v>
       </c>
       <c r="C50" t="n">
-        <v>0.620202</v>
+        <v>0.698982</v>
       </c>
       <c r="D50" t="n">
-        <v>0.666119</v>
+        <v>0.750759</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.430031</v>
+        <v>0.470722</v>
       </c>
       <c r="C51" t="n">
-        <v>0.609459</v>
+        <v>0.684822</v>
       </c>
       <c r="D51" t="n">
-        <v>0.96157</v>
+        <v>1.10051</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.428694</v>
+        <v>0.469448</v>
       </c>
       <c r="C52" t="n">
-        <v>0.604025</v>
+        <v>0.673763</v>
       </c>
       <c r="D52" t="n">
-        <v>0.933042</v>
+        <v>1.06642</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.578201</v>
+        <v>0.652322</v>
       </c>
       <c r="C53" t="n">
-        <v>0.835647</v>
+        <v>1.00564</v>
       </c>
       <c r="D53" t="n">
-        <v>0.905484</v>
+        <v>1.03469</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5633359999999999</v>
+        <v>0.6343800000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>0.810761</v>
+        <v>0.973871</v>
       </c>
       <c r="D54" t="n">
-        <v>0.879707</v>
+        <v>1.00437</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.54813</v>
+        <v>0.6160679999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>0.791039</v>
+        <v>0.942726</v>
       </c>
       <c r="D55" t="n">
-        <v>0.854935</v>
+        <v>0.974639</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.534713</v>
+        <v>0.5991069999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>0.770451</v>
+        <v>0.9139080000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>0.832124</v>
+        <v>0.945875</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.521477</v>
+        <v>0.582344</v>
       </c>
       <c r="C57" t="n">
-        <v>0.750515</v>
+        <v>0.883761</v>
       </c>
       <c r="D57" t="n">
-        <v>0.809679</v>
+        <v>0.919793</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.509443</v>
+        <v>0.567557</v>
       </c>
       <c r="C58" t="n">
-        <v>0.732758</v>
+        <v>0.85812</v>
       </c>
       <c r="D58" t="n">
-        <v>0.789045</v>
+        <v>0.894532</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.498095</v>
+        <v>0.5540580000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.714704</v>
+        <v>0.834127</v>
       </c>
       <c r="D59" t="n">
-        <v>0.768491</v>
+        <v>0.87192</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.487929</v>
+        <v>0.54079</v>
       </c>
       <c r="C60" t="n">
-        <v>0.697513</v>
+        <v>0.812018</v>
       </c>
       <c r="D60" t="n">
-        <v>0.750068</v>
+        <v>0.850507</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.478508</v>
+        <v>0.529217</v>
       </c>
       <c r="C61" t="n">
-        <v>0.682785</v>
+        <v>0.788851</v>
       </c>
       <c r="D61" t="n">
-        <v>0.731939</v>
+        <v>0.829319</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.469636</v>
+        <v>0.519225</v>
       </c>
       <c r="C62" t="n">
-        <v>0.668921</v>
+        <v>0.768263</v>
       </c>
       <c r="D62" t="n">
-        <v>0.716589</v>
+        <v>0.809996</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.463059</v>
+        <v>0.510409</v>
       </c>
       <c r="C63" t="n">
-        <v>0.655176</v>
+        <v>0.749838</v>
       </c>
       <c r="D63" t="n">
-        <v>0.701887</v>
+        <v>0.792998</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.458132</v>
+        <v>0.5022489999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.644387</v>
+        <v>0.729895</v>
       </c>
       <c r="D64" t="n">
-        <v>0.690161</v>
+        <v>0.775936</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.454412</v>
+        <v>0.496893</v>
       </c>
       <c r="C65" t="n">
-        <v>0.633532</v>
+        <v>0.714665</v>
       </c>
       <c r="D65" t="n">
-        <v>0.679804</v>
+        <v>0.764034</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.45318</v>
+        <v>0.495298</v>
       </c>
       <c r="C66" t="n">
-        <v>0.62763</v>
+        <v>0.701858</v>
       </c>
       <c r="D66" t="n">
-        <v>0.962471</v>
+        <v>1.12286</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.609484</v>
+        <v>0.713083</v>
       </c>
       <c r="C67" t="n">
-        <v>0.871409</v>
+        <v>1.0743</v>
       </c>
       <c r="D67" t="n">
-        <v>0.934905</v>
+        <v>1.08948</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.593876</v>
+        <v>0.6969070000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>0.847492</v>
+        <v>1.04084</v>
       </c>
       <c r="D68" t="n">
-        <v>0.908011</v>
+        <v>1.05764</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.578784</v>
+        <v>0.680991</v>
       </c>
       <c r="C69" t="n">
-        <v>0.823404</v>
+        <v>1.00808</v>
       </c>
       <c r="D69" t="n">
-        <v>0.883194</v>
+        <v>1.02572</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.565003</v>
+        <v>0.664948</v>
       </c>
       <c r="C70" t="n">
-        <v>0.804297</v>
+        <v>0.978376</v>
       </c>
       <c r="D70" t="n">
-        <v>0.859497</v>
+        <v>0.9988860000000001</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.551207</v>
+        <v>0.651718</v>
       </c>
       <c r="C71" t="n">
-        <v>0.782986</v>
+        <v>0.951346</v>
       </c>
       <c r="D71" t="n">
-        <v>0.836774</v>
+        <v>0.971681</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.538557</v>
+        <v>0.636083</v>
       </c>
       <c r="C72" t="n">
-        <v>0.76423</v>
+        <v>0.922949</v>
       </c>
       <c r="D72" t="n">
-        <v>0.815818</v>
+        <v>0.94559</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.527367</v>
+        <v>0.619165</v>
       </c>
       <c r="C73" t="n">
-        <v>0.746158</v>
+        <v>0.8936770000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>0.795842</v>
+        <v>0.916305</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5167929999999999</v>
+        <v>0.605061</v>
       </c>
       <c r="C74" t="n">
-        <v>0.728617</v>
+        <v>0.869512</v>
       </c>
       <c r="D74" t="n">
-        <v>0.776598</v>
+        <v>0.894635</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.507949</v>
+        <v>0.594517</v>
       </c>
       <c r="C75" t="n">
-        <v>0.7136670000000001</v>
+        <v>0.845421</v>
       </c>
       <c r="D75" t="n">
-        <v>0.758198</v>
+        <v>0.871333</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.498179</v>
+        <v>0.584189</v>
       </c>
       <c r="C76" t="n">
-        <v>0.697976</v>
+        <v>0.823998</v>
       </c>
       <c r="D76" t="n">
-        <v>0.742719</v>
+        <v>0.851342</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.491954</v>
+        <v>0.573397</v>
       </c>
       <c r="C77" t="n">
-        <v>0.685682</v>
+        <v>0.8026799999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.728923</v>
+        <v>0.834406</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.486801</v>
+        <v>0.565939</v>
       </c>
       <c r="C78" t="n">
-        <v>0.673973</v>
+        <v>0.787236</v>
       </c>
       <c r="D78" t="n">
-        <v>0.716591</v>
+        <v>0.818924</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.4843</v>
+        <v>0.559108</v>
       </c>
       <c r="C79" t="n">
-        <v>0.663957</v>
+        <v>0.768444</v>
       </c>
       <c r="D79" t="n">
-        <v>0.706443</v>
+        <v>0.804297</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.483991</v>
+        <v>0.5548380000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>0.656354</v>
+        <v>0.753659</v>
       </c>
       <c r="D80" t="n">
-        <v>1.01233</v>
+        <v>1.19468</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.6586109999999999</v>
+        <v>0.786016</v>
       </c>
       <c r="C81" t="n">
-        <v>0.917275</v>
+        <v>1.15499</v>
       </c>
       <c r="D81" t="n">
-        <v>0.985148</v>
+        <v>1.17361</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.646945</v>
+        <v>0.779546</v>
       </c>
       <c r="C82" t="n">
-        <v>0.895851</v>
+        <v>1.13637</v>
       </c>
       <c r="D82" t="n">
-        <v>0.959029</v>
+        <v>1.15192</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.6334689999999999</v>
+        <v>0.769518</v>
       </c>
       <c r="C83" t="n">
-        <v>0.874988</v>
+        <v>1.10981</v>
       </c>
       <c r="D83" t="n">
-        <v>0.932994</v>
+        <v>1.12766</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.621178</v>
+        <v>0.7599089999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>0.853719</v>
+        <v>1.08535</v>
       </c>
       <c r="D84" t="n">
-        <v>0.909122</v>
+        <v>1.10156</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.609443</v>
+        <v>0.749538</v>
       </c>
       <c r="C85" t="n">
-        <v>0.834792</v>
+        <v>1.06009</v>
       </c>
       <c r="D85" t="n">
-        <v>0.88584</v>
+        <v>1.07696</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.595534</v>
+        <v>0.738905</v>
       </c>
       <c r="C86" t="n">
-        <v>0.814362</v>
+        <v>1.03372</v>
       </c>
       <c r="D86" t="n">
-        <v>0.863018</v>
+        <v>1.05088</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.583646</v>
+        <v>0.727766</v>
       </c>
       <c r="C87" t="n">
-        <v>0.795757</v>
+        <v>1.0084</v>
       </c>
       <c r="D87" t="n">
-        <v>0.842156</v>
+        <v>1.02542</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.571814</v>
+        <v>0.7177829999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>0.777934</v>
+        <v>0.984785</v>
       </c>
       <c r="D88" t="n">
-        <v>0.821336</v>
+        <v>1.00242</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.561145</v>
+        <v>0.707407</v>
       </c>
       <c r="C89" t="n">
-        <v>0.761078</v>
+        <v>0.962334</v>
       </c>
       <c r="D89" t="n">
-        <v>0.803556</v>
+        <v>0.97897</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.551397</v>
+        <v>0.697228</v>
       </c>
       <c r="C90" t="n">
-        <v>0.745501</v>
+        <v>0.939089</v>
       </c>
       <c r="D90" t="n">
-        <v>0.785869</v>
+        <v>0.956408</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.542508</v>
+        <v>0.6876409999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.731302</v>
+        <v>0.91876</v>
       </c>
       <c r="D91" t="n">
-        <v>0.769983</v>
+        <v>0.937393</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.535011</v>
+        <v>0.680049</v>
       </c>
       <c r="C92" t="n">
-        <v>0.717923</v>
+        <v>0.899667</v>
       </c>
       <c r="D92" t="n">
-        <v>0.755169</v>
+        <v>0.9193170000000001</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5305299999999999</v>
+        <v>0.673721</v>
       </c>
       <c r="C93" t="n">
-        <v>0.707325</v>
+        <v>0.881911</v>
       </c>
       <c r="D93" t="n">
-        <v>0.743939</v>
+        <v>0.903478</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.528736</v>
+        <v>0.66971</v>
       </c>
       <c r="C94" t="n">
-        <v>0.698102</v>
+        <v>0.868383</v>
       </c>
       <c r="D94" t="n">
-        <v>1.06268</v>
+        <v>1.2994</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.710193</v>
+        <v>0.904516</v>
       </c>
       <c r="C95" t="n">
-        <v>0.962966</v>
+        <v>1.268</v>
       </c>
       <c r="D95" t="n">
-        <v>1.0505</v>
+        <v>1.29062</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.709161</v>
+        <v>0.9016459999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>0.961083</v>
+        <v>1.25721</v>
       </c>
       <c r="D96" t="n">
-        <v>1.03482</v>
+        <v>1.27447</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.703496</v>
+        <v>0.891423</v>
       </c>
       <c r="C97" t="n">
-        <v>0.951701</v>
+        <v>1.23473</v>
       </c>
       <c r="D97" t="n">
-        <v>1.0172</v>
+        <v>1.25536</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.696048</v>
+        <v>0.881181</v>
       </c>
       <c r="C98" t="n">
-        <v>0.941643</v>
+        <v>1.21124</v>
       </c>
       <c r="D98" t="n">
-        <v>0.998905</v>
+        <v>1.23482</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.687629</v>
+        <v>0.870886</v>
       </c>
       <c r="C99" t="n">
-        <v>0.928619</v>
+        <v>1.1886</v>
       </c>
       <c r="D99" t="n">
-        <v>0.980649</v>
+        <v>1.21329</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.678512</v>
+        <v>0.860186</v>
       </c>
       <c r="C100" t="n">
-        <v>0.914009</v>
+        <v>1.16637</v>
       </c>
       <c r="D100" t="n">
-        <v>0.961476</v>
+        <v>1.19239</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.669667</v>
+        <v>0.850506</v>
       </c>
       <c r="C101" t="n">
-        <v>0.900733</v>
+        <v>1.14548</v>
       </c>
       <c r="D101" t="n">
-        <v>0.943966</v>
+        <v>1.17276</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.660493</v>
+        <v>0.841094</v>
       </c>
       <c r="C102" t="n">
-        <v>0.887356</v>
+        <v>1.12629</v>
       </c>
       <c r="D102" t="n">
-        <v>0.926581</v>
+        <v>1.15405</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.652312</v>
+        <v>0.832229</v>
       </c>
       <c r="C103" t="n">
-        <v>0.874154</v>
+        <v>1.10679</v>
       </c>
       <c r="D103" t="n">
-        <v>0.910108</v>
+        <v>1.13691</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.644776</v>
+        <v>0.824263</v>
       </c>
       <c r="C104" t="n">
-        <v>0.862747</v>
+        <v>1.0894</v>
       </c>
       <c r="D104" t="n">
-        <v>0.894692</v>
+        <v>1.12054</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.638297</v>
+        <v>0.817178</v>
       </c>
       <c r="C105" t="n">
-        <v>0.851205</v>
+        <v>1.07375</v>
       </c>
       <c r="D105" t="n">
-        <v>0.879096</v>
+        <v>1.10622</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.632336</v>
+        <v>0.811804</v>
       </c>
       <c r="C106" t="n">
-        <v>0.8415899999999999</v>
+        <v>1.05861</v>
       </c>
       <c r="D106" t="n">
-        <v>0.866382</v>
+        <v>1.09122</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.628646</v>
+        <v>0.806747</v>
       </c>
       <c r="C107" t="n">
-        <v>0.832309</v>
+        <v>1.04544</v>
       </c>
       <c r="D107" t="n">
-        <v>0.856349</v>
+        <v>1.07803</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.627073</v>
+        <v>0.8045679999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>0.82455</v>
+        <v>1.03456</v>
       </c>
       <c r="D108" t="n">
-        <v>1.17645</v>
+        <v>1.47328</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.627203</v>
+        <v>0.804513</v>
       </c>
       <c r="C109" t="n">
-        <v>0.819601</v>
+        <v>1.02722</v>
       </c>
       <c r="D109" t="n">
-        <v>1.17312</v>
+        <v>1.46608</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.811516</v>
+        <v>1.03397</v>
       </c>
       <c r="C110" t="n">
-        <v>1.09581</v>
+        <v>1.42887</v>
       </c>
       <c r="D110" t="n">
-        <v>1.16626</v>
+        <v>1.45126</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.807017</v>
+        <v>1.02166</v>
       </c>
       <c r="C111" t="n">
-        <v>1.09419</v>
+        <v>1.40546</v>
       </c>
       <c r="D111" t="n">
-        <v>1.15787</v>
+        <v>1.43595</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.800711</v>
+        <v>1.00883</v>
       </c>
       <c r="C112" t="n">
-        <v>1.0895</v>
+        <v>1.38266</v>
       </c>
       <c r="D112" t="n">
-        <v>1.14836</v>
+        <v>1.42101</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.795624</v>
+        <v>0.9969749999999999</v>
       </c>
       <c r="C113" t="n">
-        <v>1.08609</v>
+        <v>1.36021</v>
       </c>
       <c r="D113" t="n">
-        <v>1.13837</v>
+        <v>1.41012</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.789504</v>
+        <v>0.9845</v>
       </c>
       <c r="C114" t="n">
-        <v>1.0833</v>
+        <v>1.3395</v>
       </c>
       <c r="D114" t="n">
-        <v>1.13199</v>
+        <v>1.39659</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.785027</v>
+        <v>0.974264</v>
       </c>
       <c r="C115" t="n">
-        <v>1.08017</v>
+        <v>1.31912</v>
       </c>
       <c r="D115" t="n">
-        <v>1.1242</v>
+        <v>1.38703</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.780243</v>
+        <v>0.96489</v>
       </c>
       <c r="C116" t="n">
-        <v>1.07716</v>
+        <v>1.30116</v>
       </c>
       <c r="D116" t="n">
-        <v>1.11684</v>
+        <v>1.37625</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.776597</v>
+        <v>0.955287</v>
       </c>
       <c r="C117" t="n">
-        <v>1.07564</v>
+        <v>1.284</v>
       </c>
       <c r="D117" t="n">
-        <v>1.10942</v>
+        <v>1.36515</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.772227</v>
+        <v>0.946975</v>
       </c>
       <c r="C118" t="n">
-        <v>1.072</v>
+        <v>1.26815</v>
       </c>
       <c r="D118" t="n">
-        <v>1.10195</v>
+        <v>1.35496</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.769662</v>
+        <v>0.940378</v>
       </c>
       <c r="C119" t="n">
-        <v>1.0695</v>
+        <v>1.2533</v>
       </c>
       <c r="D119" t="n">
-        <v>1.09611</v>
+        <v>1.34594</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.767151</v>
+        <v>0.933613</v>
       </c>
       <c r="C120" t="n">
-        <v>1.06727</v>
+        <v>1.24081</v>
       </c>
       <c r="D120" t="n">
-        <v>1.08932</v>
+        <v>1.33862</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.7664609999999999</v>
+        <v>0.929365</v>
       </c>
       <c r="C121" t="n">
-        <v>1.06574</v>
+        <v>1.22891</v>
       </c>
       <c r="D121" t="n">
-        <v>1.08365</v>
+        <v>1.3326</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.76642</v>
+        <v>0.926253</v>
       </c>
       <c r="C122" t="n">
-        <v>1.06344</v>
+        <v>1.22011</v>
       </c>
       <c r="D122" t="n">
-        <v>1.07833</v>
+        <v>1.32514</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.770051</v>
+        <v>0.926598</v>
       </c>
       <c r="C123" t="n">
-        <v>1.06348</v>
+        <v>1.21342</v>
       </c>
       <c r="D123" t="n">
-        <v>1.40256</v>
+        <v>1.71735</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.9494010000000001</v>
+        <v>1.15767</v>
       </c>
       <c r="C124" t="n">
-        <v>1.33617</v>
+        <v>1.6175</v>
       </c>
       <c r="D124" t="n">
-        <v>1.3958</v>
+        <v>1.70172</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.946667</v>
+        <v>1.14615</v>
       </c>
       <c r="C125" t="n">
-        <v>1.33375</v>
+        <v>1.5963</v>
       </c>
       <c r="D125" t="n">
-        <v>1.39136</v>
+        <v>1.68609</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.943031</v>
+        <v>1.13458</v>
       </c>
       <c r="C126" t="n">
-        <v>1.33123</v>
+        <v>1.57451</v>
       </c>
       <c r="D126" t="n">
-        <v>1.38171</v>
+        <v>1.67199</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.939241</v>
+        <v>1.12392</v>
       </c>
       <c r="C127" t="n">
-        <v>1.32897</v>
+        <v>1.55388</v>
       </c>
       <c r="D127" t="n">
-        <v>1.37838</v>
+        <v>1.65599</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.936188</v>
+        <v>1.1144</v>
       </c>
       <c r="C128" t="n">
-        <v>1.32945</v>
+        <v>1.53521</v>
       </c>
       <c r="D128" t="n">
-        <v>1.37406</v>
+        <v>1.64297</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.934132</v>
+        <v>1.10513</v>
       </c>
       <c r="C129" t="n">
-        <v>1.32965</v>
+        <v>1.51829</v>
       </c>
       <c r="D129" t="n">
-        <v>1.3687</v>
+        <v>1.63111</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.931976</v>
+        <v>1.09655</v>
       </c>
       <c r="C130" t="n">
-        <v>1.32958</v>
+        <v>1.50047</v>
       </c>
       <c r="D130" t="n">
-        <v>1.36405</v>
+        <v>1.62034</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.929704</v>
+        <v>1.08894</v>
       </c>
       <c r="C131" t="n">
-        <v>1.32714</v>
+        <v>1.48543</v>
       </c>
       <c r="D131" t="n">
-        <v>1.36253</v>
+        <v>1.60502</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.928835</v>
+        <v>1.08137</v>
       </c>
       <c r="C132" t="n">
-        <v>1.32675</v>
+        <v>1.47095</v>
       </c>
       <c r="D132" t="n">
-        <v>1.35914</v>
+        <v>1.59446</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.927962</v>
+        <v>1.07653</v>
       </c>
       <c r="C133" t="n">
-        <v>1.32513</v>
+        <v>1.45859</v>
       </c>
       <c r="D133" t="n">
-        <v>1.35574</v>
+        <v>1.58603</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.928288</v>
+        <v>1.07245</v>
       </c>
       <c r="C134" t="n">
-        <v>1.32845</v>
+        <v>1.44658</v>
       </c>
       <c r="D134" t="n">
-        <v>1.35174</v>
+        <v>1.5793</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.929639</v>
+        <v>1.07065</v>
       </c>
       <c r="C135" t="n">
-        <v>1.32832</v>
+        <v>1.43937</v>
       </c>
       <c r="D135" t="n">
-        <v>1.34962</v>
+        <v>1.57074</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.932184</v>
+        <v>1.06923</v>
       </c>
       <c r="C136" t="n">
-        <v>1.33084</v>
+        <v>1.43122</v>
       </c>
       <c r="D136" t="n">
-        <v>1.3437</v>
+        <v>1.57114</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.935482</v>
+        <v>1.06897</v>
       </c>
       <c r="C137" t="n">
-        <v>1.33276</v>
+        <v>1.42517</v>
       </c>
       <c r="D137" t="n">
-        <v>1.66443</v>
+        <v>1.96335</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.11956</v>
+        <v>1.29972</v>
       </c>
       <c r="C138" t="n">
-        <v>1.60403</v>
+        <v>1.82855</v>
       </c>
       <c r="D138" t="n">
-        <v>1.65202</v>
+        <v>1.93922</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.1171</v>
+        <v>1.29136</v>
       </c>
       <c r="C139" t="n">
-        <v>1.59448</v>
+        <v>1.80753</v>
       </c>
       <c r="D139" t="n">
-        <v>1.64169</v>
+        <v>1.91919</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.11536</v>
+        <v>1.28184</v>
       </c>
       <c r="C140" t="n">
-        <v>1.58786</v>
+        <v>1.78934</v>
       </c>
       <c r="D140" t="n">
-        <v>1.63128</v>
+        <v>1.90163</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.11426</v>
+        <v>1.27356</v>
       </c>
       <c r="C141" t="n">
-        <v>1.58165</v>
+        <v>1.76981</v>
       </c>
       <c r="D141" t="n">
-        <v>1.62058</v>
+        <v>1.88048</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.11258</v>
+        <v>1.26616</v>
       </c>
       <c r="C142" t="n">
-        <v>1.57645</v>
+        <v>1.75284</v>
       </c>
       <c r="D142" t="n">
-        <v>1.61295</v>
+        <v>1.86753</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.11258</v>
+        <v>1.25943</v>
       </c>
       <c r="C143" t="n">
-        <v>1.56915</v>
+        <v>1.73639</v>
       </c>
       <c r="D143" t="n">
-        <v>1.60298</v>
+        <v>1.84866</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -93,7 +93,7 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_set</v>
+            <v>absl::flat_hash_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +553,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.185383</v>
+                  <v>0.176173</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.185607</v>
+                  <v>0.170454</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.186605</v>
+                  <v>0.16664</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.187124</v>
+                  <v>0.162842</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.188247</v>
+                  <v>0.15949</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.189644</v>
+                  <v>0.157601</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.191261</v>
+                  <v>0.157526</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.193866</v>
+                  <v>0.158158</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.189625</v>
+                  <v>0.224312</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.189347</v>
+                  <v>0.216303</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.18967</v>
+                  <v>0.20828</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.189651</v>
+                  <v>0.199434</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.189799</v>
+                  <v>0.192234</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.190668</v>
+                  <v>0.186342</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.190507</v>
+                  <v>0.179839</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.190882</v>
+                  <v>0.174481</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.191645</v>
+                  <v>0.169736</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.192909</v>
+                  <v>0.164781</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.194129</v>
+                  <v>0.161275</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.196017</v>
+                  <v>0.1601</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.198191</v>
+                  <v>0.160533</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.201494</v>
+                  <v>0.161606</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.19585</v>
+                  <v>0.244449</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.195797</v>
+                  <v>0.234816</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.195992</v>
+                  <v>0.226429</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.195994</v>
+                  <v>0.217678</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.196362</v>
+                  <v>0.209945</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.196625</v>
+                  <v>0.203289</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.196864</v>
+                  <v>0.196451</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.197264</v>
+                  <v>0.190226</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.198098</v>
+                  <v>0.187762</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.199083</v>
+                  <v>0.183073</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.200285</v>
+                  <v>0.179351</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.202461</v>
+                  <v>0.174756</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.20494</v>
+                  <v>0.174169</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.208708</v>
+                  <v>0.174738</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.204984</v>
+                  <v>0.249169</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.20572</v>
+                  <v>0.239482</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.20395</v>
+                  <v>0.230602</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.206755</v>
+                  <v>0.218626</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.206874</v>
+                  <v>0.210872</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.206643</v>
+                  <v>0.203724</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.207752</v>
+                  <v>0.196883</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.206632</v>
+                  <v>0.191412</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.208039</v>
+                  <v>0.18555</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.208508</v>
+                  <v>0.181005</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.21314</v>
+                  <v>0.177226</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.214405</v>
+                  <v>0.174961</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.216212</v>
+                  <v>0.173021</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.220277</v>
+                  <v>0.173452</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.225836</v>
+                  <v>0.17753</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.239701</v>
+                  <v>0.24268</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.239374</v>
+                  <v>0.233963</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.239406</v>
+                  <v>0.2252</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.239685</v>
+                  <v>0.217991</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.240074</v>
+                  <v>0.209943</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.239923</v>
+                  <v>0.203009</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.240387</v>
+                  <v>0.196908</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.240948</v>
+                  <v>0.191258</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.241596</v>
+                  <v>0.18607</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.242725</v>
+                  <v>0.182011</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.2443</v>
+                  <v>0.178467</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.246192</v>
+                  <v>0.177595</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.249543</v>
+                  <v>0.177299</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.254656</v>
+                  <v>0.180167</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.255606</v>
+                  <v>0.244646</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.25724</v>
+                  <v>0.235989</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.258741</v>
+                  <v>0.228156</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.256833</v>
+                  <v>0.220387</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.257274</v>
+                  <v>0.212482</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.262396</v>
+                  <v>0.205975</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.25894</v>
+                  <v>0.200613</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.261004</v>
+                  <v>0.194739</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.260554</v>
+                  <v>0.189617</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.260622</v>
+                  <v>0.184908</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.265311</v>
+                  <v>0.181292</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.27449</v>
+                  <v>0.178826</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.282328</v>
+                  <v>0.179163</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.283954</v>
+                  <v>0.181138</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.434666</v>
+                  <v>0.257644</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.448057</v>
+                  <v>0.249569</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.385917</v>
+                  <v>0.241893</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.399879</v>
+                  <v>0.234751</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.455774</v>
+                  <v>0.226978</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.443092</v>
+                  <v>0.219799</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.39204</v>
+                  <v>0.213375</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.360522</v>
+                  <v>0.207166</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.359055</v>
+                  <v>0.201474</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.395665</v>
+                  <v>0.19677</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.376249</v>
+                  <v>0.192537</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.379278</v>
+                  <v>0.189582</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.403744</v>
+                  <v>0.188357</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.437741</v>
+                  <v>0.18918</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.550984</v>
+                  <v>0.26912</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.56246</v>
+                  <v>0.263515</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.528468</v>
+                  <v>0.258001</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.522787</v>
+                  <v>0.251707</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.522766</v>
+                  <v>0.244324</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.541872</v>
+                  <v>0.237919</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.485955</v>
+                  <v>0.232212</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.504454</v>
+                  <v>0.227439</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.513336</v>
+                  <v>0.221821</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.443294</v>
+                  <v>0.217357</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.449806</v>
+                  <v>0.213424</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.508251</v>
+                  <v>0.210226</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.455857</v>
+                  <v>0.207964</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.506961</v>
+                  <v>0.207921</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.497047</v>
+                  <v>0.209559</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.5698029999999999</v>
+                  <v>0.283981</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.62543</v>
+                  <v>0.277131</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.578956</v>
+                  <v>0.270794</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.64242</v>
+                  <v>0.264867</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.590384</v>
+                  <v>0.259794</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.5832270000000001</v>
+                  <v>0.253954</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.55203</v>
+                  <v>0.24921</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.551107</v>
+                  <v>0.244865</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.5461549999999999</v>
+                  <v>0.240339</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.558638</v>
+                  <v>0.236998</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.546427</v>
+                  <v>0.233953</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.541991</v>
+                  <v>0.231224</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.530105</v>
+                  <v>0.230513</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.574083</v>
+                  <v>0.231737</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.678766</v>
+                  <v>0.319243</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.691848</v>
+                  <v>0.313506</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.627237</v>
+                  <v>0.307885</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.6081220000000001</v>
+                  <v>0.302012</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.639138</v>
+                  <v>0.296555</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.632568</v>
+                  <v>0.291959</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.64813</v>
+                  <v>0.287332</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.6033500000000001</v>
+                  <v>0.283552</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.6096279999999999</v>
+                  <v>0.279594</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.666418</v>
+                  <v>0.276526</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.722901</v>
+                  <v>0.273541</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.6843399999999999</v>
+                  <v>0.271458</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.691974</v>
+                  <v>0.271185</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.7238830000000001</v>
+                  <v>0.271892</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.767194</v>
+                  <v>0.37228</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.7875</v>
+                  <v>0.367218</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.791062</v>
+                  <v>0.360389</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.758329</v>
+                  <v>0.354692</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.770876</v>
+                  <v>0.350179</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.737333</v>
+                  <v>0.345269</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +987,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_set</v>
+            <v>foa_unordered_rc16_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1447,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.207513</v>
+                  <v>0.185496</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.207817</v>
+                  <v>0.17914</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.208593</v>
+                  <v>0.170524</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.209369</v>
+                  <v>0.169499</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.211344</v>
+                  <v>0.149657</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.212097</v>
+                  <v>0.161619</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.213952</v>
+                  <v>0.160816</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.217604</v>
+                  <v>0.161312</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.207746</v>
+                  <v>0.237105</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.209665</v>
+                  <v>0.225645</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20981</v>
+                  <v>0.217736</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.210476</v>
+                  <v>0.210439</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.210732</v>
+                  <v>0.202388</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.211696</v>
+                  <v>0.195072</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.212256</v>
+                  <v>0.188701</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.212852</v>
+                  <v>0.182715</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.213634</v>
+                  <v>0.178189</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.215167</v>
+                  <v>0.173444</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.215972</v>
+                  <v>0.169013</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.21763</v>
+                  <v>0.16628</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.220112</v>
+                  <v>0.16432</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.223056</v>
+                  <v>0.164868</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.209433</v>
+                  <v>0.244335</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.209564</v>
+                  <v>0.234904</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.210185</v>
+                  <v>0.227016</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.210438</v>
+                  <v>0.218274</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.211247</v>
+                  <v>0.211272</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.211254</v>
+                  <v>0.204111</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.212385</v>
+                  <v>0.196912</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.213096</v>
+                  <v>0.190547</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.214233</v>
+                  <v>0.187527</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.215302</v>
+                  <v>0.182838</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.21649</v>
+                  <v>0.180848</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.21861</v>
+                  <v>0.17426</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.221448</v>
+                  <v>0.172159</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.22576</v>
+                  <v>0.171778</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.213927</v>
+                  <v>0.256269</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.214925</v>
+                  <v>0.246739</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.215476</v>
+                  <v>0.23547</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.215189</v>
+                  <v>0.225397</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.216189</v>
+                  <v>0.217593</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.21693</v>
+                  <v>0.209907</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.218236</v>
+                  <v>0.202922</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.219015</v>
+                  <v>0.196554</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.221901</v>
+                  <v>0.190564</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.219659</v>
+                  <v>0.185285</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.222921</v>
+                  <v>0.180769</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.224707</v>
+                  <v>0.177066</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.229186</v>
+                  <v>0.174203</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.233644</v>
+                  <v>0.173722</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.241295</v>
+                  <v>0.175298</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.239069</v>
+                  <v>0.251635</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.239541</v>
+                  <v>0.242034</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.240295</v>
+                  <v>0.233004</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.242151</v>
+                  <v>0.225257</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.243641</v>
+                  <v>0.217553</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.243783</v>
+                  <v>0.209839</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.244885</v>
+                  <v>0.202907</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.246437</v>
+                  <v>0.197025</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.247802</v>
+                  <v>0.1914</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.249783</v>
+                  <v>0.186386</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.252535</v>
+                  <v>0.182207</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.256059</v>
+                  <v>0.179104</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.260138</v>
+                  <v>0.177727</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.268357</v>
+                  <v>0.178898</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.275224</v>
+                  <v>0.260092</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.276503</v>
+                  <v>0.251907</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.277776</v>
+                  <v>0.241291</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.278297</v>
+                  <v>0.232729</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.280737</v>
+                  <v>0.224656</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.28054</v>
+                  <v>0.216811</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.281726</v>
+                  <v>0.20989</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.282924</v>
+                  <v>0.203254</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.285336</v>
+                  <v>0.19737</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.287671</v>
+                  <v>0.192268</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.291509</v>
+                  <v>0.187689</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.2952</v>
+                  <v>0.184139</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.307095</v>
+                  <v>0.182458</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.312665</v>
+                  <v>0.182405</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.287846</v>
+                  <v>0.263051</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.302136</v>
+                  <v>0.254497</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.27906</v>
+                  <v>0.245979</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.304678</v>
+                  <v>0.237991</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.356345</v>
+                  <v>0.229829</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.288947</v>
+                  <v>0.222655</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.290747</v>
+                  <v>0.215492</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.28432</v>
+                  <v>0.208861</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.296649</v>
+                  <v>0.202819</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.295213</v>
+                  <v>0.197551</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.314524</v>
+                  <v>0.19288</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.322241</v>
+                  <v>0.189225</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.336039</v>
+                  <v>0.186981</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.321098</v>
+                  <v>0.18652</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.484726</v>
+                  <v>0.279398</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.498166</v>
+                  <v>0.272839</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.517987</v>
+                  <v>0.265664</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.532666</v>
+                  <v>0.25832</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.495137</v>
+                  <v>0.251327</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.449602</v>
+                  <v>0.243832</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.413912</v>
+                  <v>0.237699</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.546197</v>
+                  <v>0.231533</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.382799</v>
+                  <v>0.225275</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.377815</v>
+                  <v>0.221074</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.521379</v>
+                  <v>0.215871</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.421292</v>
+                  <v>0.212823</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.438736</v>
+                  <v>0.211155</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.521957</v>
+                  <v>0.210494</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.475413</v>
+                  <v>0.212712</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.617764</v>
+                  <v>0.296635</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.654273</v>
+                  <v>0.289079</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.6944939999999999</v>
+                  <v>0.281344</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.656334</v>
+                  <v>0.274607</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.649984</v>
+                  <v>0.268304</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.531063</v>
+                  <v>0.26231</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.550509</v>
+                  <v>0.256897</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.5761579999999999</v>
+                  <v>0.251768</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.578</v>
+                  <v>0.247624</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.647649</v>
+                  <v>0.243795</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.63648</v>
+                  <v>0.240537</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.628615</v>
+                  <v>0.237909</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.59633</v>
+                  <v>0.237154</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.625355</v>
+                  <v>0.238699</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.659179</v>
+                  <v>0.324651</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.666982</v>
+                  <v>0.318184</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.656903</v>
+                  <v>0.312519</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.657123</v>
+                  <v>0.307125</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.711487</v>
+                  <v>0.302006</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.689036</v>
+                  <v>0.29769</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.707103</v>
+                  <v>0.293184</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.6603290000000001</v>
+                  <v>0.28978</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.687039</v>
+                  <v>0.286402</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.737206</v>
+                  <v>0.283895</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.720435</v>
+                  <v>0.281675</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.759125</v>
+                  <v>0.280269</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.798233</v>
+                  <v>0.280711</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.809383</v>
+                  <v>0.282617</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.738269</v>
+                  <v>0.382259</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.739426</v>
+                  <v>0.37477</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.752214</v>
+                  <v>0.368197</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.772877</v>
+                  <v>0.362373</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.746614</v>
+                  <v>0.35649</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.761084</v>
+                  <v>0.35135</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1881,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_set</v>
+            <v>foa_unordered_rc15_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2341,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.216837</v>
+                  <v>0.177535</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.218104</v>
+                  <v>0.17311</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.219175</v>
+                  <v>0.162867</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.220505</v>
+                  <v>0.164279</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.221362</v>
+                  <v>0.160258</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.224182</v>
+                  <v>0.149896</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.228887</v>
+                  <v>0.158577</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.21728</v>
+                  <v>0.234336</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.217315</v>
+                  <v>0.224925</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.21793</v>
+                  <v>0.216883</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.217787</v>
+                  <v>0.20972</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.217923</v>
+                  <v>0.201848</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.218541</v>
+                  <v>0.194494</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.21938</v>
+                  <v>0.187921</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.220115</v>
+                  <v>0.182167</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.22137</v>
+                  <v>0.177316</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.222222</v>
+                  <v>0.171691</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.223529</v>
+                  <v>0.168023</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.22549</v>
+                  <v>0.165471</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.228447</v>
+                  <v>0.163669</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.232987</v>
+                  <v>0.163704</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.219102</v>
+                  <v>0.242678</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.219541</v>
+                  <v>0.235687</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.219748</v>
+                  <v>0.22455</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.219959</v>
+                  <v>0.218977</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.220642</v>
+                  <v>0.21035</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.221022</v>
+                  <v>0.203212</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.221462</v>
+                  <v>0.195416</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.222167</v>
+                  <v>0.188549</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.223124</v>
+                  <v>0.18509</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.224288</v>
+                  <v>0.182046</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.225905</v>
+                  <v>0.179224</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.227744</v>
+                  <v>0.177848</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.230598</v>
+                  <v>0.173541</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.236023</v>
+                  <v>0.169102</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.223464</v>
+                  <v>0.254042</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.224531</v>
+                  <v>0.259149</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.224587</v>
+                  <v>0.236306</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.224483</v>
+                  <v>0.222767</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.224507</v>
+                  <v>0.216405</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.224405</v>
+                  <v>0.208142</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.226664</v>
+                  <v>0.201677</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.22932</v>
+                  <v>0.195548</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.227395</v>
+                  <v>0.189056</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.229934</v>
+                  <v>0.182624</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.230548</v>
+                  <v>0.178156</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.233495</v>
+                  <v>0.174608</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.236796</v>
+                  <v>0.171633</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.241887</v>
+                  <v>0.170934</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.249886</v>
+                  <v>0.255758</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.250123</v>
+                  <v>0.247302</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.250994</v>
+                  <v>0.23943</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.250755</v>
+                  <v>0.22978</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.252193</v>
+                  <v>0.220805</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.253215</v>
+                  <v>0.213086</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.254239</v>
+                  <v>0.206423</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.254333</v>
+                  <v>0.199202</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.254855</v>
+                  <v>0.193161</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.25697</v>
+                  <v>0.188345</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.258883</v>
+                  <v>0.183701</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.260853</v>
+                  <v>0.179105</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.264751</v>
+                  <v>0.175983</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.269732</v>
+                  <v>0.175207</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.276114</v>
+                  <v>0.176868</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.273031</v>
+                  <v>0.255168</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.273085</v>
+                  <v>0.245687</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.274781</v>
+                  <v>0.235894</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.276111</v>
+                  <v>0.228449</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.276388</v>
+                  <v>0.220252</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.279423</v>
+                  <v>0.212395</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.279404</v>
+                  <v>0.205789</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.283286</v>
+                  <v>0.198979</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.283068</v>
+                  <v>0.193168</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.285769</v>
+                  <v>0.187939</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.290016</v>
+                  <v>0.183439</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.294341</v>
+                  <v>0.179541</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.299975</v>
+                  <v>0.179061</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.307466</v>
+                  <v>0.179082</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.35631</v>
+                  <v>0.259911</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.346467</v>
+                  <v>0.251563</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.341993</v>
+                  <v>0.242857</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.343153</v>
+                  <v>0.234493</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.401885</v>
+                  <v>0.226465</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.397565</v>
+                  <v>0.218893</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.332944</v>
+                  <v>0.211566</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.344294</v>
+                  <v>0.20522</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.325342</v>
+                  <v>0.199014</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.352167</v>
+                  <v>0.193511</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.337268</v>
+                  <v>0.189531</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.36583</v>
+                  <v>0.185885</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.380756</v>
+                  <v>0.18375</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.421928</v>
+                  <v>0.183845</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.501549</v>
+                  <v>0.278244</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.537262</v>
+                  <v>0.271679</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.56011</v>
+                  <v>0.265508</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.5275609999999999</v>
+                  <v>0.256713</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.495897</v>
+                  <v>0.249207</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.572755</v>
+                  <v>0.24149</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.498945</v>
+                  <v>0.235856</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.449178</v>
+                  <v>0.228715</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.547782</v>
+                  <v>0.223444</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.415949</v>
+                  <v>0.218043</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.390068</v>
+                  <v>0.213537</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.52965</v>
+                  <v>0.210039</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.403388</v>
+                  <v>0.208195</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.438826</v>
+                  <v>0.208204</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.602194</v>
+                  <v>0.304461</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.620428</v>
+                  <v>0.297571</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.725276</v>
+                  <v>0.287177</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.702693</v>
+                  <v>0.279271</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.73215</v>
+                  <v>0.273178</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.661095</v>
+                  <v>0.266397</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.606508</v>
+                  <v>0.260727</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.582412</v>
+                  <v>0.255738</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.6140600000000001</v>
+                  <v>0.250645</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.607225</v>
+                  <v>0.245993</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.58941</v>
+                  <v>0.241963</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.744695</v>
+                  <v>0.238673</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.644252</v>
+                  <v>0.236356</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.5756869999999999</v>
+                  <v>0.235818</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.654726</v>
+                  <v>0.237864</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.742186</v>
+                  <v>0.32462</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.727647</v>
+                  <v>0.319055</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.695211</v>
+                  <v>0.314235</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.797323</v>
+                  <v>0.309144</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.741178</v>
+                  <v>0.304711</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.736914</v>
+                  <v>0.300168</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.781694</v>
+                  <v>0.296269</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.746709</v>
+                  <v>0.292886</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.689246</v>
+                  <v>0.289318</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.72965</v>
+                  <v>0.287032</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.8171620000000001</v>
+                  <v>0.285057</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.776553</v>
+                  <v>0.283504</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.784866</v>
+                  <v>0.284257</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.837244</v>
+                  <v>0.286675</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.8127220000000001</v>
+                  <v>0.386674</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.830338</v>
+                  <v>0.379899</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.815751</v>
+                  <v>0.37323</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.825283</v>
+                  <v>0.367346</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.822431</v>
+                  <v>0.361801</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.828008</v>
+                  <v>0.356534</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.854793</v>
+                  <v>0.351406</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3210,36 +3210,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Hoja1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="3" style="1" width="11.42578125"/>
+    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>absl::flat_hash_set</t>
+          <t>absl::flat_hash_map</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_set</t>
+          <t>foa_unordered_rc16_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_set</t>
+          <t>foa_unordered_rc15_map</t>
         </is>
       </c>
     </row>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.416527</v>
+        <v>0.416446</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6793630000000001</v>
+        <v>0.679949</v>
       </c>
       <c r="D2" t="n">
-        <v>0.727397</v>
+        <v>0.728143</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.407306</v>
+        <v>0.40761</v>
       </c>
       <c r="C3" t="n">
-        <v>0.659637</v>
+        <v>0.659455</v>
       </c>
       <c r="D3" t="n">
-        <v>0.708535</v>
+        <v>0.709113</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.399708</v>
+        <v>0.399882</v>
       </c>
       <c r="C4" t="n">
-        <v>0.64161</v>
+        <v>0.641673</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6922739999999999</v>
+        <v>0.6926949999999999</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.393207</v>
+        <v>0.393102</v>
       </c>
       <c r="C5" t="n">
-        <v>0.624579</v>
+        <v>0.624915</v>
       </c>
       <c r="D5" t="n">
-        <v>0.676633</v>
+        <v>0.677832</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.387603</v>
+        <v>0.387371</v>
       </c>
       <c r="C6" t="n">
-        <v>0.609422</v>
+        <v>0.609607</v>
       </c>
       <c r="D6" t="n">
-        <v>0.662659</v>
+        <v>0.663821</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.384662</v>
+        <v>0.384493</v>
       </c>
       <c r="C7" t="n">
-        <v>0.595517</v>
+        <v>0.59539</v>
       </c>
       <c r="D7" t="n">
-        <v>0.651257</v>
+        <v>0.65163</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.383435</v>
+        <v>0.383293</v>
       </c>
       <c r="C8" t="n">
-        <v>0.583711</v>
+        <v>0.583972</v>
       </c>
       <c r="D8" t="n">
-        <v>0.640873</v>
+        <v>0.641643</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.384749</v>
+        <v>0.385005</v>
       </c>
       <c r="C9" t="n">
-        <v>0.573963</v>
+        <v>0.573973</v>
       </c>
       <c r="D9" t="n">
-        <v>0.997978</v>
+        <v>0.997241</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5654130000000001</v>
+        <v>0.565485</v>
       </c>
       <c r="C10" t="n">
-        <v>0.903984</v>
+        <v>0.90312</v>
       </c>
       <c r="D10" t="n">
-        <v>0.966291</v>
+        <v>0.9665629999999999</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5485640000000001</v>
+        <v>0.5481279999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.874115</v>
+        <v>0.873274</v>
       </c>
       <c r="D11" t="n">
-        <v>0.936379</v>
+        <v>0.936066</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.532371</v>
+        <v>0.531552</v>
       </c>
       <c r="C12" t="n">
-        <v>0.845427</v>
+        <v>0.844763</v>
       </c>
       <c r="D12" t="n">
-        <v>0.908002</v>
+        <v>0.90741</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.516943</v>
+        <v>0.515957</v>
       </c>
       <c r="C13" t="n">
-        <v>0.817948</v>
+        <v>0.816759</v>
       </c>
       <c r="D13" t="n">
-        <v>0.881264</v>
+        <v>0.880837</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.50229</v>
+        <v>0.501404</v>
       </c>
       <c r="C14" t="n">
-        <v>0.791807</v>
+        <v>0.79089</v>
       </c>
       <c r="D14" t="n">
-        <v>0.855915</v>
+        <v>0.855139</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.488785</v>
+        <v>0.487682</v>
       </c>
       <c r="C15" t="n">
-        <v>0.767041</v>
+        <v>0.766253</v>
       </c>
       <c r="D15" t="n">
-        <v>0.831782</v>
+        <v>0.830759</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.476085</v>
+        <v>0.475775</v>
       </c>
       <c r="C16" t="n">
-        <v>0.744086</v>
+        <v>0.742901</v>
       </c>
       <c r="D16" t="n">
-        <v>0.808538</v>
+        <v>0.80806</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.464109</v>
+        <v>0.463999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.721872</v>
+        <v>0.721064</v>
       </c>
       <c r="D17" t="n">
-        <v>0.78678</v>
+        <v>0.786524</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.453412</v>
+        <v>0.453121</v>
       </c>
       <c r="C18" t="n">
-        <v>0.701516</v>
+        <v>0.700424</v>
       </c>
       <c r="D18" t="n">
-        <v>0.766504</v>
+        <v>0.765978</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.443383</v>
+        <v>0.443104</v>
       </c>
       <c r="C19" t="n">
-        <v>0.682274</v>
+        <v>0.681214</v>
       </c>
       <c r="D19" t="n">
-        <v>0.747386</v>
+        <v>0.747315</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.43536</v>
+        <v>0.434797</v>
       </c>
       <c r="C20" t="n">
-        <v>0.664348</v>
+        <v>0.663131</v>
       </c>
       <c r="D20" t="n">
-        <v>0.730398</v>
+        <v>0.730607</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.428899</v>
+        <v>0.427973</v>
       </c>
       <c r="C21" t="n">
-        <v>0.64763</v>
+        <v>0.646728</v>
       </c>
       <c r="D21" t="n">
-        <v>0.715028</v>
+        <v>0.715093</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.425016</v>
+        <v>0.423977</v>
       </c>
       <c r="C22" t="n">
-        <v>0.633755</v>
+        <v>0.632684</v>
       </c>
       <c r="D22" t="n">
-        <v>0.703327</v>
+        <v>0.703529</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.42329</v>
+        <v>0.422983</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6218129999999999</v>
+        <v>0.6209750000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>1.03584</v>
+        <v>1.03484</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.610798</v>
+        <v>0.610632</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9622309999999999</v>
+        <v>0.961055</v>
       </c>
       <c r="D24" t="n">
-        <v>1.00317</v>
+        <v>1.00269</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.592665</v>
+        <v>0.592328</v>
       </c>
       <c r="C25" t="n">
-        <v>0.930912</v>
+        <v>0.929292</v>
       </c>
       <c r="D25" t="n">
-        <v>0.972646</v>
+        <v>0.971509</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.574862</v>
+        <v>0.574267</v>
       </c>
       <c r="C26" t="n">
-        <v>0.900011</v>
+        <v>0.898872</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9431</v>
+        <v>0.941897</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.557589</v>
+        <v>0.556859</v>
       </c>
       <c r="C27" t="n">
-        <v>0.870495</v>
+        <v>0.869974</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9147189999999999</v>
+        <v>0.913949</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5412439999999999</v>
+        <v>0.5407419999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.842297</v>
+        <v>0.841969</v>
       </c>
       <c r="D28" t="n">
-        <v>0.888352</v>
+        <v>0.887415</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.526206</v>
+        <v>0.5256769999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.816169</v>
+        <v>0.815895</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8628169999999999</v>
+        <v>0.862313</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.512032</v>
+        <v>0.511419</v>
       </c>
       <c r="C30" t="n">
-        <v>0.791299</v>
+        <v>0.790358</v>
       </c>
       <c r="D30" t="n">
-        <v>0.838797</v>
+        <v>0.838364</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.498914</v>
+        <v>0.49827</v>
       </c>
       <c r="C31" t="n">
-        <v>0.7668</v>
+        <v>0.766352</v>
       </c>
       <c r="D31" t="n">
-        <v>0.816422</v>
+        <v>0.815805</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.486502</v>
+        <v>0.485762</v>
       </c>
       <c r="C32" t="n">
-        <v>0.74456</v>
+        <v>0.743608</v>
       </c>
       <c r="D32" t="n">
-        <v>0.794768</v>
+        <v>0.794432</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.474392</v>
+        <v>0.475135</v>
       </c>
       <c r="C33" t="n">
-        <v>0.723517</v>
+        <v>0.723648</v>
       </c>
       <c r="D33" t="n">
-        <v>0.775809</v>
+        <v>0.775172</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.465094</v>
+        <v>0.465229</v>
       </c>
       <c r="C34" t="n">
-        <v>0.70412</v>
+        <v>0.703864</v>
       </c>
       <c r="D34" t="n">
-        <v>0.75761</v>
+        <v>0.757316</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.457545</v>
+        <v>0.457122</v>
       </c>
       <c r="C35" t="n">
-        <v>0.686557</v>
+        <v>0.686378</v>
       </c>
       <c r="D35" t="n">
-        <v>0.741559</v>
+        <v>0.741408</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.451206</v>
+        <v>0.451162</v>
       </c>
       <c r="C36" t="n">
-        <v>0.670609</v>
+        <v>0.6698539999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7287709999999999</v>
+        <v>0.727828</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.448099</v>
+        <v>0.447512</v>
       </c>
       <c r="C37" t="n">
-        <v>0.656369</v>
+        <v>0.65659</v>
       </c>
       <c r="D37" t="n">
-        <v>1.06814</v>
+        <v>1.06744</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.642104</v>
+        <v>0.641798</v>
       </c>
       <c r="C38" t="n">
-        <v>1.00218</v>
+        <v>1.0012</v>
       </c>
       <c r="D38" t="n">
-        <v>1.03489</v>
+        <v>1.03452</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.623525</v>
+        <v>0.623367</v>
       </c>
       <c r="C39" t="n">
-        <v>0.968994</v>
+        <v>0.967959</v>
       </c>
       <c r="D39" t="n">
-        <v>1.00277</v>
+        <v>1.00264</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.603985</v>
+        <v>0.6042689999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>0.937675</v>
+        <v>0.936905</v>
       </c>
       <c r="D40" t="n">
-        <v>0.972871</v>
+        <v>0.97245</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.585894</v>
+        <v>0.586235</v>
       </c>
       <c r="C41" t="n">
-        <v>0.907344</v>
+        <v>0.906826</v>
       </c>
       <c r="D41" t="n">
-        <v>0.943802</v>
+        <v>0.9436290000000001</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.56968</v>
+        <v>0.569516</v>
       </c>
       <c r="C42" t="n">
-        <v>0.878128</v>
+        <v>0.8777470000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.916504</v>
+        <v>0.916341</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.552601</v>
+        <v>0.552007</v>
       </c>
       <c r="C43" t="n">
-        <v>0.850635</v>
+        <v>0.850154</v>
       </c>
       <c r="D43" t="n">
-        <v>0.890522</v>
+        <v>0.890553</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.537542</v>
+        <v>0.5390740000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>0.824606</v>
+        <v>0.824549</v>
       </c>
       <c r="D44" t="n">
-        <v>0.865955</v>
+        <v>0.865885</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.52391</v>
+        <v>0.524776</v>
       </c>
       <c r="C45" t="n">
-        <v>0.801225</v>
+        <v>0.799414</v>
       </c>
       <c r="D45" t="n">
-        <v>0.842664</v>
+        <v>0.842557</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.512036</v>
+        <v>0.511873</v>
       </c>
       <c r="C46" t="n">
-        <v>0.777603</v>
+        <v>0.776223</v>
       </c>
       <c r="D46" t="n">
-        <v>0.821176</v>
+        <v>0.8204669999999999</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5001679999999999</v>
+        <v>0.498374</v>
       </c>
       <c r="C47" t="n">
-        <v>0.755521</v>
+        <v>0.754126</v>
       </c>
       <c r="D47" t="n">
-        <v>0.800922</v>
+        <v>0.8003169999999999</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.489812</v>
+        <v>0.489814</v>
       </c>
       <c r="C48" t="n">
-        <v>0.735007</v>
+        <v>0.733888</v>
       </c>
       <c r="D48" t="n">
-        <v>0.781844</v>
+        <v>0.781348</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.481608</v>
+        <v>0.480879</v>
       </c>
       <c r="C49" t="n">
-        <v>0.7155319999999999</v>
+        <v>0.715382</v>
       </c>
       <c r="D49" t="n">
-        <v>0.7652139999999999</v>
+        <v>0.764659</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.475125</v>
+        <v>0.473812</v>
       </c>
       <c r="C50" t="n">
-        <v>0.698982</v>
+        <v>0.697924</v>
       </c>
       <c r="D50" t="n">
-        <v>0.750759</v>
+        <v>0.750551</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.470722</v>
+        <v>0.469674</v>
       </c>
       <c r="C51" t="n">
-        <v>0.684822</v>
+        <v>0.683605</v>
       </c>
       <c r="D51" t="n">
-        <v>1.10051</v>
+        <v>1.09796</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.469448</v>
+        <v>0.469399</v>
       </c>
       <c r="C52" t="n">
-        <v>0.673763</v>
+        <v>0.672992</v>
       </c>
       <c r="D52" t="n">
-        <v>1.06642</v>
+        <v>1.0654</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.652322</v>
+        <v>0.6518699999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>1.00564</v>
+        <v>1.00284</v>
       </c>
       <c r="D53" t="n">
-        <v>1.03469</v>
+        <v>1.03123</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6343800000000001</v>
+        <v>0.633557</v>
       </c>
       <c r="C54" t="n">
-        <v>0.973871</v>
+        <v>0.9697440000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>1.00437</v>
+        <v>1.00182</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.6160679999999999</v>
+        <v>0.615846</v>
       </c>
       <c r="C55" t="n">
-        <v>0.942726</v>
+        <v>0.939325</v>
       </c>
       <c r="D55" t="n">
-        <v>0.974639</v>
+        <v>0.972199</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5991069999999999</v>
+        <v>0.5986399999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9139080000000001</v>
+        <v>0.911488</v>
       </c>
       <c r="D56" t="n">
-        <v>0.945875</v>
+        <v>0.945441</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.582344</v>
+        <v>0.582653</v>
       </c>
       <c r="C57" t="n">
-        <v>0.883761</v>
+        <v>0.883321</v>
       </c>
       <c r="D57" t="n">
-        <v>0.919793</v>
+        <v>0.919664</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.567557</v>
+        <v>0.567931</v>
       </c>
       <c r="C58" t="n">
-        <v>0.85812</v>
+        <v>0.8572149999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>0.894532</v>
+        <v>0.894415</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5540580000000001</v>
+        <v>0.553576</v>
       </c>
       <c r="C59" t="n">
-        <v>0.834127</v>
+        <v>0.832093</v>
       </c>
       <c r="D59" t="n">
-        <v>0.87192</v>
+        <v>0.870545</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.54079</v>
+        <v>0.5398810000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.812018</v>
+        <v>0.808221</v>
       </c>
       <c r="D60" t="n">
-        <v>0.850507</v>
+        <v>0.848646</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.529217</v>
+        <v>0.528776</v>
       </c>
       <c r="C61" t="n">
-        <v>0.788851</v>
+        <v>0.786493</v>
       </c>
       <c r="D61" t="n">
-        <v>0.829319</v>
+        <v>0.827675</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.519225</v>
+        <v>0.51791</v>
       </c>
       <c r="C62" t="n">
-        <v>0.768263</v>
+        <v>0.765938</v>
       </c>
       <c r="D62" t="n">
-        <v>0.809996</v>
+        <v>0.808374</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.510409</v>
+        <v>0.508212</v>
       </c>
       <c r="C63" t="n">
-        <v>0.749838</v>
+        <v>0.745802</v>
       </c>
       <c r="D63" t="n">
-        <v>0.792998</v>
+        <v>0.7912090000000001</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5022489999999999</v>
+        <v>0.502243</v>
       </c>
       <c r="C64" t="n">
-        <v>0.729895</v>
+        <v>0.7285</v>
       </c>
       <c r="D64" t="n">
-        <v>0.775936</v>
+        <v>0.7758350000000001</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.496893</v>
+        <v>0.496498</v>
       </c>
       <c r="C65" t="n">
-        <v>0.714665</v>
+        <v>0.713109</v>
       </c>
       <c r="D65" t="n">
-        <v>0.764034</v>
+        <v>0.764243</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.495298</v>
+        <v>0.495183</v>
       </c>
       <c r="C66" t="n">
-        <v>0.701858</v>
+        <v>0.701816</v>
       </c>
       <c r="D66" t="n">
-        <v>1.12286</v>
+        <v>1.1149</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.713083</v>
+        <v>0.7074780000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>1.0743</v>
+        <v>1.06922</v>
       </c>
       <c r="D67" t="n">
-        <v>1.08948</v>
+        <v>1.08852</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6969070000000001</v>
+        <v>0.6994</v>
       </c>
       <c r="C68" t="n">
-        <v>1.04084</v>
+        <v>1.04197</v>
       </c>
       <c r="D68" t="n">
-        <v>1.05764</v>
+        <v>1.05946</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.680991</v>
+        <v>0.6839769999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>1.00808</v>
+        <v>1.01067</v>
       </c>
       <c r="D69" t="n">
-        <v>1.02572</v>
+        <v>1.02693</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.664948</v>
+        <v>0.66569</v>
       </c>
       <c r="C70" t="n">
-        <v>0.978376</v>
+        <v>0.979141</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9988860000000001</v>
+        <v>0.9993570000000001</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.651718</v>
+        <v>0.6513330000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.951346</v>
+        <v>0.951452</v>
       </c>
       <c r="D71" t="n">
-        <v>0.971681</v>
+        <v>0.971627</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.636083</v>
+        <v>0.636785</v>
       </c>
       <c r="C72" t="n">
-        <v>0.922949</v>
+        <v>0.919569</v>
       </c>
       <c r="D72" t="n">
-        <v>0.94559</v>
+        <v>0.942753</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.619165</v>
+        <v>0.622916</v>
       </c>
       <c r="C73" t="n">
-        <v>0.8936770000000001</v>
+        <v>0.895041</v>
       </c>
       <c r="D73" t="n">
-        <v>0.916305</v>
+        <v>0.923627</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.605061</v>
+        <v>0.612247</v>
       </c>
       <c r="C74" t="n">
-        <v>0.869512</v>
+        <v>0.873609</v>
       </c>
       <c r="D74" t="n">
-        <v>0.894635</v>
+        <v>0.899447</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.594517</v>
+        <v>0.599959</v>
       </c>
       <c r="C75" t="n">
-        <v>0.845421</v>
+        <v>0.849442</v>
       </c>
       <c r="D75" t="n">
-        <v>0.871333</v>
+        <v>0.877</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.584189</v>
+        <v>0.5880030000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.823998</v>
+        <v>0.827178</v>
       </c>
       <c r="D76" t="n">
-        <v>0.851342</v>
+        <v>0.856888</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.573397</v>
+        <v>0.577017</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8026799999999999</v>
+        <v>0.805773</v>
       </c>
       <c r="D77" t="n">
-        <v>0.834406</v>
+        <v>0.837851</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.565939</v>
+        <v>0.56908</v>
       </c>
       <c r="C78" t="n">
-        <v>0.787236</v>
+        <v>0.787842</v>
       </c>
       <c r="D78" t="n">
-        <v>0.818924</v>
+        <v>0.820283</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.559108</v>
+        <v>0.5549539999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>0.768444</v>
+        <v>0.772335</v>
       </c>
       <c r="D79" t="n">
-        <v>0.804297</v>
+        <v>0.807686</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5548380000000001</v>
+        <v>0.558006</v>
       </c>
       <c r="C80" t="n">
-        <v>0.753659</v>
+        <v>0.755321</v>
       </c>
       <c r="D80" t="n">
-        <v>1.19468</v>
+        <v>1.19666</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.786016</v>
+        <v>0.786643</v>
       </c>
       <c r="C81" t="n">
-        <v>1.15499</v>
+        <v>1.15441</v>
       </c>
       <c r="D81" t="n">
-        <v>1.17361</v>
+        <v>1.17555</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.779546</v>
+        <v>0.778937</v>
       </c>
       <c r="C82" t="n">
-        <v>1.13637</v>
+        <v>1.13449</v>
       </c>
       <c r="D82" t="n">
-        <v>1.15192</v>
+        <v>1.15348</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.769518</v>
+        <v>0.770516</v>
       </c>
       <c r="C83" t="n">
-        <v>1.10981</v>
+        <v>1.1107</v>
       </c>
       <c r="D83" t="n">
-        <v>1.12766</v>
+        <v>1.12967</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.7599089999999999</v>
+        <v>0.760585</v>
       </c>
       <c r="C84" t="n">
-        <v>1.08535</v>
+        <v>1.08614</v>
       </c>
       <c r="D84" t="n">
-        <v>1.10156</v>
+        <v>1.1036</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.749538</v>
+        <v>0.750512</v>
       </c>
       <c r="C85" t="n">
-        <v>1.06009</v>
+        <v>1.05954</v>
       </c>
       <c r="D85" t="n">
-        <v>1.07696</v>
+        <v>1.07805</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.738905</v>
+        <v>0.74032</v>
       </c>
       <c r="C86" t="n">
-        <v>1.03372</v>
+        <v>1.03417</v>
       </c>
       <c r="D86" t="n">
-        <v>1.05088</v>
+        <v>1.05206</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.727766</v>
+        <v>0.729338</v>
       </c>
       <c r="C87" t="n">
-        <v>1.0084</v>
+        <v>1.00924</v>
       </c>
       <c r="D87" t="n">
-        <v>1.02542</v>
+        <v>1.02737</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.7177829999999999</v>
+        <v>0.719016</v>
       </c>
       <c r="C88" t="n">
-        <v>0.984785</v>
+        <v>0.984634</v>
       </c>
       <c r="D88" t="n">
-        <v>1.00242</v>
+        <v>1.00289</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.707407</v>
+        <v>0.707991</v>
       </c>
       <c r="C89" t="n">
-        <v>0.962334</v>
+        <v>0.960372</v>
       </c>
       <c r="D89" t="n">
-        <v>0.97897</v>
+        <v>0.979773</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.697228</v>
+        <v>0.698034</v>
       </c>
       <c r="C90" t="n">
-        <v>0.939089</v>
+        <v>0.9378379999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>0.956408</v>
+        <v>0.957838</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.6876409999999999</v>
+        <v>0.688624</v>
       </c>
       <c r="C91" t="n">
-        <v>0.91876</v>
+        <v>0.9174020000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>0.937393</v>
+        <v>0.937841</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.680049</v>
+        <v>0.681145</v>
       </c>
       <c r="C92" t="n">
-        <v>0.899667</v>
+        <v>0.898284</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9193170000000001</v>
+        <v>0.919018</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.673721</v>
+        <v>0.6735</v>
       </c>
       <c r="C93" t="n">
-        <v>0.881911</v>
+        <v>0.8800210000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>0.903478</v>
+        <v>0.903497</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.66971</v>
+        <v>0.668741</v>
       </c>
       <c r="C94" t="n">
-        <v>0.868383</v>
+        <v>0.865372</v>
       </c>
       <c r="D94" t="n">
-        <v>1.2994</v>
+        <v>1.30036</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.904516</v>
+        <v>0.906061</v>
       </c>
       <c r="C95" t="n">
-        <v>1.268</v>
+        <v>1.26908</v>
       </c>
       <c r="D95" t="n">
-        <v>1.29062</v>
+        <v>1.29253</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.9016459999999999</v>
+        <v>0.902049</v>
       </c>
       <c r="C96" t="n">
-        <v>1.25721</v>
+        <v>1.25558</v>
       </c>
       <c r="D96" t="n">
-        <v>1.27447</v>
+        <v>1.27512</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.891423</v>
+        <v>0.891722</v>
       </c>
       <c r="C97" t="n">
-        <v>1.23473</v>
+        <v>1.23409</v>
       </c>
       <c r="D97" t="n">
-        <v>1.25536</v>
+        <v>1.25636</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.881181</v>
+        <v>0.881418</v>
       </c>
       <c r="C98" t="n">
-        <v>1.21124</v>
+        <v>1.20953</v>
       </c>
       <c r="D98" t="n">
-        <v>1.23482</v>
+        <v>1.23531</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.870886</v>
+        <v>0.871103</v>
       </c>
       <c r="C99" t="n">
-        <v>1.1886</v>
+        <v>1.18656</v>
       </c>
       <c r="D99" t="n">
-        <v>1.21329</v>
+        <v>1.21401</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.860186</v>
+        <v>0.861044</v>
       </c>
       <c r="C100" t="n">
-        <v>1.16637</v>
+        <v>1.1651</v>
       </c>
       <c r="D100" t="n">
-        <v>1.19239</v>
+        <v>1.19263</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.850506</v>
+        <v>0.850602</v>
       </c>
       <c r="C101" t="n">
-        <v>1.14548</v>
+        <v>1.14594</v>
       </c>
       <c r="D101" t="n">
-        <v>1.17276</v>
+        <v>1.17383</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.841094</v>
+        <v>0.840854</v>
       </c>
       <c r="C102" t="n">
-        <v>1.12629</v>
+        <v>1.12479</v>
       </c>
       <c r="D102" t="n">
-        <v>1.15405</v>
+        <v>1.15506</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.832229</v>
+        <v>0.832693</v>
       </c>
       <c r="C103" t="n">
-        <v>1.10679</v>
+        <v>1.10572</v>
       </c>
       <c r="D103" t="n">
-        <v>1.13691</v>
+        <v>1.1374</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.824263</v>
+        <v>0.825152</v>
       </c>
       <c r="C104" t="n">
-        <v>1.0894</v>
+        <v>1.08876</v>
       </c>
       <c r="D104" t="n">
-        <v>1.12054</v>
+        <v>1.12212</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.817178</v>
+        <v>0.818393</v>
       </c>
       <c r="C105" t="n">
-        <v>1.07375</v>
+        <v>1.07307</v>
       </c>
       <c r="D105" t="n">
-        <v>1.10622</v>
+        <v>1.10604</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.811804</v>
+        <v>0.812285</v>
       </c>
       <c r="C106" t="n">
-        <v>1.05861</v>
+        <v>1.05802</v>
       </c>
       <c r="D106" t="n">
-        <v>1.09122</v>
+        <v>1.09203</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.806747</v>
+        <v>0.807821</v>
       </c>
       <c r="C107" t="n">
-        <v>1.04544</v>
+        <v>1.04389</v>
       </c>
       <c r="D107" t="n">
-        <v>1.07803</v>
+        <v>1.07887</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.8045679999999999</v>
+        <v>0.80574</v>
       </c>
       <c r="C108" t="n">
-        <v>1.03456</v>
+        <v>1.03379</v>
       </c>
       <c r="D108" t="n">
-        <v>1.47328</v>
+        <v>1.47549</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.804513</v>
+        <v>0.8054480000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>1.02722</v>
+        <v>1.02575</v>
       </c>
       <c r="D109" t="n">
-        <v>1.46608</v>
+        <v>1.46637</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.03397</v>
+        <v>1.03457</v>
       </c>
       <c r="C110" t="n">
-        <v>1.42887</v>
+        <v>1.42805</v>
       </c>
       <c r="D110" t="n">
-        <v>1.45126</v>
+        <v>1.45287</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.02166</v>
+        <v>1.02258</v>
       </c>
       <c r="C111" t="n">
-        <v>1.40546</v>
+        <v>1.40705</v>
       </c>
       <c r="D111" t="n">
-        <v>1.43595</v>
+        <v>1.43998</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.00883</v>
+        <v>1.01056</v>
       </c>
       <c r="C112" t="n">
-        <v>1.38266</v>
+        <v>1.3837</v>
       </c>
       <c r="D112" t="n">
-        <v>1.42101</v>
+        <v>1.42615</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.9969749999999999</v>
+        <v>0.998777</v>
       </c>
       <c r="C113" t="n">
-        <v>1.36021</v>
+        <v>1.36175</v>
       </c>
       <c r="D113" t="n">
-        <v>1.41012</v>
+        <v>1.41152</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.9845</v>
+        <v>0.986768</v>
       </c>
       <c r="C114" t="n">
-        <v>1.3395</v>
+        <v>1.34132</v>
       </c>
       <c r="D114" t="n">
-        <v>1.39659</v>
+        <v>1.40239</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.974264</v>
+        <v>0.976423</v>
       </c>
       <c r="C115" t="n">
-        <v>1.31912</v>
+        <v>1.32095</v>
       </c>
       <c r="D115" t="n">
-        <v>1.38703</v>
+        <v>1.39026</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.96489</v>
+        <v>0.967179</v>
       </c>
       <c r="C116" t="n">
-        <v>1.30116</v>
+        <v>1.30182</v>
       </c>
       <c r="D116" t="n">
-        <v>1.37625</v>
+        <v>1.37902</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.955287</v>
+        <v>0.9576480000000001</v>
       </c>
       <c r="C117" t="n">
-        <v>1.284</v>
+        <v>1.28532</v>
       </c>
       <c r="D117" t="n">
-        <v>1.36515</v>
+        <v>1.36872</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.946975</v>
+        <v>0.949874</v>
       </c>
       <c r="C118" t="n">
-        <v>1.26815</v>
+        <v>1.26898</v>
       </c>
       <c r="D118" t="n">
-        <v>1.35496</v>
+        <v>1.35955</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.940378</v>
+        <v>0.941998</v>
       </c>
       <c r="C119" t="n">
-        <v>1.2533</v>
+        <v>1.25464</v>
       </c>
       <c r="D119" t="n">
-        <v>1.34594</v>
+        <v>1.35068</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.933613</v>
+        <v>0.936133</v>
       </c>
       <c r="C120" t="n">
-        <v>1.24081</v>
+        <v>1.24104</v>
       </c>
       <c r="D120" t="n">
-        <v>1.33862</v>
+        <v>1.34293</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.929365</v>
+        <v>0.931876</v>
       </c>
       <c r="C121" t="n">
-        <v>1.22891</v>
+        <v>1.23108</v>
       </c>
       <c r="D121" t="n">
-        <v>1.3326</v>
+        <v>1.33587</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.926253</v>
+        <v>0.929119</v>
       </c>
       <c r="C122" t="n">
-        <v>1.22011</v>
+        <v>1.22199</v>
       </c>
       <c r="D122" t="n">
-        <v>1.32514</v>
+        <v>1.32891</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.926598</v>
+        <v>0.9290040000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>1.21342</v>
+        <v>1.21399</v>
       </c>
       <c r="D123" t="n">
-        <v>1.71735</v>
+        <v>1.72098</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.15767</v>
+        <v>1.15911</v>
       </c>
       <c r="C124" t="n">
-        <v>1.6175</v>
+        <v>1.61748</v>
       </c>
       <c r="D124" t="n">
-        <v>1.70172</v>
+        <v>1.70537</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.14615</v>
+        <v>1.14797</v>
       </c>
       <c r="C125" t="n">
-        <v>1.5963</v>
+        <v>1.59666</v>
       </c>
       <c r="D125" t="n">
-        <v>1.68609</v>
+        <v>1.689</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.13458</v>
+        <v>1.1365</v>
       </c>
       <c r="C126" t="n">
-        <v>1.57451</v>
+        <v>1.57523</v>
       </c>
       <c r="D126" t="n">
-        <v>1.67199</v>
+        <v>1.6765</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.12392</v>
+        <v>1.12646</v>
       </c>
       <c r="C127" t="n">
-        <v>1.55388</v>
+        <v>1.55558</v>
       </c>
       <c r="D127" t="n">
-        <v>1.65599</v>
+        <v>1.661</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.1144</v>
+        <v>1.11643</v>
       </c>
       <c r="C128" t="n">
-        <v>1.53521</v>
+        <v>1.53688</v>
       </c>
       <c r="D128" t="n">
-        <v>1.64297</v>
+        <v>1.64773</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.10513</v>
+        <v>1.10713</v>
       </c>
       <c r="C129" t="n">
-        <v>1.51829</v>
+        <v>1.51935</v>
       </c>
       <c r="D129" t="n">
-        <v>1.63111</v>
+        <v>1.64013</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.09655</v>
+        <v>1.09946</v>
       </c>
       <c r="C130" t="n">
-        <v>1.50047</v>
+        <v>1.50319</v>
       </c>
       <c r="D130" t="n">
-        <v>1.62034</v>
+        <v>1.62354</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.08894</v>
+        <v>1.09155</v>
       </c>
       <c r="C131" t="n">
-        <v>1.48543</v>
+        <v>1.48678</v>
       </c>
       <c r="D131" t="n">
-        <v>1.60502</v>
+        <v>1.61313</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.08137</v>
+        <v>1.08516</v>
       </c>
       <c r="C132" t="n">
-        <v>1.47095</v>
+        <v>1.47289</v>
       </c>
       <c r="D132" t="n">
-        <v>1.59446</v>
+        <v>1.60647</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.07653</v>
+        <v>1.07944</v>
       </c>
       <c r="C133" t="n">
-        <v>1.45859</v>
+        <v>1.46017</v>
       </c>
       <c r="D133" t="n">
-        <v>1.58603</v>
+        <v>1.5941</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.07245</v>
+        <v>1.07516</v>
       </c>
       <c r="C134" t="n">
-        <v>1.44658</v>
+        <v>1.44985</v>
       </c>
       <c r="D134" t="n">
-        <v>1.5793</v>
+        <v>1.58977</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.07065</v>
+        <v>1.07265</v>
       </c>
       <c r="C135" t="n">
-        <v>1.43937</v>
+        <v>1.43984</v>
       </c>
       <c r="D135" t="n">
-        <v>1.57074</v>
+        <v>1.58484</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.06923</v>
+        <v>1.07185</v>
       </c>
       <c r="C136" t="n">
-        <v>1.43122</v>
+        <v>1.43164</v>
       </c>
       <c r="D136" t="n">
-        <v>1.57114</v>
+        <v>1.57891</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.06897</v>
+        <v>1.0718</v>
       </c>
       <c r="C137" t="n">
-        <v>1.42517</v>
+        <v>1.42591</v>
       </c>
       <c r="D137" t="n">
-        <v>1.96335</v>
+        <v>1.96648</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.29972</v>
+        <v>1.30221</v>
       </c>
       <c r="C138" t="n">
-        <v>1.82855</v>
+        <v>1.83135</v>
       </c>
       <c r="D138" t="n">
-        <v>1.93922</v>
+        <v>1.94482</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.29136</v>
+        <v>1.2936</v>
       </c>
       <c r="C139" t="n">
-        <v>1.80753</v>
+        <v>1.81068</v>
       </c>
       <c r="D139" t="n">
-        <v>1.91919</v>
+        <v>1.92754</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.28184</v>
+        <v>1.28505</v>
       </c>
       <c r="C140" t="n">
-        <v>1.78934</v>
+        <v>1.79151</v>
       </c>
       <c r="D140" t="n">
-        <v>1.90163</v>
+        <v>1.91041</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.27356</v>
+        <v>1.27657</v>
       </c>
       <c r="C141" t="n">
-        <v>1.76981</v>
+        <v>1.77224</v>
       </c>
       <c r="D141" t="n">
-        <v>1.88048</v>
+        <v>1.89295</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.26616</v>
+        <v>1.26932</v>
       </c>
       <c r="C142" t="n">
-        <v>1.75284</v>
+        <v>1.75522</v>
       </c>
       <c r="D142" t="n">
-        <v>1.86753</v>
+        <v>1.87446</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.25943</v>
+        <v>1.26254</v>
       </c>
       <c r="C143" t="n">
-        <v>1.73639</v>
+        <v>1.73852</v>
       </c>
       <c r="D143" t="n">
-        <v>1.84866</v>
+        <v>1.86065</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.416446</v>
+        <v>0.416168</v>
       </c>
       <c r="C2" t="n">
-        <v>0.679949</v>
+        <v>0.679397</v>
       </c>
       <c r="D2" t="n">
-        <v>0.728143</v>
+        <v>0.727492</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.40761</v>
+        <v>0.407442</v>
       </c>
       <c r="C3" t="n">
-        <v>0.659455</v>
+        <v>0.659935</v>
       </c>
       <c r="D3" t="n">
-        <v>0.709113</v>
+        <v>0.708886</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.399882</v>
+        <v>0.399326</v>
       </c>
       <c r="C4" t="n">
-        <v>0.641673</v>
+        <v>0.641825</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6926949999999999</v>
+        <v>0.691899</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.393102</v>
+        <v>0.392754</v>
       </c>
       <c r="C5" t="n">
-        <v>0.624915</v>
+        <v>0.624934</v>
       </c>
       <c r="D5" t="n">
-        <v>0.677832</v>
+        <v>0.676963</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.387371</v>
+        <v>0.387796</v>
       </c>
       <c r="C6" t="n">
-        <v>0.609607</v>
+        <v>0.609684</v>
       </c>
       <c r="D6" t="n">
-        <v>0.663821</v>
+        <v>0.662886</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.384493</v>
+        <v>0.38451</v>
       </c>
       <c r="C7" t="n">
-        <v>0.59539</v>
+        <v>0.595427</v>
       </c>
       <c r="D7" t="n">
-        <v>0.65163</v>
+        <v>0.6505300000000001</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.383293</v>
+        <v>0.383132</v>
       </c>
       <c r="C8" t="n">
-        <v>0.583972</v>
+        <v>0.583504</v>
       </c>
       <c r="D8" t="n">
-        <v>0.641643</v>
+        <v>0.640844</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.385005</v>
+        <v>0.384556</v>
       </c>
       <c r="C9" t="n">
-        <v>0.573973</v>
+        <v>0.5736329999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.997241</v>
+        <v>0.9970560000000001</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.565485</v>
+        <v>0.565558</v>
       </c>
       <c r="C10" t="n">
-        <v>0.90312</v>
+        <v>0.903334</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9665629999999999</v>
+        <v>0.966305</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5481279999999999</v>
+        <v>0.548238</v>
       </c>
       <c r="C11" t="n">
-        <v>0.873274</v>
+        <v>0.873519</v>
       </c>
       <c r="D11" t="n">
-        <v>0.936066</v>
+        <v>0.935974</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.531552</v>
+        <v>0.532016</v>
       </c>
       <c r="C12" t="n">
-        <v>0.844763</v>
+        <v>0.844791</v>
       </c>
       <c r="D12" t="n">
-        <v>0.90741</v>
+        <v>0.907874</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.515957</v>
+        <v>0.517096</v>
       </c>
       <c r="C13" t="n">
-        <v>0.816759</v>
+        <v>0.817403</v>
       </c>
       <c r="D13" t="n">
-        <v>0.880837</v>
+        <v>0.88085</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.501404</v>
+        <v>0.501861</v>
       </c>
       <c r="C14" t="n">
-        <v>0.79089</v>
+        <v>0.791425</v>
       </c>
       <c r="D14" t="n">
-        <v>0.855139</v>
+        <v>0.855733</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.487682</v>
+        <v>0.488108</v>
       </c>
       <c r="C15" t="n">
-        <v>0.766253</v>
+        <v>0.76689</v>
       </c>
       <c r="D15" t="n">
-        <v>0.830759</v>
+        <v>0.8311539999999999</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.475775</v>
+        <v>0.475275</v>
       </c>
       <c r="C16" t="n">
-        <v>0.742901</v>
+        <v>0.743355</v>
       </c>
       <c r="D16" t="n">
-        <v>0.80806</v>
+        <v>0.807777</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.463999</v>
+        <v>0.463222</v>
       </c>
       <c r="C17" t="n">
-        <v>0.721064</v>
+        <v>0.721279</v>
       </c>
       <c r="D17" t="n">
-        <v>0.786524</v>
+        <v>0.786097</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.453121</v>
+        <v>0.452407</v>
       </c>
       <c r="C18" t="n">
-        <v>0.700424</v>
+        <v>0.701126</v>
       </c>
       <c r="D18" t="n">
-        <v>0.765978</v>
+        <v>0.765844</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.443104</v>
+        <v>0.442382</v>
       </c>
       <c r="C19" t="n">
-        <v>0.681214</v>
+        <v>0.681499</v>
       </c>
       <c r="D19" t="n">
-        <v>0.747315</v>
+        <v>0.747181</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.434797</v>
+        <v>0.434394</v>
       </c>
       <c r="C20" t="n">
-        <v>0.663131</v>
+        <v>0.663497</v>
       </c>
       <c r="D20" t="n">
-        <v>0.730607</v>
+        <v>0.729854</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.427973</v>
+        <v>0.427869</v>
       </c>
       <c r="C21" t="n">
-        <v>0.646728</v>
+        <v>0.647073</v>
       </c>
       <c r="D21" t="n">
-        <v>0.715093</v>
+        <v>0.714782</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.423977</v>
+        <v>0.425035</v>
       </c>
       <c r="C22" t="n">
-        <v>0.632684</v>
+        <v>0.6332719999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.703529</v>
+        <v>0.703152</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.422983</v>
+        <v>0.422237</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6209750000000001</v>
+        <v>0.6210020000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>1.03484</v>
+        <v>1.03524</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.610632</v>
+        <v>0.611524</v>
       </c>
       <c r="C24" t="n">
-        <v>0.961055</v>
+        <v>0.961624</v>
       </c>
       <c r="D24" t="n">
-        <v>1.00269</v>
+        <v>1.00299</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.592328</v>
+        <v>0.593072</v>
       </c>
       <c r="C25" t="n">
-        <v>0.929292</v>
+        <v>0.929665</v>
       </c>
       <c r="D25" t="n">
-        <v>0.971509</v>
+        <v>0.972037</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.574267</v>
+        <v>0.575037</v>
       </c>
       <c r="C26" t="n">
-        <v>0.898872</v>
+        <v>0.899037</v>
       </c>
       <c r="D26" t="n">
-        <v>0.941897</v>
+        <v>0.942065</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.556859</v>
+        <v>0.557598</v>
       </c>
       <c r="C27" t="n">
-        <v>0.869974</v>
+        <v>0.869061</v>
       </c>
       <c r="D27" t="n">
-        <v>0.913949</v>
+        <v>0.914273</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5407419999999999</v>
+        <v>0.5413520000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>0.841969</v>
+        <v>0.841183</v>
       </c>
       <c r="D28" t="n">
-        <v>0.887415</v>
+        <v>0.887226</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5256769999999999</v>
+        <v>0.526423</v>
       </c>
       <c r="C29" t="n">
-        <v>0.815895</v>
+        <v>0.815596</v>
       </c>
       <c r="D29" t="n">
-        <v>0.862313</v>
+        <v>0.8622610000000001</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.511419</v>
+        <v>0.511494</v>
       </c>
       <c r="C30" t="n">
-        <v>0.790358</v>
+        <v>0.790528</v>
       </c>
       <c r="D30" t="n">
-        <v>0.838364</v>
+        <v>0.8384239999999999</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.49827</v>
+        <v>0.498982</v>
       </c>
       <c r="C31" t="n">
-        <v>0.766352</v>
+        <v>0.766459</v>
       </c>
       <c r="D31" t="n">
-        <v>0.815805</v>
+        <v>0.815699</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.485762</v>
+        <v>0.486553</v>
       </c>
       <c r="C32" t="n">
-        <v>0.743608</v>
+        <v>0.743973</v>
       </c>
       <c r="D32" t="n">
-        <v>0.794432</v>
+        <v>0.794392</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.475135</v>
+        <v>0.4755</v>
       </c>
       <c r="C33" t="n">
-        <v>0.723648</v>
+        <v>0.723145</v>
       </c>
       <c r="D33" t="n">
-        <v>0.775172</v>
+        <v>0.774853</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.465229</v>
+        <v>0.465825</v>
       </c>
       <c r="C34" t="n">
-        <v>0.703864</v>
+        <v>0.702789</v>
       </c>
       <c r="D34" t="n">
-        <v>0.757316</v>
+        <v>0.756786</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.457122</v>
+        <v>0.457765</v>
       </c>
       <c r="C35" t="n">
-        <v>0.686378</v>
+        <v>0.6845250000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.741408</v>
+        <v>0.740866</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.451162</v>
+        <v>0.451581</v>
       </c>
       <c r="C36" t="n">
-        <v>0.6698539999999999</v>
+        <v>0.668566</v>
       </c>
       <c r="D36" t="n">
-        <v>0.727828</v>
+        <v>0.727621</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.447512</v>
+        <v>0.447912</v>
       </c>
       <c r="C37" t="n">
-        <v>0.65659</v>
+        <v>0.655446</v>
       </c>
       <c r="D37" t="n">
-        <v>1.06744</v>
+        <v>1.06724</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.641798</v>
+        <v>0.6423140000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>1.0012</v>
+        <v>1.00021</v>
       </c>
       <c r="D38" t="n">
-        <v>1.03452</v>
+        <v>1.03419</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.623367</v>
+        <v>0.623142</v>
       </c>
       <c r="C39" t="n">
-        <v>0.967959</v>
+        <v>0.967834</v>
       </c>
       <c r="D39" t="n">
-        <v>1.00264</v>
+        <v>1.00246</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6042689999999999</v>
+        <v>0.60475</v>
       </c>
       <c r="C40" t="n">
-        <v>0.936905</v>
+        <v>0.935481</v>
       </c>
       <c r="D40" t="n">
-        <v>0.97245</v>
+        <v>0.972302</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.586235</v>
+        <v>0.585582</v>
       </c>
       <c r="C41" t="n">
-        <v>0.906826</v>
+        <v>0.905424</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9436290000000001</v>
+        <v>0.943522</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.569516</v>
+        <v>0.56906</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8777470000000001</v>
+        <v>0.8761100000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.916341</v>
+        <v>0.916268</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.552007</v>
+        <v>0.553473</v>
       </c>
       <c r="C43" t="n">
-        <v>0.850154</v>
+        <v>0.849529</v>
       </c>
       <c r="D43" t="n">
-        <v>0.890553</v>
+        <v>0.890266</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5390740000000001</v>
+        <v>0.538377</v>
       </c>
       <c r="C44" t="n">
-        <v>0.824549</v>
+        <v>0.823054</v>
       </c>
       <c r="D44" t="n">
-        <v>0.865885</v>
+        <v>0.865587</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.524776</v>
+        <v>0.5250629999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>0.799414</v>
+        <v>0.798996</v>
       </c>
       <c r="D45" t="n">
-        <v>0.842557</v>
+        <v>0.842006</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.511873</v>
+        <v>0.512154</v>
       </c>
       <c r="C46" t="n">
-        <v>0.776223</v>
+        <v>0.775675</v>
       </c>
       <c r="D46" t="n">
-        <v>0.8204669999999999</v>
+        <v>0.820173</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.498374</v>
+        <v>0.500509</v>
       </c>
       <c r="C47" t="n">
-        <v>0.754126</v>
+        <v>0.754185</v>
       </c>
       <c r="D47" t="n">
-        <v>0.8003169999999999</v>
+        <v>0.800448</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.489814</v>
+        <v>0.4901</v>
       </c>
       <c r="C48" t="n">
-        <v>0.733888</v>
+        <v>0.73239</v>
       </c>
       <c r="D48" t="n">
-        <v>0.781348</v>
+        <v>0.78124</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.480879</v>
+        <v>0.481506</v>
       </c>
       <c r="C49" t="n">
-        <v>0.715382</v>
+        <v>0.7142039999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.764659</v>
+        <v>0.764544</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.473812</v>
+        <v>0.47489</v>
       </c>
       <c r="C50" t="n">
-        <v>0.697924</v>
+        <v>0.697709</v>
       </c>
       <c r="D50" t="n">
-        <v>0.750551</v>
+        <v>0.750284</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.469674</v>
+        <v>0.470916</v>
       </c>
       <c r="C51" t="n">
-        <v>0.683605</v>
+        <v>0.6834710000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>1.09796</v>
+        <v>1.09696</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.469399</v>
+        <v>0.469311</v>
       </c>
       <c r="C52" t="n">
-        <v>0.672992</v>
+        <v>0.67157</v>
       </c>
       <c r="D52" t="n">
-        <v>1.0654</v>
+        <v>1.06353</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.6518699999999999</v>
+        <v>0.652539</v>
       </c>
       <c r="C53" t="n">
-        <v>1.00284</v>
+        <v>1.00128</v>
       </c>
       <c r="D53" t="n">
-        <v>1.03123</v>
+        <v>1.03151</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.633557</v>
+        <v>0.633675</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9697440000000001</v>
+        <v>0.96894</v>
       </c>
       <c r="D54" t="n">
-        <v>1.00182</v>
+        <v>1.00104</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.615846</v>
+        <v>0.615279</v>
       </c>
       <c r="C55" t="n">
-        <v>0.939325</v>
+        <v>0.939645</v>
       </c>
       <c r="D55" t="n">
-        <v>0.972199</v>
+        <v>0.972585</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5986399999999999</v>
+        <v>0.599223</v>
       </c>
       <c r="C56" t="n">
-        <v>0.911488</v>
+        <v>0.910894</v>
       </c>
       <c r="D56" t="n">
-        <v>0.945441</v>
+        <v>0.945118</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.582653</v>
+        <v>0.582873</v>
       </c>
       <c r="C57" t="n">
-        <v>0.883321</v>
+        <v>0.882481</v>
       </c>
       <c r="D57" t="n">
-        <v>0.919664</v>
+        <v>0.91865</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.567931</v>
+        <v>0.568126</v>
       </c>
       <c r="C58" t="n">
-        <v>0.8572149999999999</v>
+        <v>0.856128</v>
       </c>
       <c r="D58" t="n">
-        <v>0.894415</v>
+        <v>0.894305</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.553576</v>
+        <v>0.553427</v>
       </c>
       <c r="C59" t="n">
-        <v>0.832093</v>
+        <v>0.831936</v>
       </c>
       <c r="D59" t="n">
-        <v>0.870545</v>
+        <v>0.870646</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5398810000000001</v>
+        <v>0.540444</v>
       </c>
       <c r="C60" t="n">
-        <v>0.808221</v>
+        <v>0.808321</v>
       </c>
       <c r="D60" t="n">
-        <v>0.848646</v>
+        <v>0.848541</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.528776</v>
+        <v>0.528627</v>
       </c>
       <c r="C61" t="n">
-        <v>0.786493</v>
+        <v>0.785232</v>
       </c>
       <c r="D61" t="n">
-        <v>0.827675</v>
+        <v>0.8274820000000001</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.51791</v>
+        <v>0.517516</v>
       </c>
       <c r="C62" t="n">
-        <v>0.765938</v>
+        <v>0.765429</v>
       </c>
       <c r="D62" t="n">
-        <v>0.808374</v>
+        <v>0.808497</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.508212</v>
+        <v>0.508227</v>
       </c>
       <c r="C63" t="n">
-        <v>0.745802</v>
+        <v>0.745436</v>
       </c>
       <c r="D63" t="n">
-        <v>0.7912090000000001</v>
+        <v>0.790724</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.502243</v>
+        <v>0.501514</v>
       </c>
       <c r="C64" t="n">
-        <v>0.7285</v>
+        <v>0.729062</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7758350000000001</v>
+        <v>0.776365</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.496498</v>
+        <v>0.49712</v>
       </c>
       <c r="C65" t="n">
-        <v>0.713109</v>
+        <v>0.712365</v>
       </c>
       <c r="D65" t="n">
-        <v>0.764243</v>
+        <v>0.763722</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.495183</v>
+        <v>0.494882</v>
       </c>
       <c r="C66" t="n">
-        <v>0.701816</v>
+        <v>0.7004</v>
       </c>
       <c r="D66" t="n">
-        <v>1.1149</v>
+        <v>1.12174</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.7074780000000001</v>
+        <v>0.714255</v>
       </c>
       <c r="C67" t="n">
-        <v>1.06922</v>
+        <v>1.07204</v>
       </c>
       <c r="D67" t="n">
-        <v>1.08852</v>
+        <v>1.09109</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6994</v>
+        <v>0.69994</v>
       </c>
       <c r="C68" t="n">
-        <v>1.04197</v>
+        <v>1.04184</v>
       </c>
       <c r="D68" t="n">
-        <v>1.05946</v>
+        <v>1.05955</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6839769999999999</v>
+        <v>0.683712</v>
       </c>
       <c r="C69" t="n">
-        <v>1.01067</v>
+        <v>1.00977</v>
       </c>
       <c r="D69" t="n">
-        <v>1.02693</v>
+        <v>1.02961</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.66569</v>
+        <v>0.668737</v>
       </c>
       <c r="C70" t="n">
-        <v>0.979141</v>
+        <v>0.9801609999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9993570000000001</v>
+        <v>1.00041</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.6513330000000001</v>
+        <v>0.651955</v>
       </c>
       <c r="C71" t="n">
-        <v>0.951452</v>
+        <v>0.94915</v>
       </c>
       <c r="D71" t="n">
-        <v>0.971627</v>
+        <v>0.972329</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.636785</v>
+        <v>0.6380940000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>0.919569</v>
+        <v>0.922589</v>
       </c>
       <c r="D72" t="n">
-        <v>0.942753</v>
+        <v>0.946036</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.622916</v>
+        <v>0.623344</v>
       </c>
       <c r="C73" t="n">
-        <v>0.895041</v>
+        <v>0.896811</v>
       </c>
       <c r="D73" t="n">
-        <v>0.923627</v>
+        <v>0.921596</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.612247</v>
+        <v>0.6112610000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.873609</v>
+        <v>0.871864</v>
       </c>
       <c r="D74" t="n">
-        <v>0.899447</v>
+        <v>0.897427</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.599959</v>
+        <v>0.597878</v>
       </c>
       <c r="C75" t="n">
-        <v>0.849442</v>
+        <v>0.846697</v>
       </c>
       <c r="D75" t="n">
-        <v>0.877</v>
+        <v>0.87564</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5880030000000001</v>
+        <v>0.585533</v>
       </c>
       <c r="C76" t="n">
-        <v>0.827178</v>
+        <v>0.824592</v>
       </c>
       <c r="D76" t="n">
-        <v>0.856888</v>
+        <v>0.854351</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.577017</v>
+        <v>0.575732</v>
       </c>
       <c r="C77" t="n">
-        <v>0.805773</v>
+        <v>0.803442</v>
       </c>
       <c r="D77" t="n">
-        <v>0.837851</v>
+        <v>0.836018</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.56908</v>
+        <v>0.565952</v>
       </c>
       <c r="C78" t="n">
-        <v>0.787842</v>
+        <v>0.785675</v>
       </c>
       <c r="D78" t="n">
-        <v>0.820283</v>
+        <v>0.819346</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5549539999999999</v>
+        <v>0.560426</v>
       </c>
       <c r="C79" t="n">
-        <v>0.772335</v>
+        <v>0.768726</v>
       </c>
       <c r="D79" t="n">
-        <v>0.807686</v>
+        <v>0.804773</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.558006</v>
+        <v>0.5541239999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>0.755321</v>
+        <v>0.753807</v>
       </c>
       <c r="D80" t="n">
-        <v>1.19666</v>
+        <v>1.19604</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.786643</v>
+        <v>0.786056</v>
       </c>
       <c r="C81" t="n">
-        <v>1.15441</v>
+        <v>1.15454</v>
       </c>
       <c r="D81" t="n">
-        <v>1.17555</v>
+        <v>1.17525</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.778937</v>
+        <v>0.778987</v>
       </c>
       <c r="C82" t="n">
-        <v>1.13449</v>
+        <v>1.13308</v>
       </c>
       <c r="D82" t="n">
-        <v>1.15348</v>
+        <v>1.15241</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.770516</v>
+        <v>0.769492</v>
       </c>
       <c r="C83" t="n">
-        <v>1.1107</v>
+        <v>1.10894</v>
       </c>
       <c r="D83" t="n">
-        <v>1.12967</v>
+        <v>1.12752</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.760585</v>
+        <v>0.758942</v>
       </c>
       <c r="C84" t="n">
-        <v>1.08614</v>
+        <v>1.08134</v>
       </c>
       <c r="D84" t="n">
-        <v>1.1036</v>
+        <v>1.10113</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.750512</v>
+        <v>0.748549</v>
       </c>
       <c r="C85" t="n">
-        <v>1.05954</v>
+        <v>1.0572</v>
       </c>
       <c r="D85" t="n">
-        <v>1.07805</v>
+        <v>1.07701</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.74032</v>
+        <v>0.7381490000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>1.03417</v>
+        <v>1.03225</v>
       </c>
       <c r="D86" t="n">
-        <v>1.05206</v>
+        <v>1.04901</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.729338</v>
+        <v>0.72699</v>
       </c>
       <c r="C87" t="n">
-        <v>1.00924</v>
+        <v>1.00538</v>
       </c>
       <c r="D87" t="n">
-        <v>1.02737</v>
+        <v>1.02343</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.719016</v>
+        <v>0.715962</v>
       </c>
       <c r="C88" t="n">
-        <v>0.984634</v>
+        <v>0.9817360000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>1.00289</v>
+        <v>1.00302</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.707991</v>
+        <v>0.708425</v>
       </c>
       <c r="C89" t="n">
-        <v>0.960372</v>
+        <v>0.961775</v>
       </c>
       <c r="D89" t="n">
-        <v>0.979773</v>
+        <v>0.981096</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.698034</v>
+        <v>0.699318</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9378379999999999</v>
+        <v>0.939544</v>
       </c>
       <c r="D90" t="n">
-        <v>0.957838</v>
+        <v>0.958419</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.688624</v>
+        <v>0.689256</v>
       </c>
       <c r="C91" t="n">
-        <v>0.9174020000000001</v>
+        <v>0.918199</v>
       </c>
       <c r="D91" t="n">
-        <v>0.937841</v>
+        <v>0.9386409999999999</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.681145</v>
+        <v>0.681191</v>
       </c>
       <c r="C92" t="n">
-        <v>0.898284</v>
+        <v>0.899351</v>
       </c>
       <c r="D92" t="n">
-        <v>0.919018</v>
+        <v>0.921254</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.6735</v>
+        <v>0.6750389999999999</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8800210000000001</v>
+        <v>0.88218</v>
       </c>
       <c r="D93" t="n">
-        <v>0.903497</v>
+        <v>0.905762</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.668741</v>
+        <v>0.670767</v>
       </c>
       <c r="C94" t="n">
-        <v>0.865372</v>
+        <v>0.867202</v>
       </c>
       <c r="D94" t="n">
-        <v>1.30036</v>
+        <v>1.30136</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.906061</v>
+        <v>0.9073059999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>1.26908</v>
+        <v>1.26973</v>
       </c>
       <c r="D95" t="n">
-        <v>1.29253</v>
+        <v>1.293</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.902049</v>
+        <v>0.904287</v>
       </c>
       <c r="C96" t="n">
-        <v>1.25558</v>
+        <v>1.25749</v>
       </c>
       <c r="D96" t="n">
-        <v>1.27512</v>
+        <v>1.27644</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.891722</v>
+        <v>0.8939589999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>1.23409</v>
+        <v>1.23387</v>
       </c>
       <c r="D97" t="n">
-        <v>1.25636</v>
+        <v>1.25557</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.881418</v>
+        <v>0.881965</v>
       </c>
       <c r="C98" t="n">
-        <v>1.20953</v>
+        <v>1.21049</v>
       </c>
       <c r="D98" t="n">
-        <v>1.23531</v>
+        <v>1.23495</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.871103</v>
+        <v>0.872124</v>
       </c>
       <c r="C99" t="n">
-        <v>1.18656</v>
+        <v>1.18932</v>
       </c>
       <c r="D99" t="n">
-        <v>1.21401</v>
+        <v>1.21413</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.861044</v>
+        <v>0.861773</v>
       </c>
       <c r="C100" t="n">
-        <v>1.1651</v>
+        <v>1.16628</v>
       </c>
       <c r="D100" t="n">
-        <v>1.19263</v>
+        <v>1.1944</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.850602</v>
+        <v>0.852136</v>
       </c>
       <c r="C101" t="n">
-        <v>1.14594</v>
+        <v>1.14595</v>
       </c>
       <c r="D101" t="n">
-        <v>1.17383</v>
+        <v>1.17549</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.840854</v>
+        <v>0.843925</v>
       </c>
       <c r="C102" t="n">
-        <v>1.12479</v>
+        <v>1.12674</v>
       </c>
       <c r="D102" t="n">
-        <v>1.15506</v>
+        <v>1.15599</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.832693</v>
+        <v>0.834228</v>
       </c>
       <c r="C103" t="n">
-        <v>1.10572</v>
+        <v>1.10709</v>
       </c>
       <c r="D103" t="n">
-        <v>1.1374</v>
+        <v>1.1387</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.825152</v>
+        <v>0.826894</v>
       </c>
       <c r="C104" t="n">
-        <v>1.08876</v>
+        <v>1.09058</v>
       </c>
       <c r="D104" t="n">
-        <v>1.12212</v>
+        <v>1.12125</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.818393</v>
+        <v>0.8203589999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>1.07307</v>
+        <v>1.07334</v>
       </c>
       <c r="D105" t="n">
-        <v>1.10604</v>
+        <v>1.10623</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.812285</v>
+        <v>0.814318</v>
       </c>
       <c r="C106" t="n">
-        <v>1.05802</v>
+        <v>1.05897</v>
       </c>
       <c r="D106" t="n">
-        <v>1.09203</v>
+        <v>1.09277</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.807821</v>
+        <v>0.809642</v>
       </c>
       <c r="C107" t="n">
-        <v>1.04389</v>
+        <v>1.04549</v>
       </c>
       <c r="D107" t="n">
-        <v>1.07887</v>
+        <v>1.07857</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.80574</v>
+        <v>0.804714</v>
       </c>
       <c r="C108" t="n">
-        <v>1.03379</v>
+        <v>1.03404</v>
       </c>
       <c r="D108" t="n">
-        <v>1.47549</v>
+        <v>1.47482</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.8054480000000001</v>
+        <v>0.805295</v>
       </c>
       <c r="C109" t="n">
-        <v>1.02575</v>
+        <v>1.02565</v>
       </c>
       <c r="D109" t="n">
-        <v>1.46637</v>
+        <v>1.46735</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.03457</v>
+        <v>1.03531</v>
       </c>
       <c r="C110" t="n">
-        <v>1.42805</v>
+        <v>1.4286</v>
       </c>
       <c r="D110" t="n">
-        <v>1.45287</v>
+        <v>1.45229</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.02258</v>
+        <v>1.02264</v>
       </c>
       <c r="C111" t="n">
-        <v>1.40705</v>
+        <v>1.40603</v>
       </c>
       <c r="D111" t="n">
-        <v>1.43998</v>
+        <v>1.43833</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.01056</v>
+        <v>1.01069</v>
       </c>
       <c r="C112" t="n">
-        <v>1.3837</v>
+        <v>1.38438</v>
       </c>
       <c r="D112" t="n">
-        <v>1.42615</v>
+        <v>1.42714</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.998777</v>
+        <v>0.9995849999999999</v>
       </c>
       <c r="C113" t="n">
-        <v>1.36175</v>
+        <v>1.36188</v>
       </c>
       <c r="D113" t="n">
-        <v>1.41152</v>
+        <v>1.41446</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.986768</v>
+        <v>0.9882069999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>1.34132</v>
+        <v>1.34081</v>
       </c>
       <c r="D114" t="n">
-        <v>1.40239</v>
+        <v>1.40215</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.976423</v>
+        <v>0.978096</v>
       </c>
       <c r="C115" t="n">
-        <v>1.32095</v>
+        <v>1.32156</v>
       </c>
       <c r="D115" t="n">
-        <v>1.39026</v>
+        <v>1.39102</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.967179</v>
+        <v>0.967924</v>
       </c>
       <c r="C116" t="n">
-        <v>1.30182</v>
+        <v>1.30268</v>
       </c>
       <c r="D116" t="n">
-        <v>1.37902</v>
+        <v>1.38035</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.9576480000000001</v>
+        <v>0.958782</v>
       </c>
       <c r="C117" t="n">
-        <v>1.28532</v>
+        <v>1.2867</v>
       </c>
       <c r="D117" t="n">
-        <v>1.36872</v>
+        <v>1.36922</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.949874</v>
+        <v>0.94926</v>
       </c>
       <c r="C118" t="n">
-        <v>1.26898</v>
+        <v>1.26839</v>
       </c>
       <c r="D118" t="n">
-        <v>1.35955</v>
+        <v>1.36002</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.941998</v>
+        <v>0.942496</v>
       </c>
       <c r="C119" t="n">
-        <v>1.25464</v>
+        <v>1.25445</v>
       </c>
       <c r="D119" t="n">
-        <v>1.35068</v>
+        <v>1.35267</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.936133</v>
+        <v>0.937115</v>
       </c>
       <c r="C120" t="n">
-        <v>1.24104</v>
+        <v>1.24174</v>
       </c>
       <c r="D120" t="n">
-        <v>1.34293</v>
+        <v>1.34309</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.931876</v>
+        <v>0.9325830000000001</v>
       </c>
       <c r="C121" t="n">
-        <v>1.23108</v>
+        <v>1.2307</v>
       </c>
       <c r="D121" t="n">
-        <v>1.33587</v>
+        <v>1.33473</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.929119</v>
+        <v>0.928878</v>
       </c>
       <c r="C122" t="n">
-        <v>1.22199</v>
+        <v>1.22091</v>
       </c>
       <c r="D122" t="n">
-        <v>1.32891</v>
+        <v>1.32655</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.9290040000000001</v>
+        <v>0.928546</v>
       </c>
       <c r="C123" t="n">
-        <v>1.21399</v>
+        <v>1.21465</v>
       </c>
       <c r="D123" t="n">
-        <v>1.72098</v>
+        <v>1.72115</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.15911</v>
+        <v>1.15939</v>
       </c>
       <c r="C124" t="n">
-        <v>1.61748</v>
+        <v>1.61723</v>
       </c>
       <c r="D124" t="n">
-        <v>1.70537</v>
+        <v>1.70518</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.14797</v>
+        <v>1.14874</v>
       </c>
       <c r="C125" t="n">
-        <v>1.59666</v>
+        <v>1.59712</v>
       </c>
       <c r="D125" t="n">
-        <v>1.689</v>
+        <v>1.68876</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.1365</v>
+        <v>1.13741</v>
       </c>
       <c r="C126" t="n">
-        <v>1.57523</v>
+        <v>1.57558</v>
       </c>
       <c r="D126" t="n">
-        <v>1.6765</v>
+        <v>1.67405</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.12646</v>
+        <v>1.12636</v>
       </c>
       <c r="C127" t="n">
-        <v>1.55558</v>
+        <v>1.55411</v>
       </c>
       <c r="D127" t="n">
-        <v>1.661</v>
+        <v>1.66127</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.11643</v>
+        <v>1.11604</v>
       </c>
       <c r="C128" t="n">
-        <v>1.53688</v>
+        <v>1.53624</v>
       </c>
       <c r="D128" t="n">
-        <v>1.64773</v>
+        <v>1.64751</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.10713</v>
+        <v>1.1079</v>
       </c>
       <c r="C129" t="n">
-        <v>1.51935</v>
+        <v>1.51932</v>
       </c>
       <c r="D129" t="n">
-        <v>1.64013</v>
+        <v>1.63506</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.09946</v>
+        <v>1.09887</v>
       </c>
       <c r="C130" t="n">
-        <v>1.50319</v>
+        <v>1.50228</v>
       </c>
       <c r="D130" t="n">
-        <v>1.62354</v>
+        <v>1.62265</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.09155</v>
+        <v>1.09093</v>
       </c>
       <c r="C131" t="n">
-        <v>1.48678</v>
+        <v>1.48624</v>
       </c>
       <c r="D131" t="n">
-        <v>1.61313</v>
+        <v>1.61278</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.08516</v>
+        <v>1.08455</v>
       </c>
       <c r="C132" t="n">
-        <v>1.47289</v>
+        <v>1.47294</v>
       </c>
       <c r="D132" t="n">
-        <v>1.60647</v>
+        <v>1.60086</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.07944</v>
+        <v>1.07833</v>
       </c>
       <c r="C133" t="n">
-        <v>1.46017</v>
+        <v>1.45969</v>
       </c>
       <c r="D133" t="n">
-        <v>1.5941</v>
+        <v>1.59192</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.07516</v>
+        <v>1.07517</v>
       </c>
       <c r="C134" t="n">
-        <v>1.44985</v>
+        <v>1.4487</v>
       </c>
       <c r="D134" t="n">
-        <v>1.58977</v>
+        <v>1.58716</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.07265</v>
+        <v>1.07236</v>
       </c>
       <c r="C135" t="n">
-        <v>1.43984</v>
+        <v>1.43947</v>
       </c>
       <c r="D135" t="n">
-        <v>1.58484</v>
+        <v>1.57789</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.07185</v>
+        <v>1.07087</v>
       </c>
       <c r="C136" t="n">
-        <v>1.43164</v>
+        <v>1.43172</v>
       </c>
       <c r="D136" t="n">
-        <v>1.57891</v>
+        <v>1.57541</v>
       </c>
     </row>
     <row r="137">
@@ -5141,10 +5141,10 @@
         <v>1.0718</v>
       </c>
       <c r="C137" t="n">
-        <v>1.42591</v>
+        <v>1.42713</v>
       </c>
       <c r="D137" t="n">
-        <v>1.96648</v>
+        <v>1.96679</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.30221</v>
+        <v>1.30256</v>
       </c>
       <c r="C138" t="n">
-        <v>1.83135</v>
+        <v>1.83049</v>
       </c>
       <c r="D138" t="n">
-        <v>1.94482</v>
+        <v>1.94605</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.2936</v>
+        <v>1.29366</v>
       </c>
       <c r="C139" t="n">
-        <v>1.81068</v>
+        <v>1.80929</v>
       </c>
       <c r="D139" t="n">
-        <v>1.92754</v>
+        <v>1.92659</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.28505</v>
+        <v>1.28419</v>
       </c>
       <c r="C140" t="n">
-        <v>1.79151</v>
+        <v>1.79011</v>
       </c>
       <c r="D140" t="n">
-        <v>1.91041</v>
+        <v>1.90879</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.27657</v>
+        <v>1.27652</v>
       </c>
       <c r="C141" t="n">
-        <v>1.77224</v>
+        <v>1.7715</v>
       </c>
       <c r="D141" t="n">
-        <v>1.89295</v>
+        <v>1.88851</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.26932</v>
+        <v>1.26945</v>
       </c>
       <c r="C142" t="n">
-        <v>1.75522</v>
+        <v>1.75493</v>
       </c>
       <c r="D142" t="n">
-        <v>1.87446</v>
+        <v>1.87935</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.26254</v>
+        <v>1.26267</v>
       </c>
       <c r="C143" t="n">
-        <v>1.73852</v>
+        <v>1.73844</v>
       </c>
       <c r="D143" t="n">
-        <v>1.86065</v>
+        <v>1.85755</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.416168</v>
+        <v>0.417531</v>
       </c>
       <c r="C2" t="n">
-        <v>0.679397</v>
+        <v>0.6794829999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.727492</v>
+        <v>0.72742</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.407442</v>
+        <v>0.408259</v>
       </c>
       <c r="C3" t="n">
-        <v>0.659935</v>
+        <v>0.6594680000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.708886</v>
+        <v>0.708963</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.399326</v>
+        <v>0.400664</v>
       </c>
       <c r="C4" t="n">
-        <v>0.641825</v>
+        <v>0.641209</v>
       </c>
       <c r="D4" t="n">
-        <v>0.691899</v>
+        <v>0.692028</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.392754</v>
+        <v>0.393744</v>
       </c>
       <c r="C5" t="n">
-        <v>0.624934</v>
+        <v>0.624069</v>
       </c>
       <c r="D5" t="n">
-        <v>0.676963</v>
+        <v>0.676975</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.387796</v>
+        <v>0.388015</v>
       </c>
       <c r="C6" t="n">
-        <v>0.609684</v>
+        <v>0.608729</v>
       </c>
       <c r="D6" t="n">
-        <v>0.662886</v>
+        <v>0.663025</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.38451</v>
+        <v>0.385153</v>
       </c>
       <c r="C7" t="n">
-        <v>0.595427</v>
+        <v>0.594324</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6505300000000001</v>
+        <v>0.650578</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.383132</v>
+        <v>0.383709</v>
       </c>
       <c r="C8" t="n">
-        <v>0.583504</v>
+        <v>0.5828100000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.640844</v>
+        <v>0.640882</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.384556</v>
+        <v>0.38519</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5736329999999999</v>
+        <v>0.572811</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9970560000000001</v>
+        <v>0.9977200000000001</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.565558</v>
+        <v>0.565879</v>
       </c>
       <c r="C10" t="n">
-        <v>0.903334</v>
+        <v>0.902693</v>
       </c>
       <c r="D10" t="n">
-        <v>0.966305</v>
+        <v>0.96701</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.548238</v>
+        <v>0.549011</v>
       </c>
       <c r="C11" t="n">
-        <v>0.873519</v>
+        <v>0.872821</v>
       </c>
       <c r="D11" t="n">
-        <v>0.935974</v>
+        <v>0.936601</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.532016</v>
+        <v>0.531972</v>
       </c>
       <c r="C12" t="n">
-        <v>0.844791</v>
+        <v>0.844211</v>
       </c>
       <c r="D12" t="n">
-        <v>0.907874</v>
+        <v>0.908293</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.517096</v>
+        <v>0.517446</v>
       </c>
       <c r="C13" t="n">
-        <v>0.817403</v>
+        <v>0.816595</v>
       </c>
       <c r="D13" t="n">
-        <v>0.88085</v>
+        <v>0.881231</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.501861</v>
+        <v>0.502532</v>
       </c>
       <c r="C14" t="n">
-        <v>0.791425</v>
+        <v>0.790766</v>
       </c>
       <c r="D14" t="n">
-        <v>0.855733</v>
+        <v>0.855924</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.488108</v>
+        <v>0.488575</v>
       </c>
       <c r="C15" t="n">
-        <v>0.76689</v>
+        <v>0.76574</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8311539999999999</v>
+        <v>0.831719</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.475275</v>
+        <v>0.47558</v>
       </c>
       <c r="C16" t="n">
-        <v>0.743355</v>
+        <v>0.742475</v>
       </c>
       <c r="D16" t="n">
-        <v>0.807777</v>
+        <v>0.808612</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.463222</v>
+        <v>0.463697</v>
       </c>
       <c r="C17" t="n">
-        <v>0.721279</v>
+        <v>0.721016</v>
       </c>
       <c r="D17" t="n">
-        <v>0.786097</v>
+        <v>0.786635</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.452407</v>
+        <v>0.452651</v>
       </c>
       <c r="C18" t="n">
-        <v>0.701126</v>
+        <v>0.700332</v>
       </c>
       <c r="D18" t="n">
-        <v>0.765844</v>
+        <v>0.7664</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.442382</v>
+        <v>0.444472</v>
       </c>
       <c r="C19" t="n">
-        <v>0.681499</v>
+        <v>0.680916</v>
       </c>
       <c r="D19" t="n">
-        <v>0.747181</v>
+        <v>0.747875</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.434394</v>
+        <v>0.434411</v>
       </c>
       <c r="C20" t="n">
-        <v>0.663497</v>
+        <v>0.6628540000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.729854</v>
+        <v>0.730751</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.427869</v>
+        <v>0.429006</v>
       </c>
       <c r="C21" t="n">
-        <v>0.647073</v>
+        <v>0.6461710000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.714782</v>
+        <v>0.715295</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.425035</v>
+        <v>0.424143</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6332719999999999</v>
+        <v>0.632312</v>
       </c>
       <c r="D22" t="n">
-        <v>0.703152</v>
+        <v>0.70391</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.422237</v>
+        <v>0.422158</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6210020000000001</v>
+        <v>0.620124</v>
       </c>
       <c r="D23" t="n">
-        <v>1.03524</v>
+        <v>1.03555</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.611524</v>
+        <v>0.611416</v>
       </c>
       <c r="C24" t="n">
-        <v>0.961624</v>
+        <v>0.961043</v>
       </c>
       <c r="D24" t="n">
-        <v>1.00299</v>
+        <v>1.00315</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.593072</v>
+        <v>0.593016</v>
       </c>
       <c r="C25" t="n">
-        <v>0.929665</v>
+        <v>0.929277</v>
       </c>
       <c r="D25" t="n">
-        <v>0.972037</v>
+        <v>0.97209</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.575037</v>
+        <v>0.574797</v>
       </c>
       <c r="C26" t="n">
-        <v>0.899037</v>
+        <v>0.898639</v>
       </c>
       <c r="D26" t="n">
-        <v>0.942065</v>
+        <v>0.94246</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.557598</v>
+        <v>0.557638</v>
       </c>
       <c r="C27" t="n">
-        <v>0.869061</v>
+        <v>0.868978</v>
       </c>
       <c r="D27" t="n">
-        <v>0.914273</v>
+        <v>0.914391</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5413520000000001</v>
+        <v>0.541318</v>
       </c>
       <c r="C28" t="n">
-        <v>0.841183</v>
+        <v>0.841616</v>
       </c>
       <c r="D28" t="n">
-        <v>0.887226</v>
+        <v>0.887689</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.526423</v>
+        <v>0.526431</v>
       </c>
       <c r="C29" t="n">
-        <v>0.815596</v>
+        <v>0.814936</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8622610000000001</v>
+        <v>0.862685</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.511494</v>
+        <v>0.512246</v>
       </c>
       <c r="C30" t="n">
-        <v>0.790528</v>
+        <v>0.790058</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8384239999999999</v>
+        <v>0.838664</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.498982</v>
+        <v>0.498817</v>
       </c>
       <c r="C31" t="n">
-        <v>0.766459</v>
+        <v>0.76608</v>
       </c>
       <c r="D31" t="n">
-        <v>0.815699</v>
+        <v>0.8159999999999999</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.486553</v>
+        <v>0.486478</v>
       </c>
       <c r="C32" t="n">
-        <v>0.743973</v>
+        <v>0.743347</v>
       </c>
       <c r="D32" t="n">
-        <v>0.794392</v>
+        <v>0.794747</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.4755</v>
+        <v>0.475528</v>
       </c>
       <c r="C33" t="n">
-        <v>0.723145</v>
+        <v>0.722691</v>
       </c>
       <c r="D33" t="n">
-        <v>0.774853</v>
+        <v>0.775211</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.465825</v>
+        <v>0.465783</v>
       </c>
       <c r="C34" t="n">
-        <v>0.702789</v>
+        <v>0.702997</v>
       </c>
       <c r="D34" t="n">
-        <v>0.756786</v>
+        <v>0.757172</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.457765</v>
+        <v>0.457614</v>
       </c>
       <c r="C35" t="n">
-        <v>0.6845250000000001</v>
+        <v>0.684978</v>
       </c>
       <c r="D35" t="n">
-        <v>0.740866</v>
+        <v>0.741259</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.451581</v>
+        <v>0.451859</v>
       </c>
       <c r="C36" t="n">
-        <v>0.668566</v>
+        <v>0.669439</v>
       </c>
       <c r="D36" t="n">
-        <v>0.727621</v>
+        <v>0.727811</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.447912</v>
+        <v>0.447393</v>
       </c>
       <c r="C37" t="n">
-        <v>0.655446</v>
+        <v>0.6556419999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>1.06724</v>
+        <v>1.06799</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6423140000000001</v>
+        <v>0.642386</v>
       </c>
       <c r="C38" t="n">
-        <v>1.00021</v>
+        <v>1.00006</v>
       </c>
       <c r="D38" t="n">
-        <v>1.03419</v>
+        <v>1.03539</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.623142</v>
+        <v>0.623266</v>
       </c>
       <c r="C39" t="n">
-        <v>0.967834</v>
+        <v>0.967758</v>
       </c>
       <c r="D39" t="n">
-        <v>1.00246</v>
+        <v>1.00266</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.60475</v>
+        <v>0.604518</v>
       </c>
       <c r="C40" t="n">
-        <v>0.935481</v>
+        <v>0.935713</v>
       </c>
       <c r="D40" t="n">
-        <v>0.972302</v>
+        <v>0.972095</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.585582</v>
+        <v>0.586555</v>
       </c>
       <c r="C41" t="n">
-        <v>0.905424</v>
+        <v>0.905064</v>
       </c>
       <c r="D41" t="n">
-        <v>0.943522</v>
+        <v>0.943273</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.56906</v>
+        <v>0.569547</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8761100000000001</v>
+        <v>0.876682</v>
       </c>
       <c r="D42" t="n">
-        <v>0.916268</v>
+        <v>0.915392</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.553473</v>
+        <v>0.553214</v>
       </c>
       <c r="C43" t="n">
-        <v>0.849529</v>
+        <v>0.849098</v>
       </c>
       <c r="D43" t="n">
-        <v>0.890266</v>
+        <v>0.889342</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.538377</v>
+        <v>0.537655</v>
       </c>
       <c r="C44" t="n">
-        <v>0.823054</v>
+        <v>0.822951</v>
       </c>
       <c r="D44" t="n">
-        <v>0.865587</v>
+        <v>0.864971</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5250629999999999</v>
+        <v>0.52257</v>
       </c>
       <c r="C45" t="n">
-        <v>0.798996</v>
+        <v>0.7991239999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.842006</v>
+        <v>0.841855</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.512154</v>
+        <v>0.511657</v>
       </c>
       <c r="C46" t="n">
-        <v>0.775675</v>
+        <v>0.77618</v>
       </c>
       <c r="D46" t="n">
-        <v>0.820173</v>
+        <v>0.820177</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.500509</v>
+        <v>0.5002490000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.754185</v>
+        <v>0.754777</v>
       </c>
       <c r="D47" t="n">
-        <v>0.800448</v>
+        <v>0.800276</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.4901</v>
+        <v>0.490105</v>
       </c>
       <c r="C48" t="n">
-        <v>0.73239</v>
+        <v>0.734214</v>
       </c>
       <c r="D48" t="n">
-        <v>0.78124</v>
+        <v>0.78183</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.481506</v>
+        <v>0.481598</v>
       </c>
       <c r="C49" t="n">
-        <v>0.7142039999999999</v>
+        <v>0.715448</v>
       </c>
       <c r="D49" t="n">
-        <v>0.764544</v>
+        <v>0.764523</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.47489</v>
+        <v>0.474749</v>
       </c>
       <c r="C50" t="n">
-        <v>0.697709</v>
+        <v>0.6991889999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.750284</v>
+        <v>0.750743</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.470916</v>
+        <v>0.470941</v>
       </c>
       <c r="C51" t="n">
-        <v>0.6834710000000001</v>
+        <v>0.684368</v>
       </c>
       <c r="D51" t="n">
-        <v>1.09696</v>
+        <v>1.09742</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.469311</v>
+        <v>0.469648</v>
       </c>
       <c r="C52" t="n">
-        <v>0.67157</v>
+        <v>0.670593</v>
       </c>
       <c r="D52" t="n">
-        <v>1.06353</v>
+        <v>1.06533</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.652539</v>
+        <v>0.652931</v>
       </c>
       <c r="C53" t="n">
-        <v>1.00128</v>
+        <v>1.00274</v>
       </c>
       <c r="D53" t="n">
-        <v>1.03151</v>
+        <v>1.03276</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.633675</v>
+        <v>0.634121</v>
       </c>
       <c r="C54" t="n">
-        <v>0.96894</v>
+        <v>0.9721109999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>1.00104</v>
+        <v>1.00232</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.615279</v>
+        <v>0.616274</v>
       </c>
       <c r="C55" t="n">
-        <v>0.939645</v>
+        <v>0.941256</v>
       </c>
       <c r="D55" t="n">
-        <v>0.972585</v>
+        <v>0.972866</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.599223</v>
+        <v>0.599038</v>
       </c>
       <c r="C56" t="n">
-        <v>0.910894</v>
+        <v>0.911762</v>
       </c>
       <c r="D56" t="n">
-        <v>0.945118</v>
+        <v>0.946237</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.582873</v>
+        <v>0.5830419999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>0.882481</v>
+        <v>0.884168</v>
       </c>
       <c r="D57" t="n">
-        <v>0.91865</v>
+        <v>0.919388</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.568126</v>
+        <v>0.567831</v>
       </c>
       <c r="C58" t="n">
-        <v>0.856128</v>
+        <v>0.858481</v>
       </c>
       <c r="D58" t="n">
-        <v>0.894305</v>
+        <v>0.895502</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.553427</v>
+        <v>0.55415</v>
       </c>
       <c r="C59" t="n">
-        <v>0.831936</v>
+        <v>0.832909</v>
       </c>
       <c r="D59" t="n">
-        <v>0.870646</v>
+        <v>0.871216</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.540444</v>
+        <v>0.541142</v>
       </c>
       <c r="C60" t="n">
-        <v>0.808321</v>
+        <v>0.80953</v>
       </c>
       <c r="D60" t="n">
-        <v>0.848541</v>
+        <v>0.848924</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.528627</v>
+        <v>0.5294990000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>0.785232</v>
+        <v>0.7876649999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.8274820000000001</v>
+        <v>0.828858</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.517516</v>
+        <v>0.520022</v>
       </c>
       <c r="C62" t="n">
-        <v>0.765429</v>
+        <v>0.768559</v>
       </c>
       <c r="D62" t="n">
-        <v>0.808497</v>
+        <v>0.809648</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.508227</v>
+        <v>0.510239</v>
       </c>
       <c r="C63" t="n">
-        <v>0.745436</v>
+        <v>0.747695</v>
       </c>
       <c r="D63" t="n">
-        <v>0.790724</v>
+        <v>0.7916069999999999</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.501514</v>
+        <v>0.502041</v>
       </c>
       <c r="C64" t="n">
-        <v>0.729062</v>
+        <v>0.72973</v>
       </c>
       <c r="D64" t="n">
-        <v>0.776365</v>
+        <v>0.776142</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.49712</v>
+        <v>0.497456</v>
       </c>
       <c r="C65" t="n">
-        <v>0.712365</v>
+        <v>0.7147289999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>0.763722</v>
+        <v>0.764111</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.494882</v>
+        <v>0.495687</v>
       </c>
       <c r="C66" t="n">
-        <v>0.7004</v>
+        <v>0.701259</v>
       </c>
       <c r="D66" t="n">
-        <v>1.12174</v>
+        <v>1.11884</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.714255</v>
+        <v>0.709747</v>
       </c>
       <c r="C67" t="n">
-        <v>1.07204</v>
+        <v>1.06935</v>
       </c>
       <c r="D67" t="n">
-        <v>1.09109</v>
+        <v>1.08404</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.69994</v>
+        <v>0.693491</v>
       </c>
       <c r="C68" t="n">
-        <v>1.04184</v>
+        <v>1.03746</v>
       </c>
       <c r="D68" t="n">
-        <v>1.05955</v>
+        <v>1.05349</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.683712</v>
+        <v>0.678971</v>
       </c>
       <c r="C69" t="n">
-        <v>1.00977</v>
+        <v>1.00864</v>
       </c>
       <c r="D69" t="n">
-        <v>1.02961</v>
+        <v>1.02654</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.668737</v>
+        <v>0.662393</v>
       </c>
       <c r="C70" t="n">
-        <v>0.9801609999999999</v>
+        <v>0.976877</v>
       </c>
       <c r="D70" t="n">
-        <v>1.00041</v>
+        <v>0.9961989999999999</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.651955</v>
+        <v>0.6482520000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.94915</v>
+        <v>0.94897</v>
       </c>
       <c r="D71" t="n">
-        <v>0.972329</v>
+        <v>0.968751</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6380940000000001</v>
+        <v>0.632148</v>
       </c>
       <c r="C72" t="n">
-        <v>0.922589</v>
+        <v>0.921107</v>
       </c>
       <c r="D72" t="n">
-        <v>0.946036</v>
+        <v>0.9439</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.623344</v>
+        <v>0.62119</v>
       </c>
       <c r="C73" t="n">
-        <v>0.896811</v>
+        <v>0.895257</v>
       </c>
       <c r="D73" t="n">
-        <v>0.921596</v>
+        <v>0.917988</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.6112610000000001</v>
+        <v>0.608048</v>
       </c>
       <c r="C74" t="n">
-        <v>0.871864</v>
+        <v>0.870387</v>
       </c>
       <c r="D74" t="n">
-        <v>0.897427</v>
+        <v>0.894577</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.597878</v>
+        <v>0.5942539999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>0.846697</v>
+        <v>0.847674</v>
       </c>
       <c r="D75" t="n">
-        <v>0.87564</v>
+        <v>0.873516</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.585533</v>
+        <v>0.584364</v>
       </c>
       <c r="C76" t="n">
-        <v>0.824592</v>
+        <v>0.825886</v>
       </c>
       <c r="D76" t="n">
-        <v>0.854351</v>
+        <v>0.853227</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.575732</v>
+        <v>0.575203</v>
       </c>
       <c r="C77" t="n">
-        <v>0.803442</v>
+        <v>0.804897</v>
       </c>
       <c r="D77" t="n">
-        <v>0.836018</v>
+        <v>0.834189</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.565952</v>
+        <v>0.563999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.785675</v>
+        <v>0.7847730000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.819346</v>
+        <v>0.816841</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.560426</v>
+        <v>0.556437</v>
       </c>
       <c r="C79" t="n">
-        <v>0.768726</v>
+        <v>0.767346</v>
       </c>
       <c r="D79" t="n">
-        <v>0.804773</v>
+        <v>0.802163</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5541239999999999</v>
+        <v>0.550725</v>
       </c>
       <c r="C80" t="n">
-        <v>0.753807</v>
+        <v>0.755018</v>
       </c>
       <c r="D80" t="n">
-        <v>1.19604</v>
+        <v>1.19365</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.786056</v>
+        <v>0.783729</v>
       </c>
       <c r="C81" t="n">
-        <v>1.15454</v>
+        <v>1.15517</v>
       </c>
       <c r="D81" t="n">
-        <v>1.17525</v>
+        <v>1.17307</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.778987</v>
+        <v>0.777787</v>
       </c>
       <c r="C82" t="n">
-        <v>1.13308</v>
+        <v>1.1379</v>
       </c>
       <c r="D82" t="n">
-        <v>1.15241</v>
+        <v>1.15101</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.769492</v>
+        <v>0.767428</v>
       </c>
       <c r="C83" t="n">
-        <v>1.10894</v>
+        <v>1.11503</v>
       </c>
       <c r="D83" t="n">
-        <v>1.12752</v>
+        <v>1.12604</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.758942</v>
+        <v>0.7577120000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>1.08134</v>
+        <v>1.09034</v>
       </c>
       <c r="D84" t="n">
-        <v>1.10113</v>
+        <v>1.09993</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.748549</v>
+        <v>0.746496</v>
       </c>
       <c r="C85" t="n">
-        <v>1.0572</v>
+        <v>1.06579</v>
       </c>
       <c r="D85" t="n">
-        <v>1.07701</v>
+        <v>1.07521</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.7381490000000001</v>
+        <v>0.736719</v>
       </c>
       <c r="C86" t="n">
-        <v>1.03225</v>
+        <v>1.04061</v>
       </c>
       <c r="D86" t="n">
-        <v>1.04901</v>
+        <v>1.04831</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.72699</v>
+        <v>0.7259139999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>1.00538</v>
+        <v>1.01519</v>
       </c>
       <c r="D87" t="n">
-        <v>1.02343</v>
+        <v>1.02523</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.715962</v>
+        <v>0.716056</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9817360000000001</v>
+        <v>0.992857</v>
       </c>
       <c r="D88" t="n">
-        <v>1.00302</v>
+        <v>1.00173</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.708425</v>
+        <v>0.705989</v>
       </c>
       <c r="C89" t="n">
-        <v>0.961775</v>
+        <v>0.969</v>
       </c>
       <c r="D89" t="n">
-        <v>0.981096</v>
+        <v>0.977688</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.699318</v>
+        <v>0.695074</v>
       </c>
       <c r="C90" t="n">
-        <v>0.939544</v>
+        <v>0.945882</v>
       </c>
       <c r="D90" t="n">
-        <v>0.958419</v>
+        <v>0.955458</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.689256</v>
+        <v>0.6861</v>
       </c>
       <c r="C91" t="n">
-        <v>0.918199</v>
+        <v>0.925698</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9386409999999999</v>
+        <v>0.935273</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.681191</v>
+        <v>0.678105</v>
       </c>
       <c r="C92" t="n">
-        <v>0.899351</v>
+        <v>0.906222</v>
       </c>
       <c r="D92" t="n">
-        <v>0.921254</v>
+        <v>0.917851</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.6750389999999999</v>
+        <v>0.671758</v>
       </c>
       <c r="C93" t="n">
-        <v>0.88218</v>
+        <v>0.887485</v>
       </c>
       <c r="D93" t="n">
-        <v>0.905762</v>
+        <v>0.902188</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.670767</v>
+        <v>0.667093</v>
       </c>
       <c r="C94" t="n">
-        <v>0.867202</v>
+        <v>0.873402</v>
       </c>
       <c r="D94" t="n">
-        <v>1.30136</v>
+        <v>1.29813</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9073059999999999</v>
+        <v>0.902794</v>
       </c>
       <c r="C95" t="n">
-        <v>1.26973</v>
+        <v>1.27588</v>
       </c>
       <c r="D95" t="n">
-        <v>1.293</v>
+        <v>1.28999</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.904287</v>
+        <v>0.9001209999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>1.25749</v>
+        <v>1.26816</v>
       </c>
       <c r="D96" t="n">
-        <v>1.27644</v>
+        <v>1.27407</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.8939589999999999</v>
+        <v>0.89113</v>
       </c>
       <c r="C97" t="n">
-        <v>1.23387</v>
+        <v>1.25261</v>
       </c>
       <c r="D97" t="n">
-        <v>1.25557</v>
+        <v>1.25504</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.881965</v>
+        <v>0.880615</v>
       </c>
       <c r="C98" t="n">
-        <v>1.21049</v>
+        <v>1.23495</v>
       </c>
       <c r="D98" t="n">
-        <v>1.23495</v>
+        <v>1.23448</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.872124</v>
+        <v>0.870245</v>
       </c>
       <c r="C99" t="n">
-        <v>1.18932</v>
+        <v>1.21433</v>
       </c>
       <c r="D99" t="n">
-        <v>1.21413</v>
+        <v>1.21315</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.861773</v>
+        <v>0.859571</v>
       </c>
       <c r="C100" t="n">
-        <v>1.16628</v>
+        <v>1.19608</v>
       </c>
       <c r="D100" t="n">
-        <v>1.1944</v>
+        <v>1.19272</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.852136</v>
+        <v>0.849603</v>
       </c>
       <c r="C101" t="n">
-        <v>1.14595</v>
+        <v>1.1777</v>
       </c>
       <c r="D101" t="n">
-        <v>1.17549</v>
+        <v>1.17329</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.843925</v>
+        <v>0.840029</v>
       </c>
       <c r="C102" t="n">
-        <v>1.12674</v>
+        <v>1.16123</v>
       </c>
       <c r="D102" t="n">
-        <v>1.15599</v>
+        <v>1.15533</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.834228</v>
+        <v>0.832163</v>
       </c>
       <c r="C103" t="n">
-        <v>1.10709</v>
+        <v>1.14358</v>
       </c>
       <c r="D103" t="n">
-        <v>1.1387</v>
+        <v>1.1357</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.826894</v>
+        <v>0.823774</v>
       </c>
       <c r="C104" t="n">
-        <v>1.09058</v>
+        <v>1.12765</v>
       </c>
       <c r="D104" t="n">
-        <v>1.12125</v>
+        <v>1.12036</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.8203589999999999</v>
+        <v>0.816713</v>
       </c>
       <c r="C105" t="n">
-        <v>1.07334</v>
+        <v>1.11364</v>
       </c>
       <c r="D105" t="n">
-        <v>1.10623</v>
+        <v>1.10482</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.814318</v>
+        <v>0.810218</v>
       </c>
       <c r="C106" t="n">
-        <v>1.05897</v>
+        <v>1.10028</v>
       </c>
       <c r="D106" t="n">
-        <v>1.09277</v>
+        <v>1.09182</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.809642</v>
+        <v>0.807017</v>
       </c>
       <c r="C107" t="n">
-        <v>1.04549</v>
+        <v>1.08795</v>
       </c>
       <c r="D107" t="n">
-        <v>1.07857</v>
+        <v>1.07843</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.804714</v>
+        <v>0.804383</v>
       </c>
       <c r="C108" t="n">
-        <v>1.03404</v>
+        <v>1.07813</v>
       </c>
       <c r="D108" t="n">
-        <v>1.47482</v>
+        <v>1.47479</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.805295</v>
+        <v>0.804497</v>
       </c>
       <c r="C109" t="n">
-        <v>1.02565</v>
+        <v>1.06942</v>
       </c>
       <c r="D109" t="n">
-        <v>1.46735</v>
+        <v>1.46514</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.03531</v>
+        <v>1.03314</v>
       </c>
       <c r="C110" t="n">
-        <v>1.4286</v>
+        <v>1.47435</v>
       </c>
       <c r="D110" t="n">
-        <v>1.45229</v>
+        <v>1.45018</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.02264</v>
+        <v>1.02041</v>
       </c>
       <c r="C111" t="n">
-        <v>1.40603</v>
+        <v>1.45766</v>
       </c>
       <c r="D111" t="n">
-        <v>1.43833</v>
+        <v>1.43565</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.01069</v>
+        <v>1.00823</v>
       </c>
       <c r="C112" t="n">
-        <v>1.38438</v>
+        <v>1.44167</v>
       </c>
       <c r="D112" t="n">
-        <v>1.42714</v>
+        <v>1.42368</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.9995849999999999</v>
+        <v>0.995976</v>
       </c>
       <c r="C113" t="n">
-        <v>1.36188</v>
+        <v>1.4261</v>
       </c>
       <c r="D113" t="n">
-        <v>1.41446</v>
+        <v>1.40978</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.9882069999999999</v>
+        <v>0.9850370000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>1.34081</v>
+        <v>1.41119</v>
       </c>
       <c r="D114" t="n">
-        <v>1.40215</v>
+        <v>1.39798</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.978096</v>
+        <v>0.974363</v>
       </c>
       <c r="C115" t="n">
-        <v>1.32156</v>
+        <v>1.3965</v>
       </c>
       <c r="D115" t="n">
-        <v>1.39102</v>
+        <v>1.38707</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.967924</v>
+        <v>0.963872</v>
       </c>
       <c r="C116" t="n">
-        <v>1.30268</v>
+        <v>1.38308</v>
       </c>
       <c r="D116" t="n">
-        <v>1.38035</v>
+        <v>1.37397</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.958782</v>
+        <v>0.95497</v>
       </c>
       <c r="C117" t="n">
-        <v>1.2867</v>
+        <v>1.3704</v>
       </c>
       <c r="D117" t="n">
-        <v>1.36922</v>
+        <v>1.36697</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.94926</v>
+        <v>0.947286</v>
       </c>
       <c r="C118" t="n">
-        <v>1.26839</v>
+        <v>1.3597</v>
       </c>
       <c r="D118" t="n">
-        <v>1.36002</v>
+        <v>1.35541</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.942496</v>
+        <v>0.939739</v>
       </c>
       <c r="C119" t="n">
-        <v>1.25445</v>
+        <v>1.34753</v>
       </c>
       <c r="D119" t="n">
-        <v>1.35267</v>
+        <v>1.34586</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.937115</v>
+        <v>0.933459</v>
       </c>
       <c r="C120" t="n">
-        <v>1.24174</v>
+        <v>1.33813</v>
       </c>
       <c r="D120" t="n">
-        <v>1.34309</v>
+        <v>1.33962</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.9325830000000001</v>
+        <v>0.929357</v>
       </c>
       <c r="C121" t="n">
-        <v>1.2307</v>
+        <v>1.32928</v>
       </c>
       <c r="D121" t="n">
-        <v>1.33473</v>
+        <v>1.33196</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.928878</v>
+        <v>0.925989</v>
       </c>
       <c r="C122" t="n">
-        <v>1.22091</v>
+        <v>1.32139</v>
       </c>
       <c r="D122" t="n">
-        <v>1.32655</v>
+        <v>1.32486</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.928546</v>
+        <v>0.926404</v>
       </c>
       <c r="C123" t="n">
-        <v>1.21465</v>
+        <v>1.31651</v>
       </c>
       <c r="D123" t="n">
-        <v>1.72115</v>
+        <v>1.71848</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.15939</v>
+        <v>1.15714</v>
       </c>
       <c r="C124" t="n">
-        <v>1.61723</v>
+        <v>1.71972</v>
       </c>
       <c r="D124" t="n">
-        <v>1.70518</v>
+        <v>1.70097</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.14874</v>
+        <v>1.14517</v>
       </c>
       <c r="C125" t="n">
-        <v>1.59712</v>
+        <v>1.69989</v>
       </c>
       <c r="D125" t="n">
-        <v>1.68876</v>
+        <v>1.68432</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.13741</v>
+        <v>1.1339</v>
       </c>
       <c r="C126" t="n">
-        <v>1.57558</v>
+        <v>1.68338</v>
       </c>
       <c r="D126" t="n">
-        <v>1.67405</v>
+        <v>1.67101</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.12636</v>
+        <v>1.12319</v>
       </c>
       <c r="C127" t="n">
-        <v>1.55411</v>
+        <v>1.66664</v>
       </c>
       <c r="D127" t="n">
-        <v>1.66127</v>
+        <v>1.65558</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.11604</v>
+        <v>1.11382</v>
       </c>
       <c r="C128" t="n">
-        <v>1.53624</v>
+        <v>1.65073</v>
       </c>
       <c r="D128" t="n">
-        <v>1.64751</v>
+        <v>1.64521</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.1079</v>
+        <v>1.10412</v>
       </c>
       <c r="C129" t="n">
-        <v>1.51932</v>
+        <v>1.63597</v>
       </c>
       <c r="D129" t="n">
-        <v>1.63506</v>
+        <v>1.62905</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.09887</v>
+        <v>1.09575</v>
       </c>
       <c r="C130" t="n">
-        <v>1.50228</v>
+        <v>1.6213</v>
       </c>
       <c r="D130" t="n">
-        <v>1.62265</v>
+        <v>1.61654</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.09093</v>
+        <v>1.08826</v>
       </c>
       <c r="C131" t="n">
-        <v>1.48624</v>
+        <v>1.60876</v>
       </c>
       <c r="D131" t="n">
-        <v>1.61278</v>
+        <v>1.60846</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.08455</v>
+        <v>1.08154</v>
       </c>
       <c r="C132" t="n">
-        <v>1.47294</v>
+        <v>1.5963</v>
       </c>
       <c r="D132" t="n">
-        <v>1.60086</v>
+        <v>1.59581</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.07833</v>
+        <v>1.07646</v>
       </c>
       <c r="C133" t="n">
-        <v>1.45969</v>
+        <v>1.58595</v>
       </c>
       <c r="D133" t="n">
-        <v>1.59192</v>
+        <v>1.58712</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.07517</v>
+        <v>1.07161</v>
       </c>
       <c r="C134" t="n">
-        <v>1.4487</v>
+        <v>1.57394</v>
       </c>
       <c r="D134" t="n">
-        <v>1.58716</v>
+        <v>1.57792</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.07236</v>
+        <v>1.06908</v>
       </c>
       <c r="C135" t="n">
-        <v>1.43947</v>
+        <v>1.56421</v>
       </c>
       <c r="D135" t="n">
-        <v>1.57789</v>
+        <v>1.57495</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.07087</v>
+        <v>1.06847</v>
       </c>
       <c r="C136" t="n">
-        <v>1.43172</v>
+        <v>1.55881</v>
       </c>
       <c r="D136" t="n">
-        <v>1.57541</v>
+        <v>1.57283</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.0718</v>
+        <v>1.06848</v>
       </c>
       <c r="C137" t="n">
-        <v>1.42713</v>
+        <v>1.55258</v>
       </c>
       <c r="D137" t="n">
-        <v>1.96679</v>
+        <v>1.95937</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.30256</v>
+        <v>1.29946</v>
       </c>
       <c r="C138" t="n">
-        <v>1.83049</v>
+        <v>1.95439</v>
       </c>
       <c r="D138" t="n">
-        <v>1.94605</v>
+        <v>1.9362</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.29366</v>
+        <v>1.2905</v>
       </c>
       <c r="C139" t="n">
-        <v>1.80929</v>
+        <v>1.93108</v>
       </c>
       <c r="D139" t="n">
-        <v>1.92659</v>
+        <v>1.91931</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.28419</v>
+        <v>1.28146</v>
       </c>
       <c r="C140" t="n">
-        <v>1.79011</v>
+        <v>1.90776</v>
       </c>
       <c r="D140" t="n">
-        <v>1.90879</v>
+        <v>1.90521</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.27652</v>
+        <v>1.27309</v>
       </c>
       <c r="C141" t="n">
-        <v>1.7715</v>
+        <v>1.88624</v>
       </c>
       <c r="D141" t="n">
-        <v>1.88851</v>
+        <v>1.88163</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.26945</v>
+        <v>1.26581</v>
       </c>
       <c r="C142" t="n">
-        <v>1.75493</v>
+        <v>1.86733</v>
       </c>
       <c r="D142" t="n">
-        <v>1.87935</v>
+        <v>1.86628</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.26267</v>
+        <v>1.25876</v>
       </c>
       <c r="C143" t="n">
-        <v>1.73844</v>
+        <v>1.85015</v>
       </c>
       <c r="D143" t="n">
-        <v>1.85755</v>
+        <v>1.84665</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.417531</v>
+        <v>0.416405</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6794829999999999</v>
+        <v>0.679586</v>
       </c>
       <c r="D2" t="n">
-        <v>0.72742</v>
+        <v>0.729133</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.408259</v>
+        <v>0.407603</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6594680000000001</v>
+        <v>0.660069</v>
       </c>
       <c r="D3" t="n">
-        <v>0.708963</v>
+        <v>0.711058</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.400664</v>
+        <v>0.39991</v>
       </c>
       <c r="C4" t="n">
-        <v>0.641209</v>
+        <v>0.642712</v>
       </c>
       <c r="D4" t="n">
-        <v>0.692028</v>
+        <v>0.694196</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.393744</v>
+        <v>0.393644</v>
       </c>
       <c r="C5" t="n">
-        <v>0.624069</v>
+        <v>0.625719</v>
       </c>
       <c r="D5" t="n">
-        <v>0.676975</v>
+        <v>0.678906</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.388015</v>
+        <v>0.387833</v>
       </c>
       <c r="C6" t="n">
-        <v>0.608729</v>
+        <v>0.610503</v>
       </c>
       <c r="D6" t="n">
-        <v>0.663025</v>
+        <v>0.665369</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.385153</v>
+        <v>0.385322</v>
       </c>
       <c r="C7" t="n">
-        <v>0.594324</v>
+        <v>0.5963540000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.650578</v>
+        <v>0.653384</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.383709</v>
+        <v>0.383885</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5828100000000001</v>
+        <v>0.58471</v>
       </c>
       <c r="D8" t="n">
-        <v>0.640882</v>
+        <v>0.643562</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.38519</v>
+        <v>0.385226</v>
       </c>
       <c r="C9" t="n">
-        <v>0.572811</v>
+        <v>0.5751810000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9977200000000001</v>
+        <v>1.00097</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.565879</v>
+        <v>0.5670230000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.902693</v>
+        <v>0.904841</v>
       </c>
       <c r="D10" t="n">
-        <v>0.96701</v>
+        <v>0.969336</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.549011</v>
+        <v>0.5502010000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.872821</v>
+        <v>0.875143</v>
       </c>
       <c r="D11" t="n">
-        <v>0.936601</v>
+        <v>0.939617</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.531972</v>
+        <v>0.533693</v>
       </c>
       <c r="C12" t="n">
-        <v>0.844211</v>
+        <v>0.8462460000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.908293</v>
+        <v>0.91128</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.517446</v>
+        <v>0.518048</v>
       </c>
       <c r="C13" t="n">
-        <v>0.816595</v>
+        <v>0.819238</v>
       </c>
       <c r="D13" t="n">
-        <v>0.881231</v>
+        <v>0.884307</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.502532</v>
+        <v>0.503461</v>
       </c>
       <c r="C14" t="n">
-        <v>0.790766</v>
+        <v>0.792913</v>
       </c>
       <c r="D14" t="n">
-        <v>0.855924</v>
+        <v>0.858325</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.488575</v>
+        <v>0.489832</v>
       </c>
       <c r="C15" t="n">
-        <v>0.76574</v>
+        <v>0.768491</v>
       </c>
       <c r="D15" t="n">
-        <v>0.831719</v>
+        <v>0.83422</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.47558</v>
+        <v>0.477056</v>
       </c>
       <c r="C16" t="n">
-        <v>0.742475</v>
+        <v>0.7452800000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>0.808612</v>
+        <v>0.811129</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.463697</v>
+        <v>0.465249</v>
       </c>
       <c r="C17" t="n">
-        <v>0.721016</v>
+        <v>0.722753</v>
       </c>
       <c r="D17" t="n">
-        <v>0.786635</v>
+        <v>0.7893250000000001</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.452651</v>
+        <v>0.454264</v>
       </c>
       <c r="C18" t="n">
-        <v>0.700332</v>
+        <v>0.702894</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7664</v>
+        <v>0.769296</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.444472</v>
+        <v>0.444217</v>
       </c>
       <c r="C19" t="n">
-        <v>0.680916</v>
+        <v>0.683068</v>
       </c>
       <c r="D19" t="n">
-        <v>0.747875</v>
+        <v>0.750526</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.434411</v>
+        <v>0.436143</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6628540000000001</v>
+        <v>0.664852</v>
       </c>
       <c r="D20" t="n">
-        <v>0.730751</v>
+        <v>0.733306</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.429006</v>
+        <v>0.429567</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6461710000000001</v>
+        <v>0.648571</v>
       </c>
       <c r="D21" t="n">
-        <v>0.715295</v>
+        <v>0.718461</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.424143</v>
+        <v>0.425727</v>
       </c>
       <c r="C22" t="n">
-        <v>0.632312</v>
+        <v>0.634116</v>
       </c>
       <c r="D22" t="n">
-        <v>0.70391</v>
+        <v>0.706701</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.422158</v>
+        <v>0.423921</v>
       </c>
       <c r="C23" t="n">
-        <v>0.620124</v>
+        <v>0.622093</v>
       </c>
       <c r="D23" t="n">
-        <v>1.03555</v>
+        <v>1.03887</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.611416</v>
+        <v>0.6114540000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>0.961043</v>
+        <v>0.962968</v>
       </c>
       <c r="D24" t="n">
-        <v>1.00315</v>
+        <v>1.00671</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.593016</v>
+        <v>0.59409</v>
       </c>
       <c r="C25" t="n">
-        <v>0.929277</v>
+        <v>0.931307</v>
       </c>
       <c r="D25" t="n">
-        <v>0.97209</v>
+        <v>0.975942</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.574797</v>
+        <v>0.575805</v>
       </c>
       <c r="C26" t="n">
-        <v>0.898639</v>
+        <v>0.900034</v>
       </c>
       <c r="D26" t="n">
-        <v>0.94246</v>
+        <v>0.946096</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.557638</v>
+        <v>0.558288</v>
       </c>
       <c r="C27" t="n">
-        <v>0.868978</v>
+        <v>0.871337</v>
       </c>
       <c r="D27" t="n">
-        <v>0.914391</v>
+        <v>0.917913</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.541318</v>
+        <v>0.542066</v>
       </c>
       <c r="C28" t="n">
-        <v>0.841616</v>
+        <v>0.843394</v>
       </c>
       <c r="D28" t="n">
-        <v>0.887689</v>
+        <v>0.891238</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.526431</v>
+        <v>0.527138</v>
       </c>
       <c r="C29" t="n">
-        <v>0.814936</v>
+        <v>0.816941</v>
       </c>
       <c r="D29" t="n">
-        <v>0.862685</v>
+        <v>0.866073</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.512246</v>
+        <v>0.51305</v>
       </c>
       <c r="C30" t="n">
-        <v>0.790058</v>
+        <v>0.7919079999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.838664</v>
+        <v>0.842022</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.498817</v>
+        <v>0.499465</v>
       </c>
       <c r="C31" t="n">
-        <v>0.76608</v>
+        <v>0.768124</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.819549</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.486478</v>
+        <v>0.487326</v>
       </c>
       <c r="C32" t="n">
-        <v>0.743347</v>
+        <v>0.745951</v>
       </c>
       <c r="D32" t="n">
-        <v>0.794747</v>
+        <v>0.797814</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.475528</v>
+        <v>0.476102</v>
       </c>
       <c r="C33" t="n">
-        <v>0.722691</v>
+        <v>0.724597</v>
       </c>
       <c r="D33" t="n">
-        <v>0.775211</v>
+        <v>0.778495</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.465783</v>
+        <v>0.46642</v>
       </c>
       <c r="C34" t="n">
-        <v>0.702997</v>
+        <v>0.7050650000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.757172</v>
+        <v>0.760246</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.457614</v>
+        <v>0.458098</v>
       </c>
       <c r="C35" t="n">
-        <v>0.684978</v>
+        <v>0.687006</v>
       </c>
       <c r="D35" t="n">
-        <v>0.741259</v>
+        <v>0.7443380000000001</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.451859</v>
+        <v>0.451982</v>
       </c>
       <c r="C36" t="n">
-        <v>0.669439</v>
+        <v>0.671056</v>
       </c>
       <c r="D36" t="n">
-        <v>0.727811</v>
+        <v>0.731347</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.447393</v>
+        <v>0.448477</v>
       </c>
       <c r="C37" t="n">
-        <v>0.6556419999999999</v>
+        <v>0.657799</v>
       </c>
       <c r="D37" t="n">
-        <v>1.06799</v>
+        <v>1.06962</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.642386</v>
+        <v>0.642293</v>
       </c>
       <c r="C38" t="n">
-        <v>1.00006</v>
+        <v>1.00212</v>
       </c>
       <c r="D38" t="n">
-        <v>1.03539</v>
+        <v>1.03672</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.623266</v>
+        <v>0.623881</v>
       </c>
       <c r="C39" t="n">
-        <v>0.967758</v>
+        <v>0.969754</v>
       </c>
       <c r="D39" t="n">
-        <v>1.00266</v>
+        <v>1.00552</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.604518</v>
+        <v>0.604831</v>
       </c>
       <c r="C40" t="n">
-        <v>0.935713</v>
+        <v>0.9379189999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.972095</v>
+        <v>0.975542</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.586555</v>
+        <v>0.587161</v>
       </c>
       <c r="C41" t="n">
-        <v>0.905064</v>
+        <v>0.908004</v>
       </c>
       <c r="D41" t="n">
-        <v>0.943273</v>
+        <v>0.947047</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.569547</v>
+        <v>0.570255</v>
       </c>
       <c r="C42" t="n">
-        <v>0.876682</v>
+        <v>0.879281</v>
       </c>
       <c r="D42" t="n">
-        <v>0.915392</v>
+        <v>0.919614</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.553214</v>
+        <v>0.554826</v>
       </c>
       <c r="C43" t="n">
-        <v>0.849098</v>
+        <v>0.85231</v>
       </c>
       <c r="D43" t="n">
-        <v>0.889342</v>
+        <v>0.894057</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.537655</v>
+        <v>0.539805</v>
       </c>
       <c r="C44" t="n">
-        <v>0.822951</v>
+        <v>0.826278</v>
       </c>
       <c r="D44" t="n">
-        <v>0.864971</v>
+        <v>0.869597</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.52257</v>
+        <v>0.525855</v>
       </c>
       <c r="C45" t="n">
-        <v>0.7991239999999999</v>
+        <v>0.801554</v>
       </c>
       <c r="D45" t="n">
-        <v>0.841855</v>
+        <v>0.846631</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.511657</v>
+        <v>0.5130209999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.77618</v>
+        <v>0.778394</v>
       </c>
       <c r="D46" t="n">
-        <v>0.820177</v>
+        <v>0.824919</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5002490000000001</v>
+        <v>0.5011409999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>0.754777</v>
+        <v>0.75713</v>
       </c>
       <c r="D47" t="n">
-        <v>0.800276</v>
+        <v>0.804501</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.490105</v>
+        <v>0.490824</v>
       </c>
       <c r="C48" t="n">
-        <v>0.734214</v>
+        <v>0.735809</v>
       </c>
       <c r="D48" t="n">
-        <v>0.78183</v>
+        <v>0.785422</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.481598</v>
+        <v>0.482101</v>
       </c>
       <c r="C49" t="n">
-        <v>0.715448</v>
+        <v>0.716757</v>
       </c>
       <c r="D49" t="n">
-        <v>0.764523</v>
+        <v>0.767906</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.474749</v>
+        <v>0.475611</v>
       </c>
       <c r="C50" t="n">
-        <v>0.6991889999999999</v>
+        <v>0.699703</v>
       </c>
       <c r="D50" t="n">
-        <v>0.750743</v>
+        <v>0.754136</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.470941</v>
+        <v>0.471585</v>
       </c>
       <c r="C51" t="n">
-        <v>0.684368</v>
+        <v>0.6869729999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>1.09742</v>
+        <v>1.09937</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.469648</v>
+        <v>0.470224</v>
       </c>
       <c r="C52" t="n">
-        <v>0.670593</v>
+        <v>0.6742320000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>1.06533</v>
+        <v>1.06653</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.652931</v>
+        <v>0.651842</v>
       </c>
       <c r="C53" t="n">
-        <v>1.00274</v>
+        <v>1.0041</v>
       </c>
       <c r="D53" t="n">
-        <v>1.03276</v>
+        <v>1.03483</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.634121</v>
+        <v>0.633471</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9721109999999999</v>
+        <v>0.973175</v>
       </c>
       <c r="D54" t="n">
-        <v>1.00232</v>
+        <v>1.00588</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.616274</v>
+        <v>0.615714</v>
       </c>
       <c r="C55" t="n">
-        <v>0.941256</v>
+        <v>0.944504</v>
       </c>
       <c r="D55" t="n">
-        <v>0.972866</v>
+        <v>0.977512</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.599038</v>
+        <v>0.598581</v>
       </c>
       <c r="C56" t="n">
-        <v>0.911762</v>
+        <v>0.914194</v>
       </c>
       <c r="D56" t="n">
-        <v>0.946237</v>
+        <v>0.949746</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5830419999999999</v>
+        <v>0.582364</v>
       </c>
       <c r="C57" t="n">
-        <v>0.884168</v>
+        <v>0.887558</v>
       </c>
       <c r="D57" t="n">
-        <v>0.919388</v>
+        <v>0.923409</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.567831</v>
+        <v>0.5673899999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>0.858481</v>
+        <v>0.859704</v>
       </c>
       <c r="D58" t="n">
-        <v>0.895502</v>
+        <v>0.8987579999999999</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.55415</v>
+        <v>0.554013</v>
       </c>
       <c r="C59" t="n">
-        <v>0.832909</v>
+        <v>0.8345590000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.871216</v>
+        <v>0.8749980000000001</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.541142</v>
+        <v>0.540839</v>
       </c>
       <c r="C60" t="n">
-        <v>0.80953</v>
+        <v>0.8109769999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.848924</v>
+        <v>0.852962</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5294990000000001</v>
+        <v>0.52893</v>
       </c>
       <c r="C61" t="n">
-        <v>0.7876649999999999</v>
+        <v>0.78809</v>
       </c>
       <c r="D61" t="n">
-        <v>0.828858</v>
+        <v>0.83152</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.520022</v>
+        <v>0.518495</v>
       </c>
       <c r="C62" t="n">
-        <v>0.768559</v>
+        <v>0.766989</v>
       </c>
       <c r="D62" t="n">
-        <v>0.809648</v>
+        <v>0.812266</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.510239</v>
+        <v>0.509377</v>
       </c>
       <c r="C63" t="n">
-        <v>0.747695</v>
+        <v>0.748312</v>
       </c>
       <c r="D63" t="n">
-        <v>0.7916069999999999</v>
+        <v>0.794781</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.502041</v>
+        <v>0.50185</v>
       </c>
       <c r="C64" t="n">
-        <v>0.72973</v>
+        <v>0.730985</v>
       </c>
       <c r="D64" t="n">
-        <v>0.776142</v>
+        <v>0.780046</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.497456</v>
+        <v>0.497299</v>
       </c>
       <c r="C65" t="n">
-        <v>0.7147289999999999</v>
+        <v>0.716351</v>
       </c>
       <c r="D65" t="n">
-        <v>0.764111</v>
+        <v>0.76803</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.495687</v>
+        <v>0.49456</v>
       </c>
       <c r="C66" t="n">
-        <v>0.701259</v>
+        <v>0.704183</v>
       </c>
       <c r="D66" t="n">
-        <v>1.11884</v>
+        <v>1.12124</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.709747</v>
+        <v>0.710772</v>
       </c>
       <c r="C67" t="n">
-        <v>1.06935</v>
+        <v>1.07304</v>
       </c>
       <c r="D67" t="n">
-        <v>1.08404</v>
+        <v>1.08932</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.693491</v>
+        <v>0.6946909999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>1.03746</v>
+        <v>1.03929</v>
       </c>
       <c r="D68" t="n">
-        <v>1.05349</v>
+        <v>1.05793</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.678971</v>
+        <v>0.678612</v>
       </c>
       <c r="C69" t="n">
-        <v>1.00864</v>
+        <v>1.00807</v>
       </c>
       <c r="D69" t="n">
-        <v>1.02654</v>
+        <v>1.02782</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.662393</v>
+        <v>0.663504</v>
       </c>
       <c r="C70" t="n">
-        <v>0.976877</v>
+        <v>0.978166</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9961989999999999</v>
+        <v>0.999667</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.6482520000000001</v>
+        <v>0.648904</v>
       </c>
       <c r="C71" t="n">
-        <v>0.94897</v>
+        <v>0.950361</v>
       </c>
       <c r="D71" t="n">
-        <v>0.968751</v>
+        <v>0.972467</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.632148</v>
+        <v>0.635522</v>
       </c>
       <c r="C72" t="n">
-        <v>0.921107</v>
+        <v>0.923054</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9439</v>
+        <v>0.94635</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.62119</v>
+        <v>0.621679</v>
       </c>
       <c r="C73" t="n">
-        <v>0.895257</v>
+        <v>0.895419</v>
       </c>
       <c r="D73" t="n">
-        <v>0.917988</v>
+        <v>0.922609</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.608048</v>
+        <v>0.61045</v>
       </c>
       <c r="C74" t="n">
-        <v>0.870387</v>
+        <v>0.873807</v>
       </c>
       <c r="D74" t="n">
-        <v>0.894577</v>
+        <v>0.900278</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5942539999999999</v>
+        <v>0.5950220000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>0.847674</v>
+        <v>0.8466129999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.873516</v>
+        <v>0.876341</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.584364</v>
+        <v>0.583386</v>
       </c>
       <c r="C76" t="n">
-        <v>0.825886</v>
+        <v>0.8257640000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.853227</v>
+        <v>0.8562</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.575203</v>
+        <v>0.5736790000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.804897</v>
+        <v>0.803163</v>
       </c>
       <c r="D77" t="n">
-        <v>0.834189</v>
+        <v>0.836494</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.563999</v>
+        <v>0.562671</v>
       </c>
       <c r="C78" t="n">
-        <v>0.7847730000000001</v>
+        <v>0.784269</v>
       </c>
       <c r="D78" t="n">
-        <v>0.816841</v>
+        <v>0.820789</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.556437</v>
+        <v>0.55772</v>
       </c>
       <c r="C79" t="n">
-        <v>0.767346</v>
+        <v>0.767723</v>
       </c>
       <c r="D79" t="n">
-        <v>0.802163</v>
+        <v>0.807955</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.550725</v>
+        <v>0.5545369999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>0.755018</v>
+        <v>0.756731</v>
       </c>
       <c r="D80" t="n">
-        <v>1.19365</v>
+        <v>1.19917</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.783729</v>
+        <v>0.784052</v>
       </c>
       <c r="C81" t="n">
-        <v>1.15517</v>
+        <v>1.15687</v>
       </c>
       <c r="D81" t="n">
-        <v>1.17307</v>
+        <v>1.17767</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.777787</v>
+        <v>0.77712</v>
       </c>
       <c r="C82" t="n">
-        <v>1.1379</v>
+        <v>1.13897</v>
       </c>
       <c r="D82" t="n">
-        <v>1.15101</v>
+        <v>1.15607</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.767428</v>
+        <v>0.768247</v>
       </c>
       <c r="C83" t="n">
-        <v>1.11503</v>
+        <v>1.11669</v>
       </c>
       <c r="D83" t="n">
-        <v>1.12604</v>
+        <v>1.1325</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.7577120000000001</v>
+        <v>0.758544</v>
       </c>
       <c r="C84" t="n">
-        <v>1.09034</v>
+        <v>1.09171</v>
       </c>
       <c r="D84" t="n">
-        <v>1.09993</v>
+        <v>1.10642</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.746496</v>
+        <v>0.74768</v>
       </c>
       <c r="C85" t="n">
-        <v>1.06579</v>
+        <v>1.06925</v>
       </c>
       <c r="D85" t="n">
-        <v>1.07521</v>
+        <v>1.08237</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.736719</v>
+        <v>0.738563</v>
       </c>
       <c r="C86" t="n">
-        <v>1.04061</v>
+        <v>1.04389</v>
       </c>
       <c r="D86" t="n">
-        <v>1.04831</v>
+        <v>1.05612</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.7259139999999999</v>
+        <v>0.727752</v>
       </c>
       <c r="C87" t="n">
-        <v>1.01519</v>
+        <v>1.01597</v>
       </c>
       <c r="D87" t="n">
-        <v>1.02523</v>
+        <v>1.03044</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.716056</v>
+        <v>0.716099</v>
       </c>
       <c r="C88" t="n">
-        <v>0.992857</v>
+        <v>0.99364</v>
       </c>
       <c r="D88" t="n">
-        <v>1.00173</v>
+        <v>1.00048</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.705989</v>
+        <v>0.706076</v>
       </c>
       <c r="C89" t="n">
-        <v>0.969</v>
+        <v>0.969007</v>
       </c>
       <c r="D89" t="n">
-        <v>0.977688</v>
+        <v>0.983756</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.695074</v>
+        <v>0.69574</v>
       </c>
       <c r="C90" t="n">
-        <v>0.945882</v>
+        <v>0.948781</v>
       </c>
       <c r="D90" t="n">
-        <v>0.955458</v>
+        <v>0.953669</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.6861</v>
+        <v>0.687618</v>
       </c>
       <c r="C91" t="n">
-        <v>0.925698</v>
+        <v>0.927835</v>
       </c>
       <c r="D91" t="n">
-        <v>0.935273</v>
+        <v>0.943403</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.678105</v>
+        <v>0.681104</v>
       </c>
       <c r="C92" t="n">
-        <v>0.906222</v>
+        <v>0.908162</v>
       </c>
       <c r="D92" t="n">
-        <v>0.917851</v>
+        <v>0.924879</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.671758</v>
+        <v>0.674069</v>
       </c>
       <c r="C93" t="n">
-        <v>0.887485</v>
+        <v>0.891671</v>
       </c>
       <c r="D93" t="n">
-        <v>0.902188</v>
+        <v>0.909646</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.667093</v>
+        <v>0.670617</v>
       </c>
       <c r="C94" t="n">
-        <v>0.873402</v>
+        <v>0.877246</v>
       </c>
       <c r="D94" t="n">
-        <v>1.29813</v>
+        <v>1.30388</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.902794</v>
+        <v>0.904429</v>
       </c>
       <c r="C95" t="n">
-        <v>1.27588</v>
+        <v>1.27623</v>
       </c>
       <c r="D95" t="n">
-        <v>1.28999</v>
+        <v>1.29616</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.9001209999999999</v>
+        <v>0.902585</v>
       </c>
       <c r="C96" t="n">
-        <v>1.26816</v>
+        <v>1.27002</v>
       </c>
       <c r="D96" t="n">
-        <v>1.27407</v>
+        <v>1.27618</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.89113</v>
+        <v>0.891975</v>
       </c>
       <c r="C97" t="n">
-        <v>1.25261</v>
+        <v>1.25509</v>
       </c>
       <c r="D97" t="n">
-        <v>1.25504</v>
+        <v>1.25893</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.880615</v>
+        <v>0.881939</v>
       </c>
       <c r="C98" t="n">
-        <v>1.23495</v>
+        <v>1.23342</v>
       </c>
       <c r="D98" t="n">
-        <v>1.23448</v>
+        <v>1.23642</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.870245</v>
+        <v>0.871788</v>
       </c>
       <c r="C99" t="n">
-        <v>1.21433</v>
+        <v>1.21806</v>
       </c>
       <c r="D99" t="n">
-        <v>1.21315</v>
+        <v>1.21818</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.859571</v>
+        <v>0.862397</v>
       </c>
       <c r="C100" t="n">
-        <v>1.19608</v>
+        <v>1.19729</v>
       </c>
       <c r="D100" t="n">
-        <v>1.19272</v>
+        <v>1.19594</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.849603</v>
+        <v>0.853132</v>
       </c>
       <c r="C101" t="n">
-        <v>1.1777</v>
+        <v>1.18203</v>
       </c>
       <c r="D101" t="n">
-        <v>1.17329</v>
+        <v>1.17573</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.840029</v>
+        <v>0.843713</v>
       </c>
       <c r="C102" t="n">
-        <v>1.16123</v>
+        <v>1.16537</v>
       </c>
       <c r="D102" t="n">
-        <v>1.15533</v>
+        <v>1.16372</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.832163</v>
+        <v>0.836021</v>
       </c>
       <c r="C103" t="n">
-        <v>1.14358</v>
+        <v>1.1485</v>
       </c>
       <c r="D103" t="n">
-        <v>1.1357</v>
+        <v>1.14341</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.823774</v>
+        <v>0.828499</v>
       </c>
       <c r="C104" t="n">
-        <v>1.12765</v>
+        <v>1.1273</v>
       </c>
       <c r="D104" t="n">
-        <v>1.12036</v>
+        <v>1.12053</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.816713</v>
+        <v>0.822107</v>
       </c>
       <c r="C105" t="n">
-        <v>1.11364</v>
+        <v>1.12104</v>
       </c>
       <c r="D105" t="n">
-        <v>1.10482</v>
+        <v>1.1155</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.810218</v>
+        <v>0.816271</v>
       </c>
       <c r="C106" t="n">
-        <v>1.10028</v>
+        <v>1.09991</v>
       </c>
       <c r="D106" t="n">
-        <v>1.09182</v>
+        <v>1.08859</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.807017</v>
+        <v>0.811868</v>
       </c>
       <c r="C107" t="n">
-        <v>1.08795</v>
+        <v>1.08923</v>
       </c>
       <c r="D107" t="n">
-        <v>1.07843</v>
+        <v>1.08632</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.804383</v>
+        <v>0.8082240000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>1.07813</v>
+        <v>1.08083</v>
       </c>
       <c r="D108" t="n">
-        <v>1.47479</v>
+        <v>1.47804</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.804497</v>
+        <v>0.8108610000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>1.06942</v>
+        <v>1.07902</v>
       </c>
       <c r="D109" t="n">
-        <v>1.46514</v>
+        <v>1.47451</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.03314</v>
+        <v>1.03749</v>
       </c>
       <c r="C110" t="n">
-        <v>1.47435</v>
+        <v>1.47326</v>
       </c>
       <c r="D110" t="n">
-        <v>1.45018</v>
+        <v>1.45601</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.02041</v>
+        <v>1.02482</v>
       </c>
       <c r="C111" t="n">
-        <v>1.45766</v>
+        <v>1.467</v>
       </c>
       <c r="D111" t="n">
-        <v>1.43565</v>
+        <v>1.44835</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.00823</v>
+        <v>1.0134</v>
       </c>
       <c r="C112" t="n">
-        <v>1.44167</v>
+        <v>1.4508</v>
       </c>
       <c r="D112" t="n">
-        <v>1.42368</v>
+        <v>1.43193</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.995976</v>
+        <v>1.00256</v>
       </c>
       <c r="C113" t="n">
-        <v>1.4261</v>
+        <v>1.4365</v>
       </c>
       <c r="D113" t="n">
-        <v>1.40978</v>
+        <v>1.41436</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.9850370000000001</v>
+        <v>0.991603</v>
       </c>
       <c r="C114" t="n">
-        <v>1.41119</v>
+        <v>1.41776</v>
       </c>
       <c r="D114" t="n">
-        <v>1.39798</v>
+        <v>1.40827</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.974363</v>
+        <v>0.980888</v>
       </c>
       <c r="C115" t="n">
-        <v>1.3965</v>
+        <v>1.40601</v>
       </c>
       <c r="D115" t="n">
-        <v>1.38707</v>
+        <v>1.39495</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.963872</v>
+        <v>0.971164</v>
       </c>
       <c r="C116" t="n">
-        <v>1.38308</v>
+        <v>1.38926</v>
       </c>
       <c r="D116" t="n">
-        <v>1.37397</v>
+        <v>1.38186</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.95497</v>
+        <v>0.961661</v>
       </c>
       <c r="C117" t="n">
-        <v>1.3704</v>
+        <v>1.38176</v>
       </c>
       <c r="D117" t="n">
-        <v>1.36697</v>
+        <v>1.37914</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.947286</v>
+        <v>0.954174</v>
       </c>
       <c r="C118" t="n">
-        <v>1.3597</v>
+        <v>1.37055</v>
       </c>
       <c r="D118" t="n">
-        <v>1.35541</v>
+        <v>1.36928</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.939739</v>
+        <v>0.947557</v>
       </c>
       <c r="C119" t="n">
-        <v>1.34753</v>
+        <v>1.35916</v>
       </c>
       <c r="D119" t="n">
-        <v>1.34586</v>
+        <v>1.36327</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.933459</v>
+        <v>0.9414709999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>1.33813</v>
+        <v>1.35196</v>
       </c>
       <c r="D120" t="n">
-        <v>1.33962</v>
+        <v>1.35554</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.929357</v>
+        <v>0.937514</v>
       </c>
       <c r="C121" t="n">
-        <v>1.32928</v>
+        <v>1.34219</v>
       </c>
       <c r="D121" t="n">
-        <v>1.33196</v>
+        <v>1.34736</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.925989</v>
+        <v>0.934901</v>
       </c>
       <c r="C122" t="n">
-        <v>1.32139</v>
+        <v>1.33329</v>
       </c>
       <c r="D122" t="n">
-        <v>1.32486</v>
+        <v>1.33839</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.926404</v>
+        <v>0.933418</v>
       </c>
       <c r="C123" t="n">
-        <v>1.31651</v>
+        <v>1.32794</v>
       </c>
       <c r="D123" t="n">
-        <v>1.71848</v>
+        <v>1.72246</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.15714</v>
+        <v>1.15871</v>
       </c>
       <c r="C124" t="n">
-        <v>1.71972</v>
+        <v>1.7225</v>
       </c>
       <c r="D124" t="n">
-        <v>1.70097</v>
+        <v>1.71289</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.14517</v>
+        <v>1.14799</v>
       </c>
       <c r="C125" t="n">
-        <v>1.69989</v>
+        <v>1.71009</v>
       </c>
       <c r="D125" t="n">
-        <v>1.68432</v>
+        <v>1.69752</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.1339</v>
+        <v>1.13798</v>
       </c>
       <c r="C126" t="n">
-        <v>1.68338</v>
+        <v>1.69067</v>
       </c>
       <c r="D126" t="n">
-        <v>1.67101</v>
+        <v>1.68584</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.12319</v>
+        <v>1.12862</v>
       </c>
       <c r="C127" t="n">
-        <v>1.66664</v>
+        <v>1.67549</v>
       </c>
       <c r="D127" t="n">
-        <v>1.65558</v>
+        <v>1.66676</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.11382</v>
+        <v>1.11945</v>
       </c>
       <c r="C128" t="n">
-        <v>1.65073</v>
+        <v>1.66319</v>
       </c>
       <c r="D128" t="n">
-        <v>1.64521</v>
+        <v>1.65403</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.10412</v>
+        <v>1.11129</v>
       </c>
       <c r="C129" t="n">
-        <v>1.63597</v>
+        <v>1.647</v>
       </c>
       <c r="D129" t="n">
-        <v>1.62905</v>
+        <v>1.64201</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.09575</v>
+        <v>1.10507</v>
       </c>
       <c r="C130" t="n">
-        <v>1.6213</v>
+        <v>1.63999</v>
       </c>
       <c r="D130" t="n">
-        <v>1.61654</v>
+        <v>1.63359</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.08826</v>
+        <v>1.09859</v>
       </c>
       <c r="C131" t="n">
-        <v>1.60876</v>
+        <v>1.62219</v>
       </c>
       <c r="D131" t="n">
-        <v>1.60846</v>
+        <v>1.62427</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.08154</v>
+        <v>1.0921</v>
       </c>
       <c r="C132" t="n">
-        <v>1.5963</v>
+        <v>1.61549</v>
       </c>
       <c r="D132" t="n">
-        <v>1.59581</v>
+        <v>1.61427</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.07646</v>
+        <v>1.08687</v>
       </c>
       <c r="C133" t="n">
-        <v>1.58595</v>
+        <v>1.60068</v>
       </c>
       <c r="D133" t="n">
-        <v>1.58712</v>
+        <v>1.60181</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.07161</v>
+        <v>1.08324</v>
       </c>
       <c r="C134" t="n">
-        <v>1.57394</v>
+        <v>1.59433</v>
       </c>
       <c r="D134" t="n">
-        <v>1.57792</v>
+        <v>1.5985</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.06908</v>
+        <v>1.08032</v>
       </c>
       <c r="C135" t="n">
-        <v>1.56421</v>
+        <v>1.58263</v>
       </c>
       <c r="D135" t="n">
-        <v>1.57495</v>
+        <v>1.59009</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.06847</v>
+        <v>1.07949</v>
       </c>
       <c r="C136" t="n">
-        <v>1.55881</v>
+        <v>1.57918</v>
       </c>
       <c r="D136" t="n">
-        <v>1.57283</v>
+        <v>1.5882</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.06848</v>
+        <v>1.0794</v>
       </c>
       <c r="C137" t="n">
-        <v>1.55258</v>
+        <v>1.57079</v>
       </c>
       <c r="D137" t="n">
-        <v>1.95937</v>
+        <v>1.97313</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.29946</v>
+        <v>1.30574</v>
       </c>
       <c r="C138" t="n">
-        <v>1.95439</v>
+        <v>1.9713</v>
       </c>
       <c r="D138" t="n">
-        <v>1.9362</v>
+        <v>1.95876</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.2905</v>
+        <v>1.29807</v>
       </c>
       <c r="C139" t="n">
-        <v>1.93108</v>
+        <v>1.95018</v>
       </c>
       <c r="D139" t="n">
-        <v>1.91931</v>
+        <v>1.93595</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.28146</v>
+        <v>1.28797</v>
       </c>
       <c r="C140" t="n">
-        <v>1.90776</v>
+        <v>1.92364</v>
       </c>
       <c r="D140" t="n">
-        <v>1.90521</v>
+        <v>1.9177</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.27309</v>
+        <v>1.28145</v>
       </c>
       <c r="C141" t="n">
-        <v>1.88624</v>
+        <v>1.90718</v>
       </c>
       <c r="D141" t="n">
-        <v>1.88163</v>
+        <v>1.90211</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.26581</v>
+        <v>1.2743</v>
       </c>
       <c r="C142" t="n">
-        <v>1.86733</v>
+        <v>1.88742</v>
       </c>
       <c r="D142" t="n">
-        <v>1.86628</v>
+        <v>1.88872</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.25876</v>
+        <v>1.26837</v>
       </c>
       <c r="C143" t="n">
-        <v>1.85015</v>
+        <v>1.87102</v>
       </c>
       <c r="D143" t="n">
-        <v>1.84665</v>
+        <v>1.86654</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.416405</v>
+        <v>0.481602</v>
       </c>
       <c r="C2" t="n">
-        <v>0.679586</v>
+        <v>0.720113</v>
       </c>
       <c r="D2" t="n">
-        <v>0.729133</v>
+        <v>0.777624</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.407603</v>
+        <v>0.469062</v>
       </c>
       <c r="C3" t="n">
-        <v>0.660069</v>
+        <v>0.699063</v>
       </c>
       <c r="D3" t="n">
-        <v>0.711058</v>
+        <v>0.755897</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.39991</v>
+        <v>0.458323</v>
       </c>
       <c r="C4" t="n">
-        <v>0.642712</v>
+        <v>0.678932</v>
       </c>
       <c r="D4" t="n">
-        <v>0.694196</v>
+        <v>0.737191</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.393644</v>
+        <v>0.449331</v>
       </c>
       <c r="C5" t="n">
-        <v>0.625719</v>
+        <v>0.6607769999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.678906</v>
+        <v>0.720376</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.387833</v>
+        <v>0.441561</v>
       </c>
       <c r="C6" t="n">
-        <v>0.610503</v>
+        <v>0.644052</v>
       </c>
       <c r="D6" t="n">
-        <v>0.665369</v>
+        <v>0.704516</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.385322</v>
+        <v>0.435733</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5963540000000001</v>
+        <v>0.628129</v>
       </c>
       <c r="D7" t="n">
-        <v>0.653384</v>
+        <v>0.690412</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.383885</v>
+        <v>0.432594</v>
       </c>
       <c r="C8" t="n">
-        <v>0.58471</v>
+        <v>0.615661</v>
       </c>
       <c r="D8" t="n">
-        <v>0.643562</v>
+        <v>0.678824</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.385226</v>
+        <v>0.432556</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5751810000000001</v>
+        <v>0.6042380000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>1.00097</v>
+        <v>0.994934</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5670230000000001</v>
+        <v>0.5681929999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.904841</v>
+        <v>0.884497</v>
       </c>
       <c r="D10" t="n">
-        <v>0.969336</v>
+        <v>0.963709</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5502010000000001</v>
+        <v>0.551208</v>
       </c>
       <c r="C11" t="n">
-        <v>0.875143</v>
+        <v>0.855166</v>
       </c>
       <c r="D11" t="n">
-        <v>0.939617</v>
+        <v>0.934489</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.533693</v>
+        <v>0.534875</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8462460000000001</v>
+        <v>0.827298</v>
       </c>
       <c r="D12" t="n">
-        <v>0.91128</v>
+        <v>0.90605</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.518048</v>
+        <v>0.519243</v>
       </c>
       <c r="C13" t="n">
-        <v>0.819238</v>
+        <v>0.800776</v>
       </c>
       <c r="D13" t="n">
-        <v>0.884307</v>
+        <v>0.87952</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.503461</v>
+        <v>0.504887</v>
       </c>
       <c r="C14" t="n">
-        <v>0.792913</v>
+        <v>0.775891</v>
       </c>
       <c r="D14" t="n">
-        <v>0.858325</v>
+        <v>0.854164</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.489832</v>
+        <v>0.491107</v>
       </c>
       <c r="C15" t="n">
-        <v>0.768491</v>
+        <v>0.751691</v>
       </c>
       <c r="D15" t="n">
-        <v>0.83422</v>
+        <v>0.83006</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.477056</v>
+        <v>0.478743</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7452800000000001</v>
+        <v>0.729059</v>
       </c>
       <c r="D16" t="n">
-        <v>0.811129</v>
+        <v>0.807307</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.465249</v>
+        <v>0.466842</v>
       </c>
       <c r="C17" t="n">
-        <v>0.722753</v>
+        <v>0.707508</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7893250000000001</v>
+        <v>0.785534</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.454264</v>
+        <v>0.456369</v>
       </c>
       <c r="C18" t="n">
-        <v>0.702894</v>
+        <v>0.687908</v>
       </c>
       <c r="D18" t="n">
-        <v>0.769296</v>
+        <v>0.765423</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.444217</v>
+        <v>0.447295</v>
       </c>
       <c r="C19" t="n">
-        <v>0.683068</v>
+        <v>0.669505</v>
       </c>
       <c r="D19" t="n">
-        <v>0.750526</v>
+        <v>0.747044</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.436143</v>
+        <v>0.439406</v>
       </c>
       <c r="C20" t="n">
-        <v>0.664852</v>
+        <v>0.651961</v>
       </c>
       <c r="D20" t="n">
-        <v>0.733306</v>
+        <v>0.729968</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.429567</v>
+        <v>0.433929</v>
       </c>
       <c r="C21" t="n">
-        <v>0.648571</v>
+        <v>0.636321</v>
       </c>
       <c r="D21" t="n">
-        <v>0.718461</v>
+        <v>0.715126</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.425727</v>
+        <v>0.431313</v>
       </c>
       <c r="C22" t="n">
-        <v>0.634116</v>
+        <v>0.623066</v>
       </c>
       <c r="D22" t="n">
-        <v>0.706701</v>
+        <v>0.70306</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.423921</v>
+        <v>0.431239</v>
       </c>
       <c r="C23" t="n">
-        <v>0.622093</v>
+        <v>0.612074</v>
       </c>
       <c r="D23" t="n">
-        <v>1.03887</v>
+        <v>1.03269</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6114540000000001</v>
+        <v>0.617022</v>
       </c>
       <c r="C24" t="n">
-        <v>0.962968</v>
+        <v>0.941261</v>
       </c>
       <c r="D24" t="n">
-        <v>1.00671</v>
+        <v>1.00059</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.59409</v>
+        <v>0.598782</v>
       </c>
       <c r="C25" t="n">
-        <v>0.931307</v>
+        <v>0.910434</v>
       </c>
       <c r="D25" t="n">
-        <v>0.975942</v>
+        <v>0.970061</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.575805</v>
+        <v>0.580817</v>
       </c>
       <c r="C26" t="n">
-        <v>0.900034</v>
+        <v>0.881014</v>
       </c>
       <c r="D26" t="n">
-        <v>0.946096</v>
+        <v>0.940697</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.558288</v>
+        <v>0.563364</v>
       </c>
       <c r="C27" t="n">
-        <v>0.871337</v>
+        <v>0.852379</v>
       </c>
       <c r="D27" t="n">
-        <v>0.917913</v>
+        <v>0.913218</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.542066</v>
+        <v>0.547019</v>
       </c>
       <c r="C28" t="n">
-        <v>0.843394</v>
+        <v>0.825062</v>
       </c>
       <c r="D28" t="n">
-        <v>0.891238</v>
+        <v>0.886397</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.527138</v>
+        <v>0.53183</v>
       </c>
       <c r="C29" t="n">
-        <v>0.816941</v>
+        <v>0.799153</v>
       </c>
       <c r="D29" t="n">
-        <v>0.866073</v>
+        <v>0.861185</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.51305</v>
+        <v>0.517648</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7919079999999999</v>
+        <v>0.774941</v>
       </c>
       <c r="D30" t="n">
-        <v>0.842022</v>
+        <v>0.837829</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.499465</v>
+        <v>0.504433</v>
       </c>
       <c r="C31" t="n">
-        <v>0.768124</v>
+        <v>0.752305</v>
       </c>
       <c r="D31" t="n">
-        <v>0.819549</v>
+        <v>0.815154</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.487326</v>
+        <v>0.491859</v>
       </c>
       <c r="C32" t="n">
-        <v>0.745951</v>
+        <v>0.730395</v>
       </c>
       <c r="D32" t="n">
-        <v>0.797814</v>
+        <v>0.794081</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.476102</v>
+        <v>0.480787</v>
       </c>
       <c r="C33" t="n">
-        <v>0.724597</v>
+        <v>0.710105</v>
       </c>
       <c r="D33" t="n">
-        <v>0.778495</v>
+        <v>0.775208</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.46642</v>
+        <v>0.470957</v>
       </c>
       <c r="C34" t="n">
-        <v>0.7050650000000001</v>
+        <v>0.691503</v>
       </c>
       <c r="D34" t="n">
-        <v>0.760246</v>
+        <v>0.756841</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.458098</v>
+        <v>0.463172</v>
       </c>
       <c r="C35" t="n">
-        <v>0.687006</v>
+        <v>0.674221</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7443380000000001</v>
+        <v>0.74129</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.451982</v>
+        <v>0.457899</v>
       </c>
       <c r="C36" t="n">
-        <v>0.671056</v>
+        <v>0.658732</v>
       </c>
       <c r="D36" t="n">
-        <v>0.731347</v>
+        <v>0.728339</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.448477</v>
+        <v>0.454941</v>
       </c>
       <c r="C37" t="n">
-        <v>0.657799</v>
+        <v>0.645896</v>
       </c>
       <c r="D37" t="n">
-        <v>1.06962</v>
+        <v>1.06508</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.642293</v>
+        <v>0.647733</v>
       </c>
       <c r="C38" t="n">
-        <v>1.00212</v>
+        <v>0.9792960000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>1.03672</v>
+        <v>1.03194</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.623881</v>
+        <v>0.6292489999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>0.969754</v>
+        <v>0.949284</v>
       </c>
       <c r="D39" t="n">
-        <v>1.00552</v>
+        <v>1.00081</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.604831</v>
+        <v>0.609911</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9379189999999999</v>
+        <v>0.917475</v>
       </c>
       <c r="D40" t="n">
-        <v>0.975542</v>
+        <v>0.970143</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.587161</v>
+        <v>0.59182</v>
       </c>
       <c r="C41" t="n">
-        <v>0.908004</v>
+        <v>0.8877350000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>0.947047</v>
+        <v>0.941379</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.570255</v>
+        <v>0.574609</v>
       </c>
       <c r="C42" t="n">
-        <v>0.879281</v>
+        <v>0.859907</v>
       </c>
       <c r="D42" t="n">
-        <v>0.919614</v>
+        <v>0.914179</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.554826</v>
+        <v>0.558847</v>
       </c>
       <c r="C43" t="n">
-        <v>0.85231</v>
+        <v>0.8337599999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.894057</v>
+        <v>0.889032</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.539805</v>
+        <v>0.542994</v>
       </c>
       <c r="C44" t="n">
-        <v>0.826278</v>
+        <v>0.808316</v>
       </c>
       <c r="D44" t="n">
-        <v>0.869597</v>
+        <v>0.864548</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.525855</v>
+        <v>0.529597</v>
       </c>
       <c r="C45" t="n">
-        <v>0.801554</v>
+        <v>0.783913</v>
       </c>
       <c r="D45" t="n">
-        <v>0.846631</v>
+        <v>0.841342</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5130209999999999</v>
+        <v>0.516701</v>
       </c>
       <c r="C46" t="n">
-        <v>0.778394</v>
+        <v>0.7615960000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.824919</v>
+        <v>0.819493</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5011409999999999</v>
+        <v>0.504289</v>
       </c>
       <c r="C47" t="n">
-        <v>0.75713</v>
+        <v>0.740175</v>
       </c>
       <c r="D47" t="n">
-        <v>0.804501</v>
+        <v>0.799162</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.490824</v>
+        <v>0.494687</v>
       </c>
       <c r="C48" t="n">
-        <v>0.735809</v>
+        <v>0.719951</v>
       </c>
       <c r="D48" t="n">
-        <v>0.785422</v>
+        <v>0.780394</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.482101</v>
+        <v>0.485634</v>
       </c>
       <c r="C49" t="n">
-        <v>0.716757</v>
+        <v>0.701856</v>
       </c>
       <c r="D49" t="n">
-        <v>0.767906</v>
+        <v>0.763919</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.475611</v>
+        <v>0.478989</v>
       </c>
       <c r="C50" t="n">
-        <v>0.699703</v>
+        <v>0.685837</v>
       </c>
       <c r="D50" t="n">
-        <v>0.754136</v>
+        <v>0.750069</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.471585</v>
+        <v>0.475608</v>
       </c>
       <c r="C51" t="n">
-        <v>0.6869729999999999</v>
+        <v>0.671783</v>
       </c>
       <c r="D51" t="n">
-        <v>1.09937</v>
+        <v>1.09353</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.470224</v>
+        <v>0.475345</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6742320000000001</v>
+        <v>0.664147</v>
       </c>
       <c r="D52" t="n">
-        <v>1.06653</v>
+        <v>1.06143</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.651842</v>
+        <v>0.654013</v>
       </c>
       <c r="C53" t="n">
-        <v>1.0041</v>
+        <v>0.981358</v>
       </c>
       <c r="D53" t="n">
-        <v>1.03483</v>
+        <v>1.02923</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.633471</v>
+        <v>0.6358200000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>0.973175</v>
+        <v>0.950491</v>
       </c>
       <c r="D54" t="n">
-        <v>1.00588</v>
+        <v>0.999629</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.615714</v>
+        <v>0.617574</v>
       </c>
       <c r="C55" t="n">
-        <v>0.944504</v>
+        <v>0.920144</v>
       </c>
       <c r="D55" t="n">
-        <v>0.977512</v>
+        <v>0.970162</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.598581</v>
+        <v>0.600756</v>
       </c>
       <c r="C56" t="n">
-        <v>0.914194</v>
+        <v>0.891334</v>
       </c>
       <c r="D56" t="n">
-        <v>0.949746</v>
+        <v>0.9426909999999999</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.582364</v>
+        <v>0.584544</v>
       </c>
       <c r="C57" t="n">
-        <v>0.887558</v>
+        <v>0.86407</v>
       </c>
       <c r="D57" t="n">
-        <v>0.923409</v>
+        <v>0.916378</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5673899999999999</v>
+        <v>0.569255</v>
       </c>
       <c r="C58" t="n">
-        <v>0.859704</v>
+        <v>0.839186</v>
       </c>
       <c r="D58" t="n">
-        <v>0.8987579999999999</v>
+        <v>0.8931829999999999</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.554013</v>
+        <v>0.556047</v>
       </c>
       <c r="C59" t="n">
-        <v>0.8345590000000001</v>
+        <v>0.815349</v>
       </c>
       <c r="D59" t="n">
-        <v>0.8749980000000001</v>
+        <v>0.870292</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.540839</v>
+        <v>0.542279</v>
       </c>
       <c r="C60" t="n">
-        <v>0.8109769999999999</v>
+        <v>0.791788</v>
       </c>
       <c r="D60" t="n">
-        <v>0.852962</v>
+        <v>0.846642</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.52893</v>
+        <v>0.530242</v>
       </c>
       <c r="C61" t="n">
-        <v>0.78809</v>
+        <v>0.769851</v>
       </c>
       <c r="D61" t="n">
-        <v>0.83152</v>
+        <v>0.825968</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.518495</v>
+        <v>0.519929</v>
       </c>
       <c r="C62" t="n">
-        <v>0.766989</v>
+        <v>0.750579</v>
       </c>
       <c r="D62" t="n">
-        <v>0.812266</v>
+        <v>0.807691</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.509377</v>
+        <v>0.51134</v>
       </c>
       <c r="C63" t="n">
-        <v>0.748312</v>
+        <v>0.731316</v>
       </c>
       <c r="D63" t="n">
-        <v>0.794781</v>
+        <v>0.789697</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.50185</v>
+        <v>0.5043840000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.730985</v>
+        <v>0.713877</v>
       </c>
       <c r="D64" t="n">
-        <v>0.780046</v>
+        <v>0.7748080000000001</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.497299</v>
+        <v>0.500279</v>
       </c>
       <c r="C65" t="n">
-        <v>0.716351</v>
+        <v>0.699254</v>
       </c>
       <c r="D65" t="n">
-        <v>0.76803</v>
+        <v>0.762361</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.49456</v>
+        <v>0.498497</v>
       </c>
       <c r="C66" t="n">
-        <v>0.704183</v>
+        <v>0.687853</v>
       </c>
       <c r="D66" t="n">
-        <v>1.12124</v>
+        <v>1.11925</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.710772</v>
+        <v>0.7216129999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>1.07304</v>
+        <v>1.0538</v>
       </c>
       <c r="D67" t="n">
-        <v>1.08932</v>
+        <v>1.08638</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6946909999999999</v>
+        <v>0.704951</v>
       </c>
       <c r="C68" t="n">
-        <v>1.03929</v>
+        <v>1.02262</v>
       </c>
       <c r="D68" t="n">
-        <v>1.05793</v>
+        <v>1.05664</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.678612</v>
+        <v>0.68784</v>
       </c>
       <c r="C69" t="n">
-        <v>1.00807</v>
+        <v>0.9903</v>
       </c>
       <c r="D69" t="n">
-        <v>1.02782</v>
+        <v>1.0257</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.663504</v>
+        <v>0.672901</v>
       </c>
       <c r="C70" t="n">
-        <v>0.978166</v>
+        <v>0.961355</v>
       </c>
       <c r="D70" t="n">
-        <v>0.999667</v>
+        <v>0.999021</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.648904</v>
+        <v>0.659348</v>
       </c>
       <c r="C71" t="n">
-        <v>0.950361</v>
+        <v>0.9354749999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>0.972467</v>
+        <v>0.9729</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.635522</v>
+        <v>0.644667</v>
       </c>
       <c r="C72" t="n">
-        <v>0.923054</v>
+        <v>0.9101900000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.94635</v>
+        <v>0.945882</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.621679</v>
+        <v>0.63042</v>
       </c>
       <c r="C73" t="n">
-        <v>0.895419</v>
+        <v>0.883611</v>
       </c>
       <c r="D73" t="n">
-        <v>0.922609</v>
+        <v>0.921689</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.61045</v>
+        <v>0.617891</v>
       </c>
       <c r="C74" t="n">
-        <v>0.873807</v>
+        <v>0.858664</v>
       </c>
       <c r="D74" t="n">
-        <v>0.900278</v>
+        <v>0.898188</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5950220000000001</v>
+        <v>0.605819</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8466129999999999</v>
+        <v>0.83745</v>
       </c>
       <c r="D75" t="n">
-        <v>0.876341</v>
+        <v>0.877532</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.583386</v>
+        <v>0.594356</v>
       </c>
       <c r="C76" t="n">
-        <v>0.8257640000000001</v>
+        <v>0.814518</v>
       </c>
       <c r="D76" t="n">
-        <v>0.8562</v>
+        <v>0.856851</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5736790000000001</v>
+        <v>0.584412</v>
       </c>
       <c r="C77" t="n">
-        <v>0.803163</v>
+        <v>0.795665</v>
       </c>
       <c r="D77" t="n">
-        <v>0.836494</v>
+        <v>0.839686</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.562671</v>
+        <v>0.577477</v>
       </c>
       <c r="C78" t="n">
-        <v>0.784269</v>
+        <v>0.778786</v>
       </c>
       <c r="D78" t="n">
-        <v>0.820789</v>
+        <v>0.823367</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.55772</v>
+        <v>0.57046</v>
       </c>
       <c r="C79" t="n">
-        <v>0.767723</v>
+        <v>0.761117</v>
       </c>
       <c r="D79" t="n">
-        <v>0.807955</v>
+        <v>0.808708</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5545369999999999</v>
+        <v>0.565337</v>
       </c>
       <c r="C80" t="n">
-        <v>0.756731</v>
+        <v>0.747533</v>
       </c>
       <c r="D80" t="n">
-        <v>1.19917</v>
+        <v>1.20907</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.784052</v>
+        <v>0.804844</v>
       </c>
       <c r="C81" t="n">
-        <v>1.15687</v>
+        <v>1.16113</v>
       </c>
       <c r="D81" t="n">
-        <v>1.17767</v>
+        <v>1.19088</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.77712</v>
+        <v>0.7994059999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>1.13897</v>
+        <v>1.14437</v>
       </c>
       <c r="D82" t="n">
-        <v>1.15607</v>
+        <v>1.16891</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.768247</v>
+        <v>0.790736</v>
       </c>
       <c r="C83" t="n">
-        <v>1.11669</v>
+        <v>1.1238</v>
       </c>
       <c r="D83" t="n">
-        <v>1.1325</v>
+        <v>1.1456</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.758544</v>
+        <v>0.7829660000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>1.09171</v>
+        <v>1.10197</v>
       </c>
       <c r="D84" t="n">
-        <v>1.10642</v>
+        <v>1.11904</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.74768</v>
+        <v>0.7725379999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>1.06925</v>
+        <v>1.07589</v>
       </c>
       <c r="D85" t="n">
-        <v>1.08237</v>
+        <v>1.09418</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.738563</v>
+        <v>0.762792</v>
       </c>
       <c r="C86" t="n">
-        <v>1.04389</v>
+        <v>1.05197</v>
       </c>
       <c r="D86" t="n">
-        <v>1.05612</v>
+        <v>1.06924</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.727752</v>
+        <v>0.754585</v>
       </c>
       <c r="C87" t="n">
-        <v>1.01597</v>
+        <v>1.02873</v>
       </c>
       <c r="D87" t="n">
-        <v>1.03044</v>
+        <v>1.04642</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.716099</v>
+        <v>0.743725</v>
       </c>
       <c r="C88" t="n">
-        <v>0.99364</v>
+        <v>1.00404</v>
       </c>
       <c r="D88" t="n">
-        <v>1.00048</v>
+        <v>1.02169</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.706076</v>
+        <v>0.733911</v>
       </c>
       <c r="C89" t="n">
-        <v>0.969007</v>
+        <v>0.980904</v>
       </c>
       <c r="D89" t="n">
-        <v>0.983756</v>
+        <v>0.997449</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.69574</v>
+        <v>0.722338</v>
       </c>
       <c r="C90" t="n">
-        <v>0.948781</v>
+        <v>0.957407</v>
       </c>
       <c r="D90" t="n">
-        <v>0.953669</v>
+        <v>0.97463</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.687618</v>
+        <v>0.714183</v>
       </c>
       <c r="C91" t="n">
-        <v>0.927835</v>
+        <v>0.936809</v>
       </c>
       <c r="D91" t="n">
-        <v>0.943403</v>
+        <v>0.954525</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.681104</v>
+        <v>0.7058950000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>0.908162</v>
+        <v>0.918013</v>
       </c>
       <c r="D92" t="n">
-        <v>0.924879</v>
+        <v>0.93553</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.674069</v>
+        <v>0.699726</v>
       </c>
       <c r="C93" t="n">
-        <v>0.891671</v>
+        <v>0.89998</v>
       </c>
       <c r="D93" t="n">
-        <v>0.909646</v>
+        <v>0.921623</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.670617</v>
+        <v>0.696947</v>
       </c>
       <c r="C94" t="n">
-        <v>0.877246</v>
+        <v>0.886303</v>
       </c>
       <c r="D94" t="n">
-        <v>1.30388</v>
+        <v>1.33189</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.904429</v>
+        <v>0.938128</v>
       </c>
       <c r="C95" t="n">
-        <v>1.27623</v>
+        <v>1.30739</v>
       </c>
       <c r="D95" t="n">
-        <v>1.29616</v>
+        <v>1.32787</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.902585</v>
+        <v>0.938981</v>
       </c>
       <c r="C96" t="n">
-        <v>1.27002</v>
+        <v>1.30527</v>
       </c>
       <c r="D96" t="n">
-        <v>1.27618</v>
+        <v>1.31546</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.891975</v>
+        <v>0.931944</v>
       </c>
       <c r="C97" t="n">
-        <v>1.25509</v>
+        <v>1.29202</v>
       </c>
       <c r="D97" t="n">
-        <v>1.25893</v>
+        <v>1.29697</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.881939</v>
+        <v>0.922437</v>
       </c>
       <c r="C98" t="n">
-        <v>1.23342</v>
+        <v>1.27488</v>
       </c>
       <c r="D98" t="n">
-        <v>1.23642</v>
+        <v>1.27764</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.871788</v>
+        <v>0.912075</v>
       </c>
       <c r="C99" t="n">
-        <v>1.21806</v>
+        <v>1.25676</v>
       </c>
       <c r="D99" t="n">
-        <v>1.21818</v>
+        <v>1.25531</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.862397</v>
+        <v>0.9035879999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>1.19729</v>
+        <v>1.23941</v>
       </c>
       <c r="D100" t="n">
-        <v>1.19594</v>
+        <v>1.23669</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.853132</v>
+        <v>0.895169</v>
       </c>
       <c r="C101" t="n">
-        <v>1.18203</v>
+        <v>1.2228</v>
       </c>
       <c r="D101" t="n">
-        <v>1.17573</v>
+        <v>1.21783</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.843713</v>
+        <v>0.886469</v>
       </c>
       <c r="C102" t="n">
-        <v>1.16537</v>
+        <v>1.20714</v>
       </c>
       <c r="D102" t="n">
-        <v>1.16372</v>
+        <v>1.20076</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.836021</v>
+        <v>0.878925</v>
       </c>
       <c r="C103" t="n">
-        <v>1.1485</v>
+        <v>1.19169</v>
       </c>
       <c r="D103" t="n">
-        <v>1.14341</v>
+        <v>1.18136</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.828499</v>
+        <v>0.8708630000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>1.1273</v>
+        <v>1.17612</v>
       </c>
       <c r="D104" t="n">
-        <v>1.12053</v>
+        <v>1.16655</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.822107</v>
+        <v>0.865683</v>
       </c>
       <c r="C105" t="n">
-        <v>1.12104</v>
+        <v>1.16258</v>
       </c>
       <c r="D105" t="n">
-        <v>1.1155</v>
+        <v>1.15107</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.816271</v>
+        <v>0.860167</v>
       </c>
       <c r="C106" t="n">
-        <v>1.09991</v>
+        <v>1.15153</v>
       </c>
       <c r="D106" t="n">
-        <v>1.08859</v>
+        <v>1.13723</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.811868</v>
+        <v>0.856372</v>
       </c>
       <c r="C107" t="n">
-        <v>1.08923</v>
+        <v>1.13905</v>
       </c>
       <c r="D107" t="n">
-        <v>1.08632</v>
+        <v>1.12511</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.8082240000000001</v>
+        <v>0.85501</v>
       </c>
       <c r="C108" t="n">
-        <v>1.08083</v>
+        <v>1.13111</v>
       </c>
       <c r="D108" t="n">
-        <v>1.47804</v>
+        <v>1.53213</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.8108610000000001</v>
+        <v>0.856228</v>
       </c>
       <c r="C109" t="n">
-        <v>1.07902</v>
+        <v>1.12446</v>
       </c>
       <c r="D109" t="n">
-        <v>1.47451</v>
+        <v>1.52785</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.03749</v>
+        <v>1.09513</v>
       </c>
       <c r="C110" t="n">
-        <v>1.47326</v>
+        <v>1.54648</v>
       </c>
       <c r="D110" t="n">
-        <v>1.45601</v>
+        <v>1.5155</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.02482</v>
+        <v>1.08391</v>
       </c>
       <c r="C111" t="n">
-        <v>1.467</v>
+        <v>1.53078</v>
       </c>
       <c r="D111" t="n">
-        <v>1.44835</v>
+        <v>1.50134</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.0134</v>
+        <v>1.07229</v>
       </c>
       <c r="C112" t="n">
-        <v>1.4508</v>
+        <v>1.51721</v>
       </c>
       <c r="D112" t="n">
-        <v>1.43193</v>
+        <v>1.48955</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.00256</v>
+        <v>1.06009</v>
       </c>
       <c r="C113" t="n">
-        <v>1.4365</v>
+        <v>1.50313</v>
       </c>
       <c r="D113" t="n">
-        <v>1.41436</v>
+        <v>1.47715</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.991603</v>
+        <v>1.04958</v>
       </c>
       <c r="C114" t="n">
-        <v>1.41776</v>
+        <v>1.48873</v>
       </c>
       <c r="D114" t="n">
-        <v>1.40827</v>
+        <v>1.46543</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.980888</v>
+        <v>1.0393</v>
       </c>
       <c r="C115" t="n">
-        <v>1.40601</v>
+        <v>1.47881</v>
       </c>
       <c r="D115" t="n">
-        <v>1.39495</v>
+        <v>1.45667</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.971164</v>
+        <v>1.02979</v>
       </c>
       <c r="C116" t="n">
-        <v>1.38926</v>
+        <v>1.46516</v>
       </c>
       <c r="D116" t="n">
-        <v>1.38186</v>
+        <v>1.44899</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.961661</v>
+        <v>1.02092</v>
       </c>
       <c r="C117" t="n">
-        <v>1.38176</v>
+        <v>1.45388</v>
       </c>
       <c r="D117" t="n">
-        <v>1.37914</v>
+        <v>1.44242</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.954174</v>
+        <v>1.0128</v>
       </c>
       <c r="C118" t="n">
-        <v>1.37055</v>
+        <v>1.44245</v>
       </c>
       <c r="D118" t="n">
-        <v>1.36928</v>
+        <v>1.43088</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.947557</v>
+        <v>1.00635</v>
       </c>
       <c r="C119" t="n">
-        <v>1.35916</v>
+        <v>1.43341</v>
       </c>
       <c r="D119" t="n">
-        <v>1.36327</v>
+        <v>1.42274</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.9414709999999999</v>
+        <v>1.00078</v>
       </c>
       <c r="C120" t="n">
-        <v>1.35196</v>
+        <v>1.42396</v>
       </c>
       <c r="D120" t="n">
-        <v>1.35554</v>
+        <v>1.4142</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.937514</v>
+        <v>0.9966120000000001</v>
       </c>
       <c r="C121" t="n">
-        <v>1.34219</v>
+        <v>1.41596</v>
       </c>
       <c r="D121" t="n">
-        <v>1.34736</v>
+        <v>1.40982</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.934901</v>
+        <v>0.99436</v>
       </c>
       <c r="C122" t="n">
-        <v>1.33329</v>
+        <v>1.41184</v>
       </c>
       <c r="D122" t="n">
-        <v>1.33839</v>
+        <v>1.40075</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.933418</v>
+        <v>0.994664</v>
       </c>
       <c r="C123" t="n">
-        <v>1.32794</v>
+        <v>1.40638</v>
       </c>
       <c r="D123" t="n">
-        <v>1.72246</v>
+        <v>1.80513</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.15871</v>
+        <v>1.22776</v>
       </c>
       <c r="C124" t="n">
-        <v>1.7225</v>
+        <v>1.82438</v>
       </c>
       <c r="D124" t="n">
-        <v>1.71289</v>
+        <v>1.79398</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.14799</v>
+        <v>1.21698</v>
       </c>
       <c r="C125" t="n">
-        <v>1.71009</v>
+        <v>1.80238</v>
       </c>
       <c r="D125" t="n">
-        <v>1.69752</v>
+        <v>1.78038</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.13798</v>
+        <v>1.20713</v>
       </c>
       <c r="C126" t="n">
-        <v>1.69067</v>
+        <v>1.78413</v>
       </c>
       <c r="D126" t="n">
-        <v>1.68584</v>
+        <v>1.76745</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.12862</v>
+        <v>1.1974</v>
       </c>
       <c r="C127" t="n">
-        <v>1.67549</v>
+        <v>1.7708</v>
       </c>
       <c r="D127" t="n">
-        <v>1.66676</v>
+        <v>1.75454</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.11945</v>
+        <v>1.1879</v>
       </c>
       <c r="C128" t="n">
-        <v>1.66319</v>
+        <v>1.75445</v>
       </c>
       <c r="D128" t="n">
-        <v>1.65403</v>
+        <v>1.7426</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.11129</v>
+        <v>1.1794</v>
       </c>
       <c r="C129" t="n">
-        <v>1.647</v>
+        <v>1.74219</v>
       </c>
       <c r="D129" t="n">
-        <v>1.64201</v>
+        <v>1.7349</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.10507</v>
+        <v>1.17138</v>
       </c>
       <c r="C130" t="n">
-        <v>1.63999</v>
+        <v>1.7285</v>
       </c>
       <c r="D130" t="n">
-        <v>1.63359</v>
+        <v>1.72323</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.09859</v>
+        <v>1.1646</v>
       </c>
       <c r="C131" t="n">
-        <v>1.62219</v>
+        <v>1.71976</v>
       </c>
       <c r="D131" t="n">
-        <v>1.62427</v>
+        <v>1.71318</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.0921</v>
+        <v>1.1585</v>
       </c>
       <c r="C132" t="n">
-        <v>1.61549</v>
+        <v>1.70724</v>
       </c>
       <c r="D132" t="n">
-        <v>1.61427</v>
+        <v>1.706</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.08687</v>
+        <v>1.1545</v>
       </c>
       <c r="C133" t="n">
-        <v>1.60068</v>
+        <v>1.6965</v>
       </c>
       <c r="D133" t="n">
-        <v>1.60181</v>
+        <v>1.69845</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.08324</v>
+        <v>1.15108</v>
       </c>
       <c r="C134" t="n">
-        <v>1.59433</v>
+        <v>1.69112</v>
       </c>
       <c r="D134" t="n">
-        <v>1.5985</v>
+        <v>1.69131</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.08032</v>
+        <v>1.14953</v>
       </c>
       <c r="C135" t="n">
-        <v>1.58263</v>
+        <v>1.68013</v>
       </c>
       <c r="D135" t="n">
-        <v>1.59009</v>
+        <v>1.68596</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.07949</v>
+        <v>1.15007</v>
       </c>
       <c r="C136" t="n">
-        <v>1.57918</v>
+        <v>1.67854</v>
       </c>
       <c r="D136" t="n">
-        <v>1.5882</v>
+        <v>1.68213</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.0794</v>
+        <v>1.15111</v>
       </c>
       <c r="C137" t="n">
-        <v>1.57079</v>
+        <v>1.66994</v>
       </c>
       <c r="D137" t="n">
-        <v>1.97313</v>
+        <v>2.08077</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.30574</v>
+        <v>1.38194</v>
       </c>
       <c r="C138" t="n">
-        <v>1.9713</v>
+        <v>2.08691</v>
       </c>
       <c r="D138" t="n">
-        <v>1.95876</v>
+        <v>2.06132</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.29807</v>
+        <v>1.37305</v>
       </c>
       <c r="C139" t="n">
-        <v>1.95018</v>
+        <v>2.06336</v>
       </c>
       <c r="D139" t="n">
-        <v>1.93595</v>
+        <v>2.04132</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.28797</v>
+        <v>1.36623</v>
       </c>
       <c r="C140" t="n">
-        <v>1.92364</v>
+        <v>2.03958</v>
       </c>
       <c r="D140" t="n">
-        <v>1.9177</v>
+        <v>2.02317</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.28145</v>
+        <v>1.35899</v>
       </c>
       <c r="C141" t="n">
-        <v>1.90718</v>
+        <v>2.01782</v>
       </c>
       <c r="D141" t="n">
-        <v>1.90211</v>
+        <v>2.0057</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.2743</v>
+        <v>1.35213</v>
       </c>
       <c r="C142" t="n">
-        <v>1.88742</v>
+        <v>1.99627</v>
       </c>
       <c r="D142" t="n">
-        <v>1.88872</v>
+        <v>1.99209</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.26837</v>
+        <v>1.34708</v>
       </c>
       <c r="C143" t="n">
-        <v>1.87102</v>
+        <v>1.97811</v>
       </c>
       <c r="D143" t="n">
-        <v>1.86654</v>
+        <v>1.97887</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.481602</v>
+        <v>0.481682</v>
       </c>
       <c r="C2" t="n">
-        <v>0.720113</v>
+        <v>0.721371</v>
       </c>
       <c r="D2" t="n">
-        <v>0.777624</v>
+        <v>0.7764799999999999</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.469062</v>
+        <v>0.469705</v>
       </c>
       <c r="C3" t="n">
-        <v>0.699063</v>
+        <v>0.69936</v>
       </c>
       <c r="D3" t="n">
-        <v>0.755897</v>
+        <v>0.75575</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.458323</v>
+        <v>0.458246</v>
       </c>
       <c r="C4" t="n">
-        <v>0.678932</v>
+        <v>0.679343</v>
       </c>
       <c r="D4" t="n">
-        <v>0.737191</v>
+        <v>0.736584</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.449331</v>
+        <v>0.449193</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6607769999999999</v>
+        <v>0.661251</v>
       </c>
       <c r="D5" t="n">
-        <v>0.720376</v>
+        <v>0.719541</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.441561</v>
+        <v>0.441458</v>
       </c>
       <c r="C6" t="n">
-        <v>0.644052</v>
+        <v>0.6443410000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.704516</v>
+        <v>0.703902</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.435733</v>
+        <v>0.436156</v>
       </c>
       <c r="C7" t="n">
-        <v>0.628129</v>
+        <v>0.628656</v>
       </c>
       <c r="D7" t="n">
-        <v>0.690412</v>
+        <v>0.689704</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.432594</v>
+        <v>0.432637</v>
       </c>
       <c r="C8" t="n">
-        <v>0.615661</v>
+        <v>0.615951</v>
       </c>
       <c r="D8" t="n">
-        <v>0.678824</v>
+        <v>0.678767</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.432556</v>
+        <v>0.431971</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6042380000000001</v>
+        <v>0.605036</v>
       </c>
       <c r="D9" t="n">
-        <v>0.994934</v>
+        <v>0.99425</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5681929999999999</v>
+        <v>0.569383</v>
       </c>
       <c r="C10" t="n">
-        <v>0.884497</v>
+        <v>0.884702</v>
       </c>
       <c r="D10" t="n">
-        <v>0.963709</v>
+        <v>0.963234</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.551208</v>
+        <v>0.55106</v>
       </c>
       <c r="C11" t="n">
-        <v>0.855166</v>
+        <v>0.855777</v>
       </c>
       <c r="D11" t="n">
-        <v>0.934489</v>
+        <v>0.933939</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.534875</v>
+        <v>0.534325</v>
       </c>
       <c r="C12" t="n">
-        <v>0.827298</v>
+        <v>0.827892</v>
       </c>
       <c r="D12" t="n">
-        <v>0.90605</v>
+        <v>0.905965</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.519243</v>
+        <v>0.520012</v>
       </c>
       <c r="C13" t="n">
-        <v>0.800776</v>
+        <v>0.801417</v>
       </c>
       <c r="D13" t="n">
-        <v>0.87952</v>
+        <v>0.879316</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.504887</v>
+        <v>0.5056929999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.775891</v>
+        <v>0.776033</v>
       </c>
       <c r="D14" t="n">
-        <v>0.854164</v>
+        <v>0.853609</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.491107</v>
+        <v>0.491632</v>
       </c>
       <c r="C15" t="n">
-        <v>0.751691</v>
+        <v>0.752613</v>
       </c>
       <c r="D15" t="n">
-        <v>0.83006</v>
+        <v>0.829562</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.478743</v>
+        <v>0.479087</v>
       </c>
       <c r="C16" t="n">
-        <v>0.729059</v>
+        <v>0.729782</v>
       </c>
       <c r="D16" t="n">
-        <v>0.807307</v>
+        <v>0.806909</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.466842</v>
+        <v>0.466184</v>
       </c>
       <c r="C17" t="n">
-        <v>0.707508</v>
+        <v>0.708328</v>
       </c>
       <c r="D17" t="n">
-        <v>0.785534</v>
+        <v>0.785571</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.456369</v>
+        <v>0.455857</v>
       </c>
       <c r="C18" t="n">
-        <v>0.687908</v>
+        <v>0.688504</v>
       </c>
       <c r="D18" t="n">
-        <v>0.765423</v>
+        <v>0.765779</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.447295</v>
+        <v>0.447043</v>
       </c>
       <c r="C19" t="n">
-        <v>0.669505</v>
+        <v>0.67</v>
       </c>
       <c r="D19" t="n">
-        <v>0.747044</v>
+        <v>0.746781</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.439406</v>
+        <v>0.438703</v>
       </c>
       <c r="C20" t="n">
-        <v>0.651961</v>
+        <v>0.652435</v>
       </c>
       <c r="D20" t="n">
-        <v>0.729968</v>
+        <v>0.730198</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.433929</v>
+        <v>0.432876</v>
       </c>
       <c r="C21" t="n">
-        <v>0.636321</v>
+        <v>0.63659</v>
       </c>
       <c r="D21" t="n">
-        <v>0.715126</v>
+        <v>0.715457</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.431313</v>
+        <v>0.430535</v>
       </c>
       <c r="C22" t="n">
-        <v>0.623066</v>
+        <v>0.623193</v>
       </c>
       <c r="D22" t="n">
-        <v>0.70306</v>
+        <v>0.703572</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.431239</v>
+        <v>0.430961</v>
       </c>
       <c r="C23" t="n">
-        <v>0.612074</v>
+        <v>0.61228</v>
       </c>
       <c r="D23" t="n">
-        <v>1.03269</v>
+        <v>1.03253</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.617022</v>
+        <v>0.617967</v>
       </c>
       <c r="C24" t="n">
-        <v>0.941261</v>
+        <v>0.94284</v>
       </c>
       <c r="D24" t="n">
-        <v>1.00059</v>
+        <v>1.00112</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.598782</v>
+        <v>0.599505</v>
       </c>
       <c r="C25" t="n">
-        <v>0.910434</v>
+        <v>0.912128</v>
       </c>
       <c r="D25" t="n">
-        <v>0.970061</v>
+        <v>0.970729</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.580817</v>
+        <v>0.581416</v>
       </c>
       <c r="C26" t="n">
-        <v>0.881014</v>
+        <v>0.881972</v>
       </c>
       <c r="D26" t="n">
-        <v>0.940697</v>
+        <v>0.941438</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.563364</v>
+        <v>0.5643010000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>0.852379</v>
+        <v>0.853755</v>
       </c>
       <c r="D27" t="n">
-        <v>0.913218</v>
+        <v>0.913487</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.547019</v>
+        <v>0.54764</v>
       </c>
       <c r="C28" t="n">
-        <v>0.825062</v>
+        <v>0.825888</v>
       </c>
       <c r="D28" t="n">
-        <v>0.886397</v>
+        <v>0.886867</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.53183</v>
+        <v>0.531816</v>
       </c>
       <c r="C29" t="n">
-        <v>0.799153</v>
+        <v>0.800354</v>
       </c>
       <c r="D29" t="n">
-        <v>0.861185</v>
+        <v>0.861912</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.517648</v>
+        <v>0.518118</v>
       </c>
       <c r="C30" t="n">
-        <v>0.774941</v>
+        <v>0.775804</v>
       </c>
       <c r="D30" t="n">
-        <v>0.837829</v>
+        <v>0.838324</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.504433</v>
+        <v>0.504865</v>
       </c>
       <c r="C31" t="n">
-        <v>0.752305</v>
+        <v>0.7525309999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.815154</v>
+        <v>0.81559</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.491859</v>
+        <v>0.492484</v>
       </c>
       <c r="C32" t="n">
-        <v>0.730395</v>
+        <v>0.731528</v>
       </c>
       <c r="D32" t="n">
-        <v>0.794081</v>
+        <v>0.794822</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.480787</v>
+        <v>0.481221</v>
       </c>
       <c r="C33" t="n">
-        <v>0.710105</v>
+        <v>0.711321</v>
       </c>
       <c r="D33" t="n">
-        <v>0.775208</v>
+        <v>0.775414</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.470957</v>
+        <v>0.470927</v>
       </c>
       <c r="C34" t="n">
-        <v>0.691503</v>
+        <v>0.692335</v>
       </c>
       <c r="D34" t="n">
-        <v>0.756841</v>
+        <v>0.757769</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.463172</v>
+        <v>0.463898</v>
       </c>
       <c r="C35" t="n">
-        <v>0.674221</v>
+        <v>0.67601</v>
       </c>
       <c r="D35" t="n">
-        <v>0.74129</v>
+        <v>0.74154</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.457899</v>
+        <v>0.458021</v>
       </c>
       <c r="C36" t="n">
-        <v>0.658732</v>
+        <v>0.659817</v>
       </c>
       <c r="D36" t="n">
-        <v>0.728339</v>
+        <v>0.728518</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.454941</v>
+        <v>0.455507</v>
       </c>
       <c r="C37" t="n">
-        <v>0.645896</v>
+        <v>0.648014</v>
       </c>
       <c r="D37" t="n">
-        <v>1.06508</v>
+        <v>1.0641</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.647733</v>
+        <v>0.648486</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9792960000000001</v>
+        <v>0.9807439999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>1.03194</v>
+        <v>1.03132</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6292489999999999</v>
+        <v>0.629425</v>
       </c>
       <c r="C39" t="n">
-        <v>0.949284</v>
+        <v>0.949755</v>
       </c>
       <c r="D39" t="n">
-        <v>1.00081</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.609911</v>
+        <v>0.610878</v>
       </c>
       <c r="C40" t="n">
-        <v>0.917475</v>
+        <v>0.918807</v>
       </c>
       <c r="D40" t="n">
-        <v>0.970143</v>
+        <v>0.970156</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.59182</v>
+        <v>0.5930839999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.8877350000000001</v>
+        <v>0.89005</v>
       </c>
       <c r="D41" t="n">
-        <v>0.941379</v>
+        <v>0.941784</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.574609</v>
+        <v>0.575214</v>
       </c>
       <c r="C42" t="n">
-        <v>0.859907</v>
+        <v>0.861782</v>
       </c>
       <c r="D42" t="n">
-        <v>0.914179</v>
+        <v>0.914695</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.558847</v>
+        <v>0.559858</v>
       </c>
       <c r="C43" t="n">
-        <v>0.8337599999999999</v>
+        <v>0.8353699999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.889032</v>
+        <v>0.888774</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.542994</v>
+        <v>0.544458</v>
       </c>
       <c r="C44" t="n">
-        <v>0.808316</v>
+        <v>0.810258</v>
       </c>
       <c r="D44" t="n">
-        <v>0.864548</v>
+        <v>0.864273</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.529597</v>
+        <v>0.5301979999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>0.783913</v>
+        <v>0.786699</v>
       </c>
       <c r="D45" t="n">
-        <v>0.841342</v>
+        <v>0.841296</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.516701</v>
+        <v>0.51642</v>
       </c>
       <c r="C46" t="n">
-        <v>0.7615960000000001</v>
+        <v>0.762186</v>
       </c>
       <c r="D46" t="n">
-        <v>0.819493</v>
+        <v>0.819899</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.504289</v>
+        <v>0.503678</v>
       </c>
       <c r="C47" t="n">
-        <v>0.740175</v>
+        <v>0.742958</v>
       </c>
       <c r="D47" t="n">
-        <v>0.799162</v>
+        <v>0.799886</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.494687</v>
+        <v>0.495675</v>
       </c>
       <c r="C48" t="n">
-        <v>0.719951</v>
+        <v>0.721938</v>
       </c>
       <c r="D48" t="n">
-        <v>0.780394</v>
+        <v>0.781169</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.485634</v>
+        <v>0.486312</v>
       </c>
       <c r="C49" t="n">
-        <v>0.701856</v>
+        <v>0.705086</v>
       </c>
       <c r="D49" t="n">
-        <v>0.763919</v>
+        <v>0.764143</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.478989</v>
+        <v>0.480925</v>
       </c>
       <c r="C50" t="n">
-        <v>0.685837</v>
+        <v>0.6887180000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>0.750069</v>
+        <v>0.750489</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.475608</v>
+        <v>0.474741</v>
       </c>
       <c r="C51" t="n">
-        <v>0.671783</v>
+        <v>0.67484</v>
       </c>
       <c r="D51" t="n">
-        <v>1.09353</v>
+        <v>1.09334</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.475345</v>
+        <v>0.476027</v>
       </c>
       <c r="C52" t="n">
-        <v>0.664147</v>
+        <v>0.662671</v>
       </c>
       <c r="D52" t="n">
-        <v>1.06143</v>
+        <v>1.06062</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.654013</v>
+        <v>0.65727</v>
       </c>
       <c r="C53" t="n">
-        <v>0.981358</v>
+        <v>0.983992</v>
       </c>
       <c r="D53" t="n">
-        <v>1.02923</v>
+        <v>1.02978</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6358200000000001</v>
+        <v>0.6387429999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.950491</v>
+        <v>0.953203</v>
       </c>
       <c r="D54" t="n">
-        <v>0.999629</v>
+        <v>0.998824</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.617574</v>
+        <v>0.620518</v>
       </c>
       <c r="C55" t="n">
-        <v>0.920144</v>
+        <v>0.923421</v>
       </c>
       <c r="D55" t="n">
-        <v>0.970162</v>
+        <v>0.970341</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.600756</v>
+        <v>0.603507</v>
       </c>
       <c r="C56" t="n">
-        <v>0.891334</v>
+        <v>0.895135</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9426909999999999</v>
+        <v>0.94326</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.584544</v>
+        <v>0.58739</v>
       </c>
       <c r="C57" t="n">
-        <v>0.86407</v>
+        <v>0.867453</v>
       </c>
       <c r="D57" t="n">
-        <v>0.916378</v>
+        <v>0.916793</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.569255</v>
+        <v>0.572048</v>
       </c>
       <c r="C58" t="n">
-        <v>0.839186</v>
+        <v>0.842554</v>
       </c>
       <c r="D58" t="n">
-        <v>0.8931829999999999</v>
+        <v>0.892777</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.556047</v>
+        <v>0.557836</v>
       </c>
       <c r="C59" t="n">
-        <v>0.815349</v>
+        <v>0.818177</v>
       </c>
       <c r="D59" t="n">
-        <v>0.870292</v>
+        <v>0.869206</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.542279</v>
+        <v>0.544526</v>
       </c>
       <c r="C60" t="n">
-        <v>0.791788</v>
+        <v>0.795702</v>
       </c>
       <c r="D60" t="n">
-        <v>0.846642</v>
+        <v>0.848195</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.530242</v>
+        <v>0.532823</v>
       </c>
       <c r="C61" t="n">
-        <v>0.769851</v>
+        <v>0.774802</v>
       </c>
       <c r="D61" t="n">
-        <v>0.825968</v>
+        <v>0.827238</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.519929</v>
+        <v>0.522834</v>
       </c>
       <c r="C62" t="n">
-        <v>0.750579</v>
+        <v>0.754802</v>
       </c>
       <c r="D62" t="n">
-        <v>0.807691</v>
+        <v>0.80826</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.51134</v>
+        <v>0.514111</v>
       </c>
       <c r="C63" t="n">
-        <v>0.731316</v>
+        <v>0.73549</v>
       </c>
       <c r="D63" t="n">
-        <v>0.789697</v>
+        <v>0.791049</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5043840000000001</v>
+        <v>0.505986</v>
       </c>
       <c r="C64" t="n">
-        <v>0.713877</v>
+        <v>0.719096</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7748080000000001</v>
+        <v>0.7764720000000001</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.500279</v>
+        <v>0.502173</v>
       </c>
       <c r="C65" t="n">
-        <v>0.699254</v>
+        <v>0.703326</v>
       </c>
       <c r="D65" t="n">
-        <v>0.762361</v>
+        <v>0.763727</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.498497</v>
+        <v>0.50034</v>
       </c>
       <c r="C66" t="n">
-        <v>0.687853</v>
+        <v>0.6907990000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>1.11925</v>
+        <v>1.11149</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.7216129999999999</v>
+        <v>0.713456</v>
       </c>
       <c r="C67" t="n">
-        <v>1.0538</v>
+        <v>1.04707</v>
       </c>
       <c r="D67" t="n">
-        <v>1.08638</v>
+        <v>1.07986</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.704951</v>
+        <v>0.697002</v>
       </c>
       <c r="C68" t="n">
-        <v>1.02262</v>
+        <v>1.01577</v>
       </c>
       <c r="D68" t="n">
-        <v>1.05664</v>
+        <v>1.04905</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.68784</v>
+        <v>0.681177</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9903</v>
+        <v>0.986904</v>
       </c>
       <c r="D69" t="n">
-        <v>1.0257</v>
+        <v>1.0195</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.672901</v>
+        <v>0.667254</v>
       </c>
       <c r="C70" t="n">
-        <v>0.961355</v>
+        <v>0.959225</v>
       </c>
       <c r="D70" t="n">
-        <v>0.999021</v>
+        <v>0.9925079999999999</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.659348</v>
+        <v>0.650654</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9354749999999999</v>
+        <v>0.930854</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9729</v>
+        <v>0.964903</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.644667</v>
+        <v>0.635622</v>
       </c>
       <c r="C72" t="n">
-        <v>0.9101900000000001</v>
+        <v>0.903773</v>
       </c>
       <c r="D72" t="n">
-        <v>0.945882</v>
+        <v>0.939067</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.63042</v>
+        <v>0.622032</v>
       </c>
       <c r="C73" t="n">
-        <v>0.883611</v>
+        <v>0.878862</v>
       </c>
       <c r="D73" t="n">
-        <v>0.921689</v>
+        <v>0.915426</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.617891</v>
+        <v>0.607605</v>
       </c>
       <c r="C74" t="n">
-        <v>0.858664</v>
+        <v>0.854077</v>
       </c>
       <c r="D74" t="n">
-        <v>0.898188</v>
+        <v>0.891583</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.605819</v>
+        <v>0.595388</v>
       </c>
       <c r="C75" t="n">
-        <v>0.83745</v>
+        <v>0.829949</v>
       </c>
       <c r="D75" t="n">
-        <v>0.877532</v>
+        <v>0.86908</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.594356</v>
+        <v>0.583581</v>
       </c>
       <c r="C76" t="n">
-        <v>0.814518</v>
+        <v>0.80822</v>
       </c>
       <c r="D76" t="n">
-        <v>0.856851</v>
+        <v>0.84935</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.584412</v>
+        <v>0.574146</v>
       </c>
       <c r="C77" t="n">
-        <v>0.795665</v>
+        <v>0.788339</v>
       </c>
       <c r="D77" t="n">
-        <v>0.839686</v>
+        <v>0.830772</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.577477</v>
+        <v>0.565617</v>
       </c>
       <c r="C78" t="n">
-        <v>0.778786</v>
+        <v>0.771668</v>
       </c>
       <c r="D78" t="n">
-        <v>0.823367</v>
+        <v>0.814896</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.57046</v>
+        <v>0.559889</v>
       </c>
       <c r="C79" t="n">
-        <v>0.761117</v>
+        <v>0.756419</v>
       </c>
       <c r="D79" t="n">
-        <v>0.808708</v>
+        <v>0.802231</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.565337</v>
+        <v>0.55769</v>
       </c>
       <c r="C80" t="n">
-        <v>0.747533</v>
+        <v>0.742796</v>
       </c>
       <c r="D80" t="n">
-        <v>1.20907</v>
+        <v>1.18934</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.804844</v>
+        <v>0.788753</v>
       </c>
       <c r="C81" t="n">
-        <v>1.16113</v>
+        <v>1.13469</v>
       </c>
       <c r="D81" t="n">
-        <v>1.19088</v>
+        <v>1.16905</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.7994059999999999</v>
+        <v>0.780792</v>
       </c>
       <c r="C82" t="n">
-        <v>1.14437</v>
+        <v>1.11823</v>
       </c>
       <c r="D82" t="n">
-        <v>1.16891</v>
+        <v>1.14706</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.790736</v>
+        <v>0.771178</v>
       </c>
       <c r="C83" t="n">
-        <v>1.1238</v>
+        <v>1.09657</v>
       </c>
       <c r="D83" t="n">
-        <v>1.1456</v>
+        <v>1.12349</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.7829660000000001</v>
+        <v>0.760842</v>
       </c>
       <c r="C84" t="n">
-        <v>1.10197</v>
+        <v>1.07385</v>
       </c>
       <c r="D84" t="n">
-        <v>1.11904</v>
+        <v>1.09776</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.7725379999999999</v>
+        <v>0.750135</v>
       </c>
       <c r="C85" t="n">
-        <v>1.07589</v>
+        <v>1.04981</v>
       </c>
       <c r="D85" t="n">
-        <v>1.09418</v>
+        <v>1.07279</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.762792</v>
+        <v>0.740861</v>
       </c>
       <c r="C86" t="n">
-        <v>1.05197</v>
+        <v>1.02621</v>
       </c>
       <c r="D86" t="n">
-        <v>1.06924</v>
+        <v>1.04858</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.754585</v>
+        <v>0.7294620000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>1.02873</v>
+        <v>1.00181</v>
       </c>
       <c r="D87" t="n">
-        <v>1.04642</v>
+        <v>1.02362</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.743725</v>
+        <v>0.718828</v>
       </c>
       <c r="C88" t="n">
-        <v>1.00404</v>
+        <v>0.978958</v>
       </c>
       <c r="D88" t="n">
-        <v>1.02169</v>
+        <v>1.00054</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.733911</v>
+        <v>0.708862</v>
       </c>
       <c r="C89" t="n">
-        <v>0.980904</v>
+        <v>0.955574</v>
       </c>
       <c r="D89" t="n">
-        <v>0.997449</v>
+        <v>0.9767479999999999</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.722338</v>
+        <v>0.698395</v>
       </c>
       <c r="C90" t="n">
-        <v>0.957407</v>
+        <v>0.93311</v>
       </c>
       <c r="D90" t="n">
-        <v>0.97463</v>
+        <v>0.955173</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.714183</v>
+        <v>0.689175</v>
       </c>
       <c r="C91" t="n">
-        <v>0.936809</v>
+        <v>0.913974</v>
       </c>
       <c r="D91" t="n">
-        <v>0.954525</v>
+        <v>0.935155</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.7058950000000001</v>
+        <v>0.681064</v>
       </c>
       <c r="C92" t="n">
-        <v>0.918013</v>
+        <v>0.894666</v>
       </c>
       <c r="D92" t="n">
-        <v>0.93553</v>
+        <v>0.91778</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.699726</v>
+        <v>0.675199</v>
       </c>
       <c r="C93" t="n">
-        <v>0.89998</v>
+        <v>0.878022</v>
       </c>
       <c r="D93" t="n">
-        <v>0.921623</v>
+        <v>0.902662</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.696947</v>
+        <v>0.6710390000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>0.886303</v>
+        <v>0.864049</v>
       </c>
       <c r="D94" t="n">
-        <v>1.33189</v>
+        <v>1.29656</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.938128</v>
+        <v>0.907029</v>
       </c>
       <c r="C95" t="n">
-        <v>1.30739</v>
+        <v>1.25939</v>
       </c>
       <c r="D95" t="n">
-        <v>1.32787</v>
+        <v>1.28728</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.938981</v>
+        <v>0.903155</v>
       </c>
       <c r="C96" t="n">
-        <v>1.30527</v>
+        <v>1.2539</v>
       </c>
       <c r="D96" t="n">
-        <v>1.31546</v>
+        <v>1.27297</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.931944</v>
+        <v>0.894065</v>
       </c>
       <c r="C97" t="n">
-        <v>1.29202</v>
+        <v>1.23824</v>
       </c>
       <c r="D97" t="n">
-        <v>1.29697</v>
+        <v>1.25387</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.922437</v>
+        <v>0.883717</v>
       </c>
       <c r="C98" t="n">
-        <v>1.27488</v>
+        <v>1.22003</v>
       </c>
       <c r="D98" t="n">
-        <v>1.27764</v>
+        <v>1.23485</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.912075</v>
+        <v>0.872981</v>
       </c>
       <c r="C99" t="n">
-        <v>1.25676</v>
+        <v>1.20226</v>
       </c>
       <c r="D99" t="n">
-        <v>1.25531</v>
+        <v>1.21382</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.9035879999999999</v>
+        <v>0.863094</v>
       </c>
       <c r="C100" t="n">
-        <v>1.23941</v>
+        <v>1.18441</v>
       </c>
       <c r="D100" t="n">
-        <v>1.23669</v>
+        <v>1.19396</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.895169</v>
+        <v>0.852672</v>
       </c>
       <c r="C101" t="n">
-        <v>1.2228</v>
+        <v>1.16658</v>
       </c>
       <c r="D101" t="n">
-        <v>1.21783</v>
+        <v>1.1754</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.886469</v>
+        <v>0.843507</v>
       </c>
       <c r="C102" t="n">
-        <v>1.20714</v>
+        <v>1.14968</v>
       </c>
       <c r="D102" t="n">
-        <v>1.20076</v>
+        <v>1.15633</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.878925</v>
+        <v>0.83509</v>
       </c>
       <c r="C103" t="n">
-        <v>1.19169</v>
+        <v>1.13349</v>
       </c>
       <c r="D103" t="n">
-        <v>1.18136</v>
+        <v>1.13882</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.8708630000000001</v>
+        <v>0.826685</v>
       </c>
       <c r="C104" t="n">
-        <v>1.17612</v>
+        <v>1.12014</v>
       </c>
       <c r="D104" t="n">
-        <v>1.16655</v>
+        <v>1.12208</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.865683</v>
+        <v>0.8197449999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>1.16258</v>
+        <v>1.10524</v>
       </c>
       <c r="D105" t="n">
-        <v>1.15107</v>
+        <v>1.10687</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.860167</v>
+        <v>0.813905</v>
       </c>
       <c r="C106" t="n">
-        <v>1.15153</v>
+        <v>1.09257</v>
       </c>
       <c r="D106" t="n">
-        <v>1.13723</v>
+        <v>1.09288</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.856372</v>
+        <v>0.808971</v>
       </c>
       <c r="C107" t="n">
-        <v>1.13905</v>
+        <v>1.08109</v>
       </c>
       <c r="D107" t="n">
-        <v>1.12511</v>
+        <v>1.08041</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.85501</v>
+        <v>0.807715</v>
       </c>
       <c r="C108" t="n">
-        <v>1.13111</v>
+        <v>1.07296</v>
       </c>
       <c r="D108" t="n">
-        <v>1.53213</v>
+        <v>1.47535</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.856228</v>
+        <v>0.809093</v>
       </c>
       <c r="C109" t="n">
-        <v>1.12446</v>
+        <v>1.0665</v>
       </c>
       <c r="D109" t="n">
-        <v>1.52785</v>
+        <v>1.46688</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.09513</v>
+        <v>1.03648</v>
       </c>
       <c r="C110" t="n">
-        <v>1.54648</v>
+        <v>1.46556</v>
       </c>
       <c r="D110" t="n">
-        <v>1.5155</v>
+        <v>1.4544</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.08391</v>
+        <v>1.02479</v>
       </c>
       <c r="C111" t="n">
-        <v>1.53078</v>
+        <v>1.45228</v>
       </c>
       <c r="D111" t="n">
-        <v>1.50134</v>
+        <v>1.44205</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.07229</v>
+        <v>1.01226</v>
       </c>
       <c r="C112" t="n">
-        <v>1.51721</v>
+        <v>1.43593</v>
       </c>
       <c r="D112" t="n">
-        <v>1.48955</v>
+        <v>1.43042</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.06009</v>
+        <v>1.00055</v>
       </c>
       <c r="C113" t="n">
-        <v>1.50313</v>
+        <v>1.42098</v>
       </c>
       <c r="D113" t="n">
-        <v>1.47715</v>
+        <v>1.41721</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.04958</v>
+        <v>0.989475</v>
       </c>
       <c r="C114" t="n">
-        <v>1.48873</v>
+        <v>1.40693</v>
       </c>
       <c r="D114" t="n">
-        <v>1.46543</v>
+        <v>1.40539</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.0393</v>
+        <v>0.978674</v>
       </c>
       <c r="C115" t="n">
-        <v>1.47881</v>
+        <v>1.3929</v>
       </c>
       <c r="D115" t="n">
-        <v>1.45667</v>
+        <v>1.39443</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.02979</v>
+        <v>0.969772</v>
       </c>
       <c r="C116" t="n">
-        <v>1.46516</v>
+        <v>1.38151</v>
       </c>
       <c r="D116" t="n">
-        <v>1.44899</v>
+        <v>1.38312</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.02092</v>
+        <v>0.96093</v>
       </c>
       <c r="C117" t="n">
-        <v>1.45388</v>
+        <v>1.3703</v>
       </c>
       <c r="D117" t="n">
-        <v>1.44242</v>
+        <v>1.37604</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.0128</v>
+        <v>0.9524550000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>1.44245</v>
+        <v>1.35787</v>
       </c>
       <c r="D118" t="n">
-        <v>1.43088</v>
+        <v>1.36413</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.00635</v>
+        <v>0.946008</v>
       </c>
       <c r="C119" t="n">
-        <v>1.43341</v>
+        <v>1.34833</v>
       </c>
       <c r="D119" t="n">
-        <v>1.42274</v>
+        <v>1.35417</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.00078</v>
+        <v>0.9402430000000001</v>
       </c>
       <c r="C120" t="n">
-        <v>1.42396</v>
+        <v>1.33893</v>
       </c>
       <c r="D120" t="n">
-        <v>1.4142</v>
+        <v>1.34802</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.9966120000000001</v>
+        <v>0.936093</v>
       </c>
       <c r="C121" t="n">
-        <v>1.41596</v>
+        <v>1.33237</v>
       </c>
       <c r="D121" t="n">
-        <v>1.40982</v>
+        <v>1.34235</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.99436</v>
+        <v>0.933385</v>
       </c>
       <c r="C122" t="n">
-        <v>1.41184</v>
+        <v>1.32583</v>
       </c>
       <c r="D122" t="n">
-        <v>1.40075</v>
+        <v>1.33677</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.994664</v>
+        <v>0.933527</v>
       </c>
       <c r="C123" t="n">
-        <v>1.40638</v>
+        <v>1.32201</v>
       </c>
       <c r="D123" t="n">
-        <v>1.80513</v>
+        <v>1.72474</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.22776</v>
+        <v>1.16103</v>
       </c>
       <c r="C124" t="n">
-        <v>1.82438</v>
+        <v>1.71371</v>
       </c>
       <c r="D124" t="n">
-        <v>1.79398</v>
+        <v>1.70535</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.21698</v>
+        <v>1.14956</v>
       </c>
       <c r="C125" t="n">
-        <v>1.80238</v>
+        <v>1.69875</v>
       </c>
       <c r="D125" t="n">
-        <v>1.78038</v>
+        <v>1.6951</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.20713</v>
+        <v>1.13861</v>
       </c>
       <c r="C126" t="n">
-        <v>1.78413</v>
+        <v>1.68216</v>
       </c>
       <c r="D126" t="n">
-        <v>1.76745</v>
+        <v>1.68005</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.1974</v>
+        <v>1.12851</v>
       </c>
       <c r="C127" t="n">
-        <v>1.7708</v>
+        <v>1.66527</v>
       </c>
       <c r="D127" t="n">
-        <v>1.75454</v>
+        <v>1.66648</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.1879</v>
+        <v>1.11896</v>
       </c>
       <c r="C128" t="n">
-        <v>1.75445</v>
+        <v>1.65263</v>
       </c>
       <c r="D128" t="n">
-        <v>1.7426</v>
+        <v>1.65812</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.1794</v>
+        <v>1.11006</v>
       </c>
       <c r="C129" t="n">
-        <v>1.74219</v>
+        <v>1.63694</v>
       </c>
       <c r="D129" t="n">
-        <v>1.7349</v>
+        <v>1.64402</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.17138</v>
+        <v>1.10148</v>
       </c>
       <c r="C130" t="n">
-        <v>1.7285</v>
+        <v>1.62349</v>
       </c>
       <c r="D130" t="n">
-        <v>1.72323</v>
+        <v>1.63345</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.1646</v>
+        <v>1.09413</v>
       </c>
       <c r="C131" t="n">
-        <v>1.71976</v>
+        <v>1.61277</v>
       </c>
       <c r="D131" t="n">
-        <v>1.71318</v>
+        <v>1.61958</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.1585</v>
+        <v>1.08875</v>
       </c>
       <c r="C132" t="n">
-        <v>1.70724</v>
+        <v>1.59775</v>
       </c>
       <c r="D132" t="n">
-        <v>1.706</v>
+        <v>1.6146</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.1545</v>
+        <v>1.08316</v>
       </c>
       <c r="C133" t="n">
-        <v>1.6965</v>
+        <v>1.5909</v>
       </c>
       <c r="D133" t="n">
-        <v>1.69845</v>
+        <v>1.60596</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.15108</v>
+        <v>1.07934</v>
       </c>
       <c r="C134" t="n">
-        <v>1.69112</v>
+        <v>1.58066</v>
       </c>
       <c r="D134" t="n">
-        <v>1.69131</v>
+        <v>1.59178</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.14953</v>
+        <v>1.07734</v>
       </c>
       <c r="C135" t="n">
-        <v>1.68013</v>
+        <v>1.57245</v>
       </c>
       <c r="D135" t="n">
-        <v>1.68596</v>
+        <v>1.59487</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.15007</v>
+        <v>1.07968</v>
       </c>
       <c r="C136" t="n">
-        <v>1.67854</v>
+        <v>1.57103</v>
       </c>
       <c r="D136" t="n">
-        <v>1.68213</v>
+        <v>1.58543</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.15111</v>
+        <v>1.07907</v>
       </c>
       <c r="C137" t="n">
-        <v>1.66994</v>
+        <v>1.56441</v>
       </c>
       <c r="D137" t="n">
-        <v>2.08077</v>
+        <v>1.97403</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.38194</v>
+        <v>1.30556</v>
       </c>
       <c r="C138" t="n">
-        <v>2.08691</v>
+        <v>1.95867</v>
       </c>
       <c r="D138" t="n">
-        <v>2.06132</v>
+        <v>1.95465</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.37305</v>
+        <v>1.2971</v>
       </c>
       <c r="C139" t="n">
-        <v>2.06336</v>
+        <v>1.93723</v>
       </c>
       <c r="D139" t="n">
-        <v>2.04132</v>
+        <v>1.9405</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.36623</v>
+        <v>1.28901</v>
       </c>
       <c r="C140" t="n">
-        <v>2.03958</v>
+        <v>1.91566</v>
       </c>
       <c r="D140" t="n">
-        <v>2.02317</v>
+        <v>1.9171</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.35899</v>
+        <v>1.28174</v>
       </c>
       <c r="C141" t="n">
-        <v>2.01782</v>
+        <v>1.89677</v>
       </c>
       <c r="D141" t="n">
-        <v>2.0057</v>
+        <v>1.90395</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.35213</v>
+        <v>1.27562</v>
       </c>
       <c r="C142" t="n">
-        <v>1.99627</v>
+        <v>1.87794</v>
       </c>
       <c r="D142" t="n">
-        <v>1.99209</v>
+        <v>1.88577</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.34708</v>
+        <v>1.26919</v>
       </c>
       <c r="C143" t="n">
-        <v>1.97811</v>
+        <v>1.86014</v>
       </c>
       <c r="D143" t="n">
-        <v>1.97887</v>
+        <v>1.87262</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.481682</v>
+        <v>0.480936</v>
       </c>
       <c r="C2" t="n">
-        <v>0.721371</v>
+        <v>0.701189</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7764799999999999</v>
+        <v>0.769912</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.469705</v>
+        <v>0.468937</v>
       </c>
       <c r="C3" t="n">
-        <v>0.69936</v>
+        <v>0.68404</v>
       </c>
       <c r="D3" t="n">
-        <v>0.75575</v>
+        <v>0.749111</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.458246</v>
+        <v>0.458607</v>
       </c>
       <c r="C4" t="n">
-        <v>0.679343</v>
+        <v>0.667554</v>
       </c>
       <c r="D4" t="n">
-        <v>0.736584</v>
+        <v>0.73072</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.449193</v>
+        <v>0.448992</v>
       </c>
       <c r="C5" t="n">
-        <v>0.661251</v>
+        <v>0.652663</v>
       </c>
       <c r="D5" t="n">
-        <v>0.719541</v>
+        <v>0.713975</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.441458</v>
+        <v>0.441154</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6443410000000001</v>
+        <v>0.639021</v>
       </c>
       <c r="D6" t="n">
-        <v>0.703902</v>
+        <v>0.698684</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.436156</v>
+        <v>0.435703</v>
       </c>
       <c r="C7" t="n">
-        <v>0.628656</v>
+        <v>0.626192</v>
       </c>
       <c r="D7" t="n">
-        <v>0.689704</v>
+        <v>0.684756</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.432637</v>
+        <v>0.43227</v>
       </c>
       <c r="C8" t="n">
-        <v>0.615951</v>
+        <v>0.615931</v>
       </c>
       <c r="D8" t="n">
-        <v>0.678767</v>
+        <v>0.673797</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.431971</v>
+        <v>0.432292</v>
       </c>
       <c r="C9" t="n">
-        <v>0.605036</v>
+        <v>0.6079870000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.99425</v>
+        <v>0.982475</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.569383</v>
+        <v>0.568085</v>
       </c>
       <c r="C10" t="n">
-        <v>0.884702</v>
+        <v>0.836435</v>
       </c>
       <c r="D10" t="n">
-        <v>0.963234</v>
+        <v>0.951619</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.55106</v>
+        <v>0.551049</v>
       </c>
       <c r="C11" t="n">
-        <v>0.855777</v>
+        <v>0.811133</v>
       </c>
       <c r="D11" t="n">
-        <v>0.933939</v>
+        <v>0.922246</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.534325</v>
+        <v>0.534569</v>
       </c>
       <c r="C12" t="n">
-        <v>0.827892</v>
+        <v>0.787887</v>
       </c>
       <c r="D12" t="n">
-        <v>0.905965</v>
+        <v>0.894336</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.520012</v>
+        <v>0.519075</v>
       </c>
       <c r="C13" t="n">
-        <v>0.801417</v>
+        <v>0.765975</v>
       </c>
       <c r="D13" t="n">
-        <v>0.879316</v>
+        <v>0.868287</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5056929999999999</v>
+        <v>0.504674</v>
       </c>
       <c r="C14" t="n">
-        <v>0.776033</v>
+        <v>0.744767</v>
       </c>
       <c r="D14" t="n">
-        <v>0.853609</v>
+        <v>0.8430569999999999</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.491632</v>
+        <v>0.491032</v>
       </c>
       <c r="C15" t="n">
-        <v>0.752613</v>
+        <v>0.724881</v>
       </c>
       <c r="D15" t="n">
-        <v>0.829562</v>
+        <v>0.8192120000000001</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.479087</v>
+        <v>0.478661</v>
       </c>
       <c r="C16" t="n">
-        <v>0.729782</v>
+        <v>0.706328</v>
       </c>
       <c r="D16" t="n">
-        <v>0.806909</v>
+        <v>0.796821</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.466184</v>
+        <v>0.466845</v>
       </c>
       <c r="C17" t="n">
-        <v>0.708328</v>
+        <v>0.688454</v>
       </c>
       <c r="D17" t="n">
-        <v>0.785571</v>
+        <v>0.77566</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.455857</v>
+        <v>0.456272</v>
       </c>
       <c r="C18" t="n">
-        <v>0.688504</v>
+        <v>0.6723479999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.765779</v>
+        <v>0.7559439999999999</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.447043</v>
+        <v>0.446575</v>
       </c>
       <c r="C19" t="n">
-        <v>0.67</v>
+        <v>0.656811</v>
       </c>
       <c r="D19" t="n">
-        <v>0.746781</v>
+        <v>0.738012</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.438703</v>
+        <v>0.4393</v>
       </c>
       <c r="C20" t="n">
-        <v>0.652435</v>
+        <v>0.642396</v>
       </c>
       <c r="D20" t="n">
-        <v>0.730198</v>
+        <v>0.721083</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.432876</v>
+        <v>0.43355</v>
       </c>
       <c r="C21" t="n">
-        <v>0.63659</v>
+        <v>0.629591</v>
       </c>
       <c r="D21" t="n">
-        <v>0.715457</v>
+        <v>0.706692</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.430535</v>
+        <v>0.431345</v>
       </c>
       <c r="C22" t="n">
-        <v>0.623193</v>
+        <v>0.619197</v>
       </c>
       <c r="D22" t="n">
-        <v>0.703572</v>
+        <v>0.69555</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.430961</v>
+        <v>0.430953</v>
       </c>
       <c r="C23" t="n">
-        <v>0.61228</v>
+        <v>0.610595</v>
       </c>
       <c r="D23" t="n">
-        <v>1.03253</v>
+        <v>1.01824</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.617967</v>
+        <v>0.617431</v>
       </c>
       <c r="C24" t="n">
-        <v>0.94284</v>
+        <v>0.887758</v>
       </c>
       <c r="D24" t="n">
-        <v>1.00112</v>
+        <v>0.986649</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.599505</v>
+        <v>0.599023</v>
       </c>
       <c r="C25" t="n">
-        <v>0.912128</v>
+        <v>0.861989</v>
       </c>
       <c r="D25" t="n">
-        <v>0.970729</v>
+        <v>0.9561730000000001</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.581416</v>
+        <v>0.5810689999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.881972</v>
+        <v>0.836367</v>
       </c>
       <c r="D26" t="n">
-        <v>0.941438</v>
+        <v>0.927026</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5643010000000001</v>
+        <v>0.563642</v>
       </c>
       <c r="C27" t="n">
-        <v>0.853755</v>
+        <v>0.812822</v>
       </c>
       <c r="D27" t="n">
-        <v>0.913487</v>
+        <v>0.899545</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.54764</v>
+        <v>0.547368</v>
       </c>
       <c r="C28" t="n">
-        <v>0.825888</v>
+        <v>0.790065</v>
       </c>
       <c r="D28" t="n">
-        <v>0.886867</v>
+        <v>0.8728590000000001</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.531816</v>
+        <v>0.53216</v>
       </c>
       <c r="C29" t="n">
-        <v>0.800354</v>
+        <v>0.7683950000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.861912</v>
+        <v>0.848294</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.518118</v>
+        <v>0.517751</v>
       </c>
       <c r="C30" t="n">
-        <v>0.775804</v>
+        <v>0.747928</v>
       </c>
       <c r="D30" t="n">
-        <v>0.838324</v>
+        <v>0.8249069999999999</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.504865</v>
+        <v>0.504539</v>
       </c>
       <c r="C31" t="n">
-        <v>0.7525309999999999</v>
+        <v>0.72872</v>
       </c>
       <c r="D31" t="n">
-        <v>0.81559</v>
+        <v>0.802859</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.492484</v>
+        <v>0.492041</v>
       </c>
       <c r="C32" t="n">
-        <v>0.731528</v>
+        <v>0.710219</v>
       </c>
       <c r="D32" t="n">
-        <v>0.794822</v>
+        <v>0.782606</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.481221</v>
+        <v>0.481398</v>
       </c>
       <c r="C33" t="n">
-        <v>0.711321</v>
+        <v>0.693694</v>
       </c>
       <c r="D33" t="n">
-        <v>0.775414</v>
+        <v>0.763073</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.470927</v>
+        <v>0.471231</v>
       </c>
       <c r="C34" t="n">
-        <v>0.692335</v>
+        <v>0.677893</v>
       </c>
       <c r="D34" t="n">
-        <v>0.757769</v>
+        <v>0.746113</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.463898</v>
+        <v>0.463684</v>
       </c>
       <c r="C35" t="n">
-        <v>0.67601</v>
+        <v>0.6635490000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.74154</v>
+        <v>0.730137</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.458021</v>
+        <v>0.458057</v>
       </c>
       <c r="C36" t="n">
-        <v>0.659817</v>
+        <v>0.651511</v>
       </c>
       <c r="D36" t="n">
-        <v>0.728518</v>
+        <v>0.717853</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.455507</v>
+        <v>0.45585</v>
       </c>
       <c r="C37" t="n">
-        <v>0.648014</v>
+        <v>0.641618</v>
       </c>
       <c r="D37" t="n">
-        <v>1.0641</v>
+        <v>1.047</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.648486</v>
+        <v>0.648288</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9807439999999999</v>
+        <v>0.921493</v>
       </c>
       <c r="D38" t="n">
-        <v>1.03132</v>
+        <v>1.01534</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.629425</v>
+        <v>0.63004</v>
       </c>
       <c r="C39" t="n">
-        <v>0.949755</v>
+        <v>0.897272</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0.984587</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.610878</v>
+        <v>0.610665</v>
       </c>
       <c r="C40" t="n">
-        <v>0.918807</v>
+        <v>0.869364</v>
       </c>
       <c r="D40" t="n">
-        <v>0.970156</v>
+        <v>0.954335</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5930839999999999</v>
+        <v>0.592525</v>
       </c>
       <c r="C41" t="n">
-        <v>0.89005</v>
+        <v>0.844189</v>
       </c>
       <c r="D41" t="n">
-        <v>0.941784</v>
+        <v>0.926489</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.575214</v>
+        <v>0.57529</v>
       </c>
       <c r="C42" t="n">
-        <v>0.861782</v>
+        <v>0.8205440000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.914695</v>
+        <v>0.899257</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.559858</v>
+        <v>0.559324</v>
       </c>
       <c r="C43" t="n">
-        <v>0.8353699999999999</v>
+        <v>0.79801</v>
       </c>
       <c r="D43" t="n">
-        <v>0.888774</v>
+        <v>0.873877</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.544458</v>
+        <v>0.543537</v>
       </c>
       <c r="C44" t="n">
-        <v>0.810258</v>
+        <v>0.776533</v>
       </c>
       <c r="D44" t="n">
-        <v>0.864273</v>
+        <v>0.849197</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5301979999999999</v>
+        <v>0.530349</v>
       </c>
       <c r="C45" t="n">
-        <v>0.786699</v>
+        <v>0.756287</v>
       </c>
       <c r="D45" t="n">
-        <v>0.841296</v>
+        <v>0.826523</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.51642</v>
+        <v>0.517471</v>
       </c>
       <c r="C46" t="n">
-        <v>0.762186</v>
+        <v>0.7371259999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.819899</v>
+        <v>0.804718</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.503678</v>
+        <v>0.504916</v>
       </c>
       <c r="C47" t="n">
-        <v>0.742958</v>
+        <v>0.719418</v>
       </c>
       <c r="D47" t="n">
-        <v>0.799886</v>
+        <v>0.785127</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.495675</v>
+        <v>0.495652</v>
       </c>
       <c r="C48" t="n">
-        <v>0.721938</v>
+        <v>0.703522</v>
       </c>
       <c r="D48" t="n">
-        <v>0.781169</v>
+        <v>0.766672</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.486312</v>
+        <v>0.48595</v>
       </c>
       <c r="C49" t="n">
-        <v>0.705086</v>
+        <v>0.687893</v>
       </c>
       <c r="D49" t="n">
-        <v>0.764143</v>
+        <v>0.749829</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.480925</v>
+        <v>0.479618</v>
       </c>
       <c r="C50" t="n">
-        <v>0.6887180000000001</v>
+        <v>0.675496</v>
       </c>
       <c r="D50" t="n">
-        <v>0.750489</v>
+        <v>0.7365080000000001</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.474741</v>
+        <v>0.475668</v>
       </c>
       <c r="C51" t="n">
-        <v>0.67484</v>
+        <v>0.663806</v>
       </c>
       <c r="D51" t="n">
-        <v>1.09334</v>
+        <v>1.07432</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.476027</v>
+        <v>0.475669</v>
       </c>
       <c r="C52" t="n">
-        <v>0.662671</v>
+        <v>0.656413</v>
       </c>
       <c r="D52" t="n">
-        <v>1.06062</v>
+        <v>1.04295</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.65727</v>
+        <v>0.655482</v>
       </c>
       <c r="C53" t="n">
-        <v>0.983992</v>
+        <v>0.925108</v>
       </c>
       <c r="D53" t="n">
-        <v>1.02978</v>
+        <v>1.01191</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6387429999999999</v>
+        <v>0.635863</v>
       </c>
       <c r="C54" t="n">
-        <v>0.953203</v>
+        <v>0.898265</v>
       </c>
       <c r="D54" t="n">
-        <v>0.998824</v>
+        <v>0.98107</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.620518</v>
+        <v>0.618119</v>
       </c>
       <c r="C55" t="n">
-        <v>0.923421</v>
+        <v>0.873003</v>
       </c>
       <c r="D55" t="n">
-        <v>0.970341</v>
+        <v>0.953124</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.603507</v>
+        <v>0.60103</v>
       </c>
       <c r="C56" t="n">
-        <v>0.895135</v>
+        <v>0.849826</v>
       </c>
       <c r="D56" t="n">
-        <v>0.94326</v>
+        <v>0.927276</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.58739</v>
+        <v>0.585822</v>
       </c>
       <c r="C57" t="n">
-        <v>0.867453</v>
+        <v>0.826771</v>
       </c>
       <c r="D57" t="n">
-        <v>0.916793</v>
+        <v>0.900641</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.572048</v>
+        <v>0.569095</v>
       </c>
       <c r="C58" t="n">
-        <v>0.842554</v>
+        <v>0.803661</v>
       </c>
       <c r="D58" t="n">
-        <v>0.892777</v>
+        <v>0.875674</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.557836</v>
+        <v>0.5550079999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.818177</v>
+        <v>0.7834</v>
       </c>
       <c r="D59" t="n">
-        <v>0.869206</v>
+        <v>0.85263</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.544526</v>
+        <v>0.542273</v>
       </c>
       <c r="C60" t="n">
-        <v>0.795702</v>
+        <v>0.766497</v>
       </c>
       <c r="D60" t="n">
-        <v>0.848195</v>
+        <v>0.831109</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.532823</v>
+        <v>0.529849</v>
       </c>
       <c r="C61" t="n">
-        <v>0.774802</v>
+        <v>0.748847</v>
       </c>
       <c r="D61" t="n">
-        <v>0.827238</v>
+        <v>0.811051</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.522834</v>
+        <v>0.519699</v>
       </c>
       <c r="C62" t="n">
-        <v>0.754802</v>
+        <v>0.72886</v>
       </c>
       <c r="D62" t="n">
-        <v>0.80826</v>
+        <v>0.790836</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.514111</v>
+        <v>0.510703</v>
       </c>
       <c r="C63" t="n">
-        <v>0.73549</v>
+        <v>0.713372</v>
       </c>
       <c r="D63" t="n">
-        <v>0.791049</v>
+        <v>0.774303</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.505986</v>
+        <v>0.503876</v>
       </c>
       <c r="C64" t="n">
-        <v>0.719096</v>
+        <v>0.700128</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7764720000000001</v>
+        <v>0.759226</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.502173</v>
+        <v>0.499355</v>
       </c>
       <c r="C65" t="n">
-        <v>0.703326</v>
+        <v>0.689645</v>
       </c>
       <c r="D65" t="n">
-        <v>0.763727</v>
+        <v>0.747777</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.50034</v>
+        <v>0.498373</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6907990000000001</v>
+        <v>0.682331</v>
       </c>
       <c r="D66" t="n">
-        <v>1.11149</v>
+        <v>1.09765</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.713456</v>
+        <v>0.72005</v>
       </c>
       <c r="C67" t="n">
-        <v>1.04707</v>
+        <v>0.997418</v>
       </c>
       <c r="D67" t="n">
-        <v>1.07986</v>
+        <v>1.06652</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.697002</v>
+        <v>0.7034899999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>1.01577</v>
+        <v>0.967396</v>
       </c>
       <c r="D68" t="n">
-        <v>1.04905</v>
+        <v>1.03651</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.681177</v>
+        <v>0.687902</v>
       </c>
       <c r="C69" t="n">
-        <v>0.986904</v>
+        <v>0.944883</v>
       </c>
       <c r="D69" t="n">
-        <v>1.0195</v>
+        <v>1.00981</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.667254</v>
+        <v>0.6724560000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>0.959225</v>
+        <v>0.918066</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9925079999999999</v>
+        <v>0.978808</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.650654</v>
+        <v>0.655478</v>
       </c>
       <c r="C71" t="n">
-        <v>0.930854</v>
+        <v>0.892362</v>
       </c>
       <c r="D71" t="n">
-        <v>0.964903</v>
+        <v>0.952726</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.635622</v>
+        <v>0.642416</v>
       </c>
       <c r="C72" t="n">
-        <v>0.903773</v>
+        <v>0.868945</v>
       </c>
       <c r="D72" t="n">
-        <v>0.939067</v>
+        <v>0.928888</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.622032</v>
+        <v>0.630091</v>
       </c>
       <c r="C73" t="n">
-        <v>0.878862</v>
+        <v>0.850842</v>
       </c>
       <c r="D73" t="n">
-        <v>0.915426</v>
+        <v>0.906242</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.607605</v>
+        <v>0.617773</v>
       </c>
       <c r="C74" t="n">
-        <v>0.854077</v>
+        <v>0.831169</v>
       </c>
       <c r="D74" t="n">
-        <v>0.891583</v>
+        <v>0.88074</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.595388</v>
+        <v>0.600475</v>
       </c>
       <c r="C75" t="n">
-        <v>0.829949</v>
+        <v>0.806904</v>
       </c>
       <c r="D75" t="n">
-        <v>0.86908</v>
+        <v>0.859156</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.583581</v>
+        <v>0.59055</v>
       </c>
       <c r="C76" t="n">
-        <v>0.80822</v>
+        <v>0.794268</v>
       </c>
       <c r="D76" t="n">
-        <v>0.84935</v>
+        <v>0.842126</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.574146</v>
+        <v>0.583778</v>
       </c>
       <c r="C77" t="n">
-        <v>0.788339</v>
+        <v>0.776145</v>
       </c>
       <c r="D77" t="n">
-        <v>0.830772</v>
+        <v>0.825418</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.565617</v>
+        <v>0.578843</v>
       </c>
       <c r="C78" t="n">
-        <v>0.771668</v>
+        <v>0.768012</v>
       </c>
       <c r="D78" t="n">
-        <v>0.814896</v>
+        <v>0.811362</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.559889</v>
+        <v>0.571174</v>
       </c>
       <c r="C79" t="n">
-        <v>0.756419</v>
+        <v>0.752301</v>
       </c>
       <c r="D79" t="n">
-        <v>0.802231</v>
+        <v>0.797194</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.55769</v>
+        <v>0.567334</v>
       </c>
       <c r="C80" t="n">
-        <v>0.742796</v>
+        <v>0.738993</v>
       </c>
       <c r="D80" t="n">
-        <v>1.18934</v>
+        <v>1.19214</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.788753</v>
+        <v>0.805795</v>
       </c>
       <c r="C81" t="n">
-        <v>1.13469</v>
+        <v>1.09689</v>
       </c>
       <c r="D81" t="n">
-        <v>1.16905</v>
+        <v>1.17342</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.780792</v>
+        <v>0.800149</v>
       </c>
       <c r="C82" t="n">
-        <v>1.11823</v>
+        <v>1.08788</v>
       </c>
       <c r="D82" t="n">
-        <v>1.14706</v>
+        <v>1.15129</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.771178</v>
+        <v>0.792211</v>
       </c>
       <c r="C83" t="n">
-        <v>1.09657</v>
+        <v>1.07206</v>
       </c>
       <c r="D83" t="n">
-        <v>1.12349</v>
+        <v>1.12729</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.760842</v>
+        <v>0.7841129999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>1.07385</v>
+        <v>1.05374</v>
       </c>
       <c r="D84" t="n">
-        <v>1.09776</v>
+        <v>1.10181</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.750135</v>
+        <v>0.77333</v>
       </c>
       <c r="C85" t="n">
-        <v>1.04981</v>
+        <v>1.03591</v>
       </c>
       <c r="D85" t="n">
-        <v>1.07279</v>
+        <v>1.07693</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.740861</v>
+        <v>0.763947</v>
       </c>
       <c r="C86" t="n">
-        <v>1.02621</v>
+        <v>1.01391</v>
       </c>
       <c r="D86" t="n">
-        <v>1.04858</v>
+        <v>1.05143</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.7294620000000001</v>
+        <v>0.7533339999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>1.00181</v>
+        <v>0.9930330000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>1.02362</v>
+        <v>1.02547</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.718828</v>
+        <v>0.742221</v>
       </c>
       <c r="C88" t="n">
-        <v>0.978958</v>
+        <v>0.970567</v>
       </c>
       <c r="D88" t="n">
-        <v>1.00054</v>
+        <v>1.00039</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.708862</v>
+        <v>0.73292</v>
       </c>
       <c r="C89" t="n">
-        <v>0.955574</v>
+        <v>0.953035</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9767479999999999</v>
+        <v>0.977195</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.698395</v>
+        <v>0.721971</v>
       </c>
       <c r="C90" t="n">
-        <v>0.93311</v>
+        <v>0.934295</v>
       </c>
       <c r="D90" t="n">
-        <v>0.955173</v>
+        <v>0.95733</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.689175</v>
+        <v>0.714627</v>
       </c>
       <c r="C91" t="n">
-        <v>0.913974</v>
+        <v>0.917066</v>
       </c>
       <c r="D91" t="n">
-        <v>0.935155</v>
+        <v>0.936196</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.681064</v>
+        <v>0.706443</v>
       </c>
       <c r="C92" t="n">
-        <v>0.894666</v>
+        <v>0.901431</v>
       </c>
       <c r="D92" t="n">
-        <v>0.91778</v>
+        <v>0.918407</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.675199</v>
+        <v>0.700075</v>
       </c>
       <c r="C93" t="n">
-        <v>0.878022</v>
+        <v>0.888046</v>
       </c>
       <c r="D93" t="n">
-        <v>0.902662</v>
+        <v>0.902452</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.6710390000000001</v>
+        <v>0.696734</v>
       </c>
       <c r="C94" t="n">
-        <v>0.864049</v>
+        <v>0.876236</v>
       </c>
       <c r="D94" t="n">
-        <v>1.29656</v>
+        <v>1.30822</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.907029</v>
+        <v>0.938462</v>
       </c>
       <c r="C95" t="n">
-        <v>1.25939</v>
+        <v>1.24282</v>
       </c>
       <c r="D95" t="n">
-        <v>1.28728</v>
+        <v>1.30287</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.903155</v>
+        <v>0.938518</v>
       </c>
       <c r="C96" t="n">
-        <v>1.2539</v>
+        <v>1.24495</v>
       </c>
       <c r="D96" t="n">
-        <v>1.27297</v>
+        <v>1.28908</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.894065</v>
+        <v>0.929924</v>
       </c>
       <c r="C97" t="n">
-        <v>1.23824</v>
+        <v>1.23637</v>
       </c>
       <c r="D97" t="n">
-        <v>1.25387</v>
+        <v>1.27156</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.883717</v>
+        <v>0.920601</v>
       </c>
       <c r="C98" t="n">
-        <v>1.22003</v>
+        <v>1.22392</v>
       </c>
       <c r="D98" t="n">
-        <v>1.23485</v>
+        <v>1.25326</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.872981</v>
+        <v>0.911362</v>
       </c>
       <c r="C99" t="n">
-        <v>1.20226</v>
+        <v>1.212</v>
       </c>
       <c r="D99" t="n">
-        <v>1.21382</v>
+        <v>1.23345</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.863094</v>
+        <v>0.902151</v>
       </c>
       <c r="C100" t="n">
-        <v>1.18441</v>
+        <v>1.20097</v>
       </c>
       <c r="D100" t="n">
-        <v>1.19396</v>
+        <v>1.21454</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.852672</v>
+        <v>0.893093</v>
       </c>
       <c r="C101" t="n">
-        <v>1.16658</v>
+        <v>1.18923</v>
       </c>
       <c r="D101" t="n">
-        <v>1.1754</v>
+        <v>1.1968</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.843507</v>
+        <v>0.885105</v>
       </c>
       <c r="C102" t="n">
-        <v>1.14968</v>
+        <v>1.17831</v>
       </c>
       <c r="D102" t="n">
-        <v>1.15633</v>
+        <v>1.17995</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.83509</v>
+        <v>0.878838</v>
       </c>
       <c r="C103" t="n">
-        <v>1.13349</v>
+        <v>1.16844</v>
       </c>
       <c r="D103" t="n">
-        <v>1.13882</v>
+        <v>1.16163</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.826685</v>
+        <v>0.871124</v>
       </c>
       <c r="C104" t="n">
-        <v>1.12014</v>
+        <v>1.1562</v>
       </c>
       <c r="D104" t="n">
-        <v>1.12208</v>
+        <v>1.14761</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.8197449999999999</v>
+        <v>0.865917</v>
       </c>
       <c r="C105" t="n">
-        <v>1.10524</v>
+        <v>1.14802</v>
       </c>
       <c r="D105" t="n">
-        <v>1.10687</v>
+        <v>1.13365</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.813905</v>
+        <v>0.8612</v>
       </c>
       <c r="C106" t="n">
-        <v>1.09257</v>
+        <v>1.13917</v>
       </c>
       <c r="D106" t="n">
-        <v>1.09288</v>
+        <v>1.11915</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.808971</v>
+        <v>0.8576549999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>1.08109</v>
+        <v>1.13222</v>
       </c>
       <c r="D107" t="n">
-        <v>1.08041</v>
+        <v>1.10465</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.807715</v>
+        <v>0.855787</v>
       </c>
       <c r="C108" t="n">
-        <v>1.07296</v>
+        <v>1.12524</v>
       </c>
       <c r="D108" t="n">
-        <v>1.47535</v>
+        <v>1.50629</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.809093</v>
+        <v>0.85702</v>
       </c>
       <c r="C109" t="n">
-        <v>1.0665</v>
+        <v>1.1211</v>
       </c>
       <c r="D109" t="n">
-        <v>1.46688</v>
+        <v>1.50176</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.03648</v>
+        <v>1.09603</v>
       </c>
       <c r="C110" t="n">
-        <v>1.46556</v>
+        <v>1.49105</v>
       </c>
       <c r="D110" t="n">
-        <v>1.4544</v>
+        <v>1.48836</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.02479</v>
+        <v>1.08449</v>
       </c>
       <c r="C111" t="n">
-        <v>1.45228</v>
+        <v>1.47951</v>
       </c>
       <c r="D111" t="n">
-        <v>1.44205</v>
+        <v>1.47548</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.01226</v>
+        <v>1.07265</v>
       </c>
       <c r="C112" t="n">
-        <v>1.43593</v>
+        <v>1.47042</v>
       </c>
       <c r="D112" t="n">
-        <v>1.43042</v>
+        <v>1.46343</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.00055</v>
+        <v>1.06096</v>
       </c>
       <c r="C113" t="n">
-        <v>1.42098</v>
+        <v>1.45966</v>
       </c>
       <c r="D113" t="n">
-        <v>1.41721</v>
+        <v>1.45218</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.989475</v>
+        <v>1.05015</v>
       </c>
       <c r="C114" t="n">
-        <v>1.40693</v>
+        <v>1.45078</v>
       </c>
       <c r="D114" t="n">
-        <v>1.40539</v>
+        <v>1.44116</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.978674</v>
+        <v>1.03994</v>
       </c>
       <c r="C115" t="n">
-        <v>1.3929</v>
+        <v>1.44272</v>
       </c>
       <c r="D115" t="n">
-        <v>1.39443</v>
+        <v>1.43372</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.969772</v>
+        <v>1.03014</v>
       </c>
       <c r="C116" t="n">
-        <v>1.38151</v>
+        <v>1.43315</v>
       </c>
       <c r="D116" t="n">
-        <v>1.38312</v>
+        <v>1.42399</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.96093</v>
+        <v>1.02212</v>
       </c>
       <c r="C117" t="n">
-        <v>1.3703</v>
+        <v>1.42887</v>
       </c>
       <c r="D117" t="n">
-        <v>1.37604</v>
+        <v>1.41315</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.9524550000000001</v>
+        <v>1.01367</v>
       </c>
       <c r="C118" t="n">
-        <v>1.35787</v>
+        <v>1.41977</v>
       </c>
       <c r="D118" t="n">
-        <v>1.36413</v>
+        <v>1.40515</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.946008</v>
+        <v>1.0062</v>
       </c>
       <c r="C119" t="n">
-        <v>1.34833</v>
+        <v>1.41447</v>
       </c>
       <c r="D119" t="n">
-        <v>1.35417</v>
+        <v>1.40057</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.9402430000000001</v>
+        <v>1.00105</v>
       </c>
       <c r="C120" t="n">
-        <v>1.33893</v>
+        <v>1.4104</v>
       </c>
       <c r="D120" t="n">
-        <v>1.34802</v>
+        <v>1.39176</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.936093</v>
+        <v>0.9959519999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>1.33237</v>
+        <v>1.40725</v>
       </c>
       <c r="D121" t="n">
-        <v>1.34235</v>
+        <v>1.38406</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.933385</v>
+        <v>0.9941</v>
       </c>
       <c r="C122" t="n">
-        <v>1.32583</v>
+        <v>1.40275</v>
       </c>
       <c r="D122" t="n">
-        <v>1.33677</v>
+        <v>1.38075</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.933527</v>
+        <v>0.9949519999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>1.32201</v>
+        <v>1.40159</v>
       </c>
       <c r="D123" t="n">
-        <v>1.72474</v>
+        <v>1.7753</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.16103</v>
+        <v>1.22786</v>
       </c>
       <c r="C124" t="n">
-        <v>1.71371</v>
+        <v>1.76594</v>
       </c>
       <c r="D124" t="n">
-        <v>1.70535</v>
+        <v>1.76497</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.14956</v>
+        <v>1.21642</v>
       </c>
       <c r="C125" t="n">
-        <v>1.69875</v>
+        <v>1.75461</v>
       </c>
       <c r="D125" t="n">
-        <v>1.6951</v>
+        <v>1.75172</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.13861</v>
+        <v>1.2074</v>
       </c>
       <c r="C126" t="n">
-        <v>1.68216</v>
+        <v>1.74069</v>
       </c>
       <c r="D126" t="n">
-        <v>1.68005</v>
+        <v>1.73913</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.12851</v>
+        <v>1.1978</v>
       </c>
       <c r="C127" t="n">
-        <v>1.66527</v>
+        <v>1.73005</v>
       </c>
       <c r="D127" t="n">
-        <v>1.66648</v>
+        <v>1.72631</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.11896</v>
+        <v>1.18831</v>
       </c>
       <c r="C128" t="n">
-        <v>1.65263</v>
+        <v>1.71778</v>
       </c>
       <c r="D128" t="n">
-        <v>1.65812</v>
+        <v>1.7116</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.11006</v>
+        <v>1.17989</v>
       </c>
       <c r="C129" t="n">
-        <v>1.63694</v>
+        <v>1.70596</v>
       </c>
       <c r="D129" t="n">
-        <v>1.64402</v>
+        <v>1.7034</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.10148</v>
+        <v>1.17272</v>
       </c>
       <c r="C130" t="n">
-        <v>1.62349</v>
+        <v>1.69659</v>
       </c>
       <c r="D130" t="n">
-        <v>1.63345</v>
+        <v>1.6956</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.09413</v>
+        <v>1.16503</v>
       </c>
       <c r="C131" t="n">
-        <v>1.61277</v>
+        <v>1.68825</v>
       </c>
       <c r="D131" t="n">
-        <v>1.61958</v>
+        <v>1.68647</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.08875</v>
+        <v>1.15971</v>
       </c>
       <c r="C132" t="n">
-        <v>1.59775</v>
+        <v>1.67856</v>
       </c>
       <c r="D132" t="n">
-        <v>1.6146</v>
+        <v>1.67712</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.08316</v>
+        <v>1.15525</v>
       </c>
       <c r="C133" t="n">
-        <v>1.5909</v>
+        <v>1.6716</v>
       </c>
       <c r="D133" t="n">
-        <v>1.60596</v>
+        <v>1.66884</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.07934</v>
+        <v>1.15199</v>
       </c>
       <c r="C134" t="n">
-        <v>1.58066</v>
+        <v>1.66505</v>
       </c>
       <c r="D134" t="n">
-        <v>1.59178</v>
+        <v>1.66023</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.07734</v>
+        <v>1.14777</v>
       </c>
       <c r="C135" t="n">
-        <v>1.57245</v>
+        <v>1.65723</v>
       </c>
       <c r="D135" t="n">
-        <v>1.59487</v>
+        <v>1.65496</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.07968</v>
+        <v>1.14858</v>
       </c>
       <c r="C136" t="n">
-        <v>1.57103</v>
+        <v>1.65072</v>
       </c>
       <c r="D136" t="n">
-        <v>1.58543</v>
+        <v>1.65176</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.07907</v>
+        <v>1.15044</v>
       </c>
       <c r="C137" t="n">
-        <v>1.56441</v>
+        <v>1.65479</v>
       </c>
       <c r="D137" t="n">
-        <v>1.97403</v>
+        <v>2.04359</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.30556</v>
+        <v>1.38126</v>
       </c>
       <c r="C138" t="n">
-        <v>1.95867</v>
+        <v>2.01595</v>
       </c>
       <c r="D138" t="n">
-        <v>1.95465</v>
+        <v>2.02956</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.2971</v>
+        <v>1.37276</v>
       </c>
       <c r="C139" t="n">
-        <v>1.93723</v>
+        <v>1.9987</v>
       </c>
       <c r="D139" t="n">
-        <v>1.9405</v>
+        <v>2.0096</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.28901</v>
+        <v>1.36534</v>
       </c>
       <c r="C140" t="n">
-        <v>1.91566</v>
+        <v>1.98144</v>
       </c>
       <c r="D140" t="n">
-        <v>1.9171</v>
+        <v>1.99258</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.28174</v>
+        <v>1.35909</v>
       </c>
       <c r="C141" t="n">
-        <v>1.89677</v>
+        <v>1.96589</v>
       </c>
       <c r="D141" t="n">
-        <v>1.90395</v>
+        <v>1.9784</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.27562</v>
+        <v>1.35266</v>
       </c>
       <c r="C142" t="n">
-        <v>1.87794</v>
+        <v>1.95142</v>
       </c>
       <c r="D142" t="n">
-        <v>1.88577</v>
+        <v>1.96552</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.26919</v>
+        <v>1.34723</v>
       </c>
       <c r="C143" t="n">
-        <v>1.86014</v>
+        <v>1.93986</v>
       </c>
       <c r="D143" t="n">
-        <v>1.87262</v>
+        <v>1.9485</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.480936</v>
+        <v>0.484668</v>
       </c>
       <c r="C2" t="n">
-        <v>0.701189</v>
+        <v>0.701766</v>
       </c>
       <c r="D2" t="n">
-        <v>0.769912</v>
+        <v>0.7698430000000001</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.468937</v>
+        <v>0.470082</v>
       </c>
       <c r="C3" t="n">
-        <v>0.68404</v>
+        <v>0.6844440000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.749111</v>
+        <v>0.74969</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.458607</v>
+        <v>0.459281</v>
       </c>
       <c r="C4" t="n">
-        <v>0.667554</v>
+        <v>0.668096</v>
       </c>
       <c r="D4" t="n">
-        <v>0.73072</v>
+        <v>0.731465</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.448992</v>
+        <v>0.450062</v>
       </c>
       <c r="C5" t="n">
-        <v>0.652663</v>
+        <v>0.653057</v>
       </c>
       <c r="D5" t="n">
-        <v>0.713975</v>
+        <v>0.7145860000000001</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.441154</v>
+        <v>0.442246</v>
       </c>
       <c r="C6" t="n">
-        <v>0.639021</v>
+        <v>0.639221</v>
       </c>
       <c r="D6" t="n">
-        <v>0.698684</v>
+        <v>0.699301</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.435703</v>
+        <v>0.436965</v>
       </c>
       <c r="C7" t="n">
-        <v>0.626192</v>
+        <v>0.626803</v>
       </c>
       <c r="D7" t="n">
-        <v>0.684756</v>
+        <v>0.684902</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.43227</v>
+        <v>0.43376</v>
       </c>
       <c r="C8" t="n">
-        <v>0.615931</v>
+        <v>0.616582</v>
       </c>
       <c r="D8" t="n">
-        <v>0.673797</v>
+        <v>0.673671</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.432292</v>
+        <v>0.43342</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6079870000000001</v>
+        <v>0.608549</v>
       </c>
       <c r="D9" t="n">
-        <v>0.982475</v>
+        <v>0.983944</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.568085</v>
+        <v>0.569004</v>
       </c>
       <c r="C10" t="n">
-        <v>0.836435</v>
+        <v>0.836195</v>
       </c>
       <c r="D10" t="n">
-        <v>0.951619</v>
+        <v>0.952566</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.551049</v>
+        <v>0.551989</v>
       </c>
       <c r="C11" t="n">
-        <v>0.811133</v>
+        <v>0.811717</v>
       </c>
       <c r="D11" t="n">
-        <v>0.922246</v>
+        <v>0.923383</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.534569</v>
+        <v>0.535641</v>
       </c>
       <c r="C12" t="n">
-        <v>0.787887</v>
+        <v>0.788627</v>
       </c>
       <c r="D12" t="n">
-        <v>0.894336</v>
+        <v>0.895309</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.519075</v>
+        <v>0.519944</v>
       </c>
       <c r="C13" t="n">
-        <v>0.765975</v>
+        <v>0.766661</v>
       </c>
       <c r="D13" t="n">
-        <v>0.868287</v>
+        <v>0.869185</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.504674</v>
+        <v>0.505186</v>
       </c>
       <c r="C14" t="n">
-        <v>0.744767</v>
+        <v>0.745438</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8430569999999999</v>
+        <v>0.844569</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.491032</v>
+        <v>0.491947</v>
       </c>
       <c r="C15" t="n">
-        <v>0.724881</v>
+        <v>0.725465</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8192120000000001</v>
+        <v>0.820166</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.478661</v>
+        <v>0.479077</v>
       </c>
       <c r="C16" t="n">
-        <v>0.706328</v>
+        <v>0.70656</v>
       </c>
       <c r="D16" t="n">
-        <v>0.796821</v>
+        <v>0.798058</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.466845</v>
+        <v>0.467441</v>
       </c>
       <c r="C17" t="n">
-        <v>0.688454</v>
+        <v>0.689183</v>
       </c>
       <c r="D17" t="n">
-        <v>0.77566</v>
+        <v>0.77665</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.456272</v>
+        <v>0.456967</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6723479999999999</v>
+        <v>0.672519</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7559439999999999</v>
+        <v>0.7568049999999999</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.446575</v>
+        <v>0.447274</v>
       </c>
       <c r="C19" t="n">
-        <v>0.656811</v>
+        <v>0.657289</v>
       </c>
       <c r="D19" t="n">
-        <v>0.738012</v>
+        <v>0.738563</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4393</v>
+        <v>0.439987</v>
       </c>
       <c r="C20" t="n">
-        <v>0.642396</v>
+        <v>0.643028</v>
       </c>
       <c r="D20" t="n">
-        <v>0.721083</v>
+        <v>0.721855</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.43355</v>
+        <v>0.433958</v>
       </c>
       <c r="C21" t="n">
-        <v>0.629591</v>
+        <v>0.6298280000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.706692</v>
+        <v>0.70747</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.431345</v>
+        <v>0.431672</v>
       </c>
       <c r="C22" t="n">
-        <v>0.619197</v>
+        <v>0.6196</v>
       </c>
       <c r="D22" t="n">
-        <v>0.69555</v>
+        <v>0.69639</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.430953</v>
+        <v>0.431104</v>
       </c>
       <c r="C23" t="n">
-        <v>0.610595</v>
+        <v>0.610671</v>
       </c>
       <c r="D23" t="n">
-        <v>1.01824</v>
+        <v>1.02509</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.617431</v>
+        <v>0.619545</v>
       </c>
       <c r="C24" t="n">
-        <v>0.887758</v>
+        <v>0.890023</v>
       </c>
       <c r="D24" t="n">
-        <v>0.986649</v>
+        <v>0.9893110000000001</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.599023</v>
+        <v>0.599804</v>
       </c>
       <c r="C25" t="n">
-        <v>0.861989</v>
+        <v>0.863134</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9561730000000001</v>
+        <v>0.958188</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5810689999999999</v>
+        <v>0.5810959999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.836367</v>
+        <v>0.836948</v>
       </c>
       <c r="D26" t="n">
-        <v>0.927026</v>
+        <v>0.9270659999999999</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.563642</v>
+        <v>0.563959</v>
       </c>
       <c r="C27" t="n">
-        <v>0.812822</v>
+        <v>0.812684</v>
       </c>
       <c r="D27" t="n">
-        <v>0.899545</v>
+        <v>0.899788</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.547368</v>
+        <v>0.5475989999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.790065</v>
+        <v>0.789866</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8728590000000001</v>
+        <v>0.873478</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.53216</v>
+        <v>0.532381</v>
       </c>
       <c r="C29" t="n">
-        <v>0.7683950000000001</v>
+        <v>0.768222</v>
       </c>
       <c r="D29" t="n">
-        <v>0.848294</v>
+        <v>0.848847</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.517751</v>
+        <v>0.518253</v>
       </c>
       <c r="C30" t="n">
-        <v>0.747928</v>
+        <v>0.748139</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8249069999999999</v>
+        <v>0.825691</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.504539</v>
+        <v>0.50497</v>
       </c>
       <c r="C31" t="n">
-        <v>0.72872</v>
+        <v>0.728969</v>
       </c>
       <c r="D31" t="n">
-        <v>0.802859</v>
+        <v>0.803378</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.492041</v>
+        <v>0.492556</v>
       </c>
       <c r="C32" t="n">
-        <v>0.710219</v>
+        <v>0.71091</v>
       </c>
       <c r="D32" t="n">
-        <v>0.782606</v>
+        <v>0.782751</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.481398</v>
+        <v>0.481448</v>
       </c>
       <c r="C33" t="n">
-        <v>0.693694</v>
+        <v>0.694144</v>
       </c>
       <c r="D33" t="n">
-        <v>0.763073</v>
+        <v>0.763547</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.471231</v>
+        <v>0.471463</v>
       </c>
       <c r="C34" t="n">
-        <v>0.677893</v>
+        <v>0.678732</v>
       </c>
       <c r="D34" t="n">
-        <v>0.746113</v>
+        <v>0.746474</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.463684</v>
+        <v>0.464171</v>
       </c>
       <c r="C35" t="n">
-        <v>0.6635490000000001</v>
+        <v>0.664517</v>
       </c>
       <c r="D35" t="n">
-        <v>0.730137</v>
+        <v>0.730921</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.458057</v>
+        <v>0.458067</v>
       </c>
       <c r="C36" t="n">
-        <v>0.651511</v>
+        <v>0.651816</v>
       </c>
       <c r="D36" t="n">
-        <v>0.717853</v>
+        <v>0.718414</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.45585</v>
+        <v>0.455951</v>
       </c>
       <c r="C37" t="n">
-        <v>0.641618</v>
+        <v>0.642852</v>
       </c>
       <c r="D37" t="n">
-        <v>1.047</v>
+        <v>1.04706</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.648288</v>
+        <v>0.648879</v>
       </c>
       <c r="C38" t="n">
-        <v>0.921493</v>
+        <v>0.922777</v>
       </c>
       <c r="D38" t="n">
-        <v>1.01534</v>
+        <v>1.01445</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.63004</v>
+        <v>0.629755</v>
       </c>
       <c r="C39" t="n">
-        <v>0.897272</v>
+        <v>0.89561</v>
       </c>
       <c r="D39" t="n">
-        <v>0.984587</v>
+        <v>0.9832070000000001</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.610665</v>
+        <v>0.610868</v>
       </c>
       <c r="C40" t="n">
-        <v>0.869364</v>
+        <v>0.869957</v>
       </c>
       <c r="D40" t="n">
-        <v>0.954335</v>
+        <v>0.954106</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.592525</v>
+        <v>0.592994</v>
       </c>
       <c r="C41" t="n">
-        <v>0.844189</v>
+        <v>0.844783</v>
       </c>
       <c r="D41" t="n">
-        <v>0.926489</v>
+        <v>0.925519</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.57529</v>
+        <v>0.575865</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8205440000000001</v>
+        <v>0.82195</v>
       </c>
       <c r="D42" t="n">
-        <v>0.899257</v>
+        <v>0.898782</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.559324</v>
+        <v>0.559609</v>
       </c>
       <c r="C43" t="n">
-        <v>0.79801</v>
+        <v>0.79931</v>
       </c>
       <c r="D43" t="n">
-        <v>0.873877</v>
+        <v>0.873683</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.543537</v>
+        <v>0.545007</v>
       </c>
       <c r="C44" t="n">
-        <v>0.776533</v>
+        <v>0.789842</v>
       </c>
       <c r="D44" t="n">
-        <v>0.849197</v>
+        <v>0.8670020000000001</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.530349</v>
+        <v>0.54238</v>
       </c>
       <c r="C45" t="n">
-        <v>0.756287</v>
+        <v>0.7708120000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.826523</v>
+        <v>0.843349</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.517471</v>
+        <v>0.527053</v>
       </c>
       <c r="C46" t="n">
-        <v>0.7371259999999999</v>
+        <v>0.7497819999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.804718</v>
+        <v>0.821102</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.504916</v>
+        <v>0.514476</v>
       </c>
       <c r="C47" t="n">
-        <v>0.719418</v>
+        <v>0.732783</v>
       </c>
       <c r="D47" t="n">
-        <v>0.785127</v>
+        <v>0.801637</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.495652</v>
+        <v>0.504742</v>
       </c>
       <c r="C48" t="n">
-        <v>0.703522</v>
+        <v>0.715677</v>
       </c>
       <c r="D48" t="n">
-        <v>0.766672</v>
+        <v>0.780941</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.48595</v>
+        <v>0.494068</v>
       </c>
       <c r="C49" t="n">
-        <v>0.687893</v>
+        <v>0.700491</v>
       </c>
       <c r="D49" t="n">
-        <v>0.749829</v>
+        <v>0.758703</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.479618</v>
+        <v>0.482704</v>
       </c>
       <c r="C50" t="n">
-        <v>0.675496</v>
+        <v>0.684473</v>
       </c>
       <c r="D50" t="n">
-        <v>0.7365080000000001</v>
+        <v>0.742013</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.475668</v>
+        <v>0.480323</v>
       </c>
       <c r="C51" t="n">
-        <v>0.663806</v>
+        <v>0.674337</v>
       </c>
       <c r="D51" t="n">
-        <v>1.07432</v>
+        <v>1.08357</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.475669</v>
+        <v>0.478354</v>
       </c>
       <c r="C52" t="n">
-        <v>0.656413</v>
+        <v>0.662118</v>
       </c>
       <c r="D52" t="n">
-        <v>1.04295</v>
+        <v>1.06092</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.655482</v>
+        <v>0.670548</v>
       </c>
       <c r="C53" t="n">
-        <v>0.925108</v>
+        <v>0.941287</v>
       </c>
       <c r="D53" t="n">
-        <v>1.01191</v>
+        <v>1.02716</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.635863</v>
+        <v>0.650207</v>
       </c>
       <c r="C54" t="n">
-        <v>0.898265</v>
+        <v>0.913235</v>
       </c>
       <c r="D54" t="n">
-        <v>0.98107</v>
+        <v>0.9949440000000001</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.618119</v>
+        <v>0.633284</v>
       </c>
       <c r="C55" t="n">
-        <v>0.873003</v>
+        <v>0.89211</v>
       </c>
       <c r="D55" t="n">
-        <v>0.953124</v>
+        <v>0.961095</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.60103</v>
+        <v>0.60655</v>
       </c>
       <c r="C56" t="n">
-        <v>0.849826</v>
+        <v>0.867414</v>
       </c>
       <c r="D56" t="n">
-        <v>0.927276</v>
+        <v>0.928023</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.585822</v>
+        <v>0.589769</v>
       </c>
       <c r="C57" t="n">
-        <v>0.826771</v>
+        <v>0.843386</v>
       </c>
       <c r="D57" t="n">
-        <v>0.900641</v>
+        <v>0.902158</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.569095</v>
+        <v>0.573936</v>
       </c>
       <c r="C58" t="n">
-        <v>0.803661</v>
+        <v>0.818886</v>
       </c>
       <c r="D58" t="n">
-        <v>0.875674</v>
+        <v>0.87765</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5550079999999999</v>
+        <v>0.559786</v>
       </c>
       <c r="C59" t="n">
-        <v>0.7834</v>
+        <v>0.796443</v>
       </c>
       <c r="D59" t="n">
-        <v>0.85263</v>
+        <v>0.854833</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.542273</v>
+        <v>0.546901</v>
       </c>
       <c r="C60" t="n">
-        <v>0.766497</v>
+        <v>0.780075</v>
       </c>
       <c r="D60" t="n">
-        <v>0.831109</v>
+        <v>0.832213</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.529849</v>
+        <v>0.533721</v>
       </c>
       <c r="C61" t="n">
-        <v>0.748847</v>
+        <v>0.751026</v>
       </c>
       <c r="D61" t="n">
-        <v>0.811051</v>
+        <v>0.812185</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.519699</v>
+        <v>0.523427</v>
       </c>
       <c r="C62" t="n">
-        <v>0.72886</v>
+        <v>0.7384309999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.790836</v>
+        <v>0.793387</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.510703</v>
+        <v>0.514896</v>
       </c>
       <c r="C63" t="n">
-        <v>0.713372</v>
+        <v>0.727673</v>
       </c>
       <c r="D63" t="n">
-        <v>0.774303</v>
+        <v>0.776625</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.503876</v>
+        <v>0.507487</v>
       </c>
       <c r="C64" t="n">
-        <v>0.700128</v>
+        <v>0.713785</v>
       </c>
       <c r="D64" t="n">
-        <v>0.759226</v>
+        <v>0.76202</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.499355</v>
+        <v>0.503712</v>
       </c>
       <c r="C65" t="n">
-        <v>0.689645</v>
+        <v>0.700525</v>
       </c>
       <c r="D65" t="n">
-        <v>0.747777</v>
+        <v>0.750995</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.498373</v>
+        <v>0.502212</v>
       </c>
       <c r="C66" t="n">
-        <v>0.682331</v>
+        <v>0.690377</v>
       </c>
       <c r="D66" t="n">
-        <v>1.09765</v>
+        <v>1.0911</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.72005</v>
+        <v>0.713861</v>
       </c>
       <c r="C67" t="n">
-        <v>0.997418</v>
+        <v>0.99521</v>
       </c>
       <c r="D67" t="n">
-        <v>1.06652</v>
+        <v>1.05945</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.7034899999999999</v>
+        <v>0.698134</v>
       </c>
       <c r="C68" t="n">
-        <v>0.967396</v>
+        <v>0.969094</v>
       </c>
       <c r="D68" t="n">
-        <v>1.03651</v>
+        <v>1.03077</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.687902</v>
+        <v>0.681403</v>
       </c>
       <c r="C69" t="n">
-        <v>0.944883</v>
+        <v>0.938985</v>
       </c>
       <c r="D69" t="n">
-        <v>1.00981</v>
+        <v>1.00121</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6724560000000001</v>
+        <v>0.667026</v>
       </c>
       <c r="C70" t="n">
-        <v>0.918066</v>
+        <v>0.914872</v>
       </c>
       <c r="D70" t="n">
-        <v>0.978808</v>
+        <v>0.974931</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.655478</v>
+        <v>0.6518080000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.892362</v>
+        <v>0.8922600000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.952726</v>
+        <v>0.947946</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.642416</v>
+        <v>0.636594</v>
       </c>
       <c r="C72" t="n">
-        <v>0.868945</v>
+        <v>0.870068</v>
       </c>
       <c r="D72" t="n">
-        <v>0.928888</v>
+        <v>0.922521</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.630091</v>
+        <v>0.622248</v>
       </c>
       <c r="C73" t="n">
-        <v>0.850842</v>
+        <v>0.847083</v>
       </c>
       <c r="D73" t="n">
-        <v>0.906242</v>
+        <v>0.898658</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.617773</v>
+        <v>0.609832</v>
       </c>
       <c r="C74" t="n">
-        <v>0.831169</v>
+        <v>0.827382</v>
       </c>
       <c r="D74" t="n">
-        <v>0.88074</v>
+        <v>0.878007</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.600475</v>
+        <v>0.599332</v>
       </c>
       <c r="C75" t="n">
-        <v>0.806904</v>
+        <v>0.811149</v>
       </c>
       <c r="D75" t="n">
-        <v>0.859156</v>
+        <v>0.857235</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.59055</v>
+        <v>0.58754</v>
       </c>
       <c r="C76" t="n">
-        <v>0.794268</v>
+        <v>0.790071</v>
       </c>
       <c r="D76" t="n">
-        <v>0.842126</v>
+        <v>0.8361960000000001</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.583778</v>
+        <v>0.576167</v>
       </c>
       <c r="C77" t="n">
-        <v>0.776145</v>
+        <v>0.773568</v>
       </c>
       <c r="D77" t="n">
-        <v>0.825418</v>
+        <v>0.819623</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.578843</v>
+        <v>0.568875</v>
       </c>
       <c r="C78" t="n">
-        <v>0.768012</v>
+        <v>0.764072</v>
       </c>
       <c r="D78" t="n">
-        <v>0.811362</v>
+        <v>0.803165</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.571174</v>
+        <v>0.56319</v>
       </c>
       <c r="C79" t="n">
-        <v>0.752301</v>
+        <v>0.749853</v>
       </c>
       <c r="D79" t="n">
-        <v>0.797194</v>
+        <v>0.788319</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.567334</v>
+        <v>0.561365</v>
       </c>
       <c r="C80" t="n">
-        <v>0.738993</v>
+        <v>0.738127</v>
       </c>
       <c r="D80" t="n">
-        <v>1.19214</v>
+        <v>1.17266</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.805795</v>
+        <v>0.790246</v>
       </c>
       <c r="C81" t="n">
-        <v>1.09689</v>
+        <v>1.07899</v>
       </c>
       <c r="D81" t="n">
-        <v>1.17342</v>
+        <v>1.15162</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.800149</v>
+        <v>0.782563</v>
       </c>
       <c r="C82" t="n">
-        <v>1.08788</v>
+        <v>1.06911</v>
       </c>
       <c r="D82" t="n">
-        <v>1.15129</v>
+        <v>1.13022</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.792211</v>
+        <v>0.773903</v>
       </c>
       <c r="C83" t="n">
-        <v>1.07206</v>
+        <v>1.05405</v>
       </c>
       <c r="D83" t="n">
-        <v>1.12729</v>
+        <v>1.10599</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.7841129999999999</v>
+        <v>0.763964</v>
       </c>
       <c r="C84" t="n">
-        <v>1.05374</v>
+        <v>1.03687</v>
       </c>
       <c r="D84" t="n">
-        <v>1.10181</v>
+        <v>1.08232</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.77333</v>
+        <v>0.753739</v>
       </c>
       <c r="C85" t="n">
-        <v>1.03591</v>
+        <v>1.01824</v>
       </c>
       <c r="D85" t="n">
-        <v>1.07693</v>
+        <v>1.05731</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.763947</v>
+        <v>0.742537</v>
       </c>
       <c r="C86" t="n">
-        <v>1.01391</v>
+        <v>0.995312</v>
       </c>
       <c r="D86" t="n">
-        <v>1.05143</v>
+        <v>1.03126</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.7533339999999999</v>
+        <v>0.73053</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9930330000000001</v>
+        <v>0.972891</v>
       </c>
       <c r="D87" t="n">
-        <v>1.02547</v>
+        <v>1.00743</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.742221</v>
+        <v>0.721368</v>
       </c>
       <c r="C88" t="n">
-        <v>0.970567</v>
+        <v>0.9559609999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>1.00039</v>
+        <v>0.9844580000000001</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.73292</v>
+        <v>0.710944</v>
       </c>
       <c r="C89" t="n">
-        <v>0.953035</v>
+        <v>0.938046</v>
       </c>
       <c r="D89" t="n">
-        <v>0.977195</v>
+        <v>0.9618640000000001</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.721971</v>
+        <v>0.700581</v>
       </c>
       <c r="C90" t="n">
-        <v>0.934295</v>
+        <v>0.918335</v>
       </c>
       <c r="D90" t="n">
-        <v>0.95733</v>
+        <v>0.940427</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.714627</v>
+        <v>0.692016</v>
       </c>
       <c r="C91" t="n">
-        <v>0.917066</v>
+        <v>0.901053</v>
       </c>
       <c r="D91" t="n">
-        <v>0.936196</v>
+        <v>0.921373</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.706443</v>
+        <v>0.684021</v>
       </c>
       <c r="C92" t="n">
-        <v>0.901431</v>
+        <v>0.886856</v>
       </c>
       <c r="D92" t="n">
-        <v>0.918407</v>
+        <v>0.903792</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.700075</v>
+        <v>0.677639</v>
       </c>
       <c r="C93" t="n">
-        <v>0.888046</v>
+        <v>0.872541</v>
       </c>
       <c r="D93" t="n">
-        <v>0.902452</v>
+        <v>0.887843</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.696734</v>
+        <v>0.673355</v>
       </c>
       <c r="C94" t="n">
-        <v>0.876236</v>
+        <v>0.860362</v>
       </c>
       <c r="D94" t="n">
-        <v>1.30822</v>
+        <v>1.27579</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.938462</v>
+        <v>0.907235</v>
       </c>
       <c r="C95" t="n">
-        <v>1.24282</v>
+        <v>1.20509</v>
       </c>
       <c r="D95" t="n">
-        <v>1.30287</v>
+        <v>1.26616</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.938518</v>
+        <v>0.904585</v>
       </c>
       <c r="C96" t="n">
-        <v>1.24495</v>
+        <v>1.20293</v>
       </c>
       <c r="D96" t="n">
-        <v>1.28908</v>
+        <v>1.25058</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.929924</v>
+        <v>0.8946809999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>1.23637</v>
+        <v>1.194</v>
       </c>
       <c r="D97" t="n">
-        <v>1.27156</v>
+        <v>1.23248</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.920601</v>
+        <v>0.883764</v>
       </c>
       <c r="C98" t="n">
-        <v>1.22392</v>
+        <v>1.18017</v>
       </c>
       <c r="D98" t="n">
-        <v>1.25326</v>
+        <v>1.21198</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.911362</v>
+        <v>0.873067</v>
       </c>
       <c r="C99" t="n">
-        <v>1.212</v>
+        <v>1.16628</v>
       </c>
       <c r="D99" t="n">
-        <v>1.23345</v>
+        <v>1.19206</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.902151</v>
+        <v>0.862994</v>
       </c>
       <c r="C100" t="n">
-        <v>1.20097</v>
+        <v>1.15409</v>
       </c>
       <c r="D100" t="n">
-        <v>1.21454</v>
+        <v>1.17131</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.893093</v>
+        <v>0.853168</v>
       </c>
       <c r="C101" t="n">
-        <v>1.18923</v>
+        <v>1.14113</v>
       </c>
       <c r="D101" t="n">
-        <v>1.1968</v>
+        <v>1.15311</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.885105</v>
+        <v>0.8435550000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>1.17831</v>
+        <v>1.12934</v>
       </c>
       <c r="D102" t="n">
-        <v>1.17995</v>
+        <v>1.13423</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.878838</v>
+        <v>0.8345860000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>1.16844</v>
+        <v>1.11607</v>
       </c>
       <c r="D103" t="n">
-        <v>1.16163</v>
+        <v>1.11748</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.871124</v>
+        <v>0.826916</v>
       </c>
       <c r="C104" t="n">
-        <v>1.1562</v>
+        <v>1.10458</v>
       </c>
       <c r="D104" t="n">
-        <v>1.14761</v>
+        <v>1.10128</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.865917</v>
+        <v>0.819735</v>
       </c>
       <c r="C105" t="n">
-        <v>1.14802</v>
+        <v>1.09451</v>
       </c>
       <c r="D105" t="n">
-        <v>1.13365</v>
+        <v>1.08596</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.8612</v>
+        <v>0.8138919999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>1.13917</v>
+        <v>1.08421</v>
       </c>
       <c r="D106" t="n">
-        <v>1.11915</v>
+        <v>1.07284</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.8576549999999999</v>
+        <v>0.809535</v>
       </c>
       <c r="C107" t="n">
-        <v>1.13222</v>
+        <v>1.07754</v>
       </c>
       <c r="D107" t="n">
-        <v>1.10465</v>
+        <v>1.06078</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.855787</v>
+        <v>0.807404</v>
       </c>
       <c r="C108" t="n">
-        <v>1.12524</v>
+        <v>1.07037</v>
       </c>
       <c r="D108" t="n">
-        <v>1.50629</v>
+        <v>1.44806</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.85702</v>
+        <v>0.808291</v>
       </c>
       <c r="C109" t="n">
-        <v>1.1211</v>
+        <v>1.06598</v>
       </c>
       <c r="D109" t="n">
-        <v>1.50176</v>
+        <v>1.44032</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.09603</v>
+        <v>1.0361</v>
       </c>
       <c r="C110" t="n">
-        <v>1.49105</v>
+        <v>1.41565</v>
       </c>
       <c r="D110" t="n">
-        <v>1.48836</v>
+        <v>1.42641</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.08449</v>
+        <v>1.02366</v>
       </c>
       <c r="C111" t="n">
-        <v>1.47951</v>
+        <v>1.40361</v>
       </c>
       <c r="D111" t="n">
-        <v>1.47548</v>
+        <v>1.41352</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.07265</v>
+        <v>1.01081</v>
       </c>
       <c r="C112" t="n">
-        <v>1.47042</v>
+        <v>1.3938</v>
       </c>
       <c r="D112" t="n">
-        <v>1.46343</v>
+        <v>1.40084</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.06096</v>
+        <v>0.9991370000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>1.45966</v>
+        <v>1.38448</v>
       </c>
       <c r="D113" t="n">
-        <v>1.45218</v>
+        <v>1.38905</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.05015</v>
+        <v>0.987744</v>
       </c>
       <c r="C114" t="n">
-        <v>1.45078</v>
+        <v>1.37442</v>
       </c>
       <c r="D114" t="n">
-        <v>1.44116</v>
+        <v>1.37727</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.03994</v>
+        <v>0.9764969999999999</v>
       </c>
       <c r="C115" t="n">
-        <v>1.44272</v>
+        <v>1.36509</v>
       </c>
       <c r="D115" t="n">
-        <v>1.43372</v>
+        <v>1.36448</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.03014</v>
+        <v>0.966674</v>
       </c>
       <c r="C116" t="n">
-        <v>1.43315</v>
+        <v>1.35734</v>
       </c>
       <c r="D116" t="n">
-        <v>1.42399</v>
+        <v>1.35554</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.02212</v>
+        <v>0.9578989999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>1.42887</v>
+        <v>1.34891</v>
       </c>
       <c r="D117" t="n">
-        <v>1.41315</v>
+        <v>1.3447</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.01367</v>
+        <v>0.9493549999999999</v>
       </c>
       <c r="C118" t="n">
-        <v>1.41977</v>
+        <v>1.34099</v>
       </c>
       <c r="D118" t="n">
-        <v>1.40515</v>
+        <v>1.33585</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.0062</v>
+        <v>0.941982</v>
       </c>
       <c r="C119" t="n">
-        <v>1.41447</v>
+        <v>1.3363</v>
       </c>
       <c r="D119" t="n">
-        <v>1.40057</v>
+        <v>1.32733</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.00105</v>
+        <v>0.935905</v>
       </c>
       <c r="C120" t="n">
-        <v>1.4104</v>
+        <v>1.32956</v>
       </c>
       <c r="D120" t="n">
-        <v>1.39176</v>
+        <v>1.31837</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.9959519999999999</v>
+        <v>0.931797</v>
       </c>
       <c r="C121" t="n">
-        <v>1.40725</v>
+        <v>1.32417</v>
       </c>
       <c r="D121" t="n">
-        <v>1.38406</v>
+        <v>1.30989</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.9941</v>
+        <v>0.928774</v>
       </c>
       <c r="C122" t="n">
-        <v>1.40275</v>
+        <v>1.32005</v>
       </c>
       <c r="D122" t="n">
-        <v>1.38075</v>
+        <v>1.30445</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.9949519999999999</v>
+        <v>0.929294</v>
       </c>
       <c r="C123" t="n">
-        <v>1.40159</v>
+        <v>1.31724</v>
       </c>
       <c r="D123" t="n">
-        <v>1.7753</v>
+        <v>1.68849</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.22786</v>
+        <v>1.15886</v>
       </c>
       <c r="C124" t="n">
-        <v>1.76594</v>
+        <v>1.6649</v>
       </c>
       <c r="D124" t="n">
-        <v>1.76497</v>
+        <v>1.67313</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.21642</v>
+        <v>1.14748</v>
       </c>
       <c r="C125" t="n">
-        <v>1.75461</v>
+        <v>1.65045</v>
       </c>
       <c r="D125" t="n">
-        <v>1.75172</v>
+        <v>1.65958</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.2074</v>
+        <v>1.13619</v>
       </c>
       <c r="C126" t="n">
-        <v>1.74069</v>
+        <v>1.63573</v>
       </c>
       <c r="D126" t="n">
-        <v>1.73913</v>
+        <v>1.64426</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.1978</v>
+        <v>1.12591</v>
       </c>
       <c r="C127" t="n">
-        <v>1.73005</v>
+        <v>1.62513</v>
       </c>
       <c r="D127" t="n">
-        <v>1.72631</v>
+        <v>1.63142</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.18831</v>
+        <v>1.11631</v>
       </c>
       <c r="C128" t="n">
-        <v>1.71778</v>
+        <v>1.61351</v>
       </c>
       <c r="D128" t="n">
-        <v>1.7116</v>
+        <v>1.62365</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.17989</v>
+        <v>1.10785</v>
       </c>
       <c r="C129" t="n">
-        <v>1.70596</v>
+        <v>1.60077</v>
       </c>
       <c r="D129" t="n">
-        <v>1.7034</v>
+        <v>1.60683</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.17272</v>
+        <v>1.09875</v>
       </c>
       <c r="C130" t="n">
-        <v>1.69659</v>
+        <v>1.59259</v>
       </c>
       <c r="D130" t="n">
-        <v>1.6956</v>
+        <v>1.59599</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.16503</v>
+        <v>1.09178</v>
       </c>
       <c r="C131" t="n">
-        <v>1.68825</v>
+        <v>1.58437</v>
       </c>
       <c r="D131" t="n">
-        <v>1.68647</v>
+        <v>1.5859</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.15971</v>
+        <v>1.08615</v>
       </c>
       <c r="C132" t="n">
-        <v>1.67856</v>
+        <v>1.5706</v>
       </c>
       <c r="D132" t="n">
-        <v>1.67712</v>
+        <v>1.57783</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.15525</v>
+        <v>1.07983</v>
       </c>
       <c r="C133" t="n">
-        <v>1.6716</v>
+        <v>1.56958</v>
       </c>
       <c r="D133" t="n">
-        <v>1.66884</v>
+        <v>1.5689</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.15199</v>
+        <v>1.07616</v>
       </c>
       <c r="C134" t="n">
-        <v>1.66505</v>
+        <v>1.56335</v>
       </c>
       <c r="D134" t="n">
-        <v>1.66023</v>
+        <v>1.56545</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.14777</v>
+        <v>1.07375</v>
       </c>
       <c r="C135" t="n">
-        <v>1.65723</v>
+        <v>1.56051</v>
       </c>
       <c r="D135" t="n">
-        <v>1.65496</v>
+        <v>1.55672</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.14858</v>
+        <v>1.0733</v>
       </c>
       <c r="C136" t="n">
-        <v>1.65072</v>
+        <v>1.55606</v>
       </c>
       <c r="D136" t="n">
-        <v>1.65176</v>
+        <v>1.55554</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.15044</v>
+        <v>1.07505</v>
       </c>
       <c r="C137" t="n">
-        <v>1.65479</v>
+        <v>1.55105</v>
       </c>
       <c r="D137" t="n">
-        <v>2.04359</v>
+        <v>1.93466</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.38126</v>
+        <v>1.30098</v>
       </c>
       <c r="C138" t="n">
-        <v>2.01595</v>
+        <v>1.88872</v>
       </c>
       <c r="D138" t="n">
-        <v>2.02956</v>
+        <v>1.91272</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.37276</v>
+        <v>1.29197</v>
       </c>
       <c r="C139" t="n">
-        <v>1.9987</v>
+        <v>1.87407</v>
       </c>
       <c r="D139" t="n">
-        <v>2.0096</v>
+        <v>1.89334</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.36534</v>
+        <v>1.28378</v>
       </c>
       <c r="C140" t="n">
-        <v>1.98144</v>
+        <v>1.8599</v>
       </c>
       <c r="D140" t="n">
-        <v>1.99258</v>
+        <v>1.87829</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.35909</v>
+        <v>1.27531</v>
       </c>
       <c r="C141" t="n">
-        <v>1.96589</v>
+        <v>1.84316</v>
       </c>
       <c r="D141" t="n">
-        <v>1.9784</v>
+        <v>1.86089</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.35266</v>
+        <v>1.2682</v>
       </c>
       <c r="C142" t="n">
-        <v>1.95142</v>
+        <v>1.82831</v>
       </c>
       <c r="D142" t="n">
-        <v>1.96552</v>
+        <v>1.84423</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.34723</v>
+        <v>1.26206</v>
       </c>
       <c r="C143" t="n">
-        <v>1.93986</v>
+        <v>1.81377</v>
       </c>
       <c r="D143" t="n">
-        <v>1.9485</v>
+        <v>1.82987</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.484668</v>
+        <v>0.484206</v>
       </c>
       <c r="C2" t="n">
-        <v>0.701766</v>
+        <v>0.602114</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7698430000000001</v>
+        <v>0.728795</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.470082</v>
+        <v>0.469389</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6844440000000001</v>
+        <v>0.584593</v>
       </c>
       <c r="D3" t="n">
-        <v>0.74969</v>
+        <v>0.7087</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.459281</v>
+        <v>0.458434</v>
       </c>
       <c r="C4" t="n">
-        <v>0.668096</v>
+        <v>0.568265</v>
       </c>
       <c r="D4" t="n">
-        <v>0.731465</v>
+        <v>0.689669</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.450062</v>
+        <v>0.449367</v>
       </c>
       <c r="C5" t="n">
-        <v>0.653057</v>
+        <v>0.552314</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7145860000000001</v>
+        <v>0.673084</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.442246</v>
+        <v>0.441888</v>
       </c>
       <c r="C6" t="n">
-        <v>0.639221</v>
+        <v>0.539404</v>
       </c>
       <c r="D6" t="n">
-        <v>0.699301</v>
+        <v>0.657056</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.436965</v>
+        <v>0.435921</v>
       </c>
       <c r="C7" t="n">
-        <v>0.626803</v>
+        <v>0.52649</v>
       </c>
       <c r="D7" t="n">
-        <v>0.684902</v>
+        <v>0.643635</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.43376</v>
+        <v>0.432676</v>
       </c>
       <c r="C8" t="n">
-        <v>0.616582</v>
+        <v>0.51744</v>
       </c>
       <c r="D8" t="n">
-        <v>0.673671</v>
+        <v>0.632344</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.43342</v>
+        <v>0.432324</v>
       </c>
       <c r="C9" t="n">
-        <v>0.608549</v>
+        <v>0.509475</v>
       </c>
       <c r="D9" t="n">
-        <v>0.983944</v>
+        <v>0.94406</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.569004</v>
+        <v>0.568686</v>
       </c>
       <c r="C10" t="n">
-        <v>0.836195</v>
+        <v>0.738443</v>
       </c>
       <c r="D10" t="n">
-        <v>0.952566</v>
+        <v>0.913189</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.551989</v>
+        <v>0.55161</v>
       </c>
       <c r="C11" t="n">
-        <v>0.811717</v>
+        <v>0.714287</v>
       </c>
       <c r="D11" t="n">
-        <v>0.923383</v>
+        <v>0.88387</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.535641</v>
+        <v>0.535519</v>
       </c>
       <c r="C12" t="n">
-        <v>0.788627</v>
+        <v>0.69152</v>
       </c>
       <c r="D12" t="n">
-        <v>0.895309</v>
+        <v>0.855909</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.519944</v>
+        <v>0.519942</v>
       </c>
       <c r="C13" t="n">
-        <v>0.766661</v>
+        <v>0.669304</v>
       </c>
       <c r="D13" t="n">
-        <v>0.869185</v>
+        <v>0.829991</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.505186</v>
+        <v>0.504047</v>
       </c>
       <c r="C14" t="n">
-        <v>0.745438</v>
+        <v>0.64844</v>
       </c>
       <c r="D14" t="n">
-        <v>0.844569</v>
+        <v>0.8047800000000001</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.491947</v>
+        <v>0.490652</v>
       </c>
       <c r="C15" t="n">
-        <v>0.725465</v>
+        <v>0.6296890000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.820166</v>
+        <v>0.781161</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.479077</v>
+        <v>0.479256</v>
       </c>
       <c r="C16" t="n">
-        <v>0.70656</v>
+        <v>0.611538</v>
       </c>
       <c r="D16" t="n">
-        <v>0.798058</v>
+        <v>0.759105</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.467441</v>
+        <v>0.467124</v>
       </c>
       <c r="C17" t="n">
-        <v>0.689183</v>
+        <v>0.592979</v>
       </c>
       <c r="D17" t="n">
-        <v>0.77665</v>
+        <v>0.738021</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.456967</v>
+        <v>0.456204</v>
       </c>
       <c r="C18" t="n">
-        <v>0.672519</v>
+        <v>0.576755</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7568049999999999</v>
+        <v>0.718574</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.447274</v>
+        <v>0.446179</v>
       </c>
       <c r="C19" t="n">
-        <v>0.657289</v>
+        <v>0.561916</v>
       </c>
       <c r="D19" t="n">
-        <v>0.738563</v>
+        <v>0.700051</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.439987</v>
+        <v>0.439224</v>
       </c>
       <c r="C20" t="n">
-        <v>0.643028</v>
+        <v>0.548325</v>
       </c>
       <c r="D20" t="n">
-        <v>0.721855</v>
+        <v>0.6839769999999999</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.433958</v>
+        <v>0.433576</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6298280000000001</v>
+        <v>0.535639</v>
       </c>
       <c r="D21" t="n">
-        <v>0.70747</v>
+        <v>0.669671</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.431672</v>
+        <v>0.430664</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6196</v>
+        <v>0.52477</v>
       </c>
       <c r="D22" t="n">
-        <v>0.69639</v>
+        <v>0.6584410000000001</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.431104</v>
+        <v>0.430654</v>
       </c>
       <c r="C23" t="n">
-        <v>0.610671</v>
+        <v>0.5157389999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>1.02509</v>
+        <v>0.98316</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.619545</v>
+        <v>0.618548</v>
       </c>
       <c r="C24" t="n">
-        <v>0.890023</v>
+        <v>0.7936530000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9893110000000001</v>
+        <v>0.951026</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.599804</v>
+        <v>0.599658</v>
       </c>
       <c r="C25" t="n">
-        <v>0.863134</v>
+        <v>0.767384</v>
       </c>
       <c r="D25" t="n">
-        <v>0.958188</v>
+        <v>0.92071</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5810959999999999</v>
+        <v>0.581848</v>
       </c>
       <c r="C26" t="n">
-        <v>0.836948</v>
+        <v>0.742861</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9270659999999999</v>
+        <v>0.8911750000000001</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.563959</v>
+        <v>0.563466</v>
       </c>
       <c r="C27" t="n">
-        <v>0.812684</v>
+        <v>0.718849</v>
       </c>
       <c r="D27" t="n">
-        <v>0.899788</v>
+        <v>0.864567</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5475989999999999</v>
+        <v>0.548139</v>
       </c>
       <c r="C28" t="n">
-        <v>0.789866</v>
+        <v>0.6970150000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.873478</v>
+        <v>0.838324</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.532381</v>
+        <v>0.532408</v>
       </c>
       <c r="C29" t="n">
-        <v>0.768222</v>
+        <v>0.675272</v>
       </c>
       <c r="D29" t="n">
-        <v>0.848847</v>
+        <v>0.813402</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.518253</v>
+        <v>0.518273</v>
       </c>
       <c r="C30" t="n">
-        <v>0.748139</v>
+        <v>0.655138</v>
       </c>
       <c r="D30" t="n">
-        <v>0.825691</v>
+        <v>0.789913</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.50497</v>
+        <v>0.505019</v>
       </c>
       <c r="C31" t="n">
-        <v>0.728969</v>
+        <v>0.635601</v>
       </c>
       <c r="D31" t="n">
-        <v>0.803378</v>
+        <v>0.767751</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.492556</v>
+        <v>0.492565</v>
       </c>
       <c r="C32" t="n">
-        <v>0.71091</v>
+        <v>0.618028</v>
       </c>
       <c r="D32" t="n">
-        <v>0.782751</v>
+        <v>0.746958</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.481448</v>
+        <v>0.481558</v>
       </c>
       <c r="C33" t="n">
-        <v>0.694144</v>
+        <v>0.600726</v>
       </c>
       <c r="D33" t="n">
-        <v>0.763547</v>
+        <v>0.728128</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.471463</v>
+        <v>0.471445</v>
       </c>
       <c r="C34" t="n">
-        <v>0.678732</v>
+        <v>0.586175</v>
       </c>
       <c r="D34" t="n">
-        <v>0.746474</v>
+        <v>0.7114819999999999</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.464171</v>
+        <v>0.464052</v>
       </c>
       <c r="C35" t="n">
-        <v>0.664517</v>
+        <v>0.570927</v>
       </c>
       <c r="D35" t="n">
-        <v>0.730921</v>
+        <v>0.696033</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.458067</v>
+        <v>0.458579</v>
       </c>
       <c r="C36" t="n">
-        <v>0.651816</v>
+        <v>0.558825</v>
       </c>
       <c r="D36" t="n">
-        <v>0.718414</v>
+        <v>0.6832819999999999</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.455951</v>
+        <v>0.455895</v>
       </c>
       <c r="C37" t="n">
-        <v>0.642852</v>
+        <v>0.5484830000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>1.04706</v>
+        <v>1.0138</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.648879</v>
+        <v>0.649208</v>
       </c>
       <c r="C38" t="n">
-        <v>0.922777</v>
+        <v>0.8292119999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>1.01445</v>
+        <v>0.981212</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.629755</v>
+        <v>0.629785</v>
       </c>
       <c r="C39" t="n">
-        <v>0.89561</v>
+        <v>0.802993</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9832070000000001</v>
+        <v>0.950785</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.610868</v>
+        <v>0.6113730000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>0.869957</v>
+        <v>0.777305</v>
       </c>
       <c r="D40" t="n">
-        <v>0.954106</v>
+        <v>0.920527</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.592994</v>
+        <v>0.5932269999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.844783</v>
+        <v>0.752225</v>
       </c>
       <c r="D41" t="n">
-        <v>0.925519</v>
+        <v>0.8929</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.575865</v>
+        <v>0.576348</v>
       </c>
       <c r="C42" t="n">
-        <v>0.82195</v>
+        <v>0.729905</v>
       </c>
       <c r="D42" t="n">
-        <v>0.898782</v>
+        <v>0.878328</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.559609</v>
+        <v>0.567897</v>
       </c>
       <c r="C43" t="n">
-        <v>0.79931</v>
+        <v>0.716518</v>
       </c>
       <c r="D43" t="n">
-        <v>0.873683</v>
+        <v>0.853147</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.545007</v>
+        <v>0.553658</v>
       </c>
       <c r="C44" t="n">
-        <v>0.789842</v>
+        <v>0.6901659999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.8670020000000001</v>
+        <v>0.820429</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.54238</v>
+        <v>0.530372</v>
       </c>
       <c r="C45" t="n">
-        <v>0.7708120000000001</v>
+        <v>0.666996</v>
       </c>
       <c r="D45" t="n">
-        <v>0.843349</v>
+        <v>0.794304</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.527053</v>
+        <v>0.5173219999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.7497819999999999</v>
+        <v>0.649014</v>
       </c>
       <c r="D46" t="n">
-        <v>0.821102</v>
+        <v>0.773163</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.514476</v>
+        <v>0.50362</v>
       </c>
       <c r="C47" t="n">
-        <v>0.732783</v>
+        <v>0.631926</v>
       </c>
       <c r="D47" t="n">
-        <v>0.801637</v>
+        <v>0.753509</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.504742</v>
+        <v>0.495543</v>
       </c>
       <c r="C48" t="n">
-        <v>0.715677</v>
+        <v>0.614173</v>
       </c>
       <c r="D48" t="n">
-        <v>0.780941</v>
+        <v>0.73466</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.494068</v>
+        <v>0.487889</v>
       </c>
       <c r="C49" t="n">
-        <v>0.700491</v>
+        <v>0.60057</v>
       </c>
       <c r="D49" t="n">
-        <v>0.758703</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.482704</v>
+        <v>0.481164</v>
       </c>
       <c r="C50" t="n">
-        <v>0.684473</v>
+        <v>0.585086</v>
       </c>
       <c r="D50" t="n">
-        <v>0.742013</v>
+        <v>0.704539</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.480323</v>
+        <v>0.47892</v>
       </c>
       <c r="C51" t="n">
-        <v>0.674337</v>
+        <v>0.580477</v>
       </c>
       <c r="D51" t="n">
-        <v>1.08357</v>
+        <v>1.06397</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.478354</v>
+        <v>0.48155</v>
       </c>
       <c r="C52" t="n">
-        <v>0.662118</v>
+        <v>0.57317</v>
       </c>
       <c r="D52" t="n">
-        <v>1.06092</v>
+        <v>1.02605</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.670548</v>
+        <v>0.673434</v>
       </c>
       <c r="C53" t="n">
-        <v>0.941287</v>
+        <v>0.8478250000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>1.02716</v>
+        <v>0.9924460000000001</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.650207</v>
+        <v>0.654419</v>
       </c>
       <c r="C54" t="n">
-        <v>0.913235</v>
+        <v>0.819843</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9949440000000001</v>
+        <v>0.961663</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.633284</v>
+        <v>0.637277</v>
       </c>
       <c r="C55" t="n">
-        <v>0.89211</v>
+        <v>0.795804</v>
       </c>
       <c r="D55" t="n">
-        <v>0.961095</v>
+        <v>0.933679</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.60655</v>
+        <v>0.619155</v>
       </c>
       <c r="C56" t="n">
-        <v>0.867414</v>
+        <v>0.770358</v>
       </c>
       <c r="D56" t="n">
-        <v>0.928023</v>
+        <v>0.9048850000000001</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.589769</v>
+        <v>0.603621</v>
       </c>
       <c r="C57" t="n">
-        <v>0.843386</v>
+        <v>0.74171</v>
       </c>
       <c r="D57" t="n">
-        <v>0.902158</v>
+        <v>0.87095</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.573936</v>
+        <v>0.574136</v>
       </c>
       <c r="C58" t="n">
-        <v>0.818886</v>
+        <v>0.719176</v>
       </c>
       <c r="D58" t="n">
-        <v>0.87765</v>
+        <v>0.847011</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.559786</v>
+        <v>0.5608300000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.796443</v>
+        <v>0.702088</v>
       </c>
       <c r="D59" t="n">
-        <v>0.854833</v>
+        <v>0.824712</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.546901</v>
+        <v>0.544614</v>
       </c>
       <c r="C60" t="n">
-        <v>0.780075</v>
+        <v>0.678817</v>
       </c>
       <c r="D60" t="n">
-        <v>0.832213</v>
+        <v>0.80294</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.533721</v>
+        <v>0.540164</v>
       </c>
       <c r="C61" t="n">
-        <v>0.751026</v>
+        <v>0.6631359999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.812185</v>
+        <v>0.782789</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.523427</v>
+        <v>0.524208</v>
       </c>
       <c r="C62" t="n">
-        <v>0.7384309999999999</v>
+        <v>0.647398</v>
       </c>
       <c r="D62" t="n">
-        <v>0.793387</v>
+        <v>0.764745</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.514896</v>
+        <v>0.515575</v>
       </c>
       <c r="C63" t="n">
-        <v>0.727673</v>
+        <v>0.632576</v>
       </c>
       <c r="D63" t="n">
-        <v>0.776625</v>
+        <v>0.747974</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.507487</v>
+        <v>0.508986</v>
       </c>
       <c r="C64" t="n">
-        <v>0.713785</v>
+        <v>0.618703</v>
       </c>
       <c r="D64" t="n">
-        <v>0.76202</v>
+        <v>0.733353</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.503712</v>
+        <v>0.504862</v>
       </c>
       <c r="C65" t="n">
-        <v>0.700525</v>
+        <v>0.60641</v>
       </c>
       <c r="D65" t="n">
-        <v>0.750995</v>
+        <v>0.721021</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.502212</v>
+        <v>0.503252</v>
       </c>
       <c r="C66" t="n">
-        <v>0.690377</v>
+        <v>0.597048</v>
       </c>
       <c r="D66" t="n">
-        <v>1.0911</v>
+        <v>1.0793</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.713861</v>
+        <v>0.7320759999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.99521</v>
+        <v>0.916187</v>
       </c>
       <c r="D67" t="n">
-        <v>1.05945</v>
+        <v>1.04681</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.698134</v>
+        <v>0.715996</v>
       </c>
       <c r="C68" t="n">
-        <v>0.969094</v>
+        <v>0.88955</v>
       </c>
       <c r="D68" t="n">
-        <v>1.03077</v>
+        <v>1.0158</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.681403</v>
+        <v>0.698169</v>
       </c>
       <c r="C69" t="n">
-        <v>0.938985</v>
+        <v>0.863619</v>
       </c>
       <c r="D69" t="n">
-        <v>1.00121</v>
+        <v>0.986648</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.667026</v>
+        <v>0.684013</v>
       </c>
       <c r="C70" t="n">
-        <v>0.914872</v>
+        <v>0.839002</v>
       </c>
       <c r="D70" t="n">
-        <v>0.974931</v>
+        <v>0.957665</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.6518080000000001</v>
+        <v>0.665343</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8922600000000001</v>
+        <v>0.814005</v>
       </c>
       <c r="D71" t="n">
-        <v>0.947946</v>
+        <v>0.9308999999999999</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.636594</v>
+        <v>0.650266</v>
       </c>
       <c r="C72" t="n">
-        <v>0.870068</v>
+        <v>0.788048</v>
       </c>
       <c r="D72" t="n">
-        <v>0.922521</v>
+        <v>0.903659</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.622248</v>
+        <v>0.635441</v>
       </c>
       <c r="C73" t="n">
-        <v>0.847083</v>
+        <v>0.771308</v>
       </c>
       <c r="D73" t="n">
-        <v>0.898658</v>
+        <v>0.88196</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.609832</v>
+        <v>0.6276</v>
       </c>
       <c r="C74" t="n">
-        <v>0.827382</v>
+        <v>0.750492</v>
       </c>
       <c r="D74" t="n">
-        <v>0.878007</v>
+        <v>0.85931</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.599332</v>
+        <v>0.6161219999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>0.811149</v>
+        <v>0.731694</v>
       </c>
       <c r="D75" t="n">
-        <v>0.857235</v>
+        <v>0.83821</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.58754</v>
+        <v>0.604125</v>
       </c>
       <c r="C76" t="n">
-        <v>0.790071</v>
+        <v>0.713802</v>
       </c>
       <c r="D76" t="n">
-        <v>0.8361960000000001</v>
+        <v>0.817639</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.576167</v>
+        <v>0.593336</v>
       </c>
       <c r="C77" t="n">
-        <v>0.773568</v>
+        <v>0.696701</v>
       </c>
       <c r="D77" t="n">
-        <v>0.819623</v>
+        <v>0.79915</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.568875</v>
+        <v>0.58458</v>
       </c>
       <c r="C78" t="n">
-        <v>0.764072</v>
+        <v>0.682095</v>
       </c>
       <c r="D78" t="n">
-        <v>0.803165</v>
+        <v>0.78268</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.56319</v>
+        <v>0.576318</v>
       </c>
       <c r="C79" t="n">
-        <v>0.749853</v>
+        <v>0.666239</v>
       </c>
       <c r="D79" t="n">
-        <v>0.788319</v>
+        <v>0.768241</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.561365</v>
+        <v>0.572245</v>
       </c>
       <c r="C80" t="n">
-        <v>0.738127</v>
+        <v>0.656133</v>
       </c>
       <c r="D80" t="n">
-        <v>1.17266</v>
+        <v>1.15108</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.790246</v>
+        <v>0.798122</v>
       </c>
       <c r="C81" t="n">
-        <v>1.07899</v>
+        <v>0.995351</v>
       </c>
       <c r="D81" t="n">
-        <v>1.15162</v>
+        <v>1.1304</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.782563</v>
+        <v>0.790424</v>
       </c>
       <c r="C82" t="n">
-        <v>1.06911</v>
+        <v>0.979895</v>
       </c>
       <c r="D82" t="n">
-        <v>1.13022</v>
+        <v>1.10769</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.773903</v>
+        <v>0.780212</v>
       </c>
       <c r="C83" t="n">
-        <v>1.05405</v>
+        <v>0.960432</v>
       </c>
       <c r="D83" t="n">
-        <v>1.10599</v>
+        <v>1.0828</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.763964</v>
+        <v>0.7695380000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>1.03687</v>
+        <v>0.9400539999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>1.08232</v>
+        <v>1.05726</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.753739</v>
+        <v>0.758126</v>
       </c>
       <c r="C85" t="n">
-        <v>1.01824</v>
+        <v>0.919365</v>
       </c>
       <c r="D85" t="n">
-        <v>1.05731</v>
+        <v>1.03171</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.742537</v>
+        <v>0.747357</v>
       </c>
       <c r="C86" t="n">
-        <v>0.995312</v>
+        <v>0.898488</v>
       </c>
       <c r="D86" t="n">
-        <v>1.03126</v>
+        <v>1.00575</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.73053</v>
+        <v>0.735395</v>
       </c>
       <c r="C87" t="n">
-        <v>0.972891</v>
+        <v>0.877024</v>
       </c>
       <c r="D87" t="n">
-        <v>1.00743</v>
+        <v>0.980864</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.721368</v>
+        <v>0.723834</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9559609999999999</v>
+        <v>0.8564040000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9844580000000001</v>
+        <v>0.956801</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.710944</v>
+        <v>0.713457</v>
       </c>
       <c r="C89" t="n">
-        <v>0.938046</v>
+        <v>0.838264</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9618640000000001</v>
+        <v>0.933565</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.700581</v>
+        <v>0.704112</v>
       </c>
       <c r="C90" t="n">
-        <v>0.918335</v>
+        <v>0.821368</v>
       </c>
       <c r="D90" t="n">
-        <v>0.940427</v>
+        <v>0.913717</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.692016</v>
+        <v>0.69546</v>
       </c>
       <c r="C91" t="n">
-        <v>0.901053</v>
+        <v>0.804127</v>
       </c>
       <c r="D91" t="n">
-        <v>0.921373</v>
+        <v>0.894086</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.684021</v>
+        <v>0.68726</v>
       </c>
       <c r="C92" t="n">
-        <v>0.886856</v>
+        <v>0.788114</v>
       </c>
       <c r="D92" t="n">
-        <v>0.903792</v>
+        <v>0.874766</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.677639</v>
+        <v>0.6806950000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>0.872541</v>
+        <v>0.773777</v>
       </c>
       <c r="D93" t="n">
-        <v>0.887843</v>
+        <v>0.859888</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.673355</v>
+        <v>0.676383</v>
       </c>
       <c r="C94" t="n">
-        <v>0.860362</v>
+        <v>0.7613760000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>1.27579</v>
+        <v>1.24895</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.907235</v>
+        <v>0.911309</v>
       </c>
       <c r="C95" t="n">
-        <v>1.20509</v>
+        <v>1.1045</v>
       </c>
       <c r="D95" t="n">
-        <v>1.26616</v>
+        <v>1.23984</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.904585</v>
+        <v>0.908775</v>
       </c>
       <c r="C96" t="n">
-        <v>1.20293</v>
+        <v>1.09957</v>
       </c>
       <c r="D96" t="n">
-        <v>1.25058</v>
+        <v>1.22264</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.8946809999999999</v>
+        <v>0.89854</v>
       </c>
       <c r="C97" t="n">
-        <v>1.194</v>
+        <v>1.08222</v>
       </c>
       <c r="D97" t="n">
-        <v>1.23248</v>
+        <v>1.20377</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.883764</v>
+        <v>0.888227</v>
       </c>
       <c r="C98" t="n">
-        <v>1.18017</v>
+        <v>1.06277</v>
       </c>
       <c r="D98" t="n">
-        <v>1.21198</v>
+        <v>1.18032</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.873067</v>
+        <v>0.876776</v>
       </c>
       <c r="C99" t="n">
-        <v>1.16628</v>
+        <v>1.04327</v>
       </c>
       <c r="D99" t="n">
-        <v>1.19206</v>
+        <v>1.16044</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.862994</v>
+        <v>0.866685</v>
       </c>
       <c r="C100" t="n">
-        <v>1.15409</v>
+        <v>1.02524</v>
       </c>
       <c r="D100" t="n">
-        <v>1.17131</v>
+        <v>1.13963</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.853168</v>
+        <v>0.855748</v>
       </c>
       <c r="C101" t="n">
-        <v>1.14113</v>
+        <v>1.00816</v>
       </c>
       <c r="D101" t="n">
-        <v>1.15311</v>
+        <v>1.11969</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.8435550000000001</v>
+        <v>0.846685</v>
       </c>
       <c r="C102" t="n">
-        <v>1.12934</v>
+        <v>0.992542</v>
       </c>
       <c r="D102" t="n">
-        <v>1.13423</v>
+        <v>1.10145</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.8345860000000001</v>
+        <v>0.837863</v>
       </c>
       <c r="C103" t="n">
-        <v>1.11607</v>
+        <v>0.977518</v>
       </c>
       <c r="D103" t="n">
-        <v>1.11748</v>
+        <v>1.08351</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.826916</v>
+        <v>0.829973</v>
       </c>
       <c r="C104" t="n">
-        <v>1.10458</v>
+        <v>0.963808</v>
       </c>
       <c r="D104" t="n">
-        <v>1.10128</v>
+        <v>1.06667</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.819735</v>
+        <v>0.822685</v>
       </c>
       <c r="C105" t="n">
-        <v>1.09451</v>
+        <v>0.950335</v>
       </c>
       <c r="D105" t="n">
-        <v>1.08596</v>
+        <v>1.05119</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.8138919999999999</v>
+        <v>0.816385</v>
       </c>
       <c r="C106" t="n">
-        <v>1.08421</v>
+        <v>0.937988</v>
       </c>
       <c r="D106" t="n">
-        <v>1.07284</v>
+        <v>1.03646</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.809535</v>
+        <v>0.811748</v>
       </c>
       <c r="C107" t="n">
-        <v>1.07754</v>
+        <v>0.927281</v>
       </c>
       <c r="D107" t="n">
-        <v>1.06078</v>
+        <v>1.02302</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.807404</v>
+        <v>0.809042</v>
       </c>
       <c r="C108" t="n">
-        <v>1.07037</v>
+        <v>0.918786</v>
       </c>
       <c r="D108" t="n">
-        <v>1.44806</v>
+        <v>1.4125</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.808291</v>
+        <v>0.809779</v>
       </c>
       <c r="C109" t="n">
-        <v>1.06598</v>
+        <v>0.913376</v>
       </c>
       <c r="D109" t="n">
-        <v>1.44032</v>
+        <v>1.40327</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.0361</v>
+        <v>1.03714</v>
       </c>
       <c r="C110" t="n">
-        <v>1.41565</v>
+        <v>1.25688</v>
       </c>
       <c r="D110" t="n">
-        <v>1.42641</v>
+        <v>1.38822</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.02366</v>
+        <v>1.02513</v>
       </c>
       <c r="C111" t="n">
-        <v>1.40361</v>
+        <v>1.23916</v>
       </c>
       <c r="D111" t="n">
-        <v>1.41352</v>
+        <v>1.37507</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.01081</v>
+        <v>1.01306</v>
       </c>
       <c r="C112" t="n">
-        <v>1.3938</v>
+        <v>1.22233</v>
       </c>
       <c r="D112" t="n">
-        <v>1.40084</v>
+        <v>1.36209</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.9991370000000001</v>
+        <v>1.00087</v>
       </c>
       <c r="C113" t="n">
-        <v>1.38448</v>
+        <v>1.20411</v>
       </c>
       <c r="D113" t="n">
-        <v>1.38905</v>
+        <v>1.3487</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.987744</v>
+        <v>0.989252</v>
       </c>
       <c r="C114" t="n">
-        <v>1.37442</v>
+        <v>1.18731</v>
       </c>
       <c r="D114" t="n">
-        <v>1.37727</v>
+        <v>1.33725</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.9764969999999999</v>
+        <v>0.978681</v>
       </c>
       <c r="C115" t="n">
-        <v>1.36509</v>
+        <v>1.17146</v>
       </c>
       <c r="D115" t="n">
-        <v>1.36448</v>
+        <v>1.32402</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.966674</v>
+        <v>0.968946</v>
       </c>
       <c r="C116" t="n">
-        <v>1.35734</v>
+        <v>1.15735</v>
       </c>
       <c r="D116" t="n">
-        <v>1.35554</v>
+        <v>1.3124</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.9578989999999999</v>
+        <v>0.961831</v>
       </c>
       <c r="C117" t="n">
-        <v>1.34891</v>
+        <v>1.1449</v>
       </c>
       <c r="D117" t="n">
-        <v>1.3447</v>
+        <v>1.30465</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.9493549999999999</v>
+        <v>0.953923</v>
       </c>
       <c r="C118" t="n">
-        <v>1.34099</v>
+        <v>1.13198</v>
       </c>
       <c r="D118" t="n">
-        <v>1.33585</v>
+        <v>1.29555</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.941982</v>
+        <v>0.94613</v>
       </c>
       <c r="C119" t="n">
-        <v>1.3363</v>
+        <v>1.121</v>
       </c>
       <c r="D119" t="n">
-        <v>1.32733</v>
+        <v>1.28579</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.935905</v>
+        <v>0.940271</v>
       </c>
       <c r="C120" t="n">
-        <v>1.32956</v>
+        <v>1.11005</v>
       </c>
       <c r="D120" t="n">
-        <v>1.31837</v>
+        <v>1.27529</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.931797</v>
+        <v>0.935187</v>
       </c>
       <c r="C121" t="n">
-        <v>1.32417</v>
+        <v>1.09949</v>
       </c>
       <c r="D121" t="n">
-        <v>1.30989</v>
+        <v>1.26547</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.928774</v>
+        <v>0.932819</v>
       </c>
       <c r="C122" t="n">
-        <v>1.32005</v>
+        <v>1.09319</v>
       </c>
       <c r="D122" t="n">
-        <v>1.30445</v>
+        <v>1.25816</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.929294</v>
+        <v>0.933254</v>
       </c>
       <c r="C123" t="n">
-        <v>1.31724</v>
+        <v>1.08713</v>
       </c>
       <c r="D123" t="n">
-        <v>1.68849</v>
+        <v>1.64455</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.15886</v>
+        <v>1.16315</v>
       </c>
       <c r="C124" t="n">
-        <v>1.6649</v>
+        <v>1.43399</v>
       </c>
       <c r="D124" t="n">
-        <v>1.67313</v>
+        <v>1.63087</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.14748</v>
+        <v>1.15207</v>
       </c>
       <c r="C125" t="n">
-        <v>1.65045</v>
+        <v>1.41686</v>
       </c>
       <c r="D125" t="n">
-        <v>1.65958</v>
+        <v>1.61539</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.13619</v>
+        <v>1.14001</v>
       </c>
       <c r="C126" t="n">
-        <v>1.63573</v>
+        <v>1.40111</v>
       </c>
       <c r="D126" t="n">
-        <v>1.64426</v>
+        <v>1.60349</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.12591</v>
+        <v>1.12961</v>
       </c>
       <c r="C127" t="n">
-        <v>1.62513</v>
+        <v>1.38528</v>
       </c>
       <c r="D127" t="n">
-        <v>1.63142</v>
+        <v>1.58903</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.11631</v>
+        <v>1.12008</v>
       </c>
       <c r="C128" t="n">
-        <v>1.61351</v>
+        <v>1.37111</v>
       </c>
       <c r="D128" t="n">
-        <v>1.62365</v>
+        <v>1.57837</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.10785</v>
+        <v>1.11101</v>
       </c>
       <c r="C129" t="n">
-        <v>1.60077</v>
+        <v>1.35768</v>
       </c>
       <c r="D129" t="n">
-        <v>1.60683</v>
+        <v>1.56937</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.09875</v>
+        <v>1.10229</v>
       </c>
       <c r="C130" t="n">
-        <v>1.59259</v>
+        <v>1.34575</v>
       </c>
       <c r="D130" t="n">
-        <v>1.59599</v>
+        <v>1.56143</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.09178</v>
+        <v>1.09476</v>
       </c>
       <c r="C131" t="n">
-        <v>1.58437</v>
+        <v>1.33461</v>
       </c>
       <c r="D131" t="n">
-        <v>1.5859</v>
+        <v>1.54834</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.08615</v>
+        <v>1.08859</v>
       </c>
       <c r="C132" t="n">
-        <v>1.5706</v>
+        <v>1.32366</v>
       </c>
       <c r="D132" t="n">
-        <v>1.57783</v>
+        <v>1.54094</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.07983</v>
+        <v>1.08361</v>
       </c>
       <c r="C133" t="n">
-        <v>1.56958</v>
+        <v>1.3153</v>
       </c>
       <c r="D133" t="n">
-        <v>1.5689</v>
+        <v>1.52997</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.07616</v>
+        <v>1.07974</v>
       </c>
       <c r="C134" t="n">
-        <v>1.56335</v>
+        <v>1.30735</v>
       </c>
       <c r="D134" t="n">
-        <v>1.56545</v>
+        <v>1.52583</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.07375</v>
+        <v>1.07737</v>
       </c>
       <c r="C135" t="n">
-        <v>1.56051</v>
+        <v>1.29999</v>
       </c>
       <c r="D135" t="n">
-        <v>1.55672</v>
+        <v>1.51829</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.0733</v>
+        <v>1.07659</v>
       </c>
       <c r="C136" t="n">
-        <v>1.55606</v>
+        <v>1.2946</v>
       </c>
       <c r="D136" t="n">
-        <v>1.55554</v>
+        <v>1.51088</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.07505</v>
+        <v>1.07725</v>
       </c>
       <c r="C137" t="n">
-        <v>1.55105</v>
+        <v>1.28947</v>
       </c>
       <c r="D137" t="n">
-        <v>1.93466</v>
+        <v>1.89179</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.30098</v>
+        <v>1.30496</v>
       </c>
       <c r="C138" t="n">
-        <v>1.88872</v>
+        <v>1.63335</v>
       </c>
       <c r="D138" t="n">
-        <v>1.91272</v>
+        <v>1.87324</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.29197</v>
+        <v>1.2957</v>
       </c>
       <c r="C139" t="n">
-        <v>1.87407</v>
+        <v>1.61903</v>
       </c>
       <c r="D139" t="n">
-        <v>1.89334</v>
+        <v>1.8561</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.28378</v>
+        <v>1.28705</v>
       </c>
       <c r="C140" t="n">
-        <v>1.8599</v>
+        <v>1.60551</v>
       </c>
       <c r="D140" t="n">
-        <v>1.87829</v>
+        <v>1.83735</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.27531</v>
+        <v>1.27982</v>
       </c>
       <c r="C141" t="n">
-        <v>1.84316</v>
+        <v>1.59376</v>
       </c>
       <c r="D141" t="n">
-        <v>1.86089</v>
+        <v>1.82069</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.2682</v>
+        <v>1.27241</v>
       </c>
       <c r="C142" t="n">
-        <v>1.82831</v>
+        <v>1.58135</v>
       </c>
       <c r="D142" t="n">
-        <v>1.84423</v>
+        <v>1.80363</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.26206</v>
+        <v>1.26604</v>
       </c>
       <c r="C143" t="n">
-        <v>1.81377</v>
+        <v>1.57095</v>
       </c>
       <c r="D143" t="n">
-        <v>1.82987</v>
+        <v>1.79101</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.484206</v>
+        <v>0.482287</v>
       </c>
       <c r="C2" t="n">
-        <v>0.602114</v>
+        <v>0.585862</v>
       </c>
       <c r="D2" t="n">
-        <v>0.728795</v>
+        <v>0.709507</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.469389</v>
+        <v>0.4734</v>
       </c>
       <c r="C3" t="n">
-        <v>0.584593</v>
+        <v>0.577138</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7087</v>
+        <v>0.690595</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.458434</v>
+        <v>0.462368</v>
       </c>
       <c r="C4" t="n">
-        <v>0.568265</v>
+        <v>0.570564</v>
       </c>
       <c r="D4" t="n">
-        <v>0.689669</v>
+        <v>0.673247</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.449367</v>
+        <v>0.452622</v>
       </c>
       <c r="C5" t="n">
-        <v>0.552314</v>
+        <v>0.566211</v>
       </c>
       <c r="D5" t="n">
-        <v>0.673084</v>
+        <v>0.657385</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.441888</v>
+        <v>0.445717</v>
       </c>
       <c r="C6" t="n">
-        <v>0.539404</v>
+        <v>0.563151</v>
       </c>
       <c r="D6" t="n">
-        <v>0.657056</v>
+        <v>0.641938</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.435921</v>
+        <v>0.439953</v>
       </c>
       <c r="C7" t="n">
-        <v>0.52649</v>
+        <v>0.562297</v>
       </c>
       <c r="D7" t="n">
-        <v>0.643635</v>
+        <v>0.629417</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.432676</v>
+        <v>0.437012</v>
       </c>
       <c r="C8" t="n">
-        <v>0.51744</v>
+        <v>0.670007</v>
       </c>
       <c r="D8" t="n">
-        <v>0.632344</v>
+        <v>0.618702</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.432324</v>
+        <v>0.437647</v>
       </c>
       <c r="C9" t="n">
-        <v>0.509475</v>
+        <v>0.652575</v>
       </c>
       <c r="D9" t="n">
-        <v>0.94406</v>
+        <v>0.915394</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.568686</v>
+        <v>0.573296</v>
       </c>
       <c r="C10" t="n">
-        <v>0.738443</v>
+        <v>0.59346</v>
       </c>
       <c r="D10" t="n">
-        <v>0.913189</v>
+        <v>0.886586</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.55161</v>
+        <v>0.555489</v>
       </c>
       <c r="C11" t="n">
-        <v>0.714287</v>
+        <v>0.577386</v>
       </c>
       <c r="D11" t="n">
-        <v>0.88387</v>
+        <v>0.8581</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.535519</v>
+        <v>0.539316</v>
       </c>
       <c r="C12" t="n">
-        <v>0.69152</v>
+        <v>0.564219</v>
       </c>
       <c r="D12" t="n">
-        <v>0.855909</v>
+        <v>0.831639</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.519942</v>
+        <v>0.523661</v>
       </c>
       <c r="C13" t="n">
-        <v>0.669304</v>
+        <v>0.592815</v>
       </c>
       <c r="D13" t="n">
-        <v>0.829991</v>
+        <v>0.806749</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.504047</v>
+        <v>0.5087429999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.64844</v>
+        <v>0.58347</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8047800000000001</v>
+        <v>0.783138</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.490652</v>
+        <v>0.495331</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6296890000000001</v>
+        <v>0.5745</v>
       </c>
       <c r="D15" t="n">
-        <v>0.781161</v>
+        <v>0.760167</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.479256</v>
+        <v>0.482332</v>
       </c>
       <c r="C16" t="n">
-        <v>0.611538</v>
+        <v>0.566862</v>
       </c>
       <c r="D16" t="n">
-        <v>0.759105</v>
+        <v>0.739159</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.467124</v>
+        <v>0.470637</v>
       </c>
       <c r="C17" t="n">
-        <v>0.592979</v>
+        <v>0.559981</v>
       </c>
       <c r="D17" t="n">
-        <v>0.738021</v>
+        <v>0.719448</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.456204</v>
+        <v>0.460407</v>
       </c>
       <c r="C18" t="n">
-        <v>0.576755</v>
+        <v>0.555183</v>
       </c>
       <c r="D18" t="n">
-        <v>0.718574</v>
+        <v>0.70046</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.446179</v>
+        <v>0.450465</v>
       </c>
       <c r="C19" t="n">
-        <v>0.561916</v>
+        <v>0.552501</v>
       </c>
       <c r="D19" t="n">
-        <v>0.700051</v>
+        <v>0.683866</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.439224</v>
+        <v>0.443487</v>
       </c>
       <c r="C20" t="n">
-        <v>0.548325</v>
+        <v>0.549817</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6839769999999999</v>
+        <v>0.667685</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.433576</v>
+        <v>0.437628</v>
       </c>
       <c r="C21" t="n">
-        <v>0.535639</v>
+        <v>0.549169</v>
       </c>
       <c r="D21" t="n">
-        <v>0.669671</v>
+        <v>0.654251</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.430664</v>
+        <v>0.43416</v>
       </c>
       <c r="C22" t="n">
-        <v>0.52477</v>
+        <v>0.672211</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6584410000000001</v>
+        <v>0.644581</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.430654</v>
+        <v>0.435533</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5157389999999999</v>
+        <v>0.656548</v>
       </c>
       <c r="D23" t="n">
-        <v>0.98316</v>
+        <v>0.954831</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.618548</v>
+        <v>0.624115</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7936530000000001</v>
+        <v>0.645739</v>
       </c>
       <c r="D24" t="n">
-        <v>0.951026</v>
+        <v>0.924907</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.599658</v>
+        <v>0.605314</v>
       </c>
       <c r="C25" t="n">
-        <v>0.767384</v>
+        <v>0.631574</v>
       </c>
       <c r="D25" t="n">
-        <v>0.92071</v>
+        <v>0.896045</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.581848</v>
+        <v>0.5864279999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.742861</v>
+        <v>0.6188940000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8911750000000001</v>
+        <v>0.868183</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.563466</v>
+        <v>0.569169</v>
       </c>
       <c r="C27" t="n">
-        <v>0.718849</v>
+        <v>0.648257</v>
       </c>
       <c r="D27" t="n">
-        <v>0.864567</v>
+        <v>0.841466</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.548139</v>
+        <v>0.552991</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6970150000000001</v>
+        <v>0.635229</v>
       </c>
       <c r="D28" t="n">
-        <v>0.838324</v>
+        <v>0.817329</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.532408</v>
+        <v>0.537506</v>
       </c>
       <c r="C29" t="n">
-        <v>0.675272</v>
+        <v>0.628458</v>
       </c>
       <c r="D29" t="n">
-        <v>0.813402</v>
+        <v>0.793703</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.518273</v>
+        <v>0.522447</v>
       </c>
       <c r="C30" t="n">
-        <v>0.655138</v>
+        <v>0.619063</v>
       </c>
       <c r="D30" t="n">
-        <v>0.789913</v>
+        <v>0.771329</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.505019</v>
+        <v>0.508849</v>
       </c>
       <c r="C31" t="n">
-        <v>0.635601</v>
+        <v>0.6057090000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.767751</v>
+        <v>0.750514</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.492565</v>
+        <v>0.49651</v>
       </c>
       <c r="C32" t="n">
-        <v>0.618028</v>
+        <v>0.599869</v>
       </c>
       <c r="D32" t="n">
-        <v>0.746958</v>
+        <v>0.730263</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.481558</v>
+        <v>0.485505</v>
       </c>
       <c r="C33" t="n">
-        <v>0.600726</v>
+        <v>0.597742</v>
       </c>
       <c r="D33" t="n">
-        <v>0.728128</v>
+        <v>0.712607</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.471445</v>
+        <v>0.474462</v>
       </c>
       <c r="C34" t="n">
-        <v>0.586175</v>
+        <v>0.59383</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7114819999999999</v>
+        <v>0.696069</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.464052</v>
+        <v>0.46855</v>
       </c>
       <c r="C35" t="n">
-        <v>0.570927</v>
+        <v>0.593589</v>
       </c>
       <c r="D35" t="n">
-        <v>0.696033</v>
+        <v>0.6812</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.458579</v>
+        <v>0.462629</v>
       </c>
       <c r="C36" t="n">
-        <v>0.558825</v>
+        <v>0.591625</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6832819999999999</v>
+        <v>0.669045</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.455895</v>
+        <v>0.457974</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5484830000000001</v>
+        <v>0.745098</v>
       </c>
       <c r="D37" t="n">
-        <v>1.0138</v>
+        <v>0.990685</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.649208</v>
+        <v>0.652631</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8292119999999999</v>
+        <v>0.724506</v>
       </c>
       <c r="D38" t="n">
-        <v>0.981212</v>
+        <v>0.9593930000000001</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.629785</v>
+        <v>0.632059</v>
       </c>
       <c r="C39" t="n">
-        <v>0.802993</v>
+        <v>0.705839</v>
       </c>
       <c r="D39" t="n">
-        <v>0.950785</v>
+        <v>0.929171</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6113730000000001</v>
+        <v>0.61261</v>
       </c>
       <c r="C40" t="n">
-        <v>0.777305</v>
+        <v>0.693483</v>
       </c>
       <c r="D40" t="n">
-        <v>0.920527</v>
+        <v>0.901048</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5932269999999999</v>
+        <v>0.596239</v>
       </c>
       <c r="C41" t="n">
-        <v>0.752225</v>
+        <v>0.720475</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8929</v>
+        <v>0.873824</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.576348</v>
+        <v>0.578474</v>
       </c>
       <c r="C42" t="n">
-        <v>0.729905</v>
+        <v>0.7068759999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.878328</v>
+        <v>0.848337</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.567897</v>
+        <v>0.562859</v>
       </c>
       <c r="C43" t="n">
-        <v>0.716518</v>
+        <v>0.691578</v>
       </c>
       <c r="D43" t="n">
-        <v>0.853147</v>
+        <v>0.823718</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.553658</v>
+        <v>0.545725</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6901659999999999</v>
+        <v>0.678424</v>
       </c>
       <c r="D44" t="n">
-        <v>0.820429</v>
+        <v>0.800269</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.530372</v>
+        <v>0.532903</v>
       </c>
       <c r="C45" t="n">
-        <v>0.666996</v>
+        <v>0.666977</v>
       </c>
       <c r="D45" t="n">
-        <v>0.794304</v>
+        <v>0.778284</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5173219999999999</v>
+        <v>0.520359</v>
       </c>
       <c r="C46" t="n">
-        <v>0.649014</v>
+        <v>0.660956</v>
       </c>
       <c r="D46" t="n">
-        <v>0.773163</v>
+        <v>0.7578859999999999</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.50362</v>
+        <v>0.507632</v>
       </c>
       <c r="C47" t="n">
-        <v>0.631926</v>
+        <v>0.654366</v>
       </c>
       <c r="D47" t="n">
-        <v>0.753509</v>
+        <v>0.738417</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.495543</v>
+        <v>0.497959</v>
       </c>
       <c r="C48" t="n">
-        <v>0.614173</v>
+        <v>0.645537</v>
       </c>
       <c r="D48" t="n">
-        <v>0.73466</v>
+        <v>0.720905</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.487889</v>
+        <v>0.487145</v>
       </c>
       <c r="C49" t="n">
-        <v>0.60057</v>
+        <v>0.645909</v>
       </c>
       <c r="D49" t="n">
-        <v>0.71875</v>
+        <v>0.705029</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.481164</v>
+        <v>0.48258</v>
       </c>
       <c r="C50" t="n">
-        <v>0.585086</v>
+        <v>0.644759</v>
       </c>
       <c r="D50" t="n">
-        <v>0.704539</v>
+        <v>0.690885</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.47892</v>
+        <v>0.478541</v>
       </c>
       <c r="C51" t="n">
-        <v>0.580477</v>
+        <v>0.834111</v>
       </c>
       <c r="D51" t="n">
-        <v>1.06397</v>
+        <v>1.03594</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.48155</v>
+        <v>0.478893</v>
       </c>
       <c r="C52" t="n">
-        <v>0.57317</v>
+        <v>0.812734</v>
       </c>
       <c r="D52" t="n">
-        <v>1.02605</v>
+        <v>1.00483</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.673434</v>
+        <v>0.657914</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8478250000000001</v>
+        <v>0.791705</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9924460000000001</v>
+        <v>0.975403</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.654419</v>
+        <v>0.639093</v>
       </c>
       <c r="C54" t="n">
-        <v>0.819843</v>
+        <v>0.771714</v>
       </c>
       <c r="D54" t="n">
-        <v>0.961663</v>
+        <v>0.946261</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.637277</v>
+        <v>0.619993</v>
       </c>
       <c r="C55" t="n">
-        <v>0.795804</v>
+        <v>0.754092</v>
       </c>
       <c r="D55" t="n">
-        <v>0.933679</v>
+        <v>0.916844</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.619155</v>
+        <v>0.603666</v>
       </c>
       <c r="C56" t="n">
-        <v>0.770358</v>
+        <v>0.780918</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9048850000000001</v>
+        <v>0.8906500000000001</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.603621</v>
+        <v>0.586699</v>
       </c>
       <c r="C57" t="n">
-        <v>0.74171</v>
+        <v>0.76383</v>
       </c>
       <c r="D57" t="n">
-        <v>0.87095</v>
+        <v>0.867242</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.574136</v>
+        <v>0.57104</v>
       </c>
       <c r="C58" t="n">
-        <v>0.719176</v>
+        <v>0.748192</v>
       </c>
       <c r="D58" t="n">
-        <v>0.847011</v>
+        <v>0.8416130000000001</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5608300000000001</v>
+        <v>0.556803</v>
       </c>
       <c r="C59" t="n">
-        <v>0.702088</v>
+        <v>0.736811</v>
       </c>
       <c r="D59" t="n">
-        <v>0.824712</v>
+        <v>0.8206290000000001</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.544614</v>
+        <v>0.543054</v>
       </c>
       <c r="C60" t="n">
-        <v>0.678817</v>
+        <v>0.72422</v>
       </c>
       <c r="D60" t="n">
-        <v>0.80294</v>
+        <v>0.799264</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.540164</v>
+        <v>0.531927</v>
       </c>
       <c r="C61" t="n">
-        <v>0.6631359999999999</v>
+        <v>0.713917</v>
       </c>
       <c r="D61" t="n">
-        <v>0.782789</v>
+        <v>0.778658</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.524208</v>
+        <v>0.520614</v>
       </c>
       <c r="C62" t="n">
-        <v>0.647398</v>
+        <v>0.70585</v>
       </c>
       <c r="D62" t="n">
-        <v>0.764745</v>
+        <v>0.759034</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.515575</v>
+        <v>0.512085</v>
       </c>
       <c r="C63" t="n">
-        <v>0.632576</v>
+        <v>0.701291</v>
       </c>
       <c r="D63" t="n">
-        <v>0.747974</v>
+        <v>0.74251</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.508986</v>
+        <v>0.505813</v>
       </c>
       <c r="C64" t="n">
-        <v>0.618703</v>
+        <v>0.695029</v>
       </c>
       <c r="D64" t="n">
-        <v>0.733353</v>
+        <v>0.72703</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.504862</v>
+        <v>0.501394</v>
       </c>
       <c r="C65" t="n">
-        <v>0.60641</v>
+        <v>0.9346139999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>0.721021</v>
+        <v>0.715814</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.503252</v>
+        <v>0.500241</v>
       </c>
       <c r="C66" t="n">
-        <v>0.597048</v>
+        <v>0.90769</v>
       </c>
       <c r="D66" t="n">
-        <v>1.0793</v>
+        <v>1.07576</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.7320759999999999</v>
+        <v>0.71285</v>
       </c>
       <c r="C67" t="n">
-        <v>0.916187</v>
+        <v>0.884399</v>
       </c>
       <c r="D67" t="n">
-        <v>1.04681</v>
+        <v>1.04498</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.715996</v>
+        <v>0.696109</v>
       </c>
       <c r="C68" t="n">
-        <v>0.88955</v>
+        <v>0.858945</v>
       </c>
       <c r="D68" t="n">
-        <v>1.0158</v>
+        <v>1.01583</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.698169</v>
+        <v>0.6788689999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.863619</v>
+        <v>0.840496</v>
       </c>
       <c r="D69" t="n">
-        <v>0.986648</v>
+        <v>0.984375</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.684013</v>
+        <v>0.662892</v>
       </c>
       <c r="C70" t="n">
-        <v>0.839002</v>
+        <v>0.87586</v>
       </c>
       <c r="D70" t="n">
-        <v>0.957665</v>
+        <v>0.957952</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.665343</v>
+        <v>0.6479009999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>0.814005</v>
+        <v>0.859194</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9308999999999999</v>
+        <v>0.93336</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.650266</v>
+        <v>0.634377</v>
       </c>
       <c r="C72" t="n">
-        <v>0.788048</v>
+        <v>0.8395629999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.903659</v>
+        <v>0.9084410000000001</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.635441</v>
+        <v>0.620539</v>
       </c>
       <c r="C73" t="n">
-        <v>0.771308</v>
+        <v>0.822864</v>
       </c>
       <c r="D73" t="n">
-        <v>0.88196</v>
+        <v>0.885798</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.6276</v>
+        <v>0.607303</v>
       </c>
       <c r="C74" t="n">
-        <v>0.750492</v>
+        <v>0.807103</v>
       </c>
       <c r="D74" t="n">
-        <v>0.85931</v>
+        <v>0.86175</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.6161219999999999</v>
+        <v>0.594942</v>
       </c>
       <c r="C75" t="n">
-        <v>0.731694</v>
+        <v>0.794164</v>
       </c>
       <c r="D75" t="n">
-        <v>0.83821</v>
+        <v>0.840166</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.604125</v>
+        <v>0.583969</v>
       </c>
       <c r="C76" t="n">
-        <v>0.713802</v>
+        <v>0.782591</v>
       </c>
       <c r="D76" t="n">
-        <v>0.817639</v>
+        <v>0.820528</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.593336</v>
+        <v>0.574759</v>
       </c>
       <c r="C77" t="n">
-        <v>0.696701</v>
+        <v>0.773975</v>
       </c>
       <c r="D77" t="n">
-        <v>0.79915</v>
+        <v>0.803682</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.58458</v>
+        <v>0.568259</v>
       </c>
       <c r="C78" t="n">
-        <v>0.682095</v>
+        <v>0.767914</v>
       </c>
       <c r="D78" t="n">
-        <v>0.78268</v>
+        <v>0.787413</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.576318</v>
+        <v>0.561199</v>
       </c>
       <c r="C79" t="n">
-        <v>0.666239</v>
+        <v>1.0473</v>
       </c>
       <c r="D79" t="n">
-        <v>0.768241</v>
+        <v>0.774558</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.572245</v>
+        <v>0.559257</v>
       </c>
       <c r="C80" t="n">
-        <v>0.656133</v>
+        <v>1.01456</v>
       </c>
       <c r="D80" t="n">
-        <v>1.15108</v>
+        <v>1.16394</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.798122</v>
+        <v>0.784887</v>
       </c>
       <c r="C81" t="n">
-        <v>0.995351</v>
+        <v>0.987658</v>
       </c>
       <c r="D81" t="n">
-        <v>1.1304</v>
+        <v>1.14337</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.790424</v>
+        <v>0.779338</v>
       </c>
       <c r="C82" t="n">
-        <v>0.979895</v>
+        <v>0.959403</v>
       </c>
       <c r="D82" t="n">
-        <v>1.10769</v>
+        <v>1.12081</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.780212</v>
+        <v>0.772131</v>
       </c>
       <c r="C83" t="n">
-        <v>0.960432</v>
+        <v>0.935325</v>
       </c>
       <c r="D83" t="n">
-        <v>1.0828</v>
+        <v>1.09785</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.7695380000000001</v>
+        <v>0.761184</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9400539999999999</v>
+        <v>0.979997</v>
       </c>
       <c r="D84" t="n">
-        <v>1.05726</v>
+        <v>1.07227</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.758126</v>
+        <v>0.749326</v>
       </c>
       <c r="C85" t="n">
-        <v>0.919365</v>
+        <v>0.967936</v>
       </c>
       <c r="D85" t="n">
-        <v>1.03171</v>
+        <v>1.04683</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.747357</v>
+        <v>0.738737</v>
       </c>
       <c r="C86" t="n">
-        <v>0.898488</v>
+        <v>0.953696</v>
       </c>
       <c r="D86" t="n">
-        <v>1.00575</v>
+        <v>1.01806</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.735395</v>
+        <v>0.728427</v>
       </c>
       <c r="C87" t="n">
-        <v>0.877024</v>
+        <v>0.937663</v>
       </c>
       <c r="D87" t="n">
-        <v>0.980864</v>
+        <v>0.995028</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.723834</v>
+        <v>0.717936</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8564040000000001</v>
+        <v>0.9208499999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>0.956801</v>
+        <v>0.971387</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.713457</v>
+        <v>0.7086519999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>0.838264</v>
+        <v>0.90555</v>
       </c>
       <c r="D89" t="n">
-        <v>0.933565</v>
+        <v>0.949447</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.704112</v>
+        <v>0.699688</v>
       </c>
       <c r="C90" t="n">
-        <v>0.821368</v>
+        <v>0.891251</v>
       </c>
       <c r="D90" t="n">
-        <v>0.913717</v>
+        <v>0.921337</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.69546</v>
+        <v>0.690563</v>
       </c>
       <c r="C91" t="n">
-        <v>0.804127</v>
+        <v>0.878645</v>
       </c>
       <c r="D91" t="n">
-        <v>0.894086</v>
+        <v>0.906701</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.68726</v>
+        <v>0.682747</v>
       </c>
       <c r="C92" t="n">
-        <v>0.788114</v>
+        <v>0.867103</v>
       </c>
       <c r="D92" t="n">
-        <v>0.874766</v>
+        <v>0.8823530000000001</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.6806950000000001</v>
+        <v>0.676706</v>
       </c>
       <c r="C93" t="n">
-        <v>0.773777</v>
+        <v>0.861478</v>
       </c>
       <c r="D93" t="n">
-        <v>0.859888</v>
+        <v>0.872872</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.676383</v>
+        <v>0.673428</v>
       </c>
       <c r="C94" t="n">
-        <v>0.7613760000000001</v>
+        <v>1.21304</v>
       </c>
       <c r="D94" t="n">
-        <v>1.24895</v>
+        <v>1.27095</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.911309</v>
+        <v>0.905788</v>
       </c>
       <c r="C95" t="n">
-        <v>1.1045</v>
+        <v>1.18208</v>
       </c>
       <c r="D95" t="n">
-        <v>1.23984</v>
+        <v>1.25593</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.908775</v>
+        <v>0.902138</v>
       </c>
       <c r="C96" t="n">
-        <v>1.09957</v>
+        <v>1.15307</v>
       </c>
       <c r="D96" t="n">
-        <v>1.22264</v>
+        <v>1.23521</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.89854</v>
+        <v>0.893413</v>
       </c>
       <c r="C97" t="n">
-        <v>1.08222</v>
+        <v>1.1245</v>
       </c>
       <c r="D97" t="n">
-        <v>1.20377</v>
+        <v>1.21554</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.888227</v>
+        <v>0.881754</v>
       </c>
       <c r="C98" t="n">
-        <v>1.06277</v>
+        <v>1.17041</v>
       </c>
       <c r="D98" t="n">
-        <v>1.18032</v>
+        <v>1.19406</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.876776</v>
+        <v>0.871752</v>
       </c>
       <c r="C99" t="n">
-        <v>1.04327</v>
+        <v>1.15639</v>
       </c>
       <c r="D99" t="n">
-        <v>1.16044</v>
+        <v>1.17724</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.866685</v>
+        <v>0.861846</v>
       </c>
       <c r="C100" t="n">
-        <v>1.02524</v>
+        <v>1.13609</v>
       </c>
       <c r="D100" t="n">
-        <v>1.13963</v>
+        <v>1.15297</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.855748</v>
+        <v>0.852129</v>
       </c>
       <c r="C101" t="n">
-        <v>1.00816</v>
+        <v>1.12004</v>
       </c>
       <c r="D101" t="n">
-        <v>1.11969</v>
+        <v>1.13568</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.846685</v>
+        <v>0.844187</v>
       </c>
       <c r="C102" t="n">
-        <v>0.992542</v>
+        <v>1.10184</v>
       </c>
       <c r="D102" t="n">
-        <v>1.10145</v>
+        <v>1.11055</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.837863</v>
+        <v>0.835224</v>
       </c>
       <c r="C103" t="n">
-        <v>0.977518</v>
+        <v>1.084</v>
       </c>
       <c r="D103" t="n">
-        <v>1.08351</v>
+        <v>1.0986</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.829973</v>
+        <v>0.828048</v>
       </c>
       <c r="C104" t="n">
-        <v>0.963808</v>
+        <v>1.06314</v>
       </c>
       <c r="D104" t="n">
-        <v>1.06667</v>
+        <v>1.07833</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.822685</v>
+        <v>0.8214360000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>0.950335</v>
+        <v>1.05636</v>
       </c>
       <c r="D105" t="n">
-        <v>1.05119</v>
+        <v>1.05598</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.816385</v>
+        <v>0.815024</v>
       </c>
       <c r="C106" t="n">
-        <v>0.937988</v>
+        <v>1.04114</v>
       </c>
       <c r="D106" t="n">
-        <v>1.03646</v>
+        <v>1.04535</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.811748</v>
+        <v>0.810812</v>
       </c>
       <c r="C107" t="n">
-        <v>0.927281</v>
+        <v>1.04359</v>
       </c>
       <c r="D107" t="n">
-        <v>1.02302</v>
+        <v>1.03546</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.809042</v>
+        <v>0.809109</v>
       </c>
       <c r="C108" t="n">
-        <v>0.918786</v>
+        <v>1.49591</v>
       </c>
       <c r="D108" t="n">
-        <v>1.4125</v>
+        <v>1.43245</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.809779</v>
+        <v>0.810207</v>
       </c>
       <c r="C109" t="n">
-        <v>0.913376</v>
+        <v>1.46022</v>
       </c>
       <c r="D109" t="n">
-        <v>1.40327</v>
+        <v>1.41573</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.03714</v>
+        <v>1.03552</v>
       </c>
       <c r="C110" t="n">
-        <v>1.25688</v>
+        <v>1.429</v>
       </c>
       <c r="D110" t="n">
-        <v>1.38822</v>
+        <v>1.40261</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.02513</v>
+        <v>1.02326</v>
       </c>
       <c r="C111" t="n">
-        <v>1.23916</v>
+        <v>1.41108</v>
       </c>
       <c r="D111" t="n">
-        <v>1.37507</v>
+        <v>1.39202</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.01306</v>
+        <v>1.01141</v>
       </c>
       <c r="C112" t="n">
-        <v>1.22233</v>
+        <v>1.42857</v>
       </c>
       <c r="D112" t="n">
-        <v>1.36209</v>
+        <v>1.37791</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.00087</v>
+        <v>0.999787</v>
       </c>
       <c r="C113" t="n">
-        <v>1.20411</v>
+        <v>1.41901</v>
       </c>
       <c r="D113" t="n">
-        <v>1.3487</v>
+        <v>1.35723</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.989252</v>
+        <v>0.988662</v>
       </c>
       <c r="C114" t="n">
-        <v>1.18731</v>
+        <v>1.39254</v>
       </c>
       <c r="D114" t="n">
-        <v>1.33725</v>
+        <v>1.35156</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.978681</v>
+        <v>0.978949</v>
       </c>
       <c r="C115" t="n">
-        <v>1.17146</v>
+        <v>1.36977</v>
       </c>
       <c r="D115" t="n">
-        <v>1.32402</v>
+        <v>1.33816</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.968946</v>
+        <v>0.968689</v>
       </c>
       <c r="C116" t="n">
-        <v>1.15735</v>
+        <v>1.33565</v>
       </c>
       <c r="D116" t="n">
-        <v>1.3124</v>
+        <v>1.3198</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.961831</v>
+        <v>0.960512</v>
       </c>
       <c r="C117" t="n">
-        <v>1.1449</v>
+        <v>1.32291</v>
       </c>
       <c r="D117" t="n">
-        <v>1.30465</v>
+        <v>1.30459</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.953923</v>
+        <v>0.9518</v>
       </c>
       <c r="C118" t="n">
-        <v>1.13198</v>
+        <v>1.32019</v>
       </c>
       <c r="D118" t="n">
-        <v>1.29555</v>
+        <v>1.3043</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.94613</v>
+        <v>0.945635</v>
       </c>
       <c r="C119" t="n">
-        <v>1.121</v>
+        <v>1.30961</v>
       </c>
       <c r="D119" t="n">
-        <v>1.28579</v>
+        <v>1.29335</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.940271</v>
+        <v>0.939736</v>
       </c>
       <c r="C120" t="n">
-        <v>1.11005</v>
+        <v>1.30445</v>
       </c>
       <c r="D120" t="n">
-        <v>1.27529</v>
+        <v>1.28399</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.935187</v>
+        <v>0.9347839999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>1.09949</v>
+        <v>1.28577</v>
       </c>
       <c r="D121" t="n">
-        <v>1.26547</v>
+        <v>1.27485</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.932819</v>
+        <v>0.934001</v>
       </c>
       <c r="C122" t="n">
-        <v>1.09319</v>
+        <v>1.82289</v>
       </c>
       <c r="D122" t="n">
-        <v>1.25816</v>
+        <v>1.26475</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.933254</v>
+        <v>0.9328689999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>1.08713</v>
+        <v>1.77957</v>
       </c>
       <c r="D123" t="n">
-        <v>1.64455</v>
+        <v>1.6456</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.16315</v>
+        <v>1.16054</v>
       </c>
       <c r="C124" t="n">
-        <v>1.43399</v>
+        <v>1.73861</v>
       </c>
       <c r="D124" t="n">
-        <v>1.63087</v>
+        <v>1.63119</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.15207</v>
+        <v>1.1496</v>
       </c>
       <c r="C125" t="n">
-        <v>1.41686</v>
+        <v>1.70146</v>
       </c>
       <c r="D125" t="n">
-        <v>1.61539</v>
+        <v>1.63124</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.14001</v>
+        <v>1.13943</v>
       </c>
       <c r="C126" t="n">
-        <v>1.40111</v>
+        <v>1.66139</v>
       </c>
       <c r="D126" t="n">
-        <v>1.60349</v>
+        <v>1.61647</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.12961</v>
+        <v>1.12942</v>
       </c>
       <c r="C127" t="n">
-        <v>1.38528</v>
+        <v>1.6741</v>
       </c>
       <c r="D127" t="n">
-        <v>1.58903</v>
+        <v>1.6025</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.12008</v>
+        <v>1.11984</v>
       </c>
       <c r="C128" t="n">
-        <v>1.37111</v>
+        <v>1.64426</v>
       </c>
       <c r="D128" t="n">
-        <v>1.57837</v>
+        <v>1.58709</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.11101</v>
+        <v>1.11108</v>
       </c>
       <c r="C129" t="n">
-        <v>1.35768</v>
+        <v>1.61869</v>
       </c>
       <c r="D129" t="n">
-        <v>1.56937</v>
+        <v>1.57849</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.10229</v>
+        <v>1.1037</v>
       </c>
       <c r="C130" t="n">
-        <v>1.34575</v>
+        <v>1.58879</v>
       </c>
       <c r="D130" t="n">
-        <v>1.56143</v>
+        <v>1.5622</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.09476</v>
+        <v>1.09666</v>
       </c>
       <c r="C131" t="n">
-        <v>1.33461</v>
+        <v>1.56415</v>
       </c>
       <c r="D131" t="n">
-        <v>1.54834</v>
+        <v>1.56007</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.08859</v>
+        <v>1.0906</v>
       </c>
       <c r="C132" t="n">
-        <v>1.32366</v>
+        <v>1.53966</v>
       </c>
       <c r="D132" t="n">
-        <v>1.54094</v>
+        <v>1.55204</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.08361</v>
+        <v>1.08503</v>
       </c>
       <c r="C133" t="n">
-        <v>1.3153</v>
+        <v>1.52579</v>
       </c>
       <c r="D133" t="n">
-        <v>1.52997</v>
+        <v>1.54196</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.07974</v>
+        <v>1.08136</v>
       </c>
       <c r="C134" t="n">
-        <v>1.30735</v>
+        <v>1.52032</v>
       </c>
       <c r="D134" t="n">
-        <v>1.52583</v>
+        <v>1.53467</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.07737</v>
+        <v>1.07958</v>
       </c>
       <c r="C135" t="n">
-        <v>1.29999</v>
+        <v>1.52089</v>
       </c>
       <c r="D135" t="n">
-        <v>1.51829</v>
+        <v>1.52588</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.07659</v>
+        <v>1.07887</v>
       </c>
       <c r="C136" t="n">
-        <v>1.2946</v>
+        <v>2.08199</v>
       </c>
       <c r="D136" t="n">
-        <v>1.51088</v>
+        <v>1.51897</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.07725</v>
+        <v>1.08117</v>
       </c>
       <c r="C137" t="n">
-        <v>1.28947</v>
+        <v>2.03243</v>
       </c>
       <c r="D137" t="n">
-        <v>1.89179</v>
+        <v>1.90589</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.30496</v>
+        <v>1.30584</v>
       </c>
       <c r="C138" t="n">
-        <v>1.63335</v>
+        <v>1.97635</v>
       </c>
       <c r="D138" t="n">
-        <v>1.87324</v>
+        <v>1.88874</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.2957</v>
+        <v>1.29688</v>
       </c>
       <c r="C139" t="n">
-        <v>1.61903</v>
+        <v>1.92968</v>
       </c>
       <c r="D139" t="n">
-        <v>1.8561</v>
+        <v>1.86744</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.28705</v>
+        <v>1.28929</v>
       </c>
       <c r="C140" t="n">
-        <v>1.60551</v>
+        <v>1.88412</v>
       </c>
       <c r="D140" t="n">
-        <v>1.83735</v>
+        <v>1.85571</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.27982</v>
+        <v>1.28372</v>
       </c>
       <c r="C141" t="n">
-        <v>1.59376</v>
+        <v>1.89555</v>
       </c>
       <c r="D141" t="n">
-        <v>1.82069</v>
+        <v>1.83592</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.27241</v>
+        <v>1.27511</v>
       </c>
       <c r="C142" t="n">
-        <v>1.58135</v>
+        <v>1.85374</v>
       </c>
       <c r="D142" t="n">
-        <v>1.80363</v>
+        <v>1.82489</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.26604</v>
+        <v>1.26909</v>
       </c>
       <c r="C143" t="n">
-        <v>1.57095</v>
+        <v>1.81601</v>
       </c>
       <c r="D143" t="n">
-        <v>1.79101</v>
+        <v>1.80453</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -93,7 +93,15 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +561,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.176173</v>
+                  <v>0.158876</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.170454</v>
+                  <v>0.161214</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.16664</v>
+                  <v>0.155941</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.162842</v>
+                  <v>0.151916</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.15949</v>
+                  <v>0.150106</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.157601</v>
+                  <v>0.148802</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.157526</v>
+                  <v>0.149237</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.158158</v>
+                  <v>0.140723</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.224312</v>
+                  <v>0.210905</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.216303</v>
+                  <v>0.198261</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20828</v>
+                  <v>0.204428</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.199434</v>
+                  <v>0.196456</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.192234</v>
+                  <v>0.177931</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.186342</v>
+                  <v>0.176255</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.179839</v>
+                  <v>0.170107</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.174481</v>
+                  <v>0.163874</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.169736</v>
+                  <v>0.159725</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.164781</v>
+                  <v>0.157348</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.161275</v>
+                  <v>0.151874</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.1601</v>
+                  <v>0.152381</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.160533</v>
+                  <v>0.154995</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.161606</v>
+                  <v>0.157347</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.244449</v>
+                  <v>0.237559</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.234816</v>
+                  <v>0.220873</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.226429</v>
+                  <v>0.214475</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.217678</v>
+                  <v>0.206091</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.209945</v>
+                  <v>0.197067</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.203289</v>
+                  <v>0.192214</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.196451</v>
+                  <v>0.184954</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.190226</v>
+                  <v>0.184717</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.187762</v>
+                  <v>0.176078</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.183073</v>
+                  <v>0.170965</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.179351</v>
+                  <v>0.169165</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.174756</v>
+                  <v>0.168637</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.174169</v>
+                  <v>0.167198</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.174738</v>
+                  <v>0.163541</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.249169</v>
+                  <v>0.241383</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.239482</v>
+                  <v>0.233404</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.230602</v>
+                  <v>0.225761</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.218626</v>
+                  <v>0.217497</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.210872</v>
+                  <v>0.207765</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.203724</v>
+                  <v>0.200795</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.196883</v>
+                  <v>0.19468</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.191412</v>
+                  <v>0.189512</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.18555</v>
+                  <v>0.183938</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.181005</v>
+                  <v>0.179517</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.177226</v>
+                  <v>0.17516</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.174961</v>
+                  <v>0.172927</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.173021</v>
+                  <v>0.171961</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.173452</v>
+                  <v>0.17438</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.17753</v>
+                  <v>0.178211</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.24268</v>
+                  <v>0.245341</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.233963</v>
+                  <v>0.23579</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.2252</v>
+                  <v>0.227579</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.217991</v>
+                  <v>0.219406</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.209943</v>
+                  <v>0.211736</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.203009</v>
+                  <v>0.205172</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.196908</v>
+                  <v>0.196218</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.191258</v>
+                  <v>0.190791</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.18607</v>
+                  <v>0.18588</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.182011</v>
+                  <v>0.181958</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.178467</v>
+                  <v>0.178817</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.177595</v>
+                  <v>0.177214</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.177299</v>
+                  <v>0.177436</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.180167</v>
+                  <v>0.17996</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.244646</v>
+                  <v>0.245532</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.235989</v>
+                  <v>0.236902</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.228156</v>
+                  <v>0.228132</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.220387</v>
+                  <v>0.219607</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.212482</v>
+                  <v>0.213187</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.205975</v>
+                  <v>0.206148</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.200613</v>
+                  <v>0.200273</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.194739</v>
+                  <v>0.195172</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.189617</v>
+                  <v>0.189341</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.184908</v>
+                  <v>0.185412</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.181292</v>
+                  <v>0.181546</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.178826</v>
+                  <v>0.180116</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.179163</v>
+                  <v>0.179348</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.181138</v>
+                  <v>0.182272</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.257644</v>
+                  <v>0.259263</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.249569</v>
+                  <v>0.251205</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.241893</v>
+                  <v>0.2435</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.234751</v>
+                  <v>0.235615</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.226978</v>
+                  <v>0.228388</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.219799</v>
+                  <v>0.221376</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.213375</v>
+                  <v>0.214945</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.207166</v>
+                  <v>0.208247</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.201474</v>
+                  <v>0.202942</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.19677</v>
+                  <v>0.197737</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.192537</v>
+                  <v>0.193751</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.189582</v>
+                  <v>0.190759</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.188357</v>
+                  <v>0.189849</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.18918</v>
+                  <v>0.190332</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.26912</v>
+                  <v>0.278685</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.263515</v>
+                  <v>0.272544</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.258001</v>
+                  <v>0.265182</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.251707</v>
+                  <v>0.258313</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.244324</v>
+                  <v>0.251306</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.237919</v>
+                  <v>0.244968</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.232212</v>
+                  <v>0.238935</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227439</v>
+                  <v>0.23311</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.221821</v>
+                  <v>0.227571</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.217357</v>
+                  <v>0.223329</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.213424</v>
+                  <v>0.218763</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.210226</v>
+                  <v>0.215284</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.207964</v>
+                  <v>0.213046</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.207921</v>
+                  <v>0.212911</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.209559</v>
+                  <v>0.214607</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.283981</v>
+                  <v>0.288817</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.277131</v>
+                  <v>0.28218</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.270794</v>
+                  <v>0.275825</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.264867</v>
+                  <v>0.269577</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.259794</v>
+                  <v>0.263923</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.253954</v>
+                  <v>0.258708</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.24921</v>
+                  <v>0.253064</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.244865</v>
+                  <v>0.248715</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.240339</v>
+                  <v>0.24411</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.236998</v>
+                  <v>0.240326</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.233953</v>
+                  <v>0.237178</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.231224</v>
+                  <v>0.234517</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.230513</v>
+                  <v>0.236811</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.231737</v>
+                  <v>0.234526</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.319243</v>
+                  <v>0.318667</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.313506</v>
+                  <v>0.312584</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.307885</v>
+                  <v>0.306993</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.302012</v>
+                  <v>0.301362</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.296555</v>
+                  <v>0.296711</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.291959</v>
+                  <v>0.29159</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.287332</v>
+                  <v>0.287093</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.283552</v>
+                  <v>0.283405</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.279594</v>
+                  <v>0.280238</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.276526</v>
+                  <v>0.275407</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.273541</v>
+                  <v>0.272868</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.271458</v>
+                  <v>0.270697</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.271185</v>
+                  <v>0.270941</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.271892</v>
+                  <v>0.277476</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.37228</v>
+                  <v>0.379316</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.367218</v>
+                  <v>0.373187</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.360389</v>
+                  <v>0.366806</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.354692</v>
+                  <v>0.362246</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.350179</v>
+                  <v>0.356714</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.345269</v>
+                  <v>0.352186</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +995,15 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>ankerl::unordered_dense::map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1463,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.185496</v>
+                  <v>0.242276</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.17914</v>
+                  <v>0.245317</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.170524</v>
+                  <v>0.238347</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.169499</v>
+                  <v>0.248739</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.149657</v>
+                  <v>0.239565</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.161619</v>
+                  <v>0.253177</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.160816</v>
+                  <v>0.303239</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.161312</v>
+                  <v>0.293143</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.237105</v>
+                  <v>0.289925</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.225645</v>
+                  <v>0.280454</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.217736</v>
+                  <v>0.280751</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.210439</v>
+                  <v>0.276354</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.202388</v>
+                  <v>0.277223</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.195072</v>
+                  <v>0.275769</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.188701</v>
+                  <v>0.267259</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.182715</v>
+                  <v>0.271819</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.178189</v>
+                  <v>0.267378</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.173444</v>
+                  <v>0.26539</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.169013</v>
+                  <v>0.275272</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.16628</v>
+                  <v>0.277668</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.16432</v>
+                  <v>0.335169</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.164868</v>
+                  <v>0.328025</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.244335</v>
+                  <v>0.317668</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.234904</v>
+                  <v>0.310287</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.227016</v>
+                  <v>0.303702</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.218274</v>
+                  <v>0.315946</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.211272</v>
+                  <v>0.318479</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.204111</v>
+                  <v>0.309369</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.196912</v>
+                  <v>0.300635</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.190547</v>
+                  <v>0.306206</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.187527</v>
+                  <v>0.303272</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.182838</v>
+                  <v>0.301406</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.180848</v>
+                  <v>0.300323</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.17426</v>
+                  <v>0.302527</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.172159</v>
+                  <v>0.303998</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.171778</v>
+                  <v>0.355212</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.256269</v>
+                  <v>0.348006</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.246739</v>
+                  <v>0.341682</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.23547</v>
+                  <v>0.330945</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.225397</v>
+                  <v>0.33383</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.217593</v>
+                  <v>0.3284</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.209907</v>
+                  <v>0.322896</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.202922</v>
+                  <v>0.319092</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.196554</v>
+                  <v>0.315296</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.190564</v>
+                  <v>0.311465</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.185285</v>
+                  <v>0.310595</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.180769</v>
+                  <v>0.311461</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.177066</v>
+                  <v>0.312306</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.174203</v>
+                  <v>0.315883</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.173722</v>
+                  <v>0.376165</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.175298</v>
+                  <v>0.366457</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.251635</v>
+                  <v>0.356919</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.242034</v>
+                  <v>0.348636</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.233004</v>
+                  <v>0.34225</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.225257</v>
+                  <v>0.349186</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.217553</v>
+                  <v>0.342571</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.209839</v>
+                  <v>0.338049</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.202907</v>
+                  <v>0.330812</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.197025</v>
+                  <v>0.328029</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.1914</v>
+                  <v>0.325825</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.186386</v>
+                  <v>0.325188</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.182207</v>
+                  <v>0.326234</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.179104</v>
+                  <v>0.328388</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.177727</v>
+                  <v>0.394765</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.178898</v>
+                  <v>0.383521</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.260092</v>
+                  <v>0.373421</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.251907</v>
+                  <v>0.363382</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.241291</v>
+                  <v>0.355342</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.232729</v>
+                  <v>0.359583</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.224656</v>
+                  <v>0.353516</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.216811</v>
+                  <v>0.347095</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.20989</v>
+                  <v>0.343045</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.203254</v>
+                  <v>0.33957</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.19737</v>
+                  <v>0.335342</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.192268</v>
+                  <v>0.335714</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.187689</v>
+                  <v>0.335851</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.184139</v>
+                  <v>0.337831</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.182458</v>
+                  <v>0.417771</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.182405</v>
+                  <v>0.409385</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.263051</v>
+                  <v>0.398219</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.254497</v>
+                  <v>0.388863</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.245979</v>
+                  <v>0.379638</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.237991</v>
+                  <v>0.380784</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.229829</v>
+                  <v>0.374844</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.222655</v>
+                  <v>0.367629</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.215492</v>
+                  <v>0.363659</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.208861</v>
+                  <v>0.35982</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.202819</v>
+                  <v>0.357441</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.197551</v>
+                  <v>0.354621</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.19288</v>
+                  <v>0.35597</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.189225</v>
+                  <v>0.35806</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.186981</v>
+                  <v>0.361104</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.18652</v>
+                  <v>0.460271</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.279398</v>
+                  <v>0.448516</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.272839</v>
+                  <v>0.438966</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.265664</v>
+                  <v>0.429595</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.25832</v>
+                  <v>0.431839</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.251327</v>
+                  <v>0.425911</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.243832</v>
+                  <v>0.419946</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.237699</v>
+                  <v>0.415513</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.231533</v>
+                  <v>0.412338</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.225275</v>
+                  <v>0.411588</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.221074</v>
+                  <v>0.411164</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.215871</v>
+                  <v>0.414228</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.212823</v>
+                  <v>0.419344</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.211155</v>
+                  <v>0.42665</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.210494</v>
+                  <v>0.549334</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.212712</v>
+                  <v>0.536852</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.296635</v>
+                  <v>0.524792</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.289079</v>
+                  <v>0.514422</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.281344</v>
+                  <v>0.515606</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.274607</v>
+                  <v>0.507982</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.268304</v>
+                  <v>0.500902</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.26231</v>
+                  <v>0.494814</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.256897</v>
+                  <v>0.491499</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.251768</v>
+                  <v>0.491159</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.247624</v>
+                  <v>0.493968</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.243795</v>
+                  <v>0.501803</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.240537</v>
+                  <v>0.513307</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.237909</v>
+                  <v>0.528149</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.237154</v>
+                  <v>0.676284</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.238699</v>
+                  <v>0.6586689999999999</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.324651</v>
+                  <v>0.643774</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.318184</v>
+                  <v>0.629144</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.312519</v>
+                  <v>0.61551</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.307125</v>
+                  <v>0.6149019999999999</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.302006</v>
+                  <v>0.603787</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.29769</v>
+                  <v>0.595767</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.293184</v>
+                  <v>0.582529</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.28978</v>
+                  <v>0.582479</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.286402</v>
+                  <v>0.583156</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.283895</v>
+                  <v>0.592506</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.281675</v>
+                  <v>0.60753</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.280269</v>
+                  <v>0.626672</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.280711</v>
+                  <v>0.798616</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.282617</v>
+                  <v>0.778193</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.382259</v>
+                  <v>0.757042</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.37477</v>
+                  <v>0.73654</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.368197</v>
+                  <v>0.720079</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.362373</v>
+                  <v>0.718014</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.35649</v>
+                  <v>0.70311</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.35135</v>
+                  <v>0.691505</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1897,15 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>foa_unordered_rc15_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2365,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.177535</v>
+                  <v>0.146893</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.17311</v>
+                  <v>0.131691</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.162867</v>
+                  <v>0.137036</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.164279</v>
+                  <v>0.131842</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.160258</v>
+                  <v>0.125616</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.149896</v>
+                  <v>0.121087</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.158577</v>
+                  <v>0.121584</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.234336</v>
+                  <v>0.194024</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.224925</v>
+                  <v>0.184754</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.216883</v>
+                  <v>0.180606</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20972</v>
+                  <v>0.174134</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.201848</v>
+                  <v>0.171019</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.194494</v>
+                  <v>0.162719</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.187921</v>
+                  <v>0.155949</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.182167</v>
+                  <v>0.152252</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.177316</v>
+                  <v>0.149936</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.171691</v>
+                  <v>0.140064</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.168023</v>
+                  <v>0.137412</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.165471</v>
+                  <v>0.136896</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.163669</v>
+                  <v>0.131549</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.163704</v>
+                  <v>0.138279</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.242678</v>
+                  <v>0.226752</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.235687</v>
+                  <v>0.217993</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.22455</v>
+                  <v>0.211366</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.218977</v>
+                  <v>0.201647</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.21035</v>
+                  <v>0.195417</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.203212</v>
+                  <v>0.187558</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.195416</v>
+                  <v>0.176767</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.188549</v>
+                  <v>0.17144</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.18509</v>
+                  <v>0.162653</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.182046</v>
+                  <v>0.158209</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.179224</v>
+                  <v>0.156432</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.177848</v>
+                  <v>0.152501</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.173541</v>
+                  <v>0.149703</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.169102</v>
+                  <v>0.148753</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.254042</v>
+                  <v>0.227069</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.259149</v>
+                  <v>0.217668</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.236306</v>
+                  <v>0.209495</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.222767</v>
+                  <v>0.201759</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.216405</v>
+                  <v>0.194217</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.208142</v>
+                  <v>0.18695</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.201677</v>
+                  <v>0.180087</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.195548</v>
+                  <v>0.173936</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.189056</v>
+                  <v>0.168134</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.182624</v>
+                  <v>0.163137</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.178156</v>
+                  <v>0.158203</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.174608</v>
+                  <v>0.154742</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.171633</v>
+                  <v>0.152434</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.170934</v>
+                  <v>0.152332</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.255758</v>
+                  <v>0.239051</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.247302</v>
+                  <v>0.229893</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.23943</v>
+                  <v>0.220943</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.22978</v>
+                  <v>0.212713</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.220805</v>
+                  <v>0.204206</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.213086</v>
+                  <v>0.196844</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.206423</v>
+                  <v>0.189546</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.199202</v>
+                  <v>0.182825</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.193161</v>
+                  <v>0.174747</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.188345</v>
+                  <v>0.168998</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.183701</v>
+                  <v>0.164893</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.179105</v>
+                  <v>0.160717</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.175983</v>
+                  <v>0.158017</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.175207</v>
+                  <v>0.156965</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.176868</v>
+                  <v>0.158007</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.255168</v>
+                  <v>0.235105</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.245687</v>
+                  <v>0.226133</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.235894</v>
+                  <v>0.217421</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.228449</v>
+                  <v>0.209352</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.220252</v>
+                  <v>0.201509</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.212395</v>
+                  <v>0.194248</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.205789</v>
+                  <v>0.187578</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.198979</v>
+                  <v>0.18116</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.193168</v>
+                  <v>0.175182</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.187939</v>
+                  <v>0.170499</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.183439</v>
+                  <v>0.166167</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.179541</v>
+                  <v>0.163124</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.179061</v>
+                  <v>0.161408</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.179082</v>
+                  <v>0.162135</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.259911</v>
+                  <v>0.239824</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.251563</v>
+                  <v>0.231207</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.242857</v>
+                  <v>0.223021</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.234493</v>
+                  <v>0.214563</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.226465</v>
+                  <v>0.207392</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.218893</v>
+                  <v>0.199601</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.211566</v>
+                  <v>0.192903</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.20522</v>
+                  <v>0.18693</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.199014</v>
+                  <v>0.18099</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.193511</v>
+                  <v>0.175736</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.189531</v>
+                  <v>0.171048</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.185885</v>
+                  <v>0.167716</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.18375</v>
+                  <v>0.16583</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.183845</v>
+                  <v>0.165434</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.278244</v>
+                  <v>0.268553</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.271679</v>
+                  <v>0.260033</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.265508</v>
+                  <v>0.252128</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.256713</v>
+                  <v>0.243344</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.249207</v>
+                  <v>0.235396</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.24149</v>
+                  <v>0.227774</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.235856</v>
+                  <v>0.220711</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.228715</v>
+                  <v>0.214081</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.223444</v>
+                  <v>0.20743</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.218043</v>
+                  <v>0.201386</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.213537</v>
+                  <v>0.1967</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.210039</v>
+                  <v>0.192345</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.208195</v>
+                  <v>0.189046</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.208204</v>
+                  <v>0.18825</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.304461</v>
+                  <v>0.27939</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.297571</v>
+                  <v>0.272222</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.287177</v>
+                  <v>0.264317</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.279271</v>
+                  <v>0.255839</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.273178</v>
+                  <v>0.248083</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.266397</v>
+                  <v>0.241457</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.260727</v>
+                  <v>0.234387</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.255738</v>
+                  <v>0.227987</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.250645</v>
+                  <v>0.22155</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.245993</v>
+                  <v>0.216636</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.241963</v>
+                  <v>0.212065</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.238673</v>
+                  <v>0.207207</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.236356</v>
+                  <v>0.204174</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.235818</v>
+                  <v>0.20283</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.237864</v>
+                  <v>0.203562</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.32462</v>
+                  <v>0.289005</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.319055</v>
+                  <v>0.281919</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.314235</v>
+                  <v>0.27536</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.309144</v>
+                  <v>0.269401</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.304711</v>
+                  <v>0.264112</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.300168</v>
+                  <v>0.25879</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.296269</v>
+                  <v>0.254136</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.292886</v>
+                  <v>0.252103</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.289318</v>
+                  <v>0.247631</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.287032</v>
+                  <v>0.243658</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.285057</v>
+                  <v>0.240053</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.283504</v>
+                  <v>0.237326</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.284257</v>
+                  <v>0.236049</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.286675</v>
+                  <v>0.234281</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.386674</v>
+                  <v>0.33018</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.379899</v>
+                  <v>0.324289</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.37323</v>
+                  <v>0.318664</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.367346</v>
+                  <v>0.312845</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.361801</v>
+                  <v>0.30874</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.356534</v>
+                  <v>0.303599</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.351406</v>
+                  <v>0.299485</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3216,14 +3240,14 @@
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="7" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3234,7 +3258,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>ankerl::unordered_dense::map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.484206</v>
+        <v>0.482523</v>
       </c>
       <c r="C2" t="n">
-        <v>0.602114</v>
+        <v>0.602788</v>
       </c>
       <c r="D2" t="n">
-        <v>0.728795</v>
+        <v>0.7292149999999999</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.469389</v>
+        <v>0.470019</v>
       </c>
       <c r="C3" t="n">
-        <v>0.584593</v>
+        <v>0.5848139999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7087</v>
+        <v>0.709291</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.458434</v>
+        <v>0.459154</v>
       </c>
       <c r="C4" t="n">
-        <v>0.568265</v>
+        <v>0.56867</v>
       </c>
       <c r="D4" t="n">
-        <v>0.689669</v>
+        <v>0.690683</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.449367</v>
+        <v>0.449768</v>
       </c>
       <c r="C5" t="n">
-        <v>0.552314</v>
+        <v>0.552829</v>
       </c>
       <c r="D5" t="n">
-        <v>0.673084</v>
+        <v>0.6740429999999999</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.441888</v>
+        <v>0.442229</v>
       </c>
       <c r="C6" t="n">
-        <v>0.539404</v>
+        <v>0.53972</v>
       </c>
       <c r="D6" t="n">
-        <v>0.657056</v>
+        <v>0.657958</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.435921</v>
+        <v>0.436623</v>
       </c>
       <c r="C7" t="n">
-        <v>0.52649</v>
+        <v>0.527076</v>
       </c>
       <c r="D7" t="n">
-        <v>0.643635</v>
+        <v>0.644958</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.432676</v>
+        <v>0.433374</v>
       </c>
       <c r="C8" t="n">
-        <v>0.51744</v>
+        <v>0.517752</v>
       </c>
       <c r="D8" t="n">
-        <v>0.632344</v>
+        <v>0.633045</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.432324</v>
+        <v>0.432975</v>
       </c>
       <c r="C9" t="n">
-        <v>0.509475</v>
+        <v>0.50995</v>
       </c>
       <c r="D9" t="n">
-        <v>0.94406</v>
+        <v>0.946419</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.568686</v>
+        <v>0.569735</v>
       </c>
       <c r="C10" t="n">
-        <v>0.738443</v>
+        <v>0.740031</v>
       </c>
       <c r="D10" t="n">
-        <v>0.913189</v>
+        <v>0.915506</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.55161</v>
+        <v>0.552361</v>
       </c>
       <c r="C11" t="n">
-        <v>0.714287</v>
+        <v>0.716302</v>
       </c>
       <c r="D11" t="n">
-        <v>0.88387</v>
+        <v>0.886381</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.535519</v>
+        <v>0.5359699999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.69152</v>
+        <v>0.693822</v>
       </c>
       <c r="D12" t="n">
-        <v>0.855909</v>
+        <v>0.858441</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.519942</v>
+        <v>0.520222</v>
       </c>
       <c r="C13" t="n">
-        <v>0.669304</v>
+        <v>0.672035</v>
       </c>
       <c r="D13" t="n">
-        <v>0.829991</v>
+        <v>0.832207</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.504047</v>
+        <v>0.505755</v>
       </c>
       <c r="C14" t="n">
-        <v>0.64844</v>
+        <v>0.650938</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8047800000000001</v>
+        <v>0.807248</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.490652</v>
+        <v>0.491844</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6296890000000001</v>
+        <v>0.631354</v>
       </c>
       <c r="D15" t="n">
-        <v>0.781161</v>
+        <v>0.783475</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.479256</v>
+        <v>0.47933</v>
       </c>
       <c r="C16" t="n">
-        <v>0.611538</v>
+        <v>0.612545</v>
       </c>
       <c r="D16" t="n">
-        <v>0.759105</v>
+        <v>0.761094</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.467124</v>
+        <v>0.467119</v>
       </c>
       <c r="C17" t="n">
-        <v>0.592979</v>
+        <v>0.594901</v>
       </c>
       <c r="D17" t="n">
-        <v>0.738021</v>
+        <v>0.739743</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.456204</v>
+        <v>0.457284</v>
       </c>
       <c r="C18" t="n">
-        <v>0.576755</v>
+        <v>0.578775</v>
       </c>
       <c r="D18" t="n">
-        <v>0.718574</v>
+        <v>0.719742</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.446179</v>
+        <v>0.447339</v>
       </c>
       <c r="C19" t="n">
-        <v>0.561916</v>
+        <v>0.563532</v>
       </c>
       <c r="D19" t="n">
-        <v>0.700051</v>
+        <v>0.701528</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.439224</v>
+        <v>0.440002</v>
       </c>
       <c r="C20" t="n">
-        <v>0.548325</v>
+        <v>0.549625</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6839769999999999</v>
+        <v>0.684716</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.433576</v>
+        <v>0.434063</v>
       </c>
       <c r="C21" t="n">
-        <v>0.535639</v>
+        <v>0.536826</v>
       </c>
       <c r="D21" t="n">
-        <v>0.669671</v>
+        <v>0.6701780000000001</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.430664</v>
+        <v>0.431728</v>
       </c>
       <c r="C22" t="n">
-        <v>0.52477</v>
+        <v>0.526077</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6584410000000001</v>
+        <v>0.658309</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.430654</v>
+        <v>0.431051</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5157389999999999</v>
+        <v>0.5176269999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.98316</v>
+        <v>0.983208</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.618548</v>
+        <v>0.618058</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7936530000000001</v>
+        <v>0.794472</v>
       </c>
       <c r="D24" t="n">
-        <v>0.951026</v>
+        <v>0.952134</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.599658</v>
+        <v>0.599685</v>
       </c>
       <c r="C25" t="n">
-        <v>0.767384</v>
+        <v>0.768842</v>
       </c>
       <c r="D25" t="n">
-        <v>0.92071</v>
+        <v>0.921413</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.581848</v>
+        <v>0.581786</v>
       </c>
       <c r="C26" t="n">
-        <v>0.742861</v>
+        <v>0.743371</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8911750000000001</v>
+        <v>0.892479</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.563466</v>
+        <v>0.5643629999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.718849</v>
+        <v>0.720123</v>
       </c>
       <c r="D27" t="n">
-        <v>0.864567</v>
+        <v>0.865412</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.548139</v>
+        <v>0.547865</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6970150000000001</v>
+        <v>0.697514</v>
       </c>
       <c r="D28" t="n">
-        <v>0.838324</v>
+        <v>0.839126</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.532408</v>
+        <v>0.532747</v>
       </c>
       <c r="C29" t="n">
-        <v>0.675272</v>
+        <v>0.67596</v>
       </c>
       <c r="D29" t="n">
-        <v>0.813402</v>
+        <v>0.814434</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.518273</v>
+        <v>0.518385</v>
       </c>
       <c r="C30" t="n">
-        <v>0.655138</v>
+        <v>0.655609</v>
       </c>
       <c r="D30" t="n">
-        <v>0.789913</v>
+        <v>0.790772</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.505019</v>
+        <v>0.504804</v>
       </c>
       <c r="C31" t="n">
-        <v>0.635601</v>
+        <v>0.636586</v>
       </c>
       <c r="D31" t="n">
-        <v>0.767751</v>
+        <v>0.768305</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.492565</v>
+        <v>0.492681</v>
       </c>
       <c r="C32" t="n">
-        <v>0.618028</v>
+        <v>0.618703</v>
       </c>
       <c r="D32" t="n">
-        <v>0.746958</v>
+        <v>0.747766</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.481558</v>
+        <v>0.481651</v>
       </c>
       <c r="C33" t="n">
-        <v>0.600726</v>
+        <v>0.601989</v>
       </c>
       <c r="D33" t="n">
-        <v>0.728128</v>
+        <v>0.728606</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.471445</v>
+        <v>0.471596</v>
       </c>
       <c r="C34" t="n">
-        <v>0.586175</v>
+        <v>0.586712</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7114819999999999</v>
+        <v>0.711363</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.464052</v>
+        <v>0.463865</v>
       </c>
       <c r="C35" t="n">
-        <v>0.570927</v>
+        <v>0.572465</v>
       </c>
       <c r="D35" t="n">
-        <v>0.696033</v>
+        <v>0.695794</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.458579</v>
+        <v>0.458721</v>
       </c>
       <c r="C36" t="n">
-        <v>0.558825</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6832819999999999</v>
+        <v>0.682949</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.455895</v>
+        <v>0.456196</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5484830000000001</v>
+        <v>0.5503980000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>1.0138</v>
+        <v>1.01299</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.649208</v>
+        <v>0.649237</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8292119999999999</v>
+        <v>0.829894</v>
       </c>
       <c r="D38" t="n">
-        <v>0.981212</v>
+        <v>0.981637</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.629785</v>
+        <v>0.630723</v>
       </c>
       <c r="C39" t="n">
-        <v>0.802993</v>
+        <v>0.803125</v>
       </c>
       <c r="D39" t="n">
-        <v>0.950785</v>
+        <v>0.949904</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6113730000000001</v>
+        <v>0.611915</v>
       </c>
       <c r="C40" t="n">
-        <v>0.777305</v>
+        <v>0.778854</v>
       </c>
       <c r="D40" t="n">
-        <v>0.920527</v>
+        <v>0.92115</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5932269999999999</v>
+        <v>0.5939950000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.752225</v>
+        <v>0.753325</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8929</v>
+        <v>0.893068</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.576348</v>
+        <v>0.575996</v>
       </c>
       <c r="C42" t="n">
-        <v>0.729905</v>
+        <v>0.7300759999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.878328</v>
+        <v>0.866019</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.567897</v>
+        <v>0.560187</v>
       </c>
       <c r="C43" t="n">
-        <v>0.716518</v>
+        <v>0.7079</v>
       </c>
       <c r="D43" t="n">
-        <v>0.853147</v>
+        <v>0.840755</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.553658</v>
+        <v>0.544961</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6901659999999999</v>
+        <v>0.687152</v>
       </c>
       <c r="D44" t="n">
-        <v>0.820429</v>
+        <v>0.816759</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.530372</v>
+        <v>0.53173</v>
       </c>
       <c r="C45" t="n">
-        <v>0.666996</v>
+        <v>0.668706</v>
       </c>
       <c r="D45" t="n">
-        <v>0.794304</v>
+        <v>0.794775</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5173219999999999</v>
+        <v>0.518663</v>
       </c>
       <c r="C46" t="n">
-        <v>0.649014</v>
+        <v>0.649498</v>
       </c>
       <c r="D46" t="n">
-        <v>0.773163</v>
+        <v>0.773661</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.50362</v>
+        <v>0.507124</v>
       </c>
       <c r="C47" t="n">
-        <v>0.631926</v>
+        <v>0.631552</v>
       </c>
       <c r="D47" t="n">
-        <v>0.753509</v>
+        <v>0.753923</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.495543</v>
+        <v>0.496602</v>
       </c>
       <c r="C48" t="n">
-        <v>0.614173</v>
+        <v>0.61586</v>
       </c>
       <c r="D48" t="n">
-        <v>0.73466</v>
+        <v>0.735701</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.487889</v>
+        <v>0.488282</v>
       </c>
       <c r="C49" t="n">
-        <v>0.60057</v>
+        <v>0.6006280000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>0.71875</v>
+        <v>0.719381</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.481164</v>
+        <v>0.481745</v>
       </c>
       <c r="C50" t="n">
-        <v>0.585086</v>
+        <v>0.589526</v>
       </c>
       <c r="D50" t="n">
-        <v>0.704539</v>
+        <v>0.705342</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.47892</v>
+        <v>0.477512</v>
       </c>
       <c r="C51" t="n">
-        <v>0.580477</v>
+        <v>0.577218</v>
       </c>
       <c r="D51" t="n">
-        <v>1.06397</v>
+        <v>1.04338</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.48155</v>
+        <v>0.47698</v>
       </c>
       <c r="C52" t="n">
-        <v>0.57317</v>
+        <v>0.566699</v>
       </c>
       <c r="D52" t="n">
-        <v>1.02605</v>
+        <v>1.01184</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.673434</v>
+        <v>0.659011</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8478250000000001</v>
+        <v>0.836398</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9924460000000001</v>
+        <v>0.980703</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.654419</v>
+        <v>0.639897</v>
       </c>
       <c r="C54" t="n">
-        <v>0.819843</v>
+        <v>0.8096</v>
       </c>
       <c r="D54" t="n">
-        <v>0.961663</v>
+        <v>0.9508</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.637277</v>
+        <v>0.621837</v>
       </c>
       <c r="C55" t="n">
-        <v>0.795804</v>
+        <v>0.7845529999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.933679</v>
+        <v>0.9218150000000001</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.619155</v>
+        <v>0.604293</v>
       </c>
       <c r="C56" t="n">
-        <v>0.770358</v>
+        <v>0.7609629999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9048850000000001</v>
+        <v>0.895153</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.603621</v>
+        <v>0.587441</v>
       </c>
       <c r="C57" t="n">
-        <v>0.74171</v>
+        <v>0.738507</v>
       </c>
       <c r="D57" t="n">
-        <v>0.87095</v>
+        <v>0.86978</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.574136</v>
+        <v>0.573125</v>
       </c>
       <c r="C58" t="n">
-        <v>0.719176</v>
+        <v>0.719588</v>
       </c>
       <c r="D58" t="n">
-        <v>0.847011</v>
+        <v>0.846448</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5608300000000001</v>
+        <v>0.5600270000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.702088</v>
+        <v>0.699259</v>
       </c>
       <c r="D59" t="n">
-        <v>0.824712</v>
+        <v>0.824335</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.544614</v>
+        <v>0.546971</v>
       </c>
       <c r="C60" t="n">
-        <v>0.678817</v>
+        <v>0.679754</v>
       </c>
       <c r="D60" t="n">
-        <v>0.80294</v>
+        <v>0.801194</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.540164</v>
+        <v>0.534192</v>
       </c>
       <c r="C61" t="n">
-        <v>0.6631359999999999</v>
+        <v>0.6610780000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.782789</v>
+        <v>0.781452</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.524208</v>
+        <v>0.523906</v>
       </c>
       <c r="C62" t="n">
-        <v>0.647398</v>
+        <v>0.645095</v>
       </c>
       <c r="D62" t="n">
-        <v>0.764745</v>
+        <v>0.76223</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.515575</v>
+        <v>0.514738</v>
       </c>
       <c r="C63" t="n">
-        <v>0.632576</v>
+        <v>0.629915</v>
       </c>
       <c r="D63" t="n">
-        <v>0.747974</v>
+        <v>0.7452</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.508986</v>
+        <v>0.5073839999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.618703</v>
+        <v>0.615414</v>
       </c>
       <c r="D64" t="n">
-        <v>0.733353</v>
+        <v>0.730322</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.504862</v>
+        <v>0.50221</v>
       </c>
       <c r="C65" t="n">
-        <v>0.60641</v>
+        <v>0.603943</v>
       </c>
       <c r="D65" t="n">
-        <v>0.721021</v>
+        <v>0.719329</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.503252</v>
+        <v>0.502302</v>
       </c>
       <c r="C66" t="n">
-        <v>0.597048</v>
+        <v>0.595512</v>
       </c>
       <c r="D66" t="n">
-        <v>1.0793</v>
+        <v>1.06753</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.7320759999999999</v>
+        <v>0.718244</v>
       </c>
       <c r="C67" t="n">
-        <v>0.916187</v>
+        <v>0.90264</v>
       </c>
       <c r="D67" t="n">
-        <v>1.04681</v>
+        <v>1.03353</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.715996</v>
+        <v>0.700344</v>
       </c>
       <c r="C68" t="n">
-        <v>0.88955</v>
+        <v>0.875956</v>
       </c>
       <c r="D68" t="n">
-        <v>1.0158</v>
+        <v>1.00347</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.698169</v>
+        <v>0.682912</v>
       </c>
       <c r="C69" t="n">
-        <v>0.863619</v>
+        <v>0.848224</v>
       </c>
       <c r="D69" t="n">
-        <v>0.986648</v>
+        <v>0.973557</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.684013</v>
+        <v>0.66717</v>
       </c>
       <c r="C70" t="n">
-        <v>0.839002</v>
+        <v>0.823908</v>
       </c>
       <c r="D70" t="n">
-        <v>0.957665</v>
+        <v>0.945034</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.665343</v>
+        <v>0.652076</v>
       </c>
       <c r="C71" t="n">
-        <v>0.814005</v>
+        <v>0.800947</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9308999999999999</v>
+        <v>0.917847</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.650266</v>
+        <v>0.637663</v>
       </c>
       <c r="C72" t="n">
-        <v>0.788048</v>
+        <v>0.778142</v>
       </c>
       <c r="D72" t="n">
-        <v>0.903659</v>
+        <v>0.894123</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.635441</v>
+        <v>0.624757</v>
       </c>
       <c r="C73" t="n">
-        <v>0.771308</v>
+        <v>0.756778</v>
       </c>
       <c r="D73" t="n">
-        <v>0.88196</v>
+        <v>0.869138</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.6276</v>
+        <v>0.609214</v>
       </c>
       <c r="C74" t="n">
-        <v>0.750492</v>
+        <v>0.738056</v>
       </c>
       <c r="D74" t="n">
-        <v>0.85931</v>
+        <v>0.846893</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.6161219999999999</v>
+        <v>0.597299</v>
       </c>
       <c r="C75" t="n">
-        <v>0.731694</v>
+        <v>0.719029</v>
       </c>
       <c r="D75" t="n">
-        <v>0.83821</v>
+        <v>0.825758</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.604125</v>
+        <v>0.586342</v>
       </c>
       <c r="C76" t="n">
-        <v>0.713802</v>
+        <v>0.700553</v>
       </c>
       <c r="D76" t="n">
-        <v>0.817639</v>
+        <v>0.805134</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.593336</v>
+        <v>0.574991</v>
       </c>
       <c r="C77" t="n">
-        <v>0.696701</v>
+        <v>0.683608</v>
       </c>
       <c r="D77" t="n">
-        <v>0.79915</v>
+        <v>0.787866</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.58458</v>
+        <v>0.566501</v>
       </c>
       <c r="C78" t="n">
-        <v>0.682095</v>
+        <v>0.668351</v>
       </c>
       <c r="D78" t="n">
-        <v>0.78268</v>
+        <v>0.772186</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.576318</v>
+        <v>0.56041</v>
       </c>
       <c r="C79" t="n">
-        <v>0.666239</v>
+        <v>0.655649</v>
       </c>
       <c r="D79" t="n">
-        <v>0.768241</v>
+        <v>0.758522</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.572245</v>
+        <v>0.557287</v>
       </c>
       <c r="C80" t="n">
-        <v>0.656133</v>
+        <v>0.64469</v>
       </c>
       <c r="D80" t="n">
-        <v>1.15108</v>
+        <v>1.14183</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.798122</v>
+        <v>0.789689</v>
       </c>
       <c r="C81" t="n">
-        <v>0.995351</v>
+        <v>0.987191</v>
       </c>
       <c r="D81" t="n">
-        <v>1.1304</v>
+        <v>1.12186</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.790424</v>
+        <v>0.782694</v>
       </c>
       <c r="C82" t="n">
-        <v>0.979895</v>
+        <v>0.9716360000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>1.10769</v>
+        <v>1.0999</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.780212</v>
+        <v>0.773946</v>
       </c>
       <c r="C83" t="n">
-        <v>0.960432</v>
+        <v>0.953274</v>
       </c>
       <c r="D83" t="n">
-        <v>1.0828</v>
+        <v>1.07592</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.7695380000000001</v>
+        <v>0.763751</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9400539999999999</v>
+        <v>0.932886</v>
       </c>
       <c r="D84" t="n">
-        <v>1.05726</v>
+        <v>1.05095</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.758126</v>
+        <v>0.753064</v>
       </c>
       <c r="C85" t="n">
-        <v>0.919365</v>
+        <v>0.912531</v>
       </c>
       <c r="D85" t="n">
-        <v>1.03171</v>
+        <v>1.02561</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.747357</v>
+        <v>0.742626</v>
       </c>
       <c r="C86" t="n">
-        <v>0.898488</v>
+        <v>0.892154</v>
       </c>
       <c r="D86" t="n">
-        <v>1.00575</v>
+        <v>0.99925</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.735395</v>
+        <v>0.731062</v>
       </c>
       <c r="C87" t="n">
-        <v>0.877024</v>
+        <v>0.869885</v>
       </c>
       <c r="D87" t="n">
-        <v>0.980864</v>
+        <v>0.975348</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.723834</v>
+        <v>0.721266</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8564040000000001</v>
+        <v>0.852114</v>
       </c>
       <c r="D88" t="n">
-        <v>0.956801</v>
+        <v>0.952302</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.713457</v>
+        <v>0.711555</v>
       </c>
       <c r="C89" t="n">
-        <v>0.838264</v>
+        <v>0.8338140000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>0.933565</v>
+        <v>0.929625</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.704112</v>
+        <v>0.701144</v>
       </c>
       <c r="C90" t="n">
-        <v>0.821368</v>
+        <v>0.815547</v>
       </c>
       <c r="D90" t="n">
-        <v>0.913717</v>
+        <v>0.909059</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.69546</v>
+        <v>0.691427</v>
       </c>
       <c r="C91" t="n">
-        <v>0.804127</v>
+        <v>0.798602</v>
       </c>
       <c r="D91" t="n">
-        <v>0.894086</v>
+        <v>0.888832</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.68726</v>
+        <v>0.683038</v>
       </c>
       <c r="C92" t="n">
-        <v>0.788114</v>
+        <v>0.782689</v>
       </c>
       <c r="D92" t="n">
-        <v>0.874766</v>
+        <v>0.870673</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.6806950000000001</v>
+        <v>0.677743</v>
       </c>
       <c r="C93" t="n">
-        <v>0.773777</v>
+        <v>0.7694530000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>0.859888</v>
+        <v>0.854459</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.676383</v>
+        <v>0.672866</v>
       </c>
       <c r="C94" t="n">
-        <v>0.7613760000000001</v>
+        <v>0.756683</v>
       </c>
       <c r="D94" t="n">
-        <v>1.24895</v>
+        <v>1.24532</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.911309</v>
+        <v>0.908534</v>
       </c>
       <c r="C95" t="n">
-        <v>1.1045</v>
+        <v>1.10009</v>
       </c>
       <c r="D95" t="n">
-        <v>1.23984</v>
+        <v>1.23575</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.908775</v>
+        <v>0.906161</v>
       </c>
       <c r="C96" t="n">
-        <v>1.09957</v>
+        <v>1.09342</v>
       </c>
       <c r="D96" t="n">
-        <v>1.22264</v>
+        <v>1.21902</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.89854</v>
+        <v>0.896156</v>
       </c>
       <c r="C97" t="n">
-        <v>1.08222</v>
+        <v>1.07624</v>
       </c>
       <c r="D97" t="n">
-        <v>1.20377</v>
+        <v>1.19999</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.888227</v>
+        <v>0.885853</v>
       </c>
       <c r="C98" t="n">
-        <v>1.06277</v>
+        <v>1.05749</v>
       </c>
       <c r="D98" t="n">
-        <v>1.18032</v>
+        <v>1.17908</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.876776</v>
+        <v>0.875131</v>
       </c>
       <c r="C99" t="n">
-        <v>1.04327</v>
+        <v>1.03927</v>
       </c>
       <c r="D99" t="n">
-        <v>1.16044</v>
+        <v>1.15817</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.866685</v>
+        <v>0.865393</v>
       </c>
       <c r="C100" t="n">
-        <v>1.02524</v>
+        <v>1.02291</v>
       </c>
       <c r="D100" t="n">
-        <v>1.13963</v>
+        <v>1.13906</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.855748</v>
+        <v>0.855864</v>
       </c>
       <c r="C101" t="n">
-        <v>1.00816</v>
+        <v>1.00652</v>
       </c>
       <c r="D101" t="n">
-        <v>1.11969</v>
+        <v>1.11973</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.846685</v>
+        <v>0.846634</v>
       </c>
       <c r="C102" t="n">
-        <v>0.992542</v>
+        <v>0.990355</v>
       </c>
       <c r="D102" t="n">
-        <v>1.10145</v>
+        <v>1.10049</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.837863</v>
+        <v>0.837829</v>
       </c>
       <c r="C103" t="n">
-        <v>0.977518</v>
+        <v>0.9754429999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>1.08351</v>
+        <v>1.08233</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.829973</v>
+        <v>0.828376</v>
       </c>
       <c r="C104" t="n">
-        <v>0.963808</v>
+        <v>0.961013</v>
       </c>
       <c r="D104" t="n">
-        <v>1.06667</v>
+        <v>1.06608</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.822685</v>
+        <v>0.821775</v>
       </c>
       <c r="C105" t="n">
-        <v>0.950335</v>
+        <v>0.947754</v>
       </c>
       <c r="D105" t="n">
-        <v>1.05119</v>
+        <v>1.05008</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.816385</v>
+        <v>0.815897</v>
       </c>
       <c r="C106" t="n">
-        <v>0.937988</v>
+        <v>0.935303</v>
       </c>
       <c r="D106" t="n">
-        <v>1.03646</v>
+        <v>1.03475</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.811748</v>
+        <v>0.811481</v>
       </c>
       <c r="C107" t="n">
-        <v>0.927281</v>
+        <v>0.9259849999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>1.02302</v>
+        <v>1.02155</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.809042</v>
+        <v>0.808339</v>
       </c>
       <c r="C108" t="n">
-        <v>0.918786</v>
+        <v>0.916895</v>
       </c>
       <c r="D108" t="n">
-        <v>1.4125</v>
+        <v>1.40785</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.809779</v>
+        <v>0.809847</v>
       </c>
       <c r="C109" t="n">
-        <v>0.913376</v>
+        <v>0.911819</v>
       </c>
       <c r="D109" t="n">
-        <v>1.40327</v>
+        <v>1.40052</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.03714</v>
+        <v>1.03716</v>
       </c>
       <c r="C110" t="n">
-        <v>1.25688</v>
+        <v>1.25594</v>
       </c>
       <c r="D110" t="n">
-        <v>1.38822</v>
+        <v>1.38724</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.02513</v>
+        <v>1.0253</v>
       </c>
       <c r="C111" t="n">
-        <v>1.23916</v>
+        <v>1.23677</v>
       </c>
       <c r="D111" t="n">
-        <v>1.37507</v>
+        <v>1.37355</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.01306</v>
+        <v>1.01316</v>
       </c>
       <c r="C112" t="n">
-        <v>1.22233</v>
+        <v>1.22013</v>
       </c>
       <c r="D112" t="n">
-        <v>1.36209</v>
+        <v>1.3626</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.00087</v>
+        <v>1.00156</v>
       </c>
       <c r="C113" t="n">
-        <v>1.20411</v>
+        <v>1.20205</v>
       </c>
       <c r="D113" t="n">
-        <v>1.3487</v>
+        <v>1.34924</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.989252</v>
+        <v>0.9902339999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>1.18731</v>
+        <v>1.18681</v>
       </c>
       <c r="D114" t="n">
-        <v>1.33725</v>
+        <v>1.33941</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.978681</v>
+        <v>0.9798210000000001</v>
       </c>
       <c r="C115" t="n">
-        <v>1.17146</v>
+        <v>1.16828</v>
       </c>
       <c r="D115" t="n">
-        <v>1.32402</v>
+        <v>1.32384</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.968946</v>
+        <v>0.970305</v>
       </c>
       <c r="C116" t="n">
-        <v>1.15735</v>
+        <v>1.15438</v>
       </c>
       <c r="D116" t="n">
-        <v>1.3124</v>
+        <v>1.3101</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.961831</v>
+        <v>0.96152</v>
       </c>
       <c r="C117" t="n">
-        <v>1.1449</v>
+        <v>1.14197</v>
       </c>
       <c r="D117" t="n">
-        <v>1.30465</v>
+        <v>1.30316</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.953923</v>
+        <v>0.953184</v>
       </c>
       <c r="C118" t="n">
-        <v>1.13198</v>
+        <v>1.13112</v>
       </c>
       <c r="D118" t="n">
-        <v>1.29555</v>
+        <v>1.29222</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.94613</v>
+        <v>0.946388</v>
       </c>
       <c r="C119" t="n">
-        <v>1.121</v>
+        <v>1.11799</v>
       </c>
       <c r="D119" t="n">
-        <v>1.28579</v>
+        <v>1.28548</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.940271</v>
+        <v>0.940237</v>
       </c>
       <c r="C120" t="n">
-        <v>1.11005</v>
+        <v>1.10685</v>
       </c>
       <c r="D120" t="n">
-        <v>1.27529</v>
+        <v>1.27522</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.935187</v>
+        <v>0.935698</v>
       </c>
       <c r="C121" t="n">
-        <v>1.09949</v>
+        <v>1.0996</v>
       </c>
       <c r="D121" t="n">
-        <v>1.26547</v>
+        <v>1.26646</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.932819</v>
+        <v>0.933822</v>
       </c>
       <c r="C122" t="n">
-        <v>1.09319</v>
+        <v>1.09261</v>
       </c>
       <c r="D122" t="n">
-        <v>1.25816</v>
+        <v>1.25797</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.933254</v>
+        <v>0.933901</v>
       </c>
       <c r="C123" t="n">
-        <v>1.08713</v>
+        <v>1.08426</v>
       </c>
       <c r="D123" t="n">
-        <v>1.64455</v>
+        <v>1.63775</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.16315</v>
+        <v>1.16157</v>
       </c>
       <c r="C124" t="n">
-        <v>1.43399</v>
+        <v>1.42882</v>
       </c>
       <c r="D124" t="n">
-        <v>1.63087</v>
+        <v>1.62501</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.15207</v>
+        <v>1.15029</v>
       </c>
       <c r="C125" t="n">
-        <v>1.41686</v>
+        <v>1.41284</v>
       </c>
       <c r="D125" t="n">
-        <v>1.61539</v>
+        <v>1.61197</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.14001</v>
+        <v>1.13906</v>
       </c>
       <c r="C126" t="n">
-        <v>1.40111</v>
+        <v>1.39949</v>
       </c>
       <c r="D126" t="n">
-        <v>1.60349</v>
+        <v>1.59956</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.12961</v>
+        <v>1.12943</v>
       </c>
       <c r="C127" t="n">
-        <v>1.38528</v>
+        <v>1.38331</v>
       </c>
       <c r="D127" t="n">
-        <v>1.58903</v>
+        <v>1.58693</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.12008</v>
+        <v>1.12019</v>
       </c>
       <c r="C128" t="n">
-        <v>1.37111</v>
+        <v>1.36985</v>
       </c>
       <c r="D128" t="n">
-        <v>1.57837</v>
+        <v>1.57467</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.11101</v>
+        <v>1.11129</v>
       </c>
       <c r="C129" t="n">
-        <v>1.35768</v>
+        <v>1.35694</v>
       </c>
       <c r="D129" t="n">
-        <v>1.56937</v>
+        <v>1.563</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.10229</v>
+        <v>1.10332</v>
       </c>
       <c r="C130" t="n">
-        <v>1.34575</v>
+        <v>1.34454</v>
       </c>
       <c r="D130" t="n">
-        <v>1.56143</v>
+        <v>1.55207</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.09476</v>
+        <v>1.09613</v>
       </c>
       <c r="C131" t="n">
-        <v>1.33461</v>
+        <v>1.33404</v>
       </c>
       <c r="D131" t="n">
-        <v>1.54834</v>
+        <v>1.53982</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.08859</v>
+        <v>1.08985</v>
       </c>
       <c r="C132" t="n">
-        <v>1.32366</v>
+        <v>1.32415</v>
       </c>
       <c r="D132" t="n">
-        <v>1.54094</v>
+        <v>1.53654</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.08361</v>
+        <v>1.08471</v>
       </c>
       <c r="C133" t="n">
-        <v>1.3153</v>
+        <v>1.31684</v>
       </c>
       <c r="D133" t="n">
-        <v>1.52997</v>
+        <v>1.52839</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.07974</v>
+        <v>1.08086</v>
       </c>
       <c r="C134" t="n">
-        <v>1.30735</v>
+        <v>1.30558</v>
       </c>
       <c r="D134" t="n">
-        <v>1.52583</v>
+        <v>1.51671</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.07737</v>
+        <v>1.078</v>
       </c>
       <c r="C135" t="n">
-        <v>1.29999</v>
+        <v>1.30197</v>
       </c>
       <c r="D135" t="n">
-        <v>1.51829</v>
+        <v>1.51021</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.07659</v>
+        <v>1.07831</v>
       </c>
       <c r="C136" t="n">
-        <v>1.2946</v>
+        <v>1.29553</v>
       </c>
       <c r="D136" t="n">
-        <v>1.51088</v>
+        <v>1.50604</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.07725</v>
+        <v>1.07859</v>
       </c>
       <c r="C137" t="n">
-        <v>1.28947</v>
+        <v>1.29255</v>
       </c>
       <c r="D137" t="n">
-        <v>1.89179</v>
+        <v>1.88396</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.30496</v>
+        <v>1.30391</v>
       </c>
       <c r="C138" t="n">
-        <v>1.63335</v>
+        <v>1.63192</v>
       </c>
       <c r="D138" t="n">
-        <v>1.87324</v>
+        <v>1.86532</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.2957</v>
+        <v>1.29561</v>
       </c>
       <c r="C139" t="n">
-        <v>1.61903</v>
+        <v>1.61883</v>
       </c>
       <c r="D139" t="n">
-        <v>1.8561</v>
+        <v>1.84945</v>
       </c>
     </row>
     <row r="140">
@@ -5183,10 +5183,10 @@
         <v>1.28705</v>
       </c>
       <c r="C140" t="n">
-        <v>1.60551</v>
+        <v>1.60547</v>
       </c>
       <c r="D140" t="n">
-        <v>1.83735</v>
+        <v>1.8287</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.27982</v>
+        <v>1.27985</v>
       </c>
       <c r="C141" t="n">
-        <v>1.59376</v>
+        <v>1.59179</v>
       </c>
       <c r="D141" t="n">
-        <v>1.82069</v>
+        <v>1.81336</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.27241</v>
+        <v>1.27227</v>
       </c>
       <c r="C142" t="n">
-        <v>1.58135</v>
+        <v>1.58051</v>
       </c>
       <c r="D142" t="n">
-        <v>1.80363</v>
+        <v>1.79616</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.26604</v>
+        <v>1.26587</v>
       </c>
       <c r="C143" t="n">
-        <v>1.57095</v>
+        <v>1.56774</v>
       </c>
       <c r="D143" t="n">
-        <v>1.79101</v>
+        <v>1.77896</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.482523</v>
+        <v>0.483756</v>
       </c>
       <c r="C2" t="n">
-        <v>0.602788</v>
+        <v>0.603351</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7292149999999999</v>
+        <v>0.716126</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.470019</v>
+        <v>0.470846</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5848139999999999</v>
+        <v>0.585456</v>
       </c>
       <c r="D3" t="n">
-        <v>0.709291</v>
+        <v>0.696334</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.459154</v>
+        <v>0.459715</v>
       </c>
       <c r="C4" t="n">
-        <v>0.56867</v>
+        <v>0.568478</v>
       </c>
       <c r="D4" t="n">
-        <v>0.690683</v>
+        <v>0.6783400000000001</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.449768</v>
+        <v>0.450333</v>
       </c>
       <c r="C5" t="n">
-        <v>0.552829</v>
+        <v>0.553076</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6740429999999999</v>
+        <v>0.661309</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.442229</v>
+        <v>0.442736</v>
       </c>
       <c r="C6" t="n">
-        <v>0.53972</v>
+        <v>0.5404099999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.657958</v>
+        <v>0.646398</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.436623</v>
+        <v>0.437173</v>
       </c>
       <c r="C7" t="n">
-        <v>0.527076</v>
+        <v>0.52796</v>
       </c>
       <c r="D7" t="n">
-        <v>0.644958</v>
+        <v>0.632771</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.433374</v>
+        <v>0.43394</v>
       </c>
       <c r="C8" t="n">
-        <v>0.517752</v>
+        <v>0.518367</v>
       </c>
       <c r="D8" t="n">
-        <v>0.633045</v>
+        <v>0.621621</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.432975</v>
+        <v>0.433563</v>
       </c>
       <c r="C9" t="n">
-        <v>0.50995</v>
+        <v>0.510974</v>
       </c>
       <c r="D9" t="n">
-        <v>0.946419</v>
+        <v>0.928946</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.569735</v>
+        <v>0.569184</v>
       </c>
       <c r="C10" t="n">
-        <v>0.740031</v>
+        <v>0.740152</v>
       </c>
       <c r="D10" t="n">
-        <v>0.915506</v>
+        <v>0.898883</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.552361</v>
+        <v>0.552592</v>
       </c>
       <c r="C11" t="n">
-        <v>0.716302</v>
+        <v>0.7155319999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.886381</v>
+        <v>0.870062</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5359699999999999</v>
+        <v>0.536197</v>
       </c>
       <c r="C12" t="n">
-        <v>0.693822</v>
+        <v>0.693197</v>
       </c>
       <c r="D12" t="n">
-        <v>0.858441</v>
+        <v>0.8424</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.520222</v>
+        <v>0.520385</v>
       </c>
       <c r="C13" t="n">
-        <v>0.672035</v>
+        <v>0.6714</v>
       </c>
       <c r="D13" t="n">
-        <v>0.832207</v>
+        <v>0.8167489999999999</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.505755</v>
+        <v>0.505946</v>
       </c>
       <c r="C14" t="n">
-        <v>0.650938</v>
+        <v>0.650466</v>
       </c>
       <c r="D14" t="n">
-        <v>0.807248</v>
+        <v>0.7923559999999999</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.491844</v>
+        <v>0.492388</v>
       </c>
       <c r="C15" t="n">
-        <v>0.631354</v>
+        <v>0.631321</v>
       </c>
       <c r="D15" t="n">
-        <v>0.783475</v>
+        <v>0.7685999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.47933</v>
+        <v>0.479463</v>
       </c>
       <c r="C16" t="n">
-        <v>0.612545</v>
+        <v>0.612531</v>
       </c>
       <c r="D16" t="n">
-        <v>0.761094</v>
+        <v>0.7471719999999999</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.467119</v>
+        <v>0.467616</v>
       </c>
       <c r="C17" t="n">
-        <v>0.594901</v>
+        <v>0.595218</v>
       </c>
       <c r="D17" t="n">
-        <v>0.739743</v>
+        <v>0.726911</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.457284</v>
+        <v>0.457275</v>
       </c>
       <c r="C18" t="n">
-        <v>0.578775</v>
+        <v>0.578955</v>
       </c>
       <c r="D18" t="n">
-        <v>0.719742</v>
+        <v>0.707709</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.447339</v>
+        <v>0.447742</v>
       </c>
       <c r="C19" t="n">
-        <v>0.563532</v>
+        <v>0.564036</v>
       </c>
       <c r="D19" t="n">
-        <v>0.701528</v>
+        <v>0.689659</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.440002</v>
+        <v>0.440565</v>
       </c>
       <c r="C20" t="n">
-        <v>0.549625</v>
+        <v>0.549951</v>
       </c>
       <c r="D20" t="n">
-        <v>0.684716</v>
+        <v>0.673176</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.434063</v>
+        <v>0.434249</v>
       </c>
       <c r="C21" t="n">
-        <v>0.536826</v>
+        <v>0.537501</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6701780000000001</v>
+        <v>0.659343</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.431728</v>
+        <v>0.431903</v>
       </c>
       <c r="C22" t="n">
-        <v>0.526077</v>
+        <v>0.526626</v>
       </c>
       <c r="D22" t="n">
-        <v>0.658309</v>
+        <v>0.648486</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.431051</v>
+        <v>0.431438</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5176269999999999</v>
+        <v>0.518112</v>
       </c>
       <c r="D23" t="n">
-        <v>0.983208</v>
+        <v>0.967329</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.618058</v>
+        <v>0.618069</v>
       </c>
       <c r="C24" t="n">
-        <v>0.794472</v>
+        <v>0.79378</v>
       </c>
       <c r="D24" t="n">
-        <v>0.952134</v>
+        <v>0.935712</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.599685</v>
+        <v>0.599575</v>
       </c>
       <c r="C25" t="n">
-        <v>0.768842</v>
+        <v>0.768348</v>
       </c>
       <c r="D25" t="n">
-        <v>0.921413</v>
+        <v>0.905995</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.581786</v>
+        <v>0.581576</v>
       </c>
       <c r="C26" t="n">
-        <v>0.743371</v>
+        <v>0.743702</v>
       </c>
       <c r="D26" t="n">
-        <v>0.892479</v>
+        <v>0.877862</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5643629999999999</v>
+        <v>0.564443</v>
       </c>
       <c r="C27" t="n">
-        <v>0.720123</v>
+        <v>0.720007</v>
       </c>
       <c r="D27" t="n">
-        <v>0.865412</v>
+        <v>0.8500760000000001</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.547865</v>
+        <v>0.54805</v>
       </c>
       <c r="C28" t="n">
-        <v>0.697514</v>
+        <v>0.6973510000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.839126</v>
+        <v>0.83113</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.532747</v>
+        <v>0.534345</v>
       </c>
       <c r="C29" t="n">
-        <v>0.67596</v>
+        <v>0.677543</v>
       </c>
       <c r="D29" t="n">
-        <v>0.814434</v>
+        <v>0.805267</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.518385</v>
+        <v>0.518414</v>
       </c>
       <c r="C30" t="n">
-        <v>0.655609</v>
+        <v>0.655815</v>
       </c>
       <c r="D30" t="n">
-        <v>0.790772</v>
+        <v>0.777452</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.504804</v>
+        <v>0.5044419999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.636586</v>
+        <v>0.636899</v>
       </c>
       <c r="D31" t="n">
-        <v>0.768305</v>
+        <v>0.755956</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.492681</v>
+        <v>0.492816</v>
       </c>
       <c r="C32" t="n">
-        <v>0.618703</v>
+        <v>0.619242</v>
       </c>
       <c r="D32" t="n">
-        <v>0.747766</v>
+        <v>0.735724</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.481651</v>
+        <v>0.481747</v>
       </c>
       <c r="C33" t="n">
-        <v>0.601989</v>
+        <v>0.602696</v>
       </c>
       <c r="D33" t="n">
-        <v>0.728606</v>
+        <v>0.717226</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.471596</v>
+        <v>0.471919</v>
       </c>
       <c r="C34" t="n">
-        <v>0.586712</v>
+        <v>0.5873620000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.711363</v>
+        <v>0.700383</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.463865</v>
+        <v>0.464078</v>
       </c>
       <c r="C35" t="n">
-        <v>0.572465</v>
+        <v>0.573137</v>
       </c>
       <c r="D35" t="n">
-        <v>0.695794</v>
+        <v>0.685231</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.458721</v>
+        <v>0.458911</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.560526</v>
       </c>
       <c r="D36" t="n">
-        <v>0.682949</v>
+        <v>0.67248</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.456196</v>
+        <v>0.455531</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5503980000000001</v>
+        <v>0.55056</v>
       </c>
       <c r="D37" t="n">
-        <v>1.01299</v>
+        <v>1.00189</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.649237</v>
+        <v>0.654399</v>
       </c>
       <c r="C38" t="n">
-        <v>0.829894</v>
+        <v>0.84055</v>
       </c>
       <c r="D38" t="n">
-        <v>0.981637</v>
+        <v>0.968059</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.630723</v>
+        <v>0.631123</v>
       </c>
       <c r="C39" t="n">
-        <v>0.803125</v>
+        <v>0.804016</v>
       </c>
       <c r="D39" t="n">
-        <v>0.949904</v>
+        <v>0.936438</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.611915</v>
+        <v>0.611679</v>
       </c>
       <c r="C40" t="n">
-        <v>0.778854</v>
+        <v>0.778475</v>
       </c>
       <c r="D40" t="n">
-        <v>0.92115</v>
+        <v>0.906833</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5939950000000001</v>
+        <v>0.593571</v>
       </c>
       <c r="C41" t="n">
-        <v>0.753325</v>
+        <v>0.754092</v>
       </c>
       <c r="D41" t="n">
-        <v>0.893068</v>
+        <v>0.879263</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.575996</v>
+        <v>0.576515</v>
       </c>
       <c r="C42" t="n">
-        <v>0.7300759999999999</v>
+        <v>0.730445</v>
       </c>
       <c r="D42" t="n">
-        <v>0.866019</v>
+        <v>0.852827</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.560187</v>
+        <v>0.560267</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7079</v>
+        <v>0.70895</v>
       </c>
       <c r="D43" t="n">
-        <v>0.840755</v>
+        <v>0.828001</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.544961</v>
+        <v>0.5450390000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>0.687152</v>
+        <v>0.687543</v>
       </c>
       <c r="D44" t="n">
-        <v>0.816759</v>
+        <v>0.804065</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.53173</v>
+        <v>0.531307</v>
       </c>
       <c r="C45" t="n">
-        <v>0.668706</v>
+        <v>0.668251</v>
       </c>
       <c r="D45" t="n">
-        <v>0.794775</v>
+        <v>0.793486</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.518663</v>
+        <v>0.525824</v>
       </c>
       <c r="C46" t="n">
-        <v>0.649498</v>
+        <v>0.6563059999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.773661</v>
+        <v>0.771809</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.507124</v>
+        <v>0.511217</v>
       </c>
       <c r="C47" t="n">
-        <v>0.631552</v>
+        <v>0.632009</v>
       </c>
       <c r="D47" t="n">
-        <v>0.753923</v>
+        <v>0.7418400000000001</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.496602</v>
+        <v>0.496202</v>
       </c>
       <c r="C48" t="n">
-        <v>0.61586</v>
+        <v>0.615897</v>
       </c>
       <c r="D48" t="n">
-        <v>0.735701</v>
+        <v>0.723899</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.488282</v>
+        <v>0.487614</v>
       </c>
       <c r="C49" t="n">
-        <v>0.6006280000000001</v>
+        <v>0.600411</v>
       </c>
       <c r="D49" t="n">
-        <v>0.719381</v>
+        <v>0.708002</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.481745</v>
+        <v>0.480572</v>
       </c>
       <c r="C50" t="n">
-        <v>0.589526</v>
+        <v>0.587495</v>
       </c>
       <c r="D50" t="n">
-        <v>0.705342</v>
+        <v>0.6943240000000001</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.477512</v>
+        <v>0.476919</v>
       </c>
       <c r="C51" t="n">
-        <v>0.577218</v>
+        <v>0.577017</v>
       </c>
       <c r="D51" t="n">
-        <v>1.04338</v>
+        <v>1.04181</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.47698</v>
+        <v>0.47659</v>
       </c>
       <c r="C52" t="n">
-        <v>0.566699</v>
+        <v>0.567481</v>
       </c>
       <c r="D52" t="n">
-        <v>1.01184</v>
+        <v>1.01189</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.659011</v>
+        <v>0.67611</v>
       </c>
       <c r="C53" t="n">
-        <v>0.836398</v>
+        <v>0.852748</v>
       </c>
       <c r="D53" t="n">
-        <v>0.980703</v>
+        <v>0.969386</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.639897</v>
+        <v>0.646957</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8096</v>
+        <v>0.817282</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9508</v>
+        <v>0.943331</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.621837</v>
+        <v>0.631197</v>
       </c>
       <c r="C55" t="n">
-        <v>0.7845529999999999</v>
+        <v>0.791969</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9218150000000001</v>
+        <v>0.916678</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.604293</v>
+        <v>0.615393</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7609629999999999</v>
+        <v>0.765456</v>
       </c>
       <c r="D56" t="n">
-        <v>0.895153</v>
+        <v>0.887205</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.587441</v>
+        <v>0.6022650000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>0.738507</v>
+        <v>0.750566</v>
       </c>
       <c r="D57" t="n">
-        <v>0.86978</v>
+        <v>0.866937</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.573125</v>
+        <v>0.580473</v>
       </c>
       <c r="C58" t="n">
-        <v>0.719588</v>
+        <v>0.7253039999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>0.846448</v>
+        <v>0.841983</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5600270000000001</v>
+        <v>0.570611</v>
       </c>
       <c r="C59" t="n">
-        <v>0.699259</v>
+        <v>0.705831</v>
       </c>
       <c r="D59" t="n">
-        <v>0.824335</v>
+        <v>0.816623</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.546971</v>
+        <v>0.554747</v>
       </c>
       <c r="C60" t="n">
-        <v>0.679754</v>
+        <v>0.687156</v>
       </c>
       <c r="D60" t="n">
-        <v>0.801194</v>
+        <v>0.798024</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.534192</v>
+        <v>0.535717</v>
       </c>
       <c r="C61" t="n">
-        <v>0.6610780000000001</v>
+        <v>0.663122</v>
       </c>
       <c r="D61" t="n">
-        <v>0.781452</v>
+        <v>0.770997</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.523906</v>
+        <v>0.525572</v>
       </c>
       <c r="C62" t="n">
-        <v>0.645095</v>
+        <v>0.652708</v>
       </c>
       <c r="D62" t="n">
-        <v>0.76223</v>
+        <v>0.758692</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.514738</v>
+        <v>0.525072</v>
       </c>
       <c r="C63" t="n">
-        <v>0.629915</v>
+        <v>0.636049</v>
       </c>
       <c r="D63" t="n">
-        <v>0.7452</v>
+        <v>0.74058</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5073839999999999</v>
+        <v>0.512955</v>
       </c>
       <c r="C64" t="n">
-        <v>0.615414</v>
+        <v>0.621104</v>
       </c>
       <c r="D64" t="n">
-        <v>0.730322</v>
+        <v>0.727614</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.50221</v>
+        <v>0.514286</v>
       </c>
       <c r="C65" t="n">
-        <v>0.603943</v>
+        <v>0.611669</v>
       </c>
       <c r="D65" t="n">
-        <v>0.719329</v>
+        <v>0.7157480000000001</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.502302</v>
+        <v>0.51141</v>
       </c>
       <c r="C66" t="n">
-        <v>0.595512</v>
+        <v>0.602314</v>
       </c>
       <c r="D66" t="n">
-        <v>1.06753</v>
+        <v>1.0667</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.718244</v>
+        <v>0.729814</v>
       </c>
       <c r="C67" t="n">
-        <v>0.90264</v>
+        <v>0.920243</v>
       </c>
       <c r="D67" t="n">
-        <v>1.03353</v>
+        <v>1.03637</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.700344</v>
+        <v>0.714462</v>
       </c>
       <c r="C68" t="n">
-        <v>0.875956</v>
+        <v>0.891738</v>
       </c>
       <c r="D68" t="n">
-        <v>1.00347</v>
+        <v>0.998438</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.682912</v>
+        <v>0.6902779999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.848224</v>
+        <v>0.85756</v>
       </c>
       <c r="D69" t="n">
-        <v>0.973557</v>
+        <v>0.967396</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.66717</v>
+        <v>0.684785</v>
       </c>
       <c r="C70" t="n">
-        <v>0.823908</v>
+        <v>0.844809</v>
       </c>
       <c r="D70" t="n">
-        <v>0.945034</v>
+        <v>0.948904</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.652076</v>
+        <v>0.672201</v>
       </c>
       <c r="C71" t="n">
-        <v>0.800947</v>
+        <v>0.820002</v>
       </c>
       <c r="D71" t="n">
-        <v>0.917847</v>
+        <v>0.921807</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.637663</v>
+        <v>0.657053</v>
       </c>
       <c r="C72" t="n">
-        <v>0.778142</v>
+        <v>0.791717</v>
       </c>
       <c r="D72" t="n">
-        <v>0.894123</v>
+        <v>0.890339</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.624757</v>
+        <v>0.631365</v>
       </c>
       <c r="C73" t="n">
-        <v>0.756778</v>
+        <v>0.769468</v>
       </c>
       <c r="D73" t="n">
-        <v>0.869138</v>
+        <v>0.868082</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.609214</v>
+        <v>0.623741</v>
       </c>
       <c r="C74" t="n">
-        <v>0.738056</v>
+        <v>0.749197</v>
       </c>
       <c r="D74" t="n">
-        <v>0.846893</v>
+        <v>0.844576</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.597299</v>
+        <v>0.609808</v>
       </c>
       <c r="C75" t="n">
-        <v>0.719029</v>
+        <v>0.7290990000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.825758</v>
+        <v>0.820194</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.586342</v>
+        <v>0.590324</v>
       </c>
       <c r="C76" t="n">
-        <v>0.700553</v>
+        <v>0.704115</v>
       </c>
       <c r="D76" t="n">
-        <v>0.805134</v>
+        <v>0.796652</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.574991</v>
+        <v>0.582166</v>
       </c>
       <c r="C77" t="n">
-        <v>0.683608</v>
+        <v>0.693743</v>
       </c>
       <c r="D77" t="n">
-        <v>0.787866</v>
+        <v>0.786097</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.566501</v>
+        <v>0.576227</v>
       </c>
       <c r="C78" t="n">
-        <v>0.668351</v>
+        <v>0.676941</v>
       </c>
       <c r="D78" t="n">
-        <v>0.772186</v>
+        <v>0.769989</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.56041</v>
+        <v>0.574586</v>
       </c>
       <c r="C79" t="n">
-        <v>0.655649</v>
+        <v>0.668152</v>
       </c>
       <c r="D79" t="n">
-        <v>0.758522</v>
+        <v>0.759039</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.557287</v>
+        <v>0.570628</v>
       </c>
       <c r="C80" t="n">
-        <v>0.64469</v>
+        <v>0.653928</v>
       </c>
       <c r="D80" t="n">
-        <v>1.14183</v>
+        <v>1.13394</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.789689</v>
+        <v>0.797346</v>
       </c>
       <c r="C81" t="n">
-        <v>0.987191</v>
+        <v>0.99633</v>
       </c>
       <c r="D81" t="n">
-        <v>1.12186</v>
+        <v>1.11662</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.782694</v>
+        <v>0.790582</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9716360000000001</v>
+        <v>0.981714</v>
       </c>
       <c r="D82" t="n">
-        <v>1.0999</v>
+        <v>1.09375</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.773946</v>
+        <v>0.778468</v>
       </c>
       <c r="C83" t="n">
-        <v>0.953274</v>
+        <v>0.959812</v>
       </c>
       <c r="D83" t="n">
-        <v>1.07592</v>
+        <v>1.06849</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.763751</v>
+        <v>0.771012</v>
       </c>
       <c r="C84" t="n">
-        <v>0.932886</v>
+        <v>0.943091</v>
       </c>
       <c r="D84" t="n">
-        <v>1.05095</v>
+        <v>1.04614</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.753064</v>
+        <v>0.760258</v>
       </c>
       <c r="C85" t="n">
-        <v>0.912531</v>
+        <v>0.921339</v>
       </c>
       <c r="D85" t="n">
-        <v>1.02561</v>
+        <v>1.02067</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.742626</v>
+        <v>0.749337</v>
       </c>
       <c r="C86" t="n">
-        <v>0.892154</v>
+        <v>0.90003</v>
       </c>
       <c r="D86" t="n">
-        <v>0.99925</v>
+        <v>0.995634</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.731062</v>
+        <v>0.737988</v>
       </c>
       <c r="C87" t="n">
-        <v>0.869885</v>
+        <v>0.879417</v>
       </c>
       <c r="D87" t="n">
-        <v>0.975348</v>
+        <v>0.9705859999999999</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.721266</v>
+        <v>0.726245</v>
       </c>
       <c r="C88" t="n">
-        <v>0.852114</v>
+        <v>0.858452</v>
       </c>
       <c r="D88" t="n">
-        <v>0.952302</v>
+        <v>0.947161</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.711555</v>
+        <v>0.7151650000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8338140000000001</v>
+        <v>0.839726</v>
       </c>
       <c r="D89" t="n">
-        <v>0.929625</v>
+        <v>0.921807</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.701144</v>
+        <v>0.703436</v>
       </c>
       <c r="C90" t="n">
-        <v>0.815547</v>
+        <v>0.820553</v>
       </c>
       <c r="D90" t="n">
-        <v>0.909059</v>
+        <v>0.902251</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.691427</v>
+        <v>0.696221</v>
       </c>
       <c r="C91" t="n">
-        <v>0.798602</v>
+        <v>0.804414</v>
       </c>
       <c r="D91" t="n">
-        <v>0.888832</v>
+        <v>0.8829</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.683038</v>
+        <v>0.686871</v>
       </c>
       <c r="C92" t="n">
-        <v>0.782689</v>
+        <v>0.788778</v>
       </c>
       <c r="D92" t="n">
-        <v>0.870673</v>
+        <v>0.865935</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.677743</v>
+        <v>0.681623</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7694530000000001</v>
+        <v>0.774877</v>
       </c>
       <c r="D93" t="n">
-        <v>0.854459</v>
+        <v>0.849757</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.672866</v>
+        <v>0.676992</v>
       </c>
       <c r="C94" t="n">
-        <v>0.756683</v>
+        <v>0.762724</v>
       </c>
       <c r="D94" t="n">
-        <v>1.24532</v>
+        <v>1.23502</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.908534</v>
+        <v>0.9134330000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>1.10009</v>
+        <v>1.10689</v>
       </c>
       <c r="D95" t="n">
-        <v>1.23575</v>
+        <v>1.22575</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.906161</v>
+        <v>0.910971</v>
       </c>
       <c r="C96" t="n">
-        <v>1.09342</v>
+        <v>1.099</v>
       </c>
       <c r="D96" t="n">
-        <v>1.21902</v>
+        <v>1.20791</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.896156</v>
+        <v>0.899037</v>
       </c>
       <c r="C97" t="n">
-        <v>1.07624</v>
+        <v>1.08049</v>
       </c>
       <c r="D97" t="n">
-        <v>1.19999</v>
+        <v>1.19011</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.885853</v>
+        <v>0.889166</v>
       </c>
       <c r="C98" t="n">
-        <v>1.05749</v>
+        <v>1.06388</v>
       </c>
       <c r="D98" t="n">
-        <v>1.17908</v>
+        <v>1.16847</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.875131</v>
+        <v>0.877804</v>
       </c>
       <c r="C99" t="n">
-        <v>1.03927</v>
+        <v>1.04453</v>
       </c>
       <c r="D99" t="n">
-        <v>1.15817</v>
+        <v>1.14857</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.865393</v>
+        <v>0.867515</v>
       </c>
       <c r="C100" t="n">
-        <v>1.02291</v>
+        <v>1.02614</v>
       </c>
       <c r="D100" t="n">
-        <v>1.13906</v>
+        <v>1.12893</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.855864</v>
+        <v>0.8574349999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>1.00652</v>
+        <v>1.01039</v>
       </c>
       <c r="D101" t="n">
-        <v>1.11973</v>
+        <v>1.10892</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.846634</v>
+        <v>0.847815</v>
       </c>
       <c r="C102" t="n">
-        <v>0.990355</v>
+        <v>0.993947</v>
       </c>
       <c r="D102" t="n">
-        <v>1.10049</v>
+        <v>1.091</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.837829</v>
+        <v>0.837901</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9754429999999999</v>
+        <v>0.976935</v>
       </c>
       <c r="D103" t="n">
-        <v>1.08233</v>
+        <v>1.07225</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.828376</v>
+        <v>0.8314510000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>0.961013</v>
+        <v>0.9655359999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>1.06608</v>
+        <v>1.05771</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.821775</v>
+        <v>0.823999</v>
       </c>
       <c r="C105" t="n">
-        <v>0.947754</v>
+        <v>0.9512890000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>1.05008</v>
+        <v>1.04097</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.815897</v>
+        <v>0.817173</v>
       </c>
       <c r="C106" t="n">
-        <v>0.935303</v>
+        <v>0.939425</v>
       </c>
       <c r="D106" t="n">
-        <v>1.03475</v>
+        <v>1.02703</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.811481</v>
+        <v>0.813097</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9259849999999999</v>
+        <v>0.928011</v>
       </c>
       <c r="D107" t="n">
-        <v>1.02155</v>
+        <v>1.01455</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.808339</v>
+        <v>0.812609</v>
       </c>
       <c r="C108" t="n">
-        <v>0.916895</v>
+        <v>0.921627</v>
       </c>
       <c r="D108" t="n">
-        <v>1.40785</v>
+        <v>1.39957</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.809847</v>
+        <v>0.812979</v>
       </c>
       <c r="C109" t="n">
-        <v>0.911819</v>
+        <v>0.915326</v>
       </c>
       <c r="D109" t="n">
-        <v>1.40052</v>
+        <v>1.39137</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.03716</v>
+        <v>1.03909</v>
       </c>
       <c r="C110" t="n">
-        <v>1.25594</v>
+        <v>1.26033</v>
       </c>
       <c r="D110" t="n">
-        <v>1.38724</v>
+        <v>1.37849</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.0253</v>
+        <v>1.02712</v>
       </c>
       <c r="C111" t="n">
-        <v>1.23677</v>
+        <v>1.2421</v>
       </c>
       <c r="D111" t="n">
-        <v>1.37355</v>
+        <v>1.36459</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.01316</v>
+        <v>1.01477</v>
       </c>
       <c r="C112" t="n">
-        <v>1.22013</v>
+        <v>1.22372</v>
       </c>
       <c r="D112" t="n">
-        <v>1.3626</v>
+        <v>1.35095</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.00156</v>
+        <v>1.00253</v>
       </c>
       <c r="C113" t="n">
-        <v>1.20205</v>
+        <v>1.20674</v>
       </c>
       <c r="D113" t="n">
-        <v>1.34924</v>
+        <v>1.33789</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.9902339999999999</v>
+        <v>0.990011</v>
       </c>
       <c r="C114" t="n">
-        <v>1.18681</v>
+        <v>1.18898</v>
       </c>
       <c r="D114" t="n">
-        <v>1.33941</v>
+        <v>1.32453</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.9798210000000001</v>
+        <v>0.97951</v>
       </c>
       <c r="C115" t="n">
-        <v>1.16828</v>
+        <v>1.17359</v>
       </c>
       <c r="D115" t="n">
-        <v>1.32384</v>
+        <v>1.3132</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.970305</v>
+        <v>0.969836</v>
       </c>
       <c r="C116" t="n">
-        <v>1.15438</v>
+        <v>1.15825</v>
       </c>
       <c r="D116" t="n">
-        <v>1.3101</v>
+        <v>1.30097</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.96152</v>
+        <v>0.960925</v>
       </c>
       <c r="C117" t="n">
-        <v>1.14197</v>
+        <v>1.14445</v>
       </c>
       <c r="D117" t="n">
-        <v>1.30316</v>
+        <v>1.28987</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.953184</v>
+        <v>0.952477</v>
       </c>
       <c r="C118" t="n">
-        <v>1.13112</v>
+        <v>1.13074</v>
       </c>
       <c r="D118" t="n">
-        <v>1.29222</v>
+        <v>1.28376</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.946388</v>
+        <v>0.946042</v>
       </c>
       <c r="C119" t="n">
-        <v>1.11799</v>
+        <v>1.1216</v>
       </c>
       <c r="D119" t="n">
-        <v>1.28548</v>
+        <v>1.27543</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.940237</v>
+        <v>0.94077</v>
       </c>
       <c r="C120" t="n">
-        <v>1.10685</v>
+        <v>1.11101</v>
       </c>
       <c r="D120" t="n">
-        <v>1.27522</v>
+        <v>1.2658</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.935698</v>
+        <v>0.936319</v>
       </c>
       <c r="C121" t="n">
-        <v>1.0996</v>
+        <v>1.10287</v>
       </c>
       <c r="D121" t="n">
-        <v>1.26646</v>
+        <v>1.256</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.933822</v>
+        <v>0.9334170000000001</v>
       </c>
       <c r="C122" t="n">
-        <v>1.09261</v>
+        <v>1.09349</v>
       </c>
       <c r="D122" t="n">
-        <v>1.25797</v>
+        <v>1.24919</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.933901</v>
+        <v>0.934252</v>
       </c>
       <c r="C123" t="n">
-        <v>1.08426</v>
+        <v>1.0892</v>
       </c>
       <c r="D123" t="n">
-        <v>1.63775</v>
+        <v>1.62933</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.16157</v>
+        <v>1.16202</v>
       </c>
       <c r="C124" t="n">
-        <v>1.42882</v>
+        <v>1.43411</v>
       </c>
       <c r="D124" t="n">
-        <v>1.62501</v>
+        <v>1.6142</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.15029</v>
+        <v>1.15065</v>
       </c>
       <c r="C125" t="n">
-        <v>1.41284</v>
+        <v>1.41766</v>
       </c>
       <c r="D125" t="n">
-        <v>1.61197</v>
+        <v>1.59951</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.13906</v>
+        <v>1.13981</v>
       </c>
       <c r="C126" t="n">
-        <v>1.39949</v>
+        <v>1.40259</v>
       </c>
       <c r="D126" t="n">
-        <v>1.59956</v>
+        <v>1.58642</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.12943</v>
+        <v>1.12947</v>
       </c>
       <c r="C127" t="n">
-        <v>1.38331</v>
+        <v>1.38634</v>
       </c>
       <c r="D127" t="n">
-        <v>1.58693</v>
+        <v>1.572</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.12019</v>
+        <v>1.11936</v>
       </c>
       <c r="C128" t="n">
-        <v>1.36985</v>
+        <v>1.37195</v>
       </c>
       <c r="D128" t="n">
-        <v>1.57467</v>
+        <v>1.55854</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.11129</v>
+        <v>1.10937</v>
       </c>
       <c r="C129" t="n">
-        <v>1.35694</v>
+        <v>1.35751</v>
       </c>
       <c r="D129" t="n">
-        <v>1.563</v>
+        <v>1.55073</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.10332</v>
+        <v>1.10137</v>
       </c>
       <c r="C130" t="n">
-        <v>1.34454</v>
+        <v>1.3462</v>
       </c>
       <c r="D130" t="n">
-        <v>1.55207</v>
+        <v>1.54326</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.09613</v>
+        <v>1.09442</v>
       </c>
       <c r="C131" t="n">
-        <v>1.33404</v>
+        <v>1.33564</v>
       </c>
       <c r="D131" t="n">
-        <v>1.53982</v>
+        <v>1.53405</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.08985</v>
+        <v>1.08797</v>
       </c>
       <c r="C132" t="n">
-        <v>1.32415</v>
+        <v>1.32426</v>
       </c>
       <c r="D132" t="n">
-        <v>1.53654</v>
+        <v>1.52194</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.08471</v>
+        <v>1.08264</v>
       </c>
       <c r="C133" t="n">
-        <v>1.31684</v>
+        <v>1.31557</v>
       </c>
       <c r="D133" t="n">
-        <v>1.52839</v>
+        <v>1.5094</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.08086</v>
+        <v>1.07837</v>
       </c>
       <c r="C134" t="n">
-        <v>1.30558</v>
+        <v>1.30744</v>
       </c>
       <c r="D134" t="n">
-        <v>1.51671</v>
+        <v>1.50713</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.078</v>
+        <v>1.07616</v>
       </c>
       <c r="C135" t="n">
-        <v>1.30197</v>
+        <v>1.30022</v>
       </c>
       <c r="D135" t="n">
-        <v>1.51021</v>
+        <v>1.50108</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.07831</v>
+        <v>1.07582</v>
       </c>
       <c r="C136" t="n">
-        <v>1.29553</v>
+        <v>1.29638</v>
       </c>
       <c r="D136" t="n">
-        <v>1.50604</v>
+        <v>1.49572</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.07859</v>
+        <v>1.07678</v>
       </c>
       <c r="C137" t="n">
-        <v>1.29255</v>
+        <v>1.29116</v>
       </c>
       <c r="D137" t="n">
-        <v>1.88396</v>
+        <v>1.86624</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.30391</v>
+        <v>1.30337</v>
       </c>
       <c r="C138" t="n">
-        <v>1.63192</v>
+        <v>1.63402</v>
       </c>
       <c r="D138" t="n">
-        <v>1.86532</v>
+        <v>1.84756</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.29561</v>
+        <v>1.29556</v>
       </c>
       <c r="C139" t="n">
-        <v>1.61883</v>
+        <v>1.61985</v>
       </c>
       <c r="D139" t="n">
-        <v>1.84945</v>
+        <v>1.83258</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.28705</v>
+        <v>1.28721</v>
       </c>
       <c r="C140" t="n">
-        <v>1.60547</v>
+        <v>1.60488</v>
       </c>
       <c r="D140" t="n">
-        <v>1.8287</v>
+        <v>1.81443</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.27985</v>
+        <v>1.27948</v>
       </c>
       <c r="C141" t="n">
-        <v>1.59179</v>
+        <v>1.59356</v>
       </c>
       <c r="D141" t="n">
-        <v>1.81336</v>
+        <v>1.79498</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.27227</v>
+        <v>1.27288</v>
       </c>
       <c r="C142" t="n">
-        <v>1.58051</v>
+        <v>1.58254</v>
       </c>
       <c r="D142" t="n">
-        <v>1.79616</v>
+        <v>1.78439</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.26587</v>
+        <v>1.26736</v>
       </c>
       <c r="C143" t="n">
-        <v>1.56774</v>
+        <v>1.57219</v>
       </c>
       <c r="D143" t="n">
-        <v>1.77896</v>
+        <v>1.76694</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.483756</v>
+        <v>0.483477</v>
       </c>
       <c r="C2" t="n">
-        <v>0.603351</v>
+        <v>0.6020759999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.716126</v>
+        <v>0.715214</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.470846</v>
+        <v>0.469459</v>
       </c>
       <c r="C3" t="n">
-        <v>0.585456</v>
+        <v>0.584445</v>
       </c>
       <c r="D3" t="n">
-        <v>0.696334</v>
+        <v>0.695688</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.459715</v>
+        <v>0.458566</v>
       </c>
       <c r="C4" t="n">
-        <v>0.568478</v>
+        <v>0.568086</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6783400000000001</v>
+        <v>0.677027</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.450333</v>
+        <v>0.449495</v>
       </c>
       <c r="C5" t="n">
-        <v>0.553076</v>
+        <v>0.552962</v>
       </c>
       <c r="D5" t="n">
-        <v>0.661309</v>
+        <v>0.6609699999999999</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.442736</v>
+        <v>0.441944</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5404099999999999</v>
+        <v>0.53962</v>
       </c>
       <c r="D6" t="n">
-        <v>0.646398</v>
+        <v>0.64567</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.437173</v>
+        <v>0.436041</v>
       </c>
       <c r="C7" t="n">
-        <v>0.52796</v>
+        <v>0.52768</v>
       </c>
       <c r="D7" t="n">
-        <v>0.632771</v>
+        <v>0.631711</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.43394</v>
+        <v>0.43313</v>
       </c>
       <c r="C8" t="n">
-        <v>0.518367</v>
+        <v>0.517198</v>
       </c>
       <c r="D8" t="n">
-        <v>0.621621</v>
+        <v>0.621153</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.433563</v>
+        <v>0.432923</v>
       </c>
       <c r="C9" t="n">
-        <v>0.510974</v>
+        <v>0.509675</v>
       </c>
       <c r="D9" t="n">
-        <v>0.928946</v>
+        <v>0.927355</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.569184</v>
+        <v>0.569774</v>
       </c>
       <c r="C10" t="n">
-        <v>0.740152</v>
+        <v>0.73782</v>
       </c>
       <c r="D10" t="n">
-        <v>0.898883</v>
+        <v>0.897216</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.552592</v>
+        <v>0.552403</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7155319999999999</v>
+        <v>0.714247</v>
       </c>
       <c r="D11" t="n">
-        <v>0.870062</v>
+        <v>0.868841</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.536197</v>
+        <v>0.536075</v>
       </c>
       <c r="C12" t="n">
-        <v>0.693197</v>
+        <v>0.691708</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8424</v>
+        <v>0.841072</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.520385</v>
+        <v>0.5202020000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6714</v>
+        <v>0.670154</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8167489999999999</v>
+        <v>0.815489</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.505946</v>
+        <v>0.505729</v>
       </c>
       <c r="C14" t="n">
-        <v>0.650466</v>
+        <v>0.649562</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7923559999999999</v>
+        <v>0.791254</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.492388</v>
+        <v>0.492186</v>
       </c>
       <c r="C15" t="n">
-        <v>0.631321</v>
+        <v>0.629874</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7685999999999999</v>
+        <v>0.767834</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.479463</v>
+        <v>0.47939</v>
       </c>
       <c r="C16" t="n">
-        <v>0.612531</v>
+        <v>0.611352</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7471719999999999</v>
+        <v>0.7460599999999999</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.467616</v>
+        <v>0.467362</v>
       </c>
       <c r="C17" t="n">
-        <v>0.595218</v>
+        <v>0.594342</v>
       </c>
       <c r="D17" t="n">
-        <v>0.726911</v>
+        <v>0.725495</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.457275</v>
+        <v>0.457014</v>
       </c>
       <c r="C18" t="n">
-        <v>0.578955</v>
+        <v>0.577936</v>
       </c>
       <c r="D18" t="n">
-        <v>0.707709</v>
+        <v>0.706286</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.447742</v>
+        <v>0.447401</v>
       </c>
       <c r="C19" t="n">
-        <v>0.564036</v>
+        <v>0.562885</v>
       </c>
       <c r="D19" t="n">
-        <v>0.689659</v>
+        <v>0.688703</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.440565</v>
+        <v>0.439948</v>
       </c>
       <c r="C20" t="n">
-        <v>0.549951</v>
+        <v>0.548652</v>
       </c>
       <c r="D20" t="n">
-        <v>0.673176</v>
+        <v>0.672354</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.434249</v>
+        <v>0.434024</v>
       </c>
       <c r="C21" t="n">
-        <v>0.537501</v>
+        <v>0.536112</v>
       </c>
       <c r="D21" t="n">
-        <v>0.659343</v>
+        <v>0.658266</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.431903</v>
+        <v>0.431524</v>
       </c>
       <c r="C22" t="n">
-        <v>0.526626</v>
+        <v>0.525768</v>
       </c>
       <c r="D22" t="n">
-        <v>0.648486</v>
+        <v>0.647328</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.431438</v>
+        <v>0.435469</v>
       </c>
       <c r="C23" t="n">
-        <v>0.518112</v>
+        <v>0.516935</v>
       </c>
       <c r="D23" t="n">
-        <v>0.967329</v>
+        <v>0.966059</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.618069</v>
+        <v>0.6175349999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.79378</v>
+        <v>0.793243</v>
       </c>
       <c r="D24" t="n">
-        <v>0.935712</v>
+        <v>0.934874</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.599575</v>
+        <v>0.599425</v>
       </c>
       <c r="C25" t="n">
-        <v>0.768348</v>
+        <v>0.767926</v>
       </c>
       <c r="D25" t="n">
-        <v>0.905995</v>
+        <v>0.905206</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.581576</v>
+        <v>0.5815090000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.743702</v>
+        <v>0.742896</v>
       </c>
       <c r="D26" t="n">
-        <v>0.877862</v>
+        <v>0.876294</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.564443</v>
+        <v>0.563712</v>
       </c>
       <c r="C27" t="n">
-        <v>0.720007</v>
+        <v>0.719109</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8500760000000001</v>
+        <v>0.849078</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.54805</v>
+        <v>0.547482</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6973510000000001</v>
+        <v>0.696621</v>
       </c>
       <c r="D28" t="n">
-        <v>0.83113</v>
+        <v>0.8238490000000001</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.534345</v>
+        <v>0.53204</v>
       </c>
       <c r="C29" t="n">
-        <v>0.677543</v>
+        <v>0.67548</v>
       </c>
       <c r="D29" t="n">
-        <v>0.805267</v>
+        <v>0.799338</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.518414</v>
+        <v>0.518091</v>
       </c>
       <c r="C30" t="n">
-        <v>0.655815</v>
+        <v>0.655251</v>
       </c>
       <c r="D30" t="n">
-        <v>0.777452</v>
+        <v>0.776493</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5044419999999999</v>
+        <v>0.504995</v>
       </c>
       <c r="C31" t="n">
-        <v>0.636899</v>
+        <v>0.635853</v>
       </c>
       <c r="D31" t="n">
-        <v>0.755956</v>
+        <v>0.754603</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.492816</v>
+        <v>0.492259</v>
       </c>
       <c r="C32" t="n">
-        <v>0.619242</v>
+        <v>0.617888</v>
       </c>
       <c r="D32" t="n">
-        <v>0.735724</v>
+        <v>0.734623</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.481747</v>
+        <v>0.481146</v>
       </c>
       <c r="C33" t="n">
-        <v>0.602696</v>
+        <v>0.601379</v>
       </c>
       <c r="D33" t="n">
-        <v>0.717226</v>
+        <v>0.715648</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.471919</v>
+        <v>0.471418</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5873620000000001</v>
+        <v>0.585871</v>
       </c>
       <c r="D34" t="n">
-        <v>0.700383</v>
+        <v>0.698814</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.464078</v>
+        <v>0.464075</v>
       </c>
       <c r="C35" t="n">
-        <v>0.573137</v>
+        <v>0.571972</v>
       </c>
       <c r="D35" t="n">
-        <v>0.685231</v>
+        <v>0.683976</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.458911</v>
+        <v>0.458546</v>
       </c>
       <c r="C36" t="n">
-        <v>0.560526</v>
+        <v>0.559373</v>
       </c>
       <c r="D36" t="n">
-        <v>0.67248</v>
+        <v>0.671351</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.455531</v>
+        <v>0.456065</v>
       </c>
       <c r="C37" t="n">
-        <v>0.55056</v>
+        <v>0.549667</v>
       </c>
       <c r="D37" t="n">
-        <v>1.00189</v>
+        <v>0.995474</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.654399</v>
+        <v>0.648899</v>
       </c>
       <c r="C38" t="n">
-        <v>0.84055</v>
+        <v>0.827562</v>
       </c>
       <c r="D38" t="n">
-        <v>0.968059</v>
+        <v>0.9634160000000001</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.631123</v>
+        <v>0.629651</v>
       </c>
       <c r="C39" t="n">
-        <v>0.804016</v>
+        <v>0.801994</v>
       </c>
       <c r="D39" t="n">
-        <v>0.936438</v>
+        <v>0.934718</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.611679</v>
+        <v>0.610536</v>
       </c>
       <c r="C40" t="n">
-        <v>0.778475</v>
+        <v>0.777312</v>
       </c>
       <c r="D40" t="n">
-        <v>0.906833</v>
+        <v>0.905152</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.593571</v>
+        <v>0.593198</v>
       </c>
       <c r="C41" t="n">
-        <v>0.754092</v>
+        <v>0.751962</v>
       </c>
       <c r="D41" t="n">
-        <v>0.879263</v>
+        <v>0.877458</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.576515</v>
+        <v>0.576093</v>
       </c>
       <c r="C42" t="n">
-        <v>0.730445</v>
+        <v>0.728666</v>
       </c>
       <c r="D42" t="n">
-        <v>0.852827</v>
+        <v>0.851313</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.560267</v>
+        <v>0.559983</v>
       </c>
       <c r="C43" t="n">
-        <v>0.70895</v>
+        <v>0.707188</v>
       </c>
       <c r="D43" t="n">
-        <v>0.828001</v>
+        <v>0.826539</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5450390000000001</v>
+        <v>0.544759</v>
       </c>
       <c r="C44" t="n">
-        <v>0.687543</v>
+        <v>0.686419</v>
       </c>
       <c r="D44" t="n">
-        <v>0.804065</v>
+        <v>0.802867</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.531307</v>
+        <v>0.530846</v>
       </c>
       <c r="C45" t="n">
-        <v>0.668251</v>
+        <v>0.666537</v>
       </c>
       <c r="D45" t="n">
-        <v>0.793486</v>
+        <v>0.78024</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.525824</v>
+        <v>0.51681</v>
       </c>
       <c r="C46" t="n">
-        <v>0.6563059999999999</v>
+        <v>0.647133</v>
       </c>
       <c r="D46" t="n">
-        <v>0.771809</v>
+        <v>0.759432</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.511217</v>
+        <v>0.505569</v>
       </c>
       <c r="C47" t="n">
-        <v>0.632009</v>
+        <v>0.630467</v>
       </c>
       <c r="D47" t="n">
-        <v>0.7418400000000001</v>
+        <v>0.7407</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.496202</v>
+        <v>0.49591</v>
       </c>
       <c r="C48" t="n">
-        <v>0.615897</v>
+        <v>0.614861</v>
       </c>
       <c r="D48" t="n">
-        <v>0.723899</v>
+        <v>0.722891</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.487614</v>
+        <v>0.487421</v>
       </c>
       <c r="C49" t="n">
-        <v>0.600411</v>
+        <v>0.60017</v>
       </c>
       <c r="D49" t="n">
-        <v>0.708002</v>
+        <v>0.706674</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.480572</v>
+        <v>0.480883</v>
       </c>
       <c r="C50" t="n">
-        <v>0.587495</v>
+        <v>0.586469</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6943240000000001</v>
+        <v>0.692967</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.476919</v>
+        <v>0.476695</v>
       </c>
       <c r="C51" t="n">
-        <v>0.577017</v>
+        <v>0.576747</v>
       </c>
       <c r="D51" t="n">
-        <v>1.04181</v>
+        <v>1.0259</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.47659</v>
+        <v>0.477466</v>
       </c>
       <c r="C52" t="n">
-        <v>0.567481</v>
+        <v>0.56714</v>
       </c>
       <c r="D52" t="n">
-        <v>1.01189</v>
+        <v>0.994521</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.67611</v>
+        <v>0.658345</v>
       </c>
       <c r="C53" t="n">
-        <v>0.852748</v>
+        <v>0.835439</v>
       </c>
       <c r="D53" t="n">
-        <v>0.969386</v>
+        <v>0.9614279999999999</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.646957</v>
+        <v>0.6372139999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.817282</v>
+        <v>0.808338</v>
       </c>
       <c r="D54" t="n">
-        <v>0.943331</v>
+        <v>0.93275</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.631197</v>
+        <v>0.620166</v>
       </c>
       <c r="C55" t="n">
-        <v>0.791969</v>
+        <v>0.784429</v>
       </c>
       <c r="D55" t="n">
-        <v>0.916678</v>
+        <v>0.90796</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.615393</v>
+        <v>0.604362</v>
       </c>
       <c r="C56" t="n">
-        <v>0.765456</v>
+        <v>0.761977</v>
       </c>
       <c r="D56" t="n">
-        <v>0.887205</v>
+        <v>0.881317</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.6022650000000001</v>
+        <v>0.588167</v>
       </c>
       <c r="C57" t="n">
-        <v>0.750566</v>
+        <v>0.7401180000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>0.866937</v>
+        <v>0.857057</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.580473</v>
+        <v>0.572641</v>
       </c>
       <c r="C58" t="n">
-        <v>0.7253039999999999</v>
+        <v>0.717527</v>
       </c>
       <c r="D58" t="n">
-        <v>0.841983</v>
+        <v>0.8318179999999999</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.570611</v>
+        <v>0.557101</v>
       </c>
       <c r="C59" t="n">
-        <v>0.705831</v>
+        <v>0.697344</v>
       </c>
       <c r="D59" t="n">
-        <v>0.816623</v>
+        <v>0.808968</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.554747</v>
+        <v>0.544077</v>
       </c>
       <c r="C60" t="n">
-        <v>0.687156</v>
+        <v>0.6785409999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.798024</v>
+        <v>0.788157</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.535717</v>
+        <v>0.532375</v>
       </c>
       <c r="C61" t="n">
-        <v>0.663122</v>
+        <v>0.660473</v>
       </c>
       <c r="D61" t="n">
-        <v>0.770997</v>
+        <v>0.768305</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.525572</v>
+        <v>0.522432</v>
       </c>
       <c r="C62" t="n">
-        <v>0.652708</v>
+        <v>0.643804</v>
       </c>
       <c r="D62" t="n">
-        <v>0.758692</v>
+        <v>0.7504459999999999</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.525072</v>
+        <v>0.513459</v>
       </c>
       <c r="C63" t="n">
-        <v>0.636049</v>
+        <v>0.629487</v>
       </c>
       <c r="D63" t="n">
-        <v>0.74058</v>
+        <v>0.732961</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.512955</v>
+        <v>0.506683</v>
       </c>
       <c r="C64" t="n">
-        <v>0.621104</v>
+        <v>0.616409</v>
       </c>
       <c r="D64" t="n">
-        <v>0.727614</v>
+        <v>0.71882</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.514286</v>
+        <v>0.502279</v>
       </c>
       <c r="C65" t="n">
-        <v>0.611669</v>
+        <v>0.604028</v>
       </c>
       <c r="D65" t="n">
-        <v>0.7157480000000001</v>
+        <v>0.707022</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.51141</v>
+        <v>0.501315</v>
       </c>
       <c r="C66" t="n">
-        <v>0.602314</v>
+        <v>0.594879</v>
       </c>
       <c r="D66" t="n">
-        <v>1.0667</v>
+        <v>1.05018</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.729814</v>
+        <v>0.7168330000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.920243</v>
+        <v>0.901732</v>
       </c>
       <c r="D67" t="n">
-        <v>1.03637</v>
+        <v>1.01718</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.714462</v>
+        <v>0.700542</v>
       </c>
       <c r="C68" t="n">
-        <v>0.891738</v>
+        <v>0.875731</v>
       </c>
       <c r="D68" t="n">
-        <v>0.998438</v>
+        <v>0.984872</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6902779999999999</v>
+        <v>0.681493</v>
       </c>
       <c r="C69" t="n">
-        <v>0.85756</v>
+        <v>0.846911</v>
       </c>
       <c r="D69" t="n">
-        <v>0.967396</v>
+        <v>0.9572270000000001</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.684785</v>
+        <v>0.669745</v>
       </c>
       <c r="C70" t="n">
-        <v>0.844809</v>
+        <v>0.827465</v>
       </c>
       <c r="D70" t="n">
-        <v>0.948904</v>
+        <v>0.933025</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.672201</v>
+        <v>0.6548</v>
       </c>
       <c r="C71" t="n">
-        <v>0.820002</v>
+        <v>0.803592</v>
       </c>
       <c r="D71" t="n">
-        <v>0.921807</v>
+        <v>0.9071979999999999</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.657053</v>
+        <v>0.639456</v>
       </c>
       <c r="C72" t="n">
-        <v>0.791717</v>
+        <v>0.780707</v>
       </c>
       <c r="D72" t="n">
-        <v>0.890339</v>
+        <v>0.881556</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.631365</v>
+        <v>0.624974</v>
       </c>
       <c r="C73" t="n">
-        <v>0.769468</v>
+        <v>0.758888</v>
       </c>
       <c r="D73" t="n">
-        <v>0.868082</v>
+        <v>0.857546</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.623741</v>
+        <v>0.609302</v>
       </c>
       <c r="C74" t="n">
-        <v>0.749197</v>
+        <v>0.7361760000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.844576</v>
+        <v>0.83378</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.609808</v>
+        <v>0.597037</v>
       </c>
       <c r="C75" t="n">
-        <v>0.7290990000000001</v>
+        <v>0.718504</v>
       </c>
       <c r="D75" t="n">
-        <v>0.820194</v>
+        <v>0.813972</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.590324</v>
+        <v>0.586186</v>
       </c>
       <c r="C76" t="n">
-        <v>0.704115</v>
+        <v>0.700873</v>
       </c>
       <c r="D76" t="n">
-        <v>0.796652</v>
+        <v>0.795167</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.582166</v>
+        <v>0.575692</v>
       </c>
       <c r="C77" t="n">
-        <v>0.693743</v>
+        <v>0.685043</v>
       </c>
       <c r="D77" t="n">
-        <v>0.786097</v>
+        <v>0.780498</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.576227</v>
+        <v>0.571537</v>
       </c>
       <c r="C78" t="n">
-        <v>0.676941</v>
+        <v>0.672588</v>
       </c>
       <c r="D78" t="n">
-        <v>0.769989</v>
+        <v>0.76389</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.574586</v>
+        <v>0.564101</v>
       </c>
       <c r="C79" t="n">
-        <v>0.668152</v>
+        <v>0.6575490000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>0.759039</v>
+        <v>0.749714</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.570628</v>
+        <v>0.5610849999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>0.653928</v>
+        <v>0.648344</v>
       </c>
       <c r="D80" t="n">
-        <v>1.13394</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.797346</v>
+        <v>0.792353</v>
       </c>
       <c r="C81" t="n">
-        <v>0.99633</v>
+        <v>0.990295</v>
       </c>
       <c r="D81" t="n">
-        <v>1.11662</v>
+        <v>1.10927</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.790582</v>
+        <v>0.784486</v>
       </c>
       <c r="C82" t="n">
-        <v>0.981714</v>
+        <v>0.974776</v>
       </c>
       <c r="D82" t="n">
-        <v>1.09375</v>
+        <v>1.08708</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.778468</v>
+        <v>0.773057</v>
       </c>
       <c r="C83" t="n">
-        <v>0.959812</v>
+        <v>0.953942</v>
       </c>
       <c r="D83" t="n">
-        <v>1.06849</v>
+        <v>1.06171</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.771012</v>
+        <v>0.761961</v>
       </c>
       <c r="C84" t="n">
-        <v>0.943091</v>
+        <v>0.934548</v>
       </c>
       <c r="D84" t="n">
-        <v>1.04614</v>
+        <v>1.03871</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.760258</v>
+        <v>0.754</v>
       </c>
       <c r="C85" t="n">
-        <v>0.921339</v>
+        <v>0.915124</v>
       </c>
       <c r="D85" t="n">
-        <v>1.02067</v>
+        <v>1.01321</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.749337</v>
+        <v>0.742936</v>
       </c>
       <c r="C86" t="n">
-        <v>0.90003</v>
+        <v>0.8940900000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>0.995634</v>
+        <v>0.988825</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.737988</v>
+        <v>0.732405</v>
       </c>
       <c r="C87" t="n">
-        <v>0.879417</v>
+        <v>0.873665</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9705859999999999</v>
+        <v>0.965105</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.726245</v>
+        <v>0.721698</v>
       </c>
       <c r="C88" t="n">
-        <v>0.858452</v>
+        <v>0.8538289999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>0.947161</v>
+        <v>0.940578</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.7151650000000001</v>
+        <v>0.710399</v>
       </c>
       <c r="C89" t="n">
-        <v>0.839726</v>
+        <v>0.8341</v>
       </c>
       <c r="D89" t="n">
-        <v>0.921807</v>
+        <v>0.918067</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.703436</v>
+        <v>0.700417</v>
       </c>
       <c r="C90" t="n">
-        <v>0.820553</v>
+        <v>0.814416</v>
       </c>
       <c r="D90" t="n">
-        <v>0.902251</v>
+        <v>0.893038</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.696221</v>
+        <v>0.688294</v>
       </c>
       <c r="C91" t="n">
-        <v>0.804414</v>
+        <v>0.795418</v>
       </c>
       <c r="D91" t="n">
-        <v>0.8829</v>
+        <v>0.876414</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.686871</v>
+        <v>0.682009</v>
       </c>
       <c r="C92" t="n">
-        <v>0.788778</v>
+        <v>0.782274</v>
       </c>
       <c r="D92" t="n">
-        <v>0.865935</v>
+        <v>0.8593229999999999</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.681623</v>
+        <v>0.676011</v>
       </c>
       <c r="C93" t="n">
-        <v>0.774877</v>
+        <v>0.769089</v>
       </c>
       <c r="D93" t="n">
-        <v>0.849757</v>
+        <v>0.845066</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.676992</v>
+        <v>0.6730390000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>0.762724</v>
+        <v>0.757986</v>
       </c>
       <c r="D94" t="n">
-        <v>1.23502</v>
+        <v>1.23106</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9134330000000001</v>
+        <v>0.9083869999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>1.10689</v>
+        <v>1.10301</v>
       </c>
       <c r="D95" t="n">
-        <v>1.22575</v>
+        <v>1.22138</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.910971</v>
+        <v>0.905929</v>
       </c>
       <c r="C96" t="n">
-        <v>1.099</v>
+        <v>1.09487</v>
       </c>
       <c r="D96" t="n">
-        <v>1.20791</v>
+        <v>1.20551</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.899037</v>
+        <v>0.895921</v>
       </c>
       <c r="C97" t="n">
-        <v>1.08049</v>
+        <v>1.07725</v>
       </c>
       <c r="D97" t="n">
-        <v>1.19011</v>
+        <v>1.18441</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.889166</v>
+        <v>0.882293</v>
       </c>
       <c r="C98" t="n">
-        <v>1.06388</v>
+        <v>1.05647</v>
       </c>
       <c r="D98" t="n">
-        <v>1.16847</v>
+        <v>1.16424</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.877804</v>
+        <v>0.8751139999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>1.04453</v>
+        <v>1.04196</v>
       </c>
       <c r="D99" t="n">
-        <v>1.14857</v>
+        <v>1.14543</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.867515</v>
+        <v>0.865018</v>
       </c>
       <c r="C100" t="n">
-        <v>1.02614</v>
+        <v>1.02484</v>
       </c>
       <c r="D100" t="n">
-        <v>1.12893</v>
+        <v>1.12611</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.8574349999999999</v>
+        <v>0.854426</v>
       </c>
       <c r="C101" t="n">
-        <v>1.01039</v>
+        <v>1.00752</v>
       </c>
       <c r="D101" t="n">
-        <v>1.10892</v>
+        <v>1.10735</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.847815</v>
+        <v>0.845349</v>
       </c>
       <c r="C102" t="n">
-        <v>0.993947</v>
+        <v>0.990963</v>
       </c>
       <c r="D102" t="n">
-        <v>1.091</v>
+        <v>1.08866</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.837901</v>
+        <v>0.83692</v>
       </c>
       <c r="C103" t="n">
-        <v>0.976935</v>
+        <v>0.975836</v>
       </c>
       <c r="D103" t="n">
-        <v>1.07225</v>
+        <v>1.07078</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.8314510000000001</v>
+        <v>0.828689</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9655359999999999</v>
+        <v>0.961609</v>
       </c>
       <c r="D104" t="n">
-        <v>1.05771</v>
+        <v>1.05389</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.823999</v>
+        <v>0.8205</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9512890000000001</v>
+        <v>0.948086</v>
       </c>
       <c r="D105" t="n">
-        <v>1.04097</v>
+        <v>1.03895</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.817173</v>
+        <v>0.815847</v>
       </c>
       <c r="C106" t="n">
-        <v>0.939425</v>
+        <v>0.937029</v>
       </c>
       <c r="D106" t="n">
-        <v>1.02703</v>
+        <v>1.02572</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.813097</v>
+        <v>0.811661</v>
       </c>
       <c r="C107" t="n">
-        <v>0.928011</v>
+        <v>0.927161</v>
       </c>
       <c r="D107" t="n">
-        <v>1.01455</v>
+        <v>1.01251</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.812609</v>
+        <v>0.809854</v>
       </c>
       <c r="C108" t="n">
-        <v>0.921627</v>
+        <v>0.918495</v>
       </c>
       <c r="D108" t="n">
-        <v>1.39957</v>
+        <v>1.39572</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.812979</v>
+        <v>0.810178</v>
       </c>
       <c r="C109" t="n">
-        <v>0.915326</v>
+        <v>0.912062</v>
       </c>
       <c r="D109" t="n">
-        <v>1.39137</v>
+        <v>1.38762</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.03909</v>
+        <v>1.03566</v>
       </c>
       <c r="C110" t="n">
-        <v>1.26033</v>
+        <v>1.25675</v>
       </c>
       <c r="D110" t="n">
-        <v>1.37849</v>
+        <v>1.37677</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.02712</v>
+        <v>1.02453</v>
       </c>
       <c r="C111" t="n">
-        <v>1.2421</v>
+        <v>1.23974</v>
       </c>
       <c r="D111" t="n">
-        <v>1.36459</v>
+        <v>1.36062</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.01477</v>
+        <v>1.01202</v>
       </c>
       <c r="C112" t="n">
-        <v>1.22372</v>
+        <v>1.22172</v>
       </c>
       <c r="D112" t="n">
-        <v>1.35095</v>
+        <v>1.34977</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.00253</v>
+        <v>1.00029</v>
       </c>
       <c r="C113" t="n">
-        <v>1.20674</v>
+        <v>1.20267</v>
       </c>
       <c r="D113" t="n">
-        <v>1.33789</v>
+        <v>1.33361</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.990011</v>
+        <v>0.989187</v>
       </c>
       <c r="C114" t="n">
-        <v>1.18898</v>
+        <v>1.18689</v>
       </c>
       <c r="D114" t="n">
-        <v>1.32453</v>
+        <v>1.32215</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.97951</v>
+        <v>0.9784119999999999</v>
       </c>
       <c r="C115" t="n">
-        <v>1.17359</v>
+        <v>1.1709</v>
       </c>
       <c r="D115" t="n">
-        <v>1.3132</v>
+        <v>1.31316</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.969836</v>
+        <v>0.968845</v>
       </c>
       <c r="C116" t="n">
-        <v>1.15825</v>
+        <v>1.15683</v>
       </c>
       <c r="D116" t="n">
-        <v>1.30097</v>
+        <v>1.30272</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.960925</v>
+        <v>0.96095</v>
       </c>
       <c r="C117" t="n">
-        <v>1.14445</v>
+        <v>1.14441</v>
       </c>
       <c r="D117" t="n">
-        <v>1.28987</v>
+        <v>1.29313</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.952477</v>
+        <v>0.952647</v>
       </c>
       <c r="C118" t="n">
-        <v>1.13074</v>
+        <v>1.13192</v>
       </c>
       <c r="D118" t="n">
-        <v>1.28376</v>
+        <v>1.28351</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.946042</v>
+        <v>0.945776</v>
       </c>
       <c r="C119" t="n">
-        <v>1.1216</v>
+        <v>1.12102</v>
       </c>
       <c r="D119" t="n">
-        <v>1.27543</v>
+        <v>1.26907</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.94077</v>
+        <v>0.939483</v>
       </c>
       <c r="C120" t="n">
-        <v>1.11101</v>
+        <v>1.10836</v>
       </c>
       <c r="D120" t="n">
-        <v>1.2658</v>
+        <v>1.26449</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.936319</v>
+        <v>0.935211</v>
       </c>
       <c r="C121" t="n">
-        <v>1.10287</v>
+        <v>1.10067</v>
       </c>
       <c r="D121" t="n">
-        <v>1.256</v>
+        <v>1.25139</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.9334170000000001</v>
+        <v>0.933258</v>
       </c>
       <c r="C122" t="n">
-        <v>1.09349</v>
+        <v>1.09123</v>
       </c>
       <c r="D122" t="n">
-        <v>1.24919</v>
+        <v>1.24259</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.934252</v>
+        <v>0.933316</v>
       </c>
       <c r="C123" t="n">
-        <v>1.0892</v>
+        <v>1.08596</v>
       </c>
       <c r="D123" t="n">
-        <v>1.62933</v>
+        <v>1.62527</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.16202</v>
+        <v>1.16175</v>
       </c>
       <c r="C124" t="n">
-        <v>1.43411</v>
+        <v>1.4318</v>
       </c>
       <c r="D124" t="n">
-        <v>1.6142</v>
+        <v>1.61399</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.15065</v>
+        <v>1.15035</v>
       </c>
       <c r="C125" t="n">
         <v>1.41766</v>
       </c>
       <c r="D125" t="n">
-        <v>1.59951</v>
+        <v>1.60003</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.13981</v>
+        <v>1.13897</v>
       </c>
       <c r="C126" t="n">
-        <v>1.40259</v>
+        <v>1.40088</v>
       </c>
       <c r="D126" t="n">
-        <v>1.58642</v>
+        <v>1.58662</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.12947</v>
+        <v>1.12842</v>
       </c>
       <c r="C127" t="n">
-        <v>1.38634</v>
+        <v>1.38656</v>
       </c>
       <c r="D127" t="n">
-        <v>1.572</v>
+        <v>1.5724</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.11936</v>
+        <v>1.11974</v>
       </c>
       <c r="C128" t="n">
-        <v>1.37195</v>
+        <v>1.37247</v>
       </c>
       <c r="D128" t="n">
-        <v>1.55854</v>
+        <v>1.55899</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.10937</v>
+        <v>1.11012</v>
       </c>
       <c r="C129" t="n">
-        <v>1.35751</v>
+        <v>1.36037</v>
       </c>
       <c r="D129" t="n">
-        <v>1.55073</v>
+        <v>1.54882</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.10137</v>
+        <v>1.10196</v>
       </c>
       <c r="C130" t="n">
-        <v>1.3462</v>
+        <v>1.34699</v>
       </c>
       <c r="D130" t="n">
-        <v>1.54326</v>
+        <v>1.5403</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.09442</v>
+        <v>1.09528</v>
       </c>
       <c r="C131" t="n">
-        <v>1.33564</v>
+        <v>1.33418</v>
       </c>
       <c r="D131" t="n">
-        <v>1.53405</v>
+        <v>1.53043</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.08797</v>
+        <v>1.08859</v>
       </c>
       <c r="C132" t="n">
-        <v>1.32426</v>
+        <v>1.32535</v>
       </c>
       <c r="D132" t="n">
-        <v>1.52194</v>
+        <v>1.52267</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.08264</v>
+        <v>1.08368</v>
       </c>
       <c r="C133" t="n">
-        <v>1.31557</v>
+        <v>1.31725</v>
       </c>
       <c r="D133" t="n">
-        <v>1.5094</v>
+        <v>1.51313</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.07837</v>
+        <v>1.07937</v>
       </c>
       <c r="C134" t="n">
-        <v>1.30744</v>
+        <v>1.30889</v>
       </c>
       <c r="D134" t="n">
-        <v>1.50713</v>
+        <v>1.50924</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.07616</v>
+        <v>1.07754</v>
       </c>
       <c r="C135" t="n">
-        <v>1.30022</v>
+        <v>1.30155</v>
       </c>
       <c r="D135" t="n">
-        <v>1.50108</v>
+        <v>1.50104</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.07582</v>
+        <v>1.07663</v>
       </c>
       <c r="C136" t="n">
-        <v>1.29638</v>
+        <v>1.29531</v>
       </c>
       <c r="D136" t="n">
-        <v>1.49572</v>
+        <v>1.49518</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.07678</v>
+        <v>1.07763</v>
       </c>
       <c r="C137" t="n">
-        <v>1.29116</v>
+        <v>1.2894</v>
       </c>
       <c r="D137" t="n">
-        <v>1.86624</v>
+        <v>1.87041</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.30337</v>
+        <v>1.30364</v>
       </c>
       <c r="C138" t="n">
-        <v>1.63402</v>
+        <v>1.63246</v>
       </c>
       <c r="D138" t="n">
-        <v>1.84756</v>
+        <v>1.84916</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.29556</v>
+        <v>1.29477</v>
       </c>
       <c r="C139" t="n">
-        <v>1.61985</v>
+        <v>1.61946</v>
       </c>
       <c r="D139" t="n">
-        <v>1.83258</v>
+        <v>1.83757</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.28721</v>
+        <v>1.28655</v>
       </c>
       <c r="C140" t="n">
-        <v>1.60488</v>
+        <v>1.60536</v>
       </c>
       <c r="D140" t="n">
-        <v>1.81443</v>
+        <v>1.81693</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.27948</v>
+        <v>1.27932</v>
       </c>
       <c r="C141" t="n">
-        <v>1.59356</v>
+        <v>1.59201</v>
       </c>
       <c r="D141" t="n">
-        <v>1.79498</v>
+        <v>1.80345</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.27288</v>
+        <v>1.27209</v>
       </c>
       <c r="C142" t="n">
-        <v>1.58254</v>
+        <v>1.58213</v>
       </c>
       <c r="D142" t="n">
-        <v>1.78439</v>
+        <v>1.78243</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.26736</v>
+        <v>1.26604</v>
       </c>
       <c r="C143" t="n">
-        <v>1.57219</v>
+        <v>1.57085</v>
       </c>
       <c r="D143" t="n">
-        <v>1.76694</v>
+        <v>1.77073</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.483477</v>
+        <v>0.48316</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6020759999999999</v>
+        <v>0.602927</v>
       </c>
       <c r="D2" t="n">
-        <v>0.715214</v>
+        <v>0.716771</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.469459</v>
+        <v>0.470961</v>
       </c>
       <c r="C3" t="n">
-        <v>0.584445</v>
+        <v>0.584058</v>
       </c>
       <c r="D3" t="n">
-        <v>0.695688</v>
+        <v>0.6961619999999999</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.458566</v>
+        <v>0.46001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.568086</v>
+        <v>0.567677</v>
       </c>
       <c r="D4" t="n">
-        <v>0.677027</v>
+        <v>0.677831</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.449495</v>
+        <v>0.450237</v>
       </c>
       <c r="C5" t="n">
-        <v>0.552962</v>
+        <v>0.552279</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6609699999999999</v>
+        <v>0.661598</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.441944</v>
+        <v>0.442562</v>
       </c>
       <c r="C6" t="n">
-        <v>0.53962</v>
+        <v>0.539903</v>
       </c>
       <c r="D6" t="n">
-        <v>0.64567</v>
+        <v>0.645932</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.436041</v>
+        <v>0.436286</v>
       </c>
       <c r="C7" t="n">
-        <v>0.52768</v>
+        <v>0.528227</v>
       </c>
       <c r="D7" t="n">
-        <v>0.631711</v>
+        <v>0.63239</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.43313</v>
+        <v>0.433583</v>
       </c>
       <c r="C8" t="n">
-        <v>0.517198</v>
+        <v>0.518189</v>
       </c>
       <c r="D8" t="n">
-        <v>0.621153</v>
+        <v>0.621851</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.432923</v>
+        <v>0.433402</v>
       </c>
       <c r="C9" t="n">
-        <v>0.509675</v>
+        <v>0.510675</v>
       </c>
       <c r="D9" t="n">
-        <v>0.927355</v>
+        <v>0.927871</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.569774</v>
+        <v>0.569871</v>
       </c>
       <c r="C10" t="n">
-        <v>0.73782</v>
+        <v>0.7387049999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.897216</v>
+        <v>0.898247</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.552403</v>
+        <v>0.552912</v>
       </c>
       <c r="C11" t="n">
-        <v>0.714247</v>
+        <v>0.71497</v>
       </c>
       <c r="D11" t="n">
-        <v>0.868841</v>
+        <v>0.8697279999999999</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.536075</v>
+        <v>0.536026</v>
       </c>
       <c r="C12" t="n">
-        <v>0.691708</v>
+        <v>0.692519</v>
       </c>
       <c r="D12" t="n">
-        <v>0.841072</v>
+        <v>0.842074</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5202020000000001</v>
+        <v>0.519931</v>
       </c>
       <c r="C13" t="n">
-        <v>0.670154</v>
+        <v>0.670629</v>
       </c>
       <c r="D13" t="n">
-        <v>0.815489</v>
+        <v>0.816452</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.505729</v>
+        <v>0.505705</v>
       </c>
       <c r="C14" t="n">
-        <v>0.649562</v>
+        <v>0.649682</v>
       </c>
       <c r="D14" t="n">
-        <v>0.791254</v>
+        <v>0.791782</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.492186</v>
+        <v>0.491962</v>
       </c>
       <c r="C15" t="n">
-        <v>0.629874</v>
+        <v>0.630371</v>
       </c>
       <c r="D15" t="n">
-        <v>0.767834</v>
+        <v>0.768609</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.47939</v>
+        <v>0.479245</v>
       </c>
       <c r="C16" t="n">
-        <v>0.611352</v>
+        <v>0.612018</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7460599999999999</v>
+        <v>0.746454</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.467362</v>
+        <v>0.467165</v>
       </c>
       <c r="C17" t="n">
-        <v>0.594342</v>
+        <v>0.594225</v>
       </c>
       <c r="D17" t="n">
-        <v>0.725495</v>
+        <v>0.725761</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.457014</v>
+        <v>0.45689</v>
       </c>
       <c r="C18" t="n">
-        <v>0.577936</v>
+        <v>0.578088</v>
       </c>
       <c r="D18" t="n">
-        <v>0.706286</v>
+        <v>0.706319</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.447401</v>
+        <v>0.447271</v>
       </c>
       <c r="C19" t="n">
-        <v>0.562885</v>
+        <v>0.562998</v>
       </c>
       <c r="D19" t="n">
-        <v>0.688703</v>
+        <v>0.688736</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.439948</v>
+        <v>0.440095</v>
       </c>
       <c r="C20" t="n">
-        <v>0.548652</v>
+        <v>0.5493440000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.672354</v>
+        <v>0.672744</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.434024</v>
+        <v>0.434155</v>
       </c>
       <c r="C21" t="n">
-        <v>0.536112</v>
+        <v>0.536418</v>
       </c>
       <c r="D21" t="n">
-        <v>0.658266</v>
+        <v>0.658678</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.431524</v>
+        <v>0.431529</v>
       </c>
       <c r="C22" t="n">
-        <v>0.525768</v>
+        <v>0.526091</v>
       </c>
       <c r="D22" t="n">
-        <v>0.647328</v>
+        <v>0.647639</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.435469</v>
+        <v>0.431204</v>
       </c>
       <c r="C23" t="n">
-        <v>0.516935</v>
+        <v>0.517391</v>
       </c>
       <c r="D23" t="n">
-        <v>0.966059</v>
+        <v>0.967468</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6175349999999999</v>
+        <v>0.618322</v>
       </c>
       <c r="C24" t="n">
-        <v>0.793243</v>
+        <v>0.793949</v>
       </c>
       <c r="D24" t="n">
-        <v>0.934874</v>
+        <v>0.935926</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.599425</v>
+        <v>0.600072</v>
       </c>
       <c r="C25" t="n">
-        <v>0.767926</v>
+        <v>0.768113</v>
       </c>
       <c r="D25" t="n">
-        <v>0.905206</v>
+        <v>0.905993</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5815090000000001</v>
+        <v>0.5820689999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.742896</v>
+        <v>0.7434770000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>0.876294</v>
+        <v>0.877617</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.563712</v>
+        <v>0.564625</v>
       </c>
       <c r="C27" t="n">
-        <v>0.719109</v>
+        <v>0.720105</v>
       </c>
       <c r="D27" t="n">
-        <v>0.849078</v>
+        <v>0.850626</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.547482</v>
+        <v>0.548228</v>
       </c>
       <c r="C28" t="n">
-        <v>0.696621</v>
+        <v>0.697217</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8238490000000001</v>
+        <v>0.8246019999999999</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.53204</v>
+        <v>0.532848</v>
       </c>
       <c r="C29" t="n">
-        <v>0.67548</v>
+        <v>0.675804</v>
       </c>
       <c r="D29" t="n">
-        <v>0.799338</v>
+        <v>0.800368</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.518091</v>
+        <v>0.518898</v>
       </c>
       <c r="C30" t="n">
-        <v>0.655251</v>
+        <v>0.656494</v>
       </c>
       <c r="D30" t="n">
-        <v>0.776493</v>
+        <v>0.7777539999999999</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.504995</v>
+        <v>0.506876</v>
       </c>
       <c r="C31" t="n">
-        <v>0.635853</v>
+        <v>0.639074</v>
       </c>
       <c r="D31" t="n">
-        <v>0.754603</v>
+        <v>0.76274</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.492259</v>
+        <v>0.493262</v>
       </c>
       <c r="C32" t="n">
-        <v>0.617888</v>
+        <v>0.6200290000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.734623</v>
+        <v>0.736</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.481146</v>
+        <v>0.481317</v>
       </c>
       <c r="C33" t="n">
-        <v>0.601379</v>
+        <v>0.60228</v>
       </c>
       <c r="D33" t="n">
-        <v>0.715648</v>
+        <v>0.717334</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.471418</v>
+        <v>0.471957</v>
       </c>
       <c r="C34" t="n">
-        <v>0.585871</v>
+        <v>0.586883</v>
       </c>
       <c r="D34" t="n">
-        <v>0.698814</v>
+        <v>0.70011</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.464075</v>
+        <v>0.464097</v>
       </c>
       <c r="C35" t="n">
-        <v>0.571972</v>
+        <v>0.572752</v>
       </c>
       <c r="D35" t="n">
-        <v>0.683976</v>
+        <v>0.684739</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.458546</v>
+        <v>0.458681</v>
       </c>
       <c r="C36" t="n">
-        <v>0.559373</v>
+        <v>0.560252</v>
       </c>
       <c r="D36" t="n">
-        <v>0.671351</v>
+        <v>0.672106</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.456065</v>
+        <v>0.456107</v>
       </c>
       <c r="C37" t="n">
-        <v>0.549667</v>
+        <v>0.5514019999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>0.995474</v>
+        <v>1.03015</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.648899</v>
+        <v>0.66747</v>
       </c>
       <c r="C38" t="n">
-        <v>0.827562</v>
+        <v>0.847669</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9634160000000001</v>
+        <v>0.993123</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.629651</v>
+        <v>0.646056</v>
       </c>
       <c r="C39" t="n">
-        <v>0.801994</v>
+        <v>0.820993</v>
       </c>
       <c r="D39" t="n">
-        <v>0.934718</v>
+        <v>0.961637</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.610536</v>
+        <v>0.632811</v>
       </c>
       <c r="C40" t="n">
-        <v>0.777312</v>
+        <v>0.7995989999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.905152</v>
+        <v>0.936104</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.593198</v>
+        <v>0.616161</v>
       </c>
       <c r="C41" t="n">
-        <v>0.751962</v>
+        <v>0.769962</v>
       </c>
       <c r="D41" t="n">
-        <v>0.877458</v>
+        <v>0.888157</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.576093</v>
+        <v>0.580805</v>
       </c>
       <c r="C42" t="n">
-        <v>0.728666</v>
+        <v>0.736025</v>
       </c>
       <c r="D42" t="n">
-        <v>0.851313</v>
+        <v>0.861507</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.559983</v>
+        <v>0.56617</v>
       </c>
       <c r="C43" t="n">
-        <v>0.707188</v>
+        <v>0.7178949999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.826539</v>
+        <v>0.83787</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.544759</v>
+        <v>0.550614</v>
       </c>
       <c r="C44" t="n">
-        <v>0.686419</v>
+        <v>0.700477</v>
       </c>
       <c r="D44" t="n">
-        <v>0.802867</v>
+        <v>0.823749</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.530846</v>
+        <v>0.54161</v>
       </c>
       <c r="C45" t="n">
-        <v>0.666537</v>
+        <v>0.679736</v>
       </c>
       <c r="D45" t="n">
-        <v>0.78024</v>
+        <v>0.800073</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.51681</v>
+        <v>0.528697</v>
       </c>
       <c r="C46" t="n">
-        <v>0.647133</v>
+        <v>0.654261</v>
       </c>
       <c r="D46" t="n">
-        <v>0.759432</v>
+        <v>0.768</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.505569</v>
+        <v>0.509247</v>
       </c>
       <c r="C47" t="n">
-        <v>0.630467</v>
+        <v>0.6317160000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.7407</v>
+        <v>0.741409</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.49591</v>
+        <v>0.496943</v>
       </c>
       <c r="C48" t="n">
-        <v>0.614861</v>
+        <v>0.616313</v>
       </c>
       <c r="D48" t="n">
-        <v>0.722891</v>
+        <v>0.735154</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.487421</v>
+        <v>0.495531</v>
       </c>
       <c r="C49" t="n">
-        <v>0.60017</v>
+        <v>0.609562</v>
       </c>
       <c r="D49" t="n">
-        <v>0.706674</v>
+        <v>0.720893</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.480883</v>
+        <v>0.48218</v>
       </c>
       <c r="C50" t="n">
-        <v>0.586469</v>
+        <v>0.588304</v>
       </c>
       <c r="D50" t="n">
-        <v>0.692967</v>
+        <v>0.701591</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.476695</v>
+        <v>0.480126</v>
       </c>
       <c r="C51" t="n">
-        <v>0.576747</v>
+        <v>0.578974</v>
       </c>
       <c r="D51" t="n">
-        <v>1.0259</v>
+        <v>1.04957</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.477466</v>
+        <v>0.475915</v>
       </c>
       <c r="C52" t="n">
-        <v>0.56714</v>
+        <v>0.566913</v>
       </c>
       <c r="D52" t="n">
-        <v>0.994521</v>
+        <v>1.01915</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.658345</v>
+        <v>0.6828149999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.835439</v>
+        <v>0.854003</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9614279999999999</v>
+        <v>0.986139</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6372139999999999</v>
+        <v>0.66156</v>
       </c>
       <c r="C54" t="n">
-        <v>0.808338</v>
+        <v>0.8259919999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.93275</v>
+        <v>0.955004</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.620166</v>
+        <v>0.642566</v>
       </c>
       <c r="C55" t="n">
-        <v>0.784429</v>
+        <v>0.800244</v>
       </c>
       <c r="D55" t="n">
-        <v>0.90796</v>
+        <v>0.92906</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.604362</v>
+        <v>0.626584</v>
       </c>
       <c r="C56" t="n">
-        <v>0.761977</v>
+        <v>0.776381</v>
       </c>
       <c r="D56" t="n">
-        <v>0.881317</v>
+        <v>0.8984799999999999</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.588167</v>
+        <v>0.612766</v>
       </c>
       <c r="C57" t="n">
-        <v>0.7401180000000001</v>
+        <v>0.762572</v>
       </c>
       <c r="D57" t="n">
-        <v>0.857057</v>
+        <v>0.88591</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.572641</v>
+        <v>0.602803</v>
       </c>
       <c r="C58" t="n">
-        <v>0.717527</v>
+        <v>0.743061</v>
       </c>
       <c r="D58" t="n">
-        <v>0.8318179999999999</v>
+        <v>0.859139</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.557101</v>
+        <v>0.579696</v>
       </c>
       <c r="C59" t="n">
-        <v>0.697344</v>
+        <v>0.710465</v>
       </c>
       <c r="D59" t="n">
-        <v>0.808968</v>
+        <v>0.824936</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.544077</v>
+        <v>0.5653589999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6785409999999999</v>
+        <v>0.691782</v>
       </c>
       <c r="D60" t="n">
-        <v>0.788157</v>
+        <v>0.804041</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.532375</v>
+        <v>0.553325</v>
       </c>
       <c r="C61" t="n">
-        <v>0.660473</v>
+        <v>0.672807</v>
       </c>
       <c r="D61" t="n">
-        <v>0.768305</v>
+        <v>0.7842710000000001</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.522432</v>
+        <v>0.542667</v>
       </c>
       <c r="C62" t="n">
-        <v>0.643804</v>
+        <v>0.655278</v>
       </c>
       <c r="D62" t="n">
-        <v>0.7504459999999999</v>
+        <v>0.765561</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.513459</v>
+        <v>0.535406</v>
       </c>
       <c r="C63" t="n">
-        <v>0.629487</v>
+        <v>0.642219</v>
       </c>
       <c r="D63" t="n">
-        <v>0.732961</v>
+        <v>0.749105</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.506683</v>
+        <v>0.527979</v>
       </c>
       <c r="C64" t="n">
-        <v>0.616409</v>
+        <v>0.627051</v>
       </c>
       <c r="D64" t="n">
-        <v>0.71882</v>
+        <v>0.7343499999999999</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.502279</v>
+        <v>0.521732</v>
       </c>
       <c r="C65" t="n">
-        <v>0.604028</v>
+        <v>0.61505</v>
       </c>
       <c r="D65" t="n">
-        <v>0.707022</v>
+        <v>0.72805</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.501315</v>
+        <v>0.5244180000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>0.594879</v>
+        <v>0.612345</v>
       </c>
       <c r="D66" t="n">
-        <v>1.05018</v>
+        <v>1.07607</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.7168330000000001</v>
+        <v>0.738088</v>
       </c>
       <c r="C67" t="n">
-        <v>0.901732</v>
+        <v>0.927709</v>
       </c>
       <c r="D67" t="n">
-        <v>1.01718</v>
+        <v>1.04712</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.700542</v>
+        <v>0.724517</v>
       </c>
       <c r="C68" t="n">
-        <v>0.875731</v>
+        <v>0.9007270000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.984872</v>
+        <v>1.01629</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.681493</v>
+        <v>0.708588</v>
       </c>
       <c r="C69" t="n">
-        <v>0.846911</v>
+        <v>0.874047</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9572270000000001</v>
+        <v>0.987351</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.669745</v>
+        <v>0.692554</v>
       </c>
       <c r="C70" t="n">
-        <v>0.827465</v>
+        <v>0.848962</v>
       </c>
       <c r="D70" t="n">
-        <v>0.933025</v>
+        <v>0.958838</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.6548</v>
+        <v>0.6785060000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.803592</v>
+        <v>0.82643</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9071979999999999</v>
+        <v>0.931403</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.639456</v>
+        <v>0.6648230000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>0.780707</v>
+        <v>0.801616</v>
       </c>
       <c r="D72" t="n">
-        <v>0.881556</v>
+        <v>0.900548</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.624974</v>
+        <v>0.636749</v>
       </c>
       <c r="C73" t="n">
-        <v>0.758888</v>
+        <v>0.767195</v>
       </c>
       <c r="D73" t="n">
-        <v>0.857546</v>
+        <v>0.864876</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.609302</v>
+        <v>0.614605</v>
       </c>
       <c r="C74" t="n">
-        <v>0.7361760000000001</v>
+        <v>0.74075</v>
       </c>
       <c r="D74" t="n">
-        <v>0.83378</v>
+        <v>0.838058</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.597037</v>
+        <v>0.608595</v>
       </c>
       <c r="C75" t="n">
-        <v>0.718504</v>
+        <v>0.733447</v>
       </c>
       <c r="D75" t="n">
-        <v>0.813972</v>
+        <v>0.830067</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.586186</v>
+        <v>0.6071260000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.700873</v>
+        <v>0.716359</v>
       </c>
       <c r="D76" t="n">
-        <v>0.795167</v>
+        <v>0.8119189999999999</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.575692</v>
+        <v>0.5976900000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.685043</v>
+        <v>0.700469</v>
       </c>
       <c r="D77" t="n">
-        <v>0.780498</v>
+        <v>0.793119</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.571537</v>
+        <v>0.588414</v>
       </c>
       <c r="C78" t="n">
-        <v>0.672588</v>
+        <v>0.684513</v>
       </c>
       <c r="D78" t="n">
-        <v>0.76389</v>
+        <v>0.776798</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.564101</v>
+        <v>0.581472</v>
       </c>
       <c r="C79" t="n">
-        <v>0.6575490000000001</v>
+        <v>0.67058</v>
       </c>
       <c r="D79" t="n">
-        <v>0.749714</v>
+        <v>0.762957</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5610849999999999</v>
+        <v>0.577489</v>
       </c>
       <c r="C80" t="n">
-        <v>0.648344</v>
+        <v>0.660235</v>
       </c>
       <c r="D80" t="n">
-        <v>1.13</v>
+        <v>1.14183</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.792353</v>
+        <v>0.8037570000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>0.990295</v>
+        <v>1.00025</v>
       </c>
       <c r="D81" t="n">
-        <v>1.10927</v>
+        <v>1.12081</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.784486</v>
+        <v>0.796037</v>
       </c>
       <c r="C82" t="n">
-        <v>0.974776</v>
+        <v>0.984204</v>
       </c>
       <c r="D82" t="n">
-        <v>1.08708</v>
+        <v>1.09563</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.773057</v>
+        <v>0.783952</v>
       </c>
       <c r="C83" t="n">
-        <v>0.953942</v>
+        <v>0.962762</v>
       </c>
       <c r="D83" t="n">
-        <v>1.06171</v>
+        <v>1.07122</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.761961</v>
+        <v>0.7745880000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>0.934548</v>
+        <v>0.94397</v>
       </c>
       <c r="D84" t="n">
-        <v>1.03871</v>
+        <v>1.04823</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.754</v>
+        <v>0.763149</v>
       </c>
       <c r="C85" t="n">
-        <v>0.915124</v>
+        <v>0.922939</v>
       </c>
       <c r="D85" t="n">
-        <v>1.01321</v>
+        <v>1.02347</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.742936</v>
+        <v>0.75238</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8940900000000001</v>
+        <v>0.901849</v>
       </c>
       <c r="D86" t="n">
-        <v>0.988825</v>
+        <v>0.998271</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.732405</v>
+        <v>0.741268</v>
       </c>
       <c r="C87" t="n">
-        <v>0.873665</v>
+        <v>0.882167</v>
       </c>
       <c r="D87" t="n">
-        <v>0.965105</v>
+        <v>0.973476</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.721698</v>
+        <v>0.728795</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8538289999999999</v>
+        <v>0.861022</v>
       </c>
       <c r="D88" t="n">
-        <v>0.940578</v>
+        <v>0.949574</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.710399</v>
+        <v>0.717719</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8341</v>
+        <v>0.841218</v>
       </c>
       <c r="D89" t="n">
-        <v>0.918067</v>
+        <v>0.926736</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.700417</v>
+        <v>0.707272</v>
       </c>
       <c r="C90" t="n">
-        <v>0.814416</v>
+        <v>0.823457</v>
       </c>
       <c r="D90" t="n">
-        <v>0.893038</v>
+        <v>0.905237</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.688294</v>
+        <v>0.697247</v>
       </c>
       <c r="C91" t="n">
-        <v>0.795418</v>
+        <v>0.805673</v>
       </c>
       <c r="D91" t="n">
-        <v>0.876414</v>
+        <v>0.884088</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.682009</v>
+        <v>0.688585</v>
       </c>
       <c r="C92" t="n">
-        <v>0.782274</v>
+        <v>0.789963</v>
       </c>
       <c r="D92" t="n">
-        <v>0.8593229999999999</v>
+        <v>0.868707</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.676011</v>
+        <v>0.685175</v>
       </c>
       <c r="C93" t="n">
-        <v>0.769089</v>
+        <v>0.776911</v>
       </c>
       <c r="D93" t="n">
-        <v>0.845066</v>
+        <v>0.852502</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.6730390000000001</v>
+        <v>0.680546</v>
       </c>
       <c r="C94" t="n">
-        <v>0.757986</v>
+        <v>0.764342</v>
       </c>
       <c r="D94" t="n">
-        <v>1.23106</v>
+        <v>1.23841</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9083869999999999</v>
+        <v>0.91572</v>
       </c>
       <c r="C95" t="n">
-        <v>1.10301</v>
+        <v>1.10918</v>
       </c>
       <c r="D95" t="n">
-        <v>1.22138</v>
+        <v>1.22898</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.905929</v>
+        <v>0.912523</v>
       </c>
       <c r="C96" t="n">
-        <v>1.09487</v>
+        <v>1.10187</v>
       </c>
       <c r="D96" t="n">
-        <v>1.20551</v>
+        <v>1.21333</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.895921</v>
+        <v>0.902682</v>
       </c>
       <c r="C97" t="n">
-        <v>1.07725</v>
+        <v>1.08404</v>
       </c>
       <c r="D97" t="n">
-        <v>1.18441</v>
+        <v>1.19427</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.882293</v>
+        <v>0.891613</v>
       </c>
       <c r="C98" t="n">
-        <v>1.05647</v>
+        <v>1.06561</v>
       </c>
       <c r="D98" t="n">
-        <v>1.16424</v>
+        <v>1.17312</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.8751139999999999</v>
+        <v>0.881057</v>
       </c>
       <c r="C99" t="n">
-        <v>1.04196</v>
+        <v>1.04567</v>
       </c>
       <c r="D99" t="n">
-        <v>1.14543</v>
+        <v>1.15038</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.865018</v>
+        <v>0.8709710000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>1.02484</v>
+        <v>1.02948</v>
       </c>
       <c r="D100" t="n">
-        <v>1.12611</v>
+        <v>1.13209</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.854426</v>
+        <v>0.86048</v>
       </c>
       <c r="C101" t="n">
-        <v>1.00752</v>
+        <v>1.01188</v>
       </c>
       <c r="D101" t="n">
-        <v>1.10735</v>
+        <v>1.11216</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.845349</v>
+        <v>0.851255</v>
       </c>
       <c r="C102" t="n">
-        <v>0.990963</v>
+        <v>0.996251</v>
       </c>
       <c r="D102" t="n">
-        <v>1.08866</v>
+        <v>1.09417</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.83692</v>
+        <v>0.842071</v>
       </c>
       <c r="C103" t="n">
-        <v>0.975836</v>
+        <v>0.981131</v>
       </c>
       <c r="D103" t="n">
-        <v>1.07078</v>
+        <v>1.07759</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.828689</v>
+        <v>0.834245</v>
       </c>
       <c r="C104" t="n">
-        <v>0.961609</v>
+        <v>0.967024</v>
       </c>
       <c r="D104" t="n">
-        <v>1.05389</v>
+        <v>1.059</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.8205</v>
+        <v>0.826877</v>
       </c>
       <c r="C105" t="n">
-        <v>0.948086</v>
+        <v>0.95336</v>
       </c>
       <c r="D105" t="n">
-        <v>1.03895</v>
+        <v>1.0443</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.815847</v>
+        <v>0.819569</v>
       </c>
       <c r="C106" t="n">
-        <v>0.937029</v>
+        <v>0.939327</v>
       </c>
       <c r="D106" t="n">
-        <v>1.02572</v>
+        <v>1.02816</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.811661</v>
+        <v>0.816587</v>
       </c>
       <c r="C107" t="n">
-        <v>0.927161</v>
+        <v>0.930527</v>
       </c>
       <c r="D107" t="n">
-        <v>1.01251</v>
+        <v>1.01668</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.809854</v>
+        <v>0.8136330000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>0.918495</v>
+        <v>0.922309</v>
       </c>
       <c r="D108" t="n">
-        <v>1.39572</v>
+        <v>1.40249</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.810178</v>
+        <v>0.814146</v>
       </c>
       <c r="C109" t="n">
-        <v>0.912062</v>
+        <v>0.915874</v>
       </c>
       <c r="D109" t="n">
-        <v>1.38762</v>
+        <v>1.39505</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.03566</v>
+        <v>1.04386</v>
       </c>
       <c r="C110" t="n">
-        <v>1.25675</v>
+        <v>1.26306</v>
       </c>
       <c r="D110" t="n">
-        <v>1.37677</v>
+        <v>1.38082</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.02453</v>
+        <v>1.03097</v>
       </c>
       <c r="C111" t="n">
-        <v>1.23974</v>
+        <v>1.24383</v>
       </c>
       <c r="D111" t="n">
-        <v>1.36062</v>
+        <v>1.36664</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.01202</v>
+        <v>1.01799</v>
       </c>
       <c r="C112" t="n">
-        <v>1.22172</v>
+        <v>1.22657</v>
       </c>
       <c r="D112" t="n">
-        <v>1.34977</v>
+        <v>1.35375</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.00029</v>
+        <v>1.00578</v>
       </c>
       <c r="C113" t="n">
-        <v>1.20267</v>
+        <v>1.20833</v>
       </c>
       <c r="D113" t="n">
-        <v>1.33361</v>
+        <v>1.34093</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.989187</v>
+        <v>0.99437</v>
       </c>
       <c r="C114" t="n">
-        <v>1.18689</v>
+        <v>1.19166</v>
       </c>
       <c r="D114" t="n">
-        <v>1.32215</v>
+        <v>1.32949</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.9784119999999999</v>
+        <v>0.984658</v>
       </c>
       <c r="C115" t="n">
-        <v>1.1709</v>
+        <v>1.17547</v>
       </c>
       <c r="D115" t="n">
-        <v>1.31316</v>
+        <v>1.31798</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.968845</v>
+        <v>0.9740839999999999</v>
       </c>
       <c r="C116" t="n">
-        <v>1.15683</v>
+        <v>1.16028</v>
       </c>
       <c r="D116" t="n">
-        <v>1.30272</v>
+        <v>1.3075</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.96095</v>
+        <v>0.965125</v>
       </c>
       <c r="C117" t="n">
-        <v>1.14441</v>
+        <v>1.14711</v>
       </c>
       <c r="D117" t="n">
-        <v>1.29313</v>
+        <v>1.29613</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.952647</v>
+        <v>0.956793</v>
       </c>
       <c r="C118" t="n">
-        <v>1.13192</v>
+        <v>1.13439</v>
       </c>
       <c r="D118" t="n">
-        <v>1.28351</v>
+        <v>1.28533</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.945776</v>
+        <v>0.9478569999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>1.12102</v>
+        <v>1.12263</v>
       </c>
       <c r="D119" t="n">
-        <v>1.26907</v>
+        <v>1.27682</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.939483</v>
+        <v>0.943051</v>
       </c>
       <c r="C120" t="n">
-        <v>1.10836</v>
+        <v>1.11197</v>
       </c>
       <c r="D120" t="n">
-        <v>1.26449</v>
+        <v>1.26723</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.935211</v>
+        <v>0.938486</v>
       </c>
       <c r="C121" t="n">
-        <v>1.10067</v>
+        <v>1.10202</v>
       </c>
       <c r="D121" t="n">
-        <v>1.25139</v>
+        <v>1.25931</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.933258</v>
+        <v>0.936206</v>
       </c>
       <c r="C122" t="n">
-        <v>1.09123</v>
+        <v>1.09529</v>
       </c>
       <c r="D122" t="n">
-        <v>1.24259</v>
+        <v>1.25127</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.933316</v>
+        <v>0.936052</v>
       </c>
       <c r="C123" t="n">
-        <v>1.08596</v>
+        <v>1.08987</v>
       </c>
       <c r="D123" t="n">
-        <v>1.62527</v>
+        <v>1.63341</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.16175</v>
+        <v>1.16501</v>
       </c>
       <c r="C124" t="n">
-        <v>1.4318</v>
+        <v>1.4364</v>
       </c>
       <c r="D124" t="n">
-        <v>1.61399</v>
+        <v>1.61855</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.15035</v>
+        <v>1.15425</v>
       </c>
       <c r="C125" t="n">
-        <v>1.41766</v>
+        <v>1.41892</v>
       </c>
       <c r="D125" t="n">
-        <v>1.60003</v>
+        <v>1.60271</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.13897</v>
+        <v>1.14239</v>
       </c>
       <c r="C126" t="n">
-        <v>1.40088</v>
+        <v>1.40256</v>
       </c>
       <c r="D126" t="n">
-        <v>1.58662</v>
+        <v>1.59293</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.12842</v>
+        <v>1.13244</v>
       </c>
       <c r="C127" t="n">
-        <v>1.38656</v>
+        <v>1.38851</v>
       </c>
       <c r="D127" t="n">
-        <v>1.5724</v>
+        <v>1.58026</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.11974</v>
+        <v>1.1235</v>
       </c>
       <c r="C128" t="n">
-        <v>1.37247</v>
+        <v>1.37524</v>
       </c>
       <c r="D128" t="n">
-        <v>1.55899</v>
+        <v>1.57057</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.11012</v>
+        <v>1.11427</v>
       </c>
       <c r="C129" t="n">
-        <v>1.36037</v>
+        <v>1.36079</v>
       </c>
       <c r="D129" t="n">
-        <v>1.54882</v>
+        <v>1.55667</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.10196</v>
+        <v>1.10618</v>
       </c>
       <c r="C130" t="n">
-        <v>1.34699</v>
+        <v>1.34854</v>
       </c>
       <c r="D130" t="n">
-        <v>1.5403</v>
+        <v>1.54555</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.09528</v>
+        <v>1.09845</v>
       </c>
       <c r="C131" t="n">
-        <v>1.33418</v>
+        <v>1.33823</v>
       </c>
       <c r="D131" t="n">
-        <v>1.53043</v>
+        <v>1.53901</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.08859</v>
+        <v>1.09255</v>
       </c>
       <c r="C132" t="n">
-        <v>1.32535</v>
+        <v>1.32766</v>
       </c>
       <c r="D132" t="n">
-        <v>1.52267</v>
+        <v>1.53212</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.08368</v>
+        <v>1.08703</v>
       </c>
       <c r="C133" t="n">
-        <v>1.31725</v>
+        <v>1.31879</v>
       </c>
       <c r="D133" t="n">
-        <v>1.51313</v>
+        <v>1.51594</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.07937</v>
+        <v>1.08334</v>
       </c>
       <c r="C134" t="n">
-        <v>1.30889</v>
+        <v>1.30957</v>
       </c>
       <c r="D134" t="n">
-        <v>1.50924</v>
+        <v>1.51473</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.07754</v>
+        <v>1.08075</v>
       </c>
       <c r="C135" t="n">
-        <v>1.30155</v>
+        <v>1.30336</v>
       </c>
       <c r="D135" t="n">
-        <v>1.50104</v>
+        <v>1.50627</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.07663</v>
+        <v>1.08056</v>
       </c>
       <c r="C136" t="n">
-        <v>1.29531</v>
+        <v>1.29811</v>
       </c>
       <c r="D136" t="n">
-        <v>1.49518</v>
+        <v>1.50172</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.07763</v>
+        <v>1.08083</v>
       </c>
       <c r="C137" t="n">
-        <v>1.2894</v>
+        <v>1.29273</v>
       </c>
       <c r="D137" t="n">
-        <v>1.87041</v>
+        <v>1.88019</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.30364</v>
+        <v>1.30835</v>
       </c>
       <c r="C138" t="n">
-        <v>1.63246</v>
+        <v>1.63728</v>
       </c>
       <c r="D138" t="n">
-        <v>1.84916</v>
+        <v>1.85906</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.29477</v>
+        <v>1.29979</v>
       </c>
       <c r="C139" t="n">
-        <v>1.61946</v>
+        <v>1.6232</v>
       </c>
       <c r="D139" t="n">
-        <v>1.83757</v>
+        <v>1.84001</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.28655</v>
+        <v>1.29157</v>
       </c>
       <c r="C140" t="n">
-        <v>1.60536</v>
+        <v>1.6089</v>
       </c>
       <c r="D140" t="n">
-        <v>1.81693</v>
+        <v>1.82311</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.27932</v>
+        <v>1.28312</v>
       </c>
       <c r="C141" t="n">
-        <v>1.59201</v>
+        <v>1.59624</v>
       </c>
       <c r="D141" t="n">
-        <v>1.80345</v>
+        <v>1.80765</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.27209</v>
+        <v>1.27671</v>
       </c>
       <c r="C142" t="n">
-        <v>1.58213</v>
+        <v>1.58599</v>
       </c>
       <c r="D142" t="n">
-        <v>1.78243</v>
+        <v>1.7925</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.26604</v>
+        <v>1.2708</v>
       </c>
       <c r="C143" t="n">
-        <v>1.57085</v>
+        <v>1.57493</v>
       </c>
       <c r="D143" t="n">
-        <v>1.77073</v>
+        <v>1.77739</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.48316</v>
+        <v>0.482966</v>
       </c>
       <c r="C2" t="n">
-        <v>0.602927</v>
+        <v>0.602276</v>
       </c>
       <c r="D2" t="n">
-        <v>0.716771</v>
+        <v>0.761653</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.470961</v>
+        <v>0.471098</v>
       </c>
       <c r="C3" t="n">
-        <v>0.584058</v>
+        <v>0.584147</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6961619999999999</v>
+        <v>0.739946</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.46001</v>
+        <v>0.459561</v>
       </c>
       <c r="C4" t="n">
-        <v>0.567677</v>
+        <v>0.568553</v>
       </c>
       <c r="D4" t="n">
-        <v>0.677831</v>
+        <v>0.720019</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.450237</v>
+        <v>0.449968</v>
       </c>
       <c r="C5" t="n">
-        <v>0.552279</v>
+        <v>0.55326</v>
       </c>
       <c r="D5" t="n">
-        <v>0.661598</v>
+        <v>0.701864</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.442562</v>
+        <v>0.442252</v>
       </c>
       <c r="C6" t="n">
-        <v>0.539903</v>
+        <v>0.539552</v>
       </c>
       <c r="D6" t="n">
-        <v>0.645932</v>
+        <v>0.686221</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.436286</v>
+        <v>0.43646</v>
       </c>
       <c r="C7" t="n">
-        <v>0.528227</v>
+        <v>0.5282249999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.63239</v>
+        <v>0.67179</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.433583</v>
+        <v>0.433389</v>
       </c>
       <c r="C8" t="n">
-        <v>0.518189</v>
+        <v>0.5186809999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.621851</v>
+        <v>0.660995</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.433402</v>
+        <v>0.432751</v>
       </c>
       <c r="C9" t="n">
-        <v>0.510675</v>
+        <v>0.509804</v>
       </c>
       <c r="D9" t="n">
-        <v>0.927871</v>
+        <v>0.653674</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.569871</v>
+        <v>0.621401</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7387049999999999</v>
+        <v>0.780107</v>
       </c>
       <c r="D10" t="n">
-        <v>0.898247</v>
+        <v>0.976328</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.552912</v>
+        <v>0.6010180000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.71497</v>
+        <v>0.754302</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8697279999999999</v>
+        <v>0.945047</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.536026</v>
+        <v>0.581866</v>
       </c>
       <c r="C12" t="n">
-        <v>0.692519</v>
+        <v>0.729138</v>
       </c>
       <c r="D12" t="n">
-        <v>0.842074</v>
+        <v>0.9143</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.519931</v>
+        <v>0.564773</v>
       </c>
       <c r="C13" t="n">
-        <v>0.670629</v>
+        <v>0.706349</v>
       </c>
       <c r="D13" t="n">
-        <v>0.816452</v>
+        <v>0.885663</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.505705</v>
+        <v>0.548244</v>
       </c>
       <c r="C14" t="n">
-        <v>0.649682</v>
+        <v>0.683615</v>
       </c>
       <c r="D14" t="n">
-        <v>0.791782</v>
+        <v>0.858227</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.491962</v>
+        <v>0.532521</v>
       </c>
       <c r="C15" t="n">
-        <v>0.630371</v>
+        <v>0.661891</v>
       </c>
       <c r="D15" t="n">
-        <v>0.768609</v>
+        <v>0.831954</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.479245</v>
+        <v>0.5173450000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.612018</v>
+        <v>0.641989</v>
       </c>
       <c r="D16" t="n">
-        <v>0.746454</v>
+        <v>0.807357</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.467165</v>
+        <v>0.504065</v>
       </c>
       <c r="C17" t="n">
-        <v>0.594225</v>
+        <v>0.623252</v>
       </c>
       <c r="D17" t="n">
-        <v>0.725761</v>
+        <v>0.7839159999999999</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.45689</v>
+        <v>0.491058</v>
       </c>
       <c r="C18" t="n">
-        <v>0.578088</v>
+        <v>0.606634</v>
       </c>
       <c r="D18" t="n">
-        <v>0.706319</v>
+        <v>0.762327</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.447271</v>
+        <v>0.480582</v>
       </c>
       <c r="C19" t="n">
-        <v>0.562998</v>
+        <v>0.590103</v>
       </c>
       <c r="D19" t="n">
-        <v>0.688736</v>
+        <v>0.742441</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.440095</v>
+        <v>0.47168</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5493440000000001</v>
+        <v>0.574022</v>
       </c>
       <c r="D20" t="n">
-        <v>0.672744</v>
+        <v>0.723357</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.434155</v>
+        <v>0.463292</v>
       </c>
       <c r="C21" t="n">
-        <v>0.536418</v>
+        <v>0.5600039999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.658678</v>
+        <v>0.707581</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.431529</v>
+        <v>0.459574</v>
       </c>
       <c r="C22" t="n">
-        <v>0.526091</v>
+        <v>0.548718</v>
       </c>
       <c r="D22" t="n">
-        <v>0.647639</v>
+        <v>0.694492</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.431204</v>
+        <v>0.457748</v>
       </c>
       <c r="C23" t="n">
-        <v>0.517391</v>
+        <v>0.539045</v>
       </c>
       <c r="D23" t="n">
-        <v>0.967468</v>
+        <v>0.684419</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.618322</v>
+        <v>0.6445419999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.793949</v>
+        <v>0.813128</v>
       </c>
       <c r="D24" t="n">
-        <v>0.935926</v>
+        <v>1.01324</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.600072</v>
+        <v>0.624502</v>
       </c>
       <c r="C25" t="n">
-        <v>0.768113</v>
+        <v>0.786694</v>
       </c>
       <c r="D25" t="n">
-        <v>0.905993</v>
+        <v>0.980421</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5820689999999999</v>
+        <v>0.605305</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7434770000000001</v>
+        <v>0.761549</v>
       </c>
       <c r="D26" t="n">
-        <v>0.877617</v>
+        <v>0.948576</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.564625</v>
+        <v>0.586584</v>
       </c>
       <c r="C27" t="n">
-        <v>0.720105</v>
+        <v>0.737422</v>
       </c>
       <c r="D27" t="n">
-        <v>0.850626</v>
+        <v>0.91881</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.548228</v>
+        <v>0.568811</v>
       </c>
       <c r="C28" t="n">
-        <v>0.697217</v>
+        <v>0.713758</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8246019999999999</v>
+        <v>0.889869</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.532848</v>
+        <v>0.553061</v>
       </c>
       <c r="C29" t="n">
-        <v>0.675804</v>
+        <v>0.690694</v>
       </c>
       <c r="D29" t="n">
-        <v>0.800368</v>
+        <v>0.862553</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.518898</v>
+        <v>0.537832</v>
       </c>
       <c r="C30" t="n">
-        <v>0.656494</v>
+        <v>0.670175</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7777539999999999</v>
+        <v>0.836483</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.506876</v>
+        <v>0.523708</v>
       </c>
       <c r="C31" t="n">
-        <v>0.639074</v>
+        <v>0.651285</v>
       </c>
       <c r="D31" t="n">
-        <v>0.76274</v>
+        <v>0.8129769999999999</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.493262</v>
+        <v>0.510494</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6200290000000001</v>
+        <v>0.6328589999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>0.736</v>
+        <v>0.790177</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.481317</v>
+        <v>0.498441</v>
       </c>
       <c r="C33" t="n">
-        <v>0.60228</v>
+        <v>0.615509</v>
       </c>
       <c r="D33" t="n">
-        <v>0.717334</v>
+        <v>0.76864</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.471957</v>
+        <v>0.487851</v>
       </c>
       <c r="C34" t="n">
-        <v>0.586883</v>
+        <v>0.599427</v>
       </c>
       <c r="D34" t="n">
-        <v>0.70011</v>
+        <v>0.749935</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.464097</v>
+        <v>0.479569</v>
       </c>
       <c r="C35" t="n">
-        <v>0.572752</v>
+        <v>0.584337</v>
       </c>
       <c r="D35" t="n">
-        <v>0.684739</v>
+        <v>0.732747</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.458681</v>
+        <v>0.473172</v>
       </c>
       <c r="C36" t="n">
-        <v>0.560252</v>
+        <v>0.57174</v>
       </c>
       <c r="D36" t="n">
-        <v>0.672106</v>
+        <v>0.7182770000000001</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.456107</v>
+        <v>0.469683</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5514019999999999</v>
+        <v>0.5612279999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>1.03015</v>
+        <v>0.706586</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.66747</v>
+        <v>0.664401</v>
       </c>
       <c r="C38" t="n">
-        <v>0.847669</v>
+        <v>0.8432190000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.993123</v>
+        <v>1.04459</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.646056</v>
+        <v>0.645393</v>
       </c>
       <c r="C39" t="n">
-        <v>0.820993</v>
+        <v>0.81787</v>
       </c>
       <c r="D39" t="n">
-        <v>0.961637</v>
+        <v>1.01282</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.632811</v>
+        <v>0.624737</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7995989999999999</v>
+        <v>0.791082</v>
       </c>
       <c r="D40" t="n">
-        <v>0.936104</v>
+        <v>0.979766</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.616161</v>
+        <v>0.605775</v>
       </c>
       <c r="C41" t="n">
-        <v>0.769962</v>
+        <v>0.764226</v>
       </c>
       <c r="D41" t="n">
-        <v>0.888157</v>
+        <v>0.947497</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.580805</v>
+        <v>0.587487</v>
       </c>
       <c r="C42" t="n">
-        <v>0.736025</v>
+        <v>0.740717</v>
       </c>
       <c r="D42" t="n">
-        <v>0.861507</v>
+        <v>0.918178</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.56617</v>
+        <v>0.571487</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7178949999999999</v>
+        <v>0.718912</v>
       </c>
       <c r="D43" t="n">
-        <v>0.83787</v>
+        <v>0.891132</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.550614</v>
+        <v>0.555065</v>
       </c>
       <c r="C44" t="n">
-        <v>0.700477</v>
+        <v>0.696978</v>
       </c>
       <c r="D44" t="n">
-        <v>0.823749</v>
+        <v>0.864316</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.54161</v>
+        <v>0.5407189999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>0.679736</v>
+        <v>0.67663</v>
       </c>
       <c r="D45" t="n">
-        <v>0.800073</v>
+        <v>0.8404160000000001</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.528697</v>
+        <v>0.528169</v>
       </c>
       <c r="C46" t="n">
-        <v>0.654261</v>
+        <v>0.659107</v>
       </c>
       <c r="D46" t="n">
-        <v>0.768</v>
+        <v>0.817597</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.509247</v>
+        <v>0.515942</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6317160000000001</v>
+        <v>0.640568</v>
       </c>
       <c r="D47" t="n">
-        <v>0.741409</v>
+        <v>0.795672</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.496943</v>
+        <v>0.505695</v>
       </c>
       <c r="C48" t="n">
-        <v>0.616313</v>
+        <v>0.624301</v>
       </c>
       <c r="D48" t="n">
-        <v>0.735154</v>
+        <v>0.77437</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.495531</v>
+        <v>0.494994</v>
       </c>
       <c r="C49" t="n">
-        <v>0.609562</v>
+        <v>0.607109</v>
       </c>
       <c r="D49" t="n">
-        <v>0.720893</v>
+        <v>0.756192</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.48218</v>
+        <v>0.488572</v>
       </c>
       <c r="C50" t="n">
-        <v>0.588304</v>
+        <v>0.594657</v>
       </c>
       <c r="D50" t="n">
-        <v>0.701591</v>
+        <v>0.74035</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.480126</v>
+        <v>0.483903</v>
       </c>
       <c r="C51" t="n">
-        <v>0.578974</v>
+        <v>0.582672</v>
       </c>
       <c r="D51" t="n">
-        <v>1.04957</v>
+        <v>0.726401</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.475915</v>
+        <v>0.482128</v>
       </c>
       <c r="C52" t="n">
-        <v>0.566913</v>
+        <v>0.573082</v>
       </c>
       <c r="D52" t="n">
-        <v>1.01915</v>
+        <v>0.717737</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.6828149999999999</v>
+        <v>0.664951</v>
       </c>
       <c r="C53" t="n">
-        <v>0.854003</v>
+        <v>0.849562</v>
       </c>
       <c r="D53" t="n">
-        <v>0.986139</v>
+        <v>1.04545</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.66156</v>
+        <v>0.646297</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8259919999999999</v>
+        <v>0.828191</v>
       </c>
       <c r="D54" t="n">
-        <v>0.955004</v>
+        <v>1.0174</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.642566</v>
+        <v>0.631002</v>
       </c>
       <c r="C55" t="n">
-        <v>0.800244</v>
+        <v>0.802167</v>
       </c>
       <c r="D55" t="n">
-        <v>0.92906</v>
+        <v>0.985429</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.626584</v>
+        <v>0.613626</v>
       </c>
       <c r="C56" t="n">
-        <v>0.776381</v>
+        <v>0.777419</v>
       </c>
       <c r="D56" t="n">
-        <v>0.8984799999999999</v>
+        <v>0.9562079999999999</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.612766</v>
+        <v>0.596485</v>
       </c>
       <c r="C57" t="n">
-        <v>0.762572</v>
+        <v>0.752255</v>
       </c>
       <c r="D57" t="n">
-        <v>0.88591</v>
+        <v>0.923233</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.602803</v>
+        <v>0.577842</v>
       </c>
       <c r="C58" t="n">
-        <v>0.743061</v>
+        <v>0.728599</v>
       </c>
       <c r="D58" t="n">
-        <v>0.859139</v>
+        <v>0.896495</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.579696</v>
+        <v>0.562991</v>
       </c>
       <c r="C59" t="n">
-        <v>0.710465</v>
+        <v>0.707741</v>
       </c>
       <c r="D59" t="n">
-        <v>0.824936</v>
+        <v>0.870661</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5653589999999999</v>
+        <v>0.548885</v>
       </c>
       <c r="C60" t="n">
-        <v>0.691782</v>
+        <v>0.688298</v>
       </c>
       <c r="D60" t="n">
-        <v>0.804041</v>
+        <v>0.846876</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.553325</v>
+        <v>0.537315</v>
       </c>
       <c r="C61" t="n">
-        <v>0.672807</v>
+        <v>0.6702129999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.7842710000000001</v>
+        <v>0.824889</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.542667</v>
+        <v>0.52645</v>
       </c>
       <c r="C62" t="n">
-        <v>0.655278</v>
+        <v>0.654296</v>
       </c>
       <c r="D62" t="n">
-        <v>0.765561</v>
+        <v>0.803594</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.535406</v>
+        <v>0.517522</v>
       </c>
       <c r="C63" t="n">
-        <v>0.642219</v>
+        <v>0.6377350000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.749105</v>
+        <v>0.784676</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.527979</v>
+        <v>0.509845</v>
       </c>
       <c r="C64" t="n">
-        <v>0.627051</v>
+        <v>0.623273</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7343499999999999</v>
+        <v>0.7680129999999999</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.521732</v>
+        <v>0.50568</v>
       </c>
       <c r="C65" t="n">
-        <v>0.61505</v>
+        <v>0.611248</v>
       </c>
       <c r="D65" t="n">
-        <v>0.72805</v>
+        <v>0.753928</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5244180000000001</v>
+        <v>0.504281</v>
       </c>
       <c r="C66" t="n">
-        <v>0.612345</v>
+        <v>0.601952</v>
       </c>
       <c r="D66" t="n">
-        <v>1.07607</v>
+        <v>0.7437780000000001</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.738088</v>
+        <v>0.718639</v>
       </c>
       <c r="C67" t="n">
-        <v>0.927709</v>
+        <v>0.910448</v>
       </c>
       <c r="D67" t="n">
-        <v>1.04712</v>
+        <v>1.1023</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.724517</v>
+        <v>0.701296</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9007270000000001</v>
+        <v>0.883426</v>
       </c>
       <c r="D68" t="n">
-        <v>1.01629</v>
+        <v>1.06891</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.708588</v>
+        <v>0.684938</v>
       </c>
       <c r="C69" t="n">
-        <v>0.874047</v>
+        <v>0.860699</v>
       </c>
       <c r="D69" t="n">
-        <v>0.987351</v>
+        <v>1.04079</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.692554</v>
+        <v>0.673249</v>
       </c>
       <c r="C70" t="n">
-        <v>0.848962</v>
+        <v>0.836846</v>
       </c>
       <c r="D70" t="n">
-        <v>0.958838</v>
+        <v>1.0111</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.6785060000000001</v>
+        <v>0.657328</v>
       </c>
       <c r="C71" t="n">
-        <v>0.82643</v>
+        <v>0.812844</v>
       </c>
       <c r="D71" t="n">
-        <v>0.931403</v>
+        <v>0.981679</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6648230000000001</v>
+        <v>0.6416230000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>0.801616</v>
+        <v>0.790934</v>
       </c>
       <c r="D72" t="n">
-        <v>0.900548</v>
+        <v>0.9559879999999999</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.636749</v>
+        <v>0.630111</v>
       </c>
       <c r="C73" t="n">
-        <v>0.767195</v>
+        <v>0.770915</v>
       </c>
       <c r="D73" t="n">
-        <v>0.864876</v>
+        <v>0.929662</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.614605</v>
+        <v>0.617157</v>
       </c>
       <c r="C74" t="n">
-        <v>0.74075</v>
+        <v>0.751316</v>
       </c>
       <c r="D74" t="n">
-        <v>0.838058</v>
+        <v>0.907794</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.608595</v>
+        <v>0.606405</v>
       </c>
       <c r="C75" t="n">
-        <v>0.733447</v>
+        <v>0.733718</v>
       </c>
       <c r="D75" t="n">
-        <v>0.830067</v>
+        <v>0.8838279999999999</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.6071260000000001</v>
+        <v>0.594211</v>
       </c>
       <c r="C76" t="n">
-        <v>0.716359</v>
+        <v>0.714824</v>
       </c>
       <c r="D76" t="n">
-        <v>0.8119189999999999</v>
+        <v>0.860729</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5976900000000001</v>
+        <v>0.583988</v>
       </c>
       <c r="C77" t="n">
-        <v>0.700469</v>
+        <v>0.697257</v>
       </c>
       <c r="D77" t="n">
-        <v>0.793119</v>
+        <v>0.840881</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.588414</v>
+        <v>0.574828</v>
       </c>
       <c r="C78" t="n">
-        <v>0.684513</v>
+        <v>0.681218</v>
       </c>
       <c r="D78" t="n">
-        <v>0.776798</v>
+        <v>0.822107</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.581472</v>
+        <v>0.567934</v>
       </c>
       <c r="C79" t="n">
-        <v>0.67058</v>
+        <v>0.667113</v>
       </c>
       <c r="D79" t="n">
-        <v>0.762957</v>
+        <v>0.80591</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.577489</v>
+        <v>0.565155</v>
       </c>
       <c r="C80" t="n">
-        <v>0.660235</v>
+        <v>0.656567</v>
       </c>
       <c r="D80" t="n">
-        <v>1.14183</v>
+        <v>0.793242</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.8037570000000001</v>
+        <v>0.793918</v>
       </c>
       <c r="C81" t="n">
-        <v>1.00025</v>
+        <v>0.997179</v>
       </c>
       <c r="D81" t="n">
-        <v>1.12081</v>
+        <v>1.17607</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.796037</v>
+        <v>0.7869699999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>0.984204</v>
+        <v>0.98095</v>
       </c>
       <c r="D82" t="n">
-        <v>1.09563</v>
+        <v>1.15726</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.783952</v>
+        <v>0.776308</v>
       </c>
       <c r="C83" t="n">
-        <v>0.962762</v>
+        <v>0.961805</v>
       </c>
       <c r="D83" t="n">
-        <v>1.07122</v>
+        <v>1.13631</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.7745880000000001</v>
+        <v>0.767628</v>
       </c>
       <c r="C84" t="n">
-        <v>0.94397</v>
+        <v>0.94125</v>
       </c>
       <c r="D84" t="n">
-        <v>1.04823</v>
+        <v>1.1125</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.763149</v>
+        <v>0.757557</v>
       </c>
       <c r="C85" t="n">
-        <v>0.922939</v>
+        <v>0.920392</v>
       </c>
       <c r="D85" t="n">
-        <v>1.02347</v>
+        <v>1.0873</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.75238</v>
+        <v>0.746104</v>
       </c>
       <c r="C86" t="n">
-        <v>0.901849</v>
+        <v>0.899261</v>
       </c>
       <c r="D86" t="n">
-        <v>0.998271</v>
+        <v>1.05884</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.741268</v>
+        <v>0.73211</v>
       </c>
       <c r="C87" t="n">
-        <v>0.882167</v>
+        <v>0.876933</v>
       </c>
       <c r="D87" t="n">
-        <v>0.973476</v>
+        <v>1.03495</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.728795</v>
+        <v>0.722542</v>
       </c>
       <c r="C88" t="n">
-        <v>0.861022</v>
+        <v>0.858093</v>
       </c>
       <c r="D88" t="n">
-        <v>0.949574</v>
+        <v>1.0123</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.717719</v>
+        <v>0.712877</v>
       </c>
       <c r="C89" t="n">
-        <v>0.841218</v>
+        <v>0.839608</v>
       </c>
       <c r="D89" t="n">
-        <v>0.926736</v>
+        <v>0.988914</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.707272</v>
+        <v>0.702989</v>
       </c>
       <c r="C90" t="n">
-        <v>0.823457</v>
+        <v>0.82085</v>
       </c>
       <c r="D90" t="n">
-        <v>0.905237</v>
+        <v>0.96679</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.697247</v>
+        <v>0.693141</v>
       </c>
       <c r="C91" t="n">
-        <v>0.805673</v>
+        <v>0.803915</v>
       </c>
       <c r="D91" t="n">
-        <v>0.884088</v>
+        <v>0.945636</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.688585</v>
+        <v>0.685393</v>
       </c>
       <c r="C92" t="n">
-        <v>0.789963</v>
+        <v>0.788257</v>
       </c>
       <c r="D92" t="n">
-        <v>0.868707</v>
+        <v>0.926878</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.685175</v>
+        <v>0.679155</v>
       </c>
       <c r="C93" t="n">
-        <v>0.776911</v>
+        <v>0.774548</v>
       </c>
       <c r="D93" t="n">
-        <v>0.852502</v>
+        <v>0.911196</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.680546</v>
+        <v>0.67501</v>
       </c>
       <c r="C94" t="n">
-        <v>0.764342</v>
+        <v>0.762949</v>
       </c>
       <c r="D94" t="n">
-        <v>1.23841</v>
+        <v>0.896876</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.91572</v>
+        <v>0.909729</v>
       </c>
       <c r="C95" t="n">
-        <v>1.10918</v>
+        <v>1.10476</v>
       </c>
       <c r="D95" t="n">
-        <v>1.22898</v>
+        <v>1.28095</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.912523</v>
+        <v>0.907813</v>
       </c>
       <c r="C96" t="n">
-        <v>1.10187</v>
+        <v>1.0985</v>
       </c>
       <c r="D96" t="n">
-        <v>1.21333</v>
+        <v>1.27522</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.902682</v>
+        <v>0.898069</v>
       </c>
       <c r="C97" t="n">
-        <v>1.08404</v>
+        <v>1.08149</v>
       </c>
       <c r="D97" t="n">
-        <v>1.19427</v>
+        <v>1.25997</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.891613</v>
+        <v>0.886352</v>
       </c>
       <c r="C98" t="n">
-        <v>1.06561</v>
+        <v>1.06259</v>
       </c>
       <c r="D98" t="n">
-        <v>1.17312</v>
+        <v>1.24147</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.881057</v>
+        <v>0.8758359999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>1.04567</v>
+        <v>1.04304</v>
       </c>
       <c r="D99" t="n">
-        <v>1.15038</v>
+        <v>1.22316</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.8709710000000001</v>
+        <v>0.865304</v>
       </c>
       <c r="C100" t="n">
-        <v>1.02948</v>
+        <v>1.02623</v>
       </c>
       <c r="D100" t="n">
-        <v>1.13209</v>
+        <v>1.20526</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.86048</v>
+        <v>0.855209</v>
       </c>
       <c r="C101" t="n">
-        <v>1.01188</v>
+        <v>1.00823</v>
       </c>
       <c r="D101" t="n">
-        <v>1.11216</v>
+        <v>1.1876</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.851255</v>
+        <v>0.845612</v>
       </c>
       <c r="C102" t="n">
-        <v>0.996251</v>
+        <v>0.9930290000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>1.09417</v>
+        <v>1.17047</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.842071</v>
+        <v>0.836805</v>
       </c>
       <c r="C103" t="n">
-        <v>0.981131</v>
+        <v>0.977676</v>
       </c>
       <c r="D103" t="n">
-        <v>1.07759</v>
+        <v>1.15462</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.834245</v>
+        <v>0.82864</v>
       </c>
       <c r="C104" t="n">
-        <v>0.967024</v>
+        <v>0.9632270000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>1.059</v>
+        <v>1.13906</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.826877</v>
+        <v>0.821879</v>
       </c>
       <c r="C105" t="n">
-        <v>0.95336</v>
+        <v>0.950334</v>
       </c>
       <c r="D105" t="n">
-        <v>1.0443</v>
+        <v>1.12418</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.819569</v>
+        <v>0.815424</v>
       </c>
       <c r="C106" t="n">
-        <v>0.939327</v>
+        <v>0.937426</v>
       </c>
       <c r="D106" t="n">
-        <v>1.02816</v>
+        <v>1.11016</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.816587</v>
+        <v>0.8108649999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>0.930527</v>
+        <v>0.927582</v>
       </c>
       <c r="D107" t="n">
-        <v>1.01668</v>
+        <v>1.09849</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.8136330000000001</v>
+        <v>0.808316</v>
       </c>
       <c r="C108" t="n">
-        <v>0.922309</v>
+        <v>0.918462</v>
       </c>
       <c r="D108" t="n">
-        <v>1.40249</v>
+        <v>1.08845</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.814146</v>
+        <v>0.8096680000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>0.915874</v>
+        <v>0.912915</v>
       </c>
       <c r="D109" t="n">
-        <v>1.39505</v>
+        <v>1.07967</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.04386</v>
+        <v>1.0377</v>
       </c>
       <c r="C110" t="n">
-        <v>1.26306</v>
+        <v>1.2582</v>
       </c>
       <c r="D110" t="n">
-        <v>1.38082</v>
+        <v>1.46806</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.03097</v>
+        <v>1.02489</v>
       </c>
       <c r="C111" t="n">
-        <v>1.24383</v>
+        <v>1.24013</v>
       </c>
       <c r="D111" t="n">
-        <v>1.36664</v>
+        <v>1.45293</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.01799</v>
+        <v>1.0122</v>
       </c>
       <c r="C112" t="n">
-        <v>1.22657</v>
+        <v>1.22194</v>
       </c>
       <c r="D112" t="n">
-        <v>1.35375</v>
+        <v>1.43919</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.00578</v>
+        <v>1.00032</v>
       </c>
       <c r="C113" t="n">
-        <v>1.20833</v>
+        <v>1.20399</v>
       </c>
       <c r="D113" t="n">
-        <v>1.34093</v>
+        <v>1.4254</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.99437</v>
+        <v>0.989279</v>
       </c>
       <c r="C114" t="n">
-        <v>1.19166</v>
+        <v>1.18773</v>
       </c>
       <c r="D114" t="n">
-        <v>1.32949</v>
+        <v>1.41253</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.984658</v>
+        <v>0.978224</v>
       </c>
       <c r="C115" t="n">
-        <v>1.17547</v>
+        <v>1.17183</v>
       </c>
       <c r="D115" t="n">
-        <v>1.31798</v>
+        <v>1.39878</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.9740839999999999</v>
+        <v>0.9683619999999999</v>
       </c>
       <c r="C116" t="n">
-        <v>1.16028</v>
+        <v>1.15713</v>
       </c>
       <c r="D116" t="n">
-        <v>1.3075</v>
+        <v>1.38693</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.965125</v>
+        <v>0.959522</v>
       </c>
       <c r="C117" t="n">
-        <v>1.14711</v>
+        <v>1.14242</v>
       </c>
       <c r="D117" t="n">
-        <v>1.29613</v>
+        <v>1.37711</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.956793</v>
+        <v>0.951071</v>
       </c>
       <c r="C118" t="n">
-        <v>1.13439</v>
+        <v>1.13132</v>
       </c>
       <c r="D118" t="n">
-        <v>1.28533</v>
+        <v>1.36634</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.9478569999999999</v>
+        <v>0.944187</v>
       </c>
       <c r="C119" t="n">
-        <v>1.12263</v>
+        <v>1.11923</v>
       </c>
       <c r="D119" t="n">
-        <v>1.27682</v>
+        <v>1.35512</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.943051</v>
+        <v>0.937886</v>
       </c>
       <c r="C120" t="n">
-        <v>1.11197</v>
+        <v>1.10815</v>
       </c>
       <c r="D120" t="n">
-        <v>1.26723</v>
+        <v>1.34584</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.938486</v>
+        <v>0.933262</v>
       </c>
       <c r="C121" t="n">
-        <v>1.10202</v>
+        <v>1.09936</v>
       </c>
       <c r="D121" t="n">
-        <v>1.25931</v>
+        <v>1.33604</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.936206</v>
+        <v>0.930301</v>
       </c>
       <c r="C122" t="n">
-        <v>1.09529</v>
+        <v>1.09092</v>
       </c>
       <c r="D122" t="n">
-        <v>1.25127</v>
+        <v>1.32992</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.936052</v>
+        <v>0.930653</v>
       </c>
       <c r="C123" t="n">
-        <v>1.08987</v>
+        <v>1.08599</v>
       </c>
       <c r="D123" t="n">
-        <v>1.63341</v>
+        <v>1.32231</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.16501</v>
+        <v>1.1598</v>
       </c>
       <c r="C124" t="n">
-        <v>1.4364</v>
+        <v>1.43146</v>
       </c>
       <c r="D124" t="n">
-        <v>1.61855</v>
+        <v>1.70677</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.15425</v>
+        <v>1.14857</v>
       </c>
       <c r="C125" t="n">
-        <v>1.41892</v>
+        <v>1.41465</v>
       </c>
       <c r="D125" t="n">
-        <v>1.60271</v>
+        <v>1.68795</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.14239</v>
+        <v>1.1375</v>
       </c>
       <c r="C126" t="n">
-        <v>1.40256</v>
+        <v>1.39877</v>
       </c>
       <c r="D126" t="n">
-        <v>1.59293</v>
+        <v>1.67147</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.13244</v>
+        <v>1.12668</v>
       </c>
       <c r="C127" t="n">
-        <v>1.38851</v>
+        <v>1.38359</v>
       </c>
       <c r="D127" t="n">
-        <v>1.58026</v>
+        <v>1.65541</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.1235</v>
+        <v>1.11668</v>
       </c>
       <c r="C128" t="n">
-        <v>1.37524</v>
+        <v>1.37004</v>
       </c>
       <c r="D128" t="n">
-        <v>1.57057</v>
+        <v>1.63916</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.11427</v>
+        <v>1.10801</v>
       </c>
       <c r="C129" t="n">
-        <v>1.36079</v>
+        <v>1.35616</v>
       </c>
       <c r="D129" t="n">
-        <v>1.55667</v>
+        <v>1.62354</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.10618</v>
+        <v>1.0994</v>
       </c>
       <c r="C130" t="n">
-        <v>1.34854</v>
+        <v>1.34349</v>
       </c>
       <c r="D130" t="n">
-        <v>1.54555</v>
+        <v>1.60965</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.09845</v>
+        <v>1.09191</v>
       </c>
       <c r="C131" t="n">
-        <v>1.33823</v>
+        <v>1.33207</v>
       </c>
       <c r="D131" t="n">
-        <v>1.53901</v>
+        <v>1.59635</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.09255</v>
+        <v>1.08504</v>
       </c>
       <c r="C132" t="n">
-        <v>1.32766</v>
+        <v>1.32188</v>
       </c>
       <c r="D132" t="n">
-        <v>1.53212</v>
+        <v>1.58649</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.08703</v>
+        <v>1.07945</v>
       </c>
       <c r="C133" t="n">
-        <v>1.31879</v>
+        <v>1.31228</v>
       </c>
       <c r="D133" t="n">
-        <v>1.51594</v>
+        <v>1.57646</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.08334</v>
+        <v>1.07576</v>
       </c>
       <c r="C134" t="n">
-        <v>1.30957</v>
+        <v>1.30411</v>
       </c>
       <c r="D134" t="n">
-        <v>1.51473</v>
+        <v>1.56458</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.08075</v>
+        <v>1.07367</v>
       </c>
       <c r="C135" t="n">
-        <v>1.30336</v>
+        <v>1.29719</v>
       </c>
       <c r="D135" t="n">
-        <v>1.50627</v>
+        <v>1.55637</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.08056</v>
+        <v>1.0726</v>
       </c>
       <c r="C136" t="n">
-        <v>1.29811</v>
+        <v>1.29123</v>
       </c>
       <c r="D136" t="n">
-        <v>1.50172</v>
+        <v>1.55047</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.08083</v>
+        <v>1.07402</v>
       </c>
       <c r="C137" t="n">
-        <v>1.29273</v>
+        <v>1.28764</v>
       </c>
       <c r="D137" t="n">
-        <v>1.88019</v>
+        <v>1.54661</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.30835</v>
+        <v>1.30354</v>
       </c>
       <c r="C138" t="n">
-        <v>1.63728</v>
+        <v>1.63285</v>
       </c>
       <c r="D138" t="n">
-        <v>1.85906</v>
+        <v>1.93597</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.29979</v>
+        <v>1.29401</v>
       </c>
       <c r="C139" t="n">
-        <v>1.6232</v>
+        <v>1.61734</v>
       </c>
       <c r="D139" t="n">
-        <v>1.84001</v>
+        <v>1.90442</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.29157</v>
+        <v>1.28516</v>
       </c>
       <c r="C140" t="n">
-        <v>1.6089</v>
+        <v>1.60366</v>
       </c>
       <c r="D140" t="n">
-        <v>1.82311</v>
+        <v>1.88543</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.28312</v>
+        <v>1.27709</v>
       </c>
       <c r="C141" t="n">
-        <v>1.59624</v>
+        <v>1.59151</v>
       </c>
       <c r="D141" t="n">
-        <v>1.80765</v>
+        <v>1.86655</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.27671</v>
+        <v>1.2701</v>
       </c>
       <c r="C142" t="n">
-        <v>1.58599</v>
+        <v>1.57912</v>
       </c>
       <c r="D142" t="n">
-        <v>1.7925</v>
+        <v>1.84487</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.2708</v>
+        <v>1.26301</v>
       </c>
       <c r="C143" t="n">
-        <v>1.57493</v>
+        <v>1.56693</v>
       </c>
       <c r="D143" t="n">
-        <v>1.77739</v>
+        <v>1.82939</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.482966</v>
+        <v>0.483184</v>
       </c>
       <c r="C2" t="n">
-        <v>0.602276</v>
+        <v>0.602143</v>
       </c>
       <c r="D2" t="n">
-        <v>0.761653</v>
+        <v>0.762028</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.471098</v>
+        <v>0.471164</v>
       </c>
       <c r="C3" t="n">
-        <v>0.584147</v>
+        <v>0.584526</v>
       </c>
       <c r="D3" t="n">
-        <v>0.739946</v>
+        <v>0.7402</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.459561</v>
+        <v>0.459339</v>
       </c>
       <c r="C4" t="n">
-        <v>0.568553</v>
+        <v>0.568375</v>
       </c>
       <c r="D4" t="n">
-        <v>0.720019</v>
+        <v>0.720302</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.449968</v>
+        <v>0.450249</v>
       </c>
       <c r="C5" t="n">
-        <v>0.55326</v>
+        <v>0.553354</v>
       </c>
       <c r="D5" t="n">
-        <v>0.701864</v>
+        <v>0.702489</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.442252</v>
+        <v>0.442569</v>
       </c>
       <c r="C6" t="n">
-        <v>0.539552</v>
+        <v>0.540416</v>
       </c>
       <c r="D6" t="n">
-        <v>0.686221</v>
+        <v>0.686497</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.43646</v>
+        <v>0.436497</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5282249999999999</v>
+        <v>0.527662</v>
       </c>
       <c r="D7" t="n">
-        <v>0.67179</v>
+        <v>0.672185</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.433389</v>
+        <v>0.43314</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5186809999999999</v>
+        <v>0.517224</v>
       </c>
       <c r="D8" t="n">
-        <v>0.660995</v>
+        <v>0.661532</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.432751</v>
+        <v>0.433035</v>
       </c>
       <c r="C9" t="n">
-        <v>0.509804</v>
+        <v>0.509306</v>
       </c>
       <c r="D9" t="n">
-        <v>0.653674</v>
+        <v>0.6541</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.621401</v>
+        <v>0.621332</v>
       </c>
       <c r="C10" t="n">
-        <v>0.780107</v>
+        <v>0.780326</v>
       </c>
       <c r="D10" t="n">
-        <v>0.976328</v>
+        <v>0.976614</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6010180000000001</v>
+        <v>0.600662</v>
       </c>
       <c r="C11" t="n">
-        <v>0.754302</v>
+        <v>0.754035</v>
       </c>
       <c r="D11" t="n">
-        <v>0.945047</v>
+        <v>0.945207</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.581866</v>
+        <v>0.581797</v>
       </c>
       <c r="C12" t="n">
-        <v>0.729138</v>
+        <v>0.72898</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9143</v>
+        <v>0.914533</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.564773</v>
+        <v>0.565245</v>
       </c>
       <c r="C13" t="n">
-        <v>0.706349</v>
+        <v>0.706197</v>
       </c>
       <c r="D13" t="n">
-        <v>0.885663</v>
+        <v>0.8856810000000001</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.548244</v>
+        <v>0.547509</v>
       </c>
       <c r="C14" t="n">
-        <v>0.683615</v>
+        <v>0.6829190000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.858227</v>
+        <v>0.858154</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.532521</v>
+        <v>0.531683</v>
       </c>
       <c r="C15" t="n">
-        <v>0.661891</v>
+        <v>0.661781</v>
       </c>
       <c r="D15" t="n">
-        <v>0.831954</v>
+        <v>0.831735</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5173450000000001</v>
+        <v>0.517146</v>
       </c>
       <c r="C16" t="n">
-        <v>0.641989</v>
+        <v>0.64208</v>
       </c>
       <c r="D16" t="n">
-        <v>0.807357</v>
+        <v>0.807254</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.504065</v>
+        <v>0.503321</v>
       </c>
       <c r="C17" t="n">
-        <v>0.623252</v>
+        <v>0.622978</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7839159999999999</v>
+        <v>0.783679</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.491058</v>
+        <v>0.492278</v>
       </c>
       <c r="C18" t="n">
-        <v>0.606634</v>
+        <v>0.60547</v>
       </c>
       <c r="D18" t="n">
-        <v>0.762327</v>
+        <v>0.762039</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.480582</v>
+        <v>0.480008</v>
       </c>
       <c r="C19" t="n">
-        <v>0.590103</v>
+        <v>0.589295</v>
       </c>
       <c r="D19" t="n">
-        <v>0.742441</v>
+        <v>0.74169</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.47168</v>
+        <v>0.47198</v>
       </c>
       <c r="C20" t="n">
-        <v>0.574022</v>
+        <v>0.573363</v>
       </c>
       <c r="D20" t="n">
-        <v>0.723357</v>
+        <v>0.723658</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.463292</v>
+        <v>0.463778</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5600039999999999</v>
+        <v>0.559707</v>
       </c>
       <c r="D21" t="n">
-        <v>0.707581</v>
+        <v>0.7072889999999999</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.459574</v>
+        <v>0.45995</v>
       </c>
       <c r="C22" t="n">
-        <v>0.548718</v>
+        <v>0.548143</v>
       </c>
       <c r="D22" t="n">
-        <v>0.694492</v>
+        <v>0.693991</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.457748</v>
+        <v>0.458044</v>
       </c>
       <c r="C23" t="n">
-        <v>0.539045</v>
+        <v>0.538062</v>
       </c>
       <c r="D23" t="n">
-        <v>0.684419</v>
+        <v>0.684171</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6445419999999999</v>
+        <v>0.644167</v>
       </c>
       <c r="C24" t="n">
-        <v>0.813128</v>
+        <v>0.813076</v>
       </c>
       <c r="D24" t="n">
-        <v>1.01324</v>
+        <v>1.01382</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.624502</v>
+        <v>0.625188</v>
       </c>
       <c r="C25" t="n">
-        <v>0.786694</v>
+        <v>0.787103</v>
       </c>
       <c r="D25" t="n">
-        <v>0.980421</v>
+        <v>0.980754</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.605305</v>
+        <v>0.605853</v>
       </c>
       <c r="C26" t="n">
-        <v>0.761549</v>
+        <v>0.760985</v>
       </c>
       <c r="D26" t="n">
-        <v>0.948576</v>
+        <v>0.949696</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.586584</v>
+        <v>0.587159</v>
       </c>
       <c r="C27" t="n">
-        <v>0.737422</v>
+        <v>0.73756</v>
       </c>
       <c r="D27" t="n">
-        <v>0.91881</v>
+        <v>0.919217</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.568811</v>
+        <v>0.570045</v>
       </c>
       <c r="C28" t="n">
-        <v>0.713758</v>
+        <v>0.712842</v>
       </c>
       <c r="D28" t="n">
-        <v>0.889869</v>
+        <v>0.889868</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.553061</v>
+        <v>0.553464</v>
       </c>
       <c r="C29" t="n">
-        <v>0.690694</v>
+        <v>0.6921659999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>0.862553</v>
+        <v>0.863017</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.537832</v>
+        <v>0.537851</v>
       </c>
       <c r="C30" t="n">
-        <v>0.670175</v>
+        <v>0.6706800000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.836483</v>
+        <v>0.8372889999999999</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.523708</v>
+        <v>0.523998</v>
       </c>
       <c r="C31" t="n">
-        <v>0.651285</v>
+        <v>0.650465</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8129769999999999</v>
+        <v>0.813763</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.510494</v>
+        <v>0.509586</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6328589999999999</v>
+        <v>0.631027</v>
       </c>
       <c r="D32" t="n">
-        <v>0.790177</v>
+        <v>0.790222</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.498441</v>
+        <v>0.497796</v>
       </c>
       <c r="C33" t="n">
-        <v>0.615509</v>
+        <v>0.614394</v>
       </c>
       <c r="D33" t="n">
-        <v>0.76864</v>
+        <v>0.769529</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.487851</v>
+        <v>0.488032</v>
       </c>
       <c r="C34" t="n">
-        <v>0.599427</v>
+        <v>0.598326</v>
       </c>
       <c r="D34" t="n">
-        <v>0.749935</v>
+        <v>0.75026</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.479569</v>
+        <v>0.479361</v>
       </c>
       <c r="C35" t="n">
-        <v>0.584337</v>
+        <v>0.583768</v>
       </c>
       <c r="D35" t="n">
-        <v>0.732747</v>
+        <v>0.732301</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.473172</v>
+        <v>0.473323</v>
       </c>
       <c r="C36" t="n">
-        <v>0.57174</v>
+        <v>0.571927</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7182770000000001</v>
+        <v>0.718654</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.469683</v>
+        <v>0.470233</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5612279999999999</v>
+        <v>0.56138</v>
       </c>
       <c r="D37" t="n">
-        <v>0.706586</v>
+        <v>0.705747</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.664401</v>
+        <v>0.66335</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8432190000000001</v>
+        <v>0.839313</v>
       </c>
       <c r="D38" t="n">
-        <v>1.04459</v>
+        <v>1.04244</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.645393</v>
+        <v>0.643972</v>
       </c>
       <c r="C39" t="n">
-        <v>0.81787</v>
+        <v>0.813409</v>
       </c>
       <c r="D39" t="n">
-        <v>1.01282</v>
+        <v>1.00709</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.624737</v>
+        <v>0.623519</v>
       </c>
       <c r="C40" t="n">
-        <v>0.791082</v>
+        <v>0.784955</v>
       </c>
       <c r="D40" t="n">
-        <v>0.979766</v>
+        <v>0.97567</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.605775</v>
+        <v>0.605607</v>
       </c>
       <c r="C41" t="n">
-        <v>0.764226</v>
+        <v>0.761345</v>
       </c>
       <c r="D41" t="n">
-        <v>0.947497</v>
+        <v>0.946284</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.587487</v>
+        <v>0.587417</v>
       </c>
       <c r="C42" t="n">
-        <v>0.740717</v>
+        <v>0.736641</v>
       </c>
       <c r="D42" t="n">
-        <v>0.918178</v>
+        <v>0.9152439999999999</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.571487</v>
+        <v>0.571188</v>
       </c>
       <c r="C43" t="n">
-        <v>0.718912</v>
+        <v>0.715517</v>
       </c>
       <c r="D43" t="n">
-        <v>0.891132</v>
+        <v>0.889199</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.555065</v>
+        <v>0.555594</v>
       </c>
       <c r="C44" t="n">
-        <v>0.696978</v>
+        <v>0.695481</v>
       </c>
       <c r="D44" t="n">
-        <v>0.864316</v>
+        <v>0.863394</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5407189999999999</v>
+        <v>0.540955</v>
       </c>
       <c r="C45" t="n">
-        <v>0.67663</v>
+        <v>0.675419</v>
       </c>
       <c r="D45" t="n">
-        <v>0.8404160000000001</v>
+        <v>0.838453</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.528169</v>
+        <v>0.5276729999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.659107</v>
+        <v>0.655814</v>
       </c>
       <c r="D46" t="n">
-        <v>0.817597</v>
+        <v>0.814678</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.515942</v>
+        <v>0.51447</v>
       </c>
       <c r="C47" t="n">
-        <v>0.640568</v>
+        <v>0.638809</v>
       </c>
       <c r="D47" t="n">
-        <v>0.795672</v>
+        <v>0.79381</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.505695</v>
+        <v>0.50461</v>
       </c>
       <c r="C48" t="n">
-        <v>0.624301</v>
+        <v>0.622339</v>
       </c>
       <c r="D48" t="n">
-        <v>0.77437</v>
+        <v>0.773174</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.494994</v>
+        <v>0.493581</v>
       </c>
       <c r="C49" t="n">
-        <v>0.607109</v>
+        <v>0.607298</v>
       </c>
       <c r="D49" t="n">
-        <v>0.756192</v>
+        <v>0.75508</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.488572</v>
+        <v>0.487876</v>
       </c>
       <c r="C50" t="n">
-        <v>0.594657</v>
+        <v>0.594056</v>
       </c>
       <c r="D50" t="n">
-        <v>0.74035</v>
+        <v>0.739725</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.483903</v>
+        <v>0.483645</v>
       </c>
       <c r="C51" t="n">
-        <v>0.582672</v>
+        <v>0.582798</v>
       </c>
       <c r="D51" t="n">
-        <v>0.726401</v>
+        <v>0.727061</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.482128</v>
+        <v>0.483797</v>
       </c>
       <c r="C52" t="n">
-        <v>0.573082</v>
+        <v>0.573868</v>
       </c>
       <c r="D52" t="n">
-        <v>0.717737</v>
+        <v>0.717545</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.664951</v>
+        <v>0.66332</v>
       </c>
       <c r="C53" t="n">
-        <v>0.849562</v>
+        <v>0.8472229999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>1.04545</v>
+        <v>1.04286</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.646297</v>
+        <v>0.643757</v>
       </c>
       <c r="C54" t="n">
-        <v>0.828191</v>
+        <v>0.819985</v>
       </c>
       <c r="D54" t="n">
-        <v>1.0174</v>
+        <v>1.01007</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.631002</v>
+        <v>0.627041</v>
       </c>
       <c r="C55" t="n">
-        <v>0.802167</v>
+        <v>0.7980159999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.985429</v>
+        <v>0.981453</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.613626</v>
+        <v>0.60965</v>
       </c>
       <c r="C56" t="n">
-        <v>0.777419</v>
+        <v>0.773116</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9562079999999999</v>
+        <v>0.951126</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.596485</v>
+        <v>0.591776</v>
       </c>
       <c r="C57" t="n">
-        <v>0.752255</v>
+        <v>0.749604</v>
       </c>
       <c r="D57" t="n">
-        <v>0.923233</v>
+        <v>0.921207</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.577842</v>
+        <v>0.577718</v>
       </c>
       <c r="C58" t="n">
-        <v>0.728599</v>
+        <v>0.727573</v>
       </c>
       <c r="D58" t="n">
-        <v>0.896495</v>
+        <v>0.894713</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.562991</v>
+        <v>0.563854</v>
       </c>
       <c r="C59" t="n">
-        <v>0.707741</v>
+        <v>0.707125</v>
       </c>
       <c r="D59" t="n">
-        <v>0.870661</v>
+        <v>0.870225</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.548885</v>
+        <v>0.549221</v>
       </c>
       <c r="C60" t="n">
-        <v>0.688298</v>
+        <v>0.688549</v>
       </c>
       <c r="D60" t="n">
-        <v>0.846876</v>
+        <v>0.849152</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.537315</v>
+        <v>0.538751</v>
       </c>
       <c r="C61" t="n">
-        <v>0.6702129999999999</v>
+        <v>0.6705680000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.824889</v>
+        <v>0.823968</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.52645</v>
+        <v>0.526836</v>
       </c>
       <c r="C62" t="n">
-        <v>0.654296</v>
+        <v>0.65293</v>
       </c>
       <c r="D62" t="n">
-        <v>0.803594</v>
+        <v>0.803355</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.517522</v>
+        <v>0.517007</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6377350000000001</v>
+        <v>0.637056</v>
       </c>
       <c r="D63" t="n">
-        <v>0.784676</v>
+        <v>0.7840200000000001</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.509845</v>
+        <v>0.510597</v>
       </c>
       <c r="C64" t="n">
-        <v>0.623273</v>
+        <v>0.62358</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7680129999999999</v>
+        <v>0.769061</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.50568</v>
+        <v>0.506233</v>
       </c>
       <c r="C65" t="n">
-        <v>0.611248</v>
+        <v>0.611693</v>
       </c>
       <c r="D65" t="n">
-        <v>0.753928</v>
+        <v>0.75501</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.504281</v>
+        <v>0.505432</v>
       </c>
       <c r="C66" t="n">
-        <v>0.601952</v>
+        <v>0.603</v>
       </c>
       <c r="D66" t="n">
-        <v>0.7437780000000001</v>
+        <v>0.745391</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.718639</v>
+        <v>0.719234</v>
       </c>
       <c r="C67" t="n">
-        <v>0.910448</v>
+        <v>0.910108</v>
       </c>
       <c r="D67" t="n">
-        <v>1.1023</v>
+        <v>1.09938</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.701296</v>
+        <v>0.703437</v>
       </c>
       <c r="C68" t="n">
-        <v>0.883426</v>
+        <v>0.88818</v>
       </c>
       <c r="D68" t="n">
-        <v>1.06891</v>
+        <v>1.0765</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.684938</v>
+        <v>0.690921</v>
       </c>
       <c r="C69" t="n">
-        <v>0.860699</v>
+        <v>0.861905</v>
       </c>
       <c r="D69" t="n">
-        <v>1.04079</v>
+        <v>1.04382</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.673249</v>
+        <v>0.674901</v>
       </c>
       <c r="C70" t="n">
-        <v>0.836846</v>
+        <v>0.836609</v>
       </c>
       <c r="D70" t="n">
-        <v>1.0111</v>
+        <v>1.01203</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.657328</v>
+        <v>0.657616</v>
       </c>
       <c r="C71" t="n">
-        <v>0.812844</v>
+        <v>0.812497</v>
       </c>
       <c r="D71" t="n">
-        <v>0.981679</v>
+        <v>0.9835120000000001</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6416230000000001</v>
+        <v>0.641272</v>
       </c>
       <c r="C72" t="n">
-        <v>0.790934</v>
+        <v>0.787929</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9559879999999999</v>
+        <v>0.951335</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.630111</v>
+        <v>0.627008</v>
       </c>
       <c r="C73" t="n">
-        <v>0.770915</v>
+        <v>0.765096</v>
       </c>
       <c r="D73" t="n">
-        <v>0.929662</v>
+        <v>0.927868</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.617157</v>
+        <v>0.615905</v>
       </c>
       <c r="C74" t="n">
-        <v>0.751316</v>
+        <v>0.749644</v>
       </c>
       <c r="D74" t="n">
-        <v>0.907794</v>
+        <v>0.906759</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.606405</v>
+        <v>0.605926</v>
       </c>
       <c r="C75" t="n">
-        <v>0.733718</v>
+        <v>0.7307900000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.8838279999999999</v>
+        <v>0.881736</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.594211</v>
+        <v>0.5932770000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.714824</v>
+        <v>0.709547</v>
       </c>
       <c r="D76" t="n">
-        <v>0.860729</v>
+        <v>0.855433</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.583988</v>
+        <v>0.580572</v>
       </c>
       <c r="C77" t="n">
-        <v>0.697257</v>
+        <v>0.692255</v>
       </c>
       <c r="D77" t="n">
-        <v>0.840881</v>
+        <v>0.839318</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.574828</v>
+        <v>0.574123</v>
       </c>
       <c r="C78" t="n">
-        <v>0.681218</v>
+        <v>0.679098</v>
       </c>
       <c r="D78" t="n">
-        <v>0.822107</v>
+        <v>0.819336</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.567934</v>
+        <v>0.566223</v>
       </c>
       <c r="C79" t="n">
-        <v>0.667113</v>
+        <v>0.665313</v>
       </c>
       <c r="D79" t="n">
-        <v>0.80591</v>
+        <v>0.804592</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.565155</v>
+        <v>0.562219</v>
       </c>
       <c r="C80" t="n">
-        <v>0.656567</v>
+        <v>0.6541090000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>0.793242</v>
+        <v>0.791602</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.793918</v>
+        <v>0.793046</v>
       </c>
       <c r="C81" t="n">
-        <v>0.997179</v>
+        <v>0.994768</v>
       </c>
       <c r="D81" t="n">
-        <v>1.17607</v>
+        <v>1.17332</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.7869699999999999</v>
+        <v>0.78513</v>
       </c>
       <c r="C82" t="n">
-        <v>0.98095</v>
+        <v>0.977688</v>
       </c>
       <c r="D82" t="n">
-        <v>1.15726</v>
+        <v>1.15526</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.776308</v>
+        <v>0.775666</v>
       </c>
       <c r="C83" t="n">
-        <v>0.961805</v>
+        <v>0.9575</v>
       </c>
       <c r="D83" t="n">
-        <v>1.13631</v>
+        <v>1.13263</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.767628</v>
+        <v>0.76447</v>
       </c>
       <c r="C84" t="n">
-        <v>0.94125</v>
+        <v>0.937987</v>
       </c>
       <c r="D84" t="n">
-        <v>1.1125</v>
+        <v>1.10936</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.757557</v>
+        <v>0.754783</v>
       </c>
       <c r="C85" t="n">
-        <v>0.920392</v>
+        <v>0.917608</v>
       </c>
       <c r="D85" t="n">
-        <v>1.0873</v>
+        <v>1.08216</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.746104</v>
+        <v>0.740702</v>
       </c>
       <c r="C86" t="n">
-        <v>0.899261</v>
+        <v>0.894145</v>
       </c>
       <c r="D86" t="n">
-        <v>1.05884</v>
+        <v>1.057</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.73211</v>
+        <v>0.733131</v>
       </c>
       <c r="C87" t="n">
-        <v>0.876933</v>
+        <v>0.877103</v>
       </c>
       <c r="D87" t="n">
-        <v>1.03495</v>
+        <v>1.03507</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.722542</v>
+        <v>0.722747</v>
       </c>
       <c r="C88" t="n">
-        <v>0.858093</v>
+        <v>0.8569639999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>1.0123</v>
+        <v>1.01164</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.712877</v>
+        <v>0.711992</v>
       </c>
       <c r="C89" t="n">
-        <v>0.839608</v>
+        <v>0.837978</v>
       </c>
       <c r="D89" t="n">
-        <v>0.988914</v>
+        <v>0.98606</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.702989</v>
+        <v>0.701335</v>
       </c>
       <c r="C90" t="n">
-        <v>0.82085</v>
+        <v>0.819066</v>
       </c>
       <c r="D90" t="n">
-        <v>0.96679</v>
+        <v>0.963517</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.693141</v>
+        <v>0.691955</v>
       </c>
       <c r="C91" t="n">
-        <v>0.803915</v>
+        <v>0.802092</v>
       </c>
       <c r="D91" t="n">
-        <v>0.945636</v>
+        <v>0.94371</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.685393</v>
+        <v>0.683601</v>
       </c>
       <c r="C92" t="n">
-        <v>0.788257</v>
+        <v>0.786301</v>
       </c>
       <c r="D92" t="n">
-        <v>0.926878</v>
+        <v>0.924906</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.679155</v>
+        <v>0.677795</v>
       </c>
       <c r="C93" t="n">
-        <v>0.774548</v>
+        <v>0.771432</v>
       </c>
       <c r="D93" t="n">
-        <v>0.911196</v>
+        <v>0.907021</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.67501</v>
+        <v>0.672156</v>
       </c>
       <c r="C94" t="n">
-        <v>0.762949</v>
+        <v>0.759508</v>
       </c>
       <c r="D94" t="n">
-        <v>0.896876</v>
+        <v>0.896467</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.909729</v>
+        <v>0.907704</v>
       </c>
       <c r="C95" t="n">
-        <v>1.10476</v>
+        <v>1.10318</v>
       </c>
       <c r="D95" t="n">
-        <v>1.28095</v>
+        <v>1.27919</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.907813</v>
+        <v>0.905012</v>
       </c>
       <c r="C96" t="n">
-        <v>1.0985</v>
+        <v>1.09639</v>
       </c>
       <c r="D96" t="n">
-        <v>1.27522</v>
+        <v>1.27309</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.898069</v>
+        <v>0.895146</v>
       </c>
       <c r="C97" t="n">
-        <v>1.08149</v>
+        <v>1.07841</v>
       </c>
       <c r="D97" t="n">
-        <v>1.25997</v>
+        <v>1.25919</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.886352</v>
+        <v>0.885961</v>
       </c>
       <c r="C98" t="n">
-        <v>1.06259</v>
+        <v>1.06133</v>
       </c>
       <c r="D98" t="n">
-        <v>1.24147</v>
+        <v>1.24106</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.8758359999999999</v>
+        <v>0.876269</v>
       </c>
       <c r="C99" t="n">
-        <v>1.04304</v>
+        <v>1.04296</v>
       </c>
       <c r="D99" t="n">
-        <v>1.22316</v>
+        <v>1.22376</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.865304</v>
+        <v>0.865258</v>
       </c>
       <c r="C100" t="n">
-        <v>1.02623</v>
+        <v>1.02538</v>
       </c>
       <c r="D100" t="n">
-        <v>1.20526</v>
+        <v>1.20522</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.855209</v>
+        <v>0.8551299999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>1.00823</v>
+        <v>1.00764</v>
       </c>
       <c r="D101" t="n">
-        <v>1.1876</v>
+        <v>1.18576</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.845612</v>
+        <v>0.845243</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9930290000000001</v>
+        <v>0.992971</v>
       </c>
       <c r="D102" t="n">
-        <v>1.17047</v>
+        <v>1.17159</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.836805</v>
+        <v>0.837634</v>
       </c>
       <c r="C103" t="n">
-        <v>0.977676</v>
+        <v>0.978278</v>
       </c>
       <c r="D103" t="n">
-        <v>1.15462</v>
+        <v>1.15532</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.82864</v>
+        <v>0.8290999999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9632270000000001</v>
+        <v>0.963232</v>
       </c>
       <c r="D104" t="n">
-        <v>1.13906</v>
+        <v>1.13939</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.821879</v>
+        <v>0.821398</v>
       </c>
       <c r="C105" t="n">
-        <v>0.950334</v>
+        <v>0.951447</v>
       </c>
       <c r="D105" t="n">
-        <v>1.12418</v>
+        <v>1.12522</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.815424</v>
+        <v>0.816075</v>
       </c>
       <c r="C106" t="n">
-        <v>0.937426</v>
+        <v>0.939021</v>
       </c>
       <c r="D106" t="n">
-        <v>1.11016</v>
+        <v>1.11228</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.8108649999999999</v>
+        <v>0.811279</v>
       </c>
       <c r="C107" t="n">
-        <v>0.927582</v>
+        <v>0.9284750000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>1.09849</v>
+        <v>1.09975</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.808316</v>
+        <v>0.808694</v>
       </c>
       <c r="C108" t="n">
-        <v>0.918462</v>
+        <v>0.918444</v>
       </c>
       <c r="D108" t="n">
-        <v>1.08845</v>
+        <v>1.08856</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.8096680000000001</v>
+        <v>0.810325</v>
       </c>
       <c r="C109" t="n">
-        <v>0.912915</v>
+        <v>0.913114</v>
       </c>
       <c r="D109" t="n">
-        <v>1.07967</v>
+        <v>1.08158</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.0377</v>
+        <v>1.03826</v>
       </c>
       <c r="C110" t="n">
-        <v>1.2582</v>
+        <v>1.25883</v>
       </c>
       <c r="D110" t="n">
-        <v>1.46806</v>
+        <v>1.46829</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.02489</v>
+        <v>1.02655</v>
       </c>
       <c r="C111" t="n">
-        <v>1.24013</v>
+        <v>1.2416</v>
       </c>
       <c r="D111" t="n">
-        <v>1.45293</v>
+        <v>1.45448</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.0122</v>
+        <v>1.01378</v>
       </c>
       <c r="C112" t="n">
-        <v>1.22194</v>
+        <v>1.22355</v>
       </c>
       <c r="D112" t="n">
-        <v>1.43919</v>
+        <v>1.43965</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.00032</v>
+        <v>1.0015</v>
       </c>
       <c r="C113" t="n">
-        <v>1.20399</v>
+        <v>1.20454</v>
       </c>
       <c r="D113" t="n">
-        <v>1.4254</v>
+        <v>1.42411</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.989279</v>
+        <v>0.990451</v>
       </c>
       <c r="C114" t="n">
-        <v>1.18773</v>
+        <v>1.1863</v>
       </c>
       <c r="D114" t="n">
-        <v>1.41253</v>
+        <v>1.41129</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.978224</v>
+        <v>0.979096</v>
       </c>
       <c r="C115" t="n">
-        <v>1.17183</v>
+        <v>1.17247</v>
       </c>
       <c r="D115" t="n">
-        <v>1.39878</v>
+        <v>1.40006</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.9683619999999999</v>
+        <v>0.96961</v>
       </c>
       <c r="C116" t="n">
-        <v>1.15713</v>
+        <v>1.158</v>
       </c>
       <c r="D116" t="n">
-        <v>1.38693</v>
+        <v>1.38794</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.959522</v>
+        <v>0.960437</v>
       </c>
       <c r="C117" t="n">
-        <v>1.14242</v>
+        <v>1.14455</v>
       </c>
       <c r="D117" t="n">
-        <v>1.37711</v>
+        <v>1.37625</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.951071</v>
+        <v>0.951915</v>
       </c>
       <c r="C118" t="n">
-        <v>1.13132</v>
+        <v>1.13164</v>
       </c>
       <c r="D118" t="n">
-        <v>1.36634</v>
+        <v>1.36624</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.944187</v>
+        <v>0.945253</v>
       </c>
       <c r="C119" t="n">
-        <v>1.11923</v>
+        <v>1.12005</v>
       </c>
       <c r="D119" t="n">
-        <v>1.35512</v>
+        <v>1.35771</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.937886</v>
+        <v>0.9389729999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>1.10815</v>
+        <v>1.10899</v>
       </c>
       <c r="D120" t="n">
-        <v>1.34584</v>
+        <v>1.3475</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.933262</v>
+        <v>0.933796</v>
       </c>
       <c r="C121" t="n">
-        <v>1.09936</v>
+        <v>1.10021</v>
       </c>
       <c r="D121" t="n">
-        <v>1.33604</v>
+        <v>1.33949</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.930301</v>
+        <v>0.9320079999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>1.09092</v>
+        <v>1.09317</v>
       </c>
       <c r="D122" t="n">
-        <v>1.32992</v>
+        <v>1.33034</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.930653</v>
+        <v>0.932208</v>
       </c>
       <c r="C123" t="n">
-        <v>1.08599</v>
+        <v>1.08851</v>
       </c>
       <c r="D123" t="n">
-        <v>1.32231</v>
+        <v>1.32406</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.1598</v>
+        <v>1.16179</v>
       </c>
       <c r="C124" t="n">
-        <v>1.43146</v>
+        <v>1.43383</v>
       </c>
       <c r="D124" t="n">
-        <v>1.70677</v>
+        <v>1.71025</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.14857</v>
+        <v>1.1509</v>
       </c>
       <c r="C125" t="n">
-        <v>1.41465</v>
+        <v>1.41778</v>
       </c>
       <c r="D125" t="n">
-        <v>1.68795</v>
+        <v>1.6926</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.1375</v>
+        <v>1.1396</v>
       </c>
       <c r="C126" t="n">
-        <v>1.39877</v>
+        <v>1.40151</v>
       </c>
       <c r="D126" t="n">
-        <v>1.67147</v>
+        <v>1.67406</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.12668</v>
+        <v>1.12904</v>
       </c>
       <c r="C127" t="n">
-        <v>1.38359</v>
+        <v>1.38665</v>
       </c>
       <c r="D127" t="n">
-        <v>1.65541</v>
+        <v>1.65851</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.11668</v>
+        <v>1.11964</v>
       </c>
       <c r="C128" t="n">
-        <v>1.37004</v>
+        <v>1.37228</v>
       </c>
       <c r="D128" t="n">
-        <v>1.63916</v>
+        <v>1.64152</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.10801</v>
+        <v>1.11069</v>
       </c>
       <c r="C129" t="n">
-        <v>1.35616</v>
+        <v>1.3584</v>
       </c>
       <c r="D129" t="n">
-        <v>1.62354</v>
+        <v>1.62794</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.0994</v>
+        <v>1.10207</v>
       </c>
       <c r="C130" t="n">
-        <v>1.34349</v>
+        <v>1.34743</v>
       </c>
       <c r="D130" t="n">
-        <v>1.60965</v>
+        <v>1.61408</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.09191</v>
+        <v>1.09499</v>
       </c>
       <c r="C131" t="n">
-        <v>1.33207</v>
+        <v>1.33478</v>
       </c>
       <c r="D131" t="n">
-        <v>1.59635</v>
+        <v>1.60228</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.08504</v>
+        <v>1.08879</v>
       </c>
       <c r="C132" t="n">
-        <v>1.32188</v>
+        <v>1.32488</v>
       </c>
       <c r="D132" t="n">
-        <v>1.58649</v>
+        <v>1.59048</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.07945</v>
+        <v>1.08264</v>
       </c>
       <c r="C133" t="n">
-        <v>1.31228</v>
+        <v>1.31598</v>
       </c>
       <c r="D133" t="n">
-        <v>1.57646</v>
+        <v>1.57687</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.07576</v>
+        <v>1.07878</v>
       </c>
       <c r="C134" t="n">
-        <v>1.30411</v>
+        <v>1.30806</v>
       </c>
       <c r="D134" t="n">
-        <v>1.56458</v>
+        <v>1.56975</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.07367</v>
+        <v>1.07675</v>
       </c>
       <c r="C135" t="n">
-        <v>1.29719</v>
+        <v>1.30174</v>
       </c>
       <c r="D135" t="n">
-        <v>1.55637</v>
+        <v>1.55918</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.0726</v>
+        <v>1.07673</v>
       </c>
       <c r="C136" t="n">
-        <v>1.29123</v>
+        <v>1.29609</v>
       </c>
       <c r="D136" t="n">
-        <v>1.55047</v>
+        <v>1.55985</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.07402</v>
+        <v>1.07669</v>
       </c>
       <c r="C137" t="n">
-        <v>1.28764</v>
+        <v>1.2917</v>
       </c>
       <c r="D137" t="n">
-        <v>1.54661</v>
+        <v>1.55215</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.30354</v>
+        <v>1.30602</v>
       </c>
       <c r="C138" t="n">
-        <v>1.63285</v>
+        <v>1.63647</v>
       </c>
       <c r="D138" t="n">
-        <v>1.93597</v>
+        <v>1.93355</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.29401</v>
+        <v>1.29638</v>
       </c>
       <c r="C139" t="n">
-        <v>1.61734</v>
+        <v>1.62115</v>
       </c>
       <c r="D139" t="n">
-        <v>1.90442</v>
+        <v>1.90971</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.28516</v>
+        <v>1.2882</v>
       </c>
       <c r="C140" t="n">
-        <v>1.60366</v>
+        <v>1.60706</v>
       </c>
       <c r="D140" t="n">
-        <v>1.88543</v>
+        <v>1.89154</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.27709</v>
+        <v>1.28025</v>
       </c>
       <c r="C141" t="n">
-        <v>1.59151</v>
+        <v>1.5952</v>
       </c>
       <c r="D141" t="n">
-        <v>1.86655</v>
+        <v>1.87167</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.2701</v>
+        <v>1.27246</v>
       </c>
       <c r="C142" t="n">
-        <v>1.57912</v>
+        <v>1.58153</v>
       </c>
       <c r="D142" t="n">
-        <v>1.84487</v>
+        <v>1.85306</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.26301</v>
+        <v>1.2666</v>
       </c>
       <c r="C143" t="n">
-        <v>1.56693</v>
+        <v>1.5714</v>
       </c>
       <c r="D143" t="n">
-        <v>1.82939</v>
+        <v>1.83178</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.483184</v>
+        <v>0.482145</v>
       </c>
       <c r="C2" t="n">
-        <v>0.602143</v>
+        <v>0.592381</v>
       </c>
       <c r="D2" t="n">
-        <v>0.762028</v>
+        <v>0.759865</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.471164</v>
+        <v>0.469626</v>
       </c>
       <c r="C3" t="n">
-        <v>0.584526</v>
+        <v>0.575197</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7402</v>
+        <v>0.737223</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.459339</v>
+        <v>0.459063</v>
       </c>
       <c r="C4" t="n">
-        <v>0.568375</v>
+        <v>0.558791</v>
       </c>
       <c r="D4" t="n">
-        <v>0.720302</v>
+        <v>0.717634</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.450249</v>
+        <v>0.450216</v>
       </c>
       <c r="C5" t="n">
-        <v>0.553354</v>
+        <v>0.543</v>
       </c>
       <c r="D5" t="n">
-        <v>0.702489</v>
+        <v>0.700258</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.442569</v>
+        <v>0.442212</v>
       </c>
       <c r="C6" t="n">
-        <v>0.540416</v>
+        <v>0.529545</v>
       </c>
       <c r="D6" t="n">
-        <v>0.686497</v>
+        <v>0.683588</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.436497</v>
+        <v>0.436523</v>
       </c>
       <c r="C7" t="n">
-        <v>0.527662</v>
+        <v>0.516845</v>
       </c>
       <c r="D7" t="n">
-        <v>0.672185</v>
+        <v>0.670559</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.43314</v>
+        <v>0.43304</v>
       </c>
       <c r="C8" t="n">
-        <v>0.517224</v>
+        <v>0.507196</v>
       </c>
       <c r="D8" t="n">
-        <v>0.661532</v>
+        <v>0.659535</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.433035</v>
+        <v>0.432395</v>
       </c>
       <c r="C9" t="n">
-        <v>0.509306</v>
+        <v>0.499644</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6541</v>
+        <v>0.6532</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.621332</v>
+        <v>0.619691</v>
       </c>
       <c r="C10" t="n">
-        <v>0.780326</v>
+        <v>0.77077</v>
       </c>
       <c r="D10" t="n">
-        <v>0.976614</v>
+        <v>0.974715</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.600662</v>
+        <v>0.6013269999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.754035</v>
+        <v>0.744505</v>
       </c>
       <c r="D11" t="n">
-        <v>0.945207</v>
+        <v>0.9433049999999999</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.581797</v>
+        <v>0.582717</v>
       </c>
       <c r="C12" t="n">
-        <v>0.72898</v>
+        <v>0.719853</v>
       </c>
       <c r="D12" t="n">
-        <v>0.914533</v>
+        <v>0.913162</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.565245</v>
+        <v>0.564988</v>
       </c>
       <c r="C13" t="n">
-        <v>0.706197</v>
+        <v>0.696219</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8856810000000001</v>
+        <v>0.884066</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.547509</v>
+        <v>0.547943</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6829190000000001</v>
+        <v>0.673915</v>
       </c>
       <c r="D14" t="n">
-        <v>0.858154</v>
+        <v>0.856789</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.531683</v>
+        <v>0.532239</v>
       </c>
       <c r="C15" t="n">
-        <v>0.661781</v>
+        <v>0.6525919999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.831735</v>
+        <v>0.830693</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.517146</v>
+        <v>0.517563</v>
       </c>
       <c r="C16" t="n">
-        <v>0.64208</v>
+        <v>0.632795</v>
       </c>
       <c r="D16" t="n">
-        <v>0.807254</v>
+        <v>0.805957</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.503321</v>
+        <v>0.503961</v>
       </c>
       <c r="C17" t="n">
-        <v>0.622978</v>
+        <v>0.613899</v>
       </c>
       <c r="D17" t="n">
-        <v>0.783679</v>
+        <v>0.7829469999999999</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.492278</v>
+        <v>0.491965</v>
       </c>
       <c r="C18" t="n">
-        <v>0.60547</v>
+        <v>0.596199</v>
       </c>
       <c r="D18" t="n">
-        <v>0.762039</v>
+        <v>0.761064</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.480008</v>
+        <v>0.480575</v>
       </c>
       <c r="C19" t="n">
-        <v>0.589295</v>
+        <v>0.579524</v>
       </c>
       <c r="D19" t="n">
-        <v>0.74169</v>
+        <v>0.74066</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.47198</v>
+        <v>0.471537</v>
       </c>
       <c r="C20" t="n">
-        <v>0.573363</v>
+        <v>0.564229</v>
       </c>
       <c r="D20" t="n">
-        <v>0.723658</v>
+        <v>0.7226669999999999</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.463778</v>
+        <v>0.464149</v>
       </c>
       <c r="C21" t="n">
-        <v>0.559707</v>
+        <v>0.549962</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7072889999999999</v>
+        <v>0.706811</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.45995</v>
+        <v>0.460639</v>
       </c>
       <c r="C22" t="n">
-        <v>0.548143</v>
+        <v>0.538241</v>
       </c>
       <c r="D22" t="n">
-        <v>0.693991</v>
+        <v>0.693905</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.458044</v>
+        <v>0.459089</v>
       </c>
       <c r="C23" t="n">
-        <v>0.538062</v>
+        <v>0.52829</v>
       </c>
       <c r="D23" t="n">
-        <v>0.684171</v>
+        <v>0.683497</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.644167</v>
+        <v>0.644161</v>
       </c>
       <c r="C24" t="n">
-        <v>0.813076</v>
+        <v>0.803377</v>
       </c>
       <c r="D24" t="n">
-        <v>1.01382</v>
+        <v>1.0113</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.625188</v>
+        <v>0.624175</v>
       </c>
       <c r="C25" t="n">
-        <v>0.787103</v>
+        <v>0.776701</v>
       </c>
       <c r="D25" t="n">
-        <v>0.980754</v>
+        <v>0.978581</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.605853</v>
+        <v>0.605272</v>
       </c>
       <c r="C26" t="n">
-        <v>0.760985</v>
+        <v>0.751173</v>
       </c>
       <c r="D26" t="n">
-        <v>0.949696</v>
+        <v>0.946989</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.587159</v>
+        <v>0.58631</v>
       </c>
       <c r="C27" t="n">
-        <v>0.73756</v>
+        <v>0.726951</v>
       </c>
       <c r="D27" t="n">
-        <v>0.919217</v>
+        <v>0.917226</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.570045</v>
+        <v>0.569192</v>
       </c>
       <c r="C28" t="n">
-        <v>0.712842</v>
+        <v>0.702931</v>
       </c>
       <c r="D28" t="n">
-        <v>0.889868</v>
+        <v>0.888381</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.553464</v>
+        <v>0.552678</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6921659999999999</v>
+        <v>0.680822</v>
       </c>
       <c r="D29" t="n">
-        <v>0.863017</v>
+        <v>0.861546</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.537851</v>
+        <v>0.537677</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6706800000000001</v>
+        <v>0.660084</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8372889999999999</v>
+        <v>0.835762</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.523998</v>
+        <v>0.5235109999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.650465</v>
+        <v>0.640108</v>
       </c>
       <c r="D31" t="n">
-        <v>0.813763</v>
+        <v>0.811331</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.509586</v>
+        <v>0.510477</v>
       </c>
       <c r="C32" t="n">
-        <v>0.631027</v>
+        <v>0.621688</v>
       </c>
       <c r="D32" t="n">
-        <v>0.790222</v>
+        <v>0.789014</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.497796</v>
+        <v>0.497632</v>
       </c>
       <c r="C33" t="n">
-        <v>0.614394</v>
+        <v>0.604118</v>
       </c>
       <c r="D33" t="n">
-        <v>0.769529</v>
+        <v>0.767811</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.488032</v>
+        <v>0.487741</v>
       </c>
       <c r="C34" t="n">
-        <v>0.598326</v>
+        <v>0.587821</v>
       </c>
       <c r="D34" t="n">
-        <v>0.75026</v>
+        <v>0.7483340000000001</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.479361</v>
+        <v>0.479429</v>
       </c>
       <c r="C35" t="n">
-        <v>0.583768</v>
+        <v>0.573117</v>
       </c>
       <c r="D35" t="n">
-        <v>0.732301</v>
+        <v>0.731349</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.473323</v>
+        <v>0.473094</v>
       </c>
       <c r="C36" t="n">
-        <v>0.571927</v>
+        <v>0.559805</v>
       </c>
       <c r="D36" t="n">
-        <v>0.718654</v>
+        <v>0.716733</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.470233</v>
+        <v>0.469229</v>
       </c>
       <c r="C37" t="n">
-        <v>0.56138</v>
+        <v>0.549171</v>
       </c>
       <c r="D37" t="n">
-        <v>0.705747</v>
+        <v>0.705341</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.66335</v>
+        <v>0.662069</v>
       </c>
       <c r="C38" t="n">
-        <v>0.839313</v>
+        <v>0.828383</v>
       </c>
       <c r="D38" t="n">
-        <v>1.04244</v>
+        <v>1.03881</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.643972</v>
+        <v>0.64291</v>
       </c>
       <c r="C39" t="n">
-        <v>0.813409</v>
+        <v>0.801525</v>
       </c>
       <c r="D39" t="n">
-        <v>1.00709</v>
+        <v>1.00597</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.623519</v>
+        <v>0.623102</v>
       </c>
       <c r="C40" t="n">
-        <v>0.784955</v>
+        <v>0.774616</v>
       </c>
       <c r="D40" t="n">
-        <v>0.97567</v>
+        <v>0.972587</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.605607</v>
+        <v>0.604024</v>
       </c>
       <c r="C41" t="n">
-        <v>0.761345</v>
+        <v>0.749987</v>
       </c>
       <c r="D41" t="n">
-        <v>0.946284</v>
+        <v>0.943731</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.587417</v>
+        <v>0.586438</v>
       </c>
       <c r="C42" t="n">
-        <v>0.736641</v>
+        <v>0.726444</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9152439999999999</v>
+        <v>0.913334</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.571188</v>
+        <v>0.569898</v>
       </c>
       <c r="C43" t="n">
-        <v>0.715517</v>
+        <v>0.704454</v>
       </c>
       <c r="D43" t="n">
-        <v>0.889199</v>
+        <v>0.8868549999999999</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.555594</v>
+        <v>0.554701</v>
       </c>
       <c r="C44" t="n">
-        <v>0.695481</v>
+        <v>0.682665</v>
       </c>
       <c r="D44" t="n">
-        <v>0.863394</v>
+        <v>0.860366</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.540955</v>
+        <v>0.5404679999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>0.675419</v>
+        <v>0.663099</v>
       </c>
       <c r="D45" t="n">
-        <v>0.838453</v>
+        <v>0.836529</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5276729999999999</v>
+        <v>0.527024</v>
       </c>
       <c r="C46" t="n">
-        <v>0.655814</v>
+        <v>0.64425</v>
       </c>
       <c r="D46" t="n">
-        <v>0.814678</v>
+        <v>0.812517</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.51447</v>
+        <v>0.51429</v>
       </c>
       <c r="C47" t="n">
-        <v>0.638809</v>
+        <v>0.625543</v>
       </c>
       <c r="D47" t="n">
-        <v>0.79381</v>
+        <v>0.791303</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.50461</v>
+        <v>0.504248</v>
       </c>
       <c r="C48" t="n">
-        <v>0.622339</v>
+        <v>0.609139</v>
       </c>
       <c r="D48" t="n">
-        <v>0.773174</v>
+        <v>0.771562</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.493581</v>
+        <v>0.495366</v>
       </c>
       <c r="C49" t="n">
-        <v>0.607298</v>
+        <v>0.59374</v>
       </c>
       <c r="D49" t="n">
-        <v>0.75508</v>
+        <v>0.753368</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.487876</v>
+        <v>0.487722</v>
       </c>
       <c r="C50" t="n">
-        <v>0.594056</v>
+        <v>0.579997</v>
       </c>
       <c r="D50" t="n">
-        <v>0.739725</v>
+        <v>0.73727</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.483645</v>
+        <v>0.48368</v>
       </c>
       <c r="C51" t="n">
-        <v>0.582798</v>
+        <v>0.56797</v>
       </c>
       <c r="D51" t="n">
-        <v>0.727061</v>
+        <v>0.725301</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.483797</v>
+        <v>0.482954</v>
       </c>
       <c r="C52" t="n">
-        <v>0.573868</v>
+        <v>0.559859</v>
       </c>
       <c r="D52" t="n">
-        <v>0.717545</v>
+        <v>0.716544</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.66332</v>
+        <v>0.663103</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8472229999999999</v>
+        <v>0.83255</v>
       </c>
       <c r="D53" t="n">
-        <v>1.04286</v>
+        <v>1.0386</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.643757</v>
+        <v>0.643466</v>
       </c>
       <c r="C54" t="n">
-        <v>0.819985</v>
+        <v>0.806435</v>
       </c>
       <c r="D54" t="n">
-        <v>1.01007</v>
+        <v>1.00762</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.627041</v>
+        <v>0.625732</v>
       </c>
       <c r="C55" t="n">
-        <v>0.7980159999999999</v>
+        <v>0.781304</v>
       </c>
       <c r="D55" t="n">
-        <v>0.981453</v>
+        <v>0.976425</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.60965</v>
+        <v>0.607228</v>
       </c>
       <c r="C56" t="n">
-        <v>0.773116</v>
+        <v>0.755457</v>
       </c>
       <c r="D56" t="n">
-        <v>0.951126</v>
+        <v>0.945923</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.591776</v>
+        <v>0.59039</v>
       </c>
       <c r="C57" t="n">
-        <v>0.749604</v>
+        <v>0.733204</v>
       </c>
       <c r="D57" t="n">
-        <v>0.921207</v>
+        <v>0.918408</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.577718</v>
+        <v>0.575748</v>
       </c>
       <c r="C58" t="n">
-        <v>0.727573</v>
+        <v>0.711726</v>
       </c>
       <c r="D58" t="n">
-        <v>0.894713</v>
+        <v>0.891637</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.563854</v>
+        <v>0.560751</v>
       </c>
       <c r="C59" t="n">
-        <v>0.707125</v>
+        <v>0.690586</v>
       </c>
       <c r="D59" t="n">
-        <v>0.870225</v>
+        <v>0.866164</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.549221</v>
+        <v>0.547631</v>
       </c>
       <c r="C60" t="n">
-        <v>0.688549</v>
+        <v>0.6724020000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.849152</v>
+        <v>0.843526</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.538751</v>
+        <v>0.53598</v>
       </c>
       <c r="C61" t="n">
-        <v>0.6705680000000001</v>
+        <v>0.653783</v>
       </c>
       <c r="D61" t="n">
-        <v>0.823968</v>
+        <v>0.821433</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.526836</v>
+        <v>0.525416</v>
       </c>
       <c r="C62" t="n">
-        <v>0.65293</v>
+        <v>0.6371289999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.803355</v>
+        <v>0.8010389999999999</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.517007</v>
+        <v>0.516001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.637056</v>
+        <v>0.621176</v>
       </c>
       <c r="D63" t="n">
-        <v>0.7840200000000001</v>
+        <v>0.782695</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.510597</v>
+        <v>0.5091599999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.62358</v>
+        <v>0.606784</v>
       </c>
       <c r="D64" t="n">
-        <v>0.769061</v>
+        <v>0.765655</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.506233</v>
+        <v>0.504785</v>
       </c>
       <c r="C65" t="n">
-        <v>0.611693</v>
+        <v>0.594054</v>
       </c>
       <c r="D65" t="n">
-        <v>0.75501</v>
+        <v>0.752349</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.505432</v>
+        <v>0.50373</v>
       </c>
       <c r="C66" t="n">
-        <v>0.603</v>
+        <v>0.585807</v>
       </c>
       <c r="D66" t="n">
-        <v>0.745391</v>
+        <v>0.742429</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.719234</v>
+        <v>0.714494</v>
       </c>
       <c r="C67" t="n">
-        <v>0.910108</v>
+        <v>0.886503</v>
       </c>
       <c r="D67" t="n">
-        <v>1.09938</v>
+        <v>1.09055</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.703437</v>
+        <v>0.6980229999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>0.88818</v>
+        <v>0.863137</v>
       </c>
       <c r="D68" t="n">
-        <v>1.0765</v>
+        <v>1.06456</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.690921</v>
+        <v>0.684878</v>
       </c>
       <c r="C69" t="n">
-        <v>0.861905</v>
+        <v>0.838406</v>
       </c>
       <c r="D69" t="n">
-        <v>1.04382</v>
+        <v>1.03211</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.674901</v>
+        <v>0.669789</v>
       </c>
       <c r="C70" t="n">
-        <v>0.836609</v>
+        <v>0.815935</v>
       </c>
       <c r="D70" t="n">
-        <v>1.01203</v>
+        <v>1.00161</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.657616</v>
+        <v>0.6548659999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>0.812497</v>
+        <v>0.792929</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9835120000000001</v>
+        <v>0.974438</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.641272</v>
+        <v>0.638802</v>
       </c>
       <c r="C72" t="n">
-        <v>0.787929</v>
+        <v>0.768311</v>
       </c>
       <c r="D72" t="n">
-        <v>0.951335</v>
+        <v>0.946092</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.627008</v>
+        <v>0.624366</v>
       </c>
       <c r="C73" t="n">
-        <v>0.765096</v>
+        <v>0.746564</v>
       </c>
       <c r="D73" t="n">
-        <v>0.927868</v>
+        <v>0.924243</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.615905</v>
+        <v>0.614988</v>
       </c>
       <c r="C74" t="n">
-        <v>0.749644</v>
+        <v>0.728401</v>
       </c>
       <c r="D74" t="n">
-        <v>0.906759</v>
+        <v>0.896261</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.605926</v>
+        <v>0.597652</v>
       </c>
       <c r="C75" t="n">
-        <v>0.7307900000000001</v>
+        <v>0.705053</v>
       </c>
       <c r="D75" t="n">
-        <v>0.881736</v>
+        <v>0.879732</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5932770000000001</v>
+        <v>0.598586</v>
       </c>
       <c r="C76" t="n">
-        <v>0.709547</v>
+        <v>0.696477</v>
       </c>
       <c r="D76" t="n">
-        <v>0.855433</v>
+        <v>0.858621</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.580572</v>
+        <v>0.587646</v>
       </c>
       <c r="C77" t="n">
-        <v>0.692255</v>
+        <v>0.679413</v>
       </c>
       <c r="D77" t="n">
-        <v>0.839318</v>
+        <v>0.837465</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.574123</v>
+        <v>0.579464</v>
       </c>
       <c r="C78" t="n">
-        <v>0.679098</v>
+        <v>0.664724</v>
       </c>
       <c r="D78" t="n">
-        <v>0.819336</v>
+        <v>0.8203549999999999</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.566223</v>
+        <v>0.573469</v>
       </c>
       <c r="C79" t="n">
-        <v>0.665313</v>
+        <v>0.650618</v>
       </c>
       <c r="D79" t="n">
-        <v>0.804592</v>
+        <v>0.805711</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.562219</v>
+        <v>0.568791</v>
       </c>
       <c r="C80" t="n">
-        <v>0.6541090000000001</v>
+        <v>0.639951</v>
       </c>
       <c r="D80" t="n">
-        <v>0.791602</v>
+        <v>0.79278</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.793046</v>
+        <v>0.805303</v>
       </c>
       <c r="C81" t="n">
-        <v>0.994768</v>
+        <v>0.98221</v>
       </c>
       <c r="D81" t="n">
-        <v>1.17332</v>
+        <v>1.17702</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.78513</v>
+        <v>0.799157</v>
       </c>
       <c r="C82" t="n">
-        <v>0.977688</v>
+        <v>0.9678</v>
       </c>
       <c r="D82" t="n">
-        <v>1.15526</v>
+        <v>1.15905</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.775666</v>
+        <v>0.789786</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9575</v>
+        <v>0.948318</v>
       </c>
       <c r="D83" t="n">
-        <v>1.13263</v>
+        <v>1.13725</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.76447</v>
+        <v>0.779379</v>
       </c>
       <c r="C84" t="n">
-        <v>0.937987</v>
+        <v>0.928967</v>
       </c>
       <c r="D84" t="n">
-        <v>1.10936</v>
+        <v>1.11429</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.754783</v>
+        <v>0.768478</v>
       </c>
       <c r="C85" t="n">
-        <v>0.917608</v>
+        <v>0.907617</v>
       </c>
       <c r="D85" t="n">
-        <v>1.08216</v>
+        <v>1.08878</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.740702</v>
+        <v>0.75726</v>
       </c>
       <c r="C86" t="n">
-        <v>0.894145</v>
+        <v>0.8867429999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>1.057</v>
+        <v>1.06322</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.733131</v>
+        <v>0.745594</v>
       </c>
       <c r="C87" t="n">
-        <v>0.877103</v>
+        <v>0.866167</v>
       </c>
       <c r="D87" t="n">
-        <v>1.03507</v>
+        <v>1.03855</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.722747</v>
+        <v>0.7344309999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8569639999999999</v>
+        <v>0.8463039999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>1.01164</v>
+        <v>1.01361</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.711992</v>
+        <v>0.723256</v>
       </c>
       <c r="C89" t="n">
-        <v>0.837978</v>
+        <v>0.826875</v>
       </c>
       <c r="D89" t="n">
-        <v>0.98606</v>
+        <v>0.9899790000000001</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.701335</v>
+        <v>0.7126169999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>0.819066</v>
+        <v>0.808128</v>
       </c>
       <c r="D90" t="n">
-        <v>0.963517</v>
+        <v>0.9678</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.691955</v>
+        <v>0.703287</v>
       </c>
       <c r="C91" t="n">
-        <v>0.802092</v>
+        <v>0.791073</v>
       </c>
       <c r="D91" t="n">
-        <v>0.94371</v>
+        <v>0.947214</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.683601</v>
+        <v>0.694657</v>
       </c>
       <c r="C92" t="n">
-        <v>0.786301</v>
+        <v>0.774908</v>
       </c>
       <c r="D92" t="n">
-        <v>0.924906</v>
+        <v>0.929209</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.677795</v>
+        <v>0.688895</v>
       </c>
       <c r="C93" t="n">
-        <v>0.771432</v>
+        <v>0.761316</v>
       </c>
       <c r="D93" t="n">
-        <v>0.907021</v>
+        <v>0.912727</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.672156</v>
+        <v>0.684159</v>
       </c>
       <c r="C94" t="n">
-        <v>0.759508</v>
+        <v>0.7494499999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>0.896467</v>
+        <v>0.899079</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.907704</v>
+        <v>0.923126</v>
       </c>
       <c r="C95" t="n">
-        <v>1.10318</v>
+        <v>1.09387</v>
       </c>
       <c r="D95" t="n">
-        <v>1.27919</v>
+        <v>1.28592</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.905012</v>
+        <v>0.920011</v>
       </c>
       <c r="C96" t="n">
-        <v>1.09639</v>
+        <v>1.08862</v>
       </c>
       <c r="D96" t="n">
-        <v>1.27309</v>
+        <v>1.2805</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.895146</v>
+        <v>0.909931</v>
       </c>
       <c r="C97" t="n">
-        <v>1.07841</v>
+        <v>1.07112</v>
       </c>
       <c r="D97" t="n">
-        <v>1.25919</v>
+        <v>1.26493</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.885961</v>
+        <v>0.898343</v>
       </c>
       <c r="C98" t="n">
-        <v>1.06133</v>
+        <v>1.0524</v>
       </c>
       <c r="D98" t="n">
-        <v>1.24106</v>
+        <v>1.24708</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.876269</v>
+        <v>0.887106</v>
       </c>
       <c r="C99" t="n">
-        <v>1.04296</v>
+        <v>1.03346</v>
       </c>
       <c r="D99" t="n">
-        <v>1.22376</v>
+        <v>1.22818</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.865258</v>
+        <v>0.876437</v>
       </c>
       <c r="C100" t="n">
-        <v>1.02538</v>
+        <v>1.01664</v>
       </c>
       <c r="D100" t="n">
-        <v>1.20522</v>
+        <v>1.20984</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.8551299999999999</v>
+        <v>0.865682</v>
       </c>
       <c r="C101" t="n">
-        <v>1.00764</v>
+        <v>0.999583</v>
       </c>
       <c r="D101" t="n">
-        <v>1.18576</v>
+        <v>1.19131</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.845243</v>
+        <v>0.855808</v>
       </c>
       <c r="C102" t="n">
-        <v>0.992971</v>
+        <v>0.982897</v>
       </c>
       <c r="D102" t="n">
-        <v>1.17159</v>
+        <v>1.17456</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.837634</v>
+        <v>0.846669</v>
       </c>
       <c r="C103" t="n">
-        <v>0.978278</v>
+        <v>0.9682500000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>1.15532</v>
+        <v>1.15846</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.8290999999999999</v>
+        <v>0.838571</v>
       </c>
       <c r="C104" t="n">
-        <v>0.963232</v>
+        <v>0.9542929999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>1.13939</v>
+        <v>1.14299</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.821398</v>
+        <v>0.83081</v>
       </c>
       <c r="C105" t="n">
-        <v>0.951447</v>
+        <v>0.941086</v>
       </c>
       <c r="D105" t="n">
-        <v>1.12522</v>
+        <v>1.12835</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.816075</v>
+        <v>0.824197</v>
       </c>
       <c r="C106" t="n">
-        <v>0.939021</v>
+        <v>0.929072</v>
       </c>
       <c r="D106" t="n">
-        <v>1.11228</v>
+        <v>1.1148</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.811279</v>
+        <v>0.819052</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9284750000000001</v>
+        <v>0.91833</v>
       </c>
       <c r="D107" t="n">
-        <v>1.09975</v>
+        <v>1.10382</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.808694</v>
+        <v>0.817415</v>
       </c>
       <c r="C108" t="n">
-        <v>0.918444</v>
+        <v>0.90961</v>
       </c>
       <c r="D108" t="n">
-        <v>1.08856</v>
+        <v>1.09294</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.810325</v>
+        <v>0.817385</v>
       </c>
       <c r="C109" t="n">
-        <v>0.913114</v>
+        <v>0.903568</v>
       </c>
       <c r="D109" t="n">
-        <v>1.08158</v>
+        <v>1.08473</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.03826</v>
+        <v>1.04781</v>
       </c>
       <c r="C110" t="n">
-        <v>1.25883</v>
+        <v>1.24941</v>
       </c>
       <c r="D110" t="n">
-        <v>1.46829</v>
+        <v>1.47058</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.02655</v>
+        <v>1.03502</v>
       </c>
       <c r="C111" t="n">
-        <v>1.2416</v>
+        <v>1.23129</v>
       </c>
       <c r="D111" t="n">
-        <v>1.45448</v>
+        <v>1.45625</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.01378</v>
+        <v>1.02142</v>
       </c>
       <c r="C112" t="n">
-        <v>1.22355</v>
+        <v>1.21312</v>
       </c>
       <c r="D112" t="n">
-        <v>1.43965</v>
+        <v>1.44091</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.0015</v>
+        <v>1.00961</v>
       </c>
       <c r="C113" t="n">
-        <v>1.20454</v>
+        <v>1.19625</v>
       </c>
       <c r="D113" t="n">
-        <v>1.42411</v>
+        <v>1.42853</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.990451</v>
+        <v>0.998163</v>
       </c>
       <c r="C114" t="n">
-        <v>1.1863</v>
+        <v>1.17957</v>
       </c>
       <c r="D114" t="n">
-        <v>1.41129</v>
+        <v>1.41501</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.979096</v>
+        <v>0.98655</v>
       </c>
       <c r="C115" t="n">
-        <v>1.17247</v>
+        <v>1.16377</v>
       </c>
       <c r="D115" t="n">
-        <v>1.40006</v>
+        <v>1.40366</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.96961</v>
+        <v>0.976938</v>
       </c>
       <c r="C116" t="n">
-        <v>1.158</v>
+        <v>1.1489</v>
       </c>
       <c r="D116" t="n">
-        <v>1.38794</v>
+        <v>1.39023</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.960437</v>
+        <v>0.967557</v>
       </c>
       <c r="C117" t="n">
-        <v>1.14455</v>
+        <v>1.13556</v>
       </c>
       <c r="D117" t="n">
-        <v>1.37625</v>
+        <v>1.37931</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.951915</v>
+        <v>0.958974</v>
       </c>
       <c r="C118" t="n">
-        <v>1.13164</v>
+        <v>1.12278</v>
       </c>
       <c r="D118" t="n">
-        <v>1.36624</v>
+        <v>1.36793</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.945253</v>
+        <v>0.951298</v>
       </c>
       <c r="C119" t="n">
-        <v>1.12005</v>
+        <v>1.1114</v>
       </c>
       <c r="D119" t="n">
-        <v>1.35771</v>
+        <v>1.35903</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.9389729999999999</v>
+        <v>0.944472</v>
       </c>
       <c r="C120" t="n">
-        <v>1.10899</v>
+        <v>1.10024</v>
       </c>
       <c r="D120" t="n">
-        <v>1.3475</v>
+        <v>1.34926</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.933796</v>
+        <v>0.939624</v>
       </c>
       <c r="C121" t="n">
-        <v>1.10021</v>
+        <v>1.09094</v>
       </c>
       <c r="D121" t="n">
-        <v>1.33949</v>
+        <v>1.34053</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.9320079999999999</v>
+        <v>0.937402</v>
       </c>
       <c r="C122" t="n">
-        <v>1.09317</v>
+        <v>1.08327</v>
       </c>
       <c r="D122" t="n">
-        <v>1.33034</v>
+        <v>1.33244</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.932208</v>
+        <v>0.9373280000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>1.08851</v>
+        <v>1.07748</v>
       </c>
       <c r="D123" t="n">
-        <v>1.32406</v>
+        <v>1.32543</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.16179</v>
+        <v>1.16822</v>
       </c>
       <c r="C124" t="n">
-        <v>1.43383</v>
+        <v>1.42278</v>
       </c>
       <c r="D124" t="n">
-        <v>1.71025</v>
+        <v>1.71054</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.1509</v>
+        <v>1.15676</v>
       </c>
       <c r="C125" t="n">
-        <v>1.41778</v>
+        <v>1.40719</v>
       </c>
       <c r="D125" t="n">
-        <v>1.6926</v>
+        <v>1.69197</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.1396</v>
+        <v>1.14533</v>
       </c>
       <c r="C126" t="n">
-        <v>1.40151</v>
+        <v>1.39059</v>
       </c>
       <c r="D126" t="n">
-        <v>1.67406</v>
+        <v>1.67666</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.12904</v>
+        <v>1.13454</v>
       </c>
       <c r="C127" t="n">
-        <v>1.38665</v>
+        <v>1.37617</v>
       </c>
       <c r="D127" t="n">
-        <v>1.65851</v>
+        <v>1.65951</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.11964</v>
+        <v>1.1249</v>
       </c>
       <c r="C128" t="n">
-        <v>1.37228</v>
+        <v>1.36179</v>
       </c>
       <c r="D128" t="n">
-        <v>1.64152</v>
+        <v>1.64969</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.11069</v>
+        <v>1.11564</v>
       </c>
       <c r="C129" t="n">
-        <v>1.3584</v>
+        <v>1.34871</v>
       </c>
       <c r="D129" t="n">
-        <v>1.62794</v>
+        <v>1.63146</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.10207</v>
+        <v>1.10667</v>
       </c>
       <c r="C130" t="n">
-        <v>1.34743</v>
+        <v>1.33667</v>
       </c>
       <c r="D130" t="n">
-        <v>1.61408</v>
+        <v>1.61866</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.09499</v>
+        <v>1.09835</v>
       </c>
       <c r="C131" t="n">
-        <v>1.33478</v>
+        <v>1.32421</v>
       </c>
       <c r="D131" t="n">
-        <v>1.60228</v>
+        <v>1.60376</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.08879</v>
+        <v>1.09181</v>
       </c>
       <c r="C132" t="n">
-        <v>1.32488</v>
+        <v>1.31384</v>
       </c>
       <c r="D132" t="n">
-        <v>1.59048</v>
+        <v>1.59096</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.08264</v>
+        <v>1.08629</v>
       </c>
       <c r="C133" t="n">
-        <v>1.31598</v>
+        <v>1.30478</v>
       </c>
       <c r="D133" t="n">
-        <v>1.57687</v>
+        <v>1.5846</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.07878</v>
+        <v>1.08207</v>
       </c>
       <c r="C134" t="n">
-        <v>1.30806</v>
+        <v>1.29704</v>
       </c>
       <c r="D134" t="n">
-        <v>1.56975</v>
+        <v>1.57406</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.07675</v>
+        <v>1.07995</v>
       </c>
       <c r="C135" t="n">
-        <v>1.30174</v>
+        <v>1.28883</v>
       </c>
       <c r="D135" t="n">
-        <v>1.55918</v>
+        <v>1.56821</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.07673</v>
+        <v>1.07855</v>
       </c>
       <c r="C136" t="n">
-        <v>1.29609</v>
+        <v>1.28339</v>
       </c>
       <c r="D136" t="n">
-        <v>1.55985</v>
+        <v>1.56034</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.07669</v>
+        <v>1.07912</v>
       </c>
       <c r="C137" t="n">
-        <v>1.2917</v>
+        <v>1.27932</v>
       </c>
       <c r="D137" t="n">
-        <v>1.55215</v>
+        <v>1.55177</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.30602</v>
+        <v>1.30908</v>
       </c>
       <c r="C138" t="n">
-        <v>1.63647</v>
+        <v>1.6204</v>
       </c>
       <c r="D138" t="n">
-        <v>1.93355</v>
+        <v>1.93207</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.29638</v>
+        <v>1.29917</v>
       </c>
       <c r="C139" t="n">
-        <v>1.62115</v>
+        <v>1.60671</v>
       </c>
       <c r="D139" t="n">
-        <v>1.90971</v>
+        <v>1.91195</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.2882</v>
+        <v>1.29112</v>
       </c>
       <c r="C140" t="n">
-        <v>1.60706</v>
+        <v>1.59301</v>
       </c>
       <c r="D140" t="n">
-        <v>1.89154</v>
+        <v>1.88797</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.28025</v>
+        <v>1.28211</v>
       </c>
       <c r="C141" t="n">
-        <v>1.5952</v>
+        <v>1.57941</v>
       </c>
       <c r="D141" t="n">
-        <v>1.87167</v>
+        <v>1.87051</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.27246</v>
+        <v>1.27495</v>
       </c>
       <c r="C142" t="n">
-        <v>1.58153</v>
+        <v>1.56771</v>
       </c>
       <c r="D142" t="n">
-        <v>1.85306</v>
+        <v>1.85484</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.2666</v>
+        <v>1.26785</v>
       </c>
       <c r="C143" t="n">
-        <v>1.5714</v>
+        <v>1.55642</v>
       </c>
       <c r="D143" t="n">
-        <v>1.83178</v>
+        <v>1.83857</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.482145</v>
+        <v>0.482257</v>
       </c>
       <c r="C2" t="n">
-        <v>0.592381</v>
+        <v>0.592428</v>
       </c>
       <c r="D2" t="n">
-        <v>0.759865</v>
+        <v>0.758816</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.469626</v>
+        <v>0.46989</v>
       </c>
       <c r="C3" t="n">
-        <v>0.575197</v>
+        <v>0.573944</v>
       </c>
       <c r="D3" t="n">
-        <v>0.737223</v>
+        <v>0.73763</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.459063</v>
+        <v>0.459568</v>
       </c>
       <c r="C4" t="n">
-        <v>0.558791</v>
+        <v>0.557814</v>
       </c>
       <c r="D4" t="n">
-        <v>0.717634</v>
+        <v>0.717516</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.450216</v>
+        <v>0.449627</v>
       </c>
       <c r="C5" t="n">
-        <v>0.543</v>
+        <v>0.542683</v>
       </c>
       <c r="D5" t="n">
-        <v>0.700258</v>
+        <v>0.699794</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.442212</v>
+        <v>0.441862</v>
       </c>
       <c r="C6" t="n">
-        <v>0.529545</v>
+        <v>0.529362</v>
       </c>
       <c r="D6" t="n">
-        <v>0.683588</v>
+        <v>0.683862</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.436523</v>
+        <v>0.436012</v>
       </c>
       <c r="C7" t="n">
-        <v>0.516845</v>
+        <v>0.51698</v>
       </c>
       <c r="D7" t="n">
-        <v>0.670559</v>
+        <v>0.670297</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.43304</v>
+        <v>0.432637</v>
       </c>
       <c r="C8" t="n">
-        <v>0.507196</v>
+        <v>0.507055</v>
       </c>
       <c r="D8" t="n">
-        <v>0.659535</v>
+        <v>0.659673</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.432395</v>
+        <v>0.432465</v>
       </c>
       <c r="C9" t="n">
-        <v>0.499644</v>
+        <v>0.499815</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6532</v>
+        <v>0.653217</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.619691</v>
+        <v>0.620511</v>
       </c>
       <c r="C10" t="n">
-        <v>0.77077</v>
+        <v>0.769963</v>
       </c>
       <c r="D10" t="n">
-        <v>0.974715</v>
+        <v>0.974002</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6013269999999999</v>
+        <v>0.599894</v>
       </c>
       <c r="C11" t="n">
-        <v>0.744505</v>
+        <v>0.743692</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9433049999999999</v>
+        <v>0.942365</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.582717</v>
+        <v>0.580825</v>
       </c>
       <c r="C12" t="n">
-        <v>0.719853</v>
+        <v>0.718674</v>
       </c>
       <c r="D12" t="n">
-        <v>0.913162</v>
+        <v>0.911817</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.564988</v>
+        <v>0.563026</v>
       </c>
       <c r="C13" t="n">
-        <v>0.696219</v>
+        <v>0.695535</v>
       </c>
       <c r="D13" t="n">
-        <v>0.884066</v>
+        <v>0.883525</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.547943</v>
+        <v>0.547582</v>
       </c>
       <c r="C14" t="n">
-        <v>0.673915</v>
+        <v>0.673245</v>
       </c>
       <c r="D14" t="n">
-        <v>0.856789</v>
+        <v>0.856015</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.532239</v>
+        <v>0.53196</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6525919999999999</v>
+        <v>0.652109</v>
       </c>
       <c r="D15" t="n">
-        <v>0.830693</v>
+        <v>0.82991</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.517563</v>
+        <v>0.517578</v>
       </c>
       <c r="C16" t="n">
-        <v>0.632795</v>
+        <v>0.631975</v>
       </c>
       <c r="D16" t="n">
-        <v>0.805957</v>
+        <v>0.805602</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.503961</v>
+        <v>0.5037239999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.613899</v>
+        <v>0.612969</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7829469999999999</v>
+        <v>0.782186</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.491965</v>
+        <v>0.49154</v>
       </c>
       <c r="C18" t="n">
-        <v>0.596199</v>
+        <v>0.595564</v>
       </c>
       <c r="D18" t="n">
-        <v>0.761064</v>
+        <v>0.760479</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.480575</v>
+        <v>0.480359</v>
       </c>
       <c r="C19" t="n">
-        <v>0.579524</v>
+        <v>0.578909</v>
       </c>
       <c r="D19" t="n">
-        <v>0.74066</v>
+        <v>0.740073</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.471537</v>
+        <v>0.471129</v>
       </c>
       <c r="C20" t="n">
-        <v>0.564229</v>
+        <v>0.563435</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7226669999999999</v>
+        <v>0.722043</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.464149</v>
+        <v>0.463951</v>
       </c>
       <c r="C21" t="n">
-        <v>0.549962</v>
+        <v>0.549304</v>
       </c>
       <c r="D21" t="n">
-        <v>0.706811</v>
+        <v>0.7060419999999999</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.460639</v>
+        <v>0.460375</v>
       </c>
       <c r="C22" t="n">
-        <v>0.538241</v>
+        <v>0.537681</v>
       </c>
       <c r="D22" t="n">
-        <v>0.693905</v>
+        <v>0.69314</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.459089</v>
+        <v>0.458732</v>
       </c>
       <c r="C23" t="n">
-        <v>0.52829</v>
+        <v>0.527763</v>
       </c>
       <c r="D23" t="n">
-        <v>0.683497</v>
+        <v>0.683549</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.644161</v>
+        <v>0.643885</v>
       </c>
       <c r="C24" t="n">
-        <v>0.803377</v>
+        <v>0.803034</v>
       </c>
       <c r="D24" t="n">
-        <v>1.0113</v>
+        <v>1.01062</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.624175</v>
+        <v>0.623822</v>
       </c>
       <c r="C25" t="n">
-        <v>0.776701</v>
+        <v>0.776774</v>
       </c>
       <c r="D25" t="n">
-        <v>0.978581</v>
+        <v>0.978384</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.605272</v>
+        <v>0.605234</v>
       </c>
       <c r="C26" t="n">
-        <v>0.751173</v>
+        <v>0.75091</v>
       </c>
       <c r="D26" t="n">
-        <v>0.946989</v>
+        <v>0.946909</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.58631</v>
+        <v>0.5867019999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.726951</v>
+        <v>0.726417</v>
       </c>
       <c r="D27" t="n">
-        <v>0.917226</v>
+        <v>0.916536</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.569192</v>
+        <v>0.569045</v>
       </c>
       <c r="C28" t="n">
-        <v>0.702931</v>
+        <v>0.702767</v>
       </c>
       <c r="D28" t="n">
-        <v>0.888381</v>
+        <v>0.888185</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.552678</v>
+        <v>0.55269</v>
       </c>
       <c r="C29" t="n">
-        <v>0.680822</v>
+        <v>0.680967</v>
       </c>
       <c r="D29" t="n">
-        <v>0.861546</v>
+        <v>0.861183</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.537677</v>
+        <v>0.537635</v>
       </c>
       <c r="C30" t="n">
-        <v>0.660084</v>
+        <v>0.660156</v>
       </c>
       <c r="D30" t="n">
-        <v>0.835762</v>
+        <v>0.835622</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5235109999999999</v>
+        <v>0.5234220000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>0.640108</v>
+        <v>0.640039</v>
       </c>
       <c r="D31" t="n">
-        <v>0.811331</v>
+        <v>0.811716</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.510477</v>
+        <v>0.510271</v>
       </c>
       <c r="C32" t="n">
-        <v>0.621688</v>
+        <v>0.621592</v>
       </c>
       <c r="D32" t="n">
-        <v>0.789014</v>
+        <v>0.789276</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.497632</v>
+        <v>0.498225</v>
       </c>
       <c r="C33" t="n">
-        <v>0.604118</v>
+        <v>0.603938</v>
       </c>
       <c r="D33" t="n">
-        <v>0.767811</v>
+        <v>0.7680670000000001</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.487741</v>
+        <v>0.487519</v>
       </c>
       <c r="C34" t="n">
-        <v>0.587821</v>
+        <v>0.5875860000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7483340000000001</v>
+        <v>0.748947</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.479429</v>
+        <v>0.479269</v>
       </c>
       <c r="C35" t="n">
-        <v>0.573117</v>
+        <v>0.572584</v>
       </c>
       <c r="D35" t="n">
-        <v>0.731349</v>
+        <v>0.731556</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.473094</v>
+        <v>0.472986</v>
       </c>
       <c r="C36" t="n">
-        <v>0.559805</v>
+        <v>0.559589</v>
       </c>
       <c r="D36" t="n">
-        <v>0.716733</v>
+        <v>0.716696</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.469229</v>
+        <v>0.469668</v>
       </c>
       <c r="C37" t="n">
-        <v>0.549171</v>
+        <v>0.549159</v>
       </c>
       <c r="D37" t="n">
-        <v>0.705341</v>
+        <v>0.705286</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.662069</v>
+        <v>0.661907</v>
       </c>
       <c r="C38" t="n">
-        <v>0.828383</v>
+        <v>0.827977</v>
       </c>
       <c r="D38" t="n">
-        <v>1.03881</v>
+        <v>1.03779</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.64291</v>
+        <v>0.642892</v>
       </c>
       <c r="C39" t="n">
-        <v>0.801525</v>
+        <v>0.801365</v>
       </c>
       <c r="D39" t="n">
-        <v>1.00597</v>
+        <v>1.00549</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.623102</v>
+        <v>0.622954</v>
       </c>
       <c r="C40" t="n">
-        <v>0.774616</v>
+        <v>0.774804</v>
       </c>
       <c r="D40" t="n">
-        <v>0.972587</v>
+        <v>0.97303</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.604024</v>
+        <v>0.604139</v>
       </c>
       <c r="C41" t="n">
-        <v>0.749987</v>
+        <v>0.749718</v>
       </c>
       <c r="D41" t="n">
-        <v>0.943731</v>
+        <v>0.9429070000000001</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.586438</v>
+        <v>0.586095</v>
       </c>
       <c r="C42" t="n">
-        <v>0.726444</v>
+        <v>0.725791</v>
       </c>
       <c r="D42" t="n">
-        <v>0.913334</v>
+        <v>0.913371</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.569898</v>
+        <v>0.569642</v>
       </c>
       <c r="C43" t="n">
-        <v>0.704454</v>
+        <v>0.703074</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8868549999999999</v>
+        <v>0.885749</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.554701</v>
+        <v>0.554281</v>
       </c>
       <c r="C44" t="n">
-        <v>0.682665</v>
+        <v>0.681694</v>
       </c>
       <c r="D44" t="n">
-        <v>0.860366</v>
+        <v>0.860071</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5404679999999999</v>
+        <v>0.539956</v>
       </c>
       <c r="C45" t="n">
-        <v>0.663099</v>
+        <v>0.661455</v>
       </c>
       <c r="D45" t="n">
-        <v>0.836529</v>
+        <v>0.8349760000000001</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.527024</v>
+        <v>0.5263600000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>0.64425</v>
+        <v>0.642439</v>
       </c>
       <c r="D46" t="n">
-        <v>0.812517</v>
+        <v>0.8119499999999999</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.51429</v>
+        <v>0.514589</v>
       </c>
       <c r="C47" t="n">
-        <v>0.625543</v>
+        <v>0.624599</v>
       </c>
       <c r="D47" t="n">
-        <v>0.791303</v>
+        <v>0.790507</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.504248</v>
+        <v>0.50409</v>
       </c>
       <c r="C48" t="n">
-        <v>0.609139</v>
+        <v>0.6080410000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.771562</v>
+        <v>0.7702329999999999</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.495366</v>
+        <v>0.494707</v>
       </c>
       <c r="C49" t="n">
-        <v>0.59374</v>
+        <v>0.593442</v>
       </c>
       <c r="D49" t="n">
-        <v>0.753368</v>
+        <v>0.752846</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.487722</v>
+        <v>0.488521</v>
       </c>
       <c r="C50" t="n">
-        <v>0.579997</v>
+        <v>0.579869</v>
       </c>
       <c r="D50" t="n">
-        <v>0.73727</v>
+        <v>0.737338</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.48368</v>
+        <v>0.48377</v>
       </c>
       <c r="C51" t="n">
-        <v>0.56797</v>
+        <v>0.568241</v>
       </c>
       <c r="D51" t="n">
-        <v>0.725301</v>
+        <v>0.725133</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.482954</v>
+        <v>0.482991</v>
       </c>
       <c r="C52" t="n">
-        <v>0.559859</v>
+        <v>0.560115</v>
       </c>
       <c r="D52" t="n">
-        <v>0.716544</v>
+        <v>0.716521</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.663103</v>
+        <v>0.66271</v>
       </c>
       <c r="C53" t="n">
-        <v>0.83255</v>
+        <v>0.832483</v>
       </c>
       <c r="D53" t="n">
-        <v>1.0386</v>
+        <v>1.03894</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.643466</v>
+        <v>0.642668</v>
       </c>
       <c r="C54" t="n">
-        <v>0.806435</v>
+        <v>0.805601</v>
       </c>
       <c r="D54" t="n">
-        <v>1.00762</v>
+        <v>1.00586</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.625732</v>
+        <v>0.625136</v>
       </c>
       <c r="C55" t="n">
-        <v>0.781304</v>
+        <v>0.779962</v>
       </c>
       <c r="D55" t="n">
-        <v>0.976425</v>
+        <v>0.975066</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.607228</v>
+        <v>0.607986</v>
       </c>
       <c r="C56" t="n">
-        <v>0.755457</v>
+        <v>0.756351</v>
       </c>
       <c r="D56" t="n">
-        <v>0.945923</v>
+        <v>0.945748</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.59039</v>
+        <v>0.592022</v>
       </c>
       <c r="C57" t="n">
-        <v>0.733204</v>
+        <v>0.733887</v>
       </c>
       <c r="D57" t="n">
-        <v>0.918408</v>
+        <v>0.918543</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.575748</v>
+        <v>0.576792</v>
       </c>
       <c r="C58" t="n">
-        <v>0.711726</v>
+        <v>0.7122000000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>0.891637</v>
+        <v>0.891575</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.560751</v>
+        <v>0.56137</v>
       </c>
       <c r="C59" t="n">
-        <v>0.690586</v>
+        <v>0.691387</v>
       </c>
       <c r="D59" t="n">
-        <v>0.866164</v>
+        <v>0.865998</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.547631</v>
+        <v>0.548349</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6724020000000001</v>
+        <v>0.67235</v>
       </c>
       <c r="D60" t="n">
-        <v>0.843526</v>
+        <v>0.843341</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.53598</v>
+        <v>0.536509</v>
       </c>
       <c r="C61" t="n">
-        <v>0.653783</v>
+        <v>0.654495</v>
       </c>
       <c r="D61" t="n">
-        <v>0.821433</v>
+        <v>0.821442</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.525416</v>
+        <v>0.5262790000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6371289999999999</v>
+        <v>0.637416</v>
       </c>
       <c r="D62" t="n">
-        <v>0.8010389999999999</v>
+        <v>0.801044</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.516001</v>
+        <v>0.516652</v>
       </c>
       <c r="C63" t="n">
-        <v>0.621176</v>
+        <v>0.62163</v>
       </c>
       <c r="D63" t="n">
-        <v>0.782695</v>
+        <v>0.782718</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5091599999999999</v>
+        <v>0.510207</v>
       </c>
       <c r="C64" t="n">
-        <v>0.606784</v>
+        <v>0.60805</v>
       </c>
       <c r="D64" t="n">
-        <v>0.765655</v>
+        <v>0.766747</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.504785</v>
+        <v>0.505513</v>
       </c>
       <c r="C65" t="n">
-        <v>0.594054</v>
+        <v>0.595347</v>
       </c>
       <c r="D65" t="n">
-        <v>0.752349</v>
+        <v>0.752536</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.50373</v>
+        <v>0.504</v>
       </c>
       <c r="C66" t="n">
-        <v>0.585807</v>
+        <v>0.585873</v>
       </c>
       <c r="D66" t="n">
-        <v>0.742429</v>
+        <v>0.742167</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.714494</v>
+        <v>0.71572</v>
       </c>
       <c r="C67" t="n">
-        <v>0.886503</v>
+        <v>0.889641</v>
       </c>
       <c r="D67" t="n">
-        <v>1.09055</v>
+        <v>1.09407</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6980229999999999</v>
+        <v>0.698339</v>
       </c>
       <c r="C68" t="n">
-        <v>0.863137</v>
+        <v>0.865208</v>
       </c>
       <c r="D68" t="n">
-        <v>1.06456</v>
+        <v>1.06346</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.684878</v>
+        <v>0.6839229999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.838406</v>
+        <v>0.838899</v>
       </c>
       <c r="D69" t="n">
-        <v>1.03211</v>
+        <v>1.03173</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.669789</v>
+        <v>0.667635</v>
       </c>
       <c r="C70" t="n">
-        <v>0.815935</v>
+        <v>0.813851</v>
       </c>
       <c r="D70" t="n">
-        <v>1.00161</v>
+        <v>1.00225</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.6548659999999999</v>
+        <v>0.6512559999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>0.792929</v>
+        <v>0.789485</v>
       </c>
       <c r="D71" t="n">
-        <v>0.974438</v>
+        <v>0.972869</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.638802</v>
+        <v>0.636354</v>
       </c>
       <c r="C72" t="n">
-        <v>0.768311</v>
+        <v>0.767188</v>
       </c>
       <c r="D72" t="n">
-        <v>0.946092</v>
+        <v>0.946428</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.624366</v>
+        <v>0.625188</v>
       </c>
       <c r="C73" t="n">
-        <v>0.746564</v>
+        <v>0.74738</v>
       </c>
       <c r="D73" t="n">
-        <v>0.924243</v>
+        <v>0.919938</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.614988</v>
+        <v>0.611078</v>
       </c>
       <c r="C74" t="n">
-        <v>0.728401</v>
+        <v>0.72628</v>
       </c>
       <c r="D74" t="n">
-        <v>0.896261</v>
+        <v>0.895572</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.597652</v>
+        <v>0.59837</v>
       </c>
       <c r="C75" t="n">
-        <v>0.705053</v>
+        <v>0.706772</v>
       </c>
       <c r="D75" t="n">
-        <v>0.879732</v>
+        <v>0.871294</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.598586</v>
+        <v>0.58595</v>
       </c>
       <c r="C76" t="n">
-        <v>0.696477</v>
+        <v>0.688621</v>
       </c>
       <c r="D76" t="n">
-        <v>0.858621</v>
+        <v>0.853538</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.587646</v>
+        <v>0.580125</v>
       </c>
       <c r="C77" t="n">
-        <v>0.679413</v>
+        <v>0.6738499999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.837465</v>
+        <v>0.831484</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.579464</v>
+        <v>0.568519</v>
       </c>
       <c r="C78" t="n">
-        <v>0.664724</v>
+        <v>0.6569199999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>0.8203549999999999</v>
+        <v>0.813344</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.573469</v>
+        <v>0.562022</v>
       </c>
       <c r="C79" t="n">
-        <v>0.650618</v>
+        <v>0.642578</v>
       </c>
       <c r="D79" t="n">
-        <v>0.805711</v>
+        <v>0.7985449999999999</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.568791</v>
+        <v>0.561781</v>
       </c>
       <c r="C80" t="n">
-        <v>0.639951</v>
+        <v>0.635342</v>
       </c>
       <c r="D80" t="n">
-        <v>0.79278</v>
+        <v>0.788803</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.805303</v>
+        <v>0.79012</v>
       </c>
       <c r="C81" t="n">
-        <v>0.98221</v>
+        <v>0.974678</v>
       </c>
       <c r="D81" t="n">
-        <v>1.17702</v>
+        <v>1.16977</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.799157</v>
+        <v>0.782096</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9678</v>
+        <v>0.959898</v>
       </c>
       <c r="D82" t="n">
-        <v>1.15905</v>
+        <v>1.15261</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.789786</v>
+        <v>0.772196</v>
       </c>
       <c r="C83" t="n">
-        <v>0.948318</v>
+        <v>0.93977</v>
       </c>
       <c r="D83" t="n">
-        <v>1.13725</v>
+        <v>1.12938</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.779379</v>
+        <v>0.761773</v>
       </c>
       <c r="C84" t="n">
-        <v>0.928967</v>
+        <v>0.919216</v>
       </c>
       <c r="D84" t="n">
-        <v>1.11429</v>
+        <v>1.10508</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.768478</v>
+        <v>0.7509670000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>0.907617</v>
+        <v>0.897892</v>
       </c>
       <c r="D85" t="n">
-        <v>1.08878</v>
+        <v>1.0804</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.75726</v>
+        <v>0.742132</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8867429999999999</v>
+        <v>0.87845</v>
       </c>
       <c r="D86" t="n">
-        <v>1.06322</v>
+        <v>1.05604</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.745594</v>
+        <v>0.732429</v>
       </c>
       <c r="C87" t="n">
-        <v>0.866167</v>
+        <v>0.858055</v>
       </c>
       <c r="D87" t="n">
-        <v>1.03855</v>
+        <v>1.03115</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.7344309999999999</v>
+        <v>0.7207519999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8463039999999999</v>
+        <v>0.83724</v>
       </c>
       <c r="D88" t="n">
-        <v>1.01361</v>
+        <v>1.006</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.723256</v>
+        <v>0.708715</v>
       </c>
       <c r="C89" t="n">
-        <v>0.826875</v>
+        <v>0.817739</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9899790000000001</v>
+        <v>0.982356</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.7126169999999999</v>
+        <v>0.700498</v>
       </c>
       <c r="C90" t="n">
-        <v>0.808128</v>
+        <v>0.800755</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9678</v>
+        <v>0.961149</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.703287</v>
+        <v>0.690067</v>
       </c>
       <c r="C91" t="n">
-        <v>0.791073</v>
+        <v>0.783064</v>
       </c>
       <c r="D91" t="n">
-        <v>0.947214</v>
+        <v>0.939766</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.694657</v>
+        <v>0.682677</v>
       </c>
       <c r="C92" t="n">
-        <v>0.774908</v>
+        <v>0.7679859999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>0.929209</v>
+        <v>0.918261</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.688895</v>
+        <v>0.676628</v>
       </c>
       <c r="C93" t="n">
-        <v>0.761316</v>
+        <v>0.753534</v>
       </c>
       <c r="D93" t="n">
-        <v>0.912727</v>
+        <v>0.904408</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.684159</v>
+        <v>0.6730159999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>0.7494499999999999</v>
+        <v>0.742252</v>
       </c>
       <c r="D94" t="n">
-        <v>0.899079</v>
+        <v>0.892012</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.923126</v>
+        <v>0.906246</v>
       </c>
       <c r="C95" t="n">
-        <v>1.09387</v>
+        <v>1.08328</v>
       </c>
       <c r="D95" t="n">
-        <v>1.28592</v>
+        <v>1.27281</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.920011</v>
+        <v>0.9047770000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>1.08862</v>
+        <v>1.07547</v>
       </c>
       <c r="D96" t="n">
-        <v>1.2805</v>
+        <v>1.26637</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.909931</v>
+        <v>0.894895</v>
       </c>
       <c r="C97" t="n">
-        <v>1.07112</v>
+        <v>1.06116</v>
       </c>
       <c r="D97" t="n">
-        <v>1.26493</v>
+        <v>1.25158</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.898343</v>
+        <v>0.884304</v>
       </c>
       <c r="C98" t="n">
-        <v>1.0524</v>
+        <v>1.04303</v>
       </c>
       <c r="D98" t="n">
-        <v>1.24708</v>
+        <v>1.23597</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.887106</v>
+        <v>0.873588</v>
       </c>
       <c r="C99" t="n">
-        <v>1.03346</v>
+        <v>1.02187</v>
       </c>
       <c r="D99" t="n">
-        <v>1.22818</v>
+        <v>1.21752</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.876437</v>
+        <v>0.863841</v>
       </c>
       <c r="C100" t="n">
-        <v>1.01664</v>
+        <v>1.00798</v>
       </c>
       <c r="D100" t="n">
-        <v>1.20984</v>
+        <v>1.20041</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.865682</v>
+        <v>0.85401</v>
       </c>
       <c r="C101" t="n">
-        <v>0.999583</v>
+        <v>0.988392</v>
       </c>
       <c r="D101" t="n">
-        <v>1.19131</v>
+        <v>1.18043</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.855808</v>
+        <v>0.845622</v>
       </c>
       <c r="C102" t="n">
-        <v>0.982897</v>
+        <v>0.97593</v>
       </c>
       <c r="D102" t="n">
-        <v>1.17456</v>
+        <v>1.16658</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.846669</v>
+        <v>0.837192</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9682500000000001</v>
+        <v>0.960696</v>
       </c>
       <c r="D103" t="n">
-        <v>1.15846</v>
+        <v>1.15056</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.838571</v>
+        <v>0.829469</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9542929999999999</v>
+        <v>0.945501</v>
       </c>
       <c r="D104" t="n">
-        <v>1.14299</v>
+        <v>1.13568</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.83081</v>
+        <v>0.8234399999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>0.941086</v>
+        <v>0.935426</v>
       </c>
       <c r="D105" t="n">
-        <v>1.12835</v>
+        <v>1.12225</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.824197</v>
+        <v>0.817124</v>
       </c>
       <c r="C106" t="n">
-        <v>0.929072</v>
+        <v>0.91805</v>
       </c>
       <c r="D106" t="n">
-        <v>1.1148</v>
+        <v>1.1102</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.819052</v>
+        <v>0.812926</v>
       </c>
       <c r="C107" t="n">
-        <v>0.91833</v>
+        <v>0.911956</v>
       </c>
       <c r="D107" t="n">
-        <v>1.10382</v>
+        <v>1.09849</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.817415</v>
+        <v>0.812245</v>
       </c>
       <c r="C108" t="n">
-        <v>0.90961</v>
+        <v>0.904408</v>
       </c>
       <c r="D108" t="n">
-        <v>1.09294</v>
+        <v>1.08398</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.817385</v>
+        <v>0.813219</v>
       </c>
       <c r="C109" t="n">
-        <v>0.903568</v>
+        <v>0.9007309999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>1.08473</v>
+        <v>1.08015</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.04781</v>
+        <v>1.04006</v>
       </c>
       <c r="C110" t="n">
-        <v>1.24941</v>
+        <v>1.2425</v>
       </c>
       <c r="D110" t="n">
-        <v>1.47058</v>
+        <v>1.46191</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.03502</v>
+        <v>1.02679</v>
       </c>
       <c r="C111" t="n">
-        <v>1.23129</v>
+        <v>1.22499</v>
       </c>
       <c r="D111" t="n">
-        <v>1.45625</v>
+        <v>1.44799</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.02142</v>
+        <v>1.01621</v>
       </c>
       <c r="C112" t="n">
-        <v>1.21312</v>
+        <v>1.20866</v>
       </c>
       <c r="D112" t="n">
-        <v>1.44091</v>
+        <v>1.43527</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.00961</v>
+        <v>1.00386</v>
       </c>
       <c r="C113" t="n">
-        <v>1.19625</v>
+        <v>1.19154</v>
       </c>
       <c r="D113" t="n">
-        <v>1.42853</v>
+        <v>1.41859</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.998163</v>
+        <v>0.993971</v>
       </c>
       <c r="C114" t="n">
-        <v>1.17957</v>
+        <v>1.17582</v>
       </c>
       <c r="D114" t="n">
-        <v>1.41501</v>
+        <v>1.40815</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.98655</v>
+        <v>0.984043</v>
       </c>
       <c r="C115" t="n">
-        <v>1.16377</v>
+        <v>1.16076</v>
       </c>
       <c r="D115" t="n">
-        <v>1.40366</v>
+        <v>1.39728</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.976938</v>
+        <v>0.974425</v>
       </c>
       <c r="C116" t="n">
-        <v>1.1489</v>
+        <v>1.14667</v>
       </c>
       <c r="D116" t="n">
-        <v>1.39023</v>
+        <v>1.38864</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.967557</v>
+        <v>0.9650879999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>1.13556</v>
+        <v>1.13182</v>
       </c>
       <c r="D117" t="n">
-        <v>1.37931</v>
+        <v>1.37429</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.958974</v>
+        <v>0.956624</v>
       </c>
       <c r="C118" t="n">
-        <v>1.12278</v>
+        <v>1.1195</v>
       </c>
       <c r="D118" t="n">
-        <v>1.36793</v>
+        <v>1.36429</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.951298</v>
+        <v>0.948309</v>
       </c>
       <c r="C119" t="n">
-        <v>1.1114</v>
+        <v>1.10707</v>
       </c>
       <c r="D119" t="n">
-        <v>1.35903</v>
+        <v>1.35448</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.944472</v>
+        <v>0.943491</v>
       </c>
       <c r="C120" t="n">
-        <v>1.10024</v>
+        <v>1.09825</v>
       </c>
       <c r="D120" t="n">
-        <v>1.34926</v>
+        <v>1.34427</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.939624</v>
+        <v>0.939792</v>
       </c>
       <c r="C121" t="n">
-        <v>1.09094</v>
+        <v>1.08726</v>
       </c>
       <c r="D121" t="n">
-        <v>1.34053</v>
+        <v>1.33785</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.937402</v>
+        <v>0.937683</v>
       </c>
       <c r="C122" t="n">
-        <v>1.08327</v>
+        <v>1.08332</v>
       </c>
       <c r="D122" t="n">
-        <v>1.33244</v>
+        <v>1.33126</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.9373280000000001</v>
+        <v>0.937124</v>
       </c>
       <c r="C123" t="n">
-        <v>1.07748</v>
+        <v>1.07395</v>
       </c>
       <c r="D123" t="n">
-        <v>1.32543</v>
+        <v>1.32077</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.16822</v>
+        <v>1.1627</v>
       </c>
       <c r="C124" t="n">
-        <v>1.42278</v>
+        <v>1.4184</v>
       </c>
       <c r="D124" t="n">
-        <v>1.71054</v>
+        <v>1.70398</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.15676</v>
+        <v>1.15279</v>
       </c>
       <c r="C125" t="n">
-        <v>1.40719</v>
+        <v>1.40174</v>
       </c>
       <c r="D125" t="n">
-        <v>1.69197</v>
+        <v>1.6872</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.14533</v>
+        <v>1.14169</v>
       </c>
       <c r="C126" t="n">
-        <v>1.39059</v>
+        <v>1.38705</v>
       </c>
       <c r="D126" t="n">
-        <v>1.67666</v>
+        <v>1.66853</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.13454</v>
+        <v>1.13136</v>
       </c>
       <c r="C127" t="n">
-        <v>1.37617</v>
+        <v>1.37203</v>
       </c>
       <c r="D127" t="n">
-        <v>1.65951</v>
+        <v>1.65175</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.1249</v>
+        <v>1.12226</v>
       </c>
       <c r="C128" t="n">
-        <v>1.36179</v>
+        <v>1.35851</v>
       </c>
       <c r="D128" t="n">
-        <v>1.64969</v>
+        <v>1.64129</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.11564</v>
+        <v>1.11339</v>
       </c>
       <c r="C129" t="n">
-        <v>1.34871</v>
+        <v>1.3433</v>
       </c>
       <c r="D129" t="n">
-        <v>1.63146</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.10667</v>
+        <v>1.10496</v>
       </c>
       <c r="C130" t="n">
-        <v>1.33667</v>
+        <v>1.33198</v>
       </c>
       <c r="D130" t="n">
-        <v>1.61866</v>
+        <v>1.61529</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.09835</v>
+        <v>1.09829</v>
       </c>
       <c r="C131" t="n">
-        <v>1.32421</v>
+        <v>1.32282</v>
       </c>
       <c r="D131" t="n">
-        <v>1.60376</v>
+        <v>1.59726</v>
       </c>
     </row>
     <row r="132">
@@ -5068,10 +5068,10 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.09181</v>
+        <v>1.09244</v>
       </c>
       <c r="C132" t="n">
-        <v>1.31384</v>
+        <v>1.31373</v>
       </c>
       <c r="D132" t="n">
         <v>1.59096</v>
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.08629</v>
+        <v>1.087</v>
       </c>
       <c r="C133" t="n">
-        <v>1.30478</v>
+        <v>1.30312</v>
       </c>
       <c r="D133" t="n">
-        <v>1.5846</v>
+        <v>1.58637</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.08207</v>
+        <v>1.08324</v>
       </c>
       <c r="C134" t="n">
-        <v>1.29704</v>
+        <v>1.29689</v>
       </c>
       <c r="D134" t="n">
-        <v>1.57406</v>
+        <v>1.5691</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.07995</v>
+        <v>1.08137</v>
       </c>
       <c r="C135" t="n">
-        <v>1.28883</v>
+        <v>1.28941</v>
       </c>
       <c r="D135" t="n">
-        <v>1.56821</v>
+        <v>1.56522</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.07855</v>
+        <v>1.081</v>
       </c>
       <c r="C136" t="n">
-        <v>1.28339</v>
+        <v>1.28499</v>
       </c>
       <c r="D136" t="n">
-        <v>1.56034</v>
+        <v>1.55791</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.07912</v>
+        <v>1.08275</v>
       </c>
       <c r="C137" t="n">
-        <v>1.27932</v>
+        <v>1.27941</v>
       </c>
       <c r="D137" t="n">
-        <v>1.55177</v>
+        <v>1.55271</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.30908</v>
+        <v>1.30775</v>
       </c>
       <c r="C138" t="n">
-        <v>1.6204</v>
+        <v>1.61955</v>
       </c>
       <c r="D138" t="n">
-        <v>1.93207</v>
+        <v>1.93461</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.29917</v>
+        <v>1.29964</v>
       </c>
       <c r="C139" t="n">
-        <v>1.60671</v>
+        <v>1.60684</v>
       </c>
       <c r="D139" t="n">
-        <v>1.91195</v>
+        <v>1.90755</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.29112</v>
+        <v>1.29105</v>
       </c>
       <c r="C140" t="n">
-        <v>1.59301</v>
+        <v>1.59297</v>
       </c>
       <c r="D140" t="n">
-        <v>1.88797</v>
+        <v>1.89312</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.28211</v>
+        <v>1.28372</v>
       </c>
       <c r="C141" t="n">
-        <v>1.57941</v>
+        <v>1.58116</v>
       </c>
       <c r="D141" t="n">
-        <v>1.87051</v>
+        <v>1.87109</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.27495</v>
+        <v>1.27717</v>
       </c>
       <c r="C142" t="n">
-        <v>1.56771</v>
+        <v>1.56904</v>
       </c>
       <c r="D142" t="n">
-        <v>1.85484</v>
+        <v>1.85192</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.26785</v>
+        <v>1.27071</v>
       </c>
       <c r="C143" t="n">
-        <v>1.55642</v>
+        <v>1.55655</v>
       </c>
       <c r="D143" t="n">
-        <v>1.83857</v>
+        <v>1.83669</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.482257</v>
+        <v>0.482328</v>
       </c>
       <c r="C2" t="n">
-        <v>0.592428</v>
+        <v>0.592807</v>
       </c>
       <c r="D2" t="n">
-        <v>0.758816</v>
+        <v>0.717561</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.46989</v>
+        <v>0.46997</v>
       </c>
       <c r="C3" t="n">
-        <v>0.573944</v>
+        <v>0.574389</v>
       </c>
       <c r="D3" t="n">
-        <v>0.73763</v>
+        <v>0.697553</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.459568</v>
+        <v>0.45894</v>
       </c>
       <c r="C4" t="n">
-        <v>0.557814</v>
+        <v>0.557871</v>
       </c>
       <c r="D4" t="n">
-        <v>0.717516</v>
+        <v>0.679382</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.449627</v>
+        <v>0.449898</v>
       </c>
       <c r="C5" t="n">
-        <v>0.542683</v>
+        <v>0.543451</v>
       </c>
       <c r="D5" t="n">
-        <v>0.699794</v>
+        <v>0.662748</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.441862</v>
+        <v>0.441376</v>
       </c>
       <c r="C6" t="n">
-        <v>0.529362</v>
+        <v>0.529604</v>
       </c>
       <c r="D6" t="n">
-        <v>0.683862</v>
+        <v>0.647976</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.436012</v>
+        <v>0.435651</v>
       </c>
       <c r="C7" t="n">
-        <v>0.51698</v>
+        <v>0.517177</v>
       </c>
       <c r="D7" t="n">
-        <v>0.670297</v>
+        <v>0.634226</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.432637</v>
+        <v>0.432931</v>
       </c>
       <c r="C8" t="n">
-        <v>0.507055</v>
+        <v>0.507482</v>
       </c>
       <c r="D8" t="n">
-        <v>0.659673</v>
+        <v>0.6238590000000001</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.432465</v>
+        <v>0.432059</v>
       </c>
       <c r="C9" t="n">
-        <v>0.499815</v>
+        <v>0.499342</v>
       </c>
       <c r="D9" t="n">
-        <v>0.653217</v>
+        <v>0.9292820000000001</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.620511</v>
+        <v>0.568608</v>
       </c>
       <c r="C10" t="n">
-        <v>0.769963</v>
+        <v>0.7284</v>
       </c>
       <c r="D10" t="n">
-        <v>0.974002</v>
+        <v>0.898972</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.599894</v>
+        <v>0.551601</v>
       </c>
       <c r="C11" t="n">
-        <v>0.743692</v>
+        <v>0.704602</v>
       </c>
       <c r="D11" t="n">
-        <v>0.942365</v>
+        <v>0.870288</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.580825</v>
+        <v>0.533995</v>
       </c>
       <c r="C12" t="n">
-        <v>0.718674</v>
+        <v>0.681598</v>
       </c>
       <c r="D12" t="n">
-        <v>0.911817</v>
+        <v>0.843054</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.563026</v>
+        <v>0.518757</v>
       </c>
       <c r="C13" t="n">
-        <v>0.695535</v>
+        <v>0.659606</v>
       </c>
       <c r="D13" t="n">
-        <v>0.883525</v>
+        <v>0.817084</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.547582</v>
+        <v>0.504331</v>
       </c>
       <c r="C14" t="n">
-        <v>0.673245</v>
+        <v>0.638982</v>
       </c>
       <c r="D14" t="n">
-        <v>0.856015</v>
+        <v>0.79236</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.53196</v>
+        <v>0.490076</v>
       </c>
       <c r="C15" t="n">
-        <v>0.652109</v>
+        <v>0.619514</v>
       </c>
       <c r="D15" t="n">
-        <v>0.82991</v>
+        <v>0.769834</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.517578</v>
+        <v>0.477747</v>
       </c>
       <c r="C16" t="n">
-        <v>0.631975</v>
+        <v>0.601063</v>
       </c>
       <c r="D16" t="n">
-        <v>0.805602</v>
+        <v>0.747421</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5037239999999999</v>
+        <v>0.46687</v>
       </c>
       <c r="C17" t="n">
-        <v>0.612969</v>
+        <v>0.583603</v>
       </c>
       <c r="D17" t="n">
-        <v>0.782186</v>
+        <v>0.726868</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.49154</v>
+        <v>0.45557</v>
       </c>
       <c r="C18" t="n">
-        <v>0.595564</v>
+        <v>0.567215</v>
       </c>
       <c r="D18" t="n">
-        <v>0.760479</v>
+        <v>0.707989</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.480359</v>
+        <v>0.446106</v>
       </c>
       <c r="C19" t="n">
-        <v>0.578909</v>
+        <v>0.552126</v>
       </c>
       <c r="D19" t="n">
-        <v>0.740073</v>
+        <v>0.690436</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.471129</v>
+        <v>0.438544</v>
       </c>
       <c r="C20" t="n">
-        <v>0.563435</v>
+        <v>0.53776</v>
       </c>
       <c r="D20" t="n">
-        <v>0.722043</v>
+        <v>0.674085</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.463951</v>
+        <v>0.433337</v>
       </c>
       <c r="C21" t="n">
-        <v>0.549304</v>
+        <v>0.525</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7060419999999999</v>
+        <v>0.660281</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.460375</v>
+        <v>0.430201</v>
       </c>
       <c r="C22" t="n">
-        <v>0.537681</v>
+        <v>0.514384</v>
       </c>
       <c r="D22" t="n">
-        <v>0.69314</v>
+        <v>0.649689</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.458732</v>
+        <v>0.429601</v>
       </c>
       <c r="C23" t="n">
-        <v>0.527763</v>
+        <v>0.505382</v>
       </c>
       <c r="D23" t="n">
-        <v>0.683549</v>
+        <v>0.968044</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.643885</v>
+        <v>0.617988</v>
       </c>
       <c r="C24" t="n">
-        <v>0.803034</v>
+        <v>0.782657</v>
       </c>
       <c r="D24" t="n">
-        <v>1.01062</v>
+        <v>0.938191</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.623822</v>
+        <v>0.5994930000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.776774</v>
+        <v>0.756625</v>
       </c>
       <c r="D25" t="n">
-        <v>0.978384</v>
+        <v>0.907724</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.605234</v>
+        <v>0.581284</v>
       </c>
       <c r="C26" t="n">
-        <v>0.75091</v>
+        <v>0.732243</v>
       </c>
       <c r="D26" t="n">
-        <v>0.946909</v>
+        <v>0.879316</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5867019999999999</v>
+        <v>0.564095</v>
       </c>
       <c r="C27" t="n">
-        <v>0.726417</v>
+        <v>0.708449</v>
       </c>
       <c r="D27" t="n">
-        <v>0.916536</v>
+        <v>0.851151</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.569045</v>
+        <v>0.547485</v>
       </c>
       <c r="C28" t="n">
-        <v>0.702767</v>
+        <v>0.685903</v>
       </c>
       <c r="D28" t="n">
-        <v>0.888185</v>
+        <v>0.826928</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.55269</v>
+        <v>0.532792</v>
       </c>
       <c r="C29" t="n">
-        <v>0.680967</v>
+        <v>0.665032</v>
       </c>
       <c r="D29" t="n">
-        <v>0.861183</v>
+        <v>0.8025369999999999</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.537635</v>
+        <v>0.51807</v>
       </c>
       <c r="C30" t="n">
-        <v>0.660156</v>
+        <v>0.643872</v>
       </c>
       <c r="D30" t="n">
-        <v>0.835622</v>
+        <v>0.778843</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5234220000000001</v>
+        <v>0.504448</v>
       </c>
       <c r="C31" t="n">
-        <v>0.640039</v>
+        <v>0.624811</v>
       </c>
       <c r="D31" t="n">
-        <v>0.811716</v>
+        <v>0.757731</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.510271</v>
+        <v>0.49236</v>
       </c>
       <c r="C32" t="n">
-        <v>0.621592</v>
+        <v>0.607445</v>
       </c>
       <c r="D32" t="n">
-        <v>0.789276</v>
+        <v>0.736668</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.498225</v>
+        <v>0.48128</v>
       </c>
       <c r="C33" t="n">
-        <v>0.603938</v>
+        <v>0.590328</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7680670000000001</v>
+        <v>0.719033</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.487519</v>
+        <v>0.471625</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5875860000000001</v>
+        <v>0.574573</v>
       </c>
       <c r="D34" t="n">
-        <v>0.748947</v>
+        <v>0.702299</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.479269</v>
+        <v>0.464115</v>
       </c>
       <c r="C35" t="n">
-        <v>0.572584</v>
+        <v>0.560555</v>
       </c>
       <c r="D35" t="n">
-        <v>0.731556</v>
+        <v>0.686764</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.472986</v>
+        <v>0.458093</v>
       </c>
       <c r="C36" t="n">
-        <v>0.559589</v>
+        <v>0.547805</v>
       </c>
       <c r="D36" t="n">
-        <v>0.716696</v>
+        <v>0.6746760000000001</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.469668</v>
+        <v>0.455481</v>
       </c>
       <c r="C37" t="n">
-        <v>0.549159</v>
+        <v>0.537469</v>
       </c>
       <c r="D37" t="n">
-        <v>0.705286</v>
+        <v>0.99917</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.661907</v>
+        <v>0.647518</v>
       </c>
       <c r="C38" t="n">
-        <v>0.827977</v>
+        <v>0.816731</v>
       </c>
       <c r="D38" t="n">
-        <v>1.03779</v>
+        <v>0.9677519999999999</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.642892</v>
+        <v>0.63046</v>
       </c>
       <c r="C39" t="n">
-        <v>0.801365</v>
+        <v>0.7914639999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>1.00549</v>
+        <v>0.93607</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.622954</v>
+        <v>0.610486</v>
       </c>
       <c r="C40" t="n">
-        <v>0.774804</v>
+        <v>0.765415</v>
       </c>
       <c r="D40" t="n">
-        <v>0.97303</v>
+        <v>0.908176</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.604139</v>
+        <v>0.593207</v>
       </c>
       <c r="C41" t="n">
-        <v>0.749718</v>
+        <v>0.7419829999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9429070000000001</v>
+        <v>0.881088</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.586095</v>
+        <v>0.576138</v>
       </c>
       <c r="C42" t="n">
-        <v>0.725791</v>
+        <v>0.717638</v>
       </c>
       <c r="D42" t="n">
-        <v>0.913371</v>
+        <v>0.855304</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.569642</v>
+        <v>0.5591120000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>0.703074</v>
+        <v>0.696256</v>
       </c>
       <c r="D43" t="n">
-        <v>0.885749</v>
+        <v>0.829488</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.554281</v>
+        <v>0.543664</v>
       </c>
       <c r="C44" t="n">
-        <v>0.681694</v>
+        <v>0.674866</v>
       </c>
       <c r="D44" t="n">
-        <v>0.860071</v>
+        <v>0.805519</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.539956</v>
+        <v>0.529236</v>
       </c>
       <c r="C45" t="n">
-        <v>0.661455</v>
+        <v>0.655288</v>
       </c>
       <c r="D45" t="n">
-        <v>0.8349760000000001</v>
+        <v>0.783308</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5263600000000001</v>
+        <v>0.517585</v>
       </c>
       <c r="C46" t="n">
-        <v>0.642439</v>
+        <v>0.6358279999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.8119499999999999</v>
+        <v>0.762405</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.514589</v>
+        <v>0.505441</v>
       </c>
       <c r="C47" t="n">
-        <v>0.624599</v>
+        <v>0.617935</v>
       </c>
       <c r="D47" t="n">
-        <v>0.790507</v>
+        <v>0.74318</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.50409</v>
+        <v>0.493346</v>
       </c>
       <c r="C48" t="n">
-        <v>0.6080410000000001</v>
+        <v>0.600155</v>
       </c>
       <c r="D48" t="n">
-        <v>0.7702329999999999</v>
+        <v>0.7253270000000001</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.494707</v>
+        <v>0.486973</v>
       </c>
       <c r="C49" t="n">
-        <v>0.593442</v>
+        <v>0.585259</v>
       </c>
       <c r="D49" t="n">
-        <v>0.752846</v>
+        <v>0.709195</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.488521</v>
+        <v>0.479558</v>
       </c>
       <c r="C50" t="n">
-        <v>0.579869</v>
+        <v>0.573022</v>
       </c>
       <c r="D50" t="n">
-        <v>0.737338</v>
+        <v>0.696036</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.48377</v>
+        <v>0.473669</v>
       </c>
       <c r="C51" t="n">
-        <v>0.568241</v>
+        <v>0.561122</v>
       </c>
       <c r="D51" t="n">
-        <v>0.725133</v>
+        <v>1.02788</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.482991</v>
+        <v>0.475525</v>
       </c>
       <c r="C52" t="n">
-        <v>0.560115</v>
+        <v>0.551859</v>
       </c>
       <c r="D52" t="n">
-        <v>0.716521</v>
+        <v>0.996521</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.66271</v>
+        <v>0.65685</v>
       </c>
       <c r="C53" t="n">
-        <v>0.832483</v>
+        <v>0.822712</v>
       </c>
       <c r="D53" t="n">
-        <v>1.03894</v>
+        <v>0.966268</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.642668</v>
+        <v>0.637996</v>
       </c>
       <c r="C54" t="n">
-        <v>0.805601</v>
+        <v>0.796543</v>
       </c>
       <c r="D54" t="n">
-        <v>1.00586</v>
+        <v>0.93623</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.625136</v>
+        <v>0.61956</v>
       </c>
       <c r="C55" t="n">
-        <v>0.779962</v>
+        <v>0.769601</v>
       </c>
       <c r="D55" t="n">
-        <v>0.975066</v>
+        <v>0.907848</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.607986</v>
+        <v>0.6029139999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>0.756351</v>
+        <v>0.747121</v>
       </c>
       <c r="D56" t="n">
-        <v>0.945748</v>
+        <v>0.881944</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.592022</v>
+        <v>0.585531</v>
       </c>
       <c r="C57" t="n">
-        <v>0.733887</v>
+        <v>0.723792</v>
       </c>
       <c r="D57" t="n">
-        <v>0.918543</v>
+        <v>0.857055</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.576792</v>
+        <v>0.57079</v>
       </c>
       <c r="C58" t="n">
-        <v>0.7122000000000001</v>
+        <v>0.702781</v>
       </c>
       <c r="D58" t="n">
-        <v>0.891575</v>
+        <v>0.832862</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.56137</v>
+        <v>0.556492</v>
       </c>
       <c r="C59" t="n">
-        <v>0.691387</v>
+        <v>0.681656</v>
       </c>
       <c r="D59" t="n">
-        <v>0.865998</v>
+        <v>0.809717</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.548349</v>
+        <v>0.543683</v>
       </c>
       <c r="C60" t="n">
-        <v>0.67235</v>
+        <v>0.662459</v>
       </c>
       <c r="D60" t="n">
-        <v>0.843341</v>
+        <v>0.789185</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.536509</v>
+        <v>0.532513</v>
       </c>
       <c r="C61" t="n">
-        <v>0.654495</v>
+        <v>0.645089</v>
       </c>
       <c r="D61" t="n">
-        <v>0.821442</v>
+        <v>0.769186</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5262790000000001</v>
+        <v>0.521714</v>
       </c>
       <c r="C62" t="n">
-        <v>0.637416</v>
+        <v>0.627592</v>
       </c>
       <c r="D62" t="n">
-        <v>0.801044</v>
+        <v>0.75097</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.516652</v>
+        <v>0.512448</v>
       </c>
       <c r="C63" t="n">
-        <v>0.62163</v>
+        <v>0.612815</v>
       </c>
       <c r="D63" t="n">
-        <v>0.782718</v>
+        <v>0.735532</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.510207</v>
+        <v>0.506194</v>
       </c>
       <c r="C64" t="n">
-        <v>0.60805</v>
+        <v>0.600603</v>
       </c>
       <c r="D64" t="n">
-        <v>0.766747</v>
+        <v>0.720342</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.505513</v>
+        <v>0.502046</v>
       </c>
       <c r="C65" t="n">
-        <v>0.595347</v>
+        <v>0.587883</v>
       </c>
       <c r="D65" t="n">
-        <v>0.752536</v>
+        <v>0.708514</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.504</v>
+        <v>0.500297</v>
       </c>
       <c r="C66" t="n">
-        <v>0.585873</v>
+        <v>0.577023</v>
       </c>
       <c r="D66" t="n">
-        <v>0.742167</v>
+        <v>1.05029</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.71572</v>
+        <v>0.715799</v>
       </c>
       <c r="C67" t="n">
-        <v>0.889641</v>
+        <v>0.88575</v>
       </c>
       <c r="D67" t="n">
-        <v>1.09407</v>
+        <v>1.01827</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.698339</v>
+        <v>0.700032</v>
       </c>
       <c r="C68" t="n">
-        <v>0.865208</v>
+        <v>0.85921</v>
       </c>
       <c r="D68" t="n">
-        <v>1.06346</v>
+        <v>0.989619</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6839229999999999</v>
+        <v>0.682462</v>
       </c>
       <c r="C69" t="n">
-        <v>0.838899</v>
+        <v>0.832636</v>
       </c>
       <c r="D69" t="n">
-        <v>1.03173</v>
+        <v>0.958666</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.667635</v>
+        <v>0.669171</v>
       </c>
       <c r="C70" t="n">
-        <v>0.813851</v>
+        <v>0.811065</v>
       </c>
       <c r="D70" t="n">
-        <v>1.00225</v>
+        <v>0.935864</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.6512559999999999</v>
+        <v>0.654717</v>
       </c>
       <c r="C71" t="n">
-        <v>0.789485</v>
+        <v>0.7884910000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.972869</v>
+        <v>0.910901</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.636354</v>
+        <v>0.642348</v>
       </c>
       <c r="C72" t="n">
-        <v>0.767188</v>
+        <v>0.767832</v>
       </c>
       <c r="D72" t="n">
-        <v>0.946428</v>
+        <v>0.888143</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.625188</v>
+        <v>0.6283879999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>0.74738</v>
+        <v>0.746142</v>
       </c>
       <c r="D73" t="n">
-        <v>0.919938</v>
+        <v>0.86366</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.611078</v>
+        <v>0.614649</v>
       </c>
       <c r="C74" t="n">
-        <v>0.72628</v>
+        <v>0.725177</v>
       </c>
       <c r="D74" t="n">
-        <v>0.895572</v>
+        <v>0.840913</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.59837</v>
+        <v>0.602403</v>
       </c>
       <c r="C75" t="n">
-        <v>0.706772</v>
+        <v>0.70629</v>
       </c>
       <c r="D75" t="n">
-        <v>0.871294</v>
+        <v>0.819833</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.58595</v>
+        <v>0.589855</v>
       </c>
       <c r="C76" t="n">
-        <v>0.688621</v>
+        <v>0.687453</v>
       </c>
       <c r="D76" t="n">
-        <v>0.853538</v>
+        <v>0.799998</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.580125</v>
+        <v>0.579211</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6738499999999999</v>
+        <v>0.671171</v>
       </c>
       <c r="D77" t="n">
-        <v>0.831484</v>
+        <v>0.7827809999999999</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.568519</v>
+        <v>0.571329</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6569199999999999</v>
+        <v>0.6562210000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.813344</v>
+        <v>0.767516</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.562022</v>
+        <v>0.567096</v>
       </c>
       <c r="C79" t="n">
-        <v>0.642578</v>
+        <v>0.643058</v>
       </c>
       <c r="D79" t="n">
-        <v>0.7985449999999999</v>
+        <v>0.754196</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.561781</v>
+        <v>0.562862</v>
       </c>
       <c r="C80" t="n">
-        <v>0.635342</v>
+        <v>0.632423</v>
       </c>
       <c r="D80" t="n">
-        <v>0.788803</v>
+        <v>1.13083</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.79012</v>
+        <v>0.792088</v>
       </c>
       <c r="C81" t="n">
-        <v>0.974678</v>
+        <v>0.970604</v>
       </c>
       <c r="D81" t="n">
-        <v>1.16977</v>
+        <v>1.11039</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.782096</v>
+        <v>0.784624</v>
       </c>
       <c r="C82" t="n">
-        <v>0.959898</v>
+        <v>0.954651</v>
       </c>
       <c r="D82" t="n">
-        <v>1.15261</v>
+        <v>1.08708</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.772196</v>
+        <v>0.77315</v>
       </c>
       <c r="C83" t="n">
-        <v>0.93977</v>
+        <v>0.934965</v>
       </c>
       <c r="D83" t="n">
-        <v>1.12938</v>
+        <v>1.06526</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.761773</v>
+        <v>0.764357</v>
       </c>
       <c r="C84" t="n">
-        <v>0.919216</v>
+        <v>0.915286</v>
       </c>
       <c r="D84" t="n">
-        <v>1.10508</v>
+        <v>1.03846</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.7509670000000001</v>
+        <v>0.753948</v>
       </c>
       <c r="C85" t="n">
-        <v>0.897892</v>
+        <v>0.895141</v>
       </c>
       <c r="D85" t="n">
-        <v>1.0804</v>
+        <v>1.01382</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.742132</v>
+        <v>0.742578</v>
       </c>
       <c r="C86" t="n">
-        <v>0.87845</v>
+        <v>0.87509</v>
       </c>
       <c r="D86" t="n">
-        <v>1.05604</v>
+        <v>0.989049</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.732429</v>
+        <v>0.731853</v>
       </c>
       <c r="C87" t="n">
-        <v>0.858055</v>
+        <v>0.855202</v>
       </c>
       <c r="D87" t="n">
-        <v>1.03115</v>
+        <v>0.964678</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.7207519999999999</v>
+        <v>0.7213540000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>0.83724</v>
+        <v>0.834359</v>
       </c>
       <c r="D88" t="n">
-        <v>1.006</v>
+        <v>0.940997</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.708715</v>
+        <v>0.709971</v>
       </c>
       <c r="C89" t="n">
-        <v>0.817739</v>
+        <v>0.8170539999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>0.982356</v>
+        <v>0.9205179999999999</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.700498</v>
+        <v>0.701361</v>
       </c>
       <c r="C90" t="n">
-        <v>0.800755</v>
+        <v>0.798501</v>
       </c>
       <c r="D90" t="n">
-        <v>0.961149</v>
+        <v>0.898853</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.690067</v>
+        <v>0.691622</v>
       </c>
       <c r="C91" t="n">
-        <v>0.783064</v>
+        <v>0.781185</v>
       </c>
       <c r="D91" t="n">
-        <v>0.939766</v>
+        <v>0.879749</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.682677</v>
+        <v>0.683338</v>
       </c>
       <c r="C92" t="n">
-        <v>0.7679859999999999</v>
+        <v>0.766046</v>
       </c>
       <c r="D92" t="n">
-        <v>0.918261</v>
+        <v>0.861975</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.676628</v>
+        <v>0.67763</v>
       </c>
       <c r="C93" t="n">
-        <v>0.753534</v>
+        <v>0.752285</v>
       </c>
       <c r="D93" t="n">
-        <v>0.904408</v>
+        <v>0.8471340000000001</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.6730159999999999</v>
+        <v>0.672342</v>
       </c>
       <c r="C94" t="n">
-        <v>0.742252</v>
+        <v>0.740513</v>
       </c>
       <c r="D94" t="n">
-        <v>0.892012</v>
+        <v>1.22933</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.906246</v>
+        <v>0.907501</v>
       </c>
       <c r="C95" t="n">
-        <v>1.08328</v>
+        <v>1.08191</v>
       </c>
       <c r="D95" t="n">
-        <v>1.27281</v>
+        <v>1.22199</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.9047770000000001</v>
+        <v>0.906259</v>
       </c>
       <c r="C96" t="n">
-        <v>1.07547</v>
+        <v>1.07593</v>
       </c>
       <c r="D96" t="n">
-        <v>1.26637</v>
+        <v>1.20627</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.894895</v>
+        <v>0.896908</v>
       </c>
       <c r="C97" t="n">
-        <v>1.06116</v>
+        <v>1.06054</v>
       </c>
       <c r="D97" t="n">
-        <v>1.25158</v>
+        <v>1.18926</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.884304</v>
+        <v>0.886535</v>
       </c>
       <c r="C98" t="n">
-        <v>1.04303</v>
+        <v>1.04131</v>
       </c>
       <c r="D98" t="n">
-        <v>1.23597</v>
+        <v>1.1679</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.873588</v>
+        <v>0.875854</v>
       </c>
       <c r="C99" t="n">
-        <v>1.02187</v>
+        <v>1.02344</v>
       </c>
       <c r="D99" t="n">
-        <v>1.21752</v>
+        <v>1.14726</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.863841</v>
+        <v>0.865071</v>
       </c>
       <c r="C100" t="n">
-        <v>1.00798</v>
+        <v>1.00548</v>
       </c>
       <c r="D100" t="n">
-        <v>1.20041</v>
+        <v>1.1272</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.85401</v>
+        <v>0.855585</v>
       </c>
       <c r="C101" t="n">
-        <v>0.988392</v>
+        <v>0.990231</v>
       </c>
       <c r="D101" t="n">
-        <v>1.18043</v>
+        <v>1.10828</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.845622</v>
+        <v>0.84651</v>
       </c>
       <c r="C102" t="n">
-        <v>0.97593</v>
+        <v>0.973153</v>
       </c>
       <c r="D102" t="n">
-        <v>1.16658</v>
+        <v>1.08812</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.837192</v>
+        <v>0.837961</v>
       </c>
       <c r="C103" t="n">
-        <v>0.960696</v>
+        <v>0.959735</v>
       </c>
       <c r="D103" t="n">
-        <v>1.15056</v>
+        <v>1.07279</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.829469</v>
+        <v>0.830222</v>
       </c>
       <c r="C104" t="n">
-        <v>0.945501</v>
+        <v>0.94463</v>
       </c>
       <c r="D104" t="n">
-        <v>1.13568</v>
+        <v>1.05712</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.8234399999999999</v>
+        <v>0.823614</v>
       </c>
       <c r="C105" t="n">
-        <v>0.935426</v>
+        <v>0.9337839999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>1.12225</v>
+        <v>1.04147</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.817124</v>
+        <v>0.817963</v>
       </c>
       <c r="C106" t="n">
-        <v>0.91805</v>
+        <v>0.922432</v>
       </c>
       <c r="D106" t="n">
-        <v>1.1102</v>
+        <v>1.02822</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.812926</v>
+        <v>0.813639</v>
       </c>
       <c r="C107" t="n">
-        <v>0.911956</v>
+        <v>0.912246</v>
       </c>
       <c r="D107" t="n">
-        <v>1.09849</v>
+        <v>1.01519</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.812245</v>
+        <v>0.811395</v>
       </c>
       <c r="C108" t="n">
-        <v>0.904408</v>
+        <v>0.904589</v>
       </c>
       <c r="D108" t="n">
-        <v>1.08398</v>
+        <v>1.39662</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.813219</v>
+        <v>0.8123359999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9007309999999999</v>
+        <v>0.898875</v>
       </c>
       <c r="D109" t="n">
-        <v>1.08015</v>
+        <v>1.38649</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.04006</v>
+        <v>1.03846</v>
       </c>
       <c r="C110" t="n">
-        <v>1.2425</v>
+        <v>1.23721</v>
       </c>
       <c r="D110" t="n">
-        <v>1.46191</v>
+        <v>1.37666</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.02679</v>
+        <v>1.02678</v>
       </c>
       <c r="C111" t="n">
-        <v>1.22499</v>
+        <v>1.22306</v>
       </c>
       <c r="D111" t="n">
-        <v>1.44799</v>
+        <v>1.36319</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.01621</v>
+        <v>1.01471</v>
       </c>
       <c r="C112" t="n">
-        <v>1.20866</v>
+        <v>1.20571</v>
       </c>
       <c r="D112" t="n">
-        <v>1.43527</v>
+        <v>1.35001</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.00386</v>
+        <v>1.00279</v>
       </c>
       <c r="C113" t="n">
-        <v>1.19154</v>
+        <v>1.18901</v>
       </c>
       <c r="D113" t="n">
-        <v>1.41859</v>
+        <v>1.33864</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.993971</v>
+        <v>0.992105</v>
       </c>
       <c r="C114" t="n">
-        <v>1.17582</v>
+        <v>1.17174</v>
       </c>
       <c r="D114" t="n">
-        <v>1.40815</v>
+        <v>1.32726</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.984043</v>
+        <v>0.981927</v>
       </c>
       <c r="C115" t="n">
-        <v>1.16076</v>
+        <v>1.15783</v>
       </c>
       <c r="D115" t="n">
-        <v>1.39728</v>
+        <v>1.31628</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.974425</v>
+        <v>0.971772</v>
       </c>
       <c r="C116" t="n">
-        <v>1.14667</v>
+        <v>1.1438</v>
       </c>
       <c r="D116" t="n">
-        <v>1.38864</v>
+        <v>1.3056</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.9650879999999999</v>
+        <v>0.963344</v>
       </c>
       <c r="C117" t="n">
-        <v>1.13182</v>
+        <v>1.13155</v>
       </c>
       <c r="D117" t="n">
-        <v>1.37429</v>
+        <v>1.29651</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.956624</v>
+        <v>0.955698</v>
       </c>
       <c r="C118" t="n">
-        <v>1.1195</v>
+        <v>1.11896</v>
       </c>
       <c r="D118" t="n">
-        <v>1.36429</v>
+        <v>1.28457</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.948309</v>
+        <v>0.948419</v>
       </c>
       <c r="C119" t="n">
-        <v>1.10707</v>
+        <v>1.10594</v>
       </c>
       <c r="D119" t="n">
-        <v>1.35448</v>
+        <v>1.27705</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.943491</v>
+        <v>0.9430190000000001</v>
       </c>
       <c r="C120" t="n">
-        <v>1.09825</v>
+        <v>1.09562</v>
       </c>
       <c r="D120" t="n">
-        <v>1.34427</v>
+        <v>1.26393</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.939792</v>
+        <v>0.938187</v>
       </c>
       <c r="C121" t="n">
-        <v>1.08726</v>
+        <v>1.08693</v>
       </c>
       <c r="D121" t="n">
-        <v>1.33785</v>
+        <v>1.25904</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.937683</v>
+        <v>0.936575</v>
       </c>
       <c r="C122" t="n">
-        <v>1.08332</v>
+        <v>1.08258</v>
       </c>
       <c r="D122" t="n">
-        <v>1.33126</v>
+        <v>1.24835</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.937124</v>
+        <v>0.93671</v>
       </c>
       <c r="C123" t="n">
-        <v>1.07395</v>
+        <v>1.07707</v>
       </c>
       <c r="D123" t="n">
-        <v>1.32077</v>
+        <v>1.62729</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.1627</v>
+        <v>1.16322</v>
       </c>
       <c r="C124" t="n">
-        <v>1.4184</v>
+        <v>1.41463</v>
       </c>
       <c r="D124" t="n">
-        <v>1.70398</v>
+        <v>1.61328</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.15279</v>
+        <v>1.15208</v>
       </c>
       <c r="C125" t="n">
-        <v>1.40174</v>
+        <v>1.39954</v>
       </c>
       <c r="D125" t="n">
-        <v>1.6872</v>
+        <v>1.59745</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.14169</v>
+        <v>1.14173</v>
       </c>
       <c r="C126" t="n">
-        <v>1.38705</v>
+        <v>1.38777</v>
       </c>
       <c r="D126" t="n">
-        <v>1.66853</v>
+        <v>1.59147</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.13136</v>
+        <v>1.13138</v>
       </c>
       <c r="C127" t="n">
-        <v>1.37203</v>
+        <v>1.36976</v>
       </c>
       <c r="D127" t="n">
-        <v>1.65175</v>
+        <v>1.57386</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.12226</v>
+        <v>1.12178</v>
       </c>
       <c r="C128" t="n">
-        <v>1.35851</v>
+        <v>1.35926</v>
       </c>
       <c r="D128" t="n">
-        <v>1.64129</v>
+        <v>1.5672</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.11339</v>
+        <v>1.11329</v>
       </c>
       <c r="C129" t="n">
-        <v>1.3433</v>
+        <v>1.34557</v>
       </c>
       <c r="D129" t="n">
-        <v>1.625</v>
+        <v>1.55579</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.10496</v>
+        <v>1.10507</v>
       </c>
       <c r="C130" t="n">
-        <v>1.33198</v>
+        <v>1.33338</v>
       </c>
       <c r="D130" t="n">
-        <v>1.61529</v>
+        <v>1.55188</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.09829</v>
+        <v>1.09743</v>
       </c>
       <c r="C131" t="n">
-        <v>1.32282</v>
+        <v>1.32263</v>
       </c>
       <c r="D131" t="n">
-        <v>1.59726</v>
+        <v>1.541</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.09244</v>
+        <v>1.09104</v>
       </c>
       <c r="C132" t="n">
-        <v>1.31373</v>
+        <v>1.31205</v>
       </c>
       <c r="D132" t="n">
-        <v>1.59096</v>
+        <v>1.53169</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.087</v>
+        <v>1.08686</v>
       </c>
       <c r="C133" t="n">
-        <v>1.30312</v>
+        <v>1.30446</v>
       </c>
       <c r="D133" t="n">
-        <v>1.58637</v>
+        <v>1.52688</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.08324</v>
+        <v>1.08312</v>
       </c>
       <c r="C134" t="n">
-        <v>1.29689</v>
+        <v>1.29728</v>
       </c>
       <c r="D134" t="n">
-        <v>1.5691</v>
+        <v>1.51961</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.08137</v>
+        <v>1.08069</v>
       </c>
       <c r="C135" t="n">
-        <v>1.28941</v>
+        <v>1.28762</v>
       </c>
       <c r="D135" t="n">
-        <v>1.56522</v>
+        <v>1.51282</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.081</v>
+        <v>1.07931</v>
       </c>
       <c r="C136" t="n">
-        <v>1.28499</v>
+        <v>1.28335</v>
       </c>
       <c r="D136" t="n">
-        <v>1.55791</v>
+        <v>1.50385</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.08275</v>
+        <v>1.08036</v>
       </c>
       <c r="C137" t="n">
-        <v>1.27941</v>
+        <v>1.27866</v>
       </c>
       <c r="D137" t="n">
-        <v>1.55271</v>
+        <v>1.879</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.30775</v>
+        <v>1.30725</v>
       </c>
       <c r="C138" t="n">
-        <v>1.61955</v>
+        <v>1.61826</v>
       </c>
       <c r="D138" t="n">
-        <v>1.93461</v>
+        <v>1.85881</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.29964</v>
+        <v>1.29921</v>
       </c>
       <c r="C139" t="n">
-        <v>1.60684</v>
+        <v>1.60592</v>
       </c>
       <c r="D139" t="n">
-        <v>1.90755</v>
+        <v>1.84571</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.29105</v>
+        <v>1.29008</v>
       </c>
       <c r="C140" t="n">
-        <v>1.59297</v>
+        <v>1.59239</v>
       </c>
       <c r="D140" t="n">
-        <v>1.89312</v>
+        <v>1.82691</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.28372</v>
+        <v>1.28221</v>
       </c>
       <c r="C141" t="n">
-        <v>1.58116</v>
+        <v>1.57898</v>
       </c>
       <c r="D141" t="n">
-        <v>1.87109</v>
+        <v>1.80902</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.27717</v>
+        <v>1.27633</v>
       </c>
       <c r="C142" t="n">
-        <v>1.56904</v>
+        <v>1.56842</v>
       </c>
       <c r="D142" t="n">
-        <v>1.85192</v>
+        <v>1.7953</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.27071</v>
+        <v>1.26937</v>
       </c>
       <c r="C143" t="n">
-        <v>1.55655</v>
+        <v>1.55629</v>
       </c>
       <c r="D143" t="n">
-        <v>1.83669</v>
+        <v>1.78083</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.482328</v>
+        <v>0.482796</v>
       </c>
       <c r="C2" t="n">
-        <v>0.592807</v>
+        <v>0.592865</v>
       </c>
       <c r="D2" t="n">
-        <v>0.717561</v>
+        <v>0.717435</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.46997</v>
+        <v>0.470329</v>
       </c>
       <c r="C3" t="n">
-        <v>0.574389</v>
+        <v>0.575144</v>
       </c>
       <c r="D3" t="n">
-        <v>0.697553</v>
+        <v>0.6977989999999999</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.45894</v>
+        <v>0.458726</v>
       </c>
       <c r="C4" t="n">
-        <v>0.557871</v>
+        <v>0.558996</v>
       </c>
       <c r="D4" t="n">
-        <v>0.679382</v>
+        <v>0.679469</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.449898</v>
+        <v>0.449695</v>
       </c>
       <c r="C5" t="n">
-        <v>0.543451</v>
+        <v>0.54357</v>
       </c>
       <c r="D5" t="n">
-        <v>0.662748</v>
+        <v>0.662707</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.441376</v>
+        <v>0.44204</v>
       </c>
       <c r="C6" t="n">
-        <v>0.529604</v>
+        <v>0.52972</v>
       </c>
       <c r="D6" t="n">
-        <v>0.647976</v>
+        <v>0.647543</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.435651</v>
+        <v>0.436225</v>
       </c>
       <c r="C7" t="n">
-        <v>0.517177</v>
+        <v>0.517213</v>
       </c>
       <c r="D7" t="n">
-        <v>0.634226</v>
+        <v>0.634547</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.432931</v>
+        <v>0.432881</v>
       </c>
       <c r="C8" t="n">
-        <v>0.507482</v>
+        <v>0.507504</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6238590000000001</v>
+        <v>0.623912</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.432059</v>
+        <v>0.432701</v>
       </c>
       <c r="C9" t="n">
-        <v>0.499342</v>
+        <v>0.499636</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9292820000000001</v>
+        <v>0.929673</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.568608</v>
+        <v>0.568495</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7284</v>
+        <v>0.7281029999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.898972</v>
+        <v>0.899853</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.551601</v>
+        <v>0.550517</v>
       </c>
       <c r="C11" t="n">
-        <v>0.704602</v>
+        <v>0.704128</v>
       </c>
       <c r="D11" t="n">
-        <v>0.870288</v>
+        <v>0.870732</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.533995</v>
+        <v>0.534121</v>
       </c>
       <c r="C12" t="n">
-        <v>0.681598</v>
+        <v>0.681176</v>
       </c>
       <c r="D12" t="n">
-        <v>0.843054</v>
+        <v>0.843584</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.518757</v>
+        <v>0.518611</v>
       </c>
       <c r="C13" t="n">
-        <v>0.659606</v>
+        <v>0.659465</v>
       </c>
       <c r="D13" t="n">
-        <v>0.817084</v>
+        <v>0.817484</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.504331</v>
+        <v>0.504144</v>
       </c>
       <c r="C14" t="n">
-        <v>0.638982</v>
+        <v>0.639168</v>
       </c>
       <c r="D14" t="n">
-        <v>0.79236</v>
+        <v>0.793064</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.490076</v>
+        <v>0.490362</v>
       </c>
       <c r="C15" t="n">
-        <v>0.619514</v>
+        <v>0.619458</v>
       </c>
       <c r="D15" t="n">
-        <v>0.769834</v>
+        <v>0.76986</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.477747</v>
+        <v>0.477358</v>
       </c>
       <c r="C16" t="n">
-        <v>0.601063</v>
+        <v>0.60077</v>
       </c>
       <c r="D16" t="n">
-        <v>0.747421</v>
+        <v>0.748101</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.46687</v>
+        <v>0.465739</v>
       </c>
       <c r="C17" t="n">
-        <v>0.583603</v>
+        <v>0.583661</v>
       </c>
       <c r="D17" t="n">
-        <v>0.726868</v>
+        <v>0.727422</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.45557</v>
+        <v>0.455354</v>
       </c>
       <c r="C18" t="n">
-        <v>0.567215</v>
+        <v>0.567407</v>
       </c>
       <c r="D18" t="n">
-        <v>0.707989</v>
+        <v>0.708236</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.446106</v>
+        <v>0.445825</v>
       </c>
       <c r="C19" t="n">
-        <v>0.552126</v>
+        <v>0.551785</v>
       </c>
       <c r="D19" t="n">
-        <v>0.690436</v>
+        <v>0.690253</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.438544</v>
+        <v>0.43841</v>
       </c>
       <c r="C20" t="n">
-        <v>0.53776</v>
+        <v>0.537571</v>
       </c>
       <c r="D20" t="n">
-        <v>0.674085</v>
+        <v>0.67444</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.433337</v>
+        <v>0.432399</v>
       </c>
       <c r="C21" t="n">
-        <v>0.525</v>
+        <v>0.524714</v>
       </c>
       <c r="D21" t="n">
-        <v>0.660281</v>
+        <v>0.660295</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.430201</v>
+        <v>0.430212</v>
       </c>
       <c r="C22" t="n">
-        <v>0.514384</v>
+        <v>0.514193</v>
       </c>
       <c r="D22" t="n">
-        <v>0.649689</v>
+        <v>0.649952</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.429601</v>
+        <v>0.42963</v>
       </c>
       <c r="C23" t="n">
-        <v>0.505382</v>
+        <v>0.505637</v>
       </c>
       <c r="D23" t="n">
-        <v>0.968044</v>
+        <v>0.968886</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.617988</v>
+        <v>0.618177</v>
       </c>
       <c r="C24" t="n">
-        <v>0.782657</v>
+        <v>0.782788</v>
       </c>
       <c r="D24" t="n">
-        <v>0.938191</v>
+        <v>0.938385</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5994930000000001</v>
+        <v>0.5993230000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.756625</v>
+        <v>0.758139</v>
       </c>
       <c r="D25" t="n">
-        <v>0.907724</v>
+        <v>0.9086070000000001</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.581284</v>
+        <v>0.581169</v>
       </c>
       <c r="C26" t="n">
-        <v>0.732243</v>
+        <v>0.7328249999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.879316</v>
+        <v>0.879714</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.564095</v>
+        <v>0.563929</v>
       </c>
       <c r="C27" t="n">
-        <v>0.708449</v>
+        <v>0.7089259999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>0.851151</v>
+        <v>0.852468</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.547485</v>
+        <v>0.547757</v>
       </c>
       <c r="C28" t="n">
-        <v>0.685903</v>
+        <v>0.686431</v>
       </c>
       <c r="D28" t="n">
-        <v>0.826928</v>
+        <v>0.826832</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.532792</v>
+        <v>0.53232</v>
       </c>
       <c r="C29" t="n">
-        <v>0.665032</v>
+        <v>0.664995</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8025369999999999</v>
+        <v>0.802384</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.51807</v>
+        <v>0.518165</v>
       </c>
       <c r="C30" t="n">
-        <v>0.643872</v>
+        <v>0.643815</v>
       </c>
       <c r="D30" t="n">
-        <v>0.778843</v>
+        <v>0.779359</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.504448</v>
+        <v>0.50417</v>
       </c>
       <c r="C31" t="n">
-        <v>0.624811</v>
+        <v>0.624853</v>
       </c>
       <c r="D31" t="n">
-        <v>0.757731</v>
+        <v>0.757345</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.49236</v>
+        <v>0.491068</v>
       </c>
       <c r="C32" t="n">
-        <v>0.607445</v>
+        <v>0.607024</v>
       </c>
       <c r="D32" t="n">
-        <v>0.736668</v>
+        <v>0.737471</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.48128</v>
+        <v>0.481123</v>
       </c>
       <c r="C33" t="n">
-        <v>0.590328</v>
+        <v>0.590877</v>
       </c>
       <c r="D33" t="n">
-        <v>0.719033</v>
+        <v>0.718381</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.471625</v>
+        <v>0.471518</v>
       </c>
       <c r="C34" t="n">
-        <v>0.574573</v>
+        <v>0.575265</v>
       </c>
       <c r="D34" t="n">
-        <v>0.702299</v>
+        <v>0.702219</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.464115</v>
+        <v>0.463863</v>
       </c>
       <c r="C35" t="n">
-        <v>0.560555</v>
+        <v>0.561059</v>
       </c>
       <c r="D35" t="n">
-        <v>0.686764</v>
+        <v>0.687461</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.458093</v>
+        <v>0.457419</v>
       </c>
       <c r="C36" t="n">
-        <v>0.547805</v>
+        <v>0.547813</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6746760000000001</v>
+        <v>0.674161</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.455481</v>
+        <v>0.45562</v>
       </c>
       <c r="C37" t="n">
-        <v>0.537469</v>
+        <v>0.537927</v>
       </c>
       <c r="D37" t="n">
-        <v>0.99917</v>
+        <v>0.998657</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.647518</v>
+        <v>0.648993</v>
       </c>
       <c r="C38" t="n">
-        <v>0.816731</v>
+        <v>0.8176290000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9677519999999999</v>
+        <v>0.968936</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.63046</v>
+        <v>0.630098</v>
       </c>
       <c r="C39" t="n">
-        <v>0.7914639999999999</v>
+        <v>0.791094</v>
       </c>
       <c r="D39" t="n">
-        <v>0.93607</v>
+        <v>0.9366</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.610486</v>
+        <v>0.6112610000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>0.765415</v>
+        <v>0.767375</v>
       </c>
       <c r="D40" t="n">
-        <v>0.908176</v>
+        <v>0.908273</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.593207</v>
+        <v>0.593036</v>
       </c>
       <c r="C41" t="n">
-        <v>0.7419829999999999</v>
+        <v>0.741564</v>
       </c>
       <c r="D41" t="n">
-        <v>0.881088</v>
+        <v>0.880705</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.576138</v>
+        <v>0.576449</v>
       </c>
       <c r="C42" t="n">
-        <v>0.717638</v>
+        <v>0.718801</v>
       </c>
       <c r="D42" t="n">
-        <v>0.855304</v>
+        <v>0.854671</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5591120000000001</v>
+        <v>0.5603</v>
       </c>
       <c r="C43" t="n">
-        <v>0.696256</v>
+        <v>0.696237</v>
       </c>
       <c r="D43" t="n">
-        <v>0.829488</v>
+        <v>0.829291</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.543664</v>
+        <v>0.54479</v>
       </c>
       <c r="C44" t="n">
-        <v>0.674866</v>
+        <v>0.67478</v>
       </c>
       <c r="D44" t="n">
-        <v>0.805519</v>
+        <v>0.805844</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.529236</v>
+        <v>0.530814</v>
       </c>
       <c r="C45" t="n">
-        <v>0.655288</v>
+        <v>0.654401</v>
       </c>
       <c r="D45" t="n">
-        <v>0.783308</v>
+        <v>0.783324</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.517585</v>
+        <v>0.518041</v>
       </c>
       <c r="C46" t="n">
-        <v>0.6358279999999999</v>
+        <v>0.636777</v>
       </c>
       <c r="D46" t="n">
-        <v>0.762405</v>
+        <v>0.762521</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.505441</v>
+        <v>0.505373</v>
       </c>
       <c r="C47" t="n">
-        <v>0.617935</v>
+        <v>0.61852</v>
       </c>
       <c r="D47" t="n">
-        <v>0.74318</v>
+        <v>0.742964</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.493346</v>
+        <v>0.494648</v>
       </c>
       <c r="C48" t="n">
-        <v>0.600155</v>
+        <v>0.602715</v>
       </c>
       <c r="D48" t="n">
-        <v>0.7253270000000001</v>
+        <v>0.724768</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.486973</v>
+        <v>0.486012</v>
       </c>
       <c r="C49" t="n">
-        <v>0.585259</v>
+        <v>0.586036</v>
       </c>
       <c r="D49" t="n">
-        <v>0.709195</v>
+        <v>0.708758</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.479558</v>
+        <v>0.480838</v>
       </c>
       <c r="C50" t="n">
-        <v>0.573022</v>
+        <v>0.573495</v>
       </c>
       <c r="D50" t="n">
-        <v>0.696036</v>
+        <v>0.695923</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.473669</v>
+        <v>0.475945</v>
       </c>
       <c r="C51" t="n">
-        <v>0.561122</v>
+        <v>0.561911</v>
       </c>
       <c r="D51" t="n">
-        <v>1.02788</v>
+        <v>1.0286</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.475525</v>
+        <v>0.476653</v>
       </c>
       <c r="C52" t="n">
-        <v>0.551859</v>
+        <v>0.553439</v>
       </c>
       <c r="D52" t="n">
-        <v>0.996521</v>
+        <v>0.997131</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.65685</v>
+        <v>0.657853</v>
       </c>
       <c r="C53" t="n">
-        <v>0.822712</v>
+        <v>0.821891</v>
       </c>
       <c r="D53" t="n">
-        <v>0.966268</v>
+        <v>0.966259</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.637996</v>
+        <v>0.639369</v>
       </c>
       <c r="C54" t="n">
-        <v>0.796543</v>
+        <v>0.79754</v>
       </c>
       <c r="D54" t="n">
-        <v>0.93623</v>
+        <v>0.937501</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.61956</v>
+        <v>0.621339</v>
       </c>
       <c r="C55" t="n">
-        <v>0.769601</v>
+        <v>0.771907</v>
       </c>
       <c r="D55" t="n">
-        <v>0.907848</v>
+        <v>0.909377</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.6029139999999999</v>
+        <v>0.602983</v>
       </c>
       <c r="C56" t="n">
-        <v>0.747121</v>
+        <v>0.7468320000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>0.881944</v>
+        <v>0.881829</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.585531</v>
+        <v>0.587524</v>
       </c>
       <c r="C57" t="n">
-        <v>0.723792</v>
+        <v>0.725457</v>
       </c>
       <c r="D57" t="n">
-        <v>0.857055</v>
+        <v>0.856337</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.57079</v>
+        <v>0.571369</v>
       </c>
       <c r="C58" t="n">
-        <v>0.702781</v>
+        <v>0.703321</v>
       </c>
       <c r="D58" t="n">
-        <v>0.832862</v>
+        <v>0.83401</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.556492</v>
+        <v>0.5588419999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.681656</v>
+        <v>0.6838689999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.809717</v>
+        <v>0.811565</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.543683</v>
+        <v>0.5443519999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.662459</v>
+        <v>0.664022</v>
       </c>
       <c r="D60" t="n">
-        <v>0.789185</v>
+        <v>0.790137</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.532513</v>
+        <v>0.532896</v>
       </c>
       <c r="C61" t="n">
-        <v>0.645089</v>
+        <v>0.646532</v>
       </c>
       <c r="D61" t="n">
-        <v>0.769186</v>
+        <v>0.770091</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.521714</v>
+        <v>0.5222830000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.627592</v>
+        <v>0.6296659999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.75097</v>
+        <v>0.752279</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.512448</v>
+        <v>0.514073</v>
       </c>
       <c r="C63" t="n">
-        <v>0.612815</v>
+        <v>0.614874</v>
       </c>
       <c r="D63" t="n">
-        <v>0.735532</v>
+        <v>0.736456</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.506194</v>
+        <v>0.507227</v>
       </c>
       <c r="C64" t="n">
-        <v>0.600603</v>
+        <v>0.599573</v>
       </c>
       <c r="D64" t="n">
-        <v>0.720342</v>
+        <v>0.720546</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.502046</v>
+        <v>0.503315</v>
       </c>
       <c r="C65" t="n">
-        <v>0.587883</v>
+        <v>0.587904</v>
       </c>
       <c r="D65" t="n">
-        <v>0.708514</v>
+        <v>0.708896</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.500297</v>
+        <v>0.5017</v>
       </c>
       <c r="C66" t="n">
-        <v>0.577023</v>
+        <v>0.5781500000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>1.05029</v>
+        <v>1.05248</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.715799</v>
+        <v>0.717854</v>
       </c>
       <c r="C67" t="n">
-        <v>0.88575</v>
+        <v>0.886679</v>
       </c>
       <c r="D67" t="n">
-        <v>1.01827</v>
+        <v>1.02089</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.700032</v>
+        <v>0.70031</v>
       </c>
       <c r="C68" t="n">
-        <v>0.85921</v>
+        <v>0.863187</v>
       </c>
       <c r="D68" t="n">
-        <v>0.989619</v>
+        <v>0.9932839999999999</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.682462</v>
+        <v>0.684425</v>
       </c>
       <c r="C69" t="n">
-        <v>0.832636</v>
+        <v>0.838126</v>
       </c>
       <c r="D69" t="n">
-        <v>0.958666</v>
+        <v>0.963633</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.669171</v>
+        <v>0.6709619999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.811065</v>
+        <v>0.812284</v>
       </c>
       <c r="D70" t="n">
-        <v>0.935864</v>
+        <v>0.93524</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.654717</v>
+        <v>0.653608</v>
       </c>
       <c r="C71" t="n">
-        <v>0.7884910000000001</v>
+        <v>0.787394</v>
       </c>
       <c r="D71" t="n">
-        <v>0.910901</v>
+        <v>0.908876</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.642348</v>
+        <v>0.639401</v>
       </c>
       <c r="C72" t="n">
-        <v>0.767832</v>
+        <v>0.764883</v>
       </c>
       <c r="D72" t="n">
-        <v>0.888143</v>
+        <v>0.8843220000000001</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.6283879999999999</v>
+        <v>0.625358</v>
       </c>
       <c r="C73" t="n">
-        <v>0.746142</v>
+        <v>0.743386</v>
       </c>
       <c r="D73" t="n">
-        <v>0.86366</v>
+        <v>0.860962</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.614649</v>
+        <v>0.6116239999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.725177</v>
+        <v>0.723319</v>
       </c>
       <c r="D74" t="n">
-        <v>0.840913</v>
+        <v>0.838391</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.602403</v>
+        <v>0.599743</v>
       </c>
       <c r="C75" t="n">
-        <v>0.70629</v>
+        <v>0.704033</v>
       </c>
       <c r="D75" t="n">
-        <v>0.819833</v>
+        <v>0.817585</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.589855</v>
+        <v>0.588503</v>
       </c>
       <c r="C76" t="n">
-        <v>0.687453</v>
+        <v>0.685775</v>
       </c>
       <c r="D76" t="n">
-        <v>0.799998</v>
+        <v>0.798288</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.579211</v>
+        <v>0.576668</v>
       </c>
       <c r="C77" t="n">
-        <v>0.671171</v>
+        <v>0.667539</v>
       </c>
       <c r="D77" t="n">
-        <v>0.7827809999999999</v>
+        <v>0.780389</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.571329</v>
+        <v>0.5693</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6562210000000001</v>
+        <v>0.655989</v>
       </c>
       <c r="D78" t="n">
-        <v>0.767516</v>
+        <v>0.765853</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.567096</v>
+        <v>0.563396</v>
       </c>
       <c r="C79" t="n">
-        <v>0.643058</v>
+        <v>0.640314</v>
       </c>
       <c r="D79" t="n">
-        <v>0.754196</v>
+        <v>0.752423</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.562862</v>
+        <v>0.557797</v>
       </c>
       <c r="C80" t="n">
-        <v>0.632423</v>
+        <v>0.628259</v>
       </c>
       <c r="D80" t="n">
-        <v>1.13083</v>
+        <v>1.12837</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.792088</v>
+        <v>0.786722</v>
       </c>
       <c r="C81" t="n">
-        <v>0.970604</v>
+        <v>0.96727</v>
       </c>
       <c r="D81" t="n">
-        <v>1.11039</v>
+        <v>1.10699</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.784624</v>
+        <v>0.779631</v>
       </c>
       <c r="C82" t="n">
-        <v>0.954651</v>
+        <v>0.9530920000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>1.08708</v>
+        <v>1.08595</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.77315</v>
+        <v>0.769943</v>
       </c>
       <c r="C83" t="n">
-        <v>0.934965</v>
+        <v>0.933045</v>
       </c>
       <c r="D83" t="n">
-        <v>1.06526</v>
+        <v>1.06315</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.764357</v>
+        <v>0.760419</v>
       </c>
       <c r="C84" t="n">
-        <v>0.915286</v>
+        <v>0.913418</v>
       </c>
       <c r="D84" t="n">
-        <v>1.03846</v>
+        <v>1.03935</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.753948</v>
+        <v>0.75076</v>
       </c>
       <c r="C85" t="n">
-        <v>0.895141</v>
+        <v>0.890678</v>
       </c>
       <c r="D85" t="n">
-        <v>1.01382</v>
+        <v>1.01373</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.742578</v>
+        <v>0.739931</v>
       </c>
       <c r="C86" t="n">
-        <v>0.87509</v>
+        <v>0.87102</v>
       </c>
       <c r="D86" t="n">
-        <v>0.989049</v>
+        <v>0.986855</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.731853</v>
+        <v>0.728942</v>
       </c>
       <c r="C87" t="n">
-        <v>0.855202</v>
+        <v>0.851061</v>
       </c>
       <c r="D87" t="n">
-        <v>0.964678</v>
+        <v>0.964993</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.7213540000000001</v>
+        <v>0.71816</v>
       </c>
       <c r="C88" t="n">
-        <v>0.834359</v>
+        <v>0.833968</v>
       </c>
       <c r="D88" t="n">
-        <v>0.940997</v>
+        <v>0.941792</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.709971</v>
+        <v>0.707795</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8170539999999999</v>
+        <v>0.812783</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9205179999999999</v>
+        <v>0.919655</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.701361</v>
+        <v>0.698461</v>
       </c>
       <c r="C90" t="n">
-        <v>0.798501</v>
+        <v>0.795135</v>
       </c>
       <c r="D90" t="n">
-        <v>0.898853</v>
+        <v>0.8965070000000001</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.691622</v>
+        <v>0.687474</v>
       </c>
       <c r="C91" t="n">
-        <v>0.781185</v>
+        <v>0.778674</v>
       </c>
       <c r="D91" t="n">
-        <v>0.879749</v>
+        <v>0.877514</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.683338</v>
+        <v>0.679543</v>
       </c>
       <c r="C92" t="n">
-        <v>0.766046</v>
+        <v>0.757853</v>
       </c>
       <c r="D92" t="n">
-        <v>0.861975</v>
+        <v>0.856369</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.67763</v>
+        <v>0.670663</v>
       </c>
       <c r="C93" t="n">
-        <v>0.752285</v>
+        <v>0.738388</v>
       </c>
       <c r="D93" t="n">
-        <v>0.8471340000000001</v>
+        <v>0.8413580000000001</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.672342</v>
+        <v>0.667866</v>
       </c>
       <c r="C94" t="n">
-        <v>0.740513</v>
+        <v>0.735263</v>
       </c>
       <c r="D94" t="n">
-        <v>1.22933</v>
+        <v>1.22088</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.907501</v>
+        <v>0.900733</v>
       </c>
       <c r="C95" t="n">
-        <v>1.08191</v>
+        <v>1.07085</v>
       </c>
       <c r="D95" t="n">
-        <v>1.22199</v>
+        <v>1.21617</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.906259</v>
+        <v>0.8997540000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>1.07593</v>
+        <v>1.06094</v>
       </c>
       <c r="D96" t="n">
-        <v>1.20627</v>
+        <v>1.20276</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.896908</v>
+        <v>0.891151</v>
       </c>
       <c r="C97" t="n">
-        <v>1.06054</v>
+        <v>1.05147</v>
       </c>
       <c r="D97" t="n">
-        <v>1.18926</v>
+        <v>1.18401</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.886535</v>
+        <v>0.881319</v>
       </c>
       <c r="C98" t="n">
-        <v>1.04131</v>
+        <v>1.03732</v>
       </c>
       <c r="D98" t="n">
-        <v>1.1679</v>
+        <v>1.16236</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.875854</v>
+        <v>0.871177</v>
       </c>
       <c r="C99" t="n">
-        <v>1.02344</v>
+        <v>1.01837</v>
       </c>
       <c r="D99" t="n">
-        <v>1.14726</v>
+        <v>1.13911</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.865071</v>
+        <v>0.860439</v>
       </c>
       <c r="C100" t="n">
-        <v>1.00548</v>
+        <v>0.998602</v>
       </c>
       <c r="D100" t="n">
-        <v>1.1272</v>
+        <v>1.11937</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.855585</v>
+        <v>0.851004</v>
       </c>
       <c r="C101" t="n">
-        <v>0.990231</v>
+        <v>0.979371</v>
       </c>
       <c r="D101" t="n">
-        <v>1.10828</v>
+        <v>1.10493</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.84651</v>
+        <v>0.842092</v>
       </c>
       <c r="C102" t="n">
-        <v>0.973153</v>
+        <v>0.966926</v>
       </c>
       <c r="D102" t="n">
-        <v>1.08812</v>
+        <v>1.08354</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.837961</v>
+        <v>0.834296</v>
       </c>
       <c r="C103" t="n">
-        <v>0.959735</v>
+        <v>0.9562659999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>1.07279</v>
+        <v>1.06609</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.830222</v>
+        <v>0.826229</v>
       </c>
       <c r="C104" t="n">
-        <v>0.94463</v>
+        <v>0.942785</v>
       </c>
       <c r="D104" t="n">
-        <v>1.05712</v>
+        <v>1.05421</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.823614</v>
+        <v>0.819394</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9337839999999999</v>
+        <v>0.93028</v>
       </c>
       <c r="D105" t="n">
-        <v>1.04147</v>
+        <v>1.03803</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.817963</v>
+        <v>0.813186</v>
       </c>
       <c r="C106" t="n">
-        <v>0.922432</v>
+        <v>0.910808</v>
       </c>
       <c r="D106" t="n">
-        <v>1.02822</v>
+        <v>1.01919</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.813639</v>
+        <v>0.809949</v>
       </c>
       <c r="C107" t="n">
-        <v>0.912246</v>
+        <v>0.902644</v>
       </c>
       <c r="D107" t="n">
-        <v>1.01519</v>
+        <v>1.00969</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.811395</v>
+        <v>0.8082819999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>0.904589</v>
+        <v>0.895353</v>
       </c>
       <c r="D108" t="n">
-        <v>1.39662</v>
+        <v>1.38838</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.8123359999999999</v>
+        <v>0.8091739999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>0.898875</v>
+        <v>0.8964029999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>1.38649</v>
+        <v>1.38194</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.03846</v>
+        <v>1.03401</v>
       </c>
       <c r="C110" t="n">
-        <v>1.23721</v>
+        <v>1.22842</v>
       </c>
       <c r="D110" t="n">
-        <v>1.37666</v>
+        <v>1.37325</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.02678</v>
+        <v>1.02225</v>
       </c>
       <c r="C111" t="n">
-        <v>1.22306</v>
+        <v>1.21827</v>
       </c>
       <c r="D111" t="n">
-        <v>1.36319</v>
+        <v>1.3607</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.01471</v>
+        <v>1.01075</v>
       </c>
       <c r="C112" t="n">
-        <v>1.20571</v>
+        <v>1.20174</v>
       </c>
       <c r="D112" t="n">
-        <v>1.35001</v>
+        <v>1.34688</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.00279</v>
+        <v>0.998565</v>
       </c>
       <c r="C113" t="n">
-        <v>1.18901</v>
+        <v>1.18431</v>
       </c>
       <c r="D113" t="n">
-        <v>1.33864</v>
+        <v>1.33508</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.992105</v>
+        <v>0.987349</v>
       </c>
       <c r="C114" t="n">
-        <v>1.17174</v>
+        <v>1.167</v>
       </c>
       <c r="D114" t="n">
-        <v>1.32726</v>
+        <v>1.32383</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.981927</v>
+        <v>0.977806</v>
       </c>
       <c r="C115" t="n">
-        <v>1.15783</v>
+        <v>1.14823</v>
       </c>
       <c r="D115" t="n">
-        <v>1.31628</v>
+        <v>1.31003</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.971772</v>
+        <v>0.968041</v>
       </c>
       <c r="C116" t="n">
-        <v>1.1438</v>
+        <v>1.13777</v>
       </c>
       <c r="D116" t="n">
-        <v>1.3056</v>
+        <v>1.30154</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.963344</v>
+        <v>0.9598410000000001</v>
       </c>
       <c r="C117" t="n">
-        <v>1.13155</v>
+        <v>1.12524</v>
       </c>
       <c r="D117" t="n">
-        <v>1.29651</v>
+        <v>1.29534</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.955698</v>
+        <v>0.951521</v>
       </c>
       <c r="C118" t="n">
-        <v>1.11896</v>
+        <v>1.11354</v>
       </c>
       <c r="D118" t="n">
-        <v>1.28457</v>
+        <v>1.28388</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.948419</v>
+        <v>0.944978</v>
       </c>
       <c r="C119" t="n">
-        <v>1.10594</v>
+        <v>1.10113</v>
       </c>
       <c r="D119" t="n">
-        <v>1.27705</v>
+        <v>1.26466</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.9430190000000001</v>
+        <v>0.939073</v>
       </c>
       <c r="C120" t="n">
-        <v>1.09562</v>
+        <v>1.08923</v>
       </c>
       <c r="D120" t="n">
-        <v>1.26393</v>
+        <v>1.26428</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.938187</v>
+        <v>0.934409</v>
       </c>
       <c r="C121" t="n">
-        <v>1.08693</v>
+        <v>1.08173</v>
       </c>
       <c r="D121" t="n">
-        <v>1.25904</v>
+        <v>1.24621</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.936575</v>
+        <v>0.930932</v>
       </c>
       <c r="C122" t="n">
-        <v>1.08258</v>
+        <v>1.07475</v>
       </c>
       <c r="D122" t="n">
-        <v>1.24835</v>
+        <v>1.24746</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.93671</v>
+        <v>0.931882</v>
       </c>
       <c r="C123" t="n">
-        <v>1.07707</v>
+        <v>1.06791</v>
       </c>
       <c r="D123" t="n">
-        <v>1.62729</v>
+        <v>1.62737</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.16322</v>
+        <v>1.15841</v>
       </c>
       <c r="C124" t="n">
-        <v>1.41463</v>
+        <v>1.40927</v>
       </c>
       <c r="D124" t="n">
-        <v>1.61328</v>
+        <v>1.61271</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.15208</v>
+        <v>1.14745</v>
       </c>
       <c r="C125" t="n">
-        <v>1.39954</v>
+        <v>1.39385</v>
       </c>
       <c r="D125" t="n">
-        <v>1.59745</v>
+        <v>1.59821</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.14173</v>
+        <v>1.13671</v>
       </c>
       <c r="C126" t="n">
-        <v>1.38777</v>
+        <v>1.37893</v>
       </c>
       <c r="D126" t="n">
-        <v>1.59147</v>
+        <v>1.58598</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.13138</v>
+        <v>1.12583</v>
       </c>
       <c r="C127" t="n">
-        <v>1.36976</v>
+        <v>1.36474</v>
       </c>
       <c r="D127" t="n">
-        <v>1.57386</v>
+        <v>1.57403</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.12178</v>
+        <v>1.11646</v>
       </c>
       <c r="C128" t="n">
-        <v>1.35926</v>
+        <v>1.35085</v>
       </c>
       <c r="D128" t="n">
-        <v>1.5672</v>
+        <v>1.56761</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.11329</v>
+        <v>1.10808</v>
       </c>
       <c r="C129" t="n">
-        <v>1.34557</v>
+        <v>1.33682</v>
       </c>
       <c r="D129" t="n">
-        <v>1.55579</v>
+        <v>1.54873</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.10507</v>
+        <v>1.10049</v>
       </c>
       <c r="C130" t="n">
-        <v>1.33338</v>
+        <v>1.32634</v>
       </c>
       <c r="D130" t="n">
-        <v>1.55188</v>
+        <v>1.54115</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.09743</v>
+        <v>1.09355</v>
       </c>
       <c r="C131" t="n">
-        <v>1.32263</v>
+        <v>1.31558</v>
       </c>
       <c r="D131" t="n">
-        <v>1.541</v>
+        <v>1.52845</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.09104</v>
+        <v>1.087</v>
       </c>
       <c r="C132" t="n">
-        <v>1.31205</v>
+        <v>1.30665</v>
       </c>
       <c r="D132" t="n">
-        <v>1.53169</v>
+        <v>1.5319</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.08686</v>
+        <v>1.08303</v>
       </c>
       <c r="C133" t="n">
-        <v>1.30446</v>
+        <v>1.29876</v>
       </c>
       <c r="D133" t="n">
-        <v>1.52688</v>
+        <v>1.52377</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.08312</v>
+        <v>1.07886</v>
       </c>
       <c r="C134" t="n">
-        <v>1.29728</v>
+        <v>1.2905</v>
       </c>
       <c r="D134" t="n">
-        <v>1.51961</v>
+        <v>1.51336</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.08069</v>
+        <v>1.07685</v>
       </c>
       <c r="C135" t="n">
-        <v>1.28762</v>
+        <v>1.28304</v>
       </c>
       <c r="D135" t="n">
-        <v>1.51282</v>
+        <v>1.50222</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.07931</v>
+        <v>1.07554</v>
       </c>
       <c r="C136" t="n">
-        <v>1.28335</v>
+        <v>1.27764</v>
       </c>
       <c r="D136" t="n">
-        <v>1.50385</v>
+        <v>1.50002</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.08036</v>
+        <v>1.07606</v>
       </c>
       <c r="C137" t="n">
-        <v>1.27866</v>
+        <v>1.27487</v>
       </c>
       <c r="D137" t="n">
-        <v>1.879</v>
+        <v>1.87126</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.30725</v>
+        <v>1.30446</v>
       </c>
       <c r="C138" t="n">
-        <v>1.61826</v>
+        <v>1.61422</v>
       </c>
       <c r="D138" t="n">
-        <v>1.85881</v>
+        <v>1.85832</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.29921</v>
+        <v>1.29629</v>
       </c>
       <c r="C139" t="n">
-        <v>1.60592</v>
+        <v>1.60108</v>
       </c>
       <c r="D139" t="n">
-        <v>1.84571</v>
+        <v>1.83684</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.29008</v>
+        <v>1.28804</v>
       </c>
       <c r="C140" t="n">
-        <v>1.59239</v>
+        <v>1.58639</v>
       </c>
       <c r="D140" t="n">
-        <v>1.82691</v>
+        <v>1.82431</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.28221</v>
+        <v>1.27933</v>
       </c>
       <c r="C141" t="n">
-        <v>1.57898</v>
+        <v>1.57329</v>
       </c>
       <c r="D141" t="n">
-        <v>1.80902</v>
+        <v>1.81431</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.27633</v>
+        <v>1.27297</v>
       </c>
       <c r="C142" t="n">
-        <v>1.56842</v>
+        <v>1.56202</v>
       </c>
       <c r="D142" t="n">
-        <v>1.7953</v>
+        <v>1.79093</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.26937</v>
+        <v>1.26641</v>
       </c>
       <c r="C143" t="n">
-        <v>1.55629</v>
+        <v>1.5518</v>
       </c>
       <c r="D143" t="n">
-        <v>1.78083</v>
+        <v>1.77915</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.482796</v>
+        <v>0.482556</v>
       </c>
       <c r="C2" t="n">
-        <v>0.592865</v>
+        <v>0.592079</v>
       </c>
       <c r="D2" t="n">
-        <v>0.717435</v>
+        <v>0.717415</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.470329</v>
+        <v>0.469573</v>
       </c>
       <c r="C3" t="n">
-        <v>0.575144</v>
+        <v>0.574899</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6977989999999999</v>
+        <v>0.698147</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.458726</v>
+        <v>0.458555</v>
       </c>
       <c r="C4" t="n">
-        <v>0.558996</v>
+        <v>0.558615</v>
       </c>
       <c r="D4" t="n">
-        <v>0.679469</v>
+        <v>0.679465</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.449695</v>
+        <v>0.448998</v>
       </c>
       <c r="C5" t="n">
-        <v>0.54357</v>
+        <v>0.543136</v>
       </c>
       <c r="D5" t="n">
-        <v>0.662707</v>
+        <v>0.6627999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.44204</v>
+        <v>0.441335</v>
       </c>
       <c r="C6" t="n">
-        <v>0.52972</v>
+        <v>0.529324</v>
       </c>
       <c r="D6" t="n">
-        <v>0.647543</v>
+        <v>0.648238</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.436225</v>
+        <v>0.435904</v>
       </c>
       <c r="C7" t="n">
-        <v>0.517213</v>
+        <v>0.5167580000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.634547</v>
+        <v>0.6344109999999999</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.432881</v>
+        <v>0.432545</v>
       </c>
       <c r="C8" t="n">
-        <v>0.507504</v>
+        <v>0.507237</v>
       </c>
       <c r="D8" t="n">
-        <v>0.623912</v>
+        <v>0.623884</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.432701</v>
+        <v>0.432195</v>
       </c>
       <c r="C9" t="n">
-        <v>0.499636</v>
+        <v>0.499381</v>
       </c>
       <c r="D9" t="n">
-        <v>0.929673</v>
+        <v>0.929813</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.568495</v>
+        <v>0.568536</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7281029999999999</v>
+        <v>0.728851</v>
       </c>
       <c r="D10" t="n">
-        <v>0.899853</v>
+        <v>0.899509</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.550517</v>
+        <v>0.551052</v>
       </c>
       <c r="C11" t="n">
-        <v>0.704128</v>
+        <v>0.704492</v>
       </c>
       <c r="D11" t="n">
-        <v>0.870732</v>
+        <v>0.8708399999999999</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.534121</v>
+        <v>0.535496</v>
       </c>
       <c r="C12" t="n">
-        <v>0.681176</v>
+        <v>0.681436</v>
       </c>
       <c r="D12" t="n">
-        <v>0.843584</v>
+        <v>0.843742</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.518611</v>
+        <v>0.518781</v>
       </c>
       <c r="C13" t="n">
-        <v>0.659465</v>
+        <v>0.659758</v>
       </c>
       <c r="D13" t="n">
-        <v>0.817484</v>
+        <v>0.817678</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.504144</v>
+        <v>0.504393</v>
       </c>
       <c r="C14" t="n">
-        <v>0.639168</v>
+        <v>0.639216</v>
       </c>
       <c r="D14" t="n">
-        <v>0.793064</v>
+        <v>0.792964</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.490362</v>
+        <v>0.490623</v>
       </c>
       <c r="C15" t="n">
-        <v>0.619458</v>
+        <v>0.619625</v>
       </c>
       <c r="D15" t="n">
-        <v>0.76986</v>
+        <v>0.76997</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.477358</v>
+        <v>0.477775</v>
       </c>
       <c r="C16" t="n">
-        <v>0.60077</v>
+        <v>0.601241</v>
       </c>
       <c r="D16" t="n">
-        <v>0.748101</v>
+        <v>0.748151</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.465739</v>
+        <v>0.466916</v>
       </c>
       <c r="C17" t="n">
-        <v>0.583661</v>
+        <v>0.583601</v>
       </c>
       <c r="D17" t="n">
-        <v>0.727422</v>
+        <v>0.727512</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.455354</v>
+        <v>0.456396</v>
       </c>
       <c r="C18" t="n">
-        <v>0.567407</v>
+        <v>0.567346</v>
       </c>
       <c r="D18" t="n">
-        <v>0.708236</v>
+        <v>0.7084009999999999</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.445825</v>
+        <v>0.446302</v>
       </c>
       <c r="C19" t="n">
-        <v>0.551785</v>
+        <v>0.552069</v>
       </c>
       <c r="D19" t="n">
-        <v>0.690253</v>
+        <v>0.690736</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.43841</v>
+        <v>0.438716</v>
       </c>
       <c r="C20" t="n">
-        <v>0.537571</v>
+        <v>0.537725</v>
       </c>
       <c r="D20" t="n">
-        <v>0.67444</v>
+        <v>0.67428</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.432399</v>
+        <v>0.432936</v>
       </c>
       <c r="C21" t="n">
-        <v>0.524714</v>
+        <v>0.525111</v>
       </c>
       <c r="D21" t="n">
-        <v>0.660295</v>
+        <v>0.660518</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.430212</v>
+        <v>0.430485</v>
       </c>
       <c r="C22" t="n">
-        <v>0.514193</v>
+        <v>0.514235</v>
       </c>
       <c r="D22" t="n">
-        <v>0.649952</v>
+        <v>0.649874</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.42963</v>
+        <v>0.43094</v>
       </c>
       <c r="C23" t="n">
-        <v>0.505637</v>
+        <v>0.505449</v>
       </c>
       <c r="D23" t="n">
-        <v>0.968886</v>
+        <v>0.969031</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.618177</v>
+        <v>0.618068</v>
       </c>
       <c r="C24" t="n">
-        <v>0.782788</v>
+        <v>0.782578</v>
       </c>
       <c r="D24" t="n">
-        <v>0.938385</v>
+        <v>0.937811</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5993230000000001</v>
+        <v>0.599837</v>
       </c>
       <c r="C25" t="n">
-        <v>0.758139</v>
+        <v>0.757243</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9086070000000001</v>
+        <v>0.907643</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.581169</v>
+        <v>0.582037</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7328249999999999</v>
+        <v>0.732626</v>
       </c>
       <c r="D26" t="n">
-        <v>0.879714</v>
+        <v>0.880197</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.563929</v>
+        <v>0.564411</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7089259999999999</v>
+        <v>0.7084279999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>0.852468</v>
+        <v>0.851963</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.547757</v>
+        <v>0.548381</v>
       </c>
       <c r="C28" t="n">
-        <v>0.686431</v>
+        <v>0.686266</v>
       </c>
       <c r="D28" t="n">
-        <v>0.826832</v>
+        <v>0.826914</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.53232</v>
+        <v>0.532431</v>
       </c>
       <c r="C29" t="n">
-        <v>0.664995</v>
+        <v>0.664295</v>
       </c>
       <c r="D29" t="n">
-        <v>0.802384</v>
+        <v>0.802613</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.518165</v>
+        <v>0.518548</v>
       </c>
       <c r="C30" t="n">
-        <v>0.643815</v>
+        <v>0.644859</v>
       </c>
       <c r="D30" t="n">
-        <v>0.779359</v>
+        <v>0.779934</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.50417</v>
+        <v>0.50368</v>
       </c>
       <c r="C31" t="n">
-        <v>0.624853</v>
+        <v>0.625101</v>
       </c>
       <c r="D31" t="n">
-        <v>0.757345</v>
+        <v>0.758028</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.491068</v>
+        <v>0.491262</v>
       </c>
       <c r="C32" t="n">
-        <v>0.607024</v>
+        <v>0.606691</v>
       </c>
       <c r="D32" t="n">
-        <v>0.737471</v>
+        <v>0.738028</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.481123</v>
+        <v>0.481349</v>
       </c>
       <c r="C33" t="n">
-        <v>0.590877</v>
+        <v>0.590512</v>
       </c>
       <c r="D33" t="n">
-        <v>0.718381</v>
+        <v>0.718989</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.471518</v>
+        <v>0.471791</v>
       </c>
       <c r="C34" t="n">
-        <v>0.575265</v>
+        <v>0.574865</v>
       </c>
       <c r="D34" t="n">
-        <v>0.702219</v>
+        <v>0.702234</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.463863</v>
+        <v>0.463976</v>
       </c>
       <c r="C35" t="n">
-        <v>0.561059</v>
+        <v>0.560486</v>
       </c>
       <c r="D35" t="n">
-        <v>0.687461</v>
+        <v>0.687206</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.457419</v>
+        <v>0.458403</v>
       </c>
       <c r="C36" t="n">
-        <v>0.547813</v>
+        <v>0.5477109999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.674161</v>
+        <v>0.672805</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.45562</v>
+        <v>0.458352</v>
       </c>
       <c r="C37" t="n">
-        <v>0.537927</v>
+        <v>0.537618</v>
       </c>
       <c r="D37" t="n">
-        <v>0.998657</v>
+        <v>0.998756</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.648993</v>
+        <v>0.64972</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8176290000000001</v>
+        <v>0.817281</v>
       </c>
       <c r="D38" t="n">
-        <v>0.968936</v>
+        <v>0.966669</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.630098</v>
+        <v>0.630582</v>
       </c>
       <c r="C39" t="n">
-        <v>0.791094</v>
+        <v>0.790397</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9366</v>
+        <v>0.937141</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6112610000000001</v>
+        <v>0.611271</v>
       </c>
       <c r="C40" t="n">
-        <v>0.767375</v>
+        <v>0.764748</v>
       </c>
       <c r="D40" t="n">
-        <v>0.908273</v>
+        <v>0.907037</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.593036</v>
+        <v>0.593641</v>
       </c>
       <c r="C41" t="n">
-        <v>0.741564</v>
+        <v>0.7419519999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.880705</v>
+        <v>0.880541</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.576449</v>
+        <v>0.576749</v>
       </c>
       <c r="C42" t="n">
-        <v>0.718801</v>
+        <v>0.718307</v>
       </c>
       <c r="D42" t="n">
-        <v>0.854671</v>
+        <v>0.854665</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5603</v>
+        <v>0.560698</v>
       </c>
       <c r="C43" t="n">
-        <v>0.696237</v>
+        <v>0.695519</v>
       </c>
       <c r="D43" t="n">
-        <v>0.829291</v>
+        <v>0.829552</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.54479</v>
+        <v>0.543377</v>
       </c>
       <c r="C44" t="n">
-        <v>0.67478</v>
+        <v>0.674546</v>
       </c>
       <c r="D44" t="n">
-        <v>0.805844</v>
+        <v>0.805163</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.530814</v>
+        <v>0.531261</v>
       </c>
       <c r="C45" t="n">
-        <v>0.654401</v>
+        <v>0.655416</v>
       </c>
       <c r="D45" t="n">
-        <v>0.783324</v>
+        <v>0.783574</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.518041</v>
+        <v>0.518212</v>
       </c>
       <c r="C46" t="n">
-        <v>0.636777</v>
+        <v>0.636801</v>
       </c>
       <c r="D46" t="n">
-        <v>0.762521</v>
+        <v>0.763258</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.505373</v>
+        <v>0.5068279999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>0.61852</v>
+        <v>0.618045</v>
       </c>
       <c r="D47" t="n">
-        <v>0.742964</v>
+        <v>0.742947</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.494648</v>
+        <v>0.494357</v>
       </c>
       <c r="C48" t="n">
-        <v>0.602715</v>
+        <v>0.602083</v>
       </c>
       <c r="D48" t="n">
-        <v>0.724768</v>
+        <v>0.72482</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.486012</v>
+        <v>0.4877</v>
       </c>
       <c r="C49" t="n">
-        <v>0.586036</v>
+        <v>0.587251</v>
       </c>
       <c r="D49" t="n">
-        <v>0.708758</v>
+        <v>0.709311</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.480838</v>
+        <v>0.480163</v>
       </c>
       <c r="C50" t="n">
-        <v>0.573495</v>
+        <v>0.573468</v>
       </c>
       <c r="D50" t="n">
-        <v>0.695923</v>
+        <v>0.6952469999999999</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.475945</v>
+        <v>0.47696</v>
       </c>
       <c r="C51" t="n">
-        <v>0.561911</v>
+        <v>0.561382</v>
       </c>
       <c r="D51" t="n">
-        <v>1.0286</v>
+        <v>1.02887</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.476653</v>
+        <v>0.475506</v>
       </c>
       <c r="C52" t="n">
-        <v>0.553439</v>
+        <v>0.553096</v>
       </c>
       <c r="D52" t="n">
-        <v>0.997131</v>
+        <v>0.9964769999999999</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.657853</v>
+        <v>0.65834</v>
       </c>
       <c r="C53" t="n">
-        <v>0.821891</v>
+        <v>0.821846</v>
       </c>
       <c r="D53" t="n">
-        <v>0.966259</v>
+        <v>0.9656400000000001</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.639369</v>
+        <v>0.639303</v>
       </c>
       <c r="C54" t="n">
-        <v>0.79754</v>
+        <v>0.796098</v>
       </c>
       <c r="D54" t="n">
-        <v>0.937501</v>
+        <v>0.937882</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.621339</v>
+        <v>0.620672</v>
       </c>
       <c r="C55" t="n">
-        <v>0.771907</v>
+        <v>0.773769</v>
       </c>
       <c r="D55" t="n">
-        <v>0.909377</v>
+        <v>0.9095839999999999</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.602983</v>
+        <v>0.603788</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7468320000000001</v>
+        <v>0.747765</v>
       </c>
       <c r="D56" t="n">
-        <v>0.881829</v>
+        <v>0.883317</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.587524</v>
+        <v>0.587912</v>
       </c>
       <c r="C57" t="n">
-        <v>0.725457</v>
+        <v>0.725402</v>
       </c>
       <c r="D57" t="n">
-        <v>0.856337</v>
+        <v>0.8573809999999999</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.571369</v>
+        <v>0.573384</v>
       </c>
       <c r="C58" t="n">
-        <v>0.703321</v>
+        <v>0.70381</v>
       </c>
       <c r="D58" t="n">
-        <v>0.83401</v>
+        <v>0.834205</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5588419999999999</v>
+        <v>0.558423</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6838689999999999</v>
+        <v>0.6833360000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.811565</v>
+        <v>0.811402</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5443519999999999</v>
+        <v>0.545425</v>
       </c>
       <c r="C60" t="n">
-        <v>0.664022</v>
+        <v>0.664317</v>
       </c>
       <c r="D60" t="n">
-        <v>0.790137</v>
+        <v>0.790122</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.532896</v>
+        <v>0.53271</v>
       </c>
       <c r="C61" t="n">
-        <v>0.646532</v>
+        <v>0.645553</v>
       </c>
       <c r="D61" t="n">
-        <v>0.770091</v>
+        <v>0.770299</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5222830000000001</v>
+        <v>0.522989</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6296659999999999</v>
+        <v>0.6290750000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.752279</v>
+        <v>0.751895</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.514073</v>
+        <v>0.513907</v>
       </c>
       <c r="C63" t="n">
-        <v>0.614874</v>
+        <v>0.61474</v>
       </c>
       <c r="D63" t="n">
-        <v>0.736456</v>
+        <v>0.735201</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.507227</v>
+        <v>0.506949</v>
       </c>
       <c r="C64" t="n">
-        <v>0.599573</v>
+        <v>0.600104</v>
       </c>
       <c r="D64" t="n">
-        <v>0.720546</v>
+        <v>0.721635</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.503315</v>
+        <v>0.502867</v>
       </c>
       <c r="C65" t="n">
-        <v>0.587904</v>
+        <v>0.590814</v>
       </c>
       <c r="D65" t="n">
-        <v>0.708896</v>
+        <v>0.710618</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5017</v>
+        <v>0.501368</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5781500000000001</v>
+        <v>0.578163</v>
       </c>
       <c r="D66" t="n">
-        <v>1.05248</v>
+        <v>1.05244</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.717854</v>
+        <v>0.717642</v>
       </c>
       <c r="C67" t="n">
-        <v>0.886679</v>
+        <v>0.885647</v>
       </c>
       <c r="D67" t="n">
-        <v>1.02089</v>
+        <v>1.01907</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.70031</v>
+        <v>0.699291</v>
       </c>
       <c r="C68" t="n">
-        <v>0.863187</v>
+        <v>0.858167</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9932839999999999</v>
+        <v>0.989697</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.684425</v>
+        <v>0.684304</v>
       </c>
       <c r="C69" t="n">
-        <v>0.838126</v>
+        <v>0.834303</v>
       </c>
       <c r="D69" t="n">
-        <v>0.963633</v>
+        <v>0.960645</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6709619999999999</v>
+        <v>0.6682399999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.812284</v>
+        <v>0.80855</v>
       </c>
       <c r="D70" t="n">
-        <v>0.93524</v>
+        <v>0.933626</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.653608</v>
+        <v>0.653293</v>
       </c>
       <c r="C71" t="n">
-        <v>0.787394</v>
+        <v>0.786231</v>
       </c>
       <c r="D71" t="n">
-        <v>0.908876</v>
+        <v>0.908234</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.639401</v>
+        <v>0.6392640000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>0.764883</v>
+        <v>0.764422</v>
       </c>
       <c r="D72" t="n">
-        <v>0.8843220000000001</v>
+        <v>0.883875</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.625358</v>
+        <v>0.624327</v>
       </c>
       <c r="C73" t="n">
-        <v>0.743386</v>
+        <v>0.741333</v>
       </c>
       <c r="D73" t="n">
-        <v>0.860962</v>
+        <v>0.859921</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.6116239999999999</v>
+        <v>0.61149</v>
       </c>
       <c r="C74" t="n">
-        <v>0.723319</v>
+        <v>0.720932</v>
       </c>
       <c r="D74" t="n">
-        <v>0.838391</v>
+        <v>0.837773</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.599743</v>
+        <v>0.5989719999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>0.704033</v>
+        <v>0.702936</v>
       </c>
       <c r="D75" t="n">
-        <v>0.817585</v>
+        <v>0.81665</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.588503</v>
+        <v>0.587409</v>
       </c>
       <c r="C76" t="n">
-        <v>0.685775</v>
+        <v>0.684871</v>
       </c>
       <c r="D76" t="n">
-        <v>0.798288</v>
+        <v>0.797821</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.576668</v>
+        <v>0.578393</v>
       </c>
       <c r="C77" t="n">
-        <v>0.667539</v>
+        <v>0.669217</v>
       </c>
       <c r="D77" t="n">
-        <v>0.780389</v>
+        <v>0.78089</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5693</v>
+        <v>0.5696909999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.655989</v>
+        <v>0.653959</v>
       </c>
       <c r="D78" t="n">
-        <v>0.765853</v>
+        <v>0.765391</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.563396</v>
+        <v>0.563788</v>
       </c>
       <c r="C79" t="n">
-        <v>0.640314</v>
+        <v>0.640916</v>
       </c>
       <c r="D79" t="n">
-        <v>0.752423</v>
+        <v>0.751935</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.557797</v>
+        <v>0.559697</v>
       </c>
       <c r="C80" t="n">
-        <v>0.628259</v>
+        <v>0.631517</v>
       </c>
       <c r="D80" t="n">
-        <v>1.12837</v>
+        <v>1.12875</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.786722</v>
+        <v>0.791283</v>
       </c>
       <c r="C81" t="n">
-        <v>0.96727</v>
+        <v>0.968903</v>
       </c>
       <c r="D81" t="n">
-        <v>1.10699</v>
+        <v>1.10865</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.779631</v>
+        <v>0.78427</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9530920000000001</v>
+        <v>0.9533740000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>1.08595</v>
+        <v>1.0865</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.769943</v>
+        <v>0.774494</v>
       </c>
       <c r="C83" t="n">
-        <v>0.933045</v>
+        <v>0.935764</v>
       </c>
       <c r="D83" t="n">
-        <v>1.06315</v>
+        <v>1.06264</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.760419</v>
+        <v>0.76358</v>
       </c>
       <c r="C84" t="n">
-        <v>0.913418</v>
+        <v>0.915194</v>
       </c>
       <c r="D84" t="n">
-        <v>1.03935</v>
+        <v>1.03848</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.75076</v>
+        <v>0.753156</v>
       </c>
       <c r="C85" t="n">
-        <v>0.890678</v>
+        <v>0.894742</v>
       </c>
       <c r="D85" t="n">
-        <v>1.01373</v>
+        <v>1.01332</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.739931</v>
+        <v>0.742559</v>
       </c>
       <c r="C86" t="n">
-        <v>0.87102</v>
+        <v>0.874387</v>
       </c>
       <c r="D86" t="n">
-        <v>0.986855</v>
+        <v>0.988783</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.728942</v>
+        <v>0.731487</v>
       </c>
       <c r="C87" t="n">
-        <v>0.851061</v>
+        <v>0.854005</v>
       </c>
       <c r="D87" t="n">
-        <v>0.964993</v>
+        <v>0.9643969999999999</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.71816</v>
+        <v>0.7215240000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>0.833968</v>
+        <v>0.835091</v>
       </c>
       <c r="D88" t="n">
-        <v>0.941792</v>
+        <v>0.941489</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.707795</v>
+        <v>0.710896</v>
       </c>
       <c r="C89" t="n">
-        <v>0.812783</v>
+        <v>0.815955</v>
       </c>
       <c r="D89" t="n">
-        <v>0.919655</v>
+        <v>0.919339</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.698461</v>
+        <v>0.700913</v>
       </c>
       <c r="C90" t="n">
-        <v>0.795135</v>
+        <v>0.797872</v>
       </c>
       <c r="D90" t="n">
-        <v>0.8965070000000001</v>
+        <v>0.896778</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.687474</v>
+        <v>0.691795</v>
       </c>
       <c r="C91" t="n">
-        <v>0.778674</v>
+        <v>0.780502</v>
       </c>
       <c r="D91" t="n">
-        <v>0.877514</v>
+        <v>0.877807</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.679543</v>
+        <v>0.683761</v>
       </c>
       <c r="C92" t="n">
-        <v>0.757853</v>
+        <v>0.765259</v>
       </c>
       <c r="D92" t="n">
-        <v>0.856369</v>
+        <v>0.860534</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.670663</v>
+        <v>0.6770659999999999</v>
       </c>
       <c r="C93" t="n">
-        <v>0.738388</v>
+        <v>0.7508</v>
       </c>
       <c r="D93" t="n">
-        <v>0.8413580000000001</v>
+        <v>0.8448329999999999</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.667866</v>
+        <v>0.672392</v>
       </c>
       <c r="C94" t="n">
-        <v>0.735263</v>
+        <v>0.739089</v>
       </c>
       <c r="D94" t="n">
-        <v>1.22088</v>
+        <v>1.22963</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.900733</v>
+        <v>0.9075260000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>1.07085</v>
+        <v>1.08058</v>
       </c>
       <c r="D95" t="n">
-        <v>1.21617</v>
+        <v>1.21955</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.8997540000000001</v>
+        <v>0.9042750000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>1.06094</v>
+        <v>1.07317</v>
       </c>
       <c r="D96" t="n">
-        <v>1.20276</v>
+        <v>1.20395</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.891151</v>
+        <v>0.894221</v>
       </c>
       <c r="C97" t="n">
-        <v>1.05147</v>
+        <v>1.05609</v>
       </c>
       <c r="D97" t="n">
-        <v>1.18401</v>
+        <v>1.18604</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.881319</v>
+        <v>0.884898</v>
       </c>
       <c r="C98" t="n">
-        <v>1.03732</v>
+        <v>1.04036</v>
       </c>
       <c r="D98" t="n">
-        <v>1.16236</v>
+        <v>1.16542</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.871177</v>
+        <v>0.874664</v>
       </c>
       <c r="C99" t="n">
-        <v>1.01837</v>
+        <v>1.02114</v>
       </c>
       <c r="D99" t="n">
-        <v>1.13911</v>
+        <v>1.144</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.860439</v>
+        <v>0.863872</v>
       </c>
       <c r="C100" t="n">
-        <v>0.998602</v>
+        <v>1.00419</v>
       </c>
       <c r="D100" t="n">
-        <v>1.11937</v>
+        <v>1.12582</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.851004</v>
+        <v>0.853859</v>
       </c>
       <c r="C101" t="n">
-        <v>0.979371</v>
+        <v>0.9886200000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>1.10493</v>
+        <v>1.10669</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.842092</v>
+        <v>0.845359</v>
       </c>
       <c r="C102" t="n">
-        <v>0.966926</v>
+        <v>0.9729</v>
       </c>
       <c r="D102" t="n">
-        <v>1.08354</v>
+        <v>1.08726</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.834296</v>
+        <v>0.835539</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9562659999999999</v>
+        <v>0.9555630000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>1.06609</v>
+        <v>1.07104</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.826229</v>
+        <v>0.829017</v>
       </c>
       <c r="C104" t="n">
-        <v>0.942785</v>
+        <v>0.943241</v>
       </c>
       <c r="D104" t="n">
-        <v>1.05421</v>
+        <v>1.05485</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.819394</v>
+        <v>0.821622</v>
       </c>
       <c r="C105" t="n">
-        <v>0.93028</v>
+        <v>0.930436</v>
       </c>
       <c r="D105" t="n">
-        <v>1.03803</v>
+        <v>1.04033</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.813186</v>
+        <v>0.816322</v>
       </c>
       <c r="C106" t="n">
-        <v>0.910808</v>
+        <v>0.920359</v>
       </c>
       <c r="D106" t="n">
-        <v>1.01919</v>
+        <v>1.02632</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.809949</v>
+        <v>0.812357</v>
       </c>
       <c r="C107" t="n">
-        <v>0.902644</v>
+        <v>0.910918</v>
       </c>
       <c r="D107" t="n">
-        <v>1.00969</v>
+        <v>1.01503</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.8082819999999999</v>
+        <v>0.810491</v>
       </c>
       <c r="C108" t="n">
-        <v>0.895353</v>
+        <v>0.902135</v>
       </c>
       <c r="D108" t="n">
-        <v>1.38838</v>
+        <v>1.39369</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.8091739999999999</v>
+        <v>0.811258</v>
       </c>
       <c r="C109" t="n">
-        <v>0.8964029999999999</v>
+        <v>0.8971</v>
       </c>
       <c r="D109" t="n">
-        <v>1.38194</v>
+        <v>1.38601</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.03401</v>
+        <v>1.03688</v>
       </c>
       <c r="C110" t="n">
-        <v>1.22842</v>
+        <v>1.23843</v>
       </c>
       <c r="D110" t="n">
-        <v>1.37325</v>
+        <v>1.37389</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.02225</v>
+        <v>1.02479</v>
       </c>
       <c r="C111" t="n">
-        <v>1.21827</v>
+        <v>1.21996</v>
       </c>
       <c r="D111" t="n">
-        <v>1.3607</v>
+        <v>1.36093</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.01075</v>
+        <v>1.01242</v>
       </c>
       <c r="C112" t="n">
-        <v>1.20174</v>
+        <v>1.20348</v>
       </c>
       <c r="D112" t="n">
-        <v>1.34688</v>
+        <v>1.34871</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.998565</v>
+        <v>1.00059</v>
       </c>
       <c r="C113" t="n">
-        <v>1.18431</v>
+        <v>1.18644</v>
       </c>
       <c r="D113" t="n">
-        <v>1.33508</v>
+        <v>1.33575</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.987349</v>
+        <v>0.990117</v>
       </c>
       <c r="C114" t="n">
-        <v>1.167</v>
+        <v>1.16992</v>
       </c>
       <c r="D114" t="n">
-        <v>1.32383</v>
+        <v>1.325</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.977806</v>
+        <v>0.980144</v>
       </c>
       <c r="C115" t="n">
-        <v>1.14823</v>
+        <v>1.15364</v>
       </c>
       <c r="D115" t="n">
-        <v>1.31003</v>
+        <v>1.30904</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.968041</v>
+        <v>0.970373</v>
       </c>
       <c r="C116" t="n">
-        <v>1.13777</v>
+        <v>1.13999</v>
       </c>
       <c r="D116" t="n">
-        <v>1.30154</v>
+        <v>1.30287</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.9598410000000001</v>
+        <v>0.960908</v>
       </c>
       <c r="C117" t="n">
-        <v>1.12524</v>
+        <v>1.12624</v>
       </c>
       <c r="D117" t="n">
-        <v>1.29534</v>
+        <v>1.29209</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.951521</v>
+        <v>0.952895</v>
       </c>
       <c r="C118" t="n">
-        <v>1.11354</v>
+        <v>1.11351</v>
       </c>
       <c r="D118" t="n">
-        <v>1.28388</v>
+        <v>1.28377</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.944978</v>
+        <v>0.945661</v>
       </c>
       <c r="C119" t="n">
-        <v>1.10113</v>
+        <v>1.10541</v>
       </c>
       <c r="D119" t="n">
-        <v>1.26466</v>
+        <v>1.27035</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.939073</v>
+        <v>0.940284</v>
       </c>
       <c r="C120" t="n">
-        <v>1.08923</v>
+        <v>1.09226</v>
       </c>
       <c r="D120" t="n">
-        <v>1.26428</v>
+        <v>1.26281</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.934409</v>
+        <v>0.935959</v>
       </c>
       <c r="C121" t="n">
-        <v>1.08173</v>
+        <v>1.08498</v>
       </c>
       <c r="D121" t="n">
-        <v>1.24621</v>
+        <v>1.25806</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.930932</v>
+        <v>0.9334440000000001</v>
       </c>
       <c r="C122" t="n">
-        <v>1.07475</v>
+        <v>1.0791</v>
       </c>
       <c r="D122" t="n">
-        <v>1.24746</v>
+        <v>1.25022</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.931882</v>
+        <v>0.9342</v>
       </c>
       <c r="C123" t="n">
-        <v>1.06791</v>
+        <v>1.06969</v>
       </c>
       <c r="D123" t="n">
-        <v>1.62737</v>
+        <v>1.62588</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.15841</v>
+        <v>1.16113</v>
       </c>
       <c r="C124" t="n">
-        <v>1.40927</v>
+        <v>1.41211</v>
       </c>
       <c r="D124" t="n">
-        <v>1.61271</v>
+        <v>1.61555</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.14745</v>
+        <v>1.14954</v>
       </c>
       <c r="C125" t="n">
-        <v>1.39385</v>
+        <v>1.39956</v>
       </c>
       <c r="D125" t="n">
-        <v>1.59821</v>
+        <v>1.60178</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.13671</v>
+        <v>1.13849</v>
       </c>
       <c r="C126" t="n">
-        <v>1.37893</v>
+        <v>1.38285</v>
       </c>
       <c r="D126" t="n">
-        <v>1.58598</v>
+        <v>1.58722</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.12583</v>
+        <v>1.12809</v>
       </c>
       <c r="C127" t="n">
-        <v>1.36474</v>
+        <v>1.36768</v>
       </c>
       <c r="D127" t="n">
-        <v>1.57403</v>
+        <v>1.57535</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.11646</v>
+        <v>1.11964</v>
       </c>
       <c r="C128" t="n">
-        <v>1.35085</v>
+        <v>1.35469</v>
       </c>
       <c r="D128" t="n">
-        <v>1.56761</v>
+        <v>1.56562</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.10808</v>
+        <v>1.11054</v>
       </c>
       <c r="C129" t="n">
-        <v>1.33682</v>
+        <v>1.34308</v>
       </c>
       <c r="D129" t="n">
-        <v>1.54873</v>
+        <v>1.55589</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.10049</v>
+        <v>1.1028</v>
       </c>
       <c r="C130" t="n">
-        <v>1.32634</v>
+        <v>1.33129</v>
       </c>
       <c r="D130" t="n">
-        <v>1.54115</v>
+        <v>1.54601</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.09355</v>
+        <v>1.09497</v>
       </c>
       <c r="C131" t="n">
-        <v>1.31558</v>
+        <v>1.31974</v>
       </c>
       <c r="D131" t="n">
-        <v>1.52845</v>
+        <v>1.5393</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.087</v>
+        <v>1.0894</v>
       </c>
       <c r="C132" t="n">
-        <v>1.30665</v>
+        <v>1.31054</v>
       </c>
       <c r="D132" t="n">
-        <v>1.5319</v>
+        <v>1.52632</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.08303</v>
+        <v>1.0842</v>
       </c>
       <c r="C133" t="n">
-        <v>1.29876</v>
+        <v>1.30147</v>
       </c>
       <c r="D133" t="n">
-        <v>1.52377</v>
+        <v>1.52151</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.07886</v>
+        <v>1.07999</v>
       </c>
       <c r="C134" t="n">
-        <v>1.2905</v>
+        <v>1.29332</v>
       </c>
       <c r="D134" t="n">
-        <v>1.51336</v>
+        <v>1.51456</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.07685</v>
+        <v>1.07759</v>
       </c>
       <c r="C135" t="n">
-        <v>1.28304</v>
+        <v>1.28542</v>
       </c>
       <c r="D135" t="n">
-        <v>1.50222</v>
+        <v>1.50756</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.07554</v>
+        <v>1.07729</v>
       </c>
       <c r="C136" t="n">
-        <v>1.27764</v>
+        <v>1.28135</v>
       </c>
       <c r="D136" t="n">
-        <v>1.50002</v>
+        <v>1.50879</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.07606</v>
+        <v>1.07903</v>
       </c>
       <c r="C137" t="n">
-        <v>1.27487</v>
+        <v>1.27719</v>
       </c>
       <c r="D137" t="n">
-        <v>1.87126</v>
+        <v>1.88007</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.30446</v>
+        <v>1.30579</v>
       </c>
       <c r="C138" t="n">
-        <v>1.61422</v>
+        <v>1.61542</v>
       </c>
       <c r="D138" t="n">
-        <v>1.85832</v>
+        <v>1.85856</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.29629</v>
+        <v>1.29624</v>
       </c>
       <c r="C139" t="n">
-        <v>1.60108</v>
+        <v>1.60168</v>
       </c>
       <c r="D139" t="n">
-        <v>1.83684</v>
+        <v>1.84135</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.28804</v>
+        <v>1.28881</v>
       </c>
       <c r="C140" t="n">
-        <v>1.58639</v>
+        <v>1.58829</v>
       </c>
       <c r="D140" t="n">
-        <v>1.82431</v>
+        <v>1.82327</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.27933</v>
+        <v>1.28116</v>
       </c>
       <c r="C141" t="n">
-        <v>1.57329</v>
+        <v>1.5781</v>
       </c>
       <c r="D141" t="n">
-        <v>1.81431</v>
+        <v>1.8068</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.27297</v>
+        <v>1.27449</v>
       </c>
       <c r="C142" t="n">
-        <v>1.56202</v>
+        <v>1.5648</v>
       </c>
       <c r="D142" t="n">
-        <v>1.79093</v>
+        <v>1.79116</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.26641</v>
+        <v>1.26758</v>
       </c>
       <c r="C143" t="n">
-        <v>1.5518</v>
+        <v>1.55395</v>
       </c>
       <c r="D143" t="n">
-        <v>1.77915</v>
+        <v>1.77586</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3272,13 +3272,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.482287</v>
+        <v>0.483387</v>
       </c>
       <c r="C2" t="n">
-        <v>0.585862</v>
+        <v>0.58584</v>
       </c>
       <c r="D2" t="n">
-        <v>0.709507</v>
+        <v>0.701215</v>
       </c>
     </row>
     <row r="3">
@@ -3286,13 +3286,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4734</v>
+        <v>0.473557</v>
       </c>
       <c r="C3" t="n">
-        <v>0.577138</v>
+        <v>0.57652</v>
       </c>
       <c r="D3" t="n">
-        <v>0.690595</v>
+        <v>0.682491</v>
       </c>
     </row>
     <row r="4">
@@ -3300,13 +3300,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.462368</v>
+        <v>0.462813</v>
       </c>
       <c r="C4" t="n">
-        <v>0.570564</v>
+        <v>0.5699610000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.673247</v>
+        <v>0.665847</v>
       </c>
     </row>
     <row r="5">
@@ -3314,13 +3314,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.452622</v>
+        <v>0.453406</v>
       </c>
       <c r="C5" t="n">
-        <v>0.566211</v>
+        <v>0.565674</v>
       </c>
       <c r="D5" t="n">
-        <v>0.657385</v>
+        <v>0.649956</v>
       </c>
     </row>
     <row r="6">
@@ -3328,13 +3328,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.445717</v>
+        <v>0.446018</v>
       </c>
       <c r="C6" t="n">
-        <v>0.563151</v>
+        <v>0.563352</v>
       </c>
       <c r="D6" t="n">
-        <v>0.641938</v>
+        <v>0.635289</v>
       </c>
     </row>
     <row r="7">
@@ -3342,13 +3342,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.439953</v>
+        <v>0.440354</v>
       </c>
       <c r="C7" t="n">
-        <v>0.562297</v>
+        <v>0.561814</v>
       </c>
       <c r="D7" t="n">
-        <v>0.629417</v>
+        <v>0.623152</v>
       </c>
     </row>
     <row r="8">
@@ -3356,13 +3356,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.437012</v>
+        <v>0.437783</v>
       </c>
       <c r="C8" t="n">
-        <v>0.670007</v>
+        <v>0.6691859999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.618702</v>
+        <v>0.61282</v>
       </c>
     </row>
     <row r="9">
@@ -3370,13 +3370,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.437647</v>
+        <v>0.438218</v>
       </c>
       <c r="C9" t="n">
-        <v>0.652575</v>
+        <v>0.65225</v>
       </c>
       <c r="D9" t="n">
-        <v>0.915394</v>
+        <v>0.904294</v>
       </c>
     </row>
     <row r="10">
@@ -3384,13 +3384,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.573296</v>
+        <v>0.574406</v>
       </c>
       <c r="C10" t="n">
-        <v>0.59346</v>
+        <v>0.591732</v>
       </c>
       <c r="D10" t="n">
-        <v>0.886586</v>
+        <v>0.875683</v>
       </c>
     </row>
     <row r="11">
@@ -3398,13 +3398,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.555489</v>
+        <v>0.556056</v>
       </c>
       <c r="C11" t="n">
-        <v>0.577386</v>
+        <v>0.57589</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8581</v>
+        <v>0.84857</v>
       </c>
     </row>
     <row r="12">
@@ -3412,13 +3412,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.539316</v>
+        <v>0.539883</v>
       </c>
       <c r="C12" t="n">
-        <v>0.564219</v>
+        <v>0.563415</v>
       </c>
       <c r="D12" t="n">
-        <v>0.831639</v>
+        <v>0.822572</v>
       </c>
     </row>
     <row r="13">
@@ -3426,13 +3426,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.523661</v>
+        <v>0.524344</v>
       </c>
       <c r="C13" t="n">
-        <v>0.592815</v>
+        <v>0.593731</v>
       </c>
       <c r="D13" t="n">
-        <v>0.806749</v>
+        <v>0.798868</v>
       </c>
     </row>
     <row r="14">
@@ -3440,13 +3440,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5087429999999999</v>
+        <v>0.509346</v>
       </c>
       <c r="C14" t="n">
-        <v>0.58347</v>
+        <v>0.584456</v>
       </c>
       <c r="D14" t="n">
-        <v>0.783138</v>
+        <v>0.774763</v>
       </c>
     </row>
     <row r="15">
@@ -3454,13 +3454,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.495331</v>
+        <v>0.495601</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5745</v>
+        <v>0.574783</v>
       </c>
       <c r="D15" t="n">
-        <v>0.760167</v>
+        <v>0.752095</v>
       </c>
     </row>
     <row r="16">
@@ -3468,13 +3468,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.482332</v>
+        <v>0.482552</v>
       </c>
       <c r="C16" t="n">
-        <v>0.566862</v>
+        <v>0.567283</v>
       </c>
       <c r="D16" t="n">
-        <v>0.739159</v>
+        <v>0.731473</v>
       </c>
     </row>
     <row r="17">
@@ -3482,13 +3482,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.470637</v>
+        <v>0.470902</v>
       </c>
       <c r="C17" t="n">
-        <v>0.559981</v>
+        <v>0.56321</v>
       </c>
       <c r="D17" t="n">
-        <v>0.719448</v>
+        <v>0.712071</v>
       </c>
     </row>
     <row r="18">
@@ -3496,13 +3496,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.460407</v>
+        <v>0.460955</v>
       </c>
       <c r="C18" t="n">
-        <v>0.555183</v>
+        <v>0.556656</v>
       </c>
       <c r="D18" t="n">
-        <v>0.70046</v>
+        <v>0.693609</v>
       </c>
     </row>
     <row r="19">
@@ -3510,13 +3510,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.450465</v>
+        <v>0.451649</v>
       </c>
       <c r="C19" t="n">
-        <v>0.552501</v>
+        <v>0.553768</v>
       </c>
       <c r="D19" t="n">
-        <v>0.683866</v>
+        <v>0.677565</v>
       </c>
     </row>
     <row r="20">
@@ -3524,13 +3524,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.443487</v>
+        <v>0.444488</v>
       </c>
       <c r="C20" t="n">
-        <v>0.549817</v>
+        <v>0.551248</v>
       </c>
       <c r="D20" t="n">
-        <v>0.667685</v>
+        <v>0.661606</v>
       </c>
     </row>
     <row r="21">
@@ -3538,13 +3538,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.437628</v>
+        <v>0.438086</v>
       </c>
       <c r="C21" t="n">
-        <v>0.549169</v>
+        <v>0.550685</v>
       </c>
       <c r="D21" t="n">
-        <v>0.654251</v>
+        <v>0.647919</v>
       </c>
     </row>
     <row r="22">
@@ -3552,13 +3552,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.43416</v>
+        <v>0.434506</v>
       </c>
       <c r="C22" t="n">
-        <v>0.672211</v>
+        <v>0.67318</v>
       </c>
       <c r="D22" t="n">
-        <v>0.644581</v>
+        <v>0.63808</v>
       </c>
     </row>
     <row r="23">
@@ -3566,13 +3566,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.435533</v>
+        <v>0.43628</v>
       </c>
       <c r="C23" t="n">
-        <v>0.656548</v>
+        <v>0.658203</v>
       </c>
       <c r="D23" t="n">
-        <v>0.954831</v>
+        <v>0.943221</v>
       </c>
     </row>
     <row r="24">
@@ -3580,13 +3580,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.624115</v>
+        <v>0.6251409999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.645739</v>
+        <v>0.64493</v>
       </c>
       <c r="D24" t="n">
-        <v>0.924907</v>
+        <v>0.913578</v>
       </c>
     </row>
     <row r="25">
@@ -3594,13 +3594,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.605314</v>
+        <v>0.606259</v>
       </c>
       <c r="C25" t="n">
-        <v>0.631574</v>
+        <v>0.631583</v>
       </c>
       <c r="D25" t="n">
-        <v>0.896045</v>
+        <v>0.885236</v>
       </c>
     </row>
     <row r="26">
@@ -3608,13 +3608,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5864279999999999</v>
+        <v>0.5878139999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6188940000000001</v>
+        <v>0.614666</v>
       </c>
       <c r="D26" t="n">
-        <v>0.868183</v>
+        <v>0.858074</v>
       </c>
     </row>
     <row r="27">
@@ -3622,13 +3622,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.569169</v>
+        <v>0.570369</v>
       </c>
       <c r="C27" t="n">
-        <v>0.648257</v>
+        <v>0.649829</v>
       </c>
       <c r="D27" t="n">
-        <v>0.841466</v>
+        <v>0.832438</v>
       </c>
     </row>
     <row r="28">
@@ -3636,13 +3636,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.552991</v>
+        <v>0.553828</v>
       </c>
       <c r="C28" t="n">
-        <v>0.635229</v>
+        <v>0.6371790000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.817329</v>
+        <v>0.808096</v>
       </c>
     </row>
     <row r="29">
@@ -3650,13 +3650,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.537506</v>
+        <v>0.5381050000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.628458</v>
+        <v>0.627954</v>
       </c>
       <c r="D29" t="n">
-        <v>0.793703</v>
+        <v>0.784725</v>
       </c>
     </row>
     <row r="30">
@@ -3664,13 +3664,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.522447</v>
+        <v>0.52381</v>
       </c>
       <c r="C30" t="n">
-        <v>0.619063</v>
+        <v>0.617221</v>
       </c>
       <c r="D30" t="n">
-        <v>0.771329</v>
+        <v>0.762889</v>
       </c>
     </row>
     <row r="31">
@@ -3678,13 +3678,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.508849</v>
+        <v>0.510408</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6057090000000001</v>
+        <v>0.611201</v>
       </c>
       <c r="D31" t="n">
-        <v>0.750514</v>
+        <v>0.742526</v>
       </c>
     </row>
     <row r="32">
@@ -3692,13 +3692,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.49651</v>
+        <v>0.498136</v>
       </c>
       <c r="C32" t="n">
-        <v>0.599869</v>
+        <v>0.601837</v>
       </c>
       <c r="D32" t="n">
-        <v>0.730263</v>
+        <v>0.723346</v>
       </c>
     </row>
     <row r="33">
@@ -3706,13 +3706,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.485505</v>
+        <v>0.486665</v>
       </c>
       <c r="C33" t="n">
-        <v>0.597742</v>
+        <v>0.600342</v>
       </c>
       <c r="D33" t="n">
-        <v>0.712607</v>
+        <v>0.705224</v>
       </c>
     </row>
     <row r="34">
@@ -3720,13 +3720,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.474462</v>
+        <v>0.476813</v>
       </c>
       <c r="C34" t="n">
-        <v>0.59383</v>
+        <v>0.596961</v>
       </c>
       <c r="D34" t="n">
-        <v>0.696069</v>
+        <v>0.689153</v>
       </c>
     </row>
     <row r="35">
@@ -3734,13 +3734,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.46855</v>
+        <v>0.469253</v>
       </c>
       <c r="C35" t="n">
-        <v>0.593589</v>
+        <v>0.595705</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6812</v>
+        <v>0.6750429999999999</v>
       </c>
     </row>
     <row r="36">
@@ -3748,13 +3748,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.462629</v>
+        <v>0.463199</v>
       </c>
       <c r="C36" t="n">
-        <v>0.591625</v>
+        <v>0.599592</v>
       </c>
       <c r="D36" t="n">
-        <v>0.669045</v>
+        <v>0.66266</v>
       </c>
     </row>
     <row r="37">
@@ -3762,13 +3762,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.457974</v>
+        <v>0.460239</v>
       </c>
       <c r="C37" t="n">
-        <v>0.745098</v>
+        <v>0.745393</v>
       </c>
       <c r="D37" t="n">
-        <v>0.990685</v>
+        <v>0.97895</v>
       </c>
     </row>
     <row r="38">
@@ -3776,13 +3776,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.652631</v>
+        <v>0.654477</v>
       </c>
       <c r="C38" t="n">
-        <v>0.724506</v>
+        <v>0.7268869999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9593930000000001</v>
+        <v>0.948642</v>
       </c>
     </row>
     <row r="39">
@@ -3790,13 +3790,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.632059</v>
+        <v>0.635095</v>
       </c>
       <c r="C39" t="n">
-        <v>0.705839</v>
+        <v>0.710734</v>
       </c>
       <c r="D39" t="n">
-        <v>0.929171</v>
+        <v>0.919361</v>
       </c>
     </row>
     <row r="40">
@@ -3804,13 +3804,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.61261</v>
+        <v>0.616072</v>
       </c>
       <c r="C40" t="n">
-        <v>0.693483</v>
+        <v>0.692881</v>
       </c>
       <c r="D40" t="n">
-        <v>0.901048</v>
+        <v>0.890913</v>
       </c>
     </row>
     <row r="41">
@@ -3818,13 +3818,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.596239</v>
+        <v>0.597332</v>
       </c>
       <c r="C41" t="n">
-        <v>0.720475</v>
+        <v>0.719777</v>
       </c>
       <c r="D41" t="n">
-        <v>0.873824</v>
+        <v>0.863636</v>
       </c>
     </row>
     <row r="42">
@@ -3832,13 +3832,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.578474</v>
+        <v>0.579126</v>
       </c>
       <c r="C42" t="n">
-        <v>0.7068759999999999</v>
+        <v>0.702533</v>
       </c>
       <c r="D42" t="n">
-        <v>0.848337</v>
+        <v>0.838311</v>
       </c>
     </row>
     <row r="43">
@@ -3846,13 +3846,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.562859</v>
+        <v>0.563708</v>
       </c>
       <c r="C43" t="n">
-        <v>0.691578</v>
+        <v>0.692605</v>
       </c>
       <c r="D43" t="n">
-        <v>0.823718</v>
+        <v>0.8151389999999999</v>
       </c>
     </row>
     <row r="44">
@@ -3860,13 +3860,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.545725</v>
+        <v>0.547598</v>
       </c>
       <c r="C44" t="n">
-        <v>0.678424</v>
+        <v>0.6789500000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.800269</v>
+        <v>0.791429</v>
       </c>
     </row>
     <row r="45">
@@ -3874,13 +3874,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.532903</v>
+        <v>0.534361</v>
       </c>
       <c r="C45" t="n">
-        <v>0.666977</v>
+        <v>0.66988</v>
       </c>
       <c r="D45" t="n">
-        <v>0.778284</v>
+        <v>0.769048</v>
       </c>
     </row>
     <row r="46">
@@ -3888,13 +3888,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.520359</v>
+        <v>0.521852</v>
       </c>
       <c r="C46" t="n">
-        <v>0.660956</v>
+        <v>0.660617</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7578859999999999</v>
+        <v>0.749849</v>
       </c>
     </row>
     <row r="47">
@@ -3902,13 +3902,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.507632</v>
+        <v>0.50934</v>
       </c>
       <c r="C47" t="n">
-        <v>0.654366</v>
+        <v>0.652967</v>
       </c>
       <c r="D47" t="n">
-        <v>0.738417</v>
+        <v>0.731567</v>
       </c>
     </row>
     <row r="48">
@@ -3916,13 +3916,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.497959</v>
+        <v>0.497527</v>
       </c>
       <c r="C48" t="n">
-        <v>0.645537</v>
+        <v>0.6501209999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.720905</v>
+        <v>0.713506</v>
       </c>
     </row>
     <row r="49">
@@ -3930,13 +3930,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.487145</v>
+        <v>0.489549</v>
       </c>
       <c r="C49" t="n">
-        <v>0.645909</v>
+        <v>0.64657</v>
       </c>
       <c r="D49" t="n">
-        <v>0.705029</v>
+        <v>0.697835</v>
       </c>
     </row>
     <row r="50">
@@ -3944,13 +3944,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.48258</v>
+        <v>0.484047</v>
       </c>
       <c r="C50" t="n">
-        <v>0.644759</v>
+        <v>0.645699</v>
       </c>
       <c r="D50" t="n">
-        <v>0.690885</v>
+        <v>0.684485</v>
       </c>
     </row>
     <row r="51">
@@ -3958,13 +3958,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.478541</v>
+        <v>0.478928</v>
       </c>
       <c r="C51" t="n">
-        <v>0.834111</v>
+        <v>0.837147</v>
       </c>
       <c r="D51" t="n">
-        <v>1.03594</v>
+        <v>1.02982</v>
       </c>
     </row>
     <row r="52">
@@ -3972,13 +3972,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.478893</v>
+        <v>0.477948</v>
       </c>
       <c r="C52" t="n">
-        <v>0.812734</v>
+        <v>0.812848</v>
       </c>
       <c r="D52" t="n">
-        <v>1.00483</v>
+        <v>0.995122</v>
       </c>
     </row>
     <row r="53">
@@ -3986,13 +3986,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.657914</v>
+        <v>0.662052</v>
       </c>
       <c r="C53" t="n">
-        <v>0.791705</v>
+        <v>0.79252</v>
       </c>
       <c r="D53" t="n">
-        <v>0.975403</v>
+        <v>0.967907</v>
       </c>
     </row>
     <row r="54">
@@ -4000,13 +4000,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.639093</v>
+        <v>0.642861</v>
       </c>
       <c r="C54" t="n">
-        <v>0.771714</v>
+        <v>0.773508</v>
       </c>
       <c r="D54" t="n">
-        <v>0.946261</v>
+        <v>0.939051</v>
       </c>
     </row>
     <row r="55">
@@ -4014,13 +4014,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.619993</v>
+        <v>0.6232529999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>0.754092</v>
+        <v>0.7563029999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.916844</v>
+        <v>0.91169</v>
       </c>
     </row>
     <row r="56">
@@ -4028,13 +4028,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.603666</v>
+        <v>0.606171</v>
       </c>
       <c r="C56" t="n">
-        <v>0.780918</v>
+        <v>0.784826</v>
       </c>
       <c r="D56" t="n">
-        <v>0.8906500000000001</v>
+        <v>0.88463</v>
       </c>
     </row>
     <row r="57">
@@ -4042,13 +4042,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.586699</v>
+        <v>0.589901</v>
       </c>
       <c r="C57" t="n">
-        <v>0.76383</v>
+        <v>0.768537</v>
       </c>
       <c r="D57" t="n">
-        <v>0.867242</v>
+        <v>0.859433</v>
       </c>
     </row>
     <row r="58">
@@ -4056,13 +4056,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.57104</v>
+        <v>0.575147</v>
       </c>
       <c r="C58" t="n">
-        <v>0.748192</v>
+        <v>0.75326</v>
       </c>
       <c r="D58" t="n">
-        <v>0.8416130000000001</v>
+        <v>0.836618</v>
       </c>
     </row>
     <row r="59">
@@ -4070,13 +4070,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.556803</v>
+        <v>0.559943</v>
       </c>
       <c r="C59" t="n">
-        <v>0.736811</v>
+        <v>0.738985</v>
       </c>
       <c r="D59" t="n">
-        <v>0.8206290000000001</v>
+        <v>0.814069</v>
       </c>
     </row>
     <row r="60">
@@ -4084,13 +4084,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.543054</v>
+        <v>0.547756</v>
       </c>
       <c r="C60" t="n">
-        <v>0.72422</v>
+        <v>0.730026</v>
       </c>
       <c r="D60" t="n">
-        <v>0.799264</v>
+        <v>0.794608</v>
       </c>
     </row>
     <row r="61">
@@ -4098,13 +4098,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.531927</v>
+        <v>0.535947</v>
       </c>
       <c r="C61" t="n">
-        <v>0.713917</v>
+        <v>0.717654</v>
       </c>
       <c r="D61" t="n">
-        <v>0.778658</v>
+        <v>0.774088</v>
       </c>
     </row>
     <row r="62">
@@ -4112,13 +4112,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.520614</v>
+        <v>0.524809</v>
       </c>
       <c r="C62" t="n">
-        <v>0.70585</v>
+        <v>0.711168</v>
       </c>
       <c r="D62" t="n">
-        <v>0.759034</v>
+        <v>0.75589</v>
       </c>
     </row>
     <row r="63">
@@ -4126,13 +4126,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.512085</v>
+        <v>0.5159629999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.701291</v>
+        <v>0.706521</v>
       </c>
       <c r="D63" t="n">
-        <v>0.74251</v>
+        <v>0.740767</v>
       </c>
     </row>
     <row r="64">
@@ -4140,13 +4140,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.505813</v>
+        <v>0.509004</v>
       </c>
       <c r="C64" t="n">
-        <v>0.695029</v>
+        <v>0.70208</v>
       </c>
       <c r="D64" t="n">
-        <v>0.72703</v>
+        <v>0.724849</v>
       </c>
     </row>
     <row r="65">
@@ -4154,13 +4154,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.501394</v>
+        <v>0.502791</v>
       </c>
       <c r="C65" t="n">
-        <v>0.9346139999999999</v>
+        <v>0.941141</v>
       </c>
       <c r="D65" t="n">
-        <v>0.715814</v>
+        <v>0.712567</v>
       </c>
     </row>
     <row r="66">
@@ -4168,13 +4168,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.500241</v>
+        <v>0.500969</v>
       </c>
       <c r="C66" t="n">
-        <v>0.90769</v>
+        <v>0.9139659999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>1.07576</v>
+        <v>1.06543</v>
       </c>
     </row>
     <row r="67">
@@ -4182,13 +4182,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.71285</v>
+        <v>0.716967</v>
       </c>
       <c r="C67" t="n">
-        <v>0.884399</v>
+        <v>0.888485</v>
       </c>
       <c r="D67" t="n">
-        <v>1.04498</v>
+        <v>1.03581</v>
       </c>
     </row>
     <row r="68">
@@ -4196,13 +4196,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.696109</v>
+        <v>0.7014010000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>0.858945</v>
+        <v>0.865823</v>
       </c>
       <c r="D68" t="n">
-        <v>1.01583</v>
+        <v>1.01091</v>
       </c>
     </row>
     <row r="69">
@@ -4210,13 +4210,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6788689999999999</v>
+        <v>0.687987</v>
       </c>
       <c r="C69" t="n">
-        <v>0.840496</v>
+        <v>0.8470259999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.984375</v>
+        <v>0.980204</v>
       </c>
     </row>
     <row r="70">
@@ -4224,13 +4224,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.662892</v>
+        <v>0.67166</v>
       </c>
       <c r="C70" t="n">
-        <v>0.87586</v>
+        <v>0.885537</v>
       </c>
       <c r="D70" t="n">
-        <v>0.957952</v>
+        <v>0.954651</v>
       </c>
     </row>
     <row r="71">
@@ -4238,13 +4238,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.6479009999999999</v>
+        <v>0.6577769999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>0.859194</v>
+        <v>0.867568</v>
       </c>
       <c r="D71" t="n">
-        <v>0.93336</v>
+        <v>0.927901</v>
       </c>
     </row>
     <row r="72">
@@ -4252,13 +4252,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.634377</v>
+        <v>0.642689</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8395629999999999</v>
+        <v>0.849728</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9084410000000001</v>
+        <v>0.901959</v>
       </c>
     </row>
     <row r="73">
@@ -4266,13 +4266,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.620539</v>
+        <v>0.625337</v>
       </c>
       <c r="C73" t="n">
-        <v>0.822864</v>
+        <v>0.829834</v>
       </c>
       <c r="D73" t="n">
-        <v>0.885798</v>
+        <v>0.877878</v>
       </c>
     </row>
     <row r="74">
@@ -4280,13 +4280,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.607303</v>
+        <v>0.614187</v>
       </c>
       <c r="C74" t="n">
-        <v>0.807103</v>
+        <v>0.815279</v>
       </c>
       <c r="D74" t="n">
-        <v>0.86175</v>
+        <v>0.856274</v>
       </c>
     </row>
     <row r="75">
@@ -4294,13 +4294,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.594942</v>
+        <v>0.60184</v>
       </c>
       <c r="C75" t="n">
-        <v>0.794164</v>
+        <v>0.803631</v>
       </c>
       <c r="D75" t="n">
-        <v>0.840166</v>
+        <v>0.837241</v>
       </c>
     </row>
     <row r="76">
@@ -4308,13 +4308,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.583969</v>
+        <v>0.591152</v>
       </c>
       <c r="C76" t="n">
-        <v>0.782591</v>
+        <v>0.790338</v>
       </c>
       <c r="D76" t="n">
-        <v>0.820528</v>
+        <v>0.817138</v>
       </c>
     </row>
     <row r="77">
@@ -4322,13 +4322,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.574759</v>
+        <v>0.5817639999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>0.773975</v>
+        <v>0.782639</v>
       </c>
       <c r="D77" t="n">
-        <v>0.803682</v>
+        <v>0.798352</v>
       </c>
     </row>
     <row r="78">
@@ -4336,13 +4336,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.568259</v>
+        <v>0.572363</v>
       </c>
       <c r="C78" t="n">
-        <v>0.767914</v>
+        <v>0.7742790000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.787413</v>
+        <v>0.782072</v>
       </c>
     </row>
     <row r="79">
@@ -4350,13 +4350,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.561199</v>
+        <v>0.566117</v>
       </c>
       <c r="C79" t="n">
-        <v>1.0473</v>
+        <v>1.05285</v>
       </c>
       <c r="D79" t="n">
-        <v>0.774558</v>
+        <v>0.7700360000000001</v>
       </c>
     </row>
     <row r="80">
@@ -4364,13 +4364,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.559257</v>
+        <v>0.561549</v>
       </c>
       <c r="C80" t="n">
-        <v>1.01456</v>
+        <v>1.02017</v>
       </c>
       <c r="D80" t="n">
-        <v>1.16394</v>
+        <v>1.15454</v>
       </c>
     </row>
     <row r="81">
@@ -4378,13 +4378,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.784887</v>
+        <v>0.7933480000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>0.987658</v>
+        <v>0.991003</v>
       </c>
       <c r="D81" t="n">
-        <v>1.14337</v>
+        <v>1.1354</v>
       </c>
     </row>
     <row r="82">
@@ -4392,13 +4392,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.779338</v>
+        <v>0.786126</v>
       </c>
       <c r="C82" t="n">
-        <v>0.959403</v>
+        <v>0.963618</v>
       </c>
       <c r="D82" t="n">
-        <v>1.12081</v>
+        <v>1.11345</v>
       </c>
     </row>
     <row r="83">
@@ -4406,13 +4406,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.772131</v>
+        <v>0.775819</v>
       </c>
       <c r="C83" t="n">
-        <v>0.935325</v>
+        <v>0.936517</v>
       </c>
       <c r="D83" t="n">
-        <v>1.09785</v>
+        <v>1.08787</v>
       </c>
     </row>
     <row r="84">
@@ -4420,13 +4420,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.761184</v>
+        <v>0.765155</v>
       </c>
       <c r="C84" t="n">
-        <v>0.979997</v>
+        <v>0.983899</v>
       </c>
       <c r="D84" t="n">
-        <v>1.07227</v>
+        <v>1.06266</v>
       </c>
     </row>
     <row r="85">
@@ -4434,13 +4434,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.749326</v>
+        <v>0.7544110000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>0.967936</v>
+        <v>0.9748559999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>1.04683</v>
+        <v>1.03718</v>
       </c>
     </row>
     <row r="86">
@@ -4448,13 +4448,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.738737</v>
+        <v>0.743637</v>
       </c>
       <c r="C86" t="n">
-        <v>0.953696</v>
+        <v>0.9611189999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>1.01806</v>
+        <v>1.01243</v>
       </c>
     </row>
     <row r="87">
@@ -4462,13 +4462,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.728427</v>
+        <v>0.731801</v>
       </c>
       <c r="C87" t="n">
-        <v>0.937663</v>
+        <v>0.945273</v>
       </c>
       <c r="D87" t="n">
-        <v>0.995028</v>
+        <v>0.986676</v>
       </c>
     </row>
     <row r="88">
@@ -4476,13 +4476,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.717936</v>
+        <v>0.7223039999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9208499999999999</v>
+        <v>0.928283</v>
       </c>
       <c r="D88" t="n">
-        <v>0.971387</v>
+        <v>0.9630880000000001</v>
       </c>
     </row>
     <row r="89">
@@ -4490,13 +4490,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.7086519999999999</v>
+        <v>0.711018</v>
       </c>
       <c r="C89" t="n">
-        <v>0.90555</v>
+        <v>0.9106379999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>0.949447</v>
+        <v>0.940752</v>
       </c>
     </row>
     <row r="90">
@@ -4504,13 +4504,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.699688</v>
+        <v>0.701004</v>
       </c>
       <c r="C90" t="n">
-        <v>0.891251</v>
+        <v>0.897838</v>
       </c>
       <c r="D90" t="n">
-        <v>0.921337</v>
+        <v>0.918788</v>
       </c>
     </row>
     <row r="91">
@@ -4518,13 +4518,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.690563</v>
+        <v>0.692318</v>
       </c>
       <c r="C91" t="n">
-        <v>0.878645</v>
+        <v>0.8854919999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>0.906701</v>
+        <v>0.898685</v>
       </c>
     </row>
     <row r="92">
@@ -4532,13 +4532,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.682747</v>
+        <v>0.68329</v>
       </c>
       <c r="C92" t="n">
-        <v>0.867103</v>
+        <v>0.872646</v>
       </c>
       <c r="D92" t="n">
-        <v>0.8823530000000001</v>
+        <v>0.879767</v>
       </c>
     </row>
     <row r="93">
@@ -4546,13 +4546,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.676706</v>
+        <v>0.677731</v>
       </c>
       <c r="C93" t="n">
-        <v>0.861478</v>
+        <v>0.865891</v>
       </c>
       <c r="D93" t="n">
-        <v>0.872872</v>
+        <v>0.865209</v>
       </c>
     </row>
     <row r="94">
@@ -4560,13 +4560,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.673428</v>
+        <v>0.673258</v>
       </c>
       <c r="C94" t="n">
-        <v>1.21304</v>
+        <v>1.21541</v>
       </c>
       <c r="D94" t="n">
-        <v>1.27095</v>
+        <v>1.25835</v>
       </c>
     </row>
     <row r="95">
@@ -4574,13 +4574,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.905788</v>
+        <v>0.908431</v>
       </c>
       <c r="C95" t="n">
-        <v>1.18208</v>
+        <v>1.18536</v>
       </c>
       <c r="D95" t="n">
-        <v>1.25593</v>
+        <v>1.24729</v>
       </c>
     </row>
     <row r="96">
@@ -4588,13 +4588,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.902138</v>
+        <v>0.906532</v>
       </c>
       <c r="C96" t="n">
-        <v>1.15307</v>
+        <v>1.16015</v>
       </c>
       <c r="D96" t="n">
-        <v>1.23521</v>
+        <v>1.23069</v>
       </c>
     </row>
     <row r="97">
@@ -4602,13 +4602,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.893413</v>
+        <v>0.896537</v>
       </c>
       <c r="C97" t="n">
-        <v>1.1245</v>
+        <v>1.13185</v>
       </c>
       <c r="D97" t="n">
-        <v>1.21554</v>
+        <v>1.21233</v>
       </c>
     </row>
     <row r="98">
@@ -4616,13 +4616,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.881754</v>
+        <v>0.885289</v>
       </c>
       <c r="C98" t="n">
-        <v>1.17041</v>
+        <v>1.17418</v>
       </c>
       <c r="D98" t="n">
-        <v>1.19406</v>
+        <v>1.18997</v>
       </c>
     </row>
     <row r="99">
@@ -4630,13 +4630,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.871752</v>
+        <v>0.875385</v>
       </c>
       <c r="C99" t="n">
-        <v>1.15639</v>
+        <v>1.15908</v>
       </c>
       <c r="D99" t="n">
-        <v>1.17724</v>
+        <v>1.16887</v>
       </c>
     </row>
     <row r="100">
@@ -4644,13 +4644,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.861846</v>
+        <v>0.86563</v>
       </c>
       <c r="C100" t="n">
-        <v>1.13609</v>
+        <v>1.14169</v>
       </c>
       <c r="D100" t="n">
-        <v>1.15297</v>
+        <v>1.14741</v>
       </c>
     </row>
     <row r="101">
@@ -4658,13 +4658,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.852129</v>
+        <v>0.855054</v>
       </c>
       <c r="C101" t="n">
-        <v>1.12004</v>
+        <v>1.12237</v>
       </c>
       <c r="D101" t="n">
-        <v>1.13568</v>
+        <v>1.12767</v>
       </c>
     </row>
     <row r="102">
@@ -4672,13 +4672,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.844187</v>
+        <v>0.8471030000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>1.10184</v>
+        <v>1.10699</v>
       </c>
       <c r="D102" t="n">
-        <v>1.11055</v>
+        <v>1.1098</v>
       </c>
     </row>
     <row r="103">
@@ -4686,13 +4686,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.835224</v>
+        <v>0.8381420000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>1.084</v>
+        <v>1.09048</v>
       </c>
       <c r="D103" t="n">
-        <v>1.0986</v>
+        <v>1.09227</v>
       </c>
     </row>
     <row r="104">
@@ -4700,13 +4700,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.828048</v>
+        <v>0.8303469999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>1.06314</v>
+        <v>1.07474</v>
       </c>
       <c r="D104" t="n">
-        <v>1.07833</v>
+        <v>1.07443</v>
       </c>
     </row>
     <row r="105">
@@ -4714,13 +4714,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.8214360000000001</v>
+        <v>0.823785</v>
       </c>
       <c r="C105" t="n">
-        <v>1.05636</v>
+        <v>1.06302</v>
       </c>
       <c r="D105" t="n">
-        <v>1.05598</v>
+        <v>1.05834</v>
       </c>
     </row>
     <row r="106">
@@ -4728,13 +4728,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.815024</v>
+        <v>0.818421</v>
       </c>
       <c r="C106" t="n">
-        <v>1.04114</v>
+        <v>1.05308</v>
       </c>
       <c r="D106" t="n">
-        <v>1.04535</v>
+        <v>1.04485</v>
       </c>
     </row>
     <row r="107">
@@ -4742,13 +4742,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.810812</v>
+        <v>0.8133010000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>1.04359</v>
+        <v>1.04629</v>
       </c>
       <c r="D107" t="n">
-        <v>1.03546</v>
+        <v>1.02995</v>
       </c>
     </row>
     <row r="108">
@@ -4756,13 +4756,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.809109</v>
+        <v>0.81063</v>
       </c>
       <c r="C108" t="n">
-        <v>1.49591</v>
+        <v>1.51048</v>
       </c>
       <c r="D108" t="n">
-        <v>1.43245</v>
+        <v>1.42123</v>
       </c>
     </row>
     <row r="109">
@@ -4770,13 +4770,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.810207</v>
+        <v>0.812357</v>
       </c>
       <c r="C109" t="n">
-        <v>1.46022</v>
+        <v>1.47663</v>
       </c>
       <c r="D109" t="n">
-        <v>1.41573</v>
+        <v>1.41236</v>
       </c>
     </row>
     <row r="110">
@@ -4784,13 +4784,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.03552</v>
+        <v>1.03844</v>
       </c>
       <c r="C110" t="n">
-        <v>1.429</v>
+        <v>1.44068</v>
       </c>
       <c r="D110" t="n">
-        <v>1.40261</v>
+        <v>1.39924</v>
       </c>
     </row>
     <row r="111">
@@ -4798,13 +4798,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.02326</v>
+        <v>1.02598</v>
       </c>
       <c r="C111" t="n">
-        <v>1.41108</v>
+        <v>1.41368</v>
       </c>
       <c r="D111" t="n">
-        <v>1.39202</v>
+        <v>1.38325</v>
       </c>
     </row>
     <row r="112">
@@ -4812,13 +4812,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.01141</v>
+        <v>1.01395</v>
       </c>
       <c r="C112" t="n">
-        <v>1.42857</v>
+        <v>1.44716</v>
       </c>
       <c r="D112" t="n">
-        <v>1.37791</v>
+        <v>1.37238</v>
       </c>
     </row>
     <row r="113">
@@ -4826,13 +4826,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.999787</v>
+        <v>1.00222</v>
       </c>
       <c r="C113" t="n">
-        <v>1.41901</v>
+        <v>1.42047</v>
       </c>
       <c r="D113" t="n">
-        <v>1.35723</v>
+        <v>1.35734</v>
       </c>
     </row>
     <row r="114">
@@ -4840,13 +4840,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.988662</v>
+        <v>0.991499</v>
       </c>
       <c r="C114" t="n">
-        <v>1.39254</v>
+        <v>1.39445</v>
       </c>
       <c r="D114" t="n">
-        <v>1.35156</v>
+        <v>1.34602</v>
       </c>
     </row>
     <row r="115">
@@ -4854,13 +4854,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.978949</v>
+        <v>0.98046</v>
       </c>
       <c r="C115" t="n">
-        <v>1.36977</v>
+        <v>1.37142</v>
       </c>
       <c r="D115" t="n">
-        <v>1.33816</v>
+        <v>1.33411</v>
       </c>
     </row>
     <row r="116">
@@ -4868,13 +4868,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.968689</v>
+        <v>0.970983</v>
       </c>
       <c r="C116" t="n">
-        <v>1.33565</v>
+        <v>1.35356</v>
       </c>
       <c r="D116" t="n">
-        <v>1.3198</v>
+        <v>1.32082</v>
       </c>
     </row>
     <row r="117">
@@ -4882,13 +4882,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.960512</v>
+        <v>0.961599</v>
       </c>
       <c r="C117" t="n">
-        <v>1.32291</v>
+        <v>1.33461</v>
       </c>
       <c r="D117" t="n">
-        <v>1.30459</v>
+        <v>1.31029</v>
       </c>
     </row>
     <row r="118">
@@ -4896,13 +4896,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.9518</v>
+        <v>0.953793</v>
       </c>
       <c r="C118" t="n">
-        <v>1.32019</v>
+        <v>1.32206</v>
       </c>
       <c r="D118" t="n">
-        <v>1.3043</v>
+        <v>1.29929</v>
       </c>
     </row>
     <row r="119">
@@ -4910,13 +4910,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.945635</v>
+        <v>0.947205</v>
       </c>
       <c r="C119" t="n">
-        <v>1.30961</v>
+        <v>1.31417</v>
       </c>
       <c r="D119" t="n">
-        <v>1.29335</v>
+        <v>1.288</v>
       </c>
     </row>
     <row r="120">
@@ -4924,13 +4924,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.939736</v>
+        <v>0.940981</v>
       </c>
       <c r="C120" t="n">
-        <v>1.30445</v>
+        <v>1.30862</v>
       </c>
       <c r="D120" t="n">
-        <v>1.28399</v>
+        <v>1.27785</v>
       </c>
     </row>
     <row r="121">
@@ -4938,13 +4938,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.9347839999999999</v>
+        <v>0.936979</v>
       </c>
       <c r="C121" t="n">
-        <v>1.28577</v>
+        <v>1.30616</v>
       </c>
       <c r="D121" t="n">
-        <v>1.27485</v>
+        <v>1.2716</v>
       </c>
     </row>
     <row r="122">
@@ -4952,13 +4952,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.934001</v>
+        <v>0.934493</v>
       </c>
       <c r="C122" t="n">
-        <v>1.82289</v>
+        <v>1.83273</v>
       </c>
       <c r="D122" t="n">
-        <v>1.26475</v>
+        <v>1.26263</v>
       </c>
     </row>
     <row r="123">
@@ -4966,13 +4966,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.9328689999999999</v>
+        <v>0.934242</v>
       </c>
       <c r="C123" t="n">
-        <v>1.77957</v>
+        <v>1.77887</v>
       </c>
       <c r="D123" t="n">
-        <v>1.6456</v>
+        <v>1.65269</v>
       </c>
     </row>
     <row r="124">
@@ -4980,13 +4980,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.16054</v>
+        <v>1.16224</v>
       </c>
       <c r="C124" t="n">
-        <v>1.73861</v>
+        <v>1.74425</v>
       </c>
       <c r="D124" t="n">
-        <v>1.63119</v>
+        <v>1.63536</v>
       </c>
     </row>
     <row r="125">
@@ -4994,13 +4994,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.1496</v>
+        <v>1.15182</v>
       </c>
       <c r="C125" t="n">
-        <v>1.70146</v>
+        <v>1.70628</v>
       </c>
       <c r="D125" t="n">
-        <v>1.63124</v>
+        <v>1.62333</v>
       </c>
     </row>
     <row r="126">
@@ -5008,13 +5008,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.13943</v>
+        <v>1.14094</v>
       </c>
       <c r="C126" t="n">
-        <v>1.66139</v>
+        <v>1.66666</v>
       </c>
       <c r="D126" t="n">
-        <v>1.61647</v>
+        <v>1.60978</v>
       </c>
     </row>
     <row r="127">
@@ -5022,13 +5022,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.12942</v>
+        <v>1.13045</v>
       </c>
       <c r="C127" t="n">
-        <v>1.6741</v>
+        <v>1.6855</v>
       </c>
       <c r="D127" t="n">
-        <v>1.6025</v>
+        <v>1.59468</v>
       </c>
     </row>
     <row r="128">
@@ -5036,13 +5036,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.11984</v>
+        <v>1.1209</v>
       </c>
       <c r="C128" t="n">
-        <v>1.64426</v>
+        <v>1.65448</v>
       </c>
       <c r="D128" t="n">
-        <v>1.58709</v>
+        <v>1.58397</v>
       </c>
     </row>
     <row r="129">
@@ -5050,13 +5050,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.11108</v>
+        <v>1.11221</v>
       </c>
       <c r="C129" t="n">
-        <v>1.61869</v>
+        <v>1.61966</v>
       </c>
       <c r="D129" t="n">
-        <v>1.57849</v>
+        <v>1.57225</v>
       </c>
     </row>
     <row r="130">
@@ -5064,13 +5064,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.1037</v>
+        <v>1.10372</v>
       </c>
       <c r="C130" t="n">
-        <v>1.58879</v>
+        <v>1.59255</v>
       </c>
       <c r="D130" t="n">
-        <v>1.5622</v>
+        <v>1.56211</v>
       </c>
     </row>
     <row r="131">
@@ -5078,13 +5078,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.09666</v>
+        <v>1.09685</v>
       </c>
       <c r="C131" t="n">
-        <v>1.56415</v>
+        <v>1.5711</v>
       </c>
       <c r="D131" t="n">
-        <v>1.56007</v>
+        <v>1.55679</v>
       </c>
     </row>
     <row r="132">
@@ -5092,13 +5092,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.0906</v>
+        <v>1.09063</v>
       </c>
       <c r="C132" t="n">
-        <v>1.53966</v>
+        <v>1.54879</v>
       </c>
       <c r="D132" t="n">
-        <v>1.55204</v>
+        <v>1.54605</v>
       </c>
     </row>
     <row r="133">
@@ -5106,13 +5106,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.08503</v>
+        <v>1.08495</v>
       </c>
       <c r="C133" t="n">
-        <v>1.52579</v>
+        <v>1.54182</v>
       </c>
       <c r="D133" t="n">
-        <v>1.54196</v>
+        <v>1.53562</v>
       </c>
     </row>
     <row r="134">
@@ -5120,13 +5120,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.08136</v>
+        <v>1.08161</v>
       </c>
       <c r="C134" t="n">
-        <v>1.52032</v>
+        <v>1.53235</v>
       </c>
       <c r="D134" t="n">
-        <v>1.53467</v>
+        <v>1.52764</v>
       </c>
     </row>
     <row r="135">
@@ -5134,13 +5134,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.07958</v>
+        <v>1.07915</v>
       </c>
       <c r="C135" t="n">
-        <v>1.52089</v>
+        <v>1.53257</v>
       </c>
       <c r="D135" t="n">
-        <v>1.52588</v>
+        <v>1.52519</v>
       </c>
     </row>
     <row r="136">
@@ -5148,13 +5148,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.07887</v>
+        <v>1.07913</v>
       </c>
       <c r="C136" t="n">
-        <v>2.08199</v>
+        <v>2.08894</v>
       </c>
       <c r="D136" t="n">
-        <v>1.51897</v>
+        <v>1.51835</v>
       </c>
     </row>
     <row r="137">
@@ -5162,13 +5162,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.08117</v>
+        <v>1.07892</v>
       </c>
       <c r="C137" t="n">
-        <v>2.03243</v>
+        <v>2.03337</v>
       </c>
       <c r="D137" t="n">
-        <v>1.90589</v>
+        <v>1.90316</v>
       </c>
     </row>
     <row r="138">
@@ -5176,13 +5176,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.30584</v>
+        <v>1.30697</v>
       </c>
       <c r="C138" t="n">
-        <v>1.97635</v>
+        <v>1.98119</v>
       </c>
       <c r="D138" t="n">
-        <v>1.88874</v>
+        <v>1.8797</v>
       </c>
     </row>
     <row r="139">
@@ -5190,13 +5190,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.29688</v>
+        <v>1.29913</v>
       </c>
       <c r="C139" t="n">
-        <v>1.92968</v>
+        <v>1.93162</v>
       </c>
       <c r="D139" t="n">
-        <v>1.86744</v>
+        <v>1.85933</v>
       </c>
     </row>
     <row r="140">
@@ -5204,13 +5204,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.28929</v>
+        <v>1.28952</v>
       </c>
       <c r="C140" t="n">
-        <v>1.88412</v>
+        <v>1.88479</v>
       </c>
       <c r="D140" t="n">
-        <v>1.85571</v>
+        <v>1.84155</v>
       </c>
     </row>
     <row r="141">
@@ -5218,13 +5218,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.28372</v>
+        <v>1.28263</v>
       </c>
       <c r="C141" t="n">
-        <v>1.89555</v>
+        <v>1.8974</v>
       </c>
       <c r="D141" t="n">
-        <v>1.83592</v>
+        <v>1.82504</v>
       </c>
     </row>
     <row r="142">
@@ -5232,13 +5232,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.27511</v>
+        <v>1.27483</v>
       </c>
       <c r="C142" t="n">
-        <v>1.85374</v>
+        <v>1.85768</v>
       </c>
       <c r="D142" t="n">
-        <v>1.82489</v>
+        <v>1.80952</v>
       </c>
     </row>
     <row r="143">
@@ -5246,13 +5246,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.26909</v>
+        <v>1.26898</v>
       </c>
       <c r="C143" t="n">
-        <v>1.81601</v>
+        <v>1.8164</v>
       </c>
       <c r="D143" t="n">
-        <v>1.80453</v>
+        <v>1.79141</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running insertion.xlsx
+++ b/clang-x86/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.482556</v>
+        <v>0.481691</v>
       </c>
       <c r="C2" t="n">
-        <v>0.592079</v>
+        <v>0.591659</v>
       </c>
       <c r="D2" t="n">
-        <v>0.717415</v>
+        <v>0.717583</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.469573</v>
+        <v>0.46958</v>
       </c>
       <c r="C3" t="n">
-        <v>0.574899</v>
+        <v>0.574039</v>
       </c>
       <c r="D3" t="n">
-        <v>0.698147</v>
+        <v>0.697638</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.458555</v>
+        <v>0.458333</v>
       </c>
       <c r="C4" t="n">
-        <v>0.558615</v>
+        <v>0.557709</v>
       </c>
       <c r="D4" t="n">
-        <v>0.679465</v>
+        <v>0.679356</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.448998</v>
+        <v>0.449307</v>
       </c>
       <c r="C5" t="n">
-        <v>0.543136</v>
+        <v>0.541959</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6627999999999999</v>
+        <v>0.662161</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.441335</v>
+        <v>0.442144</v>
       </c>
       <c r="C6" t="n">
-        <v>0.529324</v>
+        <v>0.528959</v>
       </c>
       <c r="D6" t="n">
-        <v>0.648238</v>
+        <v>0.647672</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.435904</v>
+        <v>0.43611</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5167580000000001</v>
+        <v>0.516617</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6344109999999999</v>
+        <v>0.634059</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.432545</v>
+        <v>0.433141</v>
       </c>
       <c r="C8" t="n">
-        <v>0.507237</v>
+        <v>0.5070480000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.623884</v>
+        <v>0.623536</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.432195</v>
+        <v>0.432582</v>
       </c>
       <c r="C9" t="n">
-        <v>0.499381</v>
+        <v>0.498898</v>
       </c>
       <c r="D9" t="n">
-        <v>0.929813</v>
+        <v>0.929558</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.568536</v>
+        <v>0.569254</v>
       </c>
       <c r="C10" t="n">
-        <v>0.728851</v>
+        <v>0.727911</v>
       </c>
       <c r="D10" t="n">
-        <v>0.899509</v>
+        <v>0.899066</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.551052</v>
+        <v>0.551738</v>
       </c>
       <c r="C11" t="n">
-        <v>0.704492</v>
+        <v>0.704306</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8708399999999999</v>
+        <v>0.870355</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.535496</v>
+        <v>0.535618</v>
       </c>
       <c r="C12" t="n">
-        <v>0.681436</v>
+        <v>0.681203</v>
       </c>
       <c r="D12" t="n">
-        <v>0.843742</v>
+        <v>0.843123</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.518781</v>
+        <v>0.519817</v>
       </c>
       <c r="C13" t="n">
-        <v>0.659758</v>
+        <v>0.659239</v>
       </c>
       <c r="D13" t="n">
-        <v>0.817678</v>
+        <v>0.817496</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.504393</v>
+        <v>0.505314</v>
       </c>
       <c r="C14" t="n">
-        <v>0.639216</v>
+        <v>0.638553</v>
       </c>
       <c r="D14" t="n">
-        <v>0.792964</v>
+        <v>0.792972</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.490623</v>
+        <v>0.491622</v>
       </c>
       <c r="C15" t="n">
-        <v>0.619625</v>
+        <v>0.619393</v>
       </c>
       <c r="D15" t="n">
-        <v>0.76997</v>
+        <v>0.770014</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.477775</v>
+        <v>0.479051</v>
       </c>
       <c r="C16" t="n">
-        <v>0.601241</v>
+        <v>0.60097</v>
       </c>
       <c r="D16" t="n">
-        <v>0.748151</v>
+        <v>0.748211</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.466916</v>
+        <v>0.467301</v>
       </c>
       <c r="C17" t="n">
-        <v>0.583601</v>
+        <v>0.583859</v>
       </c>
       <c r="D17" t="n">
-        <v>0.727512</v>
+        <v>0.727842</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.456396</v>
+        <v>0.456892</v>
       </c>
       <c r="C18" t="n">
-        <v>0.567346</v>
+        <v>0.567403</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7084009999999999</v>
+        <v>0.708576</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.446302</v>
+        <v>0.447233</v>
       </c>
       <c r="C19" t="n">
-        <v>0.552069</v>
+        <v>0.552256</v>
       </c>
       <c r="D19" t="n">
-        <v>0.690736</v>
+        <v>0.690712</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.438716</v>
+        <v>0.439569</v>
       </c>
       <c r="C20" t="n">
-        <v>0.537725</v>
+        <v>0.538222</v>
       </c>
       <c r="D20" t="n">
-        <v>0.67428</v>
+        <v>0.674882</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.432936</v>
+        <v>0.433766</v>
       </c>
       <c r="C21" t="n">
-        <v>0.525111</v>
+        <v>0.525563</v>
       </c>
       <c r="D21" t="n">
-        <v>0.660518</v>
+        <v>0.661103</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.430485</v>
+        <v>0.431425</v>
       </c>
       <c r="C22" t="n">
-        <v>0.514235</v>
+        <v>0.51469</v>
       </c>
       <c r="D22" t="n">
-        <v>0.649874</v>
+        <v>0.650428</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.43094</v>
+        <v>0.430977</v>
       </c>
       <c r="C23" t="n">
-        <v>0.505449</v>
+        <v>0.505418</v>
       </c>
       <c r="D23" t="n">
-        <v>0.969031</v>
+        <v>0.96785</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.618068</v>
+        <v>0.617965</v>
       </c>
       <c r="C24" t="n">
-        <v>0.782578</v>
+        <v>0.7820820000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.937811</v>
+        <v>0.936926</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.599837</v>
+        <v>0.599359</v>
       </c>
       <c r="C25" t="n">
-        <v>0.757243</v>
+        <v>0.756258</v>
       </c>
       <c r="D25" t="n">
-        <v>0.907643</v>
+        <v>0.907647</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.582037</v>
+        <v>0.581514</v>
       </c>
       <c r="C26" t="n">
-        <v>0.732626</v>
+        <v>0.731888</v>
       </c>
       <c r="D26" t="n">
-        <v>0.880197</v>
+        <v>0.878543</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.564411</v>
+        <v>0.564043</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7084279999999999</v>
+        <v>0.708224</v>
       </c>
       <c r="D27" t="n">
-        <v>0.851963</v>
+        <v>0.851313</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.548381</v>
+        <v>0.547766</v>
       </c>
       <c r="C28" t="n">
-        <v>0.686266</v>
+        <v>0.685258</v>
       </c>
       <c r="D28" t="n">
-        <v>0.826914</v>
+        <v>0.825858</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.532431</v>
+        <v>0.532366</v>
       </c>
       <c r="C29" t="n">
-        <v>0.664295</v>
+        <v>0.664333</v>
       </c>
       <c r="D29" t="n">
-        <v>0.802613</v>
+        <v>0.801852</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.518548</v>
+        <v>0.517941</v>
       </c>
       <c r="C30" t="n">
-        <v>0.644859</v>
+        <v>0.644054</v>
       </c>
       <c r="D30" t="n">
-        <v>0.779934</v>
+        <v>0.779421</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.50368</v>
+        <v>0.504643</v>
       </c>
       <c r="C31" t="n">
-        <v>0.625101</v>
+        <v>0.625061</v>
       </c>
       <c r="D31" t="n">
-        <v>0.758028</v>
+        <v>0.757567</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.491262</v>
+        <v>0.492365</v>
       </c>
       <c r="C32" t="n">
-        <v>0.606691</v>
+        <v>0.606953</v>
       </c>
       <c r="D32" t="n">
-        <v>0.738028</v>
+        <v>0.737524</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.481349</v>
+        <v>0.48109</v>
       </c>
       <c r="C33" t="n">
-        <v>0.590512</v>
+        <v>0.59016</v>
       </c>
       <c r="D33" t="n">
-        <v>0.718989</v>
+        <v>0.7185589999999999</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.471791</v>
+        <v>0.471074</v>
       </c>
       <c r="C34" t="n">
-        <v>0.574865</v>
+        <v>0.574589</v>
       </c>
       <c r="D34" t="n">
-        <v>0.702234</v>
+        <v>0.701862</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.463976</v>
+        <v>0.463731</v>
       </c>
       <c r="C35" t="n">
-        <v>0.560486</v>
+        <v>0.560006</v>
       </c>
       <c r="D35" t="n">
-        <v>0.687206</v>
+        <v>0.686843</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.458403</v>
+        <v>0.458276</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5477109999999999</v>
+        <v>0.54758</v>
       </c>
       <c r="D36" t="n">
-        <v>0.672805</v>
+        <v>0.674336</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.458352</v>
+        <v>0.455511</v>
       </c>
       <c r="C37" t="n">
-        <v>0.537618</v>
+        <v>0.5376379999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>0.998756</v>
+        <v>0.998198</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.64972</v>
+        <v>0.648807</v>
       </c>
       <c r="C38" t="n">
-        <v>0.817281</v>
+        <v>0.816508</v>
       </c>
       <c r="D38" t="n">
-        <v>0.966669</v>
+        <v>0.966418</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.630582</v>
+        <v>0.630041</v>
       </c>
       <c r="C39" t="n">
-        <v>0.790397</v>
+        <v>0.790863</v>
       </c>
       <c r="D39" t="n">
-        <v>0.937141</v>
+        <v>0.936073</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.611271</v>
+        <v>0.610911</v>
       </c>
       <c r="C40" t="n">
-        <v>0.764748</v>
+        <v>0.765392</v>
       </c>
       <c r="D40" t="n">
-        <v>0.907037</v>
+        <v>0.907045</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.593641</v>
+        <v>0.592899</v>
       </c>
       <c r="C41" t="n">
-        <v>0.7419519999999999</v>
+        <v>0.739324</v>
       </c>
       <c r="D41" t="n">
-        <v>0.880541</v>
+        <v>0.879476</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.576749</v>
+        <v>0.575808</v>
       </c>
       <c r="C42" t="n">
-        <v>0.718307</v>
+        <v>0.717009</v>
       </c>
       <c r="D42" t="n">
-        <v>0.854665</v>
+        <v>0.853087</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.560698</v>
+        <v>0.558644</v>
       </c>
       <c r="C43" t="n">
-        <v>0.695519</v>
+        <v>0.694516</v>
       </c>
       <c r="D43" t="n">
-        <v>0.829552</v>
+        <v>0.8279</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.543377</v>
+        <v>0.542011</v>
       </c>
       <c r="C44" t="n">
-        <v>0.674546</v>
+        <v>0.673191</v>
       </c>
       <c r="D44" t="n">
-        <v>0.805163</v>
+        <v>0.804431</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.531261</v>
+        <v>0.528156</v>
       </c>
       <c r="C45" t="n">
-        <v>0.655416</v>
+        <v>0.65341</v>
       </c>
       <c r="D45" t="n">
-        <v>0.783574</v>
+        <v>0.782748</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.518212</v>
+        <v>0.516979</v>
       </c>
       <c r="C46" t="n">
-        <v>0.636801</v>
+        <v>0.635608</v>
       </c>
       <c r="D46" t="n">
-        <v>0.763258</v>
+        <v>0.762155</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5068279999999999</v>
+        <v>0.50397</v>
       </c>
       <c r="C47" t="n">
-        <v>0.618045</v>
+        <v>0.616441</v>
       </c>
       <c r="D47" t="n">
-        <v>0.742947</v>
+        <v>0.7420949999999999</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.494357</v>
+        <v>0.494878</v>
       </c>
       <c r="C48" t="n">
-        <v>0.602083</v>
+        <v>0.600607</v>
       </c>
       <c r="D48" t="n">
-        <v>0.72482</v>
+        <v>0.723554</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.4877</v>
+        <v>0.48691</v>
       </c>
       <c r="C49" t="n">
-        <v>0.587251</v>
+        <v>0.585068</v>
       </c>
       <c r="D49" t="n">
-        <v>0.709311</v>
+        <v>0.708465</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.480163</v>
+        <v>0.478021</v>
       </c>
       <c r="C50" t="n">
-        <v>0.573468</v>
+        <v>0.572915</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6952469999999999</v>
+        <v>0.694595</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.47696</v>
+        <v>0.475024</v>
       </c>
       <c r="C51" t="n">
-        <v>0.561382</v>
+        <v>0.561805</v>
       </c>
       <c r="D51" t="n">
-        <v>1.02887</v>
+        <v>1.02756</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.475506</v>
+        <v>0.475543</v>
       </c>
       <c r="C52" t="n">
-        <v>0.553096</v>
+        <v>0.552812</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9964769999999999</v>
+        <v>0.99581</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.65834</v>
+        <v>0.657967</v>
       </c>
       <c r="C53" t="n">
-        <v>0.821846</v>
+        <v>0.820676</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9656400000000001</v>
+        <v>0.964499</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.639303</v>
+        <v>0.638664</v>
       </c>
       <c r="C54" t="n">
-        <v>0.796098</v>
+        <v>0.795045</v>
       </c>
       <c r="D54" t="n">
-        <v>0.937882</v>
+        <v>0.9352279999999999</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.620672</v>
+        <v>0.620851</v>
       </c>
       <c r="C55" t="n">
-        <v>0.773769</v>
+        <v>0.769544</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9095839999999999</v>
+        <v>0.908029</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.603788</v>
+        <v>0.603768</v>
       </c>
       <c r="C56" t="n">
-        <v>0.747765</v>
+        <v>0.746644</v>
       </c>
       <c r="D56" t="n">
-        <v>0.883317</v>
+        <v>0.881781</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.587912</v>
+        <v>0.587929</v>
       </c>
       <c r="C57" t="n">
-        <v>0.725402</v>
+        <v>0.7242499999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.8573809999999999</v>
+        <v>0.857092</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.573384</v>
+        <v>0.572492</v>
       </c>
       <c r="C58" t="n">
-        <v>0.70381</v>
+        <v>0.702247</v>
       </c>
       <c r="D58" t="n">
-        <v>0.834205</v>
+        <v>0.833163</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.558423</v>
+        <v>0.558904</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6833360000000001</v>
+        <v>0.683725</v>
       </c>
       <c r="D59" t="n">
-        <v>0.811402</v>
+        <v>0.812068</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.545425</v>
+        <v>0.5463789999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.664317</v>
+        <v>0.66518</v>
       </c>
       <c r="D60" t="n">
-        <v>0.790122</v>
+        <v>0.790826</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.53271</v>
+        <v>0.534578</v>
       </c>
       <c r="C61" t="n">
-        <v>0.645553</v>
+        <v>0.647674</v>
       </c>
       <c r="D61" t="n">
-        <v>0.770299</v>
+        <v>0.771635</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.522989</v>
+        <v>0.523786</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6290750000000001</v>
+        <v>0.6317469999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.751895</v>
+        <v>0.7541</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.513907</v>
+        <v>0.515429</v>
       </c>
       <c r="C63" t="n">
-        <v>0.61474</v>
+        <v>0.615704</v>
       </c>
       <c r="D63" t="n">
-        <v>0.735201</v>
+        <v>0.736691</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.506949</v>
+        <v>0.50642</v>
       </c>
       <c r="C64" t="n">
-        <v>0.600104</v>
+        <v>0.599712</v>
       </c>
       <c r="D64" t="n">
-        <v>0.721635</v>
+        <v>0.720552</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.502867</v>
+        <v>0.5029090000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>0.590814</v>
+        <v>0.587726</v>
       </c>
       <c r="D65" t="n">
-        <v>0.710618</v>
+        <v>0.709264</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.501368</v>
+        <v>0.500766</v>
       </c>
       <c r="C66" t="n">
-        <v>0.578163</v>
+        <v>0.576137</v>
       </c>
       <c r="D66" t="n">
-        <v>1.05244</v>
+        <v>1.04738</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.717642</v>
+        <v>0.713287</v>
       </c>
       <c r="C67" t="n">
-        <v>0.885647</v>
+        <v>0.8812680000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>1.01907</v>
+        <v>1.01478</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.699291</v>
+        <v>0.695477</v>
       </c>
       <c r="C68" t="n">
-        <v>0.858167</v>
+        <v>0.853086</v>
       </c>
       <c r="D68" t="n">
-        <v>0.989697</v>
+        <v>0.984471</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.684304</v>
+        <v>0.678808</v>
       </c>
       <c r="C69" t="n">
-        <v>0.834303</v>
+        <v>0.828577</v>
       </c>
       <c r="D69" t="n">
-        <v>0.960645</v>
+        <v>0.9573120000000001</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6682399999999999</v>
+        <v>0.665154</v>
       </c>
       <c r="C70" t="n">
-        <v>0.80855</v>
+        <v>0.806918</v>
       </c>
       <c r="D70" t="n">
-        <v>0.933626</v>
+        <v>0.930627</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.653293</v>
+        <v>0.649984</v>
       </c>
       <c r="C71" t="n">
-        <v>0.786231</v>
+        <v>0.784131</v>
       </c>
       <c r="D71" t="n">
-        <v>0.908234</v>
+        <v>0.9053369999999999</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6392640000000001</v>
+        <v>0.637114</v>
       </c>
       <c r="C72" t="n">
-        <v>0.764422</v>
+        <v>0.763868</v>
       </c>
       <c r="D72" t="n">
-        <v>0.883875</v>
+        <v>0.88329</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.624327</v>
+        <v>0.6248089999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>0.741333</v>
+        <v>0.741913</v>
       </c>
       <c r="D73" t="n">
-        <v>0.859921</v>
+        <v>0.859642</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.61149</v>
+        <v>0.611839</v>
       </c>
       <c r="C74" t="n">
-        <v>0.720932</v>
+        <v>0.721411</v>
       </c>
       <c r="D74" t="n">
-        <v>0.837773</v>
+        <v>0.837344</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5989719999999999</v>
+        <v>0.599409</v>
       </c>
       <c r="C75" t="n">
-        <v>0.702936</v>
+        <v>0.70234</v>
       </c>
       <c r="D75" t="n">
-        <v>0.81665</v>
+        <v>0.816532</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.587409</v>
+        <v>0.58745</v>
       </c>
       <c r="C76" t="n">
-        <v>0.684871</v>
+        <v>0.684729</v>
       </c>
       <c r="D76" t="n">
-        <v>0.797821</v>
+        <v>0.797763</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.578393</v>
+        <v>0.575966</v>
       </c>
       <c r="C77" t="n">
-        <v>0.669217</v>
+        <v>0.666722</v>
       </c>
       <c r="D77" t="n">
-        <v>0.78089</v>
+        <v>0.778627</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5696909999999999</v>
+        <v>0.567561</v>
       </c>
       <c r="C78" t="n">
-        <v>0.653959</v>
+        <v>0.651475</v>
       </c>
       <c r="D78" t="n">
-        <v>0.765391</v>
+        <v>0.7634030000000001</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.563788</v>
+        <v>0.561952</v>
       </c>
       <c r="C79" t="n">
-        <v>0.640916</v>
+        <v>0.6394919999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>0.751935</v>
+        <v>0.750529</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.559697</v>
+        <v>0.557301</v>
       </c>
       <c r="C80" t="n">
-        <v>0.631517</v>
+        <v>0.627771</v>
       </c>
       <c r="D80" t="n">
-        <v>1.12875</v>
+        <v>1.12704</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.791283</v>
+        <v>0.789655</v>
       </c>
       <c r="C81" t="n">
-        <v>0.968903</v>
+        <v>0.967215</v>
       </c>
       <c r="D81" t="n">
-        <v>1.10865</v>
+        <v>1.10782</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.78427</v>
+        <v>0.7828310000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9533740000000001</v>
+        <v>0.9527330000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>1.0865</v>
+        <v>1.08568</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.774494</v>
+        <v>0.773583</v>
       </c>
       <c r="C83" t="n">
-        <v>0.935764</v>
+        <v>0.935141</v>
       </c>
       <c r="D83" t="n">
-        <v>1.06264</v>
+        <v>1.06233</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.76358</v>
+        <v>0.7638470000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>0.915194</v>
+        <v>0.915097</v>
       </c>
       <c r="D84" t="n">
-        <v>1.03848</v>
+        <v>1.03784</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.753156</v>
+        <v>0.753314</v>
       </c>
       <c r="C85" t="n">
-        <v>0.894742</v>
+        <v>0.8945149999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>1.01332</v>
+        <v>1.01402</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.742559</v>
+        <v>0.742814</v>
       </c>
       <c r="C86" t="n">
-        <v>0.874387</v>
+        <v>0.8744499999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>0.988783</v>
+        <v>0.988805</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.731487</v>
+        <v>0.731553</v>
       </c>
       <c r="C87" t="n">
-        <v>0.854005</v>
+        <v>0.853772</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9643969999999999</v>
+        <v>0.963849</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.7215240000000001</v>
+        <v>0.720448</v>
       </c>
       <c r="C88" t="n">
-        <v>0.835091</v>
+        <v>0.833127</v>
       </c>
       <c r="D88" t="n">
-        <v>0.941489</v>
+        <v>0.939995</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.710896</v>
+        <v>0.709854</v>
       </c>
       <c r="C89" t="n">
-        <v>0.815955</v>
+        <v>0.81469</v>
       </c>
       <c r="D89" t="n">
-        <v>0.919339</v>
+        <v>0.917012</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.700913</v>
+        <v>0.698977</v>
       </c>
       <c r="C90" t="n">
-        <v>0.797872</v>
+        <v>0.795597</v>
       </c>
       <c r="D90" t="n">
-        <v>0.896778</v>
+        <v>0.895846</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.691795</v>
+        <v>0.6901620000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>0.780502</v>
+        <v>0.778954</v>
       </c>
       <c r="D91" t="n">
-        <v>0.877807</v>
+        <v>0.877281</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.683761</v>
+        <v>0.682291</v>
       </c>
       <c r="C92" t="n">
-        <v>0.765259</v>
+        <v>0.764505</v>
       </c>
       <c r="D92" t="n">
-        <v>0.860534</v>
+        <v>0.8604810000000001</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.6770659999999999</v>
+        <v>0.6768189999999999</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7508</v>
+        <v>0.750298</v>
       </c>
       <c r="D93" t="n">
-        <v>0.8448329999999999</v>
+        <v>0.84505</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.672392</v>
+        <v>0.672496</v>
       </c>
       <c r="C94" t="n">
-        <v>0.739089</v>
+        <v>0.7390330000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>1.22963</v>
+        <v>1.22852</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9075260000000001</v>
+        <v>0.905663</v>
       </c>
       <c r="C95" t="n">
-        <v>1.08058</v>
+        <v>1.07993</v>
       </c>
       <c r="D95" t="n">
-        <v>1.21955</v>
+        <v>1.21896</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.9042750000000001</v>
+        <v>0.90343</v>
       </c>
       <c r="C96" t="n">
-        <v>1.07317</v>
+        <v>1.07323</v>
       </c>
       <c r="D96" t="n">
-        <v>1.20395</v>
+        <v>1.20525</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.894221</v>
+        <v>0.894612</v>
       </c>
       <c r="C97" t="n">
-        <v>1.05609</v>
+        <v>1.05706</v>
       </c>
       <c r="D97" t="n">
-        <v>1.18604</v>
+        <v>1.18377</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.884898</v>
+        <v>0.884088</v>
       </c>
       <c r="C98" t="n">
-        <v>1.04036</v>
+        <v>1.03751</v>
       </c>
       <c r="D98" t="n">
-        <v>1.16542</v>
+        <v>1.16301</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.874664</v>
+        <v>0.874171</v>
       </c>
       <c r="C99" t="n">
-        <v>1.02114</v>
+        <v>1.02087</v>
       </c>
       <c r="D99" t="n">
-        <v>1.144</v>
+        <v>1.14284</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.863872</v>
+        <v>0.8648400000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>1.00419</v>
+        <v>1.00199</v>
       </c>
       <c r="D100" t="n">
-        <v>1.12582</v>
+        <v>1.12298</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.853859</v>
+        <v>0.855261</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9886200000000001</v>
+        <v>0.987225</v>
       </c>
       <c r="D101" t="n">
-        <v>1.10669</v>
+        <v>1.10728</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.845359</v>
+        <v>0.8461419999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9729</v>
+        <v>0.97355</v>
       </c>
       <c r="D102" t="n">
-        <v>1.08726</v>
+        <v>1.08909</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.835539</v>
+        <v>0.838269</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9555630000000001</v>
+        <v>0.959422</v>
       </c>
       <c r="D103" t="n">
-        <v>1.07104</v>
+        <v>1.07132</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.829017</v>
+        <v>0.830769</v>
       </c>
       <c r="C104" t="n">
-        <v>0.943241</v>
+        <v>0.9471540000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>1.05485</v>
+        <v>1.05755</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.821622</v>
+        <v>0.823654</v>
       </c>
       <c r="C105" t="n">
-        <v>0.930436</v>
+        <v>0.933884</v>
       </c>
       <c r="D105" t="n">
-        <v>1.04033</v>
+        <v>1.04227</v>
       </c>
    